--- a/disasterinfosite/data/snuggets.xlsx
+++ b/disasterinfosite/data/snuggets.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinda/seattle-ready/disasterinfosite/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="13360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="snuggets.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -181,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="359">
   <si>
     <t>section</t>
   </si>
@@ -432,9 +427,6 @@
     <t>During</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;b&gt;INDOORS&lt;/b&gt; - STAY THERE! Take cover under a sturdy desk or table away from objects that could fall on you and hold on. DON'T run outside before shaking stops. &lt;br&gt; &lt;b&gt;OUTSIDE&lt;/b&gt; - GET INTO THE OPEN away from buildings&amp;#44; power lines&amp;#44; chimneys&amp;#44; or things that could fall on you. &lt;br&gt;&lt;b&gt;DRIVING&lt;/b&gt; - CAREFULLY STOP (not under a bridge&amp;#44; overpass&amp;#44; power lines&amp;#44; etc.) and STAY INSIDE VEHICLE.&lt;br&gt;&lt;b&gt;NEAR THE OCEAN&lt;/b&gt; - Follow guidelines above until shaking stops. Then HEAD FOR HIGH GROUND.&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/EQ_during.jpg" alt="This is a panel of four cartoon images showing what to do during an earthquake if inside&amp;#44; outside&amp;#44; driving&amp;#44; or near the ocean." title="During Earthquake Image"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>After</t>
   </si>
   <si>
@@ -834,12 +826,6 @@
     <t>Flood_kingco</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;ul&gt;&lt;li&gt;Listen to the news and gather emergency items (warm clothes&amp;#44; flashlight&amp;#44; cell phone&amp;#44; portable radio&amp;#44; etc).&lt;/li&gt;&lt;li&gt;If advised&amp;#44; evacuate to higher ground.&lt;/li&gt;&lt;li&gt;DO NOT wade or drive through floodwaters. It only takes 6 inches of moving water to knock you down and 2 feet to sweep a car away!&lt;/li&gt; &lt;li&gt;If time permits&amp;#44; shut off utilities&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Flood_during.jpg" alt="This is a panel of four cartoon images showing what to do during an a flood colect essentials&amp;#44; get to high ground&amp;#44; avoid water&amp;#44; and shutt off utilities." title="During Flood Image"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;ul&gt;&lt;li&gt;If your home has been flooded&amp;#44; be wary reentering it as it could have structural damage.&lt;/li&gt;&lt;li&gt;Have a professional check utilities before turning them back on.&lt;/li&gt;&lt;li&gt;Document losses by photographing damages and recording repair costs.&lt;/li&gt;&lt;li&gt; Find out more &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/flooding/prepare.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;</t>
-  </si>
-  <si>
     <t>Flood_nearest_sand_distr</t>
   </si>
   <si>
@@ -873,9 +859,6 @@
     <t>aub</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;1305 C St. SW &lt;br&gt; Auburn&amp;#44; WA 98001&lt;br&gt; M-F 6:30am - 4:00pm&amp;#44; sandbag and sand pickup are available by request (call 253-931-3048).""</t>
-  </si>
-  <si>
     <t>sknt</t>
   </si>
   <si>
@@ -948,12 +931,6 @@
     <t>Do you hear sounds of cracking wood&amp;#44; boulders knocking together&amp;#44; the groaning of ground? Do you see cracks in the landscape and downslope movement of land&amp;#44; rocks&amp;#44; and vegetation? It could be a landslide. Move to stable ground.</t>
   </si>
   <si>
-    <t>&lt;p&gt;(1) ASSESS: If the area around your home may be prone to landslides seek advice of geotechnical experts. They can evaluate landslide hazard and/or design corrective techniques to reduce landslide risk.&lt;br&gt;(2) REDUCE RISK: Plant ground cover on slopes and/or build a retaining wall to stabilize hillsides&lt;br&gt; (3) PREPARE: Make a supply kit and family plan designating at least two evacuation routes&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;BE PREPARED FOR FLOODING (landslides often block rivers and can cause rivers to back up and flood).&lt;ul&gt;&lt;li&gt; Stay away from the slide. Other slides can occur after the main slide.&lt;/li&gt;&lt;li&gt; Once it's safe&amp;#44; check for injured and trapped people.&lt;/li&gt;&lt;li&gt; Check for damaged utility lines and report any damage to your utility company.&lt;/li&gt;&lt;li&gt;Listen to local media or NOAA Weather Radio for current information.&lt;/li&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;For more information check out the Department of Natural Resources page on &lt;a href=http://www.dnr.wa.gov/programs-and-services/geology/geologic-hazards/landslides#some-historic-landslides-in-washington-state target=_blank&gt;landslides&lt;/a&gt; and &lt;a href=http://file.dnr.wa.gov/publications/ger_fs_landslide_hazards.pdf target=_blank&gt;landslide hazards&lt;/a&gt;. For landslides in your neighborhood&amp;#44; contact your local office of emergency management (OEM).&lt;/p&gt;&lt;p&gt;&lt;b&gt;King County OEM:&lt;/b&gt; 206.296.3830 &lt;br&gt;&lt;b&gt;City of Seattle OEM:&lt;/b&gt; 206.233.5076&lt;/p&gt;</t>
   </si>
   <si>
@@ -1002,12 +979,6 @@
     <t>Do you smell or see smoke? Has it been a stretch of dry weather? It could be a wildfire. Steer clear of active fires and if you see one start call 9-1-1 to report it.</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;ul&gt;&lt;li&gt;Stay tuned to local emergency alerts on the radio and/or television.&lt;/li&gt;&lt;li&gt;Be ready to evacuate if necessary.&lt;/li&gt;&lt;li&gt;Remove combustible materials from around your property (lawn chairs&amp;#44; tables&amp;#44; etc.).&lt;/li&gt;&lt;li&gt;Move upholstered furniture away from windows.&lt;/li&gt;&lt;li&gt;Close doors and windows&amp;#44; but do not lock them.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Fire_during.jpg" alt="This is an icon of an exclaimation point with two triangles behind it" title="During Fire Image"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Return to your home once authorities say it is safe.  Use caution when entering burned areas as hazards may still exist. Check and re-check for smoke or hidden embers. Photograph damage for insurance purposes.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>If you think your property could be at risk King County has information for landowners&amp;#44; incentive programs&amp;#44; and host training workshops. You can find out more &lt;a href=http://www.kingcounty.gov/environment/water-and-land/forestry.aspx" target=_blank&gt;here&lt;/a&gt;.</t>
   </si>
   <si>
@@ -1062,25 +1033,10 @@
     <t>Volcanoes typically provide warning signals days to months before they erupt.&lt;b&gt; Gas and earthquake activity increases and the ground surface swells as magma moves beneath it.&lt;/b&gt; Though these signs may be imperceptible to the general public&amp;#44; Mount Rainier is monitored continuously by scientists with the &lt;a href=http://volcanoes.usgs.gov/volcanoes/mount_rainier/ target=_blank&gt;USGS Volcano Hazards Program&lt;/a&gt;.</t>
   </si>
   <si>
-    <t>&lt;p&gt;(1) ASK: Find out what steps local officials have taken to prepare for volcanic events. Ask public officials what their plan is and how they will communicate with you during an event. You can do this by contacting the King County &lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=_blank&gt; Office of Emergency Management&lt;/a&gt;.&lt;br&gt;(2) PLAN: Talk to your friends and neighbors. If you are in a high risk zone&amp;#44; decide where you would go&amp;#44; what you would bring&amp;#44; and who you would contact.&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;During an eruption&amp;#44; listen to the news for emergency updates and follow emergency instructions.&lt;br&gt;&lt;b&gt;IN LAHAR ZONE&lt;/b&gt; - Get to higher ground immediately.&lt;br&gt;&lt;b&gt;OUTSIDE&lt;/b&gt;- Cover your mouth&amp;#44; nose&amp;#44; and body to avoid irritation. Find shelter. &lt;br&gt;&lt;b&gt; INSIDE&lt;/b&gt; -Keep doors and vents in home closed and stay indoors&amp;#44; unless directed otherwise. Place damp towels at door thresholds and tape drafty windows. Keep car and truck engines off to avoid damage from ash congestion. Protect animals and machinery by bringing them inside or in a covered area.&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Volcano_during.jpg" alt="This is an panel of three images of what to do during a volcanic eruption or lahar. In lahar zone&amp;#44; outside&amp;#44; inside." title="During Volcano Image"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; After the immediate danger from an eruption has subsided&amp;#44; cleaning up the ashfall will be the main event.&lt;br&gt;  &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/MtStHel_Yakima_graders.jpg" alt="This image shows two graders shoveling inches of ashfall from Saint Helens' eruption" title="Ashfall Cleanup in Yakima After Mt. Saint Helens"&gt;&lt;ul&gt;&lt;li&gt;Wear goggles and a face mask when outside. Air quality will be poor.&lt;/li&gt;&lt;li&gt;Avoid running vehicle engines.&lt;/li&gt;&lt;li&gt; If you must drive&amp;#44; keep speeds low (&lt;35 MPH) and check oil&amp;#44; oil filters&amp;#44; and air filters frequently&lt;/li&gt;&lt;li&gt;Ashfall is very heavy and can cause buildings to collapse. If safe to do so&amp;#44; clear ash from roofs and rain gutters.&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt; You can learn more about Mount Rainier and the potential hazards from a number of sources: &lt;ul&gt;&lt;li&gt;&lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/ target=_blank&gt;Monitoring and other information&lt;/a&gt; - U.S. Geological Survey&lt;/li&gt;&lt;li&gt;&lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=blank&gt;General King County Information&lt;/a&gt; - King County&lt;li&gt;&lt;a href=https://www.nps.gov/mora/planyourvisit/geohazards.htm target=_blank&gt;Geohazards at Rainier&lt;/a&gt; - National Parks Service&lt;/li&gt;&lt;li&gt;&lt;a href=http://www.pnsn.org/volcanoes/mount-rainier target=_blank&gt;Earthquakes near Rainier&lt;/a&gt; - Pacific Northwest Seismic Network&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt; Mount Rainier has had a long history of &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_eruption_history.html target=_blank&gt;eruptions&lt;/a&gt; and &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_lahars.html target=_blank&gt;lahars&lt;/a&gt;.About 500 years ago the Electron Mudflow surged downhill travelling through Puyallup and as far as Sumner&amp;#44; WA. In the thousands of years before that many lahars travelled along local rivers reaching as far as Auburn.  &lt;b&gt;Some towns (NE Tacoma&amp;#44; Orting&amp;#44; and Puyallup) are built on historical lahar deposits.&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(1) PRACTICE: Be aware and practice "Drop&amp;#44; Cover&amp;#44; and Hold On" &lt;br&gt; (2) PLAN: Make a family plan (&lt;a href=http://www.fema.gov/media-library-data/0e3ef555f66e22ab832e284f826c2e9e/FEMA_plan_parent_508_071513.pdf target="_blank"&gt;for adults&lt;/a&gt; &amp;amp; &lt;a href=http://www.fema.gov/media-library-data/a260e5fb242216dc62ae380946806677/FEMA_plan_child_508_071513.pdf target="_blank"&gt;for kids&lt;/a&gt;) and build a &lt;a href=http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf target="_blank"&gt;supply kit&lt;/a&gt; &lt;br&gt; (3) PREPARE: Secure items that could fall and know the location of utility shut offs.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;PREPARE FOR AFTERSHOCKS (earthquakes that follow the main shock are common and can cause more damage than initial quake). &lt;ul&gt;&lt;li&gt;Check yourself and others for injuries.&lt;/li&gt;&lt;li&gt;Once safe&amp;#44; check news reports via battery operated radio&amp;#44; TV&amp;#44; social media&amp;#44; and cell phone text alerts for emergency information.&lt;/li&gt;&lt;li&gt;Phone lines will be overwhelmed&amp;#44; texting can be a good way to communicate with family.&lt;/li&gt;&lt;li&gt;Emergency responders will be busy. Depend on your friends and neighbors for support during the hours and days following an earthquake.&lt;/li&gt;&lt;li&gt;Control utilities if necessary. Find out more about when and how to &lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target="_blank"&gt; control gas and water after an earthquake&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt; Watch this &lt;a href=https://www.fema.gov/media-library/assets/videos/98767 target="_blank"&gt;video&lt;/a&gt; to find out more about what to do DURING and AFTER and earthquake.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;This is outside the high-risk flood areas &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(source)&lt;/a&gt;. BUT if you live near a creek or small river be aware that it could flood too. See the &lt;a href=http://www.kingcounty.gov/depts/dnrp/wlr/sections-programs/river-floodplain-section.aspx target=_blank&gt;River and Floodplain Management website&lt;/a&gt; for more information. &lt;/p&gt;</t>
@@ -1161,76 +1117,68 @@
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Climate.jpg" alt="This is an icon of the earth with a thermometer in the top left" title="Climate Change Icon"&gt;</t>
   </si>
   <si>
-    <t>Severe storms are expected to increase in the next 50 years.They will bring with them rain and snow. Rivers will have higher flows leading to more flooding in the Fall/Winter. Click the image to find out more. &lt;br&gt;
-&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx"&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Rivers.jpg" alt="Climate Change Rivers Infographic" width="300" height="268"  border="0" target=_blank&gt;
-&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Landslides often happen along ocean-side bluffs from waves buffeting coastlines. Puget Sound waters have risen 8 inches since 1913. With higher water levels the potential for bluff erosion will increase. Excess rain from severe storms could also weaken steep slopes triggering more landslides in King County. Click the image to find out more. &lt;br&gt;
-&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx"&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storms Infographic" width="300" height="256"  border="0" target=_blank&gt;
-&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>The number of wildfires in the Pacific Northwest has already increased significantly in the last few decades. This trend is likely to continue with drier and stormier summers (think lightning that sparks fires). Large areas of forest could burn and put smoke into the air. Click the image to find out more. &lt;br&gt;
-&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx"&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Forests.jpg" alt="Climate Change Forest Infographic" width="300" height="300" border="0" target=_blank&gt;
-&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(1) PLAN: Make a plan of what to do and where to go if waters rise. Have essential items ready (birth certificates&amp;#44; important documents&amp;#44; photos&amp;#44; etc). Acquire flood insurance if you need it. &lt;br&gt; (2) PREPARE: Store valuables and household chemicals above flood levels and learn how to turn off utilities (&lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target=_blank&gt;water&amp;#44; gas&amp;#44; and electricity&lt;/a&gt;).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Staying out of the path of a landslide or debris flow is your best protection. The U.S. Geological Survey also recommend the following&amp;#44; &lt;ul&gt;&lt;li&gt;Stay alert and listen for unusual sounds. Be aware that intense&amp;#44; short bursts of rain may be particularly dangerous&amp;#44; especially after longer periods of heavy rainfall and damp weather.&lt;/li&gt;&lt;li&gt;If you are in areas susceptible to landslides and debris flows&amp;#44; consider leaving if it is safe to do so.  If you decide to stay home&amp;#44; move to a second story if possible.&lt;/li&gt;&lt;li&gt;If you are near a stream or channel&amp;#44; be alert for any sudden increase or decrease in water flow and for a change from clear to muddy water. These could indicate landslide activity upstream&amp;#44; so be prepared to move quickly. Don't delay! Save yourself&amp;#44; not your belongings.&lt;/li&gt;&lt;li&gt;If escape is not possible&amp;#44; curl into a tight ball and protect your head.&lt;/li&gt;&lt;/ul&gt; You can find more landslide tips from USGS &lt;a href=http://landslides.usgs.gov/learn/prepare.php target=_blank&gt;here&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;No landslides have been identified here (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;). Landslides are most common on barren&amp;#44; steep slopes where drainages come together. If you live below an area like this be aware of your risks (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
   </si>
   <si>
-    <t>It can take only a few sunny days for forests to dry out enough to catch fire. In windy conditions&amp;#44; wildfires can get out of control quickly. Before wildfire strikes&amp;#44; protect lives and property by creating a fire-adapted space around your home&amp;#44; shed&amp;#44; and business. To find out how check out &lt;a href=http://www.firewise.org/wildfire-preparedness.aspx target=_blank&gt;firewise.org&lt;/a&gt;.&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Firewise_Brochure.jpg" alt="This is an image of ways to prevent wildfire around your home. They include screening decks&amp;#44; pruning trees 6-10 feet from the ground&amp;#44; using fire-resistant wall and roof materials&amp;#44; keeping plants watered&amp;#44; and making sure your driveway can accommodate an emergency vehicle" title="How to Prepare Your Home for Wildfire"&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Across King County winter can bring below freezing temps&amp;#44; icy roads&amp;#44; and the potential for major storms. Snowfall occurs occasionally&amp;#44; with more at higher elevations. Winter storms can bring high winds that cause trees to fall and power to go out.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;A substantial snow fall event could cause significant disruptions to transportation&amp;#44; public safety services&amp;#44; and utilities. Power could be out for many days.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>The Pacific Northwest will see more severe storms in the next 50 years. They could carry heavy winds&amp;#44; torrential rainfall leading to flooding. Winter activities will be impacted. 2015 saw the lowest recorded snowpack levels with only 4% of the average. Warm winters will set the stage for statewide drought.  Click the image to find out more. &lt;br&gt;
-&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx"&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Winter.jpg" alt="Climate Change Winter Infographic" width="300" height="300"  border="0" target=_blank&gt;
-&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(1) DRIVE SAFE - Know safe alternate routed to/from your home&amp;#44; work&amp;#44; and school in case roads are closed.&lt;br&gt; (2) GET SUPPLIES - Store extra fuel and emergency supplies to survive several days without electricity&amp;#44; heat&amp;#44; and hot water. Consider purchasing a generator and strictly adhere to safety standards.&lt;br&gt; (3) PROTECT PETS - If you cannot bring pets indoors&amp;#44; provide warm and dry shelter with access to unfrozen water. &lt;br&gt;(4) WINTERIZE YOUR HOME - Install storm windows. Insulate walls&amp;#44; attics&amp;#44; and pipes. Apply caulk and weather-stripping to doors and windows. Allow faucets to drip a little during cold weather to keep pipes from freezing. Learn how to shut off water valves (in case a pipe bursts). &lt;br&gt; (5) WINTERIZE YOUR VEHICLES - Keep them in good repair and fuel tanks at least half full. Have the battery&amp;#44; ignition system&amp;#44; radiator&amp;#44; lights&amp;#44; brakes&amp;#44; and tires checked. Fill reservoirs for antifreeze&amp;#44; oil&amp;#44; and window washer fluids. Keep winter weather emergency supplies in your trunk.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;STAY INFORMED - Monitor local news on your TV&amp;#44; mobile device&amp;#44; or battery-operated radio. Follow emergency instructions and pay attention to travel advisories.&lt;/li&gt;
-&lt;li&gt;STAY INDOORS - If you do go outside&amp;#44; wear layers of warm clothing and avoid exertion. Cold weather puts added strain on the heart.&lt;/li&gt;
-&lt;li&gt;AVOID TRAVEL - If you must drive&amp;#44; fill your gas tank&amp;#44; stay on main roads&amp;#44; and keep others informed of your intinerary. Slow down to avoid traffic accidents. If you get stranded&amp;#44; call for help&amp;#44; turn on hazard lights&amp;#44; and remain with your vehicle. Don't set out on foot unless shelter is close by.&lt;/li&gt;
-&lt;li&gt;KNOW YOUR RISKS - &lt;ul&gt;&lt;li&gt; &lt;b&gt;Hypothermia&lt;/b&gt; - If you notice signs get medical help immediately. Symptoms include: &lt;br&gt; (1) Uncontrolled shivering&amp;#44; (2) Slow or unclear speech&amp;#44; (3) Extreme fatigue&amp;#44; (4) Stumbling&amp;#44; confusion&amp;#44; semi-consciousness&amp;#44; or unconsciousness. Read more  &lt;a href=https://www.cdc.gov/disasters/winter/staysafe/hypothermia.html target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt; Carbon Monoxide Poisoning&lt;/b&gt; - It can happen whenever fuels such as gas&amp;#44; oil&amp;#44; kerosene&amp;#44; wood&amp;#44; or charcoal are burned in an enclosed space. Hundreds of people die accidentally each year. Find out more &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/carbon-monoxide.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt;
-&lt;li&gt;STEER CLEAR - Avoid hazards. Winter storms can cause power lines to fall&amp;#44; roadways to flood&amp;#44; and heavy snow or ice to weigh down and weaken structures and tree limbs. &lt;/li&gt;
-&lt;li&gt;CHECK ON NEIGHBORS - Especially anyone who might need extra help.&lt;/li&gt;&lt;/ul&gt; &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Winter_during.jpg" alt="This is a panel of four images of what to do during bad winter weather. Stay Tuned&amp;#44; Stay Inside&amp;#44; Know Risks&amp;#44; and Avoid Hazards." title="During Winter Weather Image"&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;A series of snow&amp;#44; ice and rainstorms beginning on Dec. 26&amp;#44; 1996&amp;#44; caused &lt;b&gt;16 deaths&lt;/b&gt; in the state and &lt;b&gt;$57 million&lt;/b&gt; in damages in Seattle and King County. Two storms — one dumping 6-12 inches and the other 10 inches of wet snow — were followed by heavy rain which collapsed carports&amp;#44; covered boat moorings&amp;#44; and snapped power lines. Metro transit halted service completely for the first time in its history. Freeze and snowmelt contributed to flooding and landslides during the following week. Are you ready if a storm like this happened again?&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Across King County summers can be HOT&amp;#44; sometimes with temperatures into the 90s for multiple days. Thunderstorms&amp;#44; windstorms&amp;#44; wildfires&amp;#44; and heat waves are possible across the region. &lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Severe heat could last for days causing communities to see an increase in heat-related illness including HEAT EXHAUSTION and HEAT STROKE. The high temps&amp;#44; dry conditions&amp;#44; and increased likelihood for lightning may lead to wildfires. See wildfire tab for more info.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>July 2015 was the hottest month ever! The average yearly temp is projected to increase between 3 and 10 degrees Fahrenheit by 2100. Washington residents will see less summer rainfall&amp;#44; but the rainfall that does happen will be heavier (think downpours). Click the image to find out more. &lt;br&gt; 
-&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx"&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storm Infographic" width="300" height="256"  border="0" target=_blank&gt;
-&lt;/a&gt;</t>
+    <t>&lt;p&gt;In 2015&amp;#44; King County had a record number of days that exceeded 90F. July 2015 was the hottest month ever recorded in King County.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Winter_kingco</t>
+  </si>
+  <si>
+    <t>Summer_kingco</t>
+  </si>
+  <si>
+    <t>Climate Impacts</t>
+  </si>
+  <si>
+    <t>nosld</t>
+  </si>
+  <si>
+    <t>seasld</t>
+  </si>
+  <si>
+    <t>kcosld</t>
+  </si>
+  <si>
+    <t>LSLD_steepslope</t>
+  </si>
+  <si>
+    <t>LSLD_existing_features</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;This area has a shallow slope and is less likely to have landslides here. Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes. Scroll down to historical events see if any landslides have been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here. Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes.  Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here.  Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes. Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;If slopes nearby are steep&amp;#44; unvegitated&amp;#44; and it's been raining for days a landslide may happen. Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;It's unlikely you will see a slide here&amp;#44; but if slopes nearby are steep and conditions are right&amp;#44; landslides can happen&amp;#44; destroying property&amp;#44; blocking roads and wreaking havoc. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Severe heat could last for days causing communities to see an increase in heat-related illness including HEAT EXHAUSTION and HEAT STROKE. The high temps&amp;#44; dry conditions&amp;#44; and increased likelihood for lightning may lead to wildfires.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Heat exhaustion and heat stroke are serious illnesses that can occur when a person is exposed to extreme heat.&lt;/p&gt;
-&lt;div style="float: left; width: 50%;"&gt;
+&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;
 HEAT EXHAUSTION SIGNS:
 &lt;ul&gt;
 &lt;li&gt;Heavy sweating&lt;/li&gt;
@@ -1241,8 +1189,9 @@
 &lt;li&gt;Cold&amp;#44; pale skin&lt;/li&gt;
 &lt;/ul&gt;
 &lt;/div&gt;
-&lt;div style="float: right; width: 50%;"&gt;
-HEAT STROKE SIGNS:&lt;ul&gt;
+&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;
+HEAT STROKE SIGNS:
+&lt;ul&gt;
 &lt;li&gt;High body temperature (103F or higher)&lt;/li&gt;
 &lt;li&gt;Hot and dry skin&lt;/li&gt;
 &lt;li&gt;Rapid and strong pulse&lt;/li&gt;
@@ -1251,65 +1200,121 @@
 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Older adults&amp;#44; young children&amp;#44; and people with mental illness and chronic diseases are at higher risk of heat-related issues. Know the signs of heat-related illness and which of your neighbors may be at risk. Stay informed by listening to local news for information and locations of cooling centers&amp;#44; public spaces that can be used by residents to stay cool.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-To prevent heat-related illness take the following precautions for yourself&amp;#44; your family&amp;#44; and friends.
-&lt;ul&gt;
-&lt;li&gt;Stay indoors and&amp;#44; if possible&amp;#44; in an air conditioned place (shopping mall&amp;#44; library&amp;#44; theater&amp;#44; etc).&lt;/li&gt;
-&lt;li&gt;Limit outdoor activity to morning and evening and rest in shady spots during the heat of the day.&lt;/li&gt;
-&lt;li&gt;Wear lightweight&amp;#44; light-colored&amp;#44; loose-fitting clothing. A wide brimmed hat&amp;#44; sunglasses&amp;#44; and sunscreen will help protect you from the sun.&lt;/li&gt;
-&lt;li&gt;Drink lots of fluids (avoid caffeine&amp;#44; alcohol&amp;#44; and sugary drinks) and carry a water bottle.&lt;/li&gt;
-&lt;li&gt;Never leave children or pets in a parked car even if the windows are cracked open.&lt;/li&gt;
-&lt;li&gt;Check on at-risk family&amp;#44; friends&amp;#44; and neighbors often.&lt;/li&gt;
-&lt;/ul&gt; &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Summer_during.jpg" alt="This is a panel of three images of what to do during bad summer weather. Stay Cool&amp;#44; Protect Skin&amp;#44; and Drink Water." title="During Summer Weather Image"&gt;
+    <t>Severe storms are expected to increase in the next 50 years.They will bring with them rain and snow. Rivers will have higher flows leading to more flooding in the Fall/Winter. Click the image to find out more. &lt;br&gt;
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Rivers.jpg" alt="Climate Change Rivers Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Landslides often happen along ocean-side bluffs from waves buffeting coastlines. Puget Sound waters have risen 8 inches since 1913. With higher water levels the potential for bluff erosion will increase. Excess rain from severe storms could also weaken steep slopes triggering more landslides in King County. Click the image to find out more. &lt;br&gt;
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storms Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The number of wildfires in the Pacific Northwest has already increased significantly in the last few decades. This trend is likely to continue with drier and stormier summers (think lightning that sparks fires). Large areas of forest could burn and put smoke into the air. Click the image to find out more. &lt;br&gt;
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Forests.jpg" alt="Climate Change Forest Infographic" &gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The Pacific Northwest will see more severe storms in the next 50 years. They could carry heavy winds&amp;#44; torrential rainfall leading to flooding. Winter activities will be impacted. 2015 saw the lowest recorded snowpack levels with only 4% of the average. Warm winters will set the stage for statewide drought.  Click the image to find out more. &lt;br&gt;
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Winter.jpg" alt="Climate Change Winter Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>July 2015 was the hottest month ever! The average yearly temp is projected to increase between 3 and 10 degrees Fahrenheit by 2100. Washington residents will see less summer rainfall&amp;#44; but the rainfall that does happen will be heavier (think downpours). Click the image to find out more. &lt;br&gt; 
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storm Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;(1) GET SUPPLIES - Store extra fuel and emergency supplies to survive several days without electricity&amp;#44; heat&amp;#44; and hot water. Consider purchasing a generator and follow safety standards.&lt;br&gt; (2) WINTERIZE YOUR HOME - Install storm windows. Insulate walls&amp;#44; attics&amp;#44; and pipes. Apply caulk and weather-stripping to doors and windows. Allow faucets to drip a little during cold weather to keep pipes from freezing. Learn how to shut off water valves (in case a pipe bursts). &lt;br&gt; (3) WINTERIZE YOUR VEHICLES - Keep fuel tanks at least half full. Have the battery&amp;#44; ignition system&amp;#44; radiator&amp;#44; lights&amp;#44; brakes&amp;#44; and tires checked. Fill reservoirs with antifreeze&amp;#44; oil&amp;#44; and window washer fluids. Keep winter weather emergency supplies in your trunk.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;During an eruption&amp;#44; listen to the news for emergency updates and follow emergency instructions.
+&lt;li&gt;&lt;b&gt;IN LAHAR ZONE&lt;/b&gt; - Get to higher ground immediately.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;OUTSIDE&lt;/b&gt; - Cover your mouth&amp;#44; nose&amp;#44; and body to avoid irritation. Find shelter. &lt;/li&gt;
+&lt;li&gt;&lt;b&gt;INSIDE&lt;/b&gt; - Keep doors and vents in home closed and stay indoors&amp;#44; unless directed otherwise. Place damp towels at door thresholds and tape drafty windows. Keep car and truck engines off to avoid damage from ash congestion. Protect animals and machinery by bringing them inside or in a covered area.&lt;/li&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Volcano_during.jpg" alt="This is an panel of three images of what to do during a volcanic eruption or lahar. In lahar zone&amp;#44; outside&amp;#44; inside." title="During Volcano Image"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;li&gt;INDOORS - STAY THERE! Take cover under a sturdy desk or table away from objects that could fall on you and hold on. DON'T run outside before shaking stops. &lt;/li&gt;&lt;li&gt;OUTSIDE - GET INTO THE OPEN away from buildings&amp;#44; power lines&amp;#44; chimneys&amp;#44; or things that could fall on you. &lt;/li&gt;&lt;li&gt;DRIVING - CAREFULLY STOP (not under a bridge&amp;#44; overpass&amp;#44; power lines&amp;#44; etc.) and STAY INSIDE VEHICLE.&lt;/li&gt;&lt;li&gt;NEAR THE OCEAN - Follow guidelines above until shaking stops. Then HEAD FOR HIGH GROUND.&lt;/li&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/EQ_during.jpg" alt="This is a panel of four cartoon images showing what to do during an earthquake if inside&amp;#44; outside&amp;#44; driving&amp;#44; or near the ocean." title="During Earthquake Image"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;li&gt;PREPARE - Gather emergency items (warm clothes&amp;#44; flashlight&amp;#44; cell phone&amp;#44; portable radio&amp;#44; etc). If time permits and it seems necessary&amp;#44; shut off utilities&lt;/li&gt;&lt;li&gt;LISTEN - Listen to the news and if advised&amp;#44; evacuate to higher ground.&lt;/li&gt;&lt;li&gt;AVOID HAZARDS - DO NOT wade or drive through floodwaters. It only takes 6 inches of moving water to knock you down and 2 feet to sweep a car away!&lt;/li&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Flood_during.jpg" alt="This is a panel of four cartoon images showing what to do during an a flood colect essentials&amp;#44; get to high ground&amp;#44; avoid water&amp;#44; and shutt off utilities." title="During Flood Image"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;(1) PLAN - Make a plan of what to do and where to go if waters rise. Have essential items ready (birth certificates&amp;#44; important documents&amp;#44; photos&amp;#44; etc). Acquire flood insurance if you need it. &lt;br&gt; (2) PREPARE - Store valuables and household chemicals above flood levels and learn how to turn off utilities (&lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target=_blank&gt;water&amp;#44; gas&amp;#44; and electricity&lt;/a&gt;).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;(1) PRACTICE - Be aware and practice "Drop&amp;#44; Cover&amp;#44; and Hold On" &lt;br&gt; (2) PLAN - Make a family plan (&lt;a href=http://www.fema.gov/media-library-data/0e3ef555f66e22ab832e284f826c2e9e/FEMA_plan_parent_508_071513.pdf target="_blank"&gt;for adults&lt;/a&gt; &amp;amp; &lt;a href=http://www.fema.gov/media-library-data/a260e5fb242216dc62ae380946806677/FEMA_plan_child_508_071513.pdf target="_blank"&gt;for kids&lt;/a&gt;) and build a &lt;a href=http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf target="_blank"&gt;supply kit&lt;/a&gt; &lt;br&gt; (3) PREPARE - Secure items that could fall and know the location of utility shut offs.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;(1) ASSESS - If the area around your home may be prone to landslides seek advice of geotechnical experts. They can evaluate landslide hazard and/or design corrective techniques to reduce landslide risk.&lt;br&gt;(2) REDUCE RISK - Plant ground cover on slopes and/or build a retaining wall to stabilize hillsides&lt;br&gt; (3) PREPARE - Make a supply kit and family plan designating at least two evacuation routes&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Staying out of the path of a landslide or debris flow is your best protection.&lt;/b&gt; The U.S. Geological Survey also recommend the following&amp;#44; &lt;li&gt;BE ALERT - Listen for unusual sounds. Intense&amp;#44; short bursts of rain may be particularly dangerous&amp;#44; especially after longer periods of heavy rainfall and damp weather.&lt;/li&gt;&lt;li&gt;CONSIDER LEAVING - If you are in areas susceptible to landslides and debris flows&amp;#44; consider leaving if it is safe to do so.  If you decide to stay home&amp;#44; move to a second story if possible.&lt;/li&gt;&lt;li&gt;NOTICE STREAM LEVELS - If you are near a stream or channel&amp;#44; be alert for any sudden increase or decrease in water flow and for a change from clear to muddy water. These could indicate landslide activity upstream. DON'T DELAY! Save yourself&amp;#44; not your belongings.&lt;/li&gt;&lt;br&gt; You can find more landslide tips from USGS &lt;a href=http://landslides.usgs.gov/learn/prepare.php target=_blank&gt;here&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;(1) MAKE SPACE - Protect lives and property by creating a fire-adapted space around your home&amp;#44; shed&amp;#44; and business. To find out how check out &lt;a href=http://www.firewise.org/wildfire-preparedness.aspx target=_blank&gt;firewise.org&lt;/a&gt;.&lt;br&gt;
+(2) WATCH WEATHER - A few sunny days can dry out forests enough to catch fire. Windy conditions can cause wildfires to get out of control quickly.&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Firewise_Brochure.jpg" alt="This is an image of ways to prevent wildfire around your home. They include screening decks&amp;#44; pruning trees 6-10 feet from the ground&amp;#44; using fire-resistant wall and roof materials&amp;#44; keeping plants watered&amp;#44; and making sure your driveway can accommodate an emergency vehicle" title="How to Prepare Your Home for Wildfire"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;Restock emergency supplies and get ready in case another storm hits&lt;/li&gt;
+&lt;li&gt;Improve your family plan. What worked? What could be done better?&lt;/li&gt;
+&lt;li&gt;Talk to your neighbors and share tips with each other&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Older adults&amp;#44; young children&amp;#44; and people with mental illness and chronic diseases are at higher risk of heat-related issues.&lt;br&gt;&lt;br&gt;
+(1) KNOW SIGNS - Heat-related illness can happen quickly. Know and which of your neighbors may be at risk. &lt;br&gt;
+(2) STAY INFORMED - Listen to local news for general information and locations of &lt;b&gt;cooling centers&lt;/b&gt; (public spaces that can be used by residents to stay cool).
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Consider purchasing an air-conditioning system and/or installing weather-stripping in the home where hot air seeps in. Use window drapes to cover windows and keep cool air inside. LOW-BUDGET OPTION: Build heat reflectors (for use between windows and drapes)&amp;#44; such as aluminum foil-covered cardboard&amp;#44; to reflect heat back outside. Click &lt;a href=http://www.instructables.com/id/Heat-blocking-curtains/ target=_blank&gt;here&lt;/a&gt; for DIY instructions.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;In 2015&amp;#44; King County had a record number of days that exceeded 90F. July 2015 was the hottest month ever recorded in King County.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Winter_kingco</t>
-  </si>
-  <si>
-    <t>Summer_kingco</t>
-  </si>
-  <si>
-    <t>Climate Impacts</t>
-  </si>
-  <si>
-    <t>nosld</t>
-  </si>
-  <si>
-    <t>seasld</t>
-  </si>
-  <si>
-    <t>kcosld</t>
-  </si>
-  <si>
-    <t>LSLD_steepslope</t>
-  </si>
-  <si>
-    <t>LSLD_existing_features</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;This area has a shallow slope and is less likely to have landslides here. Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes. Scroll down to historical events see if any landslides have been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here. Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes.  Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here.  Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes. Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;If slopes nearby are steep&amp;#44; unvegitated&amp;#44; and it's been raining for days a landslide may happen. Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;It's unlikely you will see a slide here&amp;#44; but if slopes nearby are steep and conditions are right&amp;#44; landslides can happen&amp;#44; destroying property&amp;#44; blocking roads and wreaking havoc. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
+    <t>&lt;li&gt;STAY COOL: Stay indoors and&amp;#44; if possible&amp;#44; in an air conditioned place (shopping mall&amp;#44; library&amp;#44; theater&amp;#44; etc). Limit outdoor activity.&lt;/li&gt;
+&lt;li&gt;PROTECT SKIN: Wear lightweight&amp;#44; light-colored&amp;#44; loose-fitting clothing. A wide brimmed hat&amp;#44; sunglasses&amp;#44; and sunscreen will help.&lt;/li&gt;
+&lt;li&gt;DRINK WATER: Drink lots of fluids (avoid caffeine&amp;#44; alcohol&amp;#44; and sugary drinks) and carry a water bottle.&lt;/li&gt;
+&lt;li&gt;THINK OF OTHERS: Keep kids and pets outside of hot cars. Check on at-risk family&amp;#44; friends&amp;#44; and neighbors often.&lt;/li&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Summer_during.jpg" alt="This is a panel of three images of what to do during bad summer weather. Stay Cool&amp;#44; Protect Skin&amp;#44; and Drink Water." title="During Summer Weather Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;Use window drapes to cover windows and keep cool air inside.&lt;/li&gt;
+&lt;li&gt;Consider purchasing an air-conditioning system and/or installing weather-stripping in the home where hot air seeps in. &lt;/li&gt;
+&lt;li&gt;LOW-BUDGET OPTION: Build heat reflectors (for use between windows and drapes)&amp;#44; such as aluminum foil-covered cardboard&amp;#44; to reflect heat back outside. Click &lt;a href=http://www.instructables.com/id/Heat-blocking-curtains/ target=_blank&gt;here&lt;/a&gt; for DIY instructions.&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;After the immediate danger from an eruption has subsided&amp;#44; cleaning up the ashfall will be the main event.&lt;br&gt;  &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/MtStHel_Yakima_graders.jpg" alt="This image shows two graders shoveling inches of ashfall from Saint Helens' eruption" title="Ashfall Cleanup in Yakima After Mt. Saint Helens"&gt;&lt;li&gt;Wear goggles and a face mask when outside. Air quality will be poor.&lt;/li&gt;&lt;li&gt;Avoid running vehicle engines.&lt;/li&gt;&lt;li&gt; If you must drive&amp;#44; keep speeds low (less than 35 MPH) and check oil&amp;#44; oil filters&amp;#44; and air filters frequently &lt;/li&gt;&lt;li&gt;Ashfall is very heavy and can cause buildings to collapse. If safe to do so&amp;#44; clear ash from roofs and rain gutters.&lt;/li&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;(1) ASK - Find out what steps local officials have taken to prepare for volcanic events. Ask public officials what their plan is and how they will communicate with you during an event. You can do this by contacting the King County &lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=_blank&gt; Office of Emergency Management&lt;/a&gt;.&lt;br&gt;(2) PLAN - Talk to your friends and neighbors. If you are in a high risk zone&amp;#44; decide where you would go&amp;#44; what you would bring&amp;#44; and who you would contact.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;Return to your home once authorities say it is safe.&lt;/li&gt;&lt;li&gt;Use caution when entering burned areas as hazards may still exist.&lt;/li&gt;
+&lt;li&gt;Check and re-check for smoke or hidden embers.&lt;/li&gt;
+&lt;li&gt;Photograph damage for insurance purposes.&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;li&gt;STAY TUNED - Listen for local emergency alerts on the radio and/or television and be ready to evacuate if necessary.&lt;/li&gt;&lt;li&gt;REMOVE FLAMABLES - Remove materials from around your property that could catch fire (lawn chairs&amp;#44; tables&amp;#44; etc.).&lt;/li&gt;&lt;li&gt;PREPARE YOUR HOME - Move upholstered furniture away from windows. Close doors and windows&amp;#44; but do not lock them.&lt;/li&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Fire_during.jpg" alt="This is an icon of an exclaimation point with two triangles behind it" title="During Fire Image"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;BE PREPARED FOR FLOODING (landslides often block rivers and can cause rivers to back up and flood).&lt;li&gt;Stay away from the slide. Other slides can occur after the main slide.&lt;/li&gt;&lt;li&gt;Once it's safe&amp;#44; check for injured and trapped people.&lt;/li&gt;&lt;li&gt;Check for damaged utility lines and report any damage to your utility company.&lt;/li&gt;&lt;li&gt;Listen to local media or NOAA Weather Radio for current information.&lt;/li&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;li&gt;If your home has been flooded&amp;#44; be wary reentering it as it could have structural damage.&lt;/li&gt;&lt;li&gt;Have a professional check utilities before turning them back on.&lt;/li&gt;&lt;li&gt;Document losses by photographing damages and recording repair costs.&lt;/li&gt;&lt;li&gt;Find out more &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/flooding/prepare.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;PREPARE FOR AFTERSHOCKS (earthquakes that follow the main shock are common and can cause more damage than initial quake). &lt;li&gt;Check yourself and others for injuries.&lt;/li&gt;&lt;li&gt;Once safe&amp;#44; check news reports via battery operated radio&amp;#44; TV&amp;#44; social media&amp;#44; and cell phone text alerts for emergency information.&lt;/li&gt;&lt;li&gt;Phone lines will be overwhelmed&amp;#44; texting can be a good way to communicate with family.&lt;/li&gt;&lt;li&gt;Emergency responders will be busy. Depend on your friends and neighbors for support during the hours and days following an earthquake.&lt;/li&gt;&lt;li&gt;Control utilities if necessary. Find out more about when and how to &lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target="_blank"&gt; control gas and water after an earthquake&lt;/a&gt;.&lt;/li&gt;&lt;br&gt;Watch this &lt;a href=https://www.fema.gov/media-library/assets/videos/98767 target="_blank"&gt;video&lt;/a&gt; to find out more about what to do DURING and AFTER and earthquake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;STAY INFORMED - Monitor local news on your TV&amp;#44; mobile device&amp;#44; or battery-operated radio. Follow emergency instructions and pay attention to travel advisories.&lt;/li&gt;
+&lt;li&gt;AVOID TRAVEL - If you must drive&amp;#44; fill the gas tank&amp;#44; stay on main roads&amp;#44; and keep others informed of your itinerary. Slow down. If stranded&amp;#44; call for help&amp;#44; turn on hazard lights&amp;#44; and remain with your vehicle. Don't set out on foot unless shelter is close by.&lt;/li&gt;
+&lt;li&gt;KNOW YOUR RISKS - &lt;ul&gt;&lt;li&gt;&lt;b&gt;Hypothermia&lt;/b&gt; - If you notice signs get medical help immediately. For symptoms and other information click &lt;a href=https://www.cdc.gov/disasters/winter/staysafe/hypothermia.html target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt; Carbon Monoxide Poisoning&lt;/b&gt; - It happens when fuels like gas&amp;#44; oil&amp;#44; kerosene&amp;#44; wood&amp;#44; or charcoal are burned in an enclosed space. Hundreds of people die accidentally each year. Find out more &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/carbon-monoxide.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt;
+&lt;li&gt;AVOID HAZARDS - Steer clear of fallen power lines&amp;#44; flooded&amp;#44; roads&amp;#44; and other structures weakened from heavy snow or ice.&lt;/li&gt; &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Winter_during.jpg" alt="This is a panel of four images of what to do during bad winter weather. Stay Tuned&amp;#44; Stay Inside&amp;#44; Know Risks&amp;#44; and Avoid Hazards." title="During Winter Weather Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;1305 C St. SW &lt;br&gt; Auburn&amp;#44; WA 98001&lt;br&gt; M-F 6:30am - 4:00pm&amp;#44; sandbag and sand pickup are available by request (call 253-931-3048).</t>
   </si>
 </sst>
 </file>
@@ -1426,8 +1431,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1591,7 +1680,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="223">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1661,6 +1750,48 @@
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1730,6 +1861,48 @@
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2067,13 +2240,13 @@
   <dimension ref="A1:H284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D256" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G259" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H260" sqref="H260"/>
+      <selection pane="bottomRight" activeCell="H282" sqref="H282"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -2081,7 +2254,7 @@
     <col min="8" max="8" width="53.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2107,7 +2280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2130,7 +2303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2153,7 +2326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2176,10 +2349,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2202,7 +2375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2225,7 +2398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2248,7 +2421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2294,10 +2467,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2320,7 +2493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2343,7 +2516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2366,10 +2539,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2392,7 +2565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2415,7 +2588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2438,7 +2611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2461,7 +2634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2484,7 +2657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2507,10 +2680,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2533,7 +2706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2556,7 +2729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2579,7 +2752,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2602,7 +2775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2625,7 +2798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2648,7 +2821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2671,7 +2844,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2694,7 +2867,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2717,10 +2890,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2743,7 +2916,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2766,7 +2939,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2789,7 +2962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2812,7 +2985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2835,10 +3008,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2861,10 +3034,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2881,10 +3054,10 @@
         <v>77</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -2901,15 +3074,15 @@
         <v>77</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>76</v>
@@ -2921,21 +3094,21 @@
         <v>77</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>80</v>
       </c>
       <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
         <v>85</v>
-      </c>
-      <c r="C45" t="s">
-        <v>86</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>11</v>
@@ -2944,18 +3117,18 @@
         <v>1</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>80</v>
       </c>
       <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
         <v>85</v>
-      </c>
-      <c r="C46" t="s">
-        <v>86</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>11</v>
@@ -2964,18 +3137,18 @@
         <v>2</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>80</v>
       </c>
       <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
         <v>85</v>
-      </c>
-      <c r="C47" t="s">
-        <v>86</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>11</v>
@@ -2984,18 +3157,18 @@
         <v>3</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>80</v>
       </c>
       <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
         <v>85</v>
-      </c>
-      <c r="C48" t="s">
-        <v>86</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>11</v>
@@ -3004,18 +3177,18 @@
         <v>4</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>80</v>
       </c>
       <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
         <v>85</v>
-      </c>
-      <c r="C49" t="s">
-        <v>86</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>11</v>
@@ -3024,18 +3197,18 @@
         <v>5</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>80</v>
       </c>
       <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
         <v>85</v>
-      </c>
-      <c r="C50" t="s">
-        <v>86</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>11</v>
@@ -3044,18 +3217,18 @@
         <v>6</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>80</v>
       </c>
       <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
         <v>85</v>
-      </c>
-      <c r="C51" t="s">
-        <v>86</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>11</v>
@@ -3064,38 +3237,38 @@
         <v>7</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
         <v>85</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2">
-        <v>8</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" t="s">
-        <v>86</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>11</v>
@@ -3104,18 +3277,18 @@
         <v>9</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>80</v>
       </c>
       <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" t="s">
         <v>85</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>11</v>
@@ -3124,38 +3297,38 @@
         <v>10</v>
       </c>
       <c r="H54" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2">
+        <v>11</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
         <v>85</v>
-      </c>
-      <c r="C55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="2">
-        <v>11</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" t="s">
-        <v>86</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>11</v>
@@ -3164,18 +3337,18 @@
         <v>12</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>80</v>
       </c>
       <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
         <v>85</v>
-      </c>
-      <c r="C57" t="s">
-        <v>86</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>11</v>
@@ -3184,18 +3357,18 @@
         <v>13</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>80</v>
       </c>
       <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" t="s">
         <v>85</v>
-      </c>
-      <c r="C58" t="s">
-        <v>86</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>11</v>
@@ -3204,18 +3377,18 @@
         <v>14</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>80</v>
       </c>
       <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s">
         <v>85</v>
-      </c>
-      <c r="C59" t="s">
-        <v>86</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>11</v>
@@ -3224,18 +3397,18 @@
         <v>15</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>80</v>
       </c>
       <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="s">
         <v>85</v>
-      </c>
-      <c r="C60" t="s">
-        <v>86</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>11</v>
@@ -3244,18 +3417,18 @@
         <v>16</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>80</v>
       </c>
       <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" t="s">
         <v>85</v>
-      </c>
-      <c r="C61" t="s">
-        <v>86</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>11</v>
@@ -3264,18 +3437,18 @@
         <v>17</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>80</v>
       </c>
       <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" t="s">
         <v>85</v>
-      </c>
-      <c r="C62" t="s">
-        <v>86</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>11</v>
@@ -3284,18 +3457,18 @@
         <v>18</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>80</v>
       </c>
       <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
         <v>85</v>
-      </c>
-      <c r="C63" t="s">
-        <v>86</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>11</v>
@@ -3304,18 +3477,18 @@
         <v>19</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>80</v>
       </c>
       <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" t="s">
         <v>85</v>
-      </c>
-      <c r="C64" t="s">
-        <v>86</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>11</v>
@@ -3324,18 +3497,18 @@
         <v>20</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>80</v>
       </c>
       <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
         <v>85</v>
-      </c>
-      <c r="C65" t="s">
-        <v>86</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>11</v>
@@ -3344,18 +3517,18 @@
         <v>21</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>80</v>
       </c>
       <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
         <v>85</v>
-      </c>
-      <c r="C66" t="s">
-        <v>86</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>11</v>
@@ -3364,18 +3537,18 @@
         <v>22</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>80</v>
       </c>
       <c r="B67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" t="s">
         <v>85</v>
-      </c>
-      <c r="C67" t="s">
-        <v>86</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>11</v>
@@ -3384,18 +3557,18 @@
         <v>23</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>80</v>
       </c>
       <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" t="s">
         <v>85</v>
-      </c>
-      <c r="C68" t="s">
-        <v>86</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>11</v>
@@ -3404,18 +3577,18 @@
         <v>24</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>80</v>
       </c>
       <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
         <v>85</v>
-      </c>
-      <c r="C69" t="s">
-        <v>86</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>11</v>
@@ -3424,18 +3597,18 @@
         <v>25</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>80</v>
       </c>
       <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
         <v>85</v>
-      </c>
-      <c r="C70" t="s">
-        <v>86</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>11</v>
@@ -3444,18 +3617,18 @@
         <v>26</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>80</v>
       </c>
       <c r="B71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" t="s">
         <v>85</v>
-      </c>
-      <c r="C71" t="s">
-        <v>86</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>11</v>
@@ -3464,18 +3637,18 @@
         <v>27</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>80</v>
       </c>
       <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" t="s">
         <v>85</v>
-      </c>
-      <c r="C72" t="s">
-        <v>86</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>11</v>
@@ -3484,18 +3657,18 @@
         <v>28</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>80</v>
       </c>
       <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
         <v>85</v>
-      </c>
-      <c r="C73" t="s">
-        <v>86</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>11</v>
@@ -3504,18 +3677,18 @@
         <v>29</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
         <v>85</v>
-      </c>
-      <c r="C74" t="s">
-        <v>86</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>11</v>
@@ -3524,18 +3697,18 @@
         <v>30</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>80</v>
       </c>
       <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" t="s">
         <v>85</v>
-      </c>
-      <c r="C75" t="s">
-        <v>86</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>11</v>
@@ -3544,18 +3717,18 @@
         <v>31</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>80</v>
       </c>
       <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
         <v>85</v>
-      </c>
-      <c r="C76" t="s">
-        <v>86</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>11</v>
@@ -3564,18 +3737,18 @@
         <v>32</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="s">
         <v>85</v>
-      </c>
-      <c r="C77" t="s">
-        <v>86</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>11</v>
@@ -3584,18 +3757,18 @@
         <v>33</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
         <v>85</v>
-      </c>
-      <c r="C78" t="s">
-        <v>86</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>11</v>
@@ -3604,18 +3777,18 @@
         <v>34</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" t="s">
         <v>85</v>
-      </c>
-      <c r="C79" t="s">
-        <v>86</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>11</v>
@@ -3624,18 +3797,18 @@
         <v>35</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
         <v>85</v>
-      </c>
-      <c r="C80" t="s">
-        <v>86</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>11</v>
@@ -3644,18 +3817,18 @@
         <v>36</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
         <v>85</v>
-      </c>
-      <c r="C81" t="s">
-        <v>86</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>11</v>
@@ -3664,18 +3837,18 @@
         <v>37</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
         <v>85</v>
-      </c>
-      <c r="C82" t="s">
-        <v>86</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>11</v>
@@ -3684,18 +3857,18 @@
         <v>38</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>80</v>
       </c>
       <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
         <v>85</v>
-      </c>
-      <c r="C83" t="s">
-        <v>86</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>11</v>
@@ -3704,18 +3877,18 @@
         <v>39</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>80</v>
       </c>
       <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
         <v>85</v>
-      </c>
-      <c r="C84" t="s">
-        <v>86</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>11</v>
@@ -3724,18 +3897,18 @@
         <v>40</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>80</v>
       </c>
       <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
         <v>85</v>
-      </c>
-      <c r="C85" t="s">
-        <v>86</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>11</v>
@@ -3744,18 +3917,18 @@
         <v>41</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>80</v>
       </c>
       <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
         <v>85</v>
-      </c>
-      <c r="C86" t="s">
-        <v>86</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>11</v>
@@ -3764,18 +3937,18 @@
         <v>42</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>80</v>
       </c>
       <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
         <v>85</v>
-      </c>
-      <c r="C87" t="s">
-        <v>86</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>11</v>
@@ -3784,18 +3957,18 @@
         <v>43</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>80</v>
       </c>
       <c r="B88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
         <v>85</v>
-      </c>
-      <c r="C88" t="s">
-        <v>86</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>11</v>
@@ -3804,18 +3977,18 @@
         <v>44</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>80</v>
       </c>
       <c r="B89" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" t="s">
         <v>85</v>
-      </c>
-      <c r="C89" t="s">
-        <v>86</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>11</v>
@@ -3824,18 +3997,18 @@
         <v>45</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>80</v>
       </c>
       <c r="B90" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" t="s">
         <v>85</v>
-      </c>
-      <c r="C90" t="s">
-        <v>86</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>11</v>
@@ -3844,18 +4017,18 @@
         <v>46</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>80</v>
       </c>
       <c r="B91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" t="s">
         <v>85</v>
-      </c>
-      <c r="C91" t="s">
-        <v>86</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>11</v>
@@ -3864,18 +4037,18 @@
         <v>47</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>80</v>
       </c>
       <c r="B92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" t="s">
         <v>85</v>
-      </c>
-      <c r="C92" t="s">
-        <v>86</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>11</v>
@@ -3884,18 +4057,18 @@
         <v>48</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>80</v>
       </c>
       <c r="B93" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" t="s">
         <v>85</v>
-      </c>
-      <c r="C93" t="s">
-        <v>86</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>11</v>
@@ -3904,18 +4077,18 @@
         <v>49</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>80</v>
       </c>
       <c r="B94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" t="s">
         <v>85</v>
-      </c>
-      <c r="C94" t="s">
-        <v>86</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>11</v>
@@ -3924,18 +4097,18 @@
         <v>50</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>80</v>
       </c>
       <c r="B95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" t="s">
         <v>85</v>
-      </c>
-      <c r="C95" t="s">
-        <v>86</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>11</v>
@@ -3944,18 +4117,18 @@
         <v>51</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>80</v>
       </c>
       <c r="B96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" t="s">
         <v>85</v>
-      </c>
-      <c r="C96" t="s">
-        <v>86</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>11</v>
@@ -3964,18 +4137,18 @@
         <v>52</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>80</v>
       </c>
       <c r="B97" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" t="s">
         <v>85</v>
-      </c>
-      <c r="C97" t="s">
-        <v>86</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>11</v>
@@ -3984,18 +4157,18 @@
         <v>53</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>80</v>
       </c>
       <c r="B98" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" t="s">
         <v>85</v>
-      </c>
-      <c r="C98" t="s">
-        <v>86</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>11</v>
@@ -4004,18 +4177,18 @@
         <v>54</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>80</v>
       </c>
       <c r="B99" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" t="s">
         <v>85</v>
-      </c>
-      <c r="C99" t="s">
-        <v>86</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>11</v>
@@ -4024,18 +4197,18 @@
         <v>55</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>80</v>
       </c>
       <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" t="s">
         <v>85</v>
-      </c>
-      <c r="C100" t="s">
-        <v>86</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>11</v>
@@ -4044,18 +4217,18 @@
         <v>56</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>80</v>
       </c>
       <c r="B101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" t="s">
         <v>85</v>
-      </c>
-      <c r="C101" t="s">
-        <v>86</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>11</v>
@@ -4064,18 +4237,18 @@
         <v>57</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>80</v>
       </c>
       <c r="B102" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" t="s">
         <v>85</v>
-      </c>
-      <c r="C102" t="s">
-        <v>86</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>11</v>
@@ -4084,18 +4257,18 @@
         <v>58</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>80</v>
       </c>
       <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s">
         <v>85</v>
-      </c>
-      <c r="C103" t="s">
-        <v>86</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>11</v>
@@ -4104,18 +4277,18 @@
         <v>59</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>80</v>
       </c>
       <c r="B104" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" t="s">
         <v>85</v>
-      </c>
-      <c r="C104" t="s">
-        <v>86</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>11</v>
@@ -4124,18 +4297,18 @@
         <v>60</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>80</v>
       </c>
       <c r="B105" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" t="s">
         <v>85</v>
-      </c>
-      <c r="C105" t="s">
-        <v>86</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>11</v>
@@ -4144,18 +4317,18 @@
         <v>61</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>80</v>
       </c>
       <c r="B106" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" t="s">
         <v>85</v>
-      </c>
-      <c r="C106" t="s">
-        <v>86</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>11</v>
@@ -4164,18 +4337,18 @@
         <v>62</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>80</v>
       </c>
       <c r="B107" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107" t="s">
         <v>85</v>
-      </c>
-      <c r="C107" t="s">
-        <v>86</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>11</v>
@@ -4184,18 +4357,18 @@
         <v>63</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>80</v>
       </c>
       <c r="B108" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" t="s">
         <v>85</v>
-      </c>
-      <c r="C108" t="s">
-        <v>86</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>11</v>
@@ -4204,18 +4377,18 @@
         <v>64</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>80</v>
       </c>
       <c r="B109" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" t="s">
         <v>85</v>
-      </c>
-      <c r="C109" t="s">
-        <v>86</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>11</v>
@@ -4224,18 +4397,18 @@
         <v>65</v>
       </c>
       <c r="H109" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
         <v>152</v>
-      </c>
-      <c r="B111" t="s">
-        <v>153</v>
       </c>
       <c r="C111" t="s">
         <v>76</v>
@@ -4247,18 +4420,18 @@
         <v>77</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="13" customFormat="1">
       <c r="E112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" s="13" customFormat="1">
       <c r="E113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -4266,10 +4439,10 @@
         <v>9</v>
       </c>
       <c r="C114" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E114" s="2">
         <v>1</v>
@@ -4278,10 +4451,10 @@
         <v>100</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -4289,10 +4462,10 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
+        <v>154</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E115" s="2">
         <v>2</v>
@@ -4301,10 +4474,10 @@
         <v>80</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -4312,10 +4485,10 @@
         <v>9</v>
       </c>
       <c r="C116" t="s">
+        <v>154</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E116" s="2">
         <v>3</v>
@@ -4324,10 +4497,10 @@
         <v>20</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -4335,10 +4508,10 @@
         <v>9</v>
       </c>
       <c r="C117" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E117" s="2">
         <v>5</v>
@@ -4347,10 +4520,10 @@
         <v>20</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -4358,10 +4531,10 @@
         <v>9</v>
       </c>
       <c r="C118" t="s">
+        <v>154</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E118" s="2">
         <v>6</v>
@@ -4370,10 +4543,10 @@
         <v>20</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -4381,10 +4554,10 @@
         <v>9</v>
       </c>
       <c r="C119" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E119" s="2">
         <v>7</v>
@@ -4393,10 +4566,10 @@
         <v>50</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -4404,10 +4577,10 @@
         <v>9</v>
       </c>
       <c r="C120" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E120" s="2">
         <v>8</v>
@@ -4416,10 +4589,10 @@
         <v>10</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -4427,10 +4600,10 @@
         <v>9</v>
       </c>
       <c r="C121" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E121" s="2">
         <v>9</v>
@@ -4439,13 +4612,13 @@
         <v>80</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -4453,10 +4626,10 @@
         <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
@@ -4465,10 +4638,10 @@
         <v>100</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -4476,10 +4649,10 @@
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E124" s="2">
         <v>2</v>
@@ -4488,10 +4661,10 @@
         <v>80</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -4499,10 +4672,10 @@
         <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E125" s="2">
         <v>3</v>
@@ -4511,10 +4684,10 @@
         <v>20</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -4522,10 +4695,10 @@
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E126" s="2">
         <v>5</v>
@@ -4534,10 +4707,10 @@
         <v>20</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -4545,10 +4718,10 @@
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E127" s="2">
         <v>6</v>
@@ -4557,10 +4730,10 @@
         <v>20</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -4568,10 +4741,10 @@
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2">
         <v>7</v>
@@ -4580,10 +4753,10 @@
         <v>50</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -4591,10 +4764,10 @@
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E129" s="2">
         <v>8</v>
@@ -4603,10 +4776,10 @@
         <v>10</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -4614,10 +4787,10 @@
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E130" s="2">
         <v>9</v>
@@ -4626,502 +4799,502 @@
         <v>80</v>
       </c>
       <c r="H130" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>168</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="G132" t="s">
         <v>170</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H132" s="1" t="s">
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>167</v>
+      </c>
+      <c r="C133" t="s">
+        <v>168</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="G133" t="s">
+        <v>170</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>167</v>
+      </c>
+      <c r="C134" t="s">
         <v>168</v>
       </c>
-      <c r="C133" t="s">
-        <v>169</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G133" t="s">
-        <v>171</v>
-      </c>
-      <c r="H133" s="1" t="s">
+      <c r="D134" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="G134" t="s">
+        <v>170</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" t="s">
         <v>168</v>
       </c>
-      <c r="C134" t="s">
-        <v>169</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G134" t="s">
-        <v>171</v>
-      </c>
-      <c r="H134" s="1" t="s">
+      <c r="D135" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="G135" t="s">
+        <v>170</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>167</v>
+      </c>
+      <c r="C136" t="s">
         <v>168</v>
       </c>
-      <c r="C135" t="s">
-        <v>169</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G135" t="s">
-        <v>171</v>
-      </c>
-      <c r="H135" s="1" t="s">
+      <c r="D136" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="G136" t="s">
+        <v>170</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>167</v>
+      </c>
+      <c r="C137" t="s">
         <v>168</v>
       </c>
-      <c r="C136" t="s">
-        <v>169</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G136" t="s">
-        <v>171</v>
-      </c>
-      <c r="H136" s="1" t="s">
+      <c r="D137" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="G137" t="s">
+        <v>181</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138" t="s">
         <v>168</v>
       </c>
-      <c r="C137" t="s">
-        <v>169</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="D138" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G138" t="s">
         <v>181</v>
       </c>
-      <c r="G137" t="s">
-        <v>182</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="H138" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" t="s">
         <v>168</v>
       </c>
-      <c r="C138" t="s">
-        <v>169</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G138" t="s">
-        <v>182</v>
-      </c>
-      <c r="H138" s="1" t="s">
+      <c r="D139" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="G139" t="s">
+        <v>181</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" t="s">
         <v>168</v>
       </c>
-      <c r="C139" t="s">
-        <v>169</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G139" t="s">
-        <v>182</v>
-      </c>
-      <c r="H139" s="1" t="s">
+      <c r="D140" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="G140" t="s">
+        <v>181</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>167</v>
+      </c>
+      <c r="C141" t="s">
         <v>168</v>
       </c>
-      <c r="C140" t="s">
-        <v>169</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G140" t="s">
-        <v>182</v>
-      </c>
-      <c r="H140" s="1" t="s">
+      <c r="D141" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="G141" t="s">
+        <v>181</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" t="s">
         <v>168</v>
       </c>
-      <c r="C141" t="s">
-        <v>169</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G141" t="s">
-        <v>182</v>
-      </c>
-      <c r="H141" s="1" t="s">
+      <c r="D142" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="G142" t="s">
+        <v>192</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143" t="s">
         <v>168</v>
       </c>
-      <c r="C142" t="s">
-        <v>169</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E142" s="2" t="s">
+      <c r="D143" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G143" t="s">
         <v>192</v>
       </c>
-      <c r="G142" t="s">
-        <v>193</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>8</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="H143" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>167</v>
+      </c>
+      <c r="C144" t="s">
         <v>168</v>
       </c>
-      <c r="C143" t="s">
-        <v>169</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G143" t="s">
-        <v>193</v>
-      </c>
-      <c r="H143" s="1" t="s">
+      <c r="D144" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>8</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="G144" t="s">
+        <v>192</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>167</v>
+      </c>
+      <c r="C145" t="s">
         <v>168</v>
       </c>
-      <c r="C144" t="s">
-        <v>169</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G144" t="s">
-        <v>193</v>
-      </c>
-      <c r="H144" s="1" t="s">
+      <c r="D145" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="G145" t="s">
+        <v>199</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>167</v>
+      </c>
+      <c r="C146" t="s">
         <v>168</v>
       </c>
-      <c r="C145" t="s">
-        <v>169</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E145" s="2" t="s">
+      <c r="D146" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G146" t="s">
         <v>199</v>
       </c>
-      <c r="G145" t="s">
-        <v>200</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" t="s">
-        <v>168</v>
-      </c>
-      <c r="C146" t="s">
-        <v>169</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E146" s="2" t="s">
+      <c r="H146" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G146" t="s">
-        <v>200</v>
-      </c>
-      <c r="H146" s="1" t="s">
+    </row>
+    <row r="147" spans="1:8">
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>8</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>204</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148">
+        <v>80</v>
+      </c>
+      <c r="H148" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F148">
-        <v>80</v>
-      </c>
-      <c r="H148" s="1" t="s">
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>203</v>
+      </c>
+      <c r="C149" t="s">
+        <v>204</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>8</v>
-      </c>
-      <c r="B149" t="s">
-        <v>204</v>
-      </c>
-      <c r="C149" t="s">
-        <v>205</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="F149">
         <v>60</v>
       </c>
       <c r="H149" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>203</v>
+      </c>
+      <c r="C150" t="s">
+        <v>204</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>8</v>
-      </c>
-      <c r="B150" t="s">
-        <v>204</v>
-      </c>
-      <c r="C150" t="s">
-        <v>205</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="F150">
         <v>70</v>
       </c>
       <c r="H150" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>203</v>
+      </c>
+      <c r="C151" t="s">
+        <v>204</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>8</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="F151">
+        <v>80</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>203</v>
+      </c>
+      <c r="C152" t="s">
         <v>204</v>
       </c>
-      <c r="C151" t="s">
-        <v>205</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F151">
-        <v>80</v>
-      </c>
-      <c r="H151" s="1" t="s">
+      <c r="D152" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152" t="s">
-        <v>204</v>
-      </c>
-      <c r="C152" t="s">
-        <v>205</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E152" s="2" t="s">
+      <c r="F152">
+        <v>80</v>
+      </c>
+      <c r="H152" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F152">
-        <v>80</v>
-      </c>
-      <c r="H152" s="1" t="s">
+    </row>
+    <row r="153" spans="1:8">
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C154" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C154" t="s">
-        <v>216</v>
-      </c>
       <c r="D154" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G154" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -5129,10 +5302,10 @@
         <v>75</v>
       </c>
       <c r="C156" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>77</v>
@@ -5141,13 +5314,13 @@
         <v>78</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>80</v>
       </c>
@@ -5155,19 +5328,19 @@
         <v>81</v>
       </c>
       <c r="C158" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>80</v>
       </c>
@@ -5175,418 +5348,418 @@
         <v>82</v>
       </c>
       <c r="C159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>80</v>
       </c>
       <c r="B160" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C160" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H160" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B162" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" t="s">
+        <v>216</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G162" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>80</v>
-      </c>
-      <c r="B162" t="s">
-        <v>85</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="H162" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E162" s="2" t="s">
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>80</v>
+      </c>
+      <c r="B163" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163" t="s">
+        <v>216</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G163" t="s">
+        <v>218</v>
+      </c>
+      <c r="H163" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H162" s="1" t="s">
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>80</v>
+      </c>
+      <c r="B164" t="s">
+        <v>84</v>
+      </c>
+      <c r="C164" t="s">
+        <v>216</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>80</v>
-      </c>
-      <c r="B163" t="s">
-        <v>85</v>
-      </c>
-      <c r="C163" t="s">
-        <v>219</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E163" s="2" t="s">
+      <c r="G164" t="s">
+        <v>218</v>
+      </c>
+      <c r="H164" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G163" t="s">
-        <v>221</v>
-      </c>
-      <c r="H163" s="1" t="s">
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>80</v>
+      </c>
+      <c r="B165" t="s">
+        <v>84</v>
+      </c>
+      <c r="C165" t="s">
+        <v>216</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>80</v>
-      </c>
-      <c r="B164" t="s">
-        <v>85</v>
-      </c>
-      <c r="C164" t="s">
-        <v>219</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E164" s="2" t="s">
+      <c r="G165" t="s">
+        <v>218</v>
+      </c>
+      <c r="H165" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G164" t="s">
-        <v>221</v>
-      </c>
-      <c r="H164" s="1" t="s">
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>80</v>
+      </c>
+      <c r="B166" t="s">
+        <v>84</v>
+      </c>
+      <c r="C166" t="s">
+        <v>216</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>80</v>
-      </c>
-      <c r="B165" t="s">
-        <v>85</v>
-      </c>
-      <c r="C165" t="s">
-        <v>219</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E165" s="2" t="s">
+      <c r="G166" t="s">
+        <v>218</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>80</v>
+      </c>
+      <c r="B167" t="s">
+        <v>84</v>
+      </c>
+      <c r="C167" t="s">
+        <v>216</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G165" t="s">
-        <v>221</v>
-      </c>
-      <c r="H165" s="1" t="s">
+      <c r="G167" t="s">
+        <v>218</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>80</v>
-      </c>
-      <c r="B166" t="s">
-        <v>85</v>
-      </c>
-      <c r="C166" t="s">
-        <v>219</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E166" s="2" t="s">
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>80</v>
+      </c>
+      <c r="B168" t="s">
+        <v>84</v>
+      </c>
+      <c r="C168" t="s">
+        <v>216</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G166" t="s">
-        <v>221</v>
-      </c>
-      <c r="H166" s="1" t="s">
+      <c r="G168" t="s">
+        <v>218</v>
+      </c>
+      <c r="H168" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>80</v>
-      </c>
-      <c r="B167" t="s">
-        <v>85</v>
-      </c>
-      <c r="C167" t="s">
-        <v>219</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E167" s="2" t="s">
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>80</v>
+      </c>
+      <c r="B169" t="s">
+        <v>84</v>
+      </c>
+      <c r="C169" t="s">
+        <v>216</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G167" t="s">
-        <v>221</v>
-      </c>
-      <c r="H167" s="1" t="s">
+      <c r="G169" t="s">
+        <v>218</v>
+      </c>
+      <c r="H169" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>80</v>
-      </c>
-      <c r="B168" t="s">
-        <v>85</v>
-      </c>
-      <c r="C168" t="s">
-        <v>219</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E168" s="2" t="s">
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>80</v>
+      </c>
+      <c r="B170" t="s">
+        <v>84</v>
+      </c>
+      <c r="C170" t="s">
+        <v>216</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G168" t="s">
-        <v>221</v>
-      </c>
-      <c r="H168" s="1" t="s">
+      <c r="G170" t="s">
+        <v>218</v>
+      </c>
+      <c r="H170" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>80</v>
-      </c>
-      <c r="B169" t="s">
-        <v>85</v>
-      </c>
-      <c r="C169" t="s">
-        <v>219</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E169" s="2" t="s">
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>80</v>
+      </c>
+      <c r="B171" t="s">
+        <v>84</v>
+      </c>
+      <c r="C171" t="s">
+        <v>216</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G169" t="s">
-        <v>221</v>
-      </c>
-      <c r="H169" s="1" t="s">
+      <c r="G171" t="s">
+        <v>218</v>
+      </c>
+      <c r="H171" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>80</v>
-      </c>
-      <c r="B170" t="s">
-        <v>85</v>
-      </c>
-      <c r="C170" t="s">
-        <v>219</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E170" s="2" t="s">
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>80</v>
+      </c>
+      <c r="B172" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" t="s">
+        <v>216</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G170" t="s">
-        <v>221</v>
-      </c>
-      <c r="H170" s="1" t="s">
+      <c r="G172" t="s">
+        <v>218</v>
+      </c>
+      <c r="H172" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>80</v>
-      </c>
-      <c r="B171" t="s">
-        <v>85</v>
-      </c>
-      <c r="C171" t="s">
-        <v>219</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E171" s="2" t="s">
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>80</v>
+      </c>
+      <c r="B173" t="s">
+        <v>84</v>
+      </c>
+      <c r="C173" t="s">
+        <v>216</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G171" t="s">
-        <v>221</v>
-      </c>
-      <c r="H171" s="1" t="s">
+      <c r="G173" t="s">
+        <v>218</v>
+      </c>
+      <c r="H173" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>80</v>
-      </c>
-      <c r="B172" t="s">
-        <v>85</v>
-      </c>
-      <c r="C172" t="s">
-        <v>219</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E172" s="2" t="s">
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>80</v>
+      </c>
+      <c r="B174" t="s">
+        <v>84</v>
+      </c>
+      <c r="C174" t="s">
+        <v>216</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G172" t="s">
-        <v>221</v>
-      </c>
-      <c r="H172" s="1" t="s">
+      <c r="G174" t="s">
+        <v>218</v>
+      </c>
+      <c r="H174" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>80</v>
-      </c>
-      <c r="B173" t="s">
-        <v>85</v>
-      </c>
-      <c r="C173" t="s">
-        <v>219</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E173" s="2" t="s">
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>80</v>
+      </c>
+      <c r="B175" t="s">
+        <v>84</v>
+      </c>
+      <c r="C175" t="s">
+        <v>216</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G173" t="s">
-        <v>221</v>
-      </c>
-      <c r="H173" s="1" t="s">
+      <c r="G175" t="s">
+        <v>218</v>
+      </c>
+      <c r="H175" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>80</v>
-      </c>
-      <c r="B174" t="s">
-        <v>85</v>
-      </c>
-      <c r="C174" t="s">
-        <v>219</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E174" s="2" t="s">
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>80</v>
+      </c>
+      <c r="B176" t="s">
+        <v>84</v>
+      </c>
+      <c r="C176" t="s">
+        <v>216</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G174" t="s">
-        <v>221</v>
-      </c>
-      <c r="H174" s="1" t="s">
+      <c r="G176" t="s">
+        <v>218</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>80</v>
-      </c>
-      <c r="B175" t="s">
-        <v>85</v>
-      </c>
-      <c r="C175" t="s">
-        <v>219</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G175" t="s">
-        <v>221</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>80</v>
-      </c>
-      <c r="B176" t="s">
-        <v>85</v>
-      </c>
-      <c r="C176" t="s">
-        <v>219</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G176" t="s">
-        <v>221</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8">
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
+        <v>151</v>
+      </c>
+      <c r="B178" t="s">
         <v>152</v>
       </c>
-      <c r="B178" t="s">
-        <v>153</v>
-      </c>
       <c r="C178" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" s="13" customFormat="1">
       <c r="E179" s="14"/>
       <c r="H179" s="15"/>
     </row>
-    <row r="180" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" s="13" customFormat="1">
       <c r="E180" s="14"/>
       <c r="H180" s="15"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -5594,22 +5767,22 @@
         <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="F181">
         <v>10</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -5617,22 +5790,22 @@
         <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="F182">
         <v>60</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -5640,25 +5813,25 @@
         <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="F183">
         <v>60</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -5666,22 +5839,22 @@
         <v>15</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="F185">
         <v>33</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -5689,22 +5862,22 @@
         <v>15</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="F186">
         <v>80</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -5712,50 +5885,50 @@
         <v>15</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="F187">
         <v>80</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="A189" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="C189" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G189" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -5763,10 +5936,10 @@
         <v>75</v>
       </c>
       <c r="C191" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>77</v>
@@ -5775,13 +5948,13 @@
         <v>78</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>80</v>
       </c>
@@ -5789,19 +5962,19 @@
         <v>81</v>
       </c>
       <c r="C193" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>80</v>
       </c>
@@ -5809,270 +5982,270 @@
         <v>82</v>
       </c>
       <c r="C194" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>80</v>
       </c>
       <c r="B195" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C195" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>80</v>
       </c>
       <c r="B196" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C196" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
+        <v>151</v>
+      </c>
+      <c r="B198" t="s">
         <v>152</v>
       </c>
-      <c r="B198" t="s">
-        <v>153</v>
-      </c>
       <c r="C198" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E198" s="2">
         <v>1</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
+        <v>151</v>
+      </c>
+      <c r="B199" t="s">
         <v>152</v>
       </c>
-      <c r="B199" t="s">
-        <v>153</v>
-      </c>
       <c r="C199" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E199" s="2">
         <v>2</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
+        <v>151</v>
+      </c>
+      <c r="B200" t="s">
         <v>152</v>
       </c>
-      <c r="B200" t="s">
-        <v>153</v>
-      </c>
       <c r="C200" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E200" s="2">
         <v>3</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
+        <v>151</v>
+      </c>
+      <c r="B201" t="s">
         <v>152</v>
       </c>
-      <c r="B201" t="s">
-        <v>153</v>
-      </c>
       <c r="C201" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E201" s="2">
         <v>4</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
+        <v>151</v>
+      </c>
+      <c r="B202" t="s">
         <v>152</v>
       </c>
-      <c r="B202" t="s">
-        <v>153</v>
-      </c>
       <c r="C202" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E202" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>151</v>
+      </c>
+      <c r="B203" t="s">
+        <v>152</v>
+      </c>
+      <c r="C203" t="s">
+        <v>324</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>151</v>
+      </c>
+      <c r="B204" t="s">
+        <v>152</v>
+      </c>
+      <c r="C204" t="s">
+        <v>324</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>151</v>
+      </c>
+      <c r="B205" t="s">
+        <v>152</v>
+      </c>
+      <c r="C205" t="s">
+        <v>324</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H205" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>151</v>
+      </c>
+      <c r="B206" t="s">
         <v>152</v>
       </c>
-      <c r="B203" t="s">
-        <v>153</v>
-      </c>
-      <c r="C203" t="s">
-        <v>352</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E203" s="2" t="s">
+      <c r="C206" t="s">
+        <v>324</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>151</v>
+      </c>
+      <c r="B207" t="s">
+        <v>152</v>
+      </c>
+      <c r="C207" t="s">
+        <v>324</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H207" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>152</v>
-      </c>
-      <c r="B204" t="s">
-        <v>153</v>
-      </c>
-      <c r="C204" t="s">
-        <v>352</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>152</v>
-      </c>
-      <c r="B205" t="s">
-        <v>153</v>
-      </c>
-      <c r="C205" t="s">
-        <v>352</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>152</v>
-      </c>
-      <c r="B206" t="s">
-        <v>153</v>
-      </c>
-      <c r="C206" t="s">
-        <v>352</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H206" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>152</v>
-      </c>
-      <c r="B207" t="s">
-        <v>153</v>
-      </c>
-      <c r="C207" t="s">
-        <v>352</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:8" s="13" customFormat="1">
       <c r="E208" s="14"/>
       <c r="H208" s="15"/>
     </row>
-    <row r="209" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" s="13" customFormat="1">
       <c r="E209" s="14"/>
       <c r="H209" s="15"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -6080,22 +6253,22 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F210">
         <v>70</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -6103,22 +6276,22 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F211">
         <v>60</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -6126,22 +6299,22 @@
         <v>9</v>
       </c>
       <c r="C212" t="s">
+        <v>252</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="F212">
         <v>50</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -6149,22 +6322,22 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D213" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="F213">
         <v>10</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -6172,25 +6345,25 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="D215" s="6"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -6198,22 +6371,22 @@
         <v>15</v>
       </c>
       <c r="C216" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F216">
         <v>90</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -6221,22 +6394,22 @@
         <v>15</v>
       </c>
       <c r="C217" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F217">
         <v>80</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -6244,22 +6417,22 @@
         <v>15</v>
       </c>
       <c r="C218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="F218">
         <v>70</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -6267,48 +6440,48 @@
         <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D219" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="F219">
         <v>20</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="D220" s="6"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8">
       <c r="A221" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="C221" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G221" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="D222" s="6"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -6316,22 +6489,22 @@
         <v>75</v>
       </c>
       <c r="C223" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G223" t="s">
         <v>78</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="D224" s="6"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>80</v>
       </c>
@@ -6339,16 +6512,16 @@
         <v>81</v>
       </c>
       <c r="C225" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>80</v>
       </c>
@@ -6356,81 +6529,81 @@
         <v>82</v>
       </c>
       <c r="C226" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>80</v>
       </c>
       <c r="B227" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C227" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="D228" s="6"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>80</v>
       </c>
       <c r="B229" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C229" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="D230" s="6"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
+        <v>151</v>
+      </c>
+      <c r="B231" t="s">
         <v>152</v>
       </c>
-      <c r="B231" t="s">
-        <v>153</v>
-      </c>
       <c r="C231" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" s="13" customFormat="1">
       <c r="E232" s="14"/>
       <c r="H232" s="15"/>
     </row>
-    <row r="233" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" s="13" customFormat="1">
       <c r="E233" s="14"/>
       <c r="H233" s="15"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -6438,25 +6611,25 @@
         <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G234" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="D235" s="7"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -6464,22 +6637,22 @@
         <v>15</v>
       </c>
       <c r="C236" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G236" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -6487,22 +6660,22 @@
         <v>15</v>
       </c>
       <c r="C237" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D237" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G237" t="s">
+        <v>275</v>
+      </c>
+      <c r="H237" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G237" t="s">
-        <v>283</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -6510,22 +6683,22 @@
         <v>15</v>
       </c>
       <c r="C238" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G238" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -6533,25 +6706,25 @@
         <v>15</v>
       </c>
       <c r="C239" t="s">
+        <v>273</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D239" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="G239" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="D240" s="7"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -6559,10 +6732,10 @@
         <v>75</v>
       </c>
       <c r="C241" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>77</v>
@@ -6571,13 +6744,13 @@
         <v>78</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="D242" s="7"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>80</v>
       </c>
@@ -6585,19 +6758,19 @@
         <v>81</v>
       </c>
       <c r="C243" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>80</v>
       </c>
@@ -6605,90 +6778,90 @@
         <v>82</v>
       </c>
       <c r="C244" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>80</v>
       </c>
       <c r="B245" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C245" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>80</v>
       </c>
       <c r="B246" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C246" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="D247" s="7"/>
     </row>
-    <row r="248" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="16" customHeight="1">
       <c r="A248" t="s">
+        <v>151</v>
+      </c>
+      <c r="B248" t="s">
         <v>152</v>
       </c>
-      <c r="B248" t="s">
-        <v>153</v>
-      </c>
       <c r="C248" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" s="13" customFormat="1">
       <c r="E249" s="14"/>
       <c r="H249" s="15"/>
     </row>
-    <row r="250" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" s="13" customFormat="1">
       <c r="E250" s="14"/>
       <c r="H250" s="15"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -6696,22 +6869,22 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F251">
         <v>50</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="D252" s="9"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -6719,47 +6892,47 @@
         <v>15</v>
       </c>
       <c r="C253" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F253">
         <v>80</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="D254" s="9"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8">
       <c r="A255" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="C255" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="G255" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="D256" s="9"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -6767,22 +6940,22 @@
         <v>75</v>
       </c>
       <c r="C257" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="G257" t="s">
         <v>78</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="D258" s="9"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>80</v>
       </c>
@@ -6790,16 +6963,16 @@
         <v>81</v>
       </c>
       <c r="C259" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>80</v>
       </c>
@@ -6807,75 +6980,78 @@
         <v>82</v>
       </c>
       <c r="C260" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="H260" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="H260" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>80</v>
       </c>
       <c r="B261" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C261" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>80</v>
       </c>
       <c r="B262" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C262" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="D263" s="9"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
+        <v>151</v>
+      </c>
+      <c r="B264" t="s">
         <v>152</v>
       </c>
-      <c r="B264" t="s">
-        <v>153</v>
-      </c>
       <c r="C264" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" s="13" customFormat="1">
       <c r="E265" s="14"/>
       <c r="H265" s="15"/>
     </row>
-    <row r="266" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" s="13" customFormat="1">
       <c r="E266" s="14"/>
       <c r="H266" s="15"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -6883,22 +7059,22 @@
         <v>9</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F267">
         <v>50</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="D268" s="10"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>8</v>
       </c>
@@ -6906,45 +7082,45 @@
         <v>15</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F269">
         <v>80</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="D270" s="10"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>8</v>
       </c>
       <c r="B271" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="G271" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="D272" s="10"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -6952,22 +7128,22 @@
         <v>75</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="G273" t="s">
         <v>78</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="D274" s="10"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>80</v>
       </c>
@@ -6975,16 +7151,16 @@
         <v>81</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>80</v>
       </c>
@@ -6992,75 +7168,80 @@
         <v>82</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D276" s="10" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>80</v>
       </c>
       <c r="B277" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>80</v>
       </c>
       <c r="B278" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="D279" s="10"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
+        <v>151</v>
+      </c>
+      <c r="B280" t="s">
         <v>152</v>
       </c>
-      <c r="B280" t="s">
-        <v>153</v>
-      </c>
       <c r="C280" s="8" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="H284" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/disasterinfosite/data/snuggets.xlsx
+++ b/disasterinfosite/data/snuggets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="13360" tabRatio="500"/>
+    <workbookView xWindow="28780" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="snuggets.csv" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="360">
   <si>
     <t>section</t>
   </si>
@@ -214,51 +214,18 @@
     <t>Earthquake</t>
   </si>
   <si>
-    <t>A Nisqually-like earthquake (magnitude 6.8) hitting in the next fifty years is more likely than not. Moderate shaking will be felt by nearly everyone. Doors will swing&amp;#44; pictures on walls will rattle&amp;#44; and small objects could fall. Damage will be slight. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>A Nisqually-like earthquake (magnitude 6.8) hitting in the next fifty years is more likely than not. Strong shaking will make it hard to walk. Books&amp;#44; glassware&amp;#44; and items will fall from shelves. Cabinet doors and drawers will open. Some chimneys and poorly built buildings will be damaged.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>A Nisqually-like earthquake (magnitude 6.8) hitting in the next fifty years is more likely than not. Very strong shaking will make it hard to stand. Furniture will move and many objects will fall from shelves. Damage will be significant in poorly built structures and slight to moderate in ordinary structures. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>What's the Worst?</t>
   </si>
   <si>
     <t>EQ_SeattleFault72_kingco</t>
   </si>
   <si>
-    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years. Moderate shaking will be felt by nearly everyone. Doors will swing&amp;#44; pictures on walls will rattle&amp;#44; and small objects could fall. Damage will be slight. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years. Strong shaking will make it hard to walk. Books&amp;#44; glassware&amp;#44; and items will fall from shelves. Some chimneys and poorly built buildings will be damaged. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years. Very strong shaking will make it hard to stand. Furniture will move and objects will fall. Damage will be significant in poorly built buildings and moderate in ordinary buildings. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years. Severe shaking will make it hard to stand or drive. Heavy furniture will be overturned. Parts of &lt;a href="http://www.seattle.gov/dpd/codesrules/changestocode/unreinforcedmasonrybuildings/whatwhy/" target=_blank&gt;URM&lt;/a&gt; buildings will collapse and wood frame houses will shift on foundations.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next fifty years. Violent shaking will cause widespread panic and cracks in the ground will form. Landslides will be triggered on steep slopes and liquefaction will occur in saturated soils. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Cascadia Quake</t>
   </si>
   <si>
     <t>EQ_Cascadia_kingco</t>
   </si>
   <si>
-    <t>The much anticipated magnitude 9 Cascadia earthquake hits. You will feel moderate shaking that persists for minutes. Unsecured items will fall off shelves. Cabinet doors may swing open and closed. Power and water could be off for days to weeks. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>The much anticipated magnitude 9 Cascadia earthquake hits. You will feel strong shaking here that persists for minutes. It will be hard to walk. Many unreinforced masonry buildings will be damaged and people will be injured. Power and water will be off for days to weeks. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>The much anticipated magnitude 9 Cascadia earthquake hits. You will feel very strong shaking that persists for minutes. Standing will be difficult and many will be injured. Bricks and shattered glass will litter the streets. Power and water will be off for days to weeks. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Tsunami Zone</t>
   </si>
   <si>
@@ -268,30 +235,12 @@
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/tsunami.jpg" alt="This is an icon of a tsunami wave with person running uphill to avoid it" title="Tsunami Icon"&gt;</t>
   </si>
   <si>
-    <t>You are in a HIGH danger tsunami zone. Water levels will reach above your head minutes to tens of minutes following the earthquake.  Once shaking stops EVACUATE IMMEDIATELY to higher ground. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>You are in a HIGH danger tsunami zone. Water levels will reach between your knees and head in minutes to tens of minutes following the earthquake.  Once shaking stops EVACUATE IMMEDIATELY to higher ground. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>You are in a HIGH danger tsunami zone. Water levels will reach up to your knees with a current fast enough to knock you over.  You have minutes to tens of minutes to EVACUATE to higher ground. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/tsunami_none.jpg" alt="This is an icon of a tsunami wave with person running uphill to avoid it with a red circle and strike thorugh it" title="Not A Tsunami Zone Icon"&gt;</t>
   </si>
   <si>
-    <t>You are outside the mapped high danger tsunami area&amp;#44; but tsunamis waves can vary. Do you live or work in a low elevation area (within 30ft of sea level) near the ocean? If so&amp;#44; EVACUATE IMMEDIATELY to higher ground after a large earthquake. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>You are within a quarter mile of the coast. If you are at low elevation  (within 30ft of sea level) you may be at risk of a tsunami following a nearby earthquake. Seek high ground immediately. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/tsunami_boat.jpg" alt="This is an icon of a tsunami waves with a boat moving perpendicular to it to avoid it." title="Tsunami Icon with boat"&gt;</t>
   </si>
   <si>
-    <t>If you are in a boat during an earthquake you may experience a fast moving tsunami wave come through. T up to it. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Liquefaction</t>
   </si>
   <si>
@@ -304,81 +253,54 @@
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/liquefaction_high.jpg" alt="This is an icon of a house sinking into unstable ground" title="Liquefaction High Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Potential: HIGH &lt;br&gt; Shaking soils will become very unstable and will behave like quicksand. Sand-filled water may come up through cracks in streets. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>ModHi</t>
   </si>
   <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/liquefaction_mod_high.jpg" alt="This is an icon of a house sinking into unstable ground" title="Liquefaction Mod to High Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Potential: MODERATE - HIGH &lt;br&gt; Shaking soils will become unstable.  This will reduce the ability of soil to hold homes&amp;#44; vehicles&amp;#44; and other structures. Sand-filled water may come up through cracks in streets. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>LoMod</t>
   </si>
   <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/liquefaction_low_mod.jpg" alt="This is an icon of a house sinking into unstable ground" title="Liquefaction Low to Mod Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Potential: LOW - MODERATE &lt;br&gt; Some potential exists for liquefaction here. Shaking could cause soil to become unstable. Roads may crack and become damaged.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(source)&lt;/a&gt; &lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Lo</t>
   </si>
   <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/liquefaction_low.jpg" alt="This is an icon of a house sinking into unstable ground" title="Liquefaction Low Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Potential: LOW&lt;br&gt; Unless shaking is strong it is unlikely you will see liquefaction here. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>vLoLo</t>
   </si>
   <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/liquefaction_vlow_low.jpg" alt="This is an icon of a house sinking into unstable ground" title="Liquefaction Very Low to Low Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Potential:  VERY LOW - LOW &lt;br&gt; Unless shaking is very strong&amp;#44; it is unlikely you will see liquefaction here. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>vLo</t>
   </si>
   <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/liquefaction_verylow.jpg" alt="This is an icon of a house sinking into unstable ground" title="Liquefaction Very Low Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Potential: VERY LOW &lt;br&gt;Unless shaking is very strong&amp;#44; it is unlikely you will see liquefaction here.  &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>bdrck</t>
   </si>
   <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/liquefaction_bedrock.jpg" alt="This is an icon of a house on soil with bedrock underneath it." title="No Liquefaction Bedrock Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Potential: NONE &lt;br&gt; This area is on bedrock&amp;#44; solid rock unerlying soils and sediments. It will not liquefy. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>peat</t>
   </si>
   <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/liquefaction_peat.jpg" alt="This is an icon of a house on soil with peat underneath it." title="No Liquefaction Peat Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Potential: NONE &lt;br&gt; This area is on peat&amp;#44; a dark soil-like material composed of organic matter. It may warp but will not liquefy. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>ice</t>
   </si>
   <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/liquefaction_ice.jpg" alt="This is an icon of a house sitting on soil with ice underneath it" title="No Liquefaction Ice Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Potential: NONE&lt;br&gt; This area is made up of ice and will not liquefy. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Unstable Structures</t>
   </si>
   <si>
@@ -388,21 +310,6 @@
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/URM.jpg" alt="This is an icon of a cracked brick wall with fallen bricks" title="Unreinforced Masonry Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt; VERY LOW DENSITY: 0 to 10 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt;In this kind of building&amp;#44; strong earthquake shaking will cause brick walls or roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; LOW DENSITY: 10 to 25 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt; In this kind of building&amp;#44; strong earthquake shaking will cause brick walls or roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; MODERATE DENSITY: 25 to 50 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt; In this kind of building&amp;#44; strong earthquake shaking will cause brick walls or roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; HIGH DENSITY: 50 to 100 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt; If you are in a URM during an earthquake Drop&amp;#44; Cover&amp;#44; and Hold On. In these buildings strong earthquake shaking will cause brick walls  and roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href= http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; VERY HIGH DENSITY: 100 to 250 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt; If you are in a URM during an earthquake Drop&amp;#44; Cover&amp;#44; and Hold On. In these buildings strong earthquake shaking will cause brick walls and roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Warning Signs</t>
   </si>
   <si>
@@ -646,39 +553,9 @@
     <t>Flood</t>
   </si>
   <si>
-    <t>&lt;p&gt;There is a high chance of flooding here. It sits in the 100-year floodplain. This means there's a 25% chance of a floodwaters reaching here in the next 30 years &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(source)&lt;/a&gt; . Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Flooding is unlikely here. Water levels may rise slightly during floods or heavy storms. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(source)&lt;/a&gt;  &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Flooding is unlikely here. Reservoir levels may rise slightly during floods or heavy storms. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(source)&lt;/a&gt;  &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Bridges can be unsafe when flooding is occurring. If you suspect a bridge has been compromised&amp;#44; be wary and report it to the Flood Warning Center by calling 206-296-8200 or 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(source)&lt;/a&gt; &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; This area has flooded in the past when large rainstorms hit Seattle. The water pools and can't drain properly. It could happen again if another strong storm hits. Scroll down for how to prepare. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Flood_500yr_wUrban_kingco</t>
   </si>
   <si>
-    <t>&lt;p&gt;Rain&amp;#44; snowmelt&amp;#44; or both cause waters to rise rapidly. Floodwaters overtop riverbanks&amp;#44; spill into neighborhoods&amp;#44; and impact roadways. This area in the mapped 500-year floodplain and will be flooded. There's a 6% chance you'll see a flood of this size in the next 30 years. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(source)&lt;/a&gt; &lt;p/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nearby creeks&amp;#44; streams&amp;#44; and rivers are flooding. This makes some roadways impassable &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(source)&lt;/a&gt; . Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; It's unlikely you'll see flooding here. Large storms may cause nearby creeks&amp;#44; streams&amp;#44; and rivers to rise. Heavy rainfall could create pools of standing water on streets. If you spot localized flooding call the King County Flood Warning Center at 206-296-8200 or 800-945-9263.  &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(source)&lt;/a&gt; &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; It's unlikely you'll see flooding here. Large storms may cause nearby creeks&amp;#44; streams&amp;#44; and rivers to rise. Heavy rainfall could create pools of standing water on streets. If you spot localized flooding call the King County Flood Warning Center at 206-296-8200 or 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(source)&lt;/a&gt; &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; This area is prone to urban flooding. The bigger the storm the more flooding you could see near here. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(source)&lt;/a&gt;  &lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Erosion Risk</t>
   </si>
   <si>
@@ -691,87 +568,48 @@
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Erosion_high.jpg" alt="This is an icon of a house perched on a bluff. It shows a river carving away the ground where the house sits.It says high." title="High Erosion Icon"&gt;</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Cedar River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>1grn</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Green River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>1rag</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Raging River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>1snq</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Snoqualmie River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>1tlt</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Tolt River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>2ced</t>
   </si>
   <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Erosion_mod.jpg" alt="This is an icon of a house perched on a bluff. It shows a river carving away the ground where the house sits.It says mod." title="Mod Erosion Icon"&gt;</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Cedar River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>2grn</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Green River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>2rag</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Raging River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>2snq</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Snoqualmie River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>2tlt</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Tolt River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>3grn</t>
   </si>
   <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Erosion_low.jpg" alt="This is an icon of a house perched on a bluff. It shows a river carving away the ground where the house sits.It says low." title="Low Erosion Icon"&gt;</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a low chance of the Green River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>3snq</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a low chance of the Snoqualmie River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>3tlt</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a low chance of the Tolt River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>500ft</t>
   </si>
   <si>
@@ -784,9 +622,6 @@
     <t>rvr</t>
   </si>
   <si>
-    <t>This is inside the current river channel. Over time the location of the channel may change. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(source)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>If the dams failed</t>
   </si>
   <si>
@@ -796,33 +631,18 @@
     <t>CLBK</t>
   </si>
   <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/X2HGtZX6Kyz target=_blank&gt; George Culmback Dam &lt;/a&gt; or the &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Tolt River Dam&lt;/a&gt; failed this area could be flooded &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(source)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
     <t>LYlo</t>
   </si>
   <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(source)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
     <t>LYmod</t>
   </si>
   <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at moderate risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(source)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
     <t>LYhi</t>
   </si>
   <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at high risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(source)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
     <t>SFT</t>
   </si>
   <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Tolt River Dam&lt;/a&gt; failed this area could be flooded &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(source)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
     <t>Flood_kingco</t>
   </si>
   <si>
@@ -835,90 +655,48 @@
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/sandbag.jpg" alt="This is an icon of a house perched above a river. It shows a stacked sandbags keeping the water away from the house." title="Sandbag Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt; &lt;p&gt; Russell Road Park &lt;br&gt; btwn Russell Rd. and S. 240th St.&lt;br&gt; Kent&amp;#44; WA&amp;#44; 98032 &lt;br&gt;  Sand only pickup (no sandbags)&amp;#44; M-F 8:00 am - 4:00 pm &lt;/p&gt;</t>
-  </si>
-  <si>
     <t>nbend</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt; Public Works Shops &lt;br&gt;1155 East North Bend Way &lt;br&gt; North Bend&amp;#44; WA 98045 &lt;/p&gt;&lt;p&gt; After a flood warning announcement for the Snoqualmie River sandbags and sand can be picked up here.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>carn</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt; 33100 NE 45th Street &lt;br&gt; Carnation&amp;#44; WA 98014 &lt;br&gt;M-F 8:00am - 4:30pm&amp;#44; sandbags and sand can be picked up here (supplies are limited)&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>nesea</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Meadowbrook Community Center&lt;br&gt;10517 35th Ave. NE &lt;br&gt; Seattle&amp;#44; WA 98125&lt;br&gt;Sandbags and sand will be left outside for public pick-up. Limit 25 per address.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>aub</t>
   </si>
   <si>
     <t>sknt</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Kent City Public Works&lt;br&gt; 5821 S. 240th St. &lt;br&gt; Kent&amp;#44; WA 98032&lt;br&gt; M-F 8:00am - 4:00pm sandbags can be picked up here (sand not provided).&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>mpvly</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Tahoma School District &lt;br&gt; 23015 SE 216th Way&lt;br&gt; Maple Valley&amp;#44; WA 98038&lt;br&gt;When Cedar River flooding is likely&amp;#44; sandbag and sand pickup will be available 8:00am - 5:00pm (or until dusk).&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>pacif1</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Pacific City Park &lt;br&gt; 600 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047&lt;br&gt;Sandbag and sand pickup will be announced when White River flooding is imminent.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>pacif2</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Pacific/Algona Community Center &lt;br&gt; 100 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047 &lt;br&gt;Sandbag and sand pickup will be announced when White River flooding flooding is imminent.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>snqmi</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;City property &lt;br&gt; Railroad Avenue SE and SE King Street &lt;br&gt; Snoqualmie&amp;#44; WA 98065&lt;br&gt;Sandbag and sand pickup will be announced when Snoqualmie River flooding is imminent or as directed by emergency personnel.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>falct</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Preston-Snoqualmie Trail parking lot &lt;br&gt; Lake Alice Road SE and SE 56th Place &lt;br&gt; Fall City&amp;#44; WA 98024&lt;br&gt;Sandbag and sand pickup will be announced when Snoqualmie River flooding is imminent.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>duvl</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;14701 Main St. NE &lt;br&gt; Duvall&amp;#44; WA 98019&lt;br&gt; Sandbag and sand pickup will be announced when flooding is imminent or contact the City of Duvall (425-788-3332).&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>nwsea</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Haller Lake Neighborhood &lt;br&gt; 12551 Ashworth Ave N.&lt;br&gt; Seattle&amp;#44; WA 98133&lt;br&gt;Sandbags and sand will be left outside for public pick-up. Limit 25 per address.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>csea</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;South Park Neighborhood &lt;br&gt; 731 S. Sullivan &lt;br&gt; Seattle&amp;#44; WA 98108&lt;br&gt;Sandbags and sand will be left outside for public pick-up. Limit 25 per address.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>ssea</t>
   </si>
   <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Delridge Community Center &lt;br&gt; 4501 Delridge Way SW &lt;br&gt; Seattle&amp;#44; WA 98106&lt;br&gt; Sandbags and sand will be left outside for public pick-up. Limit 25 per address.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>With the many rivers in King County flooding is common during periods of heavy rainfall or rapid snowmelt. It is most common from November to February&amp;#44; but can happen whenever the conditions are right.</t>
   </si>
   <si>
@@ -943,30 +721,18 @@
     <t>ex</t>
   </si>
   <si>
-    <t xml:space="preserve">This is a very high-risk community for wildfire. It sits at a boundary between humans and the forest. Western Washington is temperate&amp;#44; but wildfires do strike the eastern part of King County every year. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(source)&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>hi</t>
   </si>
   <si>
-    <t xml:space="preserve">This is a high-risk community for wildfire. It sits at a boundary between humans and the forest. Western Washington is temperate&amp;#44; but wildfires do strike the eastern part of King County every year. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(source)&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>buf</t>
   </si>
   <si>
     <t>kco</t>
   </si>
   <si>
-    <t xml:space="preserve">This area has a low to very low risk of wildfire. If you live near a wooded area be aware that wildfires can happen. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(source)&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>wtr</t>
   </si>
   <si>
-    <t xml:space="preserve">As this is water&amp;#44; no wildfire potential exists here. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(source)&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>You could experience a major wildfire here. It will be fast moving&amp;#44; with large flames and may change direction quickly.  It could take firefighters days or weeks to contain it.</t>
   </si>
   <si>
@@ -1006,30 +772,18 @@
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Lahar.jpg" alt="This is an icon of Mount Rainier with a lahar coming from it" title="Mount Rainier Lahar Icon"&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">If a lahar is triggered on Mount Rainier&amp;#44; &lt;b&gt;this area is could see flooding and sediment like mud&amp;#44; sand&amp;#44; rocks&amp;#44; and other debris brought down river by the lahar&lt;/b&gt;. This could occur for years to decades after the lahar.&lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(source)&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>MdLah</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;A 10% - 40% chance exists of a lahar from Mount Rainier flowing through this region in the next 50 years.&lt;/b&gt; Lahars behave and look like wet flowing concrete. Thick mud and debris will cover the area if one happens. This could severely damage property and take a long time to recover. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(source)&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>LgLah</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;A 5% - 10% chance exists of a lahar from Mount Rainier flowing through this area in the next 50 years&lt;/b&gt;. Lahars behave and look like wet flowing concrete. Thick mud and debris will cover the area if one happens. This could severely damage property and take a long time to recover. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(source)&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>Kco</t>
   </si>
   <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Ashfall.jpg" alt="This is an icon of an Ash plume coming from Mount Rainier" title="Mount Rainier Ash Icon"&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">You are OUTSIDE THE LAHAR HAZARD ZONE. If Mount Rainier erupts ash will cover the region. It will look much like areas impacted by the Mount Saint Helen's eruption in 1980. Ash thickness will vary with distance from eruption. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(source)&lt;/a&gt; </t>
-  </si>
-  <si>
     <t>Volcanoes typically provide warning signals days to months before they erupt.&lt;b&gt; Gas and earthquake activity increases and the ground surface swells as magma moves beneath it.&lt;/b&gt; Though these signs may be imperceptible to the general public&amp;#44; Mount Rainier is monitored continuously by scientists with the &lt;a href=http://volcanoes.usgs.gov/volcanoes/mount_rainier/ target=_blank&gt;USGS Volcano Hazards Program&lt;/a&gt;.</t>
   </si>
   <si>
@@ -1039,13 +793,7 @@
     <t>&lt;p&gt; Mount Rainier has had a long history of &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_eruption_history.html target=_blank&gt;eruptions&lt;/a&gt; and &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_lahars.html target=_blank&gt;lahars&lt;/a&gt;.About 500 years ago the Electron Mudflow surged downhill travelling through Puyallup and as far as Sumner&amp;#44; WA. In the thousands of years before that many lahars travelled along local rivers reaching as far as Auburn.  &lt;b&gt;Some towns (NE Tacoma&amp;#44; Orting&amp;#44; and Puyallup) are built on historical lahar deposits.&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;This is outside the high-risk flood areas &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(source)&lt;/a&gt;. BUT if you live near a creek or small river be aware that it could flood too. See the &lt;a href=http://www.kingcounty.gov/depts/dnrp/wlr/sections-programs/river-floodplain-section.aspx target=_blank&gt;River and Floodplain Management website&lt;/a&gt; for more information. &lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Has it been raining hard or for many days? Have rising temperatures been causing rapid snowmelt in the mountains? Do water levels in local rivers look high? Chances of flooding could be increasing. Check news reports by the weather service for local alerts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This area has not been identified as having high risk for wildfire&amp;#44; but it is within a half mile of a high-risk community. In the right conditions wildfire will spread. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(source)&lt;/a&gt; </t>
   </si>
   <si>
     <t>Winter Weather</t>
@@ -1084,27 +832,12 @@
     <t>Climate Imacts</t>
   </si>
   <si>
-    <t>&lt;p&gt;Scientists have not identified any landslides in this region. For more information see the &lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt; and &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;No landslides have been identified here according to a 1995 study on slides in the City of Seattle (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;No studies have been completed here to identify if historical landslides exist (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;A LANDSLIDE HAS HAPPENED HERE at some time in the past (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant  (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;A LANDSLIDE HAS HAPPENED HERE at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant  (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;A LANDSLIDE and ROCK AVALANCHE HAS HAPPENED HERE at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;A ROCK AVALANCHE HAS HAPPENED HERE at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;A LANDSLIDE HAS HAPPENED HERE according to a 1995 study on slides in the City of Seattle (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant.&lt;/p&gt;</t>
   </si>
   <si>
@@ -1117,9 +850,6 @@
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Climate.jpg" alt="This is an icon of the earth with a thermometer in the top left" title="Climate Change Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;No landslides have been identified here (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;). Landslides are most common on barren&amp;#44; steep slopes where drainages come together. If you live below an area like this be aware of your risks (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Across King County winter can bring below freezing temps&amp;#44; icy roads&amp;#44; and the potential for major storms. Snowfall occurs occasionally&amp;#44; with more at higher elevations. Winter storms can bring high winds that cause trees to fall and power to go out.&lt;/p&gt;</t>
   </si>
   <si>
@@ -1166,12 +896,6 @@
   </si>
   <si>
     <t>&lt;p&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here.  Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes. Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;If slopes nearby are steep&amp;#44; unvegitated&amp;#44; and it's been raining for days a landslide may happen. Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;It's unlikely you will see a slide here&amp;#44; but if slopes nearby are steep and conditions are right&amp;#44; landslides can happen&amp;#44; destroying property&amp;#44; blocking roads and wreaking havoc. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(source)&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Severe heat could last for days causing communities to see an increase in heat-related illness including HEAT EXHAUSTION and HEAT STROKE. The high temps&amp;#44; dry conditions&amp;#44; and increased likelihood for lightning may lead to wildfires.&lt;/p&gt;</t>
@@ -1233,19 +957,6 @@
     <t>&lt;p&gt;(1) GET SUPPLIES - Store extra fuel and emergency supplies to survive several days without electricity&amp;#44; heat&amp;#44; and hot water. Consider purchasing a generator and follow safety standards.&lt;br&gt; (2) WINTERIZE YOUR HOME - Install storm windows. Insulate walls&amp;#44; attics&amp;#44; and pipes. Apply caulk and weather-stripping to doors and windows. Allow faucets to drip a little during cold weather to keep pipes from freezing. Learn how to shut off water valves (in case a pipe bursts). &lt;br&gt; (3) WINTERIZE YOUR VEHICLES - Keep fuel tanks at least half full. Have the battery&amp;#44; ignition system&amp;#44; radiator&amp;#44; lights&amp;#44; brakes&amp;#44; and tires checked. Fill reservoirs with antifreeze&amp;#44; oil&amp;#44; and window washer fluids. Keep winter weather emergency supplies in your trunk.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;During an eruption&amp;#44; listen to the news for emergency updates and follow emergency instructions.
-&lt;li&gt;&lt;b&gt;IN LAHAR ZONE&lt;/b&gt; - Get to higher ground immediately.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;OUTSIDE&lt;/b&gt; - Cover your mouth&amp;#44; nose&amp;#44; and body to avoid irritation. Find shelter. &lt;/li&gt;
-&lt;li&gt;&lt;b&gt;INSIDE&lt;/b&gt; - Keep doors and vents in home closed and stay indoors&amp;#44; unless directed otherwise. Place damp towels at door thresholds and tape drafty windows. Keep car and truck engines off to avoid damage from ash congestion. Protect animals and machinery by bringing them inside or in a covered area.&lt;/li&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Volcano_during.jpg" alt="This is an panel of three images of what to do during a volcanic eruption or lahar. In lahar zone&amp;#44; outside&amp;#44; inside." title="During Volcano Image"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;li&gt;INDOORS - STAY THERE! Take cover under a sturdy desk or table away from objects that could fall on you and hold on. DON'T run outside before shaking stops. &lt;/li&gt;&lt;li&gt;OUTSIDE - GET INTO THE OPEN away from buildings&amp;#44; power lines&amp;#44; chimneys&amp;#44; or things that could fall on you. &lt;/li&gt;&lt;li&gt;DRIVING - CAREFULLY STOP (not under a bridge&amp;#44; overpass&amp;#44; power lines&amp;#44; etc.) and STAY INSIDE VEHICLE.&lt;/li&gt;&lt;li&gt;NEAR THE OCEAN - Follow guidelines above until shaking stops. Then HEAD FOR HIGH GROUND.&lt;/li&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/EQ_during.jpg" alt="This is a panel of four cartoon images showing what to do during an earthquake if inside&amp;#44; outside&amp;#44; driving&amp;#44; or near the ocean." title="During Earthquake Image"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;li&gt;PREPARE - Gather emergency items (warm clothes&amp;#44; flashlight&amp;#44; cell phone&amp;#44; portable radio&amp;#44; etc). If time permits and it seems necessary&amp;#44; shut off utilities&lt;/li&gt;&lt;li&gt;LISTEN - Listen to the news and if advised&amp;#44; evacuate to higher ground.&lt;/li&gt;&lt;li&gt;AVOID HAZARDS - DO NOT wade or drive through floodwaters. It only takes 6 inches of moving water to knock you down and 2 feet to sweep a car away!&lt;/li&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Flood_during.jpg" alt="This is a panel of four cartoon images showing what to do during an a flood colect essentials&amp;#44; get to high ground&amp;#44; avoid water&amp;#44; and shutt off utilities." title="During Flood Image"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;(1) PLAN - Make a plan of what to do and where to go if waters rise. Have essential items ready (birth certificates&amp;#44; important documents&amp;#44; photos&amp;#44; etc). Acquire flood insurance if you need it. &lt;br&gt; (2) PREPARE - Store valuables and household chemicals above flood levels and learn how to turn off utilities (&lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target=_blank&gt;water&amp;#44; gas&amp;#44; and electricity&lt;/a&gt;).&lt;/p&gt;</t>
   </si>
   <si>
@@ -1253,18 +964,10 @@
   </si>
   <si>
     <t>&lt;p&gt;(1) ASSESS - If the area around your home may be prone to landslides seek advice of geotechnical experts. They can evaluate landslide hazard and/or design corrective techniques to reduce landslide risk.&lt;br&gt;(2) REDUCE RISK - Plant ground cover on slopes and/or build a retaining wall to stabilize hillsides&lt;br&gt; (3) PREPARE - Make a supply kit and family plan designating at least two evacuation routes&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Staying out of the path of a landslide or debris flow is your best protection.&lt;/b&gt; The U.S. Geological Survey also recommend the following&amp;#44; &lt;li&gt;BE ALERT - Listen for unusual sounds. Intense&amp;#44; short bursts of rain may be particularly dangerous&amp;#44; especially after longer periods of heavy rainfall and damp weather.&lt;/li&gt;&lt;li&gt;CONSIDER LEAVING - If you are in areas susceptible to landslides and debris flows&amp;#44; consider leaving if it is safe to do so.  If you decide to stay home&amp;#44; move to a second story if possible.&lt;/li&gt;&lt;li&gt;NOTICE STREAM LEVELS - If you are near a stream or channel&amp;#44; be alert for any sudden increase or decrease in water flow and for a change from clear to muddy water. These could indicate landslide activity upstream. DON'T DELAY! Save yourself&amp;#44; not your belongings.&lt;/li&gt;&lt;br&gt; You can find more landslide tips from USGS &lt;a href=http://landslides.usgs.gov/learn/prepare.php target=_blank&gt;here&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;(1) MAKE SPACE - Protect lives and property by creating a fire-adapted space around your home&amp;#44; shed&amp;#44; and business. To find out how check out &lt;a href=http://www.firewise.org/wildfire-preparedness.aspx target=_blank&gt;firewise.org&lt;/a&gt;.&lt;br&gt;
 (2) WATCH WEATHER - A few sunny days can dry out forests enough to catch fire. Windy conditions can cause wildfires to get out of control quickly.&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Firewise_Brochure.jpg" alt="This is an image of ways to prevent wildfire around your home. They include screening decks&amp;#44; pruning trees 6-10 feet from the ground&amp;#44; using fire-resistant wall and roof materials&amp;#44; keeping plants watered&amp;#44; and making sure your driveway can accommodate an emergency vehicle" title="How to Prepare Your Home for Wildfire"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;Restock emergency supplies and get ready in case another storm hits&lt;/li&gt;
-&lt;li&gt;Improve your family plan. What worked? What could be done better?&lt;/li&gt;
-&lt;li&gt;Talk to your neighbors and share tips with each other&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Older adults&amp;#44; young children&amp;#44; and people with mental illness and chronic diseases are at higher risk of heat-related issues.&lt;br&gt;&lt;br&gt;
@@ -1273,48 +976,353 @@
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;STAY COOL: Stay indoors and&amp;#44; if possible&amp;#44; in an air conditioned place (shopping mall&amp;#44; library&amp;#44; theater&amp;#44; etc). Limit outdoor activity.&lt;/li&gt;
+    <t>&lt;p&gt;After the immediate danger from an eruption has subsided&amp;#44; cleaning up the ashfall will be the main event.&lt;br&gt;  &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/MtStHel_Yakima_graders.jpg" alt="This image shows two graders shoveling inches of ashfall from Saint Helens' eruption" title="Ashfall Cleanup in Yakima After Mt. Saint Helens"&gt;&lt;li&gt;Wear goggles and a face mask when outside. Air quality will be poor.&lt;/li&gt;&lt;li&gt;Avoid running vehicle engines.&lt;/li&gt;&lt;li&gt; If you must drive&amp;#44; keep speeds low (less than 35 MPH) and check oil&amp;#44; oil filters&amp;#44; and air filters frequently &lt;/li&gt;&lt;li&gt;Ashfall is very heavy and can cause buildings to collapse. If safe to do so&amp;#44; clear ash from roofs and rain gutters.&lt;/li&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;(1) ASK - Find out what steps local officials have taken to prepare for volcanic events. Ask public officials what their plan is and how they will communicate with you during an event. You can do this by contacting the King County &lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=_blank&gt; Office of Emergency Management&lt;/a&gt;.&lt;br&gt;(2) PLAN - Talk to your friends and neighbors. If you are in a high risk zone&amp;#44; decide where you would go&amp;#44; what you would bring&amp;#44; and who you would contact.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="padding-left:1.2em"&gt; &lt;li&gt;STAY INFORMED - Monitor local news on your TV&amp;#44; mobile device&amp;#44; or battery-operated radio. Follow emergency instructions and pay attention to travel advisories.&lt;/li&gt;
+&lt;li&gt;AVOID TRAVEL - If you must drive&amp;#44; fill the gas tank&amp;#44; stay on main roads&amp;#44; and keep others informed of your itinerary. Slow down. If stranded&amp;#44; call for help&amp;#44; turn on hazard lights&amp;#44; and remain with your vehicle. Don't set out on foot unless shelter is close by.&lt;/li&gt;
+&lt;li&gt;KNOW YOUR RISKS - 
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;Hypothermia&lt;/b&gt; - If you notice signs get medical help immediately. For symptoms and other information click &lt;a href=https://www.cdc.gov/disasters/winter/staysafe/hypothermia.html target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt; Carbon Monoxide Poisoning&lt;/b&gt; - It happens when fuels like gas&amp;#44; oil&amp;#44; kerosene&amp;#44; wood&amp;#44; or charcoal are burned in an enclosed space. Hundreds of people die accidentally each year. Find out more &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/carbon-monoxide.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;li&gt;AVOID HAZARDS - Steer clear of fallen power lines&amp;#44; flooded&amp;#44; roads&amp;#44; and other structures weakened from heavy snow or ice.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Winter_during.jpg" alt="This is a panel of four images of what to do during bad winter weather. Stay Tuned&amp;#44; Stay Inside&amp;#44; Know Risks&amp;#44; and Avoid Hazards." title="During Winter Weather Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="padding-left:1.2em"&gt; &lt;li&gt;Restock emergency supplies and get ready in case another storm hits&lt;/li&gt;
+&lt;li&gt;Improve your family plan. What worked? What could be done better?&lt;/li&gt;
+&lt;li&gt;Talk to your neighbors and share tips with each other&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;STAY COOL: Stay indoors and&amp;#44; if possible&amp;#44; in an air conditioned place (shopping mall&amp;#44; library&amp;#44; theater&amp;#44; etc). Limit outdoor activity.&lt;/li&gt;
 &lt;li&gt;PROTECT SKIN: Wear lightweight&amp;#44; light-colored&amp;#44; loose-fitting clothing. A wide brimmed hat&amp;#44; sunglasses&amp;#44; and sunscreen will help.&lt;/li&gt;
 &lt;li&gt;DRINK WATER: Drink lots of fluids (avoid caffeine&amp;#44; alcohol&amp;#44; and sugary drinks) and carry a water bottle.&lt;/li&gt;
-&lt;li&gt;THINK OF OTHERS: Keep kids and pets outside of hot cars. Check on at-risk family&amp;#44; friends&amp;#44; and neighbors often.&lt;/li&gt;
+&lt;li&gt;THINK OF OTHERS: Keep kids and pets outside of hot cars. Check on at-risk family&amp;#44; friends&amp;#44; and neighbors often.&lt;/li&gt;&lt;/ul&gt;
 &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Summer_during.jpg" alt="This is a panel of three images of what to do during bad summer weather. Stay Cool&amp;#44; Protect Skin&amp;#44; and Drink Water." title="During Summer Weather Image"&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;Use window drapes to cover windows and keep cool air inside.&lt;/li&gt;
+    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;Use window drapes to cover windows and keep cool air inside.&lt;/li&gt;
 &lt;li&gt;Consider purchasing an air-conditioning system and/or installing weather-stripping in the home where hot air seeps in. &lt;/li&gt;
-&lt;li&gt;LOW-BUDGET OPTION: Build heat reflectors (for use between windows and drapes)&amp;#44; such as aluminum foil-covered cardboard&amp;#44; to reflect heat back outside. Click &lt;a href=http://www.instructables.com/id/Heat-blocking-curtains/ target=_blank&gt;here&lt;/a&gt; for DIY instructions.&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;After the immediate danger from an eruption has subsided&amp;#44; cleaning up the ashfall will be the main event.&lt;br&gt;  &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/MtStHel_Yakima_graders.jpg" alt="This image shows two graders shoveling inches of ashfall from Saint Helens' eruption" title="Ashfall Cleanup in Yakima After Mt. Saint Helens"&gt;&lt;li&gt;Wear goggles and a face mask when outside. Air quality will be poor.&lt;/li&gt;&lt;li&gt;Avoid running vehicle engines.&lt;/li&gt;&lt;li&gt; If you must drive&amp;#44; keep speeds low (less than 35 MPH) and check oil&amp;#44; oil filters&amp;#44; and air filters frequently &lt;/li&gt;&lt;li&gt;Ashfall is very heavy and can cause buildings to collapse. If safe to do so&amp;#44; clear ash from roofs and rain gutters.&lt;/li&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(1) ASK - Find out what steps local officials have taken to prepare for volcanic events. Ask public officials what their plan is and how they will communicate with you during an event. You can do this by contacting the King County &lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=_blank&gt; Office of Emergency Management&lt;/a&gt;.&lt;br&gt;(2) PLAN - Talk to your friends and neighbors. If you are in a high risk zone&amp;#44; decide where you would go&amp;#44; what you would bring&amp;#44; and who you would contact.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;Return to your home once authorities say it is safe.&lt;/li&gt;&lt;li&gt;Use caution when entering burned areas as hazards may still exist.&lt;/li&gt;
+&lt;li&gt;LOW-BUDGET OPTION: Build heat reflectors (for use between windows and drapes)&amp;#44; such as aluminum foil-covered cardboard&amp;#44; to reflect heat back outside. Click &lt;a href=http://www.instructables.com/id/Heat-blocking-curtains/ target=_blank&gt;here&lt;/a&gt; for DIY instructions.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>During an eruption&amp;#44; listen to the news for emergency updates and follow emergency instructions.
+&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;&lt;b&gt;IN LAHAR ZONE&lt;/b&gt; - Get to higher ground immediately.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;OUTSIDE&lt;/b&gt; - Cover your mouth&amp;#44; nose&amp;#44; and body to avoid irritation. Find shelter. &lt;/li&gt;
+&lt;li&gt;&lt;b&gt;INSIDE&lt;/b&gt; - Keep doors and vents in home closed and stay indoors&amp;#44; unless directed otherwise. Place damp towels at door thresholds and tape drafty windows. Keep car and truck engines off to avoid damage from ash congestion. Protect animals and machinery by bringing them inside or in a covered area.&lt;/li&gt;&lt;/ul&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Volcano_during.jpg" alt="This is an panel of three images of what to do during a volcanic eruption or lahar. In lahar zone&amp;#44; outside&amp;#44; inside." title="During Volcano Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;STAY TUNED - Listen for local emergency alerts on the radio and/or television and be ready to evacuate if necessary.&lt;/li&gt;&lt;li&gt;REMOVE FLAMABLES - Remove materials from around your property that could catch fire (lawn chairs&amp;#44; tables&amp;#44; etc.).&lt;/li&gt;&lt;li&gt;PREPARE YOUR HOME - Move upholstered furniture away from windows. Close doors and windows&amp;#44; but do not lock them.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Fire_during.jpg" alt="This is an icon of an exclaimation point with two triangles behind it" title="During Fire Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;Return to your home once authorities say it is safe.&lt;/li&gt;&lt;li&gt;Use caution when entering burned areas as hazards may still exist.&lt;/li&gt;
 &lt;li&gt;Check and re-check for smoke or hidden embers.&lt;/li&gt;
-&lt;li&gt;Photograph damage for insurance purposes.&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;li&gt;STAY TUNED - Listen for local emergency alerts on the radio and/or television and be ready to evacuate if necessary.&lt;/li&gt;&lt;li&gt;REMOVE FLAMABLES - Remove materials from around your property that could catch fire (lawn chairs&amp;#44; tables&amp;#44; etc.).&lt;/li&gt;&lt;li&gt;PREPARE YOUR HOME - Move upholstered furniture away from windows. Close doors and windows&amp;#44; but do not lock them.&lt;/li&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Fire_during.jpg" alt="This is an icon of an exclaimation point with two triangles behind it" title="During Fire Image"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;BE PREPARED FOR FLOODING (landslides often block rivers and can cause rivers to back up and flood).&lt;li&gt;Stay away from the slide. Other slides can occur after the main slide.&lt;/li&gt;&lt;li&gt;Once it's safe&amp;#44; check for injured and trapped people.&lt;/li&gt;&lt;li&gt;Check for damaged utility lines and report any damage to your utility company.&lt;/li&gt;&lt;li&gt;Listen to local media or NOAA Weather Radio for current information.&lt;/li&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;li&gt;If your home has been flooded&amp;#44; be wary reentering it as it could have structural damage.&lt;/li&gt;&lt;li&gt;Have a professional check utilities before turning them back on.&lt;/li&gt;&lt;li&gt;Document losses by photographing damages and recording repair costs.&lt;/li&gt;&lt;li&gt;Find out more &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/flooding/prepare.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;&lt;p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;PREPARE FOR AFTERSHOCKS (earthquakes that follow the main shock are common and can cause more damage than initial quake). &lt;li&gt;Check yourself and others for injuries.&lt;/li&gt;&lt;li&gt;Once safe&amp;#44; check news reports via battery operated radio&amp;#44; TV&amp;#44; social media&amp;#44; and cell phone text alerts for emergency information.&lt;/li&gt;&lt;li&gt;Phone lines will be overwhelmed&amp;#44; texting can be a good way to communicate with family.&lt;/li&gt;&lt;li&gt;Emergency responders will be busy. Depend on your friends and neighbors for support during the hours and days following an earthquake.&lt;/li&gt;&lt;li&gt;Control utilities if necessary. Find out more about when and how to &lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target="_blank"&gt; control gas and water after an earthquake&lt;/a&gt;.&lt;/li&gt;&lt;br&gt;Watch this &lt;a href=https://www.fema.gov/media-library/assets/videos/98767 target="_blank"&gt;video&lt;/a&gt; to find out more about what to do DURING and AFTER and earthquake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;STAY INFORMED - Monitor local news on your TV&amp;#44; mobile device&amp;#44; or battery-operated radio. Follow emergency instructions and pay attention to travel advisories.&lt;/li&gt;
-&lt;li&gt;AVOID TRAVEL - If you must drive&amp;#44; fill the gas tank&amp;#44; stay on main roads&amp;#44; and keep others informed of your itinerary. Slow down. If stranded&amp;#44; call for help&amp;#44; turn on hazard lights&amp;#44; and remain with your vehicle. Don't set out on foot unless shelter is close by.&lt;/li&gt;
-&lt;li&gt;KNOW YOUR RISKS - &lt;ul&gt;&lt;li&gt;&lt;b&gt;Hypothermia&lt;/b&gt; - If you notice signs get medical help immediately. For symptoms and other information click &lt;a href=https://www.cdc.gov/disasters/winter/staysafe/hypothermia.html target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt; Carbon Monoxide Poisoning&lt;/b&gt; - It happens when fuels like gas&amp;#44; oil&amp;#44; kerosene&amp;#44; wood&amp;#44; or charcoal are burned in an enclosed space. Hundreds of people die accidentally each year. Find out more &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/carbon-monoxide.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt;
-&lt;li&gt;AVOID HAZARDS - Steer clear of fallen power lines&amp;#44; flooded&amp;#44; roads&amp;#44; and other structures weakened from heavy snow or ice.&lt;/li&gt; &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Winter_during.jpg" alt="This is a panel of four images of what to do during bad winter weather. Stay Tuned&amp;#44; Stay Inside&amp;#44; Know Risks&amp;#44; and Avoid Hazards." title="During Winter Weather Image"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(source)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;1305 C St. SW &lt;br&gt; Auburn&amp;#44; WA 98001&lt;br&gt; M-F 6:30am - 4:00pm&amp;#44; sandbag and sand pickup are available by request (call 253-931-3048).</t>
+&lt;li&gt;Photograph damage for insurance purposes.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>BE PREPARED FOR FLOODING (landslides often block rivers and can cause rivers to back up and flood).&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;Stay away from the slide. Other slides can occur after the main slide.&lt;/li&gt;&lt;li&gt;Once it's safe&amp;#44; check for injured and trapped people.&lt;/li&gt;&lt;li&gt;Check for damaged utility lines and report any damage to your utility company.&lt;/li&gt;&lt;li&gt;Listen to local media or NOAA Weather Radio for current information.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;If your home has been flooded&amp;#44; be wary reentering it as it could have structural damage.&lt;/li&gt;&lt;li&gt;Have a professional check utilities before turning them back on.&lt;/li&gt;&lt;li&gt;Document losses by photographing damages and recording repair costs.&lt;/li&gt;&lt;li&gt;Find out more &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/flooding/prepare.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;INDOORS - STAY THERE! Take cover under a sturdy desk or table away from objects that could fall on you and hold on. DON'T run outside before shaking stops. &lt;/li&gt;&lt;li&gt;OUTSIDE - GET INTO THE OPEN away from buildings&amp;#44; power lines&amp;#44; chimneys&amp;#44; or things that could fall on you. &lt;/li&gt;&lt;li&gt;DRIVING - CAREFULLY STOP (not under a bridge&amp;#44; overpass&amp;#44; power lines&amp;#44; etc.) and STAY INSIDE VEHICLE.&lt;/li&gt;&lt;li&gt;NEAR THE OCEAN - Follow guidelines above until shaking stops. Then HEAD FOR HIGH GROUND.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/EQ_during.jpg" alt="This is a panel of four cartoon images showing what to do during an earthquake if inside&amp;#44; outside&amp;#44; driving&amp;#44; or near the ocean." title="During Earthquake Image"&gt;</t>
+  </si>
+  <si>
+    <t>PREPARE FOR AFTERSHOCKS (earthquakes that follow the main shock are common and can cause more damage than initial quake). &lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;Check yourself and others for injuries.&lt;/li&gt;&lt;li&gt;Once safe&amp;#44; check news reports via battery operated radio&amp;#44; TV&amp;#44; social media&amp;#44; and cell phone text alerts for emergency information.&lt;/li&gt;&lt;li&gt;Phone lines will be overwhelmed&amp;#44; texting can be a good way to communicate with family.&lt;/li&gt;&lt;li&gt;Emergency responders will be busy. Depend on your friends and neighbors for support during the hours and days following an earthquake.&lt;/li&gt;&lt;li&gt;Control utilities if necessary. Find out more about when and how to &lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target="_blank"&gt; control gas and water after an earthquake&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt;Watch this &lt;a href=https://www.fema.gov/media-library/assets/videos/98767 target="_blank"&gt;video&lt;/a&gt; to find out more about what to do DURING and AFTER and earthquake.</t>
+  </si>
+  <si>
+    <t>A Nisqually-like earthquake (magnitude 6.8) hitting in the next fifty years is more likely than not. Moderate shaking will be felt by nearly everyone. Doors will swing&amp;#44; pictures on walls will rattle&amp;#44; and small objects could fall. Damage will be slight. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A Nisqually-like earthquake (magnitude 6.8) hitting in the next fifty years is more likely than not. Strong shaking will make it hard to walk. Books&amp;#44; glassware&amp;#44; and items will fall from shelves. Cabinet doors and drawers will open. Some chimneys and poorly built buildings will be damaged.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A Nisqually-like earthquake (magnitude 6.8) hitting in the next fifty years is more likely than not. Very strong shaking will make it hard to stand. Furniture will move and many objects will fall from shelves. Damage will be significant in poorly built structures and slight to moderate in ordinary structures. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years. Moderate shaking will be felt by nearly everyone. Doors will swing&amp;#44; pictures on walls will rattle&amp;#44; and small objects could fall. Damage will be slight. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years. Strong shaking will make it hard to walk. Books&amp;#44; glassware&amp;#44; and items will fall from shelves. Some chimneys and poorly built buildings will be damaged. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years. Very strong shaking will make it hard to stand. Furniture will move and objects will fall. Damage will be significant in poorly built buildings and moderate in ordinary buildings. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years. Severe shaking will make it hard to stand or drive. Heavy furniture will be overturned. Parts of &lt;a href="http://www.seattle.gov/dpd/codesrules/changestocode/unreinforcedmasonrybuildings/whatwhy/" target=_blank&gt;URM&lt;/a&gt; buildings will collapse and wood frame houses will shift on foundations.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next fifty years. Violent shaking will cause widespread panic and cracks in the ground will form. Landslides will be triggered on steep slopes and liquefaction will occur in saturated soils. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The much anticipated magnitude 9 Cascadia earthquake hits. You will feel moderate shaking that persists for minutes. Unsecured items will fall off shelves. Cabinet doors may swing open and closed. Power and water could be off for days to weeks. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The much anticipated magnitude 9 Cascadia earthquake hits. You will feel strong shaking here that persists for minutes. It will be hard to walk. Many unreinforced masonry buildings will be damaged and people will be injured. Power and water will be off for days to weeks. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The much anticipated magnitude 9 Cascadia earthquake hits. You will feel very strong shaking that persists for minutes. Standing will be difficult and many will be injured. Bricks and shattered glass will litter the streets. Power and water will be off for days to weeks. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>You are in a HIGH danger tsunami zone. Water levels will reach above your head minutes to tens of minutes following the earthquake.  Once shaking stops EVACUATE IMMEDIATELY to higher ground. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>You are in a HIGH danger tsunami zone. Water levels will reach between your knees and head in minutes to tens of minutes following the earthquake.  Once shaking stops EVACUATE IMMEDIATELY to higher ground. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>You are in a HIGH danger tsunami zone. Water levels will reach up to your knees with a current fast enough to knock you over.  You have minutes to tens of minutes to EVACUATE to higher ground. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>You are outside the mapped high danger tsunami area&amp;#44; but tsunamis waves can vary. Do you live or work in a low elevation area (within 30ft of sea level) near the ocean? If so&amp;#44; EVACUATE IMMEDIATELY to higher ground after a large earthquake. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>You are within a quarter mile of the coast. If you are at low elevation  (within 30ft of sea level) you may be at risk of a tsunami following a nearby earthquake. Seek high ground immediately. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>If you are in a boat during an earthquake you may experience a fast moving tsunami wave come through. T up to it. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Potential: HIGH &lt;br&gt; Shaking soils will become very unstable and will behave like quicksand. Sand-filled water may come up through cracks in streets. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Potential: MODERATE - HIGH &lt;br&gt; Shaking soils will become unstable.  This will reduce the ability of soil to hold homes&amp;#44; vehicles&amp;#44; and other structures. Sand-filled water may come up through cracks in streets. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Potential: LOW - MODERATE &lt;br&gt; Some potential exists for liquefaction here. Shaking could cause soil to become unstable. Roads may crack and become damaged.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt; &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Potential: LOW&lt;br&gt; Unless shaking is strong it is unlikely you will see liquefaction here. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Potential:  VERY LOW - LOW &lt;br&gt; Unless shaking is very strong&amp;#44; it is unlikely you will see liquefaction here. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Potential: VERY LOW &lt;br&gt;Unless shaking is very strong&amp;#44; it is unlikely you will see liquefaction here.  &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Potential: NONE &lt;br&gt; This area is on bedrock&amp;#44; solid rock unerlying soils and sediments. It will not liquefy. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Potential: NONE &lt;br&gt; This area is on peat&amp;#44; a dark soil-like material composed of organic matter. It may warp but will not liquefy. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Potential: NONE&lt;br&gt; This area is made up of ice and will not liquefy. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; VERY LOW DENSITY: 0 to 10 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt;In this kind of building&amp;#44; strong earthquake shaking will cause brick walls or roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; LOW DENSITY: 10 to 25 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt; In this kind of building&amp;#44; strong earthquake shaking will cause brick walls or roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; MODERATE DENSITY: 25 to 50 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt; In this kind of building&amp;#44; strong earthquake shaking will cause brick walls or roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; HIGH DENSITY: 50 to 100 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt; If you are in a URM during an earthquake Drop&amp;#44; Cover&amp;#44; and Hold On. In these buildings strong earthquake shaking will cause brick walls  and roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href= http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; VERY HIGH DENSITY: 100 to 250 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt; If you are in a URM during an earthquake Drop&amp;#44; Cover&amp;#44; and Hold On. In these buildings strong earthquake shaking will cause brick walls and roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;There is a high chance of flooding here. It sits in the 100-year floodplain. This means there's a 25% chance of a floodwaters reaching here in the next 30 years &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt; . Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Flooding is unlikely here. Water levels may rise slightly during floods or heavy storms. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;  &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Flooding is unlikely here. Reservoir levels may rise slightly during floods or heavy storms. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;  &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bridges can be unsafe when flooding is occurring. If you suspect a bridge has been compromised&amp;#44; be wary and report it to the Flood Warning Center by calling 206-296-8200 or 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt; &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;This is outside the high-risk flood areas &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;. BUT if you live near a creek or small river be aware that it could flood too. See the &lt;a href=http://www.kingcounty.gov/depts/dnrp/wlr/sections-programs/river-floodplain-section.aspx target=_blank&gt;River and Floodplain Management website&lt;/a&gt; for more information. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; This area has flooded in the past when large rainstorms hit Seattle. The water pools and can't drain properly. It could happen again if another strong storm hits. Scroll down for how to prepare. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Rain&amp;#44; snowmelt&amp;#44; or both cause waters to rise rapidly. Floodwaters overtop riverbanks&amp;#44; spill into neighborhoods&amp;#44; and impact roadways. This area in the mapped 500-year floodplain and will be flooded. There's a 6% chance you'll see a flood of this size in the next 30 years. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt; &lt;p/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nearby creeks&amp;#44; streams&amp;#44; and rivers are flooding. This makes some roadways impassable &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt; . Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; It's unlikely you'll see flooding here. Large storms may cause nearby creeks&amp;#44; streams&amp;#44; and rivers to rise. Heavy rainfall could create pools of standing water on streets. If you spot localized flooding call the King County Flood Warning Center at 206-296-8200 or 800-945-9263.  &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt; &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; It's unlikely you'll see flooding here. Large storms may cause nearby creeks&amp;#44; streams&amp;#44; and rivers to rise. Heavy rainfall could create pools of standing water on streets. If you spot localized flooding call the King County Flood Warning Center at 206-296-8200 or 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt; &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; This area is prone to urban flooding. The bigger the storm the more flooding you could see near here. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt;  &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Cedar River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Green River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Raging River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Snoqualmie River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Tolt River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Cedar River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Green River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Raging River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Snoqualmie River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Tolt River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a low chance of the Green River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a low chance of the Snoqualmie River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a low chance of the Tolt River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>This is inside the current river channel. Over time the location of the channel may change. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/X2HGtZX6Kyz target=_blank&gt; George Culmback Dam &lt;/a&gt; or the &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Tolt River Dam&lt;/a&gt; failed this area could be flooded &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
+  </si>
+  <si>
+    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
+  </si>
+  <si>
+    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at moderate risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
+  </si>
+  <si>
+    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at high risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
+  </si>
+  <si>
+    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Tolt River Dam&lt;/a&gt; failed this area could be flooded &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt; &lt;p&gt; Russell Road Park &lt;br&gt; btwn Russell Rd. and S. 240th St.&lt;br&gt; Kent&amp;#44; WA&amp;#44; 98032 &lt;br&gt;  Sand only pickup (no sandbags)&amp;#44; M-F 8:00 am - 4:00 pm &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt; Public Works Shops &lt;br&gt;1155 East North Bend Way &lt;br&gt; North Bend&amp;#44; WA 98045 &lt;/p&gt;&lt;p&gt; After a flood warning announcement for the Snoqualmie River sandbags and sand can be picked up here.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt; 33100 NE 45th Street &lt;br&gt; Carnation&amp;#44; WA 98014 &lt;br&gt;M-F 8:00am - 4:30pm&amp;#44; sandbags and sand can be picked up here (supplies are limited)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Meadowbrook Community Center&lt;br&gt;10517 35th Ave. NE &lt;br&gt; Seattle&amp;#44; WA 98125&lt;br&gt;Sandbags and sand will be left outside for public pick-up. Limit 25 per address.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;1305 C St. SW &lt;br&gt; Auburn&amp;#44; WA 98001&lt;br&gt; M-F 6:30am - 4:00pm&amp;#44; sandbag and sand pickup are available by request (call 253-931-3048).</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Kent City Public Works&lt;br&gt; 5821 S. 240th St. &lt;br&gt; Kent&amp;#44; WA 98032&lt;br&gt; M-F 8:00am - 4:00pm sandbags can be picked up here (sand not provided).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Tahoma School District &lt;br&gt; 23015 SE 216th Way&lt;br&gt; Maple Valley&amp;#44; WA 98038&lt;br&gt;When Cedar River flooding is likely&amp;#44; sandbag and sand pickup will be available 8:00am - 5:00pm (or until dusk).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Pacific City Park &lt;br&gt; 600 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047&lt;br&gt;Sandbag and sand pickup will be announced when White River flooding is imminent.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Pacific/Algona Community Center &lt;br&gt; 100 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047 &lt;br&gt;Sandbag and sand pickup will be announced when White River flooding flooding is imminent.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;City property &lt;br&gt; Railroad Avenue SE and SE King Street &lt;br&gt; Snoqualmie&amp;#44; WA 98065&lt;br&gt;Sandbag and sand pickup will be announced when Snoqualmie River flooding is imminent or as directed by emergency personnel.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Preston-Snoqualmie Trail parking lot &lt;br&gt; Lake Alice Road SE and SE 56th Place &lt;br&gt; Fall City&amp;#44; WA 98024&lt;br&gt;Sandbag and sand pickup will be announced when Snoqualmie River flooding is imminent.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;14701 Main St. NE &lt;br&gt; Duvall&amp;#44; WA 98019&lt;br&gt; Sandbag and sand pickup will be announced when flooding is imminent or contact the City of Duvall (425-788-3332).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Haller Lake Neighborhood &lt;br&gt; 12551 Ashworth Ave N.&lt;br&gt; Seattle&amp;#44; WA 98133&lt;br&gt;Sandbags and sand will be left outside for public pick-up. Limit 25 per address.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;South Park Neighborhood &lt;br&gt; 731 S. Sullivan &lt;br&gt; Seattle&amp;#44; WA 98108&lt;br&gt;Sandbags and sand will be left outside for public pick-up. Limit 25 per address.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Delridge Community Center &lt;br&gt; 4501 Delridge Way SW &lt;br&gt; Seattle&amp;#44; WA 98106&lt;br&gt; Sandbags and sand will be left outside for public pick-up. Limit 25 per address.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;It's unlikely you will see a slide here&amp;#44; but if slopes nearby are steep and conditions are right&amp;#44; landslides can happen&amp;#44; destroying property&amp;#44; blocking roads and wreaking havoc. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;If slopes nearby are steep&amp;#44; unvegitated&amp;#44; and it's been raining for days a landslide may happen. Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a very high-risk community for wildfire. It sits at a boundary between humans and the forest. Western Washington is temperate&amp;#44; but wildfires do strike the eastern part of King County every year. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a high-risk community for wildfire. It sits at a boundary between humans and the forest. Western Washington is temperate&amp;#44; but wildfires do strike the eastern part of King County every year. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This area has not been identified as having high risk for wildfire&amp;#44; but it is within a half mile of a high-risk community. In the right conditions wildfire will spread. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This area has a low to very low risk of wildfire. If you live near a wooded area be aware that wildfires can happen. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As this is water&amp;#44; no wildfire potential exists here. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a lahar is triggered on Mount Rainier&amp;#44; &lt;b&gt;this area is could see flooding and sediment like mud&amp;#44; sand&amp;#44; rocks&amp;#44; and other debris brought down river by the lahar&lt;/b&gt;. This could occur for years to decades after the lahar.&lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;A 10% - 40% chance exists of a lahar from Mount Rainier flowing through this region in the next 50 years.&lt;/b&gt; Lahars behave and look like wet flowing concrete. Thick mud and debris will cover the area if one happens. This could severely damage property and take a long time to recover. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;A 5% - 10% chance exists of a lahar from Mount Rainier flowing through this area in the next 50 years&lt;/b&gt;. Lahars behave and look like wet flowing concrete. Thick mud and debris will cover the area if one happens. This could severely damage property and take a long time to recover. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are OUTSIDE THE LAHAR HAZARD ZONE. If Mount Rainier erupts ash will cover the region. It will look much like areas impacted by the Mount Saint Helen's eruption in 1980. Ash thickness will vary with distance from eruption. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;PREPARE - Gather emergency items (warm clothes&amp;#44; flashlight&amp;#44; cell phone&amp;#44; portable radio&amp;#44; etc). If time permits and it seems necessary&amp;#44; shut off utilities&lt;/li&gt;&lt;li&gt;LISTEN - Listen to the news and if advised&amp;#44; evacuate to higher ground.&lt;/li&gt;&lt;li&gt;AVOID HAZARDS - DO NOT wade or drive through floodwaters. It only takes 6 inches of moving water to knock you down and 2 feet to sweep a car away!&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Flood_during.jpg" alt="This is a panel of four cartoon images showing what to do during an a flood collect essentials&amp;#44; get to high ground&amp;#44; avoid water&amp;#44; and shutt off utilities." title="During Flood Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Staying out of the path of a landslide or debris flow is your best protection.&lt;/b&gt; The U.S. Geological Survey also recommend the following&amp;#44; &lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;BE ALERT - Listen for unusual sounds. Intense&amp;#44; short bursts of rain may be particularly dangerous&amp;#44; especially after longer periods of heavy rainfall and damp weather.&lt;/li&gt;&lt;li&gt;CONSIDER LEAVING - If you are in areas susceptible to landslides and debris flows&amp;#44; consider leaving if it is safe to do so.  If you decide to stay home&amp;#44; move to a second story if possible.&lt;/li&gt;&lt;li&gt;NOTICE STREAM LEVELS - If you are near a stream or channel&amp;#44; be alert for any sudden increase or decrease in water flow and for a change from clear to muddy water. These could indicate landslide activity upstream. DON'T DELAY! Save yourself&amp;#44; not your belongings.&lt;/li&gt;&lt;/ul&gt; You can find more landslide tips from USGS &lt;a href=http://landslides.usgs.gov/learn/prepare.php target=_blank&gt;here&lt;/a&gt;. &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Landslide_during.jpg" alt="This is a panel of three cartoon images showing what to do during an a landslide. Stay Alert&amp;#44; Leave the area&amp;#44; and Don't Delay." title="During Landslide Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;No landslides have been identified here (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;). Landslides are most common on barren&amp;#44; steep slopes where drainages come together. If you live below an area like this be aware of your risks (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en target=_blank&gt;map&lt;/a&gt;). To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Scientists have not identified any landslides in this region. For more information see the &lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt; and &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg target=_blank&gt;map&lt;/a&gt;. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend)..&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A LANDSLIDE HAS HAPPENED HERE at some time in the past (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A LANDSLIDE HAS HAPPENED HERE at some time in the past (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;) and  (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A LANDSLIDE HAS HAPPENED HERE at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A LANDSLIDE and ROCK AVALANCHE HAS HAPPENED HERE at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. Examine the data layers more closely on the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A ROCK AVALANCHE HAS HAPPENED HERE at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. Examine the data layers more closely on the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1431,8 +1439,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="223">
+  <cellStyleXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1680,7 +1744,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="223">
+  <cellStyles count="279">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1792,6 +1856,34 @@
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1903,6 +1995,34 @@
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2240,10 +2360,10 @@
   <dimension ref="A1:H284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G259" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H282" sqref="H282"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2300,7 +2420,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2323,7 +2443,7 @@
         <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2346,7 +2466,7 @@
         <v>70</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2357,10 +2477,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
@@ -2372,7 +2492,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2380,10 +2500,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
@@ -2395,7 +2515,7 @@
         <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2403,10 +2523,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
@@ -2418,7 +2538,7 @@
         <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2426,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
@@ -2441,7 +2561,7 @@
         <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2449,10 +2569,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>11</v>
@@ -2464,7 +2584,7 @@
         <v>90</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2475,10 +2595,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
@@ -2490,7 +2610,7 @@
         <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2498,10 +2618,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
@@ -2513,7 +2633,7 @@
         <v>60</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2521,10 +2641,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
@@ -2536,7 +2656,7 @@
         <v>70</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2547,10 +2667,10 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
@@ -2559,10 +2679,10 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2570,10 +2690,10 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
@@ -2582,10 +2702,10 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2593,10 +2713,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>11</v>
@@ -2605,10 +2725,10 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2616,10 +2736,10 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
@@ -2628,10 +2748,10 @@
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2639,10 +2759,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>11</v>
@@ -2651,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2662,10 +2782,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>11</v>
@@ -2674,10 +2794,10 @@
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2688,22 +2808,22 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2711,22 +2831,22 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>45</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2734,22 +2854,22 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>48</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2757,22 +2877,22 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2780,22 +2900,22 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>54</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2803,22 +2923,22 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>57</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2826,22 +2946,22 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>60</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2849,22 +2969,22 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" t="s">
-        <v>62</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>63</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2872,22 +2992,22 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>66</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2898,10 +3018,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>11</v>
@@ -2910,10 +3030,10 @@
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>70</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2921,10 +3041,10 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>11</v>
@@ -2933,10 +3053,10 @@
         <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>71</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2944,10 +3064,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>11</v>
@@ -2956,10 +3076,10 @@
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>72</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2967,10 +3087,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>11</v>
@@ -2979,10 +3099,10 @@
         <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>73</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2990,10 +3110,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>11</v>
@@ -3002,10 +3122,10 @@
         <v>247</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3016,22 +3136,22 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3039,62 +3159,62 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>342</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3102,13 +3222,13 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>11</v>
@@ -3117,18 +3237,18 @@
         <v>1</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>11</v>
@@ -3137,18 +3257,18 @@
         <v>2</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>11</v>
@@ -3157,18 +3277,18 @@
         <v>3</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>11</v>
@@ -3177,18 +3297,18 @@
         <v>4</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>11</v>
@@ -3197,18 +3317,18 @@
         <v>5</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>11</v>
@@ -3217,18 +3337,18 @@
         <v>6</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>11</v>
@@ -3237,18 +3357,18 @@
         <v>7</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>11</v>
@@ -3257,18 +3377,18 @@
         <v>8</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>11</v>
@@ -3277,18 +3397,18 @@
         <v>9</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>11</v>
@@ -3297,18 +3417,18 @@
         <v>10</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>11</v>
@@ -3317,18 +3437,18 @@
         <v>11</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>11</v>
@@ -3337,18 +3457,18 @@
         <v>12</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>11</v>
@@ -3357,18 +3477,18 @@
         <v>13</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>11</v>
@@ -3377,18 +3497,18 @@
         <v>14</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>11</v>
@@ -3397,18 +3517,18 @@
         <v>15</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>11</v>
@@ -3417,18 +3537,18 @@
         <v>16</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>11</v>
@@ -3437,18 +3557,18 @@
         <v>17</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>11</v>
@@ -3457,18 +3577,18 @@
         <v>18</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>11</v>
@@ -3477,18 +3597,18 @@
         <v>19</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>11</v>
@@ -3497,18 +3617,18 @@
         <v>20</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>11</v>
@@ -3517,18 +3637,18 @@
         <v>21</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>11</v>
@@ -3537,18 +3657,18 @@
         <v>22</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>11</v>
@@ -3557,18 +3677,18 @@
         <v>23</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>11</v>
@@ -3577,18 +3697,18 @@
         <v>24</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>11</v>
@@ -3597,18 +3717,18 @@
         <v>25</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>11</v>
@@ -3617,18 +3737,18 @@
         <v>26</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>11</v>
@@ -3637,18 +3757,18 @@
         <v>27</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>11</v>
@@ -3657,18 +3777,18 @@
         <v>28</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>11</v>
@@ -3677,18 +3797,18 @@
         <v>29</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>11</v>
@@ -3697,18 +3817,18 @@
         <v>30</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>11</v>
@@ -3717,18 +3837,18 @@
         <v>31</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>11</v>
@@ -3737,18 +3857,18 @@
         <v>32</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>11</v>
@@ -3757,18 +3877,18 @@
         <v>33</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>11</v>
@@ -3777,18 +3897,18 @@
         <v>34</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>11</v>
@@ -3797,18 +3917,18 @@
         <v>35</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>11</v>
@@ -3817,18 +3937,18 @@
         <v>36</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>11</v>
@@ -3837,18 +3957,18 @@
         <v>37</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>11</v>
@@ -3857,18 +3977,18 @@
         <v>38</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>11</v>
@@ -3877,18 +3997,18 @@
         <v>39</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>11</v>
@@ -3897,18 +4017,18 @@
         <v>40</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>11</v>
@@ -3917,18 +4037,18 @@
         <v>41</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>11</v>
@@ -3937,18 +4057,18 @@
         <v>42</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>11</v>
@@ -3957,18 +4077,18 @@
         <v>43</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>11</v>
@@ -3977,18 +4097,18 @@
         <v>44</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>11</v>
@@ -3997,18 +4117,18 @@
         <v>45</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C90" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>11</v>
@@ -4017,18 +4137,18 @@
         <v>46</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C91" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>11</v>
@@ -4037,18 +4157,18 @@
         <v>47</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>11</v>
@@ -4057,18 +4177,18 @@
         <v>48</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C93" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>11</v>
@@ -4077,18 +4197,18 @@
         <v>49</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C94" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>11</v>
@@ -4097,18 +4217,18 @@
         <v>50</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C95" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>11</v>
@@ -4117,18 +4237,18 @@
         <v>51</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C96" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>11</v>
@@ -4137,18 +4257,18 @@
         <v>52</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C97" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>11</v>
@@ -4157,18 +4277,18 @@
         <v>53</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C98" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>11</v>
@@ -4177,18 +4297,18 @@
         <v>54</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C99" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>11</v>
@@ -4197,18 +4317,18 @@
         <v>55</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B100" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C100" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>11</v>
@@ -4217,18 +4337,18 @@
         <v>56</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C101" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>11</v>
@@ -4237,18 +4357,18 @@
         <v>57</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C102" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>11</v>
@@ -4257,18 +4377,18 @@
         <v>58</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C103" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>11</v>
@@ -4277,18 +4397,18 @@
         <v>59</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C104" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>11</v>
@@ -4297,18 +4417,18 @@
         <v>60</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C105" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>11</v>
@@ -4317,18 +4437,18 @@
         <v>61</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C106" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>11</v>
@@ -4337,18 +4457,18 @@
         <v>62</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C107" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>11</v>
@@ -4357,18 +4477,18 @@
         <v>63</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C108" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>11</v>
@@ -4377,18 +4497,18 @@
         <v>64</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B109" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C109" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>11</v>
@@ -4397,7 +4517,7 @@
         <v>65</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4405,22 +4525,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C111" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="13" customFormat="1">
@@ -4439,10 +4559,10 @@
         <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E114" s="2">
         <v>1</v>
@@ -4451,7 +4571,7 @@
         <v>100</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>156</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4462,10 +4582,10 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E115" s="2">
         <v>2</v>
@@ -4474,7 +4594,7 @@
         <v>80</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>156</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4485,10 +4605,10 @@
         <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E116" s="2">
         <v>3</v>
@@ -4497,7 +4617,7 @@
         <v>20</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>157</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4508,10 +4628,10 @@
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E117" s="2">
         <v>5</v>
@@ -4520,7 +4640,7 @@
         <v>20</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4531,10 +4651,10 @@
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E118" s="2">
         <v>6</v>
@@ -4543,7 +4663,7 @@
         <v>20</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>157</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4554,10 +4674,10 @@
         <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E119" s="2">
         <v>7</v>
@@ -4566,7 +4686,7 @@
         <v>50</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>159</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4577,10 +4697,10 @@
         <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E120" s="2">
         <v>8</v>
@@ -4589,7 +4709,7 @@
         <v>10</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4600,10 +4720,10 @@
         <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E121" s="2">
         <v>9</v>
@@ -4612,7 +4732,7 @@
         <v>80</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4623,13 +4743,13 @@
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
@@ -4638,7 +4758,7 @@
         <v>100</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4646,13 +4766,13 @@
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E124" s="2">
         <v>2</v>
@@ -4661,7 +4781,7 @@
         <v>80</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4669,13 +4789,13 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2">
         <v>3</v>
@@ -4684,7 +4804,7 @@
         <v>20</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4692,13 +4812,13 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E126" s="2">
         <v>5</v>
@@ -4707,7 +4827,7 @@
         <v>20</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>164</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4715,13 +4835,13 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E127" s="2">
         <v>6</v>
@@ -4730,7 +4850,7 @@
         <v>20</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>165</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4738,13 +4858,13 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E128" s="2">
         <v>7</v>
@@ -4753,7 +4873,7 @@
         <v>50</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>165</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4761,13 +4881,13 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E129" s="2">
         <v>8</v>
@@ -4776,7 +4896,7 @@
         <v>10</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>165</v>
+        <v>304</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4784,13 +4904,13 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E130" s="2">
         <v>9</v>
@@ -4799,7 +4919,7 @@
         <v>80</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>166</v>
+        <v>305</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4810,22 +4930,22 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C132" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="G132" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>171</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4833,22 +4953,22 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C133" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="G133" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>173</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4856,22 +4976,22 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C134" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="G134" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>175</v>
+        <v>308</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4879,22 +4999,22 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C135" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="G135" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>177</v>
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4902,22 +5022,22 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C136" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="G136" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4925,22 +5045,22 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C137" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="G137" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>182</v>
+        <v>311</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4948,22 +5068,22 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C138" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="G138" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>184</v>
+        <v>312</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4971,22 +5091,22 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C139" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="G139" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4994,22 +5114,22 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C140" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="G140" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>188</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5017,22 +5137,22 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C141" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="G141" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>190</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5040,22 +5160,22 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C142" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="G142" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>193</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5063,22 +5183,22 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C143" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="G143" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5086,22 +5206,22 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C144" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="G144" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>197</v>
+        <v>318</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5109,22 +5229,22 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C145" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="G145" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5132,22 +5252,22 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C146" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="G146" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>202</v>
+        <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5158,22 +5278,22 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="F148">
         <v>80</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>206</v>
+        <v>320</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5181,22 +5301,22 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="F149">
         <v>60</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5204,22 +5324,22 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="F150">
         <v>70</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>210</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5227,22 +5347,22 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C151" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="F151">
         <v>80</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>212</v>
+        <v>323</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5250,22 +5370,22 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C152" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="F152">
         <v>80</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>214</v>
+        <v>324</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5276,19 +5396,19 @@
         <v>8</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="C154" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G154" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>332</v>
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5299,22 +5419,22 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C156" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5322,62 +5442,62 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C158" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>341</v>
+        <v>246</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B159" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C159" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B160" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C160" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5385,347 +5505,347 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B162" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C162" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="G162" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>219</v>
+        <v>325</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B163" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C163" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="G163" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>221</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B164" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C164" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="G164" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B165" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C165" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="G165" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>225</v>
+        <v>328</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B166" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C166" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="G166" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B167" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C167" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="G167" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B168" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C168" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="G168" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>230</v>
+        <v>331</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B169" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C169" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="G169" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>232</v>
+        <v>332</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B170" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C170" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="G170" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>234</v>
+        <v>333</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B171" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C171" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="G171" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>236</v>
+        <v>334</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B172" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C172" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="G172" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B173" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C173" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="G173" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B174" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C174" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="G174" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B175" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C175" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="G175" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>244</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B176" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C176" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="G176" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>246</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5733,22 +5853,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B178" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C178" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:8" s="13" customFormat="1">
@@ -5767,19 +5887,19 @@
         <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="F181">
         <v>10</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5790,19 +5910,19 @@
         <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="F182">
         <v>60</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>326</v>
+        <v>236</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5813,19 +5933,19 @@
         <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="F183">
         <v>60</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>327</v>
+        <v>237</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5836,22 +5956,22 @@
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="F185">
         <v>33</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5859,22 +5979,22 @@
         <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="F186">
         <v>80</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5882,22 +6002,22 @@
         <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="F187">
         <v>80</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5908,19 +6028,19 @@
         <v>8</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="C189" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="G189" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5933,22 +6053,22 @@
         <v>8</v>
       </c>
       <c r="B191" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C191" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G191" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5956,82 +6076,82 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B193" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C193" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="D193" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H193" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B194" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C194" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B195" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C195" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B196" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C196" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6039,202 +6159,202 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B198" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C198" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E198" s="2">
         <v>1</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B199" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C199" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E199" s="2">
         <v>2</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B200" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C200" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E200" s="2">
         <v>3</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B201" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C201" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E201" s="2">
         <v>4</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B202" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C202" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B203" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C203" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>294</v>
+        <v>210</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B204" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C204" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>295</v>
+        <v>211</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B205" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C205" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B206" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C206" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>306</v>
+        <v>359</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B207" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C207" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>293</v>
+        <v>209</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" spans="1:8" s="13" customFormat="1">
@@ -6253,19 +6373,19 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="F210">
         <v>70</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>255</v>
+        <v>342</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6276,19 +6396,19 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="F211">
         <v>60</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>257</v>
+        <v>343</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6299,19 +6419,19 @@
         <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="F212">
         <v>50</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6322,19 +6442,19 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="F213">
         <v>10</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6345,19 +6465,19 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>262</v>
+        <v>346</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6368,22 +6488,22 @@
         <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="F216">
         <v>90</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6391,22 +6511,22 @@
         <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C217" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="F217">
         <v>80</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6414,22 +6534,22 @@
         <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C218" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="F218">
         <v>70</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6437,22 +6557,22 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="F219">
         <v>20</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6463,19 +6583,19 @@
         <v>8</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="C221" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="G221" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6486,19 +6606,19 @@
         <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C223" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="G223" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>266</v>
+        <v>188</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6506,53 +6626,53 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B225" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C225" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>345</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B226" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C226" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>353</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B227" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C227" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>352</v>
+        <v>259</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6560,19 +6680,19 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B229" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C229" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6580,19 +6700,19 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B231" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C231" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
     </row>
     <row r="232" spans="1:8" s="13" customFormat="1">
@@ -6611,19 +6731,19 @@
         <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G234" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6634,22 +6754,22 @@
         <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C236" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="G236" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>276</v>
+        <v>347</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6657,22 +6777,22 @@
         <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C237" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="G237" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6680,22 +6800,22 @@
         <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C238" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="G238" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6703,22 +6823,22 @@
         <v>8</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C239" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="G239" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>283</v>
+        <v>350</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6729,22 +6849,22 @@
         <v>8</v>
       </c>
       <c r="B241" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C241" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G241" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>284</v>
+        <v>202</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6752,82 +6872,82 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C243" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B244" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C244" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>338</v>
+        <v>257</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B245" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C245" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B246" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C246" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6835,22 +6955,22 @@
     </row>
     <row r="248" spans="1:8" ht="16" customHeight="1">
       <c r="A248" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B248" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C248" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
     </row>
     <row r="249" spans="1:8" s="13" customFormat="1">
@@ -6869,16 +6989,16 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="F251">
         <v>50</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>312</v>
+        <v>222</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6889,19 +7009,19 @@
         <v>8</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C253" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="F253">
         <v>80</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>313</v>
+        <v>223</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6912,19 +7032,19 @@
         <v>8</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="C255" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="G255" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -6937,19 +7057,19 @@
         <v>8</v>
       </c>
       <c r="B257" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C257" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="G257" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -6957,70 +7077,70 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B259" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C259" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>337</v>
+        <v>245</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B260" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C260" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H260" s="12" t="s">
-        <v>357</v>
+        <v>206</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B261" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C261" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>346</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B262" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C262" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7028,19 +7148,19 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B264" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C264" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>314</v>
+        <v>224</v>
       </c>
     </row>
     <row r="265" spans="1:8" s="13" customFormat="1">
@@ -7059,16 +7179,16 @@
         <v>9</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="F267">
         <v>50</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>315</v>
+        <v>225</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7079,19 +7199,19 @@
         <v>8</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="F269">
         <v>80</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>330</v>
+        <v>238</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7102,19 +7222,19 @@
         <v>8</v>
       </c>
       <c r="B271" t="s">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="G271" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7125,19 +7245,19 @@
         <v>8</v>
       </c>
       <c r="B273" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="G273" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>331</v>
+        <v>239</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7145,70 +7265,70 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B275" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>347</v>
+        <v>250</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B276" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="D276" s="10" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>348</v>
+        <v>255</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B277" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>349</v>
+        <v>256</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B278" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7216,19 +7336,19 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B280" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
     </row>
     <row r="284" spans="1:8">

--- a/disasterinfosite/data/snuggets.xlsx
+++ b/disasterinfosite/data/snuggets.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28780" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="snuggets.csv" sheetId="1" r:id="rId1"/>
@@ -21,162 +21,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Carson MacPherson-Krutsky</author>
-  </authors>
-  <commentList>
-    <comment ref="C154" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carson MacPherson-Krutsky:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-New Climate chage subsection text</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C189" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carson MacPherson-Krutsky:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-new subsection</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C198" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carson MacPherson-Krutsky:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-new data layer</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C221" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carson MacPherson-Krutsky:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-new climate impact subsection</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C251" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carson MacPherson-Krutsky:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Added shapefile of King co boundary to disasterinfoforsite/seattle-ready/data</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C267" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carson MacPherson-Krutsky:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-new shapefile added to sftp</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="358">
   <si>
     <t>section</t>
   </si>
@@ -322,9 +168,6 @@
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Warning.jpg" alt="This is an icon of an exclaimation point with two triangles behind it" title="Warning Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Scientists cannot predict when an earthquake will happen so be aware and if you feel shaking get to a safe place. An early warning system is currently being developed for the West Coast. You can find out more &lt;a href=http://earthquake.usgs.gov/research/earlywarning/ target="_blank"&gt;here&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>How to Prepare</t>
   </si>
   <si>
@@ -343,201 +186,6 @@
     <t>Hubs_Nearest_seattle</t>
   </si>
   <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Morgan Junction Park Hub &lt;br&gt;Hub Location: At Morgan Junction Park&amp;#44; 6413 California Ave SW&amp;#44; Seattle&amp;#44; WA 98118 &lt;br&gt;Hub Captain: Cindi Barker&lt;br&gt;Email: &lt;a href="mailto:cindiLbarker@gmail.com" target="_top"&gt;cindiLbarker@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-933-6968&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/west-seattle/" target=_blank&gt;http://seattleemergencyhubs.org/west-seattle&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; North Highland Park Hub &lt;br&gt;Hub Location: The Highland Park Improvement Club at 1116 SW Holden St&amp;#44; is the newest West Seattle hub!&lt;br&gt;Hub Captain:Volunteer Needed &lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; South Park Neighborhood Center &lt;br&gt;Hub Location: 8201 10th Ave S&lt;br&gt;Hub Captain: Dagmar Cronn&lt;br&gt;Email: &lt;a href="mailto:cronn@oakland.edu" target="_top"&gt;cronn@oakland.edu&lt;/a&gt;&lt;br&gt;Phone: 206-327-1828&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt; &lt;br&gt;description: Meet by the blue box in the park&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Pigeon Point Hub &lt;br&gt; Hub Location: At the NW corner of the Park&amp;#44; the intersection of 20th Ave SW &amp; SW Genesee St&amp;#44; Seattle&amp;#44; WA 98106&amp;#44; just north of the school.&lt;br&gt;Hub Captain:: Wade Harper&lt;br&gt;Email: &lt;a href="mailto:wade.harper@outlook.com" target="_top"&gt;wade.harper@outlook.com&lt;/a&gt;&lt;br&gt;Phone:: 206-455-5407&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Hiawatha Playfield/Community Center (Admiral Hub) &lt;br&gt;Hub Location: At California Ave SW &amp; SW Lander St&amp;#44; Seattle&amp;#44; WA 98116&lt;br&gt;Hub Captain: Paul Stancik&lt;br&gt;Email: &lt;a href="mailto:pstancik@mindspring.com" target="_top"&gt;pstancik@mindspring.com&lt;/a&gt;&lt;br&gt;Phone:TBD &lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Fauntleroy Church Hub &lt;br&gt;Hub Location: Fauntleroy Church&amp;#44; 9140 California Ave SW&lt;br&gt;Hub Captain: Gordon Wiehler&lt;br&gt;Email:: &lt;a href="mailto:gmwinv@Comcast.net" target="_top"&gt;gmwinv@Comcast.net&lt;/a&gt;&lt;br&gt;Phone:: 206-577-4292&lt;br&gt;Website:&lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org/&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Providence/Mount St. Vincent&amp;#44; parking lot (Fairmount Hub) &lt;br&gt;Hub Location: At SW Hudson St &amp; 35th Ave SW&amp;#44; Seattle&amp;#44; WA 98126 (meet at the SE parking lot under the flag pole )&lt;br&gt;Hub Captain: Sharonn Meeks&lt;br&gt;Email: &lt;a href="mailto:smeeks50@comcast.net" target="_top"&gt;smeeks50@comcast.net&lt;/a&gt;&lt;br&gt;Phone: 206-938-1007&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Neighborhood House (High Point Hub) &lt;br&gt;Hub Location: At 6400 Sylvan Way SW (note that east of 35th Ave SW&amp;#44; SW Morgan Street becomes Sylvan Way SW). Neighborhood House is next to Lanham Place SW. Meet at the amphitheater. &lt;br&gt;Hub Captain: Heather Hutchison&lt;br&gt;Email: &lt;a href="mailto:heather.hutchison@manage" target="_top"&gt;heather.hutchison@manage&lt;/a&gt;&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Ercolini Park Hub &lt;br&gt;Hub Location: At 48th Ave SW &amp; SW Alaska St.&amp;#44; in the park&lt;br&gt;Hub Captain: Jon Wright&lt;br&gt;Email:&lt;a href="mailto:ercolini@westseattlebeprepared.org" target="_top"&gt;ercolini@westseattlebeprepared.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; EC Hughes Playground (Olympic Heights Hub) &lt;br&gt;Hub Location: At 29th Ave SW &amp; SW Holden St&amp;#44;Seattle&amp;#44; WA 98126&amp;#44; at the NE corner of Hughes Playground.&lt;br&gt;Hub Captain: Volunteer needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Salvation Army&amp;#44; parking lot (South Highland Park Hub) &lt;br&gt;Hub Location: At 9050 16th Ave SW (near SW Barton St.)&amp;#44; the Salvation Army parking lot is the gathering place for this hub.&lt;br&gt;Hub Captain: Volunteer Needed &lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; North Delridge P-Patch Hub &lt;br&gt;Hub Location: At the P-Patch&amp;#44; located at 5078 25th Ave SW&amp;#44; Seattle&amp;#44; WA&lt;br&gt;Hub Captain: Jay McNally&lt;br&gt;Email: &lt;a href="mailto:Newcarissa@gmail.com" target="_top"&gt;Newcarissa@gmail.com &lt;/a&gt;&lt;br&gt;Phone: 206-484-6613&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Hope Lutheran Church (Alaska Junction Hub) &lt;br&gt;Hub Location: 4456 42nd Ave SW&amp;#44; Seattle&amp;#44; WA 98116&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt; &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Alki Community Center (Alki Hub) &lt;br&gt;Hub Location: At 59th Ave SW &amp; SW Stevens St&amp;#44; Seattle&amp;#44; WA 98116. This is adjacent to Whale Tail Park&amp;#44; near the west edge of the playfield. North side of Alki Playfield&lt;br&gt;Hub Captain: Tony Fragada (98126)&lt;br&gt;Email: &lt;a href="mailto:tfragada@yahoo.com" target="_top"&gt;tfragada@yahoo.com&lt;/a&gt; &lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Maa Nyei Lai Ndeic P-Patch Hub &lt;br&gt;Hub Location: 4913 Columbia Dr S&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Hub Captain: Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Hillman City P-Patch Hub &lt;br&gt;Hub Location: 4613 S Lucile St&amp;#44; Seattle&amp;#44; WA 98118 (Corner of South Lucile &amp; 46th Ave South)&lt;br&gt;Hub Captain: Joanne Tilton&lt;br&gt;Email: &lt;a href="mailto:Jtilton22@comcast.net" target="_top"&gt;Jtilton22@comcast.net&lt;/a&gt;&lt;br&gt;Phone: 206-650-2071&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Judkins P-Patch Hub &lt;br&gt;Hub Location: 24th Avenue S &amp; S Norman Street Seattle&amp;#44; WA 98112 (Meeting Location: P-Patch entrance off Norman &amp; 24th Ave S.)&lt;br&gt;Hub Captain: Jen Ellis&lt;br&gt;Email:   &lt;a href="mailto:JenniferEllis.206@gmail.com" target="_top"&gt;JenniferEllis.206@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-276-4982&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Fisher Pavilion Hub &lt;br&gt;Hub Location: 2nd Ave N &amp; Thomas St&lt;br&gt;Hub Captain: MIQA Be Prepared&lt;br&gt;Email:  &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website:  &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Interbay Fishermen's Terminal Hub &lt;br&gt;Hub Location: Interbay Fishermen's Terminal&lt;br&gt;Hub Captain: MIQA Be Prepared&lt;br&gt;Email: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Eastlake Hub &lt;br&gt;Hub Location: Rogers Playfield&lt;br&gt;Hub Captain: Amy O'Donnell&lt;br&gt;Email:  &lt;a href="mailto:eastlake.hub@gmail.com" target="_top"&gt;eastlake.hub@gmail.com&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Madison Park Hub &lt;br&gt;Hub Location: 42nd Ave E and E Howe St (at the north side of tennis courts)&lt;br&gt;Hub Captain: John Madrid&lt;br&gt;Email:  &lt;a href="mailto:johnmadrid@hotmail.com" target="_top"&gt;johnmadrid@hotmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-498-1880&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Sunrise P-Patch Hub &lt;br&gt;Hub Location: 33rd Ave S &amp; S Oregon St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Hub Captain: Aaron Deitz&lt;br&gt;Email: &lt;a href="mailto:aarondietz@gmail.com" target="_top"&gt;aarondietz@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-694-3966&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Snoqualmie P-Patch Hub &lt;br&gt;Hub Location: 4549 13th Ave S&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Hub Captain: Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; New Holly Youth &amp; Family P-Patch Hub &lt;br&gt;Hub Location: 32nd Ave S &amp; S Brighton St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Hub Captain: Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; New Holly Power P-Patch Hub &lt;br&gt;Hub Location: 7123 S Holly Park Dr&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Hub Captain: Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; New Holly Lucky Garden Hub &lt;br&gt;Hub Location: S Holly St &amp; Shaffer Ave S&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; New Holly 29 P-Patch Hub &lt;br&gt;Hub Location: 29th Ave S &amp; S Brighton St&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; John C. Little P-Patch Hub &lt;br&gt;Hub Location: 6961 37th Ave S&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Dakota P-Patch Hub &lt;br&gt;Hub Location: 2902 S Dakota St&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Beacon Food Forest Hub &lt;br&gt; Hub Location:: 15th Ave S &amp; S Dakota St&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Ethiopian Community in Seattle &lt;br&gt;Hub Location: 8323 Rainier Ave S (meet at main building)&lt;br&gt;Hub Captain: Kassa Kachara&lt;br&gt;Email:  &lt;a href="mailto:kabiso_kass@yahoo.com" target="_top"&gt;kabiso_kass@yahoo.com&lt;/a&gt;&lt;br&gt;Phone: 206-325-0304&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Angel Morgan P-Patch (Angel Morgan Hub) &lt;br&gt;Hub Location: 3956 S Morgan St&amp;#44; Seattle&amp;#44; WA 98118 (The P Patch is located at 42nd Ave S &amp; S Morgan Street)&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Thistle P-Patch Hub &lt;br&gt;Hub Location: Martin Luther King Jr Way S &amp; S Cloverdale St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; New Holly Rockery &amp; Market Hub &lt;br&gt;Hub Location: S Holly Park Dr &amp; Rockery Dr S&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Lakewood Seward Park Hub &lt;br&gt;Hub Location: Lakewood Seward Park Community Club - 4916 S. Angeline Street&lt;br&gt;Hub Captain: Aaron Evanson&lt;br&gt;Email:  &lt;a href="mailto:aaronevanson@gmail.com" target="_top"&gt;aaronevanson@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206.660.3822&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Rainier Beach Community Club Hub &lt;br&gt;Hub Location: Rainier Beach Community Club - VFW Hall &amp;#44; 6038 S. Pilgrim&amp;#44; Seattle  WA  98118&lt;br&gt;Hub Captain: Ron Angeles&lt;br&gt;Email:  &lt;a href="mailto:ranestoba@comcast.net" target="_top"&gt;ranestoba@comcast.net&lt;/a&gt;&lt;br&gt;Phone: 206-721-5326 and 206-351-0813&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Queen Anne Bowl &lt;br&gt;Hub Location: 2806 3rd Ave W&lt;br&gt;Hub Captain: Chris Saether&lt;br&gt;Email: &lt;a href="mailto:csaether@msn.com" target="_top"&gt;csaether@msn.com&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Interbay Athletic Complex &lt;br&gt;Hub Location: 3027 17th Ave W&lt;br&gt;Hub Captain: MIQA Be Prepared&lt;br&gt;Email: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Magnolia Manor Park &lt;br&gt; Hub Location: 3500 28th Ave W&lt;br&gt;Hub Captain: MIQA Be Prepared&lt;br&gt;Email: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Magnolia Metropolitan Market&lt;br&gt;Hub Location: 3830 34th Ave W&lt;br&gt;Hub Captain: MIQA Be Prepared&lt;br&gt;Email: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; West Queen Anne Playfield Hub &lt;br&gt;Hub Location: 150 W Blaine St&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; West Magnolia Playfield Hub &lt;br&gt;Hub Location: 32nd Ave W &amp; W Smith St&amp;#44; South Playfield&amp;#44; Southwest corner&lt;br&gt;Hub Captain: Frank Gaul&lt;br&gt;Email:  &lt;a href="mailto:ftgaul@gmail.com" target="_top"&gt;ftgaul@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-499-8690&lt;br&gt;Website: &lt;a href="http://www.miqabeprepared.org/" target=_blank&gt;http://www.miqabeprepared.org/&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Ballard Commons Hub &lt;br&gt;Hub Location: NW 57th &amp; 22nd Ave NW&lt;br&gt;Hub Captain: Colin Getty&lt;br&gt;Email:  &lt;a href="mailto:k7biowa@gmail.com" target="_top"&gt;k7biowa@gmail.com&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Lower Woodland Playfields Hub &lt;br&gt;Hub Location: Green Lake Way N &amp; N 50th St&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Ravenna Hub &lt;br&gt; Hub Location: 6535 Ravenna Ave NE (Ravenna-Eckstein Community Center parking lot)&lt;br&gt;Hub Captain: David Ward&lt;br&gt;Email:  &lt;a href="mailto:booksgalore22@gmail.com" target="_top"&gt;booksgalore22@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-523-1161&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Victory Heights Hub &lt;br&gt;Hub Location: Victory Heights Park (1737 NE 106th St)&lt;br&gt;Hub Captain: Ann Forrest&lt;br&gt;Email:  &lt;a href="mailto:aaforrest@hotmail.com" target="_top"&gt;aaforrest@hotmail.com&lt;/a&gt;&lt;br&gt;Phone: (360)550-2234&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Epic Life Church Hub &lt;br&gt;Hub Location: Epic Life Church - 10503 Stone Ave N&amp;#44; Seattle&amp;#44; WA 98133&lt;br&gt;Hub Captain: Larry Chaney&lt;br&gt;Email:  &lt;a href="mailto:larry@epiclifechurch.org" target="_top"&gt;larry@epiclifechurch.org&lt;/a&gt;&lt;br&gt;Phone: 425-218-8849&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Crown Hill Park Hub &lt;br&gt;Hub Location: NW 92nd &amp; 14th Ave NW&lt;br&gt;Hub Captain: Dennis Galvin&lt;br&gt;Email:  &lt;a href="mailto:short.harp@gmail.com" target="_top"&gt;short.harp@gmail.com&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Shilshole Marina Hub &lt;br&gt;Hub Location: Shilshole Marina&amp;#44; 7001 Seaview Ave NW&lt;br&gt;Hub Captain: Jim Doub&lt;br&gt;Email: &lt;a href="mailto:jim@portagebaymarine.com" target="_top"&gt;jim@portagebaymarine.com&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Loyal Heights Playfield Hub&lt;br&gt;Hub Location: NW 77th &amp;amp; 21st Ave NW (2101 NW 77th St&amp;#44; Loyal Heights CC basketball half court)&lt;br&gt;Hub Captain: Cheryl Dyer&lt;br&gt;Email: &lt;a href="mailto:cheryldy@msn.com" target="_top"&gt;cheryldy@msn.com&lt;/a&gt;&lt;br&gt;Phone: 206-784-3724&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Kirke Park Hub&lt;br&gt;Hub Location: 7028 9th Ave NW&lt;br&gt;Hub Captain: Hugh Kelso&lt;br&gt;Email: &lt;a href="mailto:HKelso@mac.com" target="_top"&gt;HKelso@mac.com&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Gilman Park Hub &lt;br&gt;Hub Location: NW 54th &amp;amp; 9th Ave NW&lt;br&gt;Hub Captain: Linda Frank&lt;br&gt;Email: &lt;a href="mailto:lindabfrank@gmail.com" target="_top"&gt;lindabfrank@gmail.com&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Ross Playground Hub &lt;br&gt;Hub Location: 4320 4th Ave NW&lt;br&gt;Hub Captain: Leslie Matthis&lt;br&gt;Email: &lt;a href="mailto:leslie.matthis@gmail.comv" target="_top"&gt;leslie.matthis@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206.783.1500&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Phinney Neighborhood Center Hub &lt;br&gt;Hub Location: Phinney Neighborhood Center: 6532 Phinney Avenue North&amp;#44; Seattle&amp;#44; WA  98103 (Meeting Place: Phinney Center upper parking area)&lt;br&gt;Hub Captain: David Baum&lt;br&gt;Email: &lt;a href="mailto:phinneyhub@gmail.com" target="_top"&gt;phinneyhub@gmail.com &lt;/a&gt;&lt;br&gt;Phone: 206-913-1021&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Meridian Playfield/Good Shepherd Center Hub &lt;br&gt;Hub Location: 4649 Sunnyside Ave. N&lt;br&gt;Hub Captain: Brian Shapiro&lt;br&gt;Email: &lt;a href="mailto:bshapiro@objectarts.net" target="_top"&gt;bshapiro@objectarts.net&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; History House of Greater Seattle Hub &lt;br&gt;Hub Location: 790 N 34th St&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Greenwood Senior Center Hub &lt;br&gt;Hub Location: Greenwood Senior Center: 525 N 85th  Street&amp;#44; Seattle&amp;#44; WA  98103&lt;br&gt;Hub Captain: Kelly Kasper&lt;br&gt;Email: &lt;a href="mailto:kelly@ht2consulting.com" target="_top"&gt;kelly@ht2consulting.com&lt;/a&gt;&lt;br&gt;Phone: 206-397-4283&lt;br&gt;Co-Captain: Noel Frame&lt;br&gt;Co-Captain Email: &lt;a href="mailto:noel@noelframe.com" target="_top"&gt;noel@noelframe.com&lt;/a&gt; &lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Green Lake Playfield &amp; Community Center Hub &lt;br&gt;Hub Location: 7201 Green Lake Dr N&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Bagley Elementary Hub &lt;br&gt;Hub Location: 7821 Stone Ave N&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Maple Leaf Park Hub &lt;br&gt;Hub Location: 1020 NE 82nd St&lt;br&gt;Hub Captain: Lori Phipps&lt;br&gt;Email: &lt;a href="mailto:lphipps01@gmail.com" target="_top"&gt;lphipps01@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-947-0309&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Hunter Farm Hub &lt;br&gt;Hub Location: 7730 35th Ave NE&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; University Heights Center &lt;br&gt;Hub Location: NE 50th Street and University Way NE&lt;br&gt;Hub Captain: Ray Munger&lt;br&gt;Email: &lt;a href="mailto:ray@uheightscenter.org" target="_top"&gt;ray@uheightscenter.org&lt;/a&gt;&lt;br&gt;Phone: 206-527-4278&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Lake City Way SR 522/Fred Meyer Hub &lt;br&gt;Hub Location: 13000 Lake City Way NE (SE corner of lower parking lot)&lt;br&gt;Hub Captain: Sandy Motzer (98125)&lt;br&gt;Email: &lt;a href="mailto:sandymotzer@aol.com" target="_top"&gt;sandymotzer@aol.com&lt;/a&gt;&lt;br&gt;Phone: 206-819-8056&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Luther Memorial Lutheran Church Hub &lt;br&gt;Hub Location: 13047 Greenwood Ave N&lt;br&gt;Hub Captain: Dale Johnson&lt;br&gt;Email: &lt;a href="mailto:dalerayjohnson@comcast.net" target="_top"&gt;dalerayjohnson@comcast.net&lt;/a&gt;&lt;br&gt;Phone: 206-362-2980&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. Your nearest hub is&amp;#44;&lt;br&gt; Grace Lutheran Church Hub &lt;br&gt; Hub Location: 11051 Phinney Ave N (Greenwood Avenue N &amp; N 112th Street)&lt;br&gt;Hub Captain: Dale Johnson&lt;br&gt;Email: &lt;a href="mailto:dalerayjohnson@comcast.net" target="_top"&gt;dalerayjohnson@comcast.net&lt;/a&gt;&lt;br&gt;Phone: 206-362-2980&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>In Recent History</t>
   </si>
   <si>
@@ -616,9 +264,6 @@
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Erosion.jpg" alt="This is an icon of a house perched on a bluff. It shows a river carving away the ground where the house sits." title="Erosion Icon"&gt;</t>
   </si>
   <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. No study has been done here to see if the river is likely to move over time&amp;#44; but be aware that it could.</t>
-  </si>
-  <si>
     <t>rvr</t>
   </si>
   <si>
@@ -697,9 +342,6 @@
     <t>ssea</t>
   </si>
   <si>
-    <t>With the many rivers in King County flooding is common during periods of heavy rainfall or rapid snowmelt. It is most common from November to February&amp;#44; but can happen whenever the conditions are right.</t>
-  </si>
-  <si>
     <t>Landslide</t>
   </si>
   <si>
@@ -709,9 +351,6 @@
     <t>Do you hear sounds of cracking wood&amp;#44; boulders knocking together&amp;#44; the groaning of ground? Do you see cracks in the landscape and downslope movement of land&amp;#44; rocks&amp;#44; and vegetation? It could be a landslide. Move to stable ground.</t>
   </si>
   <si>
-    <t>&lt;p&gt;For more information check out the Department of Natural Resources page on &lt;a href=http://www.dnr.wa.gov/programs-and-services/geology/geologic-hazards/landslides#some-historic-landslides-in-washington-state target=_blank&gt;landslides&lt;/a&gt; and &lt;a href=http://file.dnr.wa.gov/publications/ger_fs_landslide_hazards.pdf target=_blank&gt;landslide hazards&lt;/a&gt;. For landslides in your neighborhood&amp;#44; contact your local office of emergency management (OEM).&lt;/p&gt;&lt;p&gt;&lt;b&gt;King County OEM:&lt;/b&gt; 206.296.3830 &lt;br&gt;&lt;b&gt;City of Seattle OEM:&lt;/b&gt; 206.233.5076&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Fire_WUI_kingco_only</t>
   </si>
   <si>
@@ -733,21 +372,9 @@
     <t>wtr</t>
   </si>
   <si>
-    <t>You could experience a major wildfire here. It will be fast moving&amp;#44; with large flames and may change direction quickly.  It could take firefighters days or weeks to contain it.</t>
-  </si>
-  <si>
-    <t>You could experience a wildfire here. It will be fast moving&amp;#44; with large flames and may change direction quickly.  It could take firefighters days or weeks to contain it. .  SMOKE from distant wildfires can travel far and can be a factor even if none are burning nearby. Check on your local air quality &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx" target=_blank&gt;here&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>It's unlikely&amp;#44; but if you live near a forested area you could experience wildfire.  SMOKE from distant wildfires can travel far and can be a factor even if none are burning nearby. Check on your local air quality &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx" target=_blank&gt;here&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>Do you smell or see smoke? Has it been a stretch of dry weather? It could be a wildfire. Steer clear of active fires and if you see one start call 9-1-1 to report it.</t>
   </si>
   <si>
-    <t>If you think your property could be at risk King County has information for landowners&amp;#44; incentive programs&amp;#44; and host training workshops. You can find out more &lt;a href=http://www.kingcounty.gov/environment/water-and-land/forestry.aspx" target=_blank&gt;here&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>Eastern King County has small forest fires each year. Typically humans are the cause. Take a look at where fires have happened in the past by clicking &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_Historic.jpg target=_blank&gt;here&lt;/a&gt;.</t>
   </si>
   <si>
@@ -760,9 +387,6 @@
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Rainier_volcano.jpg" alt="This is an icon of Mount Rainier" title="Mount Rainier Icon"&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Mount Rainier is considered an active volcano&amp;#44; but it could be many years until it erupts again. &lt;b&gt;Lahars (volcanic mudflows) are the main hazard associated with Mount Rainier&lt;/b&gt;. South King County residents have a 1 in 10 chance of experiencing a lahar in their lifetime. </t>
-  </si>
-  <si>
     <t>Volcano_Lahar_kingco</t>
   </si>
   <si>
@@ -785,9 +409,6 @@
   </si>
   <si>
     <t>Volcanoes typically provide warning signals days to months before they erupt.&lt;b&gt; Gas and earthquake activity increases and the ground surface swells as magma moves beneath it.&lt;/b&gt; Though these signs may be imperceptible to the general public&amp;#44; Mount Rainier is monitored continuously by scientists with the &lt;a href=http://volcanoes.usgs.gov/volcanoes/mount_rainier/ target=_blank&gt;USGS Volcano Hazards Program&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; You can learn more about Mount Rainier and the potential hazards from a number of sources: &lt;ul&gt;&lt;li&gt;&lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/ target=_blank&gt;Monitoring and other information&lt;/a&gt; - U.S. Geological Survey&lt;/li&gt;&lt;li&gt;&lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=blank&gt;General King County Information&lt;/a&gt; - King County&lt;li&gt;&lt;a href=https://www.nps.gov/mora/planyourvisit/geohazards.htm target=_blank&gt;Geohazards at Rainier&lt;/a&gt; - National Parks Service&lt;/li&gt;&lt;li&gt;&lt;a href=http://www.pnsn.org/volcanoes/mount-rainier target=_blank&gt;Earthquakes near Rainier&lt;/a&gt; - Pacific Northwest Seismic Network&lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt; Mount Rainier has had a long history of &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_eruption_history.html target=_blank&gt;eruptions&lt;/a&gt; and &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_lahars.html target=_blank&gt;lahars&lt;/a&gt;.About 500 years ago the Electron Mudflow surged downhill travelling through Puyallup and as far as Sumner&amp;#44; WA. In the thousands of years before that many lahars travelled along local rivers reaching as far as Auburn.  &lt;b&gt;Some towns (NE Tacoma&amp;#44; Orting&amp;#44; and Puyallup) are built on historical lahar deposits.&lt;/b&gt;&lt;/p&gt;</t>
@@ -832,39 +453,12 @@
     <t>Climate Imacts</t>
   </si>
   <si>
-    <t>&lt;p&gt;No landslides have been identified here according to a 1995 study on slides in the City of Seattle (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;No studies have been completed here to identify if historical landslides exist (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;A LANDSLIDE HAS HAPPENED HERE according to a 1995 study on slides in the City of Seattle (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Meteorologists have made great strides in forecasting snow and ice storms. Pay attention to local weather forecasts and sign up for available alert and warning systems (&lt;a href=http://alert.seattle.gov/ target=_blank&gt;Alert Seattle&lt;/a&gt; and &lt;a href=http://www.kingcounty.gov/depts/emergency-management/alert-king-county.aspx target=_blank&gt;Alert King County&lt;/a&gt;) to ensure that you get up to date information about pending severe weather. &lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;For more information on how to stay cool and safe head to King County's &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/hot-weather.aspx target=_blank&gt;Hot Weather&lt;/a&gt; page.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Climate.jpg" alt="This is an icon of the earth with a thermometer in the top left" title="Climate Change Icon"&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Across King County winter can bring below freezing temps&amp;#44; icy roads&amp;#44; and the potential for major storms. Snowfall occurs occasionally&amp;#44; with more at higher elevations. Winter storms can bring high winds that cause trees to fall and power to go out.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;A substantial snow fall event could cause significant disruptions to transportation&amp;#44; public safety services&amp;#44; and utilities. Power could be out for many days.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;A series of snow&amp;#44; ice and rainstorms beginning on Dec. 26&amp;#44; 1996&amp;#44; caused &lt;b&gt;16 deaths&lt;/b&gt; in the state and &lt;b&gt;$57 million&lt;/b&gt; in damages in Seattle and King County. Two storms — one dumping 6-12 inches and the other 10 inches of wet snow — were followed by heavy rain which collapsed carports&amp;#44; covered boat moorings&amp;#44; and snapped power lines. Metro transit halted service completely for the first time in its history. Freeze and snowmelt contributed to flooding and landslides during the following week. Are you ready if a storm like this happened again?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Across King County summers can be HOT&amp;#44; sometimes with temperatures into the 90s for multiple days. Thunderstorms&amp;#44; windstorms&amp;#44; wildfires&amp;#44; and heat waves are possible across the region. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;In 2015&amp;#44; King County had a record number of days that exceeded 90F. July 2015 was the hottest month ever recorded in King County.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Winter_kingco</t>
   </si>
   <si>
@@ -874,36 +468,530 @@
     <t>Climate Impacts</t>
   </si>
   <si>
-    <t>nosld</t>
-  </si>
-  <si>
-    <t>seasld</t>
-  </si>
-  <si>
-    <t>kcosld</t>
-  </si>
-  <si>
-    <t>LSLD_steepslope</t>
-  </si>
-  <si>
     <t>LSLD_existing_features</t>
   </si>
   <si>
-    <t>&lt;p&gt;This area has a shallow slope and is less likely to have landslides here. Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes. Scroll down to historical events see if any landslides have been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here. Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes.  Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here.  Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes. Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Severe heat could last for days causing communities to see an increase in heat-related illness including HEAT EXHAUSTION and HEAT STROKE. The high temps&amp;#44; dry conditions&amp;#44; and increased likelihood for lightning may lead to wildfires.&lt;/p&gt;</t>
+    <t>Severe storms are expected to increase in the next 50 years.They will bring with them rain and snow. Rivers will have higher flows leading to more flooding in the Fall/Winter. Click the image to find out more. &lt;br&gt;
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Rivers.jpg" alt="Climate Change Rivers Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>If you are in a boat during an earthquake you may experience a fast moving tsunami wave come through. T up to it. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nearby creeks&amp;#44; streams&amp;#44; and rivers are flooding. This makes some roadways impassable &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt; . Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/X2HGtZX6Kyz target=_blank&gt; George Culmback Dam &lt;/a&gt; or the &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Tolt River Dam&lt;/a&gt; failed this area could be flooded &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
+  </si>
+  <si>
+    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
+  </si>
+  <si>
+    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at moderate risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
+  </si>
+  <si>
+    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at high risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
+  </si>
+  <si>
+    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Tolt River Dam&lt;/a&gt; failed this area could be flooded &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;PRACTICE&lt;/b&gt; - Be aware and practice "Drop&amp;#44; Cover&amp;#44; and Hold On"&lt;/li&gt;&lt;li&gt;&lt;b&gt;PLAN&lt;/b&gt; - Make a family plan (&lt;a href=http://www.fema.gov/media-library-data/0e3ef555f66e22ab832e284f826c2e9e/FEMA_plan_parent_508_071513.pdf target="_blank"&gt;for adults&lt;/a&gt; &amp;amp; &lt;a href=http://www.fema.gov/media-library-data/a260e5fb242216dc62ae380946806677/FEMA_plan_child_508_071513.pdf target="_blank"&gt;for kids&lt;/a&gt;) and build a &lt;a href=http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf target="_blank"&gt;supply kit&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;b&gt;PREPARE&lt;/b&gt; - Secure items that could fall and know the location of utility shut offs.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;INDOORS - STAY THERE!&lt;/b&gt; Take cover under a sturdy desk or table away from objects that could fall on you and hold on. DON'T run outside before shaking stops. &lt;/li&gt;&lt;li&gt;&lt;b&gt;OUTSIDE - GET INTO THE OPEN &lt;/b&gt; away from buildings&amp;#44; power lines&amp;#44; chimneys&amp;#44; or things that could fall on you. &lt;/li&gt;&lt;li&gt;&lt;b&gt;DRIVING - CAREFULLY STOP&lt;/b&gt; (not under a bridge&amp;#44; overpass&amp;#44; power lines&amp;#44; etc.) and STAY INSIDE VEHICLE.&lt;/li&gt;&lt;li&gt;&lt;b&gt;NEAR THE OCEAN&lt;/b&gt; - Follow guidelines above until shaking stops. Then &lt;b&gt;HEAD FOR HIGH GROUND&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/EQ_during.jpg" alt="This is a panel of four cartoon images showing what to do during an earthquake if inside&amp;#44; outside&amp;#44; driving&amp;#44; or near the ocean." title="During Earthquake Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Morgan Junction Park Hub &lt;br&gt;Hub Location: At Morgan Junction Park&amp;#44; &lt;br&gt;6413 California Ave SW&amp;#44; Seattle&amp;#44; WA 98118 &lt;br&gt;Hub Captain: Cindi Barker&lt;br&gt;Email: &lt;a href="mailto:cindiLbarker@gmail.com" target="_top"&gt;cindiLbarker@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-933-6968&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/west-seattle/" target=_blank&gt;http://seattleemergencyhubs.org/west-seattle&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;North Highland Park Hub &lt;br&gt;Hub Location: The Highland Park Improvement Club &lt;br&gt;1116 SW Holden St&lt;br&gt;Hub Captain:Volunteer Needed &lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;South Park Neighborhood Center &lt;br&gt;Hub Location: 8201 10th Ave S&lt;br&gt;Hub Captain: Dagmar Cronn&lt;br&gt;Email: &lt;a href="mailto:cronn@oakland.edu" target="_top"&gt;cronn@oakland.edu&lt;/a&gt;&lt;br&gt;Phone: 206-327-1828&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt; &lt;br&gt;description: Meet by the blue box in the park&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Pigeon Point Hub &lt;br&gt;Hub Location: The intersection of 20th Ave SW &amp; SW Genesee St&amp;#44; Seattle&amp;#44; WA 98106 &lt;br&gt;NW corner of the Park&amp;#44; just north of the school.&lt;br&gt;Hub Captain: Wade Harper&lt;br&gt;Email: &lt;a href="mailto:wade.harper@outlook.com" target="_top"&gt;wade.harper@outlook.com&lt;/a&gt;&lt;br&gt;Phone: 206-455-5407&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Hiawatha Playfield/Community Center (Admiral Hub) &lt;br&gt;Hub Location: At California Ave SW &amp; SW Lander St&amp;#44; Seattle&amp;#44; WA 98116&lt;br&gt;Hub Captain: Paul Stancik&lt;br&gt;Email: &lt;a href="mailto:pstancik@mindspring.com" target="_top"&gt;pstancik@mindspring.com&lt;/a&gt;&lt;br&gt;Phone:TBD &lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Fauntleroy Church Hub &lt;br&gt;Hub Location: Fauntleroy Church&amp;#44; 9140 California Ave SW&lt;br&gt;Hub Captain: Gordon Wiehler&lt;br&gt;Email:: &lt;a href="mailto:gmwinv@Comcast.net" target="_top"&gt;gmwinv@Comcast.net&lt;/a&gt;&lt;br&gt;Phone:: 206-577-4292&lt;br&gt;Website:&lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org/&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Providence/Mount St. Vincent&amp;#44; parking lot (Fairmount Hub) &lt;br&gt;Hub Location: At SW Hudson St &amp; 35th Ave SW&amp;#44; Seattle&amp;#44; WA 98126 &lt;br&gt; (meet at the SE parking lot under the flag pole )&lt;br&gt;Hub Captain: Sharonn Meeks&lt;br&gt;Email: &lt;a href="mailto:smeeks50@comcast.net" target="_top"&gt;smeeks50@comcast.net&lt;/a&gt;&lt;br&gt;Phone: 206-938-1007&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Neighborhood House (High Point Hub) &lt;br&gt;Hub Location: At 6400 Sylvan Way SW (note that east of 35th Ave SW&amp;#44; SW Morgan Street becomes Sylvan Way SW). Neighborhood House is next to Lanham Place SW. Meet at the amphitheater. &lt;br&gt;Hub Captain: Heather Hutchison&lt;br&gt;Email: &lt;a href="mailto:heather.hutchison@manage" target="_top"&gt;heather.hutchison@manage&lt;/a&gt;&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Ercolini Park Hub &lt;br&gt;Hub Location: At 48th Ave SW &amp; SW Alaska St.&amp;#44; in the park&lt;br&gt;Hub Captain: Jon Wright&lt;br&gt;Email:&lt;a href="mailto:ercolini@westseattlebeprepared.org" target="_top"&gt;ercolini@westseattlebeprepared.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;EC Hughes Playground (Olympic Heights Hub) &lt;br&gt;Hub Location: At 29th Ave SW &amp; SW Holden St&amp;#44; Seattle&amp;#44; WA 98126&amp;#44; at the NE corner of Hughes Playground.&lt;br&gt;Hub Captain: Volunteer needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Salvation Army&amp;#44; parking lot (South Highland Park Hub) &lt;br&gt;Hub Location: At 9050 16th Ave SW (near SW Barton St.)&amp;#44; the Salvation Army parking lot is the gathering place for this hub.&lt;br&gt;Hub Captain: Volunteer Needed &lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;North Delridge P-Patch Hub &lt;br&gt;Hub Location: At the P-Patch&amp;#44; located at 5078 25th Ave SW&amp;#44; Seattle&amp;#44; WA&lt;br&gt;Hub Captain: Jay McNally&lt;br&gt;Email: &lt;a href="mailto:Newcarissa@gmail.com" target="_top"&gt;Newcarissa@gmail.com &lt;/a&gt;&lt;br&gt;Phone: 206-484-6613&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Hope Lutheran Church (Alaska Junction Hub) &lt;br&gt;Hub Location: 4456 42nd Ave SW&amp;#44; Seattle&amp;#44; WA 98116&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Alki Community Center (Alki Hub) &lt;br&gt;Hub Location: At 59th Ave SW &amp; SW Stevens St&amp;#44; Seattle&amp;#44; WA 98116. This is adjacent to Whale Tail Park&amp;#44; near the west edge of the playfield. North side of Alki Playfield&lt;br&gt;Hub Captain: Tony Fragada (98126)&lt;br&gt;Email: &lt;a href="mailto:tfragada@yahoo.com" target="_top"&gt;tfragada@yahoo.com&lt;/a&gt; &lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Maa Nyei Lai Ndeic P-Patch Hub &lt;br&gt;Hub Location: 4913 Columbia Dr S&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Hub Captain: Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Hillman City P-Patch Hub &lt;br&gt;Hub Location: 4613 S Lucile St&amp;#44; Seattle&amp;#44; WA 98118 (Corner of South Lucile &amp; 46th Ave South)&lt;br&gt;Hub Captain: Joanne Tilton&lt;br&gt;Email: &lt;a href="mailto:Jtilton22@comcast.net" target="_top"&gt;Jtilton22@comcast.net&lt;/a&gt;&lt;br&gt;Phone: 206-650-2071&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Judkins P-Patch Hub &lt;br&gt;Hub Location: 24th Avenue S &amp; S Norman Street Seattle&amp;#44; WA 98112 (Meeting Location: P-Patch entrance off Norman &amp; 24th Ave S.)&lt;br&gt;Hub Captain: Jen Ellis&lt;br&gt;Email:   &lt;a href="mailto:JenniferEllis.206@gmail.com" target="_top"&gt;JenniferEllis.206@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-276-4982&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Fisher Pavilion Hub &lt;br&gt;Hub Location: 2nd Ave N &amp; Thomas St&lt;br&gt;Hub Captain: MIQA Be Prepared&lt;br&gt;Email:  &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website:  &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Interbay Fishermen's Terminal Hub &lt;br&gt;Hub Location: Interbay Fishermen's Terminal&lt;br&gt;Hub Captain: MIQA Be Prepared&lt;br&gt;Email: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Eastlake Hub &lt;br&gt;Hub Location: Rogers Playfield&lt;br&gt;Hub Captain: Amy O'Donnell&lt;br&gt;Email:  &lt;a href="mailto:eastlake.hub@gmail.com" target="_top"&gt;eastlake.hub@gmail.com&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Madison Park Hub &lt;br&gt;Hub Location: 42nd Ave E and E Howe St (at the north side of tennis courts)&lt;br&gt;Hub Captain: John Madrid&lt;br&gt;Email:  &lt;a href="mailto:johnmadrid@hotmail.com" target="_top"&gt;johnmadrid@hotmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-498-1880&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Sunrise P-Patch Hub &lt;br&gt;Hub Location: 33rd Ave S &amp; S Oregon St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Hub Captain: Aaron Deitz&lt;br&gt;Email: &lt;a href="mailto:aarondietz@gmail.com" target="_top"&gt;aarondietz@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-694-3966&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Snoqualmie P-Patch Hub &lt;br&gt;Hub Location: 4549 13th Ave S&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Hub Captain: Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;New Holly Youth &amp; Family P-Patch Hub &lt;br&gt;Hub Location: 32nd Ave S &amp; S Brighton St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Hub Captain: Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;New Holly Power P-Patch Hub &lt;br&gt;Hub Location: 7123 S Holly Park Dr&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Hub Captain: Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;New Holly Lucky Garden Hub &lt;br&gt;Hub Location: S Holly St &amp; Shaffer Ave S&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;New Holly 29 P-Patch Hub &lt;br&gt;Hub Location: 29th Ave S &amp; S Brighton St&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;John C. Little P-Patch Hub &lt;br&gt;Hub Location: 6961 37th Ave S&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Dakota P-Patch Hub &lt;br&gt;Hub Location: 2902 S Dakota St&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Beacon Food Forest Hub &lt;br&gt; Hub Location:: 15th Ave S &amp; S Dakota St&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Ethiopian Community in Seattle &lt;br&gt;Hub Location: 8323 Rainier Ave S (meet at main building)&lt;br&gt;Hub Captain: Kassa Kachara&lt;br&gt;Email:  &lt;a href="mailto:kabiso_kass@yahoo.com" target="_top"&gt;kabiso_kass@yahoo.com&lt;/a&gt;&lt;br&gt;Phone: 206-325-0304&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Angel Morgan P-Patch (Angel Morgan Hub) &lt;br&gt;Hub Location: 3956 S Morgan St&amp;#44; Seattle&amp;#44; WA 98118 (The P Patch is located at 42nd Ave S &amp; S Morgan Street)&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Thistle P-Patch Hub &lt;br&gt;Hub Location: Martin Luther King Jr Way S &amp; S Cloverdale St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;New Holly Rockery &amp; Market Hub &lt;br&gt;Hub Location: S Holly Park Dr &amp; Rockery Dr S&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Hub Captain: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Phone: 206-684-0517&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Lakewood Seward Park Hub &lt;br&gt;Hub Location: Lakewood Seward Park Community Club - 4916 S. Angeline Street&lt;br&gt;Hub Captain: Aaron Evanson&lt;br&gt;Email:  &lt;a href="mailto:aaronevanson@gmail.com" target="_top"&gt;aaronevanson@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206.660.3822&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Rainier Beach Community Club Hub &lt;br&gt;Hub Location: Rainier Beach Community Club - VFW Hall &amp;#44; 6038 S. Pilgrim&amp;#44; Seattle  WA  98118&lt;br&gt;Hub Captain: Ron Angeles&lt;br&gt;Email:  &lt;a href="mailto:ranestoba@comcast.net" target="_top"&gt;ranestoba@comcast.net&lt;/a&gt;&lt;br&gt;Phone: 206-721-5326 and 206-351-0813&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Queen Anne Bowl &lt;br&gt;Hub Location: 2806 3rd Ave W&lt;br&gt;Hub Captain: Chris Saether&lt;br&gt;Email: &lt;a href="mailto:csaether@msn.com" target="_top"&gt;csaether@msn.com&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Interbay Athletic Complex &lt;br&gt;Hub Location: 3027 17th Ave W&lt;br&gt;Hub Captain: MIQA Be Prepared&lt;br&gt;Email: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Magnolia Manor Park &lt;br&gt; Hub Location: 3500 28th Ave W&lt;br&gt;Hub Captain: MIQA Be Prepared&lt;br&gt;Email: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Magnolia Metropolitan Market&lt;br&gt;Hub Location: 3830 34th Ave W&lt;br&gt;Hub Captain: MIQA Be Prepared&lt;br&gt;Email: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;West Queen Anne Playfield Hub &lt;br&gt;Hub Location: 150 W Blaine St&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD &lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;West Magnolia Playfield Hub &lt;br&gt;Hub Location: 32nd Ave W &amp; W Smith St&amp;#44; South Playfield&amp;#44; Southwest corner&lt;br&gt;Hub Captain: Frank Gaul&lt;br&gt;Email:  &lt;a href="mailto:ftgaul@gmail.com" target="_top"&gt;ftgaul@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-499-8690&lt;br&gt;Website: &lt;a href="http://www.miqabeprepared.org/" target=_blank&gt;http://www.miqabeprepared.org/&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Ballard Commons Hub &lt;br&gt;Hub Location: NW 57th &amp; 22nd Ave NW&lt;br&gt;Hub Captain: Colin Getty&lt;br&gt;Email:  &lt;a href="mailto:k7biowa@gmail.com" target="_top"&gt;k7biowa@gmail.com&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Lower Woodland Playfields Hub &lt;br&gt;Hub Location: Green Lake Way N &amp; N 50th St&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Ravenna Hub &lt;br&gt; Hub Location: 6535 Ravenna Ave NE (Ravenna-Eckstein Community Center parking lot)&lt;br&gt;Hub Captain: David Ward&lt;br&gt;Email:  &lt;a href="mailto:booksgalore22@gmail.com" target="_top"&gt;booksgalore22@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-523-1161&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Victory Heights Hub &lt;br&gt;Hub Location: Victory Heights Park (1737 NE 106th St)&lt;br&gt;Hub Captain: Ann Forrest&lt;br&gt;Email:  &lt;a href="mailto:aaforrest@hotmail.com" target="_top"&gt;aaforrest@hotmail.com&lt;/a&gt;&lt;br&gt;Phone: (360)550-2234&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Epic Life Church Hub &lt;br&gt;Hub Location: Epic Life Church - 10503 Stone Ave N&amp;#44; Seattle&amp;#44; WA 98133&lt;br&gt;Hub Captain: Larry Chaney&lt;br&gt;Email:  &lt;a href="mailto:larry@epiclifechurch.org" target="_top"&gt;larry@epiclifechurch.org&lt;/a&gt;&lt;br&gt;Phone: 425-218-8849&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Crown Hill Park Hub &lt;br&gt;Hub Location: NW 92nd &amp; 14th Ave NW&lt;br&gt;Hub Captain: Dennis Galvin&lt;br&gt;Email:  &lt;a href="mailto:short.harp@gmail.com" target="_top"&gt;short.harp@gmail.com&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Shilshole Marina Hub &lt;br&gt;Hub Location: Shilshole Marina&amp;#44; 7001 Seaview Ave NW&lt;br&gt;Hub Captain: Jim Doub&lt;br&gt;Email: &lt;a href="mailto:jim@portagebaymarine.com" target="_top"&gt;jim@portagebaymarine.com&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Loyal Heights Playfield Hub&lt;br&gt;Hub Location: NW 77th &amp;amp; 21st Ave NW (2101 NW 77th St&amp;#44; Loyal Heights CC basketball half court)&lt;br&gt;Hub Captain: Cheryl Dyer&lt;br&gt;Email: &lt;a href="mailto:cheryldy@msn.com" target="_top"&gt;cheryldy@msn.com&lt;/a&gt;&lt;br&gt;Phone: 206-784-3724&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Kirke Park Hub&lt;br&gt;Hub Location: 7028 9th Ave NW&lt;br&gt;Hub Captain: Hugh Kelso&lt;br&gt;Email: &lt;a href="mailto:HKelso@mac.com" target="_top"&gt;HKelso@mac.com&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Gilman Park Hub &lt;br&gt;Hub Location: NW 54th &amp;amp; 9th Ave NW&lt;br&gt;Hub Captain: Linda Frank&lt;br&gt;Email: &lt;a href="mailto:lindabfrank@gmail.com" target="_top"&gt;lindabfrank@gmail.com&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Ross Playground Hub &lt;br&gt;Hub Location: 4320 4th Ave NW&lt;br&gt;Hub Captain: Leslie Matthis&lt;br&gt;Email: &lt;a href="mailto:leslie.matthis@gmail.comv" target="_top"&gt;leslie.matthis@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206.783.1500&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Phinney Neighborhood Center Hub &lt;br&gt;Hub Location: Phinney Neighborhood Center: 6532 Phinney Avenue North&amp;#44; Seattle&amp;#44; WA  98103 (Meeting Place: Phinney Center upper parking area)&lt;br&gt;Hub Captain: David Baum&lt;br&gt;Email: &lt;a href="mailto:phinneyhub@gmail.com" target="_top"&gt;phinneyhub@gmail.com &lt;/a&gt;&lt;br&gt;Phone: 206-913-1021&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Meridian Playfield/Good Shepherd Center Hub &lt;br&gt;Hub Location: 4649 Sunnyside Ave. N&lt;br&gt;Hub Captain: Brian Shapiro&lt;br&gt;Email: &lt;a href="mailto:bshapiro@objectarts.net" target="_top"&gt;bshapiro@objectarts.net&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;History House of Greater Seattle Hub &lt;br&gt;Hub Location: 790 N 34th St&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Greenwood Senior Center Hub &lt;br&gt;Hub Location: Greenwood Senior Center: 525 N 85th  Street&amp;#44; Seattle&amp;#44; WA  98103&lt;br&gt;Hub Captain: Kelly Kasper&lt;br&gt;Email: &lt;a href="mailto:kelly@ht2consulting.com" target="_top"&gt;kelly@ht2consulting.com&lt;/a&gt;&lt;br&gt;Phone: 206-397-4283&lt;br&gt;Co-Captain: Noel Frame&lt;br&gt;Co-Captain Email: &lt;a href="mailto:noel@noelframe.com" target="_top"&gt;noel@noelframe.com&lt;/a&gt; &lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Green Lake Playfield &amp; Community Center Hub &lt;br&gt;Hub Location: 7201 Green Lake Dr N&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Bagley Elementary Hub &lt;br&gt;Hub Location: 7821 Stone Ave N&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Phone: TBD&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Maple Leaf Park Hub &lt;br&gt;Hub Location: 1020 NE 82nd St&lt;br&gt;Hub Captain: Lori Phipps&lt;br&gt;Email: &lt;a href="mailto:lphipps01@gmail.com" target="_top"&gt;lphipps01@gmail.com&lt;/a&gt;&lt;br&gt;Phone: 206-947-0309&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Hunter Farm Hub &lt;br&gt;Hub Location: 7730 35th Ave NE&lt;br&gt;Hub Captain: Volunteer Needed&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Website:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;University Heights Center &lt;br&gt;Hub Location: NE 50th Street and University Way NE&lt;br&gt;Hub Captain: Ray Munger&lt;br&gt;Email: &lt;a href="mailto:ray@uheightscenter.org" target="_top"&gt;ray@uheightscenter.org&lt;/a&gt;&lt;br&gt;Phone: 206-527-4278&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Lake City Way SR 522/Fred Meyer Hub &lt;br&gt;Hub Location: 13000 Lake City Way NE (SE corner of lower parking lot)&lt;br&gt;Hub Captain: Sandy Motzer (98125)&lt;br&gt;Email: &lt;a href="mailto:sandymotzer@aol.com" target="_top"&gt;sandymotzer@aol.com&lt;/a&gt;&lt;br&gt;Phone: 206-819-8056&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Luther Memorial Lutheran Church Hub &lt;br&gt;Hub Location: 13047 Greenwood Ave N&lt;br&gt;Hub Captain: Dale Johnson&lt;br&gt;Email: &lt;a href="mailto:dalerayjohnson@comcast.net" target="_top"&gt;dalerayjohnson@comcast.net&lt;/a&gt;&lt;br&gt;Phone: 206-362-2980&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Community Emergency Hubs are places neighbors can gather after a disaster to help each other. &lt;p&gt;HUB NEAREST YOU IS&amp;#44;&lt;center&gt;&lt;b&gt;Grace Lutheran Church Hub &lt;br&gt; Hub Location: 11051 Phinney Ave N (Greenwood Avenue N &amp; N 112th Street)&lt;br&gt;Hub Captain: Dale Johnson&lt;br&gt;Email: &lt;a href="mailto:dalerayjohnson@comcast.net" target="_top"&gt;dalerayjohnson@comcast.net&lt;/a&gt;&lt;br&gt;Phone: 206-362-2980&lt;br&gt;Website: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;There is a high chance of flooding here&lt;/b&gt;. It sits in the 100-year floodplain. This means there's a 25% chance of a floodwaters reaching here in the next 30 years &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt; . Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Flooding is unlikely here&lt;/b&gt;. Water levels may rise slightly during floods or heavy storms. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;  &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Flooding is unlikely here&lt;/b&gt;. Reservoir levels may rise slightly during floods or heavy storms. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;  &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Bridges can be unsafe when flooding is occurring&lt;/b&gt;. If you suspect a bridge has been compromised&amp;#44; be wary and report it to the Flood Warning Center by calling 206-296-8200 or 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt; &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;This is outside the high-risk flood areas&gt;&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;. BUT if you live near a creek or small river be aware that it could flood too. See the &lt;a href=http://www.kingcounty.gov/depts/dnrp/wlr/sections-programs/river-floodplain-section.aspx target=_blank&gt;River and Floodplain Management website&lt;/a&gt; for more information. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; &lt;b&gt;This area has flooded in the past when large rainstorms have hit Seattle&lt;/b&gt;.  It could happen again if another strong storm causes water to pool and drain poorly. Scroll down for how to prepare. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;There is a high chance of flooding here. It sits in the 100-year floodplain.&lt;/b&gt; This means there's a 25% chance of a floodwaters reaching here in the next 30 years &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt; . Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Rain&amp;#44; snowmelt&amp;#44; or both cause waters to rise rapidly. Floodwaters overtop riverbanks&amp;#44; spill into neighborhoods&amp;#44; and impact roadways. &lt;b&gt;This area is in the mapped 500-year floodplain and will be flooded.&lt;/b&gt; There's a 6% chance you'll see a flood of this size in the next 30 years. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Rain&amp;#44; snowmelt&amp;#44; or both cause waters to rise rapidly. Floodwaters overtop riverbanks&amp;#44; spill into neighborhoods&amp;#44; and impact roadways. &lt;b&gt; This area in the mapped 500-year floodplain and will be flooded.&lt;/b&gt; There's a 6% chance you'll see a flood of this size in the next 30 years. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;This area is prone to urban flooding&lt;/b&gt;. The bigger the storm the more flooding you could see near here. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;It's unlikely you'll see flooding here&lt;/b&gt;. Large storms may cause nearby creeks&amp;#44; streams&amp;#44; and rivers to rise. Heavy rainfall could create pools of standing water on streets. If you spot localized flooding call the King County Flood Warning Center at 206-296-8200 or 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a high chance of the Green River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a high chance of the Cedar River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a high chance of the Raging River running through here in the future. &lt;/b&gt;&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a high chance of the Snoqualmie River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a high chance of the Tolt River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a moderate chance of the Cedar River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a moderate chance of the Green River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a moderate chance of the Raging River running through here in the future. &lt;/b&gt;&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a moderate chance of the Snoqualmie River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt; This zone has a moderate chance of the Tolt River running through here in the future. &lt;/b&gt;&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a low chance of the Green River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a low chance of the Snoqualmie River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a low chance of the Tolt River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. &lt;b&gt;No study has been done here to see if the river is likely to move over time&amp;#44; but be aware that it could.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;This is inside the current river channel. Over time the location of the channel may change. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;If your home has been flooded&amp;#44; &lt;b&gt;be wary reentering it as it could have structural damage&lt;/b&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Have a professional check utilities&lt;/b&gt; before turning them back on.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Document losses&lt;/b&gt; by photographing damages and recording repair costs.&lt;/li&gt;&lt;li&gt;Find out more &lt;b&gt; &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/flooding/prepare.aspx target=_blank&gt;here&lt;/a&gt;&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;PLAN&lt;/b&gt; - Make a plan of what to do and where to go if waters rise. &lt;b&gt;Have essential items ready&lt;/b&gt; (birth certificates&amp;#44; important documents&amp;#44; photos&amp;#44; etc). Acquire flood insurance if you need it.&lt;/li&gt;&lt;li&gt;&lt;b&gt;PREPARE&lt;/b&gt; - Store valuables and household chemicals above flood levels and &lt;b&gt;learn how to turn off utilities&lt;/b&gt; (&lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target=_blank&gt;water&amp;#44; gas&amp;#44; and electricity&lt;/a&gt;).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Russell Road Park &lt;br&gt; btwn Russell Rd. and S. 240th St.&lt;br&gt; Kent&amp;#44; WA&amp;#44; 98032 &lt;br&gt;  Sand only pickup (no sandbags)&lt;br&gt; M-F 8:00 am - 4:00 pm &lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt;Public Works Shops &lt;br&gt;1155 East North Bend Way &lt;br&gt; North Bend&amp;#44; WA 98045&lt;br&gt; Sandbag and sand pickup* &lt;br&gt; *Following flood announcement for Snoqualmie River&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; 33100 NE 45th Street &lt;br&gt; Carnation&amp;#44; WA 98014 &lt;br&gt;M-F 8:00am - 4:30pm &lt;br&gt;sandbags and sand can be picked up here (supplies are limited) &lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Meadowbrook Community Center&lt;br&gt;10517 35th Ave. NE &lt;br&gt; Seattle&amp;#44; WA 98125&lt;br&gt;Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; 1305 C St. SW &lt;br&gt; Auburn&amp;#44; WA 98001&lt;br&gt; M-F 6:30am - 4:00pm&lt;br&gt;sandbag and sand pickup are available by request &lt;br&gt;(call 253-931-3048)&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;.</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Kent City Public Works&lt;br&gt; 5821 S. 240th St. &lt;br&gt; Kent&amp;#44; WA 98032&lt;br&gt; M-F 8:00am - 4:00pm &lt;br&gt;sandbags can be picked up here (sand not provided).&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Tahoma School District &lt;br&gt; 23015 SE 216th Way&lt;br&gt; Maple Valley&amp;#44; WA 98038&lt;br&gt; 8:00am - 5:00pm (or until dusk)*&lt;br&gt;*When Cedar River flooding is likely sandbag and sand pickup will be available&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Pacific City Park &lt;br&gt; 600 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047&lt;br&gt;Sandbag and sand pickup will be announced when White River flooding is imminent&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Pacific/Algona Community Center &lt;br&gt; 100 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047 &lt;br&gt;Sandbag and sand pickup will be announced when White River flooding flooding is imminent.&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; City Property @ &lt;br&gt; Railroad Avenue SE and SE King Street &lt;br&gt; Snoqualmie&amp;#44; WA 98065&lt;br&gt;Sandbag and sand pickup*&lt;br&gt;*Announced when Snoqualmie River flooding is imminent &lt;br&gt;or as directed by emergency personnel&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Preston-Snoqualmie Trail parking lot &lt;br&gt; Lake Alice Road SE and SE 56th Place &lt;br&gt; Fall City&amp;#44; WA 98024&lt;br&gt;Sandbag and sand pickup*&lt;br&gt; *Announced when Snoqualmie River flooding is imminent&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Haller Lake Neighborhood &lt;br&gt; 12551 Ashworth Ave N.&lt;br&gt; Seattle&amp;#44; WA 98133&lt;br&gt;Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; South Park Neighborhood &lt;br&gt; 731 S. Sullivan &lt;br&gt; Seattle&amp;#44; WA 98108&lt;br&gt;Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Delridge Community Center &lt;br&gt; 4501 Delridge Way SW &lt;br&gt; Seattle&amp;#44; WA 98106&lt;br&gt; Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>With the many rivers in King County flooding is common during periods of heavy rainfall or rapid snowmelt. &lt;b&gt;Flooding is most common from November to February&lt;/b&gt;&amp;#44; but can happen whenever the conditions are right.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;This area has a shallow slope and is less likely to have landslides here&lt;/b&gt;. Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes. Scroll down to historical events see if any landslides have been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here&lt;/b&gt;.  Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes. Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;It's unlikely you will see a slide here&amp;#44; but you could see one on nearby steep slopes if conditions are right.&lt;/b&gt; Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Landslides often happen along ocean-side bluffs from waves buffeting coastlines. &lt;b&gt;Puget Sound waters have risen 8 inches since 1913&lt;/b&gt;! With higher water levels the potential for bluff erosion will increase. Excess rain from severe storms could also weaken steep slopes triggering more landslides in King County. Click the image to find out more. &lt;br&gt;
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storms Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;ASSESS&lt;/b&gt; - If the area around your home may be prone to landslides &lt;b&gt;seek advice of geotechnical experts&lt;/b&gt;. They can evaluate landslide hazard and/or design corrective techniques to reduce landslide risk.&lt;/li&gt;&lt;li&gt;&lt;b&gt;REDUCE RISK&lt;/b&gt; - Plant ground cover on slopes and/or build a retaining wall to &lt;b&gt;stabilize hillsides&lt;/b&gt;&lt;/li&gt;&lt;li&gt;&lt;b&gt;PREPARE&lt;/b&gt; - &lt;b&gt;Make a supply kit and family plan&lt;/b&gt; designating at least two evacuation routes&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Staying out of the path of a landslide or debris flow is your best protection.&lt;/b&gt; The U.S. Geological Survey also recommend the following&amp;#44; &lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;&lt;b&gt;BE ALERT - Listen for unusual sounds&lt;/b&gt;. Intense&amp;#44; short bursts of rain may be particularly dangerous&amp;#44; especially after longer periods of heavy rainfall and damp weather.&lt;/li&gt;&lt;li&gt;&lt;b&gt;CONSIDER LEAVING&lt;/b&gt; - If you are in areas susceptible to landslides and debris flows&amp;#44; consider leaving if it is safe to do so.  If you decide to stay home&amp;#44; move to a second story if possible.&lt;/li&gt;&lt;li&gt;&lt;b&gt;NOTICE STREAM LEVELS&lt;/b&gt; - If you are near a stream or channel&amp;#44; &lt;b&gt;be alert for any sudden increase or decrease in water flow and for a change from clear to muddy water&lt;/b&gt;. These could indicate landslide activity upstream. DON'T DELAY! Save yourself&amp;#44; not your belongings.&lt;/li&gt;&lt;/ul&gt; You can find more landslide tips from USGS &lt;a href=http://landslides.usgs.gov/learn/prepare.php target=_blank&gt;here&lt;/a&gt;. &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Landslide_during.jpg" alt="This is a panel of three cartoon images showing what to do during an a landslide. Stay Alert&amp;#44; Leave the area&amp;#44; and Don't Delay." title="During Landslide Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;BE PREPARED FOR FLOODING (landslides often block rivers and can cause rivers to back up and flood)&lt;/b&gt;.&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;Stay away from the slide. Other slides can occur after the main slide.&lt;/li&gt;&lt;li&gt;Once it's safe&amp;#44; check for injured and trapped people.&lt;/li&gt;&lt;li&gt;Check for damaged utility lines and report any damage to your utility company.&lt;/li&gt;&lt;li&gt;Listen to local media or NOAA Weather Radio for current information.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;No landslides have been identified here&lt;/b&gt; (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;). Landslides are most common on barren&amp;#44; steep slopes where drainages come together. If you live below an area like this be aware of your risks (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en target=_blank&gt;map&lt;/a&gt;). To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Scientists have not identified any landslides here&lt;/b&gt;. For more information see the &lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt; and &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg target=_blank&gt;map&lt;/a&gt;. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;No landslides have been identified here&lt;/b&gt; according to a 1995 study on slides in the City of Seattle (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;No studies have been completed here&lt;/b&gt; to identify if historical landslides exist (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;A LANDSLIDE HAS HAPPENED HERE&lt;/b&gt; at some time in the past (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;) and  (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;A LANDSLIDE HAS HAPPENED HERE&lt;/b&gt; at some time in the past (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;A LANDSLIDE HAS HAPPENED HERE&lt;/b&gt; at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;A LANDSLIDE and ROCK AVALANCHE HAS HAPPENED HERE&lt;/b&gt; at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. Examine the data layers more closely on the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;A ROCK AVALANCHE HAS HAPPENED HERE&lt;/b&gt; at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. Examine the data layers more closely on the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;A LANDSLIDE HAS HAPPENED HERE&lt;/b&gt; according to a 1995 study on slides in the City of Seattle (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;This is a very high-risk community for wildfire&lt;/b&gt;. It sits at a boundary between humans and the forest. Western Washington is temperate&amp;#44; but wildfires do strike the eastern part of King County every year. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;This is a high-risk community for wildfire&lt;/b&gt;. It sits at a boundary between humans and the forest. Western Washington is temperate&amp;#44; but wildfires do strike the eastern part of King County every year. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;This area has not been identified as having high risk for wildfire&lt;/b&gt;&amp;#44; but it is within a half mile of a high-risk community. In the right conditions wildfire will spread. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;This area has a low to very low risk of wildfire&lt;/b&gt;. If you live near a wooded area be aware that wildfires can happen. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;As this is water&amp;#44; no wildfire potential exists here&lt;/b&gt;. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;You could experience a major wildfire here&lt;/b&gt;. It will be fast moving&amp;#44; with large flames and may change direction quickly. It could take firefighters days or weeks to contain it. SMOKE from distant wildfires can travel far and can be a factor even if none are burning nearby. Check on your local air quality &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;You could experience a wildfire here&lt;/b&gt;. It will be fast moving&amp;#44; with large flames and may change direction quickly. It could take firefighters days or weeks to contain it. SMOKE from distant wildfires can travel far and can be a factor even if none are burning nearby. Check on your local air quality &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;It's unlikely&amp;#44; but if you live near a forested area you could experience wildfire&lt;/b&gt;. SMOKE from distant wildfires can travel far and can be a factor even if none are burning nearby. Check on your local air quality &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;MAKE SPACE&lt;/b&gt; - Protect lives and property by creating a &lt;b&gt;fire-adapted space around your home&lt;/b&gt;&amp;#44; shed&amp;#44; and business. To find out how check out &lt;a href=http://www.firewise.org/wildfire-preparedness.aspx target=_blank&gt;firewise.org&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;WATCH WEATHER&lt;/b&gt; - A few sunny days can dry out forests enough to catch fire. Windy conditions can cause wildfires to get out of control quickly.&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Firewise_Brochure.jpg" alt="This is an image of ways to prevent wildfire around your home. They include screening decks&amp;#44; pruning trees 6-10 feet from the ground&amp;#44; using fire-resistant wall and roof materials&amp;#44; keeping plants watered&amp;#44; and making sure your driveway can accommodate an emergency vehicle" title="How to Prepare Your Home for Wildfire"&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Return to your home once authorities say it is safe.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Use caution when entering burned areas&lt;/b&gt; as hazards may still exist.&lt;/li&gt;
+&lt;li&gt;Check and re-check for smoke or hidden embers.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Photograph damage&lt;/b&gt; for insurance purposes.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;STAY TUNED&lt;/b&gt; - Listen for local emergency alerts on the radio and/or television and be ready to evacuate if necessary.&lt;/li&gt;&lt;li&gt;&lt;b&gt;REMOVE FLAMABLES&lt;/b&gt; - Remove materials from around your property that could catch fire (lawn chairs&amp;#44; tables&amp;#44; etc.).&lt;/li&gt;&lt;li&gt;&lt;b&gt;PREPARE YOUR HOME&lt;/b&gt; - Move upholstered furniture away from windows. Close doors and windows&amp;#44; but do not lock them.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Fire_during.jpg" alt="This is an icon of an exclaimation point with two triangles behind it" title="During Fire Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Lahars (volcanic mudflows) are the main hazard associated with Mount Rainier. &lt;b&gt;South King County residents have a 1 in 10 chance of experiencing a lahar in their lifetime&lt;/b&gt;. Mount Rainier is considered an active volcano&amp;#44; but it could be many years until it erupts again.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;If a lahar is triggered on Mount Rainier&amp;#44; &lt;b&gt;this area is could see flooding and sediment like mud&amp;#44; sand&amp;#44; rocks&amp;#44; and other debris brought down river by the lahar&lt;/b&gt;. This could occur for years to decades after the lahar.&lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;A 10% - 40% chance exists of a lahar from Mount Rainier flowing through this region in the next 50 years.&lt;/b&gt; Lahars behave and look like wet flowing concrete. Thick mud and debris will cover the area if one happens. This could severely damage property and take a long time to recover. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;A 5% - 10% chance exists of a lahar from Mount Rainier flowing through this area in the next 50 years&lt;/b&gt;. Lahars behave and look like wet flowing concrete. Thick mud and debris will cover the area if one happens. This could severely damage property and take a long time to recover. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;You are OUTSIDE THE LAHAR HAZARD ZONE&lt;/b&gt;. If Mount Rainier erupts ash will cover the region. It will look much like areas impacted by the Mount Saint Helen's eruption in 1980. Ash thickness will vary with distance from eruption. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;ASK&lt;/b&gt; - Find out what steps local officials have taken to prepare for volcanic events. &lt;b&gt;Ask public officials what their plan is and how they will communicate with you during an event&lt;/b&gt;. You can do this by contacting the King County &lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=_blank&gt; Office of Emergency Management&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;PLAN&lt;/b&gt; - Talk to your friends and neighbors. If you are in a high risk zone&amp;#44; &lt;b&gt;decide where you would go&amp;#44; what you would bring&amp;#44; and who you would contact&lt;/b&gt;.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>During an eruption&amp;#44; listen to the news for emergency updates and follow emergency instructions.
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;IN LAHAR ZONE - Get to higher ground immediately.&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;OUTSIDE&lt;/b&gt; - Cover your mouth&amp;#44; nose&amp;#44; and body to avoid irritation. &lt;b&gt;Find shelter&lt;/b&gt;. &lt;/li&gt;
+&lt;li&gt;&lt;b&gt;INSIDE - Keep doors and vents in home closed and stay indoors&amp;#44; unless directed otherwise&lt;/b&gt;. Place damp towels at door thresholds and tape drafty windows. Keep car and truck engines off to avoid damage from ash congestion. Protect animals and machinery by bringing them inside or in a covered area.&lt;/li&gt;&lt;/ul&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Volcano_during.jpg" alt="This is an panel of three images of what to do during a volcanic eruption or lahar. In lahar zone&amp;#44; outside&amp;#44; inside." title="During Volcano Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;After the immediate danger from an eruption has subsided&amp;#44; cleaning up the ashfall will be the main event.&lt;br&gt;  &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/MtStHel_Yakima_graders.jpg" alt="This image shows two graders shoveling inches of ashfall from Saint Helens' eruption" title="Ashfall Cleanup in Yakima After Mt. Saint Helens"&gt;&lt;li&gt;Wear goggles and a face mask when outside. &lt;b&gt;Air quality will be poor&lt;/b&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Avoid running vehicle engines&lt;/b&gt;. If you must drive&amp;#44; keep speeds low (less than 35 MPH) and check oil&amp;#44; oil filters&amp;#44; and air filters frequently &lt;/li&gt;&lt;li&gt;Ashfall is very heavy and can cause buildings to collapse. If safe to do so&amp;#44; &lt;b&gt;clear ash from roofs and rain gutters&lt;/b&gt;.&lt;/li&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>You can learn more about Mount Rainier and the potential hazards from a number of sources: &lt;ul&gt;&lt;li&gt;&lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/ target=_blank&gt;Monitoring and other information&lt;/a&gt; - U.S. Geological Survey&lt;/li&gt;&lt;li&gt;&lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=blank&gt;General King County Information&lt;/a&gt; - King County&lt;li&gt;&lt;a href=https://www.nps.gov/mora/planyourvisit/geohazards.htm target=_blank&gt;Geohazards at Rainier&lt;/a&gt; - National Parks Service&lt;/li&gt;&lt;li&gt;&lt;a href=http://www.pnsn.org/volcanoes/mount-rainier target=_blank&gt;Earthquakes near Rainier&lt;/a&gt; - Pacific Northwest Seismic Network&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Across King County winter can bring below freezing temps&amp;#44; icy roads&amp;#44; and the potential for major storms. Snowfall occurs occasionally&amp;#44; with more at higher elevations. &lt;b&gt;Winter storms can bring high winds that cause trees to fall and power to go out.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A substantial snow fall event could cause significant disruptions to transportation&amp;#44; public safety services&amp;#44; and utilities. &lt;b&gt;Power could be out for many days.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;The Pacific Northwest will see more severe storms in the next 50 years&lt;/b&gt;. They could carry heavy winds&amp;#44; torrential rainfall leading to flooding. Winter activities will be impacted. 2015 saw the lowest recorded snowpack levels with only 4% of the average. Warm winters will set the stage for statewide drought.  Click the image to find out more. &lt;br&gt;
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Winter.jpg" alt="Climate Change Winter Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Meteorologists have made great strides in forecasting snow and ice storms. &lt;b&gt;Pay attention to local weather forecasts and sign up for available alert and warning systems&lt;/b&gt; (&lt;a href=http://alert.seattle.gov/ target=_blank&gt;Alert Seattle&lt;/a&gt; and &lt;a href=http://www.kingcounty.gov/depts/emergency-management/alert-king-county.aspx target=_blank&gt;Alert King County&lt;/a&gt;) to ensure that you get up to date information about pending severe weather. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;GET SUPPLIES - Store extra fuel and emergency supplies&lt;/b&gt; to survive several days without electricity&amp;#44; heat&amp;#44; and hot water. Consider purchasing a generator and follow safety standards.&lt;/li&gt;&lt;li&gt;&lt;b&gt;WINTERIZE YOUR HOME&lt;/b&gt; - Install storm windows. Insulate walls&amp;#44; attics&amp;#44; and pipes. Apply caulk and weather-stripping to doors and windows. Allow faucets to drip a little during cold weather to keep pipes from freezing. &lt;b&gt;Learn how to shut off water valves (in case a pipe bursts)&lt;/b&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;WINTERIZE YOUR VEHICLES&lt;/b&gt; - Keep fuel tanks at least half full. Have the battery&amp;#44; ignition system&amp;#44; radiator&amp;#44; lights&amp;#44; brakes&amp;#44; and tires checked. Fill reservoirs with antifreeze&amp;#44; oil&amp;#44; and window washer fluids. &lt;b&gt;Keep winter weather emergency supplies in your trunk.&lt;/b&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;STAY INFORMED&lt;/b&gt; - Monitor local news on your TV&amp;#44; mobile device&amp;#44; or battery-operated radio. Follow emergency instructions and pay attention to travel advisories.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;AVOID TRAVEL&lt;/b&gt; - If you must drive&amp;#44; fill the gas tank&amp;#44; stay on main roads&amp;#44; and keep others informed of your itinerary. Slow down. If stranded&amp;#44; call for help&amp;#44; turn on hazard lights&amp;#44; and remain with your vehicle. Don't set out on foot unless shelter is close by.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;KNOW YOUR RISKS &lt;/b&gt;- 
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;Hypothermia&lt;/b&gt; - If you notice signs get medical help immediately. For symptoms and other information click &lt;a href=https://www.cdc.gov/disasters/winter/staysafe/hypothermia.html target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt; Carbon Monoxide Poisoning&lt;/b&gt; - It happens when fuels like gas&amp;#44; oil&amp;#44; kerosene&amp;#44; wood&amp;#44; or charcoal are burned in an enclosed space. Hundreds of people die accidentally each year. Find out more &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/carbon-monoxide.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;li&gt;&lt;b&gt;AVOID HAZARDS&lt;/b&gt; - Steer clear of fallen power lines&amp;#44; flooded&amp;#44; roads&amp;#44; and other structures weakened from heavy snow or ice.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Winter_during.jpg" alt="This is a panel of four images of what to do during bad winter weather. Stay Tuned&amp;#44; Stay Inside&amp;#44; Know Risks&amp;#44; and Avoid Hazards." title="During Winter Weather Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Restock emergency supplies&lt;/b&gt;. Get ready in case another storm hits&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Improve your family plan&lt;/b&gt; - What worked? What could be done better?&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Talk to your neighbors&lt;/b&gt;. Share tips and ideas with each other&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>July 2015 was the hottest month ever! &lt;b&gt;The average yearly temp is projected to increase between 3 and 10 degrees Fahrenheit by 2100&lt;/b&gt;. Washington residents will see less summer rainfall&amp;#44; but the rainfall that does happen will be heavier (think downpours). Click the image to find out more. &lt;br&gt; 
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storm Infographic"&gt;
+&lt;/a&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Heat exhaustion and heat stroke are serious illnesses that can occur when a person is exposed to extreme heat.&lt;/p&gt;
 &lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;
-HEAT EXHAUSTION SIGNS:
+&lt;b&gt;HEAT EXHAUSTION SIGNS&lt;/b&gt;:
 &lt;ul&gt;
 &lt;li&gt;Heavy sweating&lt;/li&gt;
 &lt;li&gt;Weakness&lt;/li&gt;
@@ -914,7 +1002,7 @@
 &lt;/ul&gt;
 &lt;/div&gt;
 &lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;
-HEAT STROKE SIGNS:
+&lt;b&gt;HEAT STROKE SIGNS&lt;/b&gt;:
 &lt;ul&gt;
 &lt;li&gt;High body temperature (103F or higher)&lt;/li&gt;
 &lt;li&gt;Hot and dry skin&lt;/li&gt;
@@ -924,412 +1012,161 @@
 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>Severe storms are expected to increase in the next 50 years.They will bring with them rain and snow. Rivers will have higher flows leading to more flooding in the Fall/Winter. Click the image to find out more. &lt;br&gt;
-&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Rivers.jpg" alt="Climate Change Rivers Infographic"&gt;
-&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Landslides often happen along ocean-side bluffs from waves buffeting coastlines. Puget Sound waters have risen 8 inches since 1913. With higher water levels the potential for bluff erosion will increase. Excess rain from severe storms could also weaken steep slopes triggering more landslides in King County. Click the image to find out more. &lt;br&gt;
-&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storms Infographic"&gt;
-&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>The number of wildfires in the Pacific Northwest has already increased significantly in the last few decades. This trend is likely to continue with drier and stormier summers (think lightning that sparks fires). Large areas of forest could burn and put smoke into the air. Click the image to find out more. &lt;br&gt;
-&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Forests.jpg" alt="Climate Change Forest Infographic" &gt;
-&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>The Pacific Northwest will see more severe storms in the next 50 years. They could carry heavy winds&amp;#44; torrential rainfall leading to flooding. Winter activities will be impacted. 2015 saw the lowest recorded snowpack levels with only 4% of the average. Warm winters will set the stage for statewide drought.  Click the image to find out more. &lt;br&gt;
-&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Winter.jpg" alt="Climate Change Winter Infographic"&gt;
-&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>July 2015 was the hottest month ever! The average yearly temp is projected to increase between 3 and 10 degrees Fahrenheit by 2100. Washington residents will see less summer rainfall&amp;#44; but the rainfall that does happen will be heavier (think downpours). Click the image to find out more. &lt;br&gt; 
-&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storm Infographic"&gt;
-&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(1) GET SUPPLIES - Store extra fuel and emergency supplies to survive several days without electricity&amp;#44; heat&amp;#44; and hot water. Consider purchasing a generator and follow safety standards.&lt;br&gt; (2) WINTERIZE YOUR HOME - Install storm windows. Insulate walls&amp;#44; attics&amp;#44; and pipes. Apply caulk and weather-stripping to doors and windows. Allow faucets to drip a little during cold weather to keep pipes from freezing. Learn how to shut off water valves (in case a pipe bursts). &lt;br&gt; (3) WINTERIZE YOUR VEHICLES - Keep fuel tanks at least half full. Have the battery&amp;#44; ignition system&amp;#44; radiator&amp;#44; lights&amp;#44; brakes&amp;#44; and tires checked. Fill reservoirs with antifreeze&amp;#44; oil&amp;#44; and window washer fluids. Keep winter weather emergency supplies in your trunk.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(1) PLAN - Make a plan of what to do and where to go if waters rise. Have essential items ready (birth certificates&amp;#44; important documents&amp;#44; photos&amp;#44; etc). Acquire flood insurance if you need it. &lt;br&gt; (2) PREPARE - Store valuables and household chemicals above flood levels and learn how to turn off utilities (&lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target=_blank&gt;water&amp;#44; gas&amp;#44; and electricity&lt;/a&gt;).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(1) PRACTICE - Be aware and practice "Drop&amp;#44; Cover&amp;#44; and Hold On" &lt;br&gt; (2) PLAN - Make a family plan (&lt;a href=http://www.fema.gov/media-library-data/0e3ef555f66e22ab832e284f826c2e9e/FEMA_plan_parent_508_071513.pdf target="_blank"&gt;for adults&lt;/a&gt; &amp;amp; &lt;a href=http://www.fema.gov/media-library-data/a260e5fb242216dc62ae380946806677/FEMA_plan_child_508_071513.pdf target="_blank"&gt;for kids&lt;/a&gt;) and build a &lt;a href=http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf target="_blank"&gt;supply kit&lt;/a&gt; &lt;br&gt; (3) PREPARE - Secure items that could fall and know the location of utility shut offs.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(1) ASSESS - If the area around your home may be prone to landslides seek advice of geotechnical experts. They can evaluate landslide hazard and/or design corrective techniques to reduce landslide risk.&lt;br&gt;(2) REDUCE RISK - Plant ground cover on slopes and/or build a retaining wall to stabilize hillsides&lt;br&gt; (3) PREPARE - Make a supply kit and family plan designating at least two evacuation routes&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(1) MAKE SPACE - Protect lives and property by creating a fire-adapted space around your home&amp;#44; shed&amp;#44; and business. To find out how check out &lt;a href=http://www.firewise.org/wildfire-preparedness.aspx target=_blank&gt;firewise.org&lt;/a&gt;.&lt;br&gt;
-(2) WATCH WEATHER - A few sunny days can dry out forests enough to catch fire. Windy conditions can cause wildfires to get out of control quickly.&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Firewise_Brochure.jpg" alt="This is an image of ways to prevent wildfire around your home. They include screening decks&amp;#44; pruning trees 6-10 feet from the ground&amp;#44; using fire-resistant wall and roof materials&amp;#44; keeping plants watered&amp;#44; and making sure your driveway can accommodate an emergency vehicle" title="How to Prepare Your Home for Wildfire"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Older adults&amp;#44; young children&amp;#44; and people with mental illness and chronic diseases are at higher risk of heat-related issues.&lt;br&gt;&lt;br&gt;
-(1) KNOW SIGNS - Heat-related illness can happen quickly. Know and which of your neighbors may be at risk. &lt;br&gt;
-(2) STAY INFORMED - Listen to local news for general information and locations of &lt;b&gt;cooling centers&lt;/b&gt; (public spaces that can be used by residents to stay cool).
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;After the immediate danger from an eruption has subsided&amp;#44; cleaning up the ashfall will be the main event.&lt;br&gt;  &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/MtStHel_Yakima_graders.jpg" alt="This image shows two graders shoveling inches of ashfall from Saint Helens' eruption" title="Ashfall Cleanup in Yakima After Mt. Saint Helens"&gt;&lt;li&gt;Wear goggles and a face mask when outside. Air quality will be poor.&lt;/li&gt;&lt;li&gt;Avoid running vehicle engines.&lt;/li&gt;&lt;li&gt; If you must drive&amp;#44; keep speeds low (less than 35 MPH) and check oil&amp;#44; oil filters&amp;#44; and air filters frequently &lt;/li&gt;&lt;li&gt;Ashfall is very heavy and can cause buildings to collapse. If safe to do so&amp;#44; clear ash from roofs and rain gutters.&lt;/li&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;(1) ASK - Find out what steps local officials have taken to prepare for volcanic events. Ask public officials what their plan is and how they will communicate with you during an event. You can do this by contacting the King County &lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=_blank&gt; Office of Emergency Management&lt;/a&gt;.&lt;br&gt;(2) PLAN - Talk to your friends and neighbors. If you are in a high risk zone&amp;#44; decide where you would go&amp;#44; what you would bring&amp;#44; and who you would contact.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul style="padding-left:1.2em"&gt; &lt;li&gt;STAY INFORMED - Monitor local news on your TV&amp;#44; mobile device&amp;#44; or battery-operated radio. Follow emergency instructions and pay attention to travel advisories.&lt;/li&gt;
-&lt;li&gt;AVOID TRAVEL - If you must drive&amp;#44; fill the gas tank&amp;#44; stay on main roads&amp;#44; and keep others informed of your itinerary. Slow down. If stranded&amp;#44; call for help&amp;#44; turn on hazard lights&amp;#44; and remain with your vehicle. Don't set out on foot unless shelter is close by.&lt;/li&gt;
-&lt;li&gt;KNOW YOUR RISKS - 
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;Hypothermia&lt;/b&gt; - If you notice signs get medical help immediately. For symptoms and other information click &lt;a href=https://www.cdc.gov/disasters/winter/staysafe/hypothermia.html target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt; Carbon Monoxide Poisoning&lt;/b&gt; - It happens when fuels like gas&amp;#44; oil&amp;#44; kerosene&amp;#44; wood&amp;#44; or charcoal are burned in an enclosed space. Hundreds of people die accidentally each year. Find out more &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/carbon-monoxide.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;li&gt;AVOID HAZARDS - Steer clear of fallen power lines&amp;#44; flooded&amp;#44; roads&amp;#44; and other structures weakened from heavy snow or ice.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Winter_during.jpg" alt="This is a panel of four images of what to do during bad winter weather. Stay Tuned&amp;#44; Stay Inside&amp;#44; Know Risks&amp;#44; and Avoid Hazards." title="During Winter Weather Image"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul style="padding-left:1.2em"&gt; &lt;li&gt;Restock emergency supplies and get ready in case another storm hits&lt;/li&gt;
-&lt;li&gt;Improve your family plan. What worked? What could be done better?&lt;/li&gt;
-&lt;li&gt;Talk to your neighbors and share tips with each other&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;STAY COOL: Stay indoors and&amp;#44; if possible&amp;#44; in an air conditioned place (shopping mall&amp;#44; library&amp;#44; theater&amp;#44; etc). Limit outdoor activity.&lt;/li&gt;
-&lt;li&gt;PROTECT SKIN: Wear lightweight&amp;#44; light-colored&amp;#44; loose-fitting clothing. A wide brimmed hat&amp;#44; sunglasses&amp;#44; and sunscreen will help.&lt;/li&gt;
-&lt;li&gt;DRINK WATER: Drink lots of fluids (avoid caffeine&amp;#44; alcohol&amp;#44; and sugary drinks) and carry a water bottle.&lt;/li&gt;
-&lt;li&gt;THINK OF OTHERS: Keep kids and pets outside of hot cars. Check on at-risk family&amp;#44; friends&amp;#44; and neighbors often.&lt;/li&gt;&lt;/ul&gt;
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;STAY COOL&lt;/b&gt; - Stay indoors and&amp;#44; if possible&amp;#44; in an air conditioned place (shopping mall&amp;#44; library&amp;#44; theater&amp;#44; etc). Limit outdoor activity.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;PROTECT SKIN&lt;/b&gt; - Wear lightweight&amp;#44; light-colored&amp;#44; loose-fitting clothing. A wide brimmed hat&amp;#44; sunglasses&amp;#44; and sunscreen will help.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;DRINK WATER&lt;/b&gt;: Drink lots of fluids (avoid caffeine&amp;#44; alcohol&amp;#44; and sugary drinks) and carry a water bottle.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;THINK OF OTHERS&lt;/b&gt; - Keep kids and pets outside of hot cars. Check on at-risk family&amp;#44; friends&amp;#44; and neighbors often.&lt;/li&gt;&lt;/ul&gt;
 &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Summer_during.jpg" alt="This is a panel of three images of what to do during bad summer weather. Stay Cool&amp;#44; Protect Skin&amp;#44; and Drink Water." title="During Summer Weather Image"&gt;</t>
   </si>
   <si>
-    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;Use window drapes to cover windows and keep cool air inside.&lt;/li&gt;
-&lt;li&gt;Consider purchasing an air-conditioning system and/or installing weather-stripping in the home where hot air seeps in. &lt;/li&gt;
-&lt;li&gt;LOW-BUDGET OPTION: Build heat reflectors (for use between windows and drapes)&amp;#44; such as aluminum foil-covered cardboard&amp;#44; to reflect heat back outside. Click &lt;a href=http://www.instructables.com/id/Heat-blocking-curtains/ target=_blank&gt;here&lt;/a&gt; for DIY instructions.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>During an eruption&amp;#44; listen to the news for emergency updates and follow emergency instructions.
-&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;&lt;b&gt;IN LAHAR ZONE&lt;/b&gt; - Get to higher ground immediately.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;OUTSIDE&lt;/b&gt; - Cover your mouth&amp;#44; nose&amp;#44; and body to avoid irritation. Find shelter. &lt;/li&gt;
-&lt;li&gt;&lt;b&gt;INSIDE&lt;/b&gt; - Keep doors and vents in home closed and stay indoors&amp;#44; unless directed otherwise. Place damp towels at door thresholds and tape drafty windows. Keep car and truck engines off to avoid damage from ash congestion. Protect animals and machinery by bringing them inside or in a covered area.&lt;/li&gt;&lt;/ul&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Volcano_during.jpg" alt="This is an panel of three images of what to do during a volcanic eruption or lahar. In lahar zone&amp;#44; outside&amp;#44; inside." title="During Volcano Image"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;STAY TUNED - Listen for local emergency alerts on the radio and/or television and be ready to evacuate if necessary.&lt;/li&gt;&lt;li&gt;REMOVE FLAMABLES - Remove materials from around your property that could catch fire (lawn chairs&amp;#44; tables&amp;#44; etc.).&lt;/li&gt;&lt;li&gt;PREPARE YOUR HOME - Move upholstered furniture away from windows. Close doors and windows&amp;#44; but do not lock them.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Fire_during.jpg" alt="This is an icon of an exclaimation point with two triangles behind it" title="During Fire Image"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;Return to your home once authorities say it is safe.&lt;/li&gt;&lt;li&gt;Use caution when entering burned areas as hazards may still exist.&lt;/li&gt;
-&lt;li&gt;Check and re-check for smoke or hidden embers.&lt;/li&gt;
-&lt;li&gt;Photograph damage for insurance purposes.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>BE PREPARED FOR FLOODING (landslides often block rivers and can cause rivers to back up and flood).&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;Stay away from the slide. Other slides can occur after the main slide.&lt;/li&gt;&lt;li&gt;Once it's safe&amp;#44; check for injured and trapped people.&lt;/li&gt;&lt;li&gt;Check for damaged utility lines and report any damage to your utility company.&lt;/li&gt;&lt;li&gt;Listen to local media or NOAA Weather Radio for current information.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;If your home has been flooded&amp;#44; be wary reentering it as it could have structural damage.&lt;/li&gt;&lt;li&gt;Have a professional check utilities before turning them back on.&lt;/li&gt;&lt;li&gt;Document losses by photographing damages and recording repair costs.&lt;/li&gt;&lt;li&gt;Find out more &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/flooding/prepare.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;INDOORS - STAY THERE! Take cover under a sturdy desk or table away from objects that could fall on you and hold on. DON'T run outside before shaking stops. &lt;/li&gt;&lt;li&gt;OUTSIDE - GET INTO THE OPEN away from buildings&amp;#44; power lines&amp;#44; chimneys&amp;#44; or things that could fall on you. &lt;/li&gt;&lt;li&gt;DRIVING - CAREFULLY STOP (not under a bridge&amp;#44; overpass&amp;#44; power lines&amp;#44; etc.) and STAY INSIDE VEHICLE.&lt;/li&gt;&lt;li&gt;NEAR THE OCEAN - Follow guidelines above until shaking stops. Then HEAD FOR HIGH GROUND.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/EQ_during.jpg" alt="This is a panel of four cartoon images showing what to do during an earthquake if inside&amp;#44; outside&amp;#44; driving&amp;#44; or near the ocean." title="During Earthquake Image"&gt;</t>
-  </si>
-  <si>
-    <t>PREPARE FOR AFTERSHOCKS (earthquakes that follow the main shock are common and can cause more damage than initial quake). &lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;Check yourself and others for injuries.&lt;/li&gt;&lt;li&gt;Once safe&amp;#44; check news reports via battery operated radio&amp;#44; TV&amp;#44; social media&amp;#44; and cell phone text alerts for emergency information.&lt;/li&gt;&lt;li&gt;Phone lines will be overwhelmed&amp;#44; texting can be a good way to communicate with family.&lt;/li&gt;&lt;li&gt;Emergency responders will be busy. Depend on your friends and neighbors for support during the hours and days following an earthquake.&lt;/li&gt;&lt;li&gt;Control utilities if necessary. Find out more about when and how to &lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target="_blank"&gt; control gas and water after an earthquake&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt;Watch this &lt;a href=https://www.fema.gov/media-library/assets/videos/98767 target="_blank"&gt;video&lt;/a&gt; to find out more about what to do DURING and AFTER and earthquake.</t>
-  </si>
-  <si>
-    <t>A Nisqually-like earthquake (magnitude 6.8) hitting in the next fifty years is more likely than not. Moderate shaking will be felt by nearly everyone. Doors will swing&amp;#44; pictures on walls will rattle&amp;#44; and small objects could fall. Damage will be slight. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>A Nisqually-like earthquake (magnitude 6.8) hitting in the next fifty years is more likely than not. Strong shaking will make it hard to walk. Books&amp;#44; glassware&amp;#44; and items will fall from shelves. Cabinet doors and drawers will open. Some chimneys and poorly built buildings will be damaged.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>A Nisqually-like earthquake (magnitude 6.8) hitting in the next fifty years is more likely than not. Very strong shaking will make it hard to stand. Furniture will move and many objects will fall from shelves. Damage will be significant in poorly built structures and slight to moderate in ordinary structures. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years. Moderate shaking will be felt by nearly everyone. Doors will swing&amp;#44; pictures on walls will rattle&amp;#44; and small objects could fall. Damage will be slight. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years. Strong shaking will make it hard to walk. Books&amp;#44; glassware&amp;#44; and items will fall from shelves. Some chimneys and poorly built buildings will be damaged. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years. Very strong shaking will make it hard to stand. Furniture will move and objects will fall. Damage will be significant in poorly built buildings and moderate in ordinary buildings. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years. Severe shaking will make it hard to stand or drive. Heavy furniture will be overturned. Parts of &lt;a href="http://www.seattle.gov/dpd/codesrules/changestocode/unreinforcedmasonrybuildings/whatwhy/" target=_blank&gt;URM&lt;/a&gt; buildings will collapse and wood frame houses will shift on foundations.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>A 1 in 10 chance exists of a magnitude 7+ earthquake on the Seattle Fault in the next fifty years. Violent shaking will cause widespread panic and cracks in the ground will form. Landslides will be triggered on steep slopes and liquefaction will occur in saturated soils. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>The much anticipated magnitude 9 Cascadia earthquake hits. You will feel moderate shaking that persists for minutes. Unsecured items will fall off shelves. Cabinet doors may swing open and closed. Power and water could be off for days to weeks. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>The much anticipated magnitude 9 Cascadia earthquake hits. You will feel strong shaking here that persists for minutes. It will be hard to walk. Many unreinforced masonry buildings will be damaged and people will be injured. Power and water will be off for days to weeks. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>The much anticipated magnitude 9 Cascadia earthquake hits. You will feel very strong shaking that persists for minutes. Standing will be difficult and many will be injured. Bricks and shattered glass will litter the streets. Power and water will be off for days to weeks. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>You are in a HIGH danger tsunami zone. Water levels will reach above your head minutes to tens of minutes following the earthquake.  Once shaking stops EVACUATE IMMEDIATELY to higher ground. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>You are in a HIGH danger tsunami zone. Water levels will reach between your knees and head in minutes to tens of minutes following the earthquake.  Once shaking stops EVACUATE IMMEDIATELY to higher ground. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>You are in a HIGH danger tsunami zone. Water levels will reach up to your knees with a current fast enough to knock you over.  You have minutes to tens of minutes to EVACUATE to higher ground. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>You are outside the mapped high danger tsunami area&amp;#44; but tsunamis waves can vary. Do you live or work in a low elevation area (within 30ft of sea level) near the ocean? If so&amp;#44; EVACUATE IMMEDIATELY to higher ground after a large earthquake. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>You are within a quarter mile of the coast. If you are at low elevation  (within 30ft of sea level) you may be at risk of a tsunami following a nearby earthquake. Seek high ground immediately. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>If you are in a boat during an earthquake you may experience a fast moving tsunami wave come through. T up to it. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Potential: HIGH &lt;br&gt; Shaking soils will become very unstable and will behave like quicksand. Sand-filled water may come up through cracks in streets. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Potential: MODERATE - HIGH &lt;br&gt; Shaking soils will become unstable.  This will reduce the ability of soil to hold homes&amp;#44; vehicles&amp;#44; and other structures. Sand-filled water may come up through cracks in streets. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Potential: LOW - MODERATE &lt;br&gt; Some potential exists for liquefaction here. Shaking could cause soil to become unstable. Roads may crack and become damaged.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt; &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Potential: LOW&lt;br&gt; Unless shaking is strong it is unlikely you will see liquefaction here. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Potential:  VERY LOW - LOW &lt;br&gt; Unless shaking is very strong&amp;#44; it is unlikely you will see liquefaction here. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Potential: VERY LOW &lt;br&gt;Unless shaking is very strong&amp;#44; it is unlikely you will see liquefaction here.  &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Potential: NONE &lt;br&gt; This area is on bedrock&amp;#44; solid rock unerlying soils and sediments. It will not liquefy. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Potential: NONE &lt;br&gt; This area is on peat&amp;#44; a dark soil-like material composed of organic matter. It may warp but will not liquefy. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Potential: NONE&lt;br&gt; This area is made up of ice and will not liquefy. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; VERY LOW DENSITY: 0 to 10 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt;In this kind of building&amp;#44; strong earthquake shaking will cause brick walls or roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; LOW DENSITY: 10 to 25 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt; In this kind of building&amp;#44; strong earthquake shaking will cause brick walls or roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; MODERATE DENSITY: 25 to 50 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt; In this kind of building&amp;#44; strong earthquake shaking will cause brick walls or roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; HIGH DENSITY: 50 to 100 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt; If you are in a URM during an earthquake Drop&amp;#44; Cover&amp;#44; and Hold On. In these buildings strong earthquake shaking will cause brick walls  and roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href= http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; VERY HIGH DENSITY: 100 to 250 unreinforced masonry (URM) buildings per sq. mi. &lt;br&gt; If you are in a URM during an earthquake Drop&amp;#44; Cover&amp;#44; and Hold On. In these buildings strong earthquake shaking will cause brick walls and roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;There is a high chance of flooding here. It sits in the 100-year floodplain. This means there's a 25% chance of a floodwaters reaching here in the next 30 years &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt; . Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Flooding is unlikely here. Water levels may rise slightly during floods or heavy storms. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;  &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Flooding is unlikely here. Reservoir levels may rise slightly during floods or heavy storms. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;  &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Bridges can be unsafe when flooding is occurring. If you suspect a bridge has been compromised&amp;#44; be wary and report it to the Flood Warning Center by calling 206-296-8200 or 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt; &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;This is outside the high-risk flood areas &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;. BUT if you live near a creek or small river be aware that it could flood too. See the &lt;a href=http://www.kingcounty.gov/depts/dnrp/wlr/sections-programs/river-floodplain-section.aspx target=_blank&gt;River and Floodplain Management website&lt;/a&gt; for more information. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; This area has flooded in the past when large rainstorms hit Seattle. The water pools and can't drain properly. It could happen again if another strong storm hits. Scroll down for how to prepare. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Rain&amp;#44; snowmelt&amp;#44; or both cause waters to rise rapidly. Floodwaters overtop riverbanks&amp;#44; spill into neighborhoods&amp;#44; and impact roadways. This area in the mapped 500-year floodplain and will be flooded. There's a 6% chance you'll see a flood of this size in the next 30 years. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt; &lt;p/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nearby creeks&amp;#44; streams&amp;#44; and rivers are flooding. This makes some roadways impassable &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt; . Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; It's unlikely you'll see flooding here. Large storms may cause nearby creeks&amp;#44; streams&amp;#44; and rivers to rise. Heavy rainfall could create pools of standing water on streets. If you spot localized flooding call the King County Flood Warning Center at 206-296-8200 or 800-945-9263.  &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt; &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; It's unlikely you'll see flooding here. Large storms may cause nearby creeks&amp;#44; streams&amp;#44; and rivers to rise. Heavy rainfall could create pools of standing water on streets. If you spot localized flooding call the King County Flood Warning Center at 206-296-8200 or 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt; &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; This area is prone to urban flooding. The bigger the storm the more flooding you could see near here. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt;  &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Cedar River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Green River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Raging River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Snoqualmie River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a high chance of the Tolt River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Cedar River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Green River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Raging River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Snoqualmie River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a moderate chance of the Tolt River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a low chance of the Green River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a low chance of the Snoqualmie River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. This zone has a low chance of the Tolt River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>This is inside the current river channel. Over time the location of the channel may change. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/X2HGtZX6Kyz target=_blank&gt; George Culmback Dam &lt;/a&gt; or the &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Tolt River Dam&lt;/a&gt; failed this area could be flooded &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at moderate risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at high risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Tolt River Dam&lt;/a&gt; failed this area could be flooded &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt; &lt;p&gt; Russell Road Park &lt;br&gt; btwn Russell Rd. and S. 240th St.&lt;br&gt; Kent&amp;#44; WA&amp;#44; 98032 &lt;br&gt;  Sand only pickup (no sandbags)&amp;#44; M-F 8:00 am - 4:00 pm &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt; Public Works Shops &lt;br&gt;1155 East North Bend Way &lt;br&gt; North Bend&amp;#44; WA 98045 &lt;/p&gt;&lt;p&gt; After a flood warning announcement for the Snoqualmie River sandbags and sand can be picked up here.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt; 33100 NE 45th Street &lt;br&gt; Carnation&amp;#44; WA 98014 &lt;br&gt;M-F 8:00am - 4:30pm&amp;#44; sandbags and sand can be picked up here (supplies are limited)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Meadowbrook Community Center&lt;br&gt;10517 35th Ave. NE &lt;br&gt; Seattle&amp;#44; WA 98125&lt;br&gt;Sandbags and sand will be left outside for public pick-up. Limit 25 per address.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;1305 C St. SW &lt;br&gt; Auburn&amp;#44; WA 98001&lt;br&gt; M-F 6:30am - 4:00pm&amp;#44; sandbag and sand pickup are available by request (call 253-931-3048).</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Kent City Public Works&lt;br&gt; 5821 S. 240th St. &lt;br&gt; Kent&amp;#44; WA 98032&lt;br&gt; M-F 8:00am - 4:00pm sandbags can be picked up here (sand not provided).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Tahoma School District &lt;br&gt; 23015 SE 216th Way&lt;br&gt; Maple Valley&amp;#44; WA 98038&lt;br&gt;When Cedar River flooding is likely&amp;#44; sandbag and sand pickup will be available 8:00am - 5:00pm (or until dusk).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Pacific City Park &lt;br&gt; 600 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047&lt;br&gt;Sandbag and sand pickup will be announced when White River flooding is imminent.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Pacific/Algona Community Center &lt;br&gt; 100 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047 &lt;br&gt;Sandbag and sand pickup will be announced when White River flooding flooding is imminent.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;City property &lt;br&gt; Railroad Avenue SE and SE King Street &lt;br&gt; Snoqualmie&amp;#44; WA 98065&lt;br&gt;Sandbag and sand pickup will be announced when Snoqualmie River flooding is imminent or as directed by emergency personnel.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Preston-Snoqualmie Trail parking lot &lt;br&gt; Lake Alice Road SE and SE 56th Place &lt;br&gt; Fall City&amp;#44; WA 98024&lt;br&gt;Sandbag and sand pickup will be announced when Snoqualmie River flooding is imminent.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;14701 Main St. NE &lt;br&gt; Duvall&amp;#44; WA 98019&lt;br&gt; Sandbag and sand pickup will be announced when flooding is imminent or contact the City of Duvall (425-788-3332).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Haller Lake Neighborhood &lt;br&gt; 12551 Ashworth Ave N.&lt;br&gt; Seattle&amp;#44; WA 98133&lt;br&gt;Sandbags and sand will be left outside for public pick-up. Limit 25 per address.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;South Park Neighborhood &lt;br&gt; 731 S. Sullivan &lt;br&gt; Seattle&amp;#44; WA 98108&lt;br&gt;Sandbags and sand will be left outside for public pick-up. Limit 25 per address.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; Prepare for a flood by picking up and filling sandbags at your nearest distribution center &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44; &lt;/p&gt;&lt;p&gt;Delridge Community Center &lt;br&gt; 4501 Delridge Way SW &lt;br&gt; Seattle&amp;#44; WA 98106&lt;br&gt; Sandbags and sand will be left outside for public pick-up. Limit 25 per address.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;It's unlikely you will see a slide here&amp;#44; but if slopes nearby are steep and conditions are right&amp;#44; landslides can happen&amp;#44; destroying property&amp;#44; blocking roads and wreaking havoc. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;If slopes nearby are steep&amp;#44; unvegitated&amp;#44; and it's been raining for days a landslide may happen. Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a very high-risk community for wildfire. It sits at a boundary between humans and the forest. Western Washington is temperate&amp;#44; but wildfires do strike the eastern part of King County every year. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a high-risk community for wildfire. It sits at a boundary between humans and the forest. Western Washington is temperate&amp;#44; but wildfires do strike the eastern part of King County every year. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This area has not been identified as having high risk for wildfire&amp;#44; but it is within a half mile of a high-risk community. In the right conditions wildfire will spread. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This area has a low to very low risk of wildfire. If you live near a wooded area be aware that wildfires can happen. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As this is water&amp;#44; no wildfire potential exists here. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a lahar is triggered on Mount Rainier&amp;#44; &lt;b&gt;this area is could see flooding and sediment like mud&amp;#44; sand&amp;#44; rocks&amp;#44; and other debris brought down river by the lahar&lt;/b&gt;. This could occur for years to decades after the lahar.&lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;A 10% - 40% chance exists of a lahar from Mount Rainier flowing through this region in the next 50 years.&lt;/b&gt; Lahars behave and look like wet flowing concrete. Thick mud and debris will cover the area if one happens. This could severely damage property and take a long time to recover. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;A 5% - 10% chance exists of a lahar from Mount Rainier flowing through this area in the next 50 years&lt;/b&gt;. Lahars behave and look like wet flowing concrete. Thick mud and debris will cover the area if one happens. This could severely damage property and take a long time to recover. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are OUTSIDE THE LAHAR HAZARD ZONE. If Mount Rainier erupts ash will cover the region. It will look much like areas impacted by the Mount Saint Helen's eruption in 1980. Ash thickness will vary with distance from eruption. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t>&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;PREPARE - Gather emergency items (warm clothes&amp;#44; flashlight&amp;#44; cell phone&amp;#44; portable radio&amp;#44; etc). If time permits and it seems necessary&amp;#44; shut off utilities&lt;/li&gt;&lt;li&gt;LISTEN - Listen to the news and if advised&amp;#44; evacuate to higher ground.&lt;/li&gt;&lt;li&gt;AVOID HAZARDS - DO NOT wade or drive through floodwaters. It only takes 6 inches of moving water to knock you down and 2 feet to sweep a car away!&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Flood_during.jpg" alt="This is a panel of four cartoon images showing what to do during an a flood collect essentials&amp;#44; get to high ground&amp;#44; avoid water&amp;#44; and shutt off utilities." title="During Flood Image"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Staying out of the path of a landslide or debris flow is your best protection.&lt;/b&gt; The U.S. Geological Survey also recommend the following&amp;#44; &lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;BE ALERT - Listen for unusual sounds. Intense&amp;#44; short bursts of rain may be particularly dangerous&amp;#44; especially after longer periods of heavy rainfall and damp weather.&lt;/li&gt;&lt;li&gt;CONSIDER LEAVING - If you are in areas susceptible to landslides and debris flows&amp;#44; consider leaving if it is safe to do so.  If you decide to stay home&amp;#44; move to a second story if possible.&lt;/li&gt;&lt;li&gt;NOTICE STREAM LEVELS - If you are near a stream or channel&amp;#44; be alert for any sudden increase or decrease in water flow and for a change from clear to muddy water. These could indicate landslide activity upstream. DON'T DELAY! Save yourself&amp;#44; not your belongings.&lt;/li&gt;&lt;/ul&gt; You can find more landslide tips from USGS &lt;a href=http://landslides.usgs.gov/learn/prepare.php target=_blank&gt;here&lt;/a&gt;. &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Landslide_during.jpg" alt="This is a panel of three cartoon images showing what to do during an a landslide. Stay Alert&amp;#44; Leave the area&amp;#44; and Don't Delay." title="During Landslide Image"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;No landslides have been identified here (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;). Landslides are most common on barren&amp;#44; steep slopes where drainages come together. If you live below an area like this be aware of your risks (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en target=_blank&gt;map&lt;/a&gt;). To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Scientists have not identified any landslides in this region. For more information see the &lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt; and &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg target=_blank&gt;map&lt;/a&gt;. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend)..&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;A LANDSLIDE HAS HAPPENED HERE at some time in the past (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;A LANDSLIDE HAS HAPPENED HERE at some time in the past (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;) and  (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;A LANDSLIDE HAS HAPPENED HERE at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;A LANDSLIDE and ROCK AVALANCHE HAS HAPPENED HERE at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. Examine the data layers more closely on the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;A ROCK AVALANCHE HAS HAPPENED HERE at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. Examine the data layers more closely on the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;Use window drapes to &lt;b&gt;cover windows and keep cool air inside&lt;/b&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Consider purchasing an air-conditioning system&lt;/b&gt; and/or installing weather-stripping in the home where hot air seeps in. &lt;/li&gt;
+&lt;li&gt;&lt;b&gt;LOW-BUDGET OPTION&lt;/b&gt;: Build heat reflectors (for use between windows and drapes)&amp;#44; such as aluminum foil-covered cardboard&amp;#44; to reflect heat back outside. Click &lt;a href=http://www.instructables.com/id/Heat-blocking-curtains/ target=_blank&gt;here&lt;/a&gt; for DIY instructions.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In 2015&amp;#44; King County had a record number of days that exceeded 90F. &lt;b&gt;July 2015 was the hottest month ever recorded in King County!&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;PREPARE FOR AFTERSHOCKS &lt;/b&gt; (earthquakes that follow the main shock are common and can cause more damage than initial quake). &lt;ul&gt;&lt;li&gt;Phone lines will be overwhelmed; &lt;b&gt;texting can be a good way to communicate with family.&lt;/b&gt;&lt;/li&gt;&lt;li&gt;Check yourself and others for injuries.&lt;/li&gt;&lt;li&gt;Once safe&amp;#44; &lt;b&gt;check news reports&lt;/b&gt; via battery operated radio&amp;#44; TV&amp;#44; social media&amp;#44; and cell phone text alerts for emergency information.&lt;/li&gt;&lt;li&gt;Emergency responders will be busy. &lt;b&gt;Depend on your friends and neighbors&lt;/b&gt; for support during the hours and days following an earthquake.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Control utilities if necessary&lt;/b&gt;. Find out more about when and how to &lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target="_blank"&gt; control gas and water after an earthquake&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt;Watch this &lt;a href=https://www.fema.gov/media-library/assets/videos/98767 target="_blank"&gt;video&lt;/a&gt; to find out more about what to do &lt;b&gt;DURING&lt;/b&gt; and &lt;b&gt;AFTER&lt;/b&gt; and earthquake.</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;GET READY&lt;/b&gt; - Gather emergency items (warm clothes&amp;#44; flashlight&amp;#44; cell phone&amp;#44; portable radio&amp;#44; etc). If time permits and it seems necessary&amp;#44; shut off utilities&lt;/li&gt;&lt;li&gt;&lt;b&gt;LISTEN&lt;/b&gt; - Listen to the news and if advised&amp;#44; evacuate to higher ground.&lt;/li&gt;&lt;li&gt;&lt;b&gt;AVOID HAZARDS - DO NOT wade or drive through floodwaters&lt;/b&gt;. It only takes 6 inches of moving water to knock you down and 2 feet to sweep a car away!&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Flood_during.jpg" alt="This is a panel of four cartoon images showing what to do during an a flood collect essentials&amp;#44; get to high ground&amp;#44; avoid water&amp;#44; and shutt off utilities." title="During Flood Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The number of &lt;b&gt;wildfires in the Pacific Northwest has already increased significantly in the last few decades&lt;/b&gt;. This trend is likely to continue with drier and stormier summers (think lightning that sparks fires). Large areas of forest could burn and put smoke into the air. Click the image to find out more. &lt;br&gt;&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Forests.jpg" alt="Climate Change Forest Infographic"&gt;
+&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;If you think your property could be at risk &lt;b&gt;King County has information for landowners&amp;#44; incentive programs&amp;#44; and host training workshops&lt;/b&gt;. You can find out more &lt;a href=http://www.kingcounty.gov/environment/water-and-land/forestry.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;A series of snow&amp;#44; ice and rainstorms beginning on Dec. 26&amp;#44; 1996&amp;#44; caused 16 deaths in the state and $57 million in damages in Seattle and King County&lt;/b&gt;. Two storms — one dumping 6-12 inches and the other 10 inches of wet snow — were followed by heavy rain which collapsed carports&amp;#44; covered boat moorings&amp;#44; and snapped power lines. Metro transit halted service completely for the first time in its history. Freeze and snowmelt contributed to flooding and landslides during the following week. Are you ready if a storm like this happened again?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Don't let the rainy fall and winter fool you&amp;#44;&lt;b&gt; King County summers can be HOT. Sometimes temperatures rise into the 90s for multiple days at a time&lt;/b&gt;. Thunderstorms&amp;#44; windstorms&amp;#44; wildfires&amp;#44; and heat waves are possible across the region. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Severe heat could last for days&lt;/b&gt; causing communities to see an increase in heat-related illness including HEAT EXHAUSTION and HEAT STROKE. The high temps&amp;#44; dry conditions&amp;#44; and increased likelihood for lightning may lead to wildfires.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Older adults&amp;#44; young children&amp;#44; and people with mental illness and chronic diseases are at higher risk of heat-related issues.
+&lt;ol&gt;&lt;li&gt;&lt;b&gt;KNOW SIGNS&lt;/b&gt; - Heat-related illness can happen quickly. Know and which of your neighbors may be at risk. &lt;/li&gt;&lt;li&gt;&lt;b&gt;STAY INFORMED&lt;/b&gt; - Listen to local news for general information and locations of &lt;b&gt;cooling centers&lt;/b&gt; (public spaces that can be used by residents to stay cool)&lt;/li&gt;&lt;/ol&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;There is a &lt;b&gt;HIGH  CHANCE&lt;/b&gt; (84%) of a magnitude 6.5+ deep earthquake hitting in the next 50 years. It will feel similar to the M6.8 Nisqually Earthquake in 2001. Moderate shaking will be felt by nearly everyone here. &lt;b&gt;Doors will swing&amp;#44; pictures on walls will rattle&amp;#44; and small objects could fall. Damage will be slight&lt;/b&gt;. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;There is a &lt;b&gt;HIGH CHANCE&lt;/b&gt; (84%) of a magnitude 6.5+ deep earthquake hitting in the next 50 years. It will feel similar to the M6.8 Nisqually Earthquake in 2001. &lt;b&gt;Very strong shaking will make it hard to stand here. Furniture will move and many objects will fall from shelves.&lt;/b&gt; Damage will be significant in poorly built structures and slight to moderate in ordinary structures. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;There is a &lt;b&gt;HIGH CHANCE&lt;/b&gt; (84%) of a magnitude 6.5+ deep earthquake hitting in the next 50 years. It will feel similar to the M6.8 Nisqually Earthquake in 2001. &lt;b&gt;Strong shaking will make it hard to walk here. Books&amp;#44; glassware&amp;#44; and items will fall from shelves. Cabinet doors and drawers will open&lt;/b&gt;. Some chimneys and poorly built buildings will be damaged.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>You are in a &lt;b&gt;HIGH danger tsunami zone&lt;/b&gt;. Water levels will reach above your head minutes to tens of minutes following the earthquake.  Once shaking stops EVACUATE IMMEDIATELY to higher ground. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>You are in a &lt;b&gt;HIGH danger tsunami zone&lt;/b&gt;. Water levels will reach up to your knees with a current fast enough to knock you over.  You have minutes to tens of minutes to EVACUATE to higher ground. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>You are in a &lt;b&gt;HIGH danger tsunami zone&lt;/b&gt;. Water levels will reach between your knees and head in minutes to tens of minutes following the earthquake.  Once shaking stops EVACUATE IMMEDIATELY to higher ground. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>You are &lt;b&gt;outside the mapped high danger tsunami area&lt;/b&gt;&amp;#44; but tsunamis waves can vary. Do you live or work in a low elevation area (within 30ft of sea level) near the ocean? If so&amp;#44; EVACUATE IMMEDIATELY to higher ground after a large earthquake. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;You are within a quarter mile of the coast&lt;/b&gt;. If you are at low elevation  (within 30ft of sea level) you may be at risk of a tsunami following a nearby earthquake. Seek high ground immediately. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Potential: HIGH&lt;/b&gt; &lt;br&gt; Shaking soils will become very unstable and will behave like quicksand. Sand-filled water may come up through cracks in streets. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Potential: MODERATE - HIGH&lt;/b&gt; &lt;br&gt; Shaking soils will become unstable.  This will reduce the ability of soil to hold homes&amp;#44; vehicles&amp;#44; and other structures. Sand-filled water may come up through cracks in streets. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Potential: LOW - MODERATE&lt;/b&gt; &lt;br&gt; Some potential exists for liquefaction here. Shaking could cause soil to become unstable. Roads may crack and become damaged.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt; &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Potential: LOW&lt;/b&gt;&lt;br&gt; Unless shaking is strong it is unlikely you will see liquefaction here. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Potential:  VERY LOW - LOW&lt;/b&gt; &lt;br&gt; Unless shaking is very strong&amp;#44; it is unlikely you will see liquefaction here. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Potential: VERY LOW&lt;/b&gt; &lt;br&gt;Unless shaking is very strong&amp;#44; it is unlikely you will see liquefaction here.  &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Potential: NONE&lt;/b&gt; &lt;br&gt; This area is on bedrock&amp;#44; solid rock unerlying soils and sediments. It will not liquefy. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Potential: NONE&lt;/b&gt; &lt;br&gt; This area is on peat&amp;#44; a dark soil-like material composed of organic matter. It may warp but will not liquefy. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Potential: NONE&lt;/b&gt;&lt;br&gt; This area is made up of ice and will not liquefy. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; &lt;b&gt;VERY LOW DENSITY: 0 to 10 unreinforced masonry (URM) buildings per square mile&lt;/b&gt;. &lt;br&gt;In this kind of building&amp;#44; strong earthquake shaking will cause brick walls or roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; &lt;b&gt;LOW DENSITY: 10 to 25 unreinforced masonry (URM) buildings per square mile.&lt;/b&gt; &lt;br&gt; In this kind of building&amp;#44; strong earthquake shaking will cause brick walls or roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; &lt;b&gt;MODERATE DENSITY: 25 to 50 unreinforced masonry (URM) buildings per square mile&lt;/b&gt;. &lt;br&gt; In this kind of building&amp;#44; strong earthquake shaking will cause brick walls or roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; &lt;b&gt;HIGH DENSITY: 50 to 100 unreinforced masonry (URM) buildings per square mile&lt;/b&gt;. &lt;br&gt; If you are in a URM during an earthquake Drop&amp;#44; Cover&amp;#44; and Hold On. In these buildings strong earthquake shaking will cause brick walls  and roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href= http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; &lt;b&gt;VERY HIGH DENSITY: 100 to 250 unreinforced masonry (URM) buildings per square mile&lt;/b&gt;. &lt;br&gt; If you are in a URM during an earthquake Drop&amp;#44; Cover&amp;#44; and Hold On. In these buildings strong earthquake shaking will cause brick walls and roofs to fail. Debris will litter the streets. See where the URMs are &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt; nearest you&lt;/a&gt; and if they've been retrofitted. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;For more information check out the Department of Natural Resources page on &lt;a href=http://www.dnr.wa.gov/programs-and-services/geology/geologic-hazards/landslides#some-historic-landslides-in-washington-state target=_blank&gt;landslides&lt;/a&gt; and &lt;a href=http://file.dnr.wa.gov/publications/ger_fs_landslide_hazards.pdf target=_blank&gt;landslide hazards&lt;/a&gt;. For landslides in your neighborhood&amp;#44; see available information from &lt;a href=http://www.seattle.gov/dpd/aboutus/whoweare/emergencymanagement target=_blank&gt;&lt;b&gt;City of Seattle&lt;/b&gt;&lt;/a&gt; and &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/landslides.aspx target=_blank&gt;&lt;b&gt;King County&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here&lt;/b&gt;.  Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes.  Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>LSLD_steepgradezone</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A &lt;b&gt;LOW CHANCE&lt;/b&gt; (5%) exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years&amp;#44; but if it does it will be damaging. &lt;b&gt;Moderate shaking will be felt by nearly everyone. Doors will swing&amp;#44; pictures on walls will rattle&amp;#44; and small objects could fall. Damage will be slight&lt;/b&gt;. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A &lt;b&gt;LOW CHANCE&lt;/b&gt; (5%) exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years&amp;#44; but if it does it will be damaging. Strong shaking will make it hard to walk. &lt;b&gt;Books&amp;#44; glassware&amp;#44; and items will fall from shelves. Some chimneys and poorly built buildings will be damaged.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A &lt;b&gt;LOW CHANCE&lt;/b&gt; (5%) exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years&amp;#44; but if it does it will be damaging. &lt;b&gt;Very strong shaking will make it hard to stand. Furniture will move and objects will fall&lt;/b&gt;. Damage will be significant in poorly built buildings and moderate in ordinary buildings. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A &lt;b&gt;LOW CHANCE&lt;/b&gt; (5%) exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years&amp;#44; but if it does it will be damaging. &lt;b&gt;Severe shaking will make it hard to stand or drive. Heavy furniture will be overturned. Parts of &lt;a href="http://www.seattle.gov/dpd/codesrules/changestocode/unreinforcedmasonrybuildings/whatwhy/" target=_blank&gt;URM&lt;/a&gt; buildings will collapse and wood frame houses will shift on foundations.&lt;/b&gt;&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A &lt;b&gt;LOW CHANCE&lt;/b&gt; (5%) exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years&amp;#44; but if it does it will be damaging. &lt;b&gt;Violent shaking will cause widespread panic and cracks in the ground will form. Landslides will be triggered on steep slopes and liquefaction will occur in saturated soils.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;There is a &lt;b&gt; MODERATE CHANCE&lt;/b&gt; (10-30%) of a magnitude 8+ Cascadia earthquake hitting the Northwest in the next 50 years. &lt;b&gt;When it does&amp;#44; you will feel moderate shaking that persists for minutes here. Unsecured items will fall off shelves. Cabinet doors may swing open and closed&lt;/b&gt;. Power and water could be off for days to weeks. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;There is a &lt;b&gt; MODERATE CHANCE&lt;/b&gt; (10-30%) of a magnitude 8+ Cascadia earthquake hitting the Northwest in the next 50 years. &lt;b&gt;When it does&amp;#44; you will feel strong shaking here that persists for minutes. It will be hard to walk. Many unreinforced masonry buildings will be damaged and people will be injured&lt;/b&gt;. Power and water will be off for days to weeks. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;There is a &lt;b&gt; MODERATE CHANCE&lt;/b&gt; (10-30%) of a magnitude 8+ Cascadia earthquake hitting the Northwest in the next 50 years.  &lt;b&gt;When it does&amp;#44; you will feel very strong shaking that persists for minutes here. Standing will be difficult and many will be injured. Bricks and shattered glass will litter the streets&lt;/b&gt;. Power and water will be off for days to weeks. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(map)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Scientists cannot predict when an earthquake will happen so be aware and if you feel shaking&amp;#44; drop cover&amp;#44; and hold on. An early warning system is currently being developed for the West Coast. You can find out more &lt;a href=http://earthquake.usgs.gov/research/earlywarning/ target="_blank"&gt;here&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; 14701 Main St. NE &lt;br&gt; Duvall&amp;#44; WA 98019&lt;br&gt; Sandbag and sand pickup*&lt;br&gt;*Announced when flooding is imminent &lt;br&gt;or contact the City of Duvall&amp;#44; 425-788-3332&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Are the steep slopes nearby unvegetated? Has it been raining for days? &lt;b&gt;If yes&amp;#44; the steep slopes make it more likely for a landslide to happen here&lt;/b&gt;. Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1360,21 +1197,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1429,6 +1253,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDD9C4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1439,8 +1269,412 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="279">
+  <cellStyleXfs count="683">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1735,16 +1969,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="279">
+  <cellStyles count="683">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1884,6 +2116,208 @@
     <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2023,6 +2457,208 @@
     <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2356,14 +2992,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H284"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D201" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D187" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="J187" sqref="J187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2420,7 +3056,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2443,7 +3079,7 @@
         <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2466,7 +3102,7 @@
         <v>70</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2492,7 +3128,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2515,7 +3151,7 @@
         <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2538,7 +3174,7 @@
         <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2561,7 +3197,7 @@
         <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2584,7 +3220,7 @@
         <v>90</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2610,7 +3246,7 @@
         <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2633,7 +3269,7 @@
         <v>60</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2656,7 +3292,7 @@
         <v>70</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2682,7 +3318,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2705,7 +3341,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2728,7 +3364,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2751,7 +3387,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2774,7 +3410,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2797,7 +3433,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>280</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2823,7 +3459,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2846,7 +3482,7 @@
         <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2869,7 +3505,7 @@
         <v>28</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2892,7 +3528,7 @@
         <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2915,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2938,7 +3574,7 @@
         <v>34</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2961,7 +3597,7 @@
         <v>36</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2984,7 +3620,7 @@
         <v>38</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3007,7 +3643,7 @@
         <v>40</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3033,7 +3669,7 @@
         <v>43</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3056,7 +3692,7 @@
         <v>43</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3079,7 +3715,7 @@
         <v>43</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3102,7 +3738,7 @@
         <v>43</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3125,7 +3761,7 @@
         <v>43</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3151,7 +3787,7 @@
         <v>47</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>48</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3159,10 +3795,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
         <v>49</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
       </c>
       <c r="C41" t="s">
         <v>45</v>
@@ -3174,15 +3810,15 @@
         <v>46</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>45</v>
@@ -3194,15 +3830,15 @@
         <v>46</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>262</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
@@ -3214,7 +3850,7 @@
         <v>46</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3222,13 +3858,13 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
         <v>53</v>
-      </c>
-      <c r="C45" t="s">
-        <v>54</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>11</v>
@@ -3237,18 +3873,18 @@
         <v>1</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
         <v>53</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>11</v>
@@ -3257,18 +3893,18 @@
         <v>2</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
         <v>53</v>
-      </c>
-      <c r="C47" t="s">
-        <v>54</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>11</v>
@@ -3277,18 +3913,18 @@
         <v>3</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
         <v>53</v>
-      </c>
-      <c r="C48" t="s">
-        <v>54</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>11</v>
@@ -3297,18 +3933,18 @@
         <v>4</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
         <v>53</v>
-      </c>
-      <c r="C49" t="s">
-        <v>54</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>11</v>
@@ -3317,18 +3953,18 @@
         <v>5</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
         <v>53</v>
-      </c>
-      <c r="C50" t="s">
-        <v>54</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>11</v>
@@ -3337,18 +3973,18 @@
         <v>6</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
         <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>54</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>11</v>
@@ -3357,19 +3993,19 @@
         <v>7</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
         <v>53</v>
       </c>
-      <c r="C52" t="s">
-        <v>54</v>
-      </c>
       <c r="D52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3377,18 +4013,18 @@
         <v>8</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
         <v>53</v>
-      </c>
-      <c r="C53" t="s">
-        <v>54</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>11</v>
@@ -3397,18 +4033,18 @@
         <v>9</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="13" customHeight="1">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
         <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>54</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>11</v>
@@ -3417,19 +4053,19 @@
         <v>10</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
         <v>53</v>
       </c>
-      <c r="C55" t="s">
-        <v>54</v>
-      </c>
       <c r="D55" s="3" t="s">
         <v>11</v>
       </c>
@@ -3437,18 +4073,18 @@
         <v>11</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
-      </c>
-      <c r="C56" t="s">
-        <v>54</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>11</v>
@@ -3457,18 +4093,18 @@
         <v>12</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
         <v>53</v>
-      </c>
-      <c r="C57" t="s">
-        <v>54</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>11</v>
@@ -3477,18 +4113,18 @@
         <v>13</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
         <v>53</v>
-      </c>
-      <c r="C58" t="s">
-        <v>54</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>11</v>
@@ -3497,18 +4133,18 @@
         <v>14</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" t="s">
         <v>53</v>
-      </c>
-      <c r="C59" t="s">
-        <v>54</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>11</v>
@@ -3517,18 +4153,18 @@
         <v>15</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" t="s">
         <v>53</v>
-      </c>
-      <c r="C60" t="s">
-        <v>54</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>11</v>
@@ -3537,18 +4173,18 @@
         <v>16</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" t="s">
         <v>53</v>
-      </c>
-      <c r="C61" t="s">
-        <v>54</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>11</v>
@@ -3557,18 +4193,18 @@
         <v>17</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
         <v>53</v>
-      </c>
-      <c r="C62" t="s">
-        <v>54</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>11</v>
@@ -3577,18 +4213,18 @@
         <v>18</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" t="s">
         <v>53</v>
-      </c>
-      <c r="C63" t="s">
-        <v>54</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>11</v>
@@ -3597,18 +4233,18 @@
         <v>19</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
         <v>53</v>
-      </c>
-      <c r="C64" t="s">
-        <v>54</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>11</v>
@@ -3617,18 +4253,18 @@
         <v>20</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
         <v>53</v>
-      </c>
-      <c r="C65" t="s">
-        <v>54</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>11</v>
@@ -3637,18 +4273,18 @@
         <v>21</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" t="s">
         <v>53</v>
-      </c>
-      <c r="C66" t="s">
-        <v>54</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>11</v>
@@ -3657,18 +4293,18 @@
         <v>22</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" t="s">
         <v>53</v>
-      </c>
-      <c r="C67" t="s">
-        <v>54</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>11</v>
@@ -3677,18 +4313,18 @@
         <v>23</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s">
         <v>53</v>
-      </c>
-      <c r="C68" t="s">
-        <v>54</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>11</v>
@@ -3697,18 +4333,18 @@
         <v>24</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="s">
         <v>53</v>
-      </c>
-      <c r="C69" t="s">
-        <v>54</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>11</v>
@@ -3717,18 +4353,18 @@
         <v>25</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
         <v>53</v>
-      </c>
-      <c r="C70" t="s">
-        <v>54</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>11</v>
@@ -3737,18 +4373,18 @@
         <v>26</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" t="s">
         <v>53</v>
-      </c>
-      <c r="C71" t="s">
-        <v>54</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>11</v>
@@ -3757,18 +4393,18 @@
         <v>27</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" t="s">
         <v>53</v>
-      </c>
-      <c r="C72" t="s">
-        <v>54</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>11</v>
@@ -3777,18 +4413,18 @@
         <v>28</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" t="s">
         <v>53</v>
-      </c>
-      <c r="C73" t="s">
-        <v>54</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>11</v>
@@ -3797,18 +4433,18 @@
         <v>29</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" t="s">
         <v>53</v>
-      </c>
-      <c r="C74" t="s">
-        <v>54</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>11</v>
@@ -3817,18 +4453,18 @@
         <v>30</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" t="s">
         <v>53</v>
-      </c>
-      <c r="C75" t="s">
-        <v>54</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>11</v>
@@ -3837,18 +4473,18 @@
         <v>31</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" t="s">
         <v>53</v>
-      </c>
-      <c r="C76" t="s">
-        <v>54</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>11</v>
@@ -3857,18 +4493,18 @@
         <v>32</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" t="s">
         <v>53</v>
-      </c>
-      <c r="C77" t="s">
-        <v>54</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>11</v>
@@ -3877,18 +4513,18 @@
         <v>33</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" t="s">
         <v>53</v>
-      </c>
-      <c r="C78" t="s">
-        <v>54</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>11</v>
@@ -3897,18 +4533,18 @@
         <v>34</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" t="s">
         <v>53</v>
-      </c>
-      <c r="C79" t="s">
-        <v>54</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>11</v>
@@ -3917,18 +4553,18 @@
         <v>35</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" t="s">
         <v>53</v>
-      </c>
-      <c r="C80" t="s">
-        <v>54</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>11</v>
@@ -3937,18 +4573,18 @@
         <v>36</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" t="s">
         <v>53</v>
-      </c>
-      <c r="C81" t="s">
-        <v>54</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>11</v>
@@ -3957,18 +4593,18 @@
         <v>37</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" t="s">
         <v>53</v>
-      </c>
-      <c r="C82" t="s">
-        <v>54</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>11</v>
@@ -3977,18 +4613,18 @@
         <v>38</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" t="s">
         <v>53</v>
-      </c>
-      <c r="C83" t="s">
-        <v>54</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>11</v>
@@ -3997,18 +4633,18 @@
         <v>39</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" t="s">
         <v>53</v>
-      </c>
-      <c r="C84" t="s">
-        <v>54</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>11</v>
@@ -4017,18 +4653,18 @@
         <v>40</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" t="s">
         <v>53</v>
-      </c>
-      <c r="C85" t="s">
-        <v>54</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>11</v>
@@ -4037,18 +4673,18 @@
         <v>41</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" t="s">
         <v>53</v>
-      </c>
-      <c r="C86" t="s">
-        <v>54</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>11</v>
@@ -4057,18 +4693,18 @@
         <v>42</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" t="s">
         <v>53</v>
-      </c>
-      <c r="C87" t="s">
-        <v>54</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>11</v>
@@ -4077,18 +4713,18 @@
         <v>43</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" t="s">
         <v>53</v>
-      </c>
-      <c r="C88" t="s">
-        <v>54</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>11</v>
@@ -4097,18 +4733,18 @@
         <v>44</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" t="s">
         <v>53</v>
-      </c>
-      <c r="C89" t="s">
-        <v>54</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>11</v>
@@ -4117,18 +4753,18 @@
         <v>45</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" t="s">
         <v>53</v>
-      </c>
-      <c r="C90" t="s">
-        <v>54</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>11</v>
@@ -4137,18 +4773,18 @@
         <v>46</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" t="s">
         <v>53</v>
-      </c>
-      <c r="C91" t="s">
-        <v>54</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>11</v>
@@ -4157,19 +4793,19 @@
         <v>47</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" t="s">
         <v>53</v>
       </c>
-      <c r="C92" t="s">
-        <v>54</v>
-      </c>
       <c r="D92" s="3" t="s">
         <v>11</v>
       </c>
@@ -4177,18 +4813,18 @@
         <v>48</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" t="s">
         <v>53</v>
-      </c>
-      <c r="C93" t="s">
-        <v>54</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>11</v>
@@ -4197,18 +4833,18 @@
         <v>49</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" t="s">
         <v>53</v>
-      </c>
-      <c r="C94" t="s">
-        <v>54</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>11</v>
@@ -4217,18 +4853,18 @@
         <v>50</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B95" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" t="s">
         <v>53</v>
-      </c>
-      <c r="C95" t="s">
-        <v>54</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>11</v>
@@ -4237,19 +4873,19 @@
         <v>51</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B96" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" t="s">
         <v>53</v>
       </c>
-      <c r="C96" t="s">
-        <v>54</v>
-      </c>
       <c r="D96" s="3" t="s">
         <v>11</v>
       </c>
@@ -4257,18 +4893,18 @@
         <v>52</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" t="s">
         <v>53</v>
-      </c>
-      <c r="C97" t="s">
-        <v>54</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>11</v>
@@ -4277,18 +4913,18 @@
         <v>53</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" t="s">
         <v>53</v>
-      </c>
-      <c r="C98" t="s">
-        <v>54</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>11</v>
@@ -4297,18 +4933,18 @@
         <v>54</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B99" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" t="s">
         <v>53</v>
-      </c>
-      <c r="C99" t="s">
-        <v>54</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>11</v>
@@ -4317,18 +4953,18 @@
         <v>55</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" t="s">
         <v>53</v>
-      </c>
-      <c r="C100" t="s">
-        <v>54</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>11</v>
@@ -4337,18 +4973,18 @@
         <v>56</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" t="s">
         <v>53</v>
-      </c>
-      <c r="C101" t="s">
-        <v>54</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>11</v>
@@ -4357,18 +4993,18 @@
         <v>57</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" t="s">
         <v>53</v>
-      </c>
-      <c r="C102" t="s">
-        <v>54</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>11</v>
@@ -4377,18 +5013,18 @@
         <v>58</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" t="s">
         <v>53</v>
-      </c>
-      <c r="C103" t="s">
-        <v>54</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>11</v>
@@ -4397,18 +5033,18 @@
         <v>59</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B104" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" t="s">
         <v>53</v>
-      </c>
-      <c r="C104" t="s">
-        <v>54</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>11</v>
@@ -4417,18 +5053,18 @@
         <v>60</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" t="s">
         <v>53</v>
-      </c>
-      <c r="C105" t="s">
-        <v>54</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>11</v>
@@ -4437,18 +5073,18 @@
         <v>61</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" t="s">
         <v>53</v>
-      </c>
-      <c r="C106" t="s">
-        <v>54</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>11</v>
@@ -4457,18 +5093,18 @@
         <v>62</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" t="s">
         <v>53</v>
-      </c>
-      <c r="C107" t="s">
-        <v>54</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>11</v>
@@ -4477,18 +5113,18 @@
         <v>63</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" t="s">
         <v>53</v>
-      </c>
-      <c r="C108" t="s">
-        <v>54</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>11</v>
@@ -4497,18 +5133,18 @@
         <v>64</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" t="s">
         <v>53</v>
-      </c>
-      <c r="C109" t="s">
-        <v>54</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>11</v>
@@ -4517,7 +5153,7 @@
         <v>65</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4525,10 +5161,10 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C111" t="s">
         <v>45</v>
@@ -4540,16 +5176,16 @@
         <v>46</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="13" customFormat="1">
-      <c r="E112" s="14"/>
-      <c r="H112" s="15"/>
-    </row>
-    <row r="113" spans="1:8" s="13" customFormat="1">
-      <c r="E113" s="14"/>
-      <c r="H113" s="15"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="12" customFormat="1">
+      <c r="E112" s="13"/>
+      <c r="H112" s="14"/>
+    </row>
+    <row r="113" spans="1:8" s="12" customFormat="1">
+      <c r="E113" s="13"/>
+      <c r="H113" s="14"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
@@ -4559,19 +5195,19 @@
         <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E114" s="2">
         <v>1</v>
       </c>
       <c r="F114">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>295</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4582,19 +5218,19 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E115" s="2">
         <v>2</v>
       </c>
       <c r="F115">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4605,19 +5241,19 @@
         <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E116" s="2">
         <v>3</v>
       </c>
       <c r="F116">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4628,19 +5264,19 @@
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E117" s="2">
         <v>5</v>
       </c>
       <c r="F117">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4651,19 +5287,19 @@
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E118" s="2">
         <v>6</v>
       </c>
       <c r="F118">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4674,19 +5310,19 @@
         <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E119" s="2">
         <v>7</v>
       </c>
       <c r="F119">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4697,19 +5333,19 @@
         <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E120" s="2">
         <v>8</v>
       </c>
       <c r="F120">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4720,19 +5356,19 @@
         <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E121" s="2">
         <v>9</v>
       </c>
       <c r="F121">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4746,10 +5382,10 @@
         <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
@@ -4758,7 +5394,7 @@
         <v>100</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4769,10 +5405,10 @@
         <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E124" s="2">
         <v>2</v>
@@ -4781,7 +5417,7 @@
         <v>80</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>301</v>
+        <v>230</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4792,10 +5428,10 @@
         <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E125" s="2">
         <v>3</v>
@@ -4804,7 +5440,7 @@
         <v>20</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>302</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4815,10 +5451,10 @@
         <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E126" s="2">
         <v>5</v>
@@ -4827,7 +5463,7 @@
         <v>20</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4838,10 +5474,10 @@
         <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E127" s="2">
         <v>6</v>
@@ -4850,7 +5486,7 @@
         <v>20</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4861,10 +5497,10 @@
         <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E128" s="2">
         <v>7</v>
@@ -4873,7 +5509,7 @@
         <v>50</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4884,10 +5520,10 @@
         <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E129" s="2">
         <v>8</v>
@@ -4896,7 +5532,7 @@
         <v>10</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4907,10 +5543,10 @@
         <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E130" s="2">
         <v>9</v>
@@ -4919,7 +5555,7 @@
         <v>80</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4930,22 +5566,22 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C132" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="G132" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4953,22 +5589,22 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C133" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="G133" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4976,22 +5612,22 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="G134" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4999,22 +5635,22 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C135" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="G135" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5022,22 +5658,22 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C136" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="G136" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>310</v>
+        <v>237</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5045,22 +5681,22 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C137" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="G137" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>311</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5068,22 +5704,22 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C138" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="G138" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5091,22 +5727,22 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C139" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="G139" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>313</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5114,22 +5750,22 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C140" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="G140" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5137,22 +5773,22 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C141" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="G141" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>315</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5160,22 +5796,22 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="G142" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5183,22 +5819,22 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C143" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="G143" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>317</v>
+        <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5206,22 +5842,22 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C144" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="G144" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>318</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5229,22 +5865,22 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C145" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="G145" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>146</v>
+        <v>246</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5252,22 +5888,22 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C146" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="G146" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5278,22 +5914,22 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="C148" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="F148">
         <v>80</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>320</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5301,22 +5937,22 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="C149" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="F149">
         <v>60</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>321</v>
+        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5324,22 +5960,22 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="C150" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="F150">
         <v>70</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>322</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5347,22 +5983,22 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="C151" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="F151">
         <v>80</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>323</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5370,22 +6006,22 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="C152" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="F152">
         <v>80</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>324</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5396,19 +6032,19 @@
         <v>8</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="G154" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>240</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5422,10 +6058,10 @@
         <v>44</v>
       </c>
       <c r="C156" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>46</v>
@@ -5434,7 +6070,7 @@
         <v>47</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5442,62 +6078,62 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
+        <v>48</v>
+      </c>
+      <c r="B158" t="s">
         <v>49</v>
       </c>
-      <c r="B158" t="s">
-        <v>50</v>
-      </c>
       <c r="C158" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C159" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C160" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5505,347 +6141,347 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B162" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C162" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="G162" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B163" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C163" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="G163" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B164" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C164" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="G164" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B165" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C165" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="G165" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B166" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C166" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="G166" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>329</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B167" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C167" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="G167" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>330</v>
+        <v>255</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B168" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C168" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="G168" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>331</v>
+        <v>256</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B169" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C169" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="G169" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>332</v>
+        <v>257</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B170" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C170" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="G170" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B171" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C171" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="G171" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C172" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="G172" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C173" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="G173" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B174" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C174" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="G174" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B175" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C175" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="G175" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>338</v>
+        <v>262</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B176" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C176" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="G176" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5853,31 +6489,31 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="B178" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C178" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" s="13" customFormat="1">
-      <c r="E179" s="14"/>
-      <c r="H179" s="15"/>
-    </row>
-    <row r="180" spans="1:8" s="13" customFormat="1">
-      <c r="E180" s="14"/>
-      <c r="H180" s="15"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" s="12" customFormat="1">
+      <c r="E179" s="13"/>
+      <c r="H179" s="14"/>
+    </row>
+    <row r="180" spans="1:8" s="12" customFormat="1">
+      <c r="E180" s="13"/>
+      <c r="H180" s="14"/>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
@@ -5886,20 +6522,20 @@
       <c r="B181" t="s">
         <v>9</v>
       </c>
-      <c r="C181" t="s">
-        <v>233</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F181">
+      <c r="C181" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D181" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181" s="8">
         <v>10</v>
       </c>
-      <c r="H181" s="1" t="s">
-        <v>235</v>
+      <c r="H181" s="8" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5909,20 +6545,20 @@
       <c r="B182" t="s">
         <v>9</v>
       </c>
-      <c r="C182" t="s">
-        <v>233</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F182">
+      <c r="C182" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D182" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182" s="8">
         <v>60</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>236</v>
+      <c r="H182" s="8" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5932,46 +6568,66 @@
       <c r="B183" t="s">
         <v>9</v>
       </c>
-      <c r="C183" t="s">
-        <v>233</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F183">
+      <c r="C183" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183" s="8">
         <v>60</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>237</v>
+      <c r="H183" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="D184" s="5"/>
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D184" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+      <c r="F184" s="8">
+        <v>60</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F185">
-        <v>33</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E185">
+        <v>5</v>
+      </c>
+      <c r="F185" s="8">
+        <v>60</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5979,22 +6635,22 @@
         <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F186">
-        <v>80</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E186">
+        <v>6</v>
+      </c>
+      <c r="F186" s="8">
+        <v>60</v>
+      </c>
+      <c r="H186" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6002,1362 +6658,1620 @@
         <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F187">
-        <v>80</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
+      </c>
+      <c r="D187" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E187">
+        <v>7</v>
+      </c>
+      <c r="F187" s="8">
+        <v>60</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="D188" s="5"/>
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E188">
+        <v>8</v>
+      </c>
+      <c r="F188" s="8">
+        <v>60</v>
+      </c>
+      <c r="H188" s="8" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C189" t="s">
-        <v>175</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G189" t="s">
-        <v>221</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>241</v>
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D189" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E189">
+        <v>9</v>
+      </c>
+      <c r="F189" s="8">
+        <v>60</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
-      <c r="D190" s="5"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="15"/>
+      <c r="E190"/>
+      <c r="F190" s="8"/>
+      <c r="H190" s="8"/>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>8</v>
       </c>
       <c r="B191" t="s">
-        <v>44</v>
-      </c>
-      <c r="C191" t="s">
-        <v>175</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G191" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>33</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="D192" s="5"/>
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>80</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>50</v>
-      </c>
-      <c r="C193" t="s">
-        <v>175</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E193">
+        <v>3</v>
+      </c>
+      <c r="F193">
+        <v>80</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>248</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>51</v>
-      </c>
-      <c r="C194" t="s">
-        <v>175</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+      <c r="F194">
+        <v>80</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B195" t="s">
-        <v>52</v>
-      </c>
-      <c r="C195" t="s">
-        <v>175</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E195">
+        <v>5</v>
+      </c>
+      <c r="F195">
+        <v>80</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>260</v>
+        <v>357</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B196" t="s">
-        <v>53</v>
-      </c>
-      <c r="C196" t="s">
-        <v>175</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E196">
+        <v>6</v>
+      </c>
+      <c r="F196">
+        <v>80</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>177</v>
+        <v>357</v>
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="D197" s="5"/>
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E197">
+        <v>7</v>
+      </c>
+      <c r="F197">
+        <v>80</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>121</v>
-      </c>
-      <c r="C198" t="s">
-        <v>234</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E198" s="2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E198">
+        <v>8</v>
+      </c>
+      <c r="F198">
+        <v>80</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>121</v>
-      </c>
-      <c r="C199" t="s">
-        <v>234</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E199" s="2">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D199" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E199">
+        <v>9</v>
+      </c>
+      <c r="F199">
+        <v>80</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" t="s">
-        <v>120</v>
-      </c>
-      <c r="B200" t="s">
-        <v>121</v>
-      </c>
-      <c r="C200" t="s">
-        <v>234</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E200" s="2">
-        <v>3</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="C200" s="8"/>
+      <c r="D200" s="15"/>
+      <c r="E200"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" t="s">
-        <v>120</v>
-      </c>
-      <c r="B201" t="s">
-        <v>121</v>
+      <c r="A201" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C201" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E201" s="2">
-        <v>4</v>
+        <v>106</v>
+      </c>
+      <c r="G201" t="s">
+        <v>142</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" t="s">
-        <v>120</v>
-      </c>
-      <c r="B202" t="s">
-        <v>121</v>
-      </c>
-      <c r="C202" t="s">
-        <v>234</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>356</v>
-      </c>
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="D202" s="5"/>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C203" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>210</v>
+        <v>46</v>
+      </c>
+      <c r="G203" t="s">
+        <v>47</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>355</v>
+        <v>108</v>
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" t="s">
-        <v>120</v>
-      </c>
-      <c r="B204" t="s">
-        <v>121</v>
-      </c>
-      <c r="C204" t="s">
-        <v>234</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="D204" s="5"/>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="B205" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="C205" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="B206" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C206" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>359</v>
+        <v>270</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="B207" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="C207" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" s="13" customFormat="1">
-      <c r="E208" s="14"/>
-      <c r="H208" s="15"/>
-    </row>
-    <row r="209" spans="1:8" s="13" customFormat="1">
-      <c r="E209" s="14"/>
-      <c r="H209" s="15"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>48</v>
+      </c>
+      <c r="B208" t="s">
+        <v>52</v>
+      </c>
+      <c r="C208" t="s">
+        <v>107</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="D209" s="5"/>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C210" t="s">
-        <v>178</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F210">
-        <v>70</v>
+        <v>146</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E210" s="2">
+        <v>1</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C211" t="s">
-        <v>178</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F211">
-        <v>60</v>
+        <v>146</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E211" s="2">
+        <v>2</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C212" t="s">
-        <v>178</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F212">
-        <v>50</v>
+        <v>146</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E212" s="2">
+        <v>3</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C213" t="s">
-        <v>178</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F213">
-        <v>10</v>
+        <v>146</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E213" s="2">
+        <v>4</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C214" t="s">
-        <v>178</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>179</v>
+        <v>146</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F214">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="D215" s="6"/>
+      <c r="A215" t="s">
+        <v>54</v>
+      </c>
+      <c r="B215" t="s">
+        <v>55</v>
+      </c>
+      <c r="C215" t="s">
+        <v>146</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C216" t="s">
-        <v>178</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>179</v>
+        <v>146</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F216">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C217" t="s">
-        <v>178</v>
-      </c>
-      <c r="D217" s="6" t="s">
-        <v>179</v>
+        <v>146</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F217">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C218" t="s">
-        <v>178</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>179</v>
+        <v>146</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F218">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C219" t="s">
-        <v>178</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>179</v>
+        <v>146</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F219">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="D220" s="6"/>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B221" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C221" t="s">
-        <v>178</v>
-      </c>
-      <c r="D221" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G221" t="s">
-        <v>221</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" s="12" customFormat="1">
+      <c r="E220" s="13"/>
+      <c r="H220" s="14"/>
+    </row>
+    <row r="221" spans="1:8" s="12" customFormat="1">
+      <c r="E221" s="13"/>
+      <c r="H221" s="14"/>
     </row>
     <row r="222" spans="1:8">
-      <c r="D222" s="6"/>
+      <c r="A222" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" t="s">
+        <v>109</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F222">
+        <v>70</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G223" t="s">
-        <v>47</v>
+        <v>110</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F223">
+        <v>60</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>188</v>
+        <v>283</v>
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="D224" s="6"/>
+      <c r="A224" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" t="s">
+        <v>109</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F224">
+        <v>50</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B225" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>179</v>
+        <v>110</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F225">
+        <v>10</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>179</v>
+        <v>110</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" t="s">
-        <v>49</v>
-      </c>
-      <c r="B227" t="s">
-        <v>52</v>
-      </c>
-      <c r="C227" t="s">
-        <v>178</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H227" s="1" t="s">
-        <v>259</v>
-      </c>
+      <c r="D227" s="6"/>
     </row>
     <row r="228" spans="1:8">
-      <c r="D228" s="6"/>
+      <c r="A228" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" t="s">
+        <v>109</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F228">
+        <v>90</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B229" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C229" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>179</v>
+        <v>110</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F229">
+        <v>80</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
     </row>
     <row r="230" spans="1:8">
-      <c r="D230" s="6"/>
+      <c r="A230" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" t="s">
+        <v>109</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F230">
+        <v>70</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>179</v>
+        <v>110</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F231">
+        <v>20</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" s="13" customFormat="1">
-      <c r="E232" s="14"/>
-      <c r="H232" s="15"/>
-    </row>
-    <row r="233" spans="1:8" s="13" customFormat="1">
-      <c r="E233" s="14"/>
-      <c r="H233" s="15"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="D232" s="6"/>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C233" t="s">
+        <v>109</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G233" t="s">
+        <v>142</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" t="s">
-        <v>8</v>
-      </c>
-      <c r="B234" t="s">
-        <v>9</v>
-      </c>
-      <c r="C234" t="s">
-        <v>191</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G234" t="s">
-        <v>193</v>
-      </c>
-      <c r="H234" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="D234" s="6"/>
     </row>
     <row r="235" spans="1:8">
-      <c r="D235" s="7"/>
+      <c r="A235" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235" t="s">
+        <v>44</v>
+      </c>
+      <c r="C235" t="s">
+        <v>109</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G235" t="s">
+        <v>47</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" t="s">
-        <v>8</v>
-      </c>
-      <c r="B236" t="s">
-        <v>12</v>
-      </c>
-      <c r="C236" t="s">
-        <v>195</v>
-      </c>
-      <c r="D236" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G236" t="s">
-        <v>197</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>347</v>
-      </c>
+      <c r="D236" s="6"/>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C237" t="s">
-        <v>195</v>
-      </c>
-      <c r="D237" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G237" t="s">
-        <v>197</v>
+        <v>109</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>348</v>
+        <v>290</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C238" t="s">
-        <v>195</v>
-      </c>
-      <c r="D238" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G238" t="s">
-        <v>197</v>
+        <v>109</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C239" t="s">
-        <v>195</v>
-      </c>
-      <c r="D239" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G239" t="s">
-        <v>201</v>
+        <v>109</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
     </row>
     <row r="240" spans="1:8">
-      <c r="D240" s="7"/>
+      <c r="D240" s="6"/>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B241" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C241" t="s">
-        <v>191</v>
-      </c>
-      <c r="D241" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G241" t="s">
-        <v>47</v>
+        <v>109</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="D242" s="7"/>
+      <c r="D242" s="6"/>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B243" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C243" t="s">
-        <v>191</v>
-      </c>
-      <c r="D243" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" t="s">
-        <v>49</v>
-      </c>
-      <c r="B244" t="s">
-        <v>51</v>
-      </c>
-      <c r="C244" t="s">
-        <v>191</v>
-      </c>
-      <c r="D244" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H244" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" t="s">
-        <v>49</v>
-      </c>
-      <c r="B245" t="s">
-        <v>52</v>
-      </c>
-      <c r="C245" t="s">
-        <v>191</v>
-      </c>
-      <c r="D245" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>251</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" s="12" customFormat="1">
+      <c r="E244" s="13"/>
+      <c r="H244" s="14"/>
+    </row>
+    <row r="245" spans="1:8" s="12" customFormat="1">
+      <c r="E245" s="13"/>
+      <c r="H245" s="14"/>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B246" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="G246" t="s">
+        <v>120</v>
+      </c>
       <c r="H246" s="1" t="s">
-        <v>203</v>
+        <v>293</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="D247" s="7"/>
     </row>
-    <row r="248" spans="1:8" ht="16" customHeight="1">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="B248" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" t="s">
         <v>121</v>
       </c>
-      <c r="C248" t="s">
-        <v>191</v>
-      </c>
       <c r="D248" s="7" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>46</v>
+        <v>122</v>
+      </c>
+      <c r="G248" t="s">
+        <v>123</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" s="13" customFormat="1">
-      <c r="E249" s="14"/>
-      <c r="H249" s="15"/>
-    </row>
-    <row r="250" spans="1:8" s="13" customFormat="1">
-      <c r="E250" s="14"/>
-      <c r="H250" s="15"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" t="s">
+        <v>121</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G249" t="s">
+        <v>123</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" t="s">
+        <v>121</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G250" t="s">
+        <v>123</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>8</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C251" t="s">
-        <v>227</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F251">
-        <v>50</v>
+        <v>121</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G251" t="s">
+        <v>127</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
     </row>
     <row r="252" spans="1:8">
-      <c r="D252" s="9"/>
+      <c r="D252" s="7"/>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>8</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C253" t="s">
-        <v>227</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F253">
-        <v>80</v>
+        <v>118</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G253" t="s">
+        <v>47</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="D254" s="9"/>
+      <c r="D254" s="7"/>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>229</v>
+      <c r="A255" t="s">
+        <v>48</v>
+      </c>
+      <c r="B255" t="s">
+        <v>49</v>
       </c>
       <c r="C255" t="s">
-        <v>227</v>
-      </c>
-      <c r="D255" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G255" t="s">
-        <v>221</v>
+        <v>118</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="8"/>
-      <c r="B256" s="8"/>
-      <c r="D256" s="9"/>
+      <c r="A256" t="s">
+        <v>48</v>
+      </c>
+      <c r="B256" t="s">
+        <v>50</v>
+      </c>
+      <c r="C256" t="s">
+        <v>118</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B257" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C257" t="s">
-        <v>227</v>
-      </c>
-      <c r="D257" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G257" t="s">
-        <v>47</v>
+        <v>118</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
     </row>
     <row r="258" spans="1:8">
-      <c r="D258" s="9"/>
+      <c r="A258" t="s">
+        <v>48</v>
+      </c>
+      <c r="B258" t="s">
+        <v>52</v>
+      </c>
+      <c r="C258" t="s">
+        <v>118</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" t="s">
-        <v>49</v>
-      </c>
-      <c r="B259" t="s">
+      <c r="D259" s="7"/>
+    </row>
+    <row r="260" spans="1:8" ht="16" customHeight="1">
+      <c r="A260" t="s">
+        <v>54</v>
+      </c>
+      <c r="B260" t="s">
+        <v>55</v>
+      </c>
+      <c r="C260" t="s">
+        <v>118</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" s="12" customFormat="1">
+      <c r="E261" s="13"/>
+      <c r="H261" s="14"/>
+    </row>
+    <row r="262" spans="1:8" s="12" customFormat="1">
+      <c r="E262" s="13"/>
+      <c r="H262" s="14"/>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" t="s">
+        <v>8</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" t="s">
+        <v>143</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F263">
         <v>50</v>
       </c>
-      <c r="C259" t="s">
-        <v>227</v>
-      </c>
-      <c r="D259" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H259" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" t="s">
-        <v>49</v>
-      </c>
-      <c r="B260" t="s">
-        <v>51</v>
-      </c>
-      <c r="C260" t="s">
-        <v>227</v>
-      </c>
-      <c r="D260" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H260" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261" t="s">
-        <v>49</v>
-      </c>
-      <c r="B261" t="s">
-        <v>52</v>
-      </c>
-      <c r="C261" t="s">
-        <v>227</v>
-      </c>
-      <c r="D261" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H261" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" t="s">
-        <v>49</v>
-      </c>
-      <c r="B262" t="s">
-        <v>53</v>
-      </c>
-      <c r="C262" t="s">
-        <v>227</v>
-      </c>
-      <c r="D262" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H262" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="D263" s="9"/>
+      <c r="H263" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" t="s">
-        <v>120</v>
-      </c>
-      <c r="B264" t="s">
-        <v>121</v>
-      </c>
-      <c r="C264" t="s">
-        <v>227</v>
-      </c>
-      <c r="D264" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" s="13" customFormat="1">
-      <c r="E265" s="14"/>
-      <c r="H265" s="15"/>
-    </row>
-    <row r="266" spans="1:8" s="13" customFormat="1">
-      <c r="E266" s="14"/>
-      <c r="H266" s="15"/>
+      <c r="D264" s="9"/>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" t="s">
+        <v>8</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" t="s">
+        <v>143</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F265">
+        <v>80</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="D266" s="9"/>
     </row>
     <row r="267" spans="1:8">
-      <c r="A267" t="s">
-        <v>8</v>
-      </c>
-      <c r="B267" t="s">
-        <v>9</v>
-      </c>
-      <c r="C267" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D267" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F267">
-        <v>50</v>
+      <c r="A267" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C267" t="s">
+        <v>143</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G267" t="s">
+        <v>142</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="D268" s="10"/>
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
+      <c r="D268" s="9"/>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>8</v>
       </c>
       <c r="B269" t="s">
-        <v>12</v>
-      </c>
-      <c r="C269" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D269" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F269">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="C269" t="s">
+        <v>143</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G269" t="s">
+        <v>47</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
     </row>
     <row r="270" spans="1:8">
-      <c r="D270" s="10"/>
+      <c r="D270" s="9"/>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B271" t="s">
-        <v>215</v>
-      </c>
-      <c r="C271" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D271" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G271" t="s">
-        <v>221</v>
+        <v>49</v>
+      </c>
+      <c r="C271" t="s">
+        <v>143</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
     </row>
     <row r="272" spans="1:8">
-      <c r="D272" s="10"/>
+      <c r="A272" t="s">
+        <v>48</v>
+      </c>
+      <c r="B272" t="s">
+        <v>50</v>
+      </c>
+      <c r="C272" t="s">
+        <v>143</v>
+      </c>
+      <c r="D272" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B273" t="s">
-        <v>44</v>
-      </c>
-      <c r="C273" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D273" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G273" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="C273" t="s">
+        <v>143</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="D274" s="10"/>
+      <c r="A274" t="s">
+        <v>48</v>
+      </c>
+      <c r="B274" t="s">
+        <v>52</v>
+      </c>
+      <c r="C274" t="s">
+        <v>143</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" t="s">
-        <v>49</v>
-      </c>
-      <c r="B275" t="s">
-        <v>50</v>
-      </c>
-      <c r="C275" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D275" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="H275" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="D275" s="9"/>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
+        <v>54</v>
+      </c>
+      <c r="B276" t="s">
+        <v>55</v>
+      </c>
+      <c r="C276" t="s">
+        <v>143</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" s="12" customFormat="1">
+      <c r="E277" s="13"/>
+      <c r="H277" s="14"/>
+    </row>
+    <row r="278" spans="1:8" s="12" customFormat="1">
+      <c r="E278" s="13"/>
+      <c r="H278" s="14"/>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" t="s">
+        <v>8</v>
+      </c>
+      <c r="B279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F279">
+        <v>50</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="D280" s="10"/>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
+        <v>8</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D281" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F281">
+        <v>80</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="D282" s="10"/>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
+        <v>8</v>
+      </c>
+      <c r="B283" t="s">
+        <v>140</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D283" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G283" t="s">
+        <v>142</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="D284" s="10"/>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" t="s">
+        <v>8</v>
+      </c>
+      <c r="B285" t="s">
+        <v>44</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G285" t="s">
+        <v>47</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="D286" s="10"/>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" t="s">
+        <v>48</v>
+      </c>
+      <c r="B287" t="s">
         <v>49</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C287" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D287" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" t="s">
+        <v>48</v>
+      </c>
+      <c r="B288" t="s">
+        <v>50</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D288" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
+        <v>48</v>
+      </c>
+      <c r="B289" t="s">
         <v>51</v>
       </c>
-      <c r="C276" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D276" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="H276" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" t="s">
-        <v>49</v>
-      </c>
-      <c r="B277" t="s">
-        <v>52</v>
-      </c>
-      <c r="C277" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D277" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="H277" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" t="s">
-        <v>49</v>
-      </c>
-      <c r="B278" t="s">
-        <v>53</v>
-      </c>
-      <c r="C278" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D278" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="H278" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="D279" s="10"/>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" t="s">
-        <v>120</v>
-      </c>
-      <c r="B280" t="s">
-        <v>121</v>
-      </c>
-      <c r="C280" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D280" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="H280" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="H284" s="12"/>
+      <c r="C289" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" t="s">
+        <v>48</v>
+      </c>
+      <c r="B290" t="s">
+        <v>52</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D290" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="D291" s="10"/>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" t="s">
+        <v>54</v>
+      </c>
+      <c r="B292" t="s">
+        <v>55</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D292" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/disasterinfosite/data/snuggets.xlsx
+++ b/disasterinfosite/data/snuggets.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinda/seattle-ready/disasterinfosite/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="snuggets.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -1126,9 +1131,6 @@
     <t>&lt;p&gt;&lt;b&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here&lt;/b&gt;.  Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes.  Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
   </si>
   <si>
-    <t>LSLD_steepgradezone</t>
-  </si>
-  <si>
     <t>&lt;p&gt;A &lt;b&gt;LOW CHANCE&lt;/b&gt; (5%) exists of a magnitude 7+ earthquake on the Seattle Fault in the next 50 years&amp;#44; but if it does it will be damaging. &lt;b&gt;Moderate shaking will be felt by nearly everyone. Doors will swing&amp;#44; pictures on walls will rattle&amp;#44; and small objects could fall. Damage will be slight&lt;/b&gt;. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -1160,6 +1162,9 @@
   </si>
   <si>
     <t>&lt;p&gt;Are the steep slopes nearby unvegetated? Has it been raining for days? &lt;b&gt;If yes&amp;#44; the steep slopes make it more likely for a landslide to happen here&lt;/b&gt;. Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>lsld_steepgradezone</t>
   </si>
 </sst>
 </file>
@@ -2999,10 +3004,10 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D187" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J187" sqref="J187"/>
+      <selection pane="bottomRight" activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -3010,7 +3015,7 @@
     <col min="8" max="8" width="53.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3036,7 +3041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3059,7 +3064,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3082,7 +3087,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3105,10 +3110,10 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3128,10 +3133,10 @@
         <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3151,10 +3156,10 @@
         <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3174,10 +3179,10 @@
         <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3197,10 +3202,10 @@
         <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3220,13 +3225,13 @@
         <v>90</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3246,10 +3251,10 @@
         <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3269,10 +3274,10 @@
         <v>60</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3292,13 +3297,13 @@
         <v>70</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3321,7 +3326,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -3344,7 +3349,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3367,7 +3372,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -3390,7 +3395,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -3413,7 +3418,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -3436,10 +3441,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3462,7 +3467,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -3485,7 +3490,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -3508,7 +3513,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -3531,7 +3536,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -3554,7 +3559,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -3577,7 +3582,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -3600,7 +3605,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -3623,7 +3628,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3646,10 +3651,10 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -3672,7 +3677,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -3695,7 +3700,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -3718,7 +3723,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -3741,7 +3746,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -3764,10 +3769,10 @@
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -3787,13 +3792,13 @@
         <v>47</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -3813,7 +3818,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -3833,7 +3838,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -3853,10 +3858,10 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -3876,7 +3881,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3896,7 +3901,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -3916,7 +3921,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3936,7 +3941,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3956,7 +3961,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3976,7 +3981,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -3996,7 +4001,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -4016,7 +4021,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -4036,7 +4041,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="13" customHeight="1">
+    <row r="54" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -4056,7 +4061,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -4076,7 +4081,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -4096,7 +4101,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -4116,7 +4121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -4136,7 +4141,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -4156,7 +4161,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -4176,7 +4181,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -4196,7 +4201,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -4216,7 +4221,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -4236,7 +4241,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -4256,7 +4261,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -4276,7 +4281,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -4296,7 +4301,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -4316,7 +4321,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -4336,7 +4341,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -4356,7 +4361,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -4376,7 +4381,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -4396,7 +4401,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -4416,7 +4421,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -4436,7 +4441,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -4456,7 +4461,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -4476,7 +4481,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -4496,7 +4501,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>48</v>
       </c>
@@ -4516,7 +4521,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -4536,7 +4541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -4556,7 +4561,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -4576,7 +4581,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -4596,7 +4601,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>48</v>
       </c>
@@ -4616,7 +4621,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>48</v>
       </c>
@@ -4636,7 +4641,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>48</v>
       </c>
@@ -4656,7 +4661,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>48</v>
       </c>
@@ -4676,7 +4681,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>48</v>
       </c>
@@ -4696,7 +4701,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>48</v>
       </c>
@@ -4716,7 +4721,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -4736,7 +4741,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -4756,7 +4761,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>48</v>
       </c>
@@ -4776,7 +4781,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>48</v>
       </c>
@@ -4796,7 +4801,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>48</v>
       </c>
@@ -4816,7 +4821,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>48</v>
       </c>
@@ -4836,7 +4841,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>48</v>
       </c>
@@ -4856,7 +4861,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>48</v>
       </c>
@@ -4876,7 +4881,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>48</v>
       </c>
@@ -4896,7 +4901,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>48</v>
       </c>
@@ -4916,7 +4921,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -4936,7 +4941,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>48</v>
       </c>
@@ -4956,7 +4961,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -4976,7 +4981,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>48</v>
       </c>
@@ -4996,7 +5001,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>48</v>
       </c>
@@ -5016,7 +5021,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>48</v>
       </c>
@@ -5036,7 +5041,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -5056,7 +5061,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>48</v>
       </c>
@@ -5076,7 +5081,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>48</v>
       </c>
@@ -5096,7 +5101,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>48</v>
       </c>
@@ -5116,7 +5121,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -5136,7 +5141,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>48</v>
       </c>
@@ -5156,10 +5161,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>54</v>
       </c>
@@ -5179,15 +5184,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="12" customFormat="1">
+    <row r="112" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E112" s="13"/>
       <c r="H112" s="14"/>
     </row>
-    <row r="113" spans="1:8" s="12" customFormat="1">
+    <row r="113" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E113" s="13"/>
       <c r="H113" s="14"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -5210,7 +5215,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -5233,7 +5238,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -5256,7 +5261,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -5279,7 +5284,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -5302,7 +5307,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -5325,7 +5330,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -5348,7 +5353,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -5371,10 +5376,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -5397,7 +5402,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -5420,7 +5425,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -5443,7 +5448,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -5489,7 +5494,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -5512,7 +5517,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -5535,7 +5540,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -5558,10 +5563,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -5584,7 +5589,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -5607,7 +5612,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -5630,7 +5635,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -5653,7 +5658,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -5676,7 +5681,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -5699,7 +5704,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -5722,7 +5727,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -5745,7 +5750,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -5768,7 +5773,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -5791,7 +5796,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -5814,7 +5819,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -5837,7 +5842,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -5860,7 +5865,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -5883,7 +5888,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -5906,10 +5911,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -5932,7 +5937,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -5955,7 +5960,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -5978,7 +5983,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -6001,7 +6006,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -6024,10 +6029,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>8</v>
       </c>
@@ -6047,10 +6052,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -6073,10 +6078,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>48</v>
       </c>
@@ -6096,7 +6101,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>48</v>
       </c>
@@ -6116,7 +6121,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>48</v>
       </c>
@@ -6136,10 +6141,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>48</v>
       </c>
@@ -6162,7 +6167,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>48</v>
       </c>
@@ -6185,7 +6190,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>48</v>
       </c>
@@ -6208,7 +6213,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>48</v>
       </c>
@@ -6231,7 +6236,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>48</v>
       </c>
@@ -6254,7 +6259,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>48</v>
       </c>
@@ -6277,7 +6282,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -6300,7 +6305,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>48</v>
       </c>
@@ -6323,7 +6328,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>48</v>
       </c>
@@ -6346,7 +6351,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>48</v>
       </c>
@@ -6369,7 +6374,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>48</v>
       </c>
@@ -6392,7 +6397,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>48</v>
       </c>
@@ -6412,10 +6417,10 @@
         <v>91</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>48</v>
       </c>
@@ -6438,7 +6443,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>48</v>
       </c>
@@ -6461,7 +6466,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -6484,10 +6489,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>54</v>
       </c>
@@ -6507,15 +6512,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="12" customFormat="1">
+    <row r="179" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E179" s="13"/>
       <c r="H179" s="14"/>
     </row>
-    <row r="180" spans="1:8" s="12" customFormat="1">
+    <row r="180" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E180" s="13"/>
       <c r="H180" s="14"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -6523,7 +6528,7 @@
         <v>9</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>106</v>
@@ -6538,7 +6543,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -6546,7 +6551,7 @@
         <v>9</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>106</v>
@@ -6561,7 +6566,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -6569,7 +6574,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D183" s="15" t="s">
         <v>106</v>
@@ -6584,7 +6589,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -6592,7 +6597,7 @@
         <v>9</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>106</v>
@@ -6607,7 +6612,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -6615,7 +6620,7 @@
         <v>9</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D185" s="15" t="s">
         <v>106</v>
@@ -6630,7 +6635,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -6638,7 +6643,7 @@
         <v>9</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D186" s="15" t="s">
         <v>106</v>
@@ -6653,7 +6658,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -6661,7 +6666,7 @@
         <v>9</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D187" s="15" t="s">
         <v>106</v>
@@ -6676,7 +6681,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -6684,7 +6689,7 @@
         <v>9</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D188" s="15" t="s">
         <v>106</v>
@@ -6699,7 +6704,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -6707,7 +6712,7 @@
         <v>9</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D189" s="15" t="s">
         <v>106</v>
@@ -6722,14 +6727,14 @@
         <v>266</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C190" s="8"/>
       <c r="D190" s="15"/>
       <c r="E190"/>
       <c r="F190" s="8"/>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -6737,7 +6742,7 @@
         <v>12</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D191" s="15" t="s">
         <v>106</v>
@@ -6752,7 +6757,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -6760,7 +6765,7 @@
         <v>12</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>106</v>
@@ -6772,10 +6777,10 @@
         <v>80</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -6783,7 +6788,7 @@
         <v>12</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D193" s="15" t="s">
         <v>106</v>
@@ -6795,10 +6800,10 @@
         <v>80</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -6806,7 +6811,7 @@
         <v>12</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D194" s="15" t="s">
         <v>106</v>
@@ -6818,10 +6823,10 @@
         <v>80</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -6829,7 +6834,7 @@
         <v>12</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D195" s="15" t="s">
         <v>106</v>
@@ -6841,10 +6846,10 @@
         <v>80</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -6852,7 +6857,7 @@
         <v>12</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D196" s="15" t="s">
         <v>106</v>
@@ -6864,10 +6869,10 @@
         <v>80</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -6875,7 +6880,7 @@
         <v>12</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D197" s="15" t="s">
         <v>106</v>
@@ -6887,10 +6892,10 @@
         <v>80</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -6898,7 +6903,7 @@
         <v>12</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D198" s="15" t="s">
         <v>106</v>
@@ -6910,10 +6915,10 @@
         <v>80</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -6921,7 +6926,7 @@
         <v>12</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D199" s="15" t="s">
         <v>106</v>
@@ -6933,15 +6938,15 @@
         <v>80</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C200" s="8"/>
       <c r="D200" s="15"/>
       <c r="E200"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>8</v>
       </c>
@@ -6961,12 +6966,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -6989,10 +6994,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>48</v>
       </c>
@@ -7012,7 +7017,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>48</v>
       </c>
@@ -7032,7 +7037,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>48</v>
       </c>
@@ -7052,7 +7057,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>48</v>
       </c>
@@ -7072,10 +7077,10 @@
         <v>344</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>54</v>
       </c>
@@ -7095,7 +7100,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>54</v>
       </c>
@@ -7115,7 +7120,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>54</v>
       </c>
@@ -7135,7 +7140,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>54</v>
       </c>
@@ -7155,7 +7160,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>54</v>
       </c>
@@ -7175,7 +7180,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>54</v>
       </c>
@@ -7195,7 +7200,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>54</v>
       </c>
@@ -7215,7 +7220,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>54</v>
       </c>
@@ -7235,7 +7240,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>54</v>
       </c>
@@ -7255,7 +7260,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>54</v>
       </c>
@@ -7275,15 +7280,15 @@
         <v>281</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="12" customFormat="1">
+    <row r="220" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E220" s="13"/>
       <c r="H220" s="14"/>
     </row>
-    <row r="221" spans="1:8" s="12" customFormat="1">
+    <row r="221" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E221" s="13"/>
       <c r="H221" s="14"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -7306,7 +7311,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -7329,7 +7334,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -7352,7 +7357,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -7375,7 +7380,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -7398,10 +7403,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D227" s="6"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -7424,7 +7429,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -7447,7 +7452,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -7470,7 +7475,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -7493,10 +7498,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D232" s="6"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
         <v>8</v>
       </c>
@@ -7516,10 +7521,10 @@
         <v>316</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D234" s="6"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -7539,10 +7544,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D236" s="6"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>48</v>
       </c>
@@ -7559,7 +7564,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>48</v>
       </c>
@@ -7576,7 +7581,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>48</v>
       </c>
@@ -7593,10 +7598,10 @@
         <v>291</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D240" s="6"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>48</v>
       </c>
@@ -7613,10 +7618,10 @@
         <v>317</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D242" s="6"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>54</v>
       </c>
@@ -7633,15 +7638,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="12" customFormat="1">
+    <row r="244" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E244" s="13"/>
       <c r="H244" s="14"/>
     </row>
-    <row r="245" spans="1:8" s="12" customFormat="1">
+    <row r="245" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E245" s="13"/>
       <c r="H245" s="14"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -7664,10 +7669,10 @@
         <v>293</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D247" s="7"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -7690,7 +7695,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -7713,7 +7718,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -7736,7 +7741,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -7759,10 +7764,10 @@
         <v>297</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D252" s="7"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -7785,10 +7790,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D254" s="7"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>48</v>
       </c>
@@ -7808,7 +7813,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>48</v>
       </c>
@@ -7828,7 +7833,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>48</v>
       </c>
@@ -7848,7 +7853,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>48</v>
       </c>
@@ -7868,10 +7873,10 @@
         <v>301</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D259" s="7"/>
     </row>
-    <row r="260" spans="1:8" ht="16" customHeight="1">
+    <row r="260" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>54</v>
       </c>
@@ -7891,15 +7896,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="261" spans="1:8" s="12" customFormat="1">
+    <row r="261" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E261" s="13"/>
       <c r="H261" s="14"/>
     </row>
-    <row r="262" spans="1:8" s="12" customFormat="1">
+    <row r="262" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E262" s="13"/>
       <c r="H262" s="14"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>8</v>
       </c>
@@ -7919,10 +7924,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D264" s="9"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -7942,10 +7947,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D266" s="9"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="8" t="s">
         <v>8</v>
       </c>
@@ -7965,12 +7970,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="D268" s="9"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>8</v>
       </c>
@@ -7990,10 +7995,10 @@
         <v>305</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D270" s="9"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>48</v>
       </c>
@@ -8010,7 +8015,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>48</v>
       </c>
@@ -8027,7 +8032,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>48</v>
       </c>
@@ -8044,7 +8049,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>48</v>
       </c>
@@ -8061,10 +8066,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D275" s="9"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>54</v>
       </c>
@@ -8081,15 +8086,15 @@
         <v>318</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="12" customFormat="1">
+    <row r="277" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E277" s="13"/>
       <c r="H277" s="14"/>
     </row>
-    <row r="278" spans="1:8" s="12" customFormat="1">
+    <row r="278" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E278" s="13"/>
       <c r="H278" s="14"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>8</v>
       </c>
@@ -8109,10 +8114,10 @@
         <v>319</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D280" s="10"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -8132,10 +8137,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D282" s="10"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -8155,10 +8160,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D284" s="10"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -8178,10 +8183,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D286" s="10"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>48</v>
       </c>
@@ -8198,7 +8203,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>48</v>
       </c>
@@ -8215,7 +8220,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>48</v>
       </c>
@@ -8232,7 +8237,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>48</v>
       </c>
@@ -8249,10 +8254,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D291" s="10"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>54</v>
       </c>
@@ -8272,10 +8277,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/disasterinfosite/data/snuggets.xlsx
+++ b/disasterinfosite/data/snuggets.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="574">
   <si>
     <t>section</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>image</t>
-  </si>
-  <si>
-    <t>text</t>
   </si>
   <si>
     <t>What to Expect</t>
@@ -1165,6 +1162,657 @@
   </si>
   <si>
     <t>lsld_steepgradezone</t>
+  </si>
+  <si>
+    <t>text-en</t>
+  </si>
+  <si>
+    <t>text-es</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hay &lt;b&gt;MUCHAS POSIBILIDADES&lt;/b&gt; (84%) de que haya un terremoto de magnitud 6.5+ en los próximos 50 años. Se sentirá parecido al terremoto de magnitud 6.8 de Nisqually en 2001. Casi todos aquí sentirán un temblor moderado. &lt;b&gt;Las puertas se sacudirán, los cuadros de las paredes temblarán y se podrían caer pequeños objetos.&lt;/b&gt;Los daños serán leves. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hay &lt;b&gt;MUCHAS POSIBILIDADES&lt;/b&gt; (84%) de que haya un terremoto de magnitud 6.5+ en los próximos 50 años. Se sentirá parecido al terremoto de magnitud 6.8 de Nisqually en 2001. &lt;b&gt;Los fuertes temblores dificultarán el caminar en esta ocasión. Los libros, la cristalería y otros elementos se caerán de los estantes. Se abrirán las puertas y los cajones de los gabinetes.&lt;/b&gt; Algunas chimeneas y edificios de construcción deficiente sufrirán daños. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hay &lt;b&gt;MUCHAS POSIBILIDADES&lt;/b&gt; (84%) de que haya un terremoto de magnitud 6.5+ en los próximos 50 años. Se sentirá parecido al terremoto de magnitud 6.8 de Nisqually en 2001. &lt;b&gt;Los temblores muy fuertes harán difícil permanecer de pie en esta ocasión. Los muebles se trasladarán y muchos objetos caerán de los estantes.&lt;/b&gt; Los daños serán importantes en estructuras de mala construcción y de leve a moderados en estructuras normales. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Existe una &lt;b&gt;LIGERA PROBABILIDAD&lt;/b&gt; (5%) de que haya un terremoto de magnitud 7+ en la falla de Seattle en los próximos 50 años, pero si sucede, producirá daños. &lt;b&gt;Casi todos sentirán un temblor moderado. Las puertas se sacudirán, los cuadros de las paredes temblarán y se podrían caer pequeños objetos. Los daños serán leves.&lt;/b&gt; &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Existe una &lt;b&gt;LIGERA PROBABILIDAD&lt;/b&gt; (5%) de que haya un terremoto de magnitud 7+ en la falla de Seattle en los próximos 50 años, pero si sucede, producirá daños. Los fuertes temblores dificultarán el caminar. &lt;b&gt;Los libros, la cristalería y otros elementos se caerán de los estantes. Algunas chimeneas y edificios de construcción deficiente sufrirán daños.&lt;/b&gt; &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Existe una &lt;b&gt;LIGERA PROBABILIDAD&lt;/b&gt; (5%) de que haya un terremoto de magnitud 7+ en la falla de Seattle en los próximos 50 años, pero si sucede, producirá daños. &lt;b&gt;Los temblores muy fuertes harán difícil mantenerse en pie. Los muebles se trasladarán y objetos caerán.&lt;/b&gt; Los daños serán importantes en edificios de mala construcción y moderados en edificios normales. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Existe una &lt;b&gt;LIGERA PROBABILIDAD&lt;/b&gt; (5%) de que haya un terremoto de magnitud 7+ en la falla de Seattle en los próximos 50 años, pero si sucede, producirá daños. &lt;b&gt;Los temblores muy fuertes harán difícil mantenerse en pie o conducir. Los muebles pesados caerán. Partes de edificios&lt;/b&gt; &lt;a href="http://www.seattle.gov/dpd/codesrules/changestocode/unreinforcedmasonrybuildings/whatwhy/" target="_blank"&gt;&lt;b&gt; URM&lt;/b&gt;&lt;/a&gt; &lt;b&gt; caerán y las casas con marcos de madera se trasladarán en los cimientos.&lt;/b&gt; &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="lick on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Existe una &lt;b&gt;LIGERA PROBABILIDAD&lt;/b&gt; (5%) de que haya un terremoto de magnitud 7+ en la falla de Seattle en los próximos 50 años, pero si sucede, producirá daños. &lt;b&gt;Las sacudidas violentas provocarán pánico generalizado y aparecerán grietas en el piso. Se provocarán deslizamientos de tierra en pendientes pronunciadas y se producirá licuefacción en tierras saturadas.&lt;/b&gt; &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="lick on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Hay POSIBILIDADES MODERADAS&lt;/b&gt; (10 a 30%) de que haya un terremoto de magnitud 8+ en Casacadia en el noroeste en los próximos 50 años. &lt;b&gt;Cuando suceda, sentirá temblores moderados que persistirán durante minutos. Los elementos que no estén asegurados caerán de los estantes. Es probable que se abran y cierren las puertas de los gabinetes.&lt;/b&gt; Probablemente, haya cortes de electricidad y agua durante días o semanas. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Hay POSIBILIDADES MODERADAS&lt;/b&gt; (10 a 30%) de que haya un terremoto de magnitud 8+ en Casacadia en el noroeste en los próximos 50 años. &lt;b&gt;Cuando suceda, sentirá fuertes temblores aquí que persistirán durante minutos. Será difícil caminar. Muchos edificios de mampostería no reforzados se dañarán y las personas sufrirán lesiones.&lt;/b&gt; Habrá cortes de electricidad y agua durante días hasta semanas. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Hay POSIBILIDADES MODERADAS&lt;/b&gt; (10 a 30%) de que haya un terremoto de magnitud 8+ en Casacadia en el noroeste en los próximos 50 años. &lt;b&gt;Cuando suceda, sentirá temblores muy fuertes que persistirán durante minutos. Será difícil mantenerse en pie y muchas personas resultarán heridas. Ladrillos y vidrios rotos cubrirán las calles.&lt;/b&gt; Habrá cortes de electricidad y agua durante días hasta semanas. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Usted se encuentra en una &lt;b&gt;zona de tsunami de ALTO RIESGO&lt;/b&gt;. Los niveles de agua superarán la altura de su cabeza entre unos pocos minutos hasta decenas de minutos después del terremoto. Una vez que se detengan los temblores, EVACUÉ INMEDIATAMENTE hacia terreno más elevado. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Usted se encuentra en una &lt;b&gt;zona de ALTO RIESGO de tsunami&lt;/b&gt;. Los niveles de agua llegarán a la altura de sus rodillas o cabeza entre unos pocos minutos hasta decenas de minutos después del terremoto. Una vez que se detengan los temblores, &lt;span style='text-transform: uppercase'&gt;evacúe inmediatamente hacia terreno más elevado. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Usted se encuentra en una &lt;b&gt;zona de ALTO RIESGO de tsunami&lt;/b&gt;. El nivel de agua alcanzará sus rodillas con una corriente lo suficientemente rápida para derribarlo. Tiene entre minutos hasta decenas de minutos para EVACUAR hacia tierras más altas. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Usted se encuentra fuera del área demarcada como de alto riesgo de tsunami&lt;/b&gt; , pero las olas de tsunami pueden variar. ¿Usted vive o trabaja en un área de poca elevación (hasta 30 pies sobre el nivel del mar) cerca del océano? Si es así, EVACUÉ INMEDIATAMENTE a tierras más altas después de un gran terremoto. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Usted se encuentra a un cuarto de milla de la costa.&lt;/b&gt; Si se encuentra en un terreno poco elevado (hasta 30 pies sobre el nivel del mar) puede estar en riesgo de un tsunami posterior a un terremoto cercano. Vaya a tierras más altas inmediatamente. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Si está en una embarcación durante un terremoto podría sentir el paso de una ola de tsunami a gran velocidad. T hasta este. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Posibilidad: ALTA&lt;/b&gt;&lt;br /&gt;El terreno con temblores se tornará muy inestable y parecerá arena movediza. Agua con arena podría aparecer a través de las grietas en las calles. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Posibilidad: MODERADA - ALTA&lt;/b&gt;&lt;br /&gt;El terreno con temblores se tornará inestable. Esto reducirá la capacidad del terreno para sustentar las casas, los vehículos y otras estructuras. Agua con arena podría aparecer a través de las grietas en las calles. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Posibilidad: BAJA - MODERADA&lt;/b&gt;&lt;br /&gt;Aquí existe cierta posibilidad de licuefacción. Los temblores pueden provocar que el terreno se torne inestable. Los caminos pueden agrietarse y dañarse. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Posibilidad: BAJA&lt;/b&gt;&lt;br /&gt;A menos que los temblores sean lo suficientemente fuertes, es poco probable que se produzca licuefacción aquí. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Posibilidad: MUY BAJA - BAJA&lt;/b&gt;&lt;br /&gt;A menos que los temblores sean muy fuertes, es poco probable que se produzca licuefacción aquí. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Posibilidad: MUY BAJA&lt;/b&gt;&lt;br /&gt;A menos que los temblores sean muy fuertes, es poco probable que se produzca licuefacción aquí. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Posibilidad: NINGUNA&lt;/b&gt;&lt;br /&gt;Esta área está sobre un lecho de rocas, rocas sólidas debajo de tierras y sedimentos. No sé licuará. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Posibilidad: NINGUNA&lt;/b&gt;&lt;br /&gt;Esta área está en una turba, un material oscuro similar a la tierra, compuesto de materia orgánica. Quizás se deforme, pero no se licuará. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Posibilidad: NINGUNA&lt;/b&gt;&lt;br /&gt;Esta área está compuesta por hielo y no se licuará. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MUY BAJA DENSIDAD: 0 a 10 edificios de mampostería no reforzada (URM) por milla cuadrada.&lt;/b&gt;&lt;br /&gt;En este tipo de edificios, los temblores fuertes por terremotos provocarán que fallen las paredes o los techos de ladrillo. Los escombros caerán a las calles. Vea dónde están los URM &lt;a href="http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b" target="_blank"&gt;más cercanos a su domicilio&lt;/a&gt; y si ya fueron acondicionados. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;BAJA DENSIDAD: 10 a 25 edificios de mampostería no reforzada (URM) por milla cuadrada.&lt;/b&gt;&lt;br /&gt;En este tipo de edificios, los temblores fuertes por terremotos provocarán que fallen las paredes o los techos de ladrillo. Los escombros caerán a las calles. Vea dónde están los URM &lt;a href="http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b" target="_blank"&gt;más cercanos a su domicilio&lt;/a&gt; y si ya fueron acondicionados. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;DENSIDAD MODERADA: 25 a 50 edificios de mampostería no reforzada (URM) por milla cuadrada.&lt;/b&gt;&lt;br /&gt;En este tipo de edificios, los temblores fuertes por terremotos provocarán que fallen las paredes o los techos de ladrillo. Los escombros caerán a las calles. Vea dónde están los URM &lt;a href="http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b" target="_blank"&gt;más cercanos a su domicilio&lt;/a&gt; y si ya fueron acondicionados. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;ALTA DENSIDAD: 50 a 100 edificios de mampostería no reforzada (URM) por milla cuadrada.&lt;/b&gt;&lt;br /&gt;Si está en un URM durante un terremoto, agáchese, cúbrase y agárrese. En estos edificios, los temblores por terremotos provocarán que fallen las paredes y los techos de ladrillo. Los escombros caerán a las calles. Vea dónde están los URM &lt;a href="http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b" target="_blank"&gt;más cercanos a su domicilio&lt;/a&gt; y si ya fueron acondicionados. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MUY ALTA DENSIDAD: 100 a 250 edificios de mampostería no reforzada (URM) por milla cuadrada.&lt;/b&gt;&lt;br /&gt;Si está en un URM durante un terremoto, agáchese, cúbrase y agárrese. En estos edificios, los temblores por terremotos provocarán que fallen las paredes y los techos de ladrillo. Los escombros caerán a las calles. Vea dónde están los URM &lt;a href="http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b" target="_blank"&gt;más cercanos a su domicilio&lt;/a&gt; y si ya fueron acondicionados. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los científicos no pueden predecir cuándo ocurrirá un terremoto, por lo que debe estar atento y, si siente temblores, agáchese, cúbrase y agárrese. Actualmente, se está desarrollando un sistema de alerta temprana para la costa oeste. Puede obtener más información &lt;a href="http://earthquake.usgs.gov/research/earlywarning/" target="_blank"&gt;aquí&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt; &lt;li&gt;&lt;b&gt;PRÁCTICA&lt;/b&gt; : tenga en cuenta y practique &amp;quot;arrojarse, cubrirse y agarrarse&amp;quot;. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PLAN&lt;/b&gt; : haga un plan familiar ( &lt;a href="http://www.fema.gov/media-library-data/0e3ef555f66e22ab832e284f826c2e9e/FEMA_plan_parent_508_071513.pdf" target="_blank"&gt;para adultos&lt;/a&gt; y &lt;a href="http://www.fema.gov/media-library-data/a260e5fb242216dc62ae380946806677/FEMA_plan_child_508_071513.pdf" target="_blank"&gt;para niños&lt;/a&gt; ) y establezca un &lt;a href="http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf" target="_blank"&gt;kit de suministros&lt;/a&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;PREPÁRESE:&lt;/b&gt; asegure aquellos elementos que pudieran caerse y sepa la ubicación de los cortes de servicios públicos. &lt;/li&gt; &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;CASA - ¡QUÉDESE ALLÍ!&lt;/b&gt; Protéjase bajo un escritorio o una mesa resistente lejos de objetos que pudieran caer sobre usted y agárrese. NO salga corriendo hasta que paren los temblores. &lt;/li&gt; &lt;li&gt;&lt;b&gt;AFUERA - VAYA A UN LUGAR DESPEJADO&lt;/b&gt;&lt;span lang=ES style='font-size:11.0pt;font-family:Calibri'&gt;lejos de edificios, líneas eléctricas, chimeneas o cosas que pudieran caer sobre usted. &lt;/li&gt; &lt;li&gt;&lt;b&gt;CONDUCIENDO - DETÉNGASE CON CUIDADO&lt;/b&gt;&lt;span lang=ES style='font-size:11.0pt;font-family:Calibri'&gt; (no lo haga bajo un puente, un paso elevado, líneas eléctricas, etc.) y PERMANEZCA DENTRO DEL VEHÍCULO. &lt;/li&gt; &lt;li&gt;&lt;b&gt;CERCA DEL OCEANO&lt;/b&gt; : siga las anteriores pautas hasta que se detengan los temblores. Luego, &lt;b&gt;DIRÍJASE A TIERRAS MÁS ALTAS&lt;/b&gt;. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;PREPARESE PARA LAS RÉPLICAS&lt;/b&gt; (los terremotos posteriores al principal, son comunes y pueden provocar más daños que el terremoto inicial). &lt;ul style='margin-top:0in' type=disc&gt; &lt;li&gt; Las líneas telefónicas estarán saturadas; &lt;b&gt;los mensajes de texto pueden ser una buena manera de comunicarse con los familiares.&lt;/b&gt; &lt;/li&gt; &lt;li&gt; Revísese usted y a otros en busca de lesiones. &lt;/li&gt; &lt;li&gt; Una vez que esté seguro, &lt;b&gt;consulte los informes de noticias&lt;/b&gt; mediante radios portátiles, televisión, redes sociales y alertas de texto de teléfonos celulares para acceder a información de emergencias. &lt;/li&gt; &lt;li&gt; Los equipos de respuesta a emergencias estarán ocupados. &lt;b&gt;Confíe en sus amigos y vecinos&lt;/b&gt; para el apoyo durante las horas y los días posteriores a un terremoto. &lt;/li&gt; &lt;li&gt;&lt;b&gt;Controle los servicios públicos si es necesario.&lt;/b&gt; Averigüe más acerca de cuándo y cómo &lt;a href="http://www.seattle.gov/emergency-management/preparedness/prepare-your-home" target="_blank"&gt;controlar el gas y el agua después de un terremoto&lt;/a&gt; . &lt;/li&gt; &lt;li&gt; Vea este &lt;a href="https://www.fema.gov/media-library/assets/videos/98767" target="_blank"&gt;video&lt;/a&gt; para aprender más acerca de qué hacer &lt;b&gt;DURANTE&lt;/b&gt; un terremoto y &lt;b&gt;DESPUÉS&lt;/b&gt;de este. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Morgan Junction Park Hub &lt;br /&gt;Ubicación del centro: Morgan Junction Park&amp;#44; &lt;br&gt;6413 California Ave SW&amp;#44; Seattle&amp;#44; WA 98118 &lt;br /&gt;Capitán del centro: Cindi Barker&lt;br /&gt;Correo electrónico: &lt;a href="mailto:cindiLbarker@gmail.com" target="_top"&gt;cindiLbarker@gmail.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206-933-6968&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/west-seattle/" target=_blank&gt;http://seattleemergencyhubs.org/west-seattle&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;North Highland Park Hub &lt;br /&gt;Ubicación del centro: The Highland Park Improvement Club &lt;br&gt;1116 SW Holden St&lt;br /&gt;Capitán del centro: se necesitan voluntarios.&lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar &lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;South Park Neighborhood Center &lt;br /&gt;Ubicación del centro: 8201 10th Ave S&lt;br /&gt;Capitán del centro: Dagmar Cronn&lt;br /&gt;Correo electrónico: &lt;a href="mailto:cronn@oakland.edu" target="_top"&gt;cronn@oakland.edu&lt;/a&gt;&lt;br /&gt;Teléfono:  206-327-1828&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt; &lt;br&gt;description: Meet by the blue box in the park&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Pigeon Point Hub &lt;br /&gt;Ubicación del centro: The intersection of 20th Ave SW &amp; SW Genesee St&amp;#44; Seattle&amp;#44; WA 98106 &lt;br&gt;NW corner of the Park&amp;#44; just north of the school.&lt;br /&gt;Capitán del centro: Wade Harper&lt;br /&gt;Correo electrónico: &lt;a href="mailto:wade.harper@outlook.com" target="_top"&gt;wade.harper@outlook.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206-455-5407&lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Hiawatha Playfield/Community Center (Admiral Hub) &lt;br /&gt;Ubicación del centro: California Ave SW &amp; SW Lander St&amp;#44; Seattle&amp;#44; WA 98116&lt;br /&gt;Capitán del centro: Paul Stancik&lt;br /&gt;Correo electrónico: &lt;a href="mailto:pstancik@mindspring.com" target="_top"&gt;pstancik@mindspring.com&lt;/a&gt;&lt;br /&gt;Teléfono: TBD &lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Fauntleroy Church Hub &lt;br /&gt;Ubicación del centro: Fauntleroy Church&amp;#44; 9140 California Ave SW&lt;br /&gt;Capitán del centro: Gordon Wiehler&lt;br /&gt;Correo electrónico:: &lt;a href="mailto:gmwinv@Comcast.net" target="_top"&gt;gmwinv@Comcast.net&lt;/a&gt;&lt;br /&gt;Teléfono: : 206-577-4292&lt;br /&gt;Página web:&lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org/&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Providence/Mount St. Vincent&amp;#44; parking lot (Fairmount Hub) &lt;br /&gt;Ubicación del centro: SW Hudson St &amp; 35th Ave SW&amp;#44; Seattle&amp;#44; WA 98126 &lt;br&gt; (meet at the SE parking lot under the flag pole )&lt;br /&gt;Capitán del centro: Sharonn Meeks&lt;br /&gt;Correo electrónico: &lt;a href="mailto:smeeks50@comcast.net" target="_top"&gt;smeeks50@comcast.net&lt;/a&gt;&lt;br /&gt;Teléfono:  206-938-1007&lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Neighborhood House (High Point Hub) &lt;br /&gt;Ubicación del centro: 6400 Sylvan Way SW (note that east of 35th Ave SW&amp;#44; SW Morgan Street becomes Sylvan Way SW). Neighborhood House is next to Lanham Place SW. Meet at the amphitheater. &lt;br /&gt;Capitán del centro: Heather Hutchison&lt;br /&gt;Correo electrónico: &lt;a href="mailto:heather.hutchison@manage" target="_top"&gt;heather.hutchison@manage&lt;/a&gt;&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Ercolini Park Hub &lt;br /&gt;Ubicación del centro: 48th Ave SW &amp; SW Alaska St.&amp;#44; in the park&lt;br /&gt;Capitán del centro: Jon Wright&lt;br /&gt;Correo electrónico:&lt;a href="mailto:ercolini@westseattlebeprepared.org" target="_top"&gt;ercolini@westseattlebeprepared.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar &lt;br /&gt;Página web: &lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;EC Hughes Playground (Olympic Heights Hub) &lt;br /&gt;Ubicación del centro: 29th Ave SW &amp; SW Holden St&amp;#44; Seattle&amp;#44; WA 98126&amp;#44; at the NE corner of Hughes Playground.&lt;br /&gt;Capitán del centro: se necesitan voluntarios.&lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar &lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Salvation Army&amp;#44; parking lot (South Highland Park Hub) &lt;br /&gt;Ubicación del centro: 9050 16th Ave SW (near SW Barton St.)&amp;#44; the Salvation Army parking lot is the gathering place for this hub.&lt;br /&gt;Capitán del centro: se necesitan voluntarios. &lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar &lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;North Delridge P-Patch Hub &lt;br /&gt;Ubicación del centro: the P-Patch&amp;#44; located at 5078 25th Ave SW&amp;#44; Seattle&amp;#44; WA&lt;br /&gt;Capitán del centro: Jay McNally&lt;br /&gt;Correo electrónico: &lt;a href="mailto:Newcarissa@gmail.com" target="_top"&gt;Newcarissa@gmail.com &lt;/a&gt;&lt;br /&gt;Teléfono:  206-484-6613&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Hope Lutheran Church (Alaska Junction Hub) &lt;br /&gt;Ubicación del centro: 4456 42nd Ave SW&amp;#44; Seattle&amp;#44; WA 98116&lt;br /&gt;Capitán del centro: se necesitan voluntarios.&lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar &lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Alki Community Center (Alki Hub) &lt;br /&gt;Ubicación del centro: 59th Ave SW &amp; SW Stevens St&amp;#44; Seattle&amp;#44; WA 98116. This is adjacent to Whale Tail Park&amp;#44; near the west edge of the playfield. North side of Alki Playfield&lt;br /&gt;Capitán del centro: Tony Fragada (98126)&lt;br /&gt;Correo electrónico: &lt;a href="mailto:tfragada@yahoo.com" target="_top"&gt;tfragada@yahoo.com&lt;/a&gt; &lt;br /&gt;Teléfono: aún por determinar &lt;br /&gt;Página web: &lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Maa Nyei Lai Ndeic P-Patch Hub &lt;br /&gt;Ubicación del centro: 4913 Columbia Dr S&amp;#44; Seattle&amp;#44; WA 98108&lt;br /&gt;Capitán del centro: Debbie Goetz&lt;br /&gt;Correo electrónico: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br /&gt;Teléfono:  206-684-0517&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Hillman City P-Patch Hub &lt;br /&gt;Ubicación del centro: 4613 S Lucile St&amp;#44; Seattle&amp;#44; WA 98118 (Corner of South Lucile &amp; 46th Ave South)&lt;br /&gt;Capitán del centro: Joanne Tilton&lt;br /&gt;Correo electrónico: &lt;a href="mailto:Jtilton22@comcast.net" target="_top"&gt;Jtilton22@comcast.net&lt;/a&gt;&lt;br /&gt;Teléfono:  206-650-2071&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Judkins P-Patch Hub &lt;br /&gt;Ubicación del centro: 24th Avenue S &amp; S Norman Street Seattle&amp;#44; WA 98112 (Meeting Location: P-Patch entrance off Norman &amp; 24th Ave S.)&lt;br /&gt;Capitán del centro: Jen Ellis&lt;br /&gt;Correo electrónico:   &lt;a href="mailto:JenniferEllis.206@gmail.com" target="_top"&gt;JenniferEllis.206@gmail.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206-276-4982&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Fisher Pavilion Hub &lt;br /&gt;Ubicación del centro: 2nd Ave N &amp; Thomas St&lt;br /&gt;Capitán del centro: MIQA Be Prepared&lt;br /&gt;Correo electrónico:  &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web:  &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Interbay Fishermen's Terminal Hub &lt;br /&gt;Ubicación del centro: Interbay Fishermen's Terminal&lt;br /&gt;Capitán del centro: MIQA Be Prepared&lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar &lt;br /&gt;Página web: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Eastlake Hub &lt;br /&gt;Ubicación del centro: Rogers Playfield&lt;br /&gt;Capitán del centro: Amy O'Donnell&lt;br /&gt;Correo electrónico:  &lt;a href="mailto:eastlake.hub@gmail.com" target="_top"&gt;eastlake.hub@gmail.com&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar &lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Madison Park Hub &lt;br /&gt;Ubicación del centro: 42nd Ave E and E Howe St (at the north side of tennis courts)&lt;br /&gt;Capitán del centro: John Madrid&lt;br /&gt;Correo electrónico:  &lt;a href="mailto:johnmadrid@hotmail.com" target="_top"&gt;johnmadrid@hotmail.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206-498-1880&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Sunrise P-Patch Hub &lt;br /&gt;Ubicación del centro: 33rd Ave S &amp; S Oregon St&amp;#44; Seattle&amp;#44; WA 98118&lt;br /&gt;Capitán del centro: Aaron Deitz&lt;br /&gt;Correo electrónico: &lt;a href="mailto:aarondietz@gmail.com" target="_top"&gt;aarondietz@gmail.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206-694-3966&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Snoqualmie P-Patch Hub &lt;br /&gt;Ubicación del centro: 4549 13th Ave S&amp;#44; Seattle&amp;#44; WA 98108&lt;br /&gt;Capitán del centro: Debbie Goetz&lt;br /&gt;Correo electrónico: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br /&gt;Teléfono:  206-684-0517&lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;New Holly Youth &amp; Family P-Patch Hub &lt;br /&gt;Ubicación del centro: 32nd Ave S &amp; S Brighton St&amp;#44; Seattle&amp;#44; WA 98118&lt;br /&gt;Capitán del centro: Debbie Goetz&lt;br /&gt;Correo electrónico: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br /&gt;Teléfono:  206-684-0517&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;New Holly Power P-Patch Hub &lt;br /&gt;Ubicación del centro: 7123 S Holly Park Dr&amp;#44; Seattle&amp;#44; WA 98118&lt;br /&gt;Capitán del centro: Debbie Goetz&lt;br /&gt;Correo electrónico: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br /&gt;Teléfono:  206-684-0517&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;New Holly Lucky Garden Hub &lt;br /&gt;Ubicación del centro: S Holly St &amp; Shaffer Ave S&lt;br /&gt;Capitán del centro: Contact Debbie Goetz&lt;br /&gt;Correo electrónico: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br /&gt;Teléfono:  206-684-0517&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;New Holly 29 P-Patch Hub &lt;br /&gt;Ubicación del centro: 29th Ave S &amp; S Brighton St&amp;#44; Seattle&amp;#44; WA 98108&lt;br /&gt;Capitán del centro: Contact Debbie Goetz&lt;br /&gt;Correo electrónico: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br /&gt;Teléfono:  206-684-0517&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;John C. Little P-Patch Hub &lt;br /&gt;Ubicación del centro: 6961 37th Ave S&amp;#44; Seattle&amp;#44; WA 98118&lt;br /&gt;Capitán del centro: Contact Debbie Goetz&lt;br /&gt;Correo electrónico: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br /&gt;Teléfono:  206-684-0517&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Dakota P-Patch Hub &lt;br /&gt;Ubicación del centro: 2902 S Dakota St&amp;#44; Seattle&amp;#44; WA 98108&lt;br /&gt;Capitán del centro: Contact Debbie Goetz&lt;br /&gt;Correo electrónico: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br /&gt;Teléfono:  206-684-0517&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Beacon Food Forest Hub &lt;br&gt; Hub Location:: 15th Ave S &amp; S Dakota St&lt;br /&gt;Capitán del centro: Contact Debbie Goetz&lt;br /&gt;Correo electrónico: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br /&gt;Teléfono:  206-684-0517&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Ethiopian Community in Seattle &lt;br /&gt;Ubicación del centro: 8323 Rainier Ave S (meet at main building)&lt;br /&gt;Capitán del centro: Kassa Kachara&lt;br /&gt;Correo electrónico:  &lt;a href="mailto:kabiso_kass@yahoo.com" target="_top"&gt;kabiso_kass@yahoo.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206-325-0304&lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Angel Morgan P-Patch (Angel Morgan Hub) &lt;br /&gt;Ubicación del centro: 3956 S Morgan St&amp;#44; Seattle&amp;#44; WA 98118 (The P Patch is located at 42nd Ave S &amp; S Morgan Street)&lt;br /&gt;Capitán del centro: Contact Debbie Goetz&lt;br /&gt;Correo electrónico: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br /&gt;Teléfono:  206-684-0517&lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Thistle P-Patch Hub &lt;br /&gt;Ubicación del centro: Martin Luther King Jr Way S &amp; S Cloverdale St&amp;#44; Seattle&amp;#44; WA 98118&lt;br /&gt;Capitán del centro: Contact Debbie Goetz&lt;br /&gt;Correo electrónico: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br /&gt;Teléfono:  206-684-0517&lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;New Holly Rockery &amp; Market Hub &lt;br /&gt;Ubicación del centro: S Holly Park Dr &amp; Rockery Dr S&amp;#44; Seattle&amp;#44; WA 98118&lt;br /&gt;Capitán del centro: Contact Debbie Goetz&lt;br /&gt;Correo electrónico: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br /&gt;Teléfono:  206-684-0517&lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Lakewood Seward Park Hub &lt;br /&gt;Ubicación del centro: Lakewood Seward Park Community Club - 4916 S. Angeline Street&lt;br /&gt;Capitán del centro: Aaron Evanson&lt;br /&gt;Correo electrónico:  &lt;a href="mailto:aaronevanson@gmail.com" target="_top"&gt;aaronevanson@gmail.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206.660.3822&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Rainier Beach Community Club Hub &lt;br /&gt;Ubicación del centro: Rainier Beach Community Club - VFW Hall &amp;#44; 6038 S. Pilgrim&amp;#44; Seattle  WA  98118&lt;br /&gt;Capitán del centro: Ron Angeles&lt;br /&gt;Correo electrónico:  &lt;a href="mailto:ranestoba@comcast.net" target="_top"&gt;ranestoba@comcast.net&lt;/a&gt;&lt;br /&gt;Teléfono:  206-721-5326 and 206-351-0813&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Queen Anne Bowl &lt;br /&gt;Ubicación del centro: 2806 3rd Ave W&lt;br /&gt;Capitán del centro: Chris Saether&lt;br /&gt;Correo electrónico: &lt;a href="mailto:csaether@msn.com" target="_top"&gt;csaether@msn.com&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Interbay Athletic Complex &lt;br /&gt;Ubicación del centro: 3027 17th Ave W&lt;br /&gt;Capitán del centro: MIQA Be Prepared&lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Magnolia Manor Park &lt;br&gt; Hub Location: 3500 28th Ave W&lt;br /&gt;Capitán del centro: MIQA Be Prepared&lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Magnolia Metropolitan Market&lt;br /&gt;Ubicación del centro: 3830 34th Ave W&lt;br /&gt;Capitán del centro: MIQA Be Prepared&lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;West Queen Anne Playfield Hub &lt;br /&gt;Ubicación del centro: 150 W Blaine St&lt;br /&gt;Capitán del centro: se necesitan voluntarios.&lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar &lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;West Magnolia Playfield Hub &lt;br /&gt;Ubicación del centro: 32nd Ave W &amp; W Smith St&amp;#44; South Playfield&amp;#44; Southwest corner&lt;br /&gt;Capitán del centro: Frank Gaul&lt;br /&gt;Correo electrónico:  &lt;a href="mailto:ftgaul@gmail.com" target="_top"&gt;ftgaul@gmail.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206-499-8690&lt;br /&gt;Página web: &lt;a href="http://www.miqabeprepared.org/" target=_blank&gt;http://www.miqabeprepared.org/&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Ballard Commons Hub &lt;br /&gt;Ubicación del centro: NW 57th &amp; 22nd Ave NW&lt;br /&gt;Capitán del centro: Colin Getty&lt;br /&gt;Correo electrónico:  &lt;a href="mailto:k7biowa@gmail.com" target="_top"&gt;k7biowa@gmail.com&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Lower Woodland Playfields Hub &lt;br /&gt;Ubicación del centro: Green Lake Way N &amp; N 50th St&lt;br /&gt;Capitán del centro: se necesitan voluntarios.&lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Ravenna Hub &lt;br&gt; Hub Location: 6535 Ravenna Ave NE (Ravenna-Eckstein Community Center parking lot)&lt;br /&gt;Capitán del centro: David Ward&lt;br /&gt;Correo electrónico:  &lt;a href="mailto:booksgalore22@gmail.com" target="_top"&gt;booksgalore22@gmail.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206-523-1161&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Victory Heights Hub &lt;br /&gt;Ubicación del centro: Victory Heights Park (1737 NE 106th St)&lt;br /&gt;Capitán del centro: Ann Forrest&lt;br /&gt;Correo electrónico:  &lt;a href="mailto:aaforrest@hotmail.com" target="_top"&gt;aaforrest@hotmail.com&lt;/a&gt;&lt;br /&gt;Teléfono:  (360)550-2234&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Epic Life Church Hub &lt;br /&gt;Ubicación del centro: Epic Life Church - 10503 Stone Ave N&amp;#44; Seattle&amp;#44; WA 98133&lt;br /&gt;Capitán del centro: Larry Chaney&lt;br /&gt;Correo electrónico:  &lt;a href="mailto:larry@epiclifechurch.org" target="_top"&gt;larry@epiclifechurch.org&lt;/a&gt;&lt;br /&gt;Teléfono:  425-218-8849&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Crown Hill Park Hub &lt;br /&gt;Ubicación del centro: NW 92nd &amp; 14th Ave NW&lt;br /&gt;Capitán del centro: Dennis Galvin&lt;br /&gt;Correo electrónico:  &lt;a href="mailto:short.harp@gmail.com" target="_top"&gt;short.harp@gmail.com&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Shilshole Marina Hub &lt;br /&gt;Ubicación del centro: Shilshole Marina&amp;#44; 7001 Seaview Ave NW&lt;br /&gt;Capitán del centro: Jim Doub&lt;br /&gt;Correo electrónico: &lt;a href="mailto:jim@portagebaymarine.com" target="_top"&gt;jim@portagebaymarine.com&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Loyal Heights Playfield Hub&lt;br /&gt;Ubicación del centro: NW 77th &amp;amp; 21st Ave NW (2101 NW 77th St&amp;#44; Loyal Heights CC basketball half court)&lt;br /&gt;Capitán del centro: Cheryl Dyer&lt;br /&gt;Correo electrónico: &lt;a href="mailto:cheryldy@msn.com" target="_top"&gt;cheryldy@msn.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206-784-3724&lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Kirke Park Hub&lt;br /&gt;Ubicación del centro: 7028 9th Ave NW&lt;br /&gt;Capitán del centro: Hugh Kelso&lt;br /&gt;Correo electrónico: &lt;a href="mailto:HKelso@mac.com" target="_top"&gt;HKelso@mac.com&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Gilman Park Hub &lt;br /&gt;Ubicación del centro: NW 54th &amp;amp; 9th Ave NW&lt;br /&gt;Capitán del centro: Linda Frank&lt;br /&gt;Correo electrónico: &lt;a href="mailto:lindabfrank@gmail.com" target="_top"&gt;lindabfrank@gmail.com&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Ross Playground Hub &lt;br /&gt;Ubicación del centro: 4320 4th Ave NW&lt;br /&gt;Capitán del centro: Leslie Matthis&lt;br /&gt;Correo electrónico: &lt;a href="mailto:leslie.matthis@gmail.comv" target="_top"&gt;leslie.matthis@gmail.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206.783.1500&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Phinney Neighborhood Center Hub &lt;br /&gt;Ubicación del centro: Phinney Neighborhood Center: 6532 Phinney Avenue North&amp;#44; Seattle&amp;#44; WA  98103 (Meeting Place: Phinney Center upper parking area)&lt;br /&gt;Capitán del centro: David Baum&lt;br /&gt;Correo electrónico: &lt;a href="mailto:phinneyhub@gmail.com" target="_top"&gt;phinneyhub@gmail.com &lt;/a&gt;&lt;br /&gt;Teléfono:  206-913-1021&lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Meridian Playfield/Good Shepherd Center Hub &lt;br /&gt;Ubicación del centro: 4649 Sunnyside Ave. N&lt;br /&gt;Capitán del centro: Brian Shapiro&lt;br /&gt;Correo electrónico: &lt;a href="mailto:bshapiro@objectarts.net" target="_top"&gt;bshapiro@objectarts.net&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;History House of Greater Seattle Hub &lt;br /&gt;Ubicación del centro: 790 N 34th St&lt;br /&gt;Capitán del centro: se necesitan voluntarios.&lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Greenwood Senior Center Hub &lt;br /&gt;Ubicación del centro: Greenwood Senior Center: 525 N 85th  Street&amp;#44; Seattle&amp;#44; WA  98103&lt;br /&gt;Capitán del centro: Kelly Kasper&lt;br /&gt;Correo electrónico: &lt;a href="mailto:kelly@ht2consulting.com" target="_top"&gt;kelly@ht2consulting.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206-397-4283&lt;br&gt;Co-Captain: Noel Frame&lt;br&gt;Co-Captain Email: &lt;a href="mailto:noel@noelframe.com" target="_top"&gt;noel@noelframe.com&lt;/a&gt; &lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Green Lake Playfield &amp; Community Center Hub &lt;br /&gt;Ubicación del centro: 7201 Green Lake Dr N&lt;br /&gt;Capitán del centro: se necesitan voluntarios.&lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Bagley Elementary Hub &lt;br /&gt;Ubicación del centro: 7821 Stone Ave N&lt;br /&gt;Capitán del centro: se necesitan voluntarios.&lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br /&gt;Teléfono: aún por determinar&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Maple Leaf Park Hub &lt;br /&gt;Ubicación del centro: 1020 NE 82nd St&lt;br /&gt;Capitán del centro: Lori Phipps&lt;br /&gt;Correo electrónico: &lt;a href="mailto:lphipps01@gmail.com" target="_top"&gt;lphipps01@gmail.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206-947-0309&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Hunter Farm Hub &lt;br /&gt;Ubicación del centro: 7730 35th Ave NE&lt;br /&gt;Capitán del centro: se necesitan voluntarios.&lt;br /&gt;Correo electrónico: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br /&gt;Página web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;University Heights Center &lt;br /&gt;Ubicación del centro: NE 50th Street and University Way NE&lt;br /&gt;Capitán del centro: Ray Munger&lt;br /&gt;Correo electrónico: &lt;a href="mailto:ray@uheightscenter.org" target="_top"&gt;ray@uheightscenter.org&lt;/a&gt;&lt;br /&gt;Teléfono:  206-527-4278&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Lake City Way SR 522/Fred Meyer Hub &lt;br /&gt;Ubicación del centro: 13000 Lake City Way NE (SE corner of lower parking lot)&lt;br /&gt;Capitán del centro: Sandy Motzer (98125)&lt;br /&gt;Correo electrónico: &lt;a href="mailto:sandymotzer@aol.com" target="_top"&gt;sandymotzer@aol.com&lt;/a&gt;&lt;br /&gt;Teléfono:  206-819-8056&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Luther Memorial Lutheran Church Hub &lt;br /&gt;Ubicación del centro: 13047 Greenwood Ave N&lt;br /&gt;Capitán del centro: Dale Johnson&lt;br /&gt;Correo electrónico: &lt;a href="mailto:dalerayjohnson@comcast.net" target="_top"&gt;dalerayjohnson@comcast.net&lt;/a&gt;&lt;br /&gt;Teléfono:  206-362-2980&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Grace Lutheran Church Hub &lt;br&gt; Hub Location: 11051 Phinney Ave N (Greenwood Avenue N &amp; N 112th Street)&lt;br /&gt;Capitán del centro: Dale Johnson&lt;br /&gt;Correo electrónico: &lt;a href="mailto:dalerayjohnson@comcast.net" target="_top"&gt;dalerayjohnson@comcast.net&lt;/a&gt;&lt;br /&gt;Teléfono:  206-362-2980&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Desde 1870, 15 grandes terremotos (superiores a magnitud 5) sacudieron al Estado de Washington. Las historias de los nativos también cuentan acerca de un gran terremoto (superior a magnitud 8) y el tsunami que le siguió en 1700.&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/historical_EQs2.jpg" alt="This is an Image showing the sizes of historical earthquakes in Washington. It shows a magnitude(M) 6.5 in 1949 which is 316 times smaller than M9&amp;#44; M6.9 in 2001 which is 160 times smaller than M9&amp;#44; M7.1 in 1965 which is 79 times smaller than M9&amp;#44; and M9 in 1700." title="Relative sizes of notable earthquakes in Washington State"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Hay muchas posibilidades de inundaciones aquí. Está emplazada en la llanura aluvial de 100 años.&lt;/b&gt; Esto significa que hay un 25% de probabilidades de que las aguas de inundaciones lleguen aquí en los próximos 30 años &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Hay muchas posibilidades de inundaciones aquí.&lt;/b&gt; Está emplazada en la llanura aluvial de 100 años. Esto significa que hay un 25% de probabilidades de que las aguas de inundaciones lleguen aquí en los próximos 30 años &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Las inundaciones son poco probables aquí.&lt;/b&gt; Los niveles de agua pueden aumentar ligeramente durante inundaciones o fuertes tormentas. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Las inundaciones son poco probables aquí.&lt;/b&gt; Los niveles de los embalses pueden aumentar ligeramente durante inundaciones o fuertes tormentas. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Los puentes pueden ser inseguros en caso de inundaciones.&lt;/b&gt; Si sospecha que un puente puede estar afectado, tenga cuidado e infórmelo al Centro de Advertencias de Inundaciones (Flood Warning Center) llamando al 206-296-8200 o al 800-945-9263. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Esto es fuera de las áreas con alto riesgo de inundaciones&amp;gt;&lt;/b&gt; &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Sin embargo, si vive cerca de un arroyo o un pequeño río, tenga en cuenta que también se puede inundar. Consulte el &lt;a href="http://www.kingcounty.gov/depts/dnrp/wlr/sections-programs/river-floodplain-section.aspx" target="_blank"&gt;sitio web de Gestión de Ríos y Llanuras Aluviales&lt;/a&gt;  para obtener más información.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Esta área se ha inundado en el pasado cuando grandes tormentas golpearon a Seattle.&lt;/b&gt; Podría pasar nuevamente si otra gran tormenta provoca acumulación del agua y el drenaje es insuficiente. Desplácese hacia abajo para ver cómo prepararse. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;La lluvia, el deshielo o ambas causan rápido aumento del nivel de agua. Las aguas de inundaciones superan las orillas de los ríos, llegan a los vecindarios y afectan los caminos. &lt;b&gt;Esta área está en la llanura aluvial de 500 años demarcada y se inundará.&lt;/b&gt; Hay 6% de posibilidades de que verá una inundación de esta magnitud en los próximos 30 años. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;p&gt;La lluvia, el deshielo o ambas causan rápido aumento del nivel de agua. Las aguas de inundaciones superan las orillas de los ríos, llegan a los vecindarios y afectan los caminos. &lt;b&gt;Esta área está en la llanura aluvial de 500 años demarcada y se inundará.&lt;/b&gt; Hay 6% de posibilidades de que verá una inundación de esta magnitud en los próximos 30 años. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt; &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los arroyos, riachuelos y ríos cercanos se están inundando. Esto hace que algunos caminos sean intransitables &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Es poco probable que esta área se inunde.&lt;/b&gt; Las grandes tormentas pueden provocar que los arroyos, riachuelos y ríos cercanos suban de nivel. Las lluvias torrenciales pueden crear charcos de agua inmóvil en las calles. Si ve una inundación localizada llame al Centro de Advertencias de Inundaciones del Condado King al 206-296-8200 o al 800-945-9263. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Esta área es propensa a inundaciones urbanas.&lt;/b&gt; Mientras más grande la tormenta, mayor la inundación que verá cerca de esta área. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene grandes posibilidades de que el río Cedar la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene grandes posibilidades de que el río Green la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene grandes posibilidades de que el río Raging la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene grandes posibilidades de que el río Snoqualmie la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene grandes posibilidades de que el río Tolt la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene posibilidades moderadas de que el río Cedar la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene posibilidades moderadas de que el río Green la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene posibilidades moderadas de que el río Raging la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene posibilidades moderadas de que el río Snoqualmie la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene posibilidades moderadas de que el río Tolt la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene pocas posibilidades de que el río Green la atraviese en el futuro. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene pocas posibilidades de que el río Snoqualmie la atraviese en el futuro. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene pocas posibilidades de que el río Tolt la atraviese en el futuro. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. &lt;b&gt;Aquí no hicieron estudios para determinar si el río tiene posibilidades de trasladarse con el paso del tiempo, pero tenga en cuenta que es posible.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Esto es dentro del actual canal del río. Con el tiempo, la ubicación del canal puede cambiar. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Las fallas de represas son muy infrecuentes. Sin embargo, si la &lt;a href="https://goo.gl/maps/X2HGtZX6Kyz" target="_blank"&gt;Represa George Culmback&lt;/a&gt; o la &lt;a href="https://goo.gl/maps/DpotpRjYDvG2" target="_blank"&gt;Represa Tolt River&lt;/a&gt; fallaran, esta área se podría inundar &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.</t>
+  </si>
+  <si>
+    <t>Las fallas de represas son muy infrecuentes. Sin embargo, si la &lt;a href="https://goo.gl/maps/RMaHnAY8RCp" target="_blank"&gt;Represa Lake Youngs&lt;/a&gt; fallara, esta área tendría riesgo de inundación &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.</t>
+  </si>
+  <si>
+    <t>Las fallas de represas son muy infrecuentes. Sin embargo, si la &lt;a href="https://goo.gl/maps/RMaHnAY8RCp" target="_blank"&gt;Represa Lake Youngs&lt;/a&gt; fallara, esta área tendría un riesgo moderado de inundación &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.</t>
+  </si>
+  <si>
+    <t>Las fallas de represas son muy infrecuentes. Sin embargo, si la &lt;a href="https://goo.gl/maps/RMaHnAY8RCp" target="_blank"&gt;Represa Lake Youngs&lt;/a&gt; fallara, esta área tendría un alto riesgo de inundación &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente. Las fallas de represas son muy infrecuentes.</t>
+  </si>
+  <si>
+    <t>Las fallas de represas son muy infrecuentes. Sin embargo, si la &lt;a href="https://goo.gl/maps/DpotpRjYDvG2" target="_blank"&gt;Represa Tolt River&lt;/a&gt; fallara, esta área se podría inundar &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.</t>
+  </si>
+  <si>
+    <t>Se espera que las grandes tormentas aumenten en los próximos 50 años. Vendrán acompañadas de lluvia y nieve. Los ríos tendrán mayores caudales, lo que provocará mayores inundaciones en el otoño e invierno. Haga clic en la imagen para obtener más información.&lt;br /&gt;&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Rivers.jpg" alt="Climate Change Rivers Infographic"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>¿Ha estado lloviendo intensamente o durante muchos días? ¿El aumento de la temperatura causó un rápido deshielo en las montañas? ¿Parecen altos los niveles del agua en los ríos locales? Las posibilidades de inundación podrían estar en aumento. Consulte los informes de noticias del servicio meteorológico para ver si hay alertas locales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;ol&gt; &lt;li&gt;&lt;b&gt;PLANIFIQUE&lt;/b&gt;: haga un plan de qué hacer y dónde ir si el nivel del agua aumenta. &lt;b&gt;Tenga listos los artículos esenciales&lt;/b&gt; (certificados de nacimiento, documentos importantes, fotografías, etc.). Contrate un seguro contra inundaciones si lo necesita. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PREPÁRESE:&lt;/b&gt; guarde los objetos valiosos y los productos químicos caseros por encima de los niveles de inundaciones y &lt;b&gt;aprenda a cortar los servicios públicos&lt;/b&gt; ( &lt;a href="http://www.seattle.gov/emergency-management/preparedness/prepare-your-home" target="_blank"&gt;agua, gas y electricidad&lt;/a&gt; ). &lt;/li&gt; &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;ESTÉ LISTO&lt;/b&gt; : reúna artículos de emergencia (prendas abrigadas, linternas, teléfonos celulares, radios portátiles, etc.). Si tiene tiempo y lo considera necesario, corte los servicios públicos. &lt;/li&gt; &lt;li&gt;&lt;b&gt;ESCUCHE:&lt;/b&gt; escuche las noticias y, si lo recomiendan, evacúe hacia tierras más altas. &lt;/li&gt; &lt;li&gt;&lt;b&gt;EVITE PELIGROS - NO vadee ni maneje a través de aguas de inundaciones.&lt;/b&gt; Solo se necesitan 6 pulgadas de agua en movimiento para derribarlo y 2 pies para arrastrar un auto. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt; Si su casa se inundó, &lt;b&gt;tenga cuidado al ingresar nuevamente, ya que podría tener daños estructurales.&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;Haga que un profesional controle los servicios públicos&lt;/b&gt; antes de volver a conectarlos. &lt;/li&gt; &lt;li&gt;&lt;b&gt;Documente las pérdidas&lt;/b&gt;tomando fotos de los daños y registrando los costos de reparaciones. &lt;/li&gt; &lt;li&gt; Obtenga más información &lt;a href="http://www.kingcounty.gov/services/environment/water-and-land/flooding/prepare.aspx" target="_blank"&gt;&lt;b&gt; aquí&lt;/b&gt;&lt;/a&gt; . &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Russell Road Park &lt;br&gt; entre Russell Rd. y S. 240th St.&lt;br&gt; Kent&amp;#44; WA&amp;#44; 98032 &lt;br&gt;Solo retiro de arena (no hay bolsas de arena).&lt;br&gt; L. a V. 8:00 am - 4:00 pm &lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt;Public Works Shops &lt;br&gt;1155 East North Bend Way &lt;br&gt; North Bend&amp;#44; WA 98045&lt;br&gt; Sandbag and sand pickup* &lt;br&gt; *Following flood announcement for Snoqualmie River&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; 33100 NE 45th Street &lt;br&gt; Carnation&amp;#44; WA 98014 &lt;br&gt;L. a V. 8:00am - 4:30pm &lt;br&gt;sandbags and sand can be picked up here (supplies are limited) &lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Meadowbrook Community Center&lt;br&gt;10517 35th Ave. NE &lt;br&gt; Seattle&amp;#44; WA 98125&lt;br&gt;Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; 1305 C St. SW &lt;br&gt; Auburn&amp;#44; WA 98001&lt;br&gt; L. a V. 6:30am - 4:00pm&lt;br&gt;sandbag and sand pickup are available by request &lt;br&gt;(call 253-931-3048)&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;.</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Kent City Public Works&lt;br&gt; 5821 S. 240th St. &lt;br&gt; Kent&amp;#44; WA 98032&lt;br&gt; L. a V. 8:00am - 4:00pm &lt;br&gt;sandbags can be picked up here (sand not provided).&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Tahoma School District &lt;br&gt; 23015 SE 216th Way&lt;br&gt; Maple Valley&amp;#44; WA 98038&lt;br&gt; 8:00am - 5:00pm (or until dusk)*&lt;br&gt;*When Cedar River flooding is likely sandbag and sand pickup will be available&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Pacific City Park &lt;br&gt; 600 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047&lt;br&gt;Sandbag and sand pickup will be announced when White River flooding is imminent&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Pacific/Algona Community Center &lt;br&gt; 100 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047 &lt;br&gt;Sandbag and sand pickup will be announced when White River flooding flooding is imminent.&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; City Property @ &lt;br&gt; Railroad Avenue SE and SE King Street &lt;br&gt; Snoqualmie&amp;#44; WA 98065&lt;br&gt;Sandbag and sand pickup*&lt;br&gt;*Announced when Snoqualmie River flooding is imminent &lt;br&gt;or as directed by emergency personnel&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Preston-Snoqualmie Trail parking lot &lt;br&gt; Lake Alice Road SE and SE 56th Place &lt;br&gt; Fall City&amp;#44; WA 98024&lt;br&gt;Sandbag and sand pickup*&lt;br&gt; *Announced when Snoqualmie River flooding is imminent&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; 14701 Main St. NE &lt;br&gt; Duvall&amp;#44; WA 98019&lt;br&gt; Sandbag and sand pickup*&lt;br&gt;*Announced when flooding is imminent &lt;br&gt;or contact the City of Duvall&amp;#44; 425-788-3332&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Haller Lake Neighborhood &lt;br&gt; 12551 Ashworth Ave N.&lt;br&gt; Seattle&amp;#44; WA 98133&lt;br&gt;Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; South Park Neighborhood &lt;br&gt; 731 S. Sullivan &lt;br&gt; Seattle&amp;#44; WA 98108&lt;br&gt;Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Delridge Community Center &lt;br&gt; 4501 Delridge Way SW &lt;br&gt; Seattle&amp;#44; WA 98106&lt;br&gt; Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Debido a la gran cantidad de ríos en el Condado King, las inundaciones son comunes durante períodos de lluvias torrenciales o rápidos deshielos. &lt;b&gt;Las inundaciones son más frecuentes de noviembre a febrero&lt;/b&gt;, pero pueden suceder cada vez que las condiciones sean las correctas.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Esta área tiene una pendiente leve y es menos probable que tenga deslizamientos de tierra aquí.&lt;/b&gt; Los deslizamientos de tierra tienden a ocasionarse cuando la superficie está húmeda debido a mucha lluvia o a los movimientos de tierra causados por los terremotos. Desplácese hacia abajo para ver eventos históricos, consulte si en su área se registró algún deslizamiento de tierra. ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg" target="_blank"&gt;mapa&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Debido a las pendientes más pronunciadas, esta área tiene mayores posibilidades de deslizamientos de tierra superficiales aquí.&lt;/b&gt; Los deslizamientos de tierra tienden a ocasionarse cuando la superficie está húmeda debido a mucha lluvia o a los movimientos de tierra causados por los terremotos. Desplácese hacia abajo hasta eventos históricos para ver si se registró alguna actividad de deslizamiento de tierra en su área. ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg" target="_blank"&gt;mapa&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Es poco probable que vea un deslizamiento aquí, pero podría ver uno en pendientes pronunciadas cercanas si las condiciones son las correctas.&lt;/b&gt; Esté atento a las áreas inestables. Especialmente los caminos que hayan sido bloqueados por escombros caídos o arrastrados. &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;¿Las pendientes pronunciadas cercanas no tienen vegetación? ¿Ha estado lloviendo durante días? &lt;b&gt;Si la respuesta es afirmativa, las pendientes pronunciadas hacen que sea más probable un deslizamiento de tierra aquí.&lt;/b&gt; Esté atento a las áreas inestables. Especialmente los caminos que hayan sido bloqueados por escombros caídos o arrastrados. &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los deslizamientos de tierra generalmente suceden a lo largo de acantilados costeros debido a las olas golpeando la costa. &lt;b&gt;El agua de Puget Sound ha aumentado ocho pulgadas desde 1913.&lt;/b&gt; Con niveles de agua más altos, aumentan las posibilidades de erosión del acantilado. La lluvia excesiva de fuertes tormentas también puede debilitar las pendientes pronunciadas provocando más deslizamientos de tierra en el Condado King. Haga clic en la imagen para obtener más información.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>¿Escucha sonidos de maderas crujiendo, rocas golpeándose entre sí, el suelo gimiendo? ¿Ve grietas en el paisaje y deslizamiento de tierra, rocas y vegetación por una pendiente? Esto podría ser un deslizamiento de tierra. Vaya a un terreno estable.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt; &lt;li&gt;&lt;b&gt;EVALÚE:&lt;/b&gt; si el área alrededor de su hogar pudiera estar propensa a deslizamientos de tierra &lt;b&gt;pida asesoría a expertos geotécnicos&lt;/b&gt;. Ellos pueden evaluar el peligro de deslizamientos de tierra o diseñar técnicas correctivas para reducir el riesgo de deslizamiento de tierra. &lt;/li&gt; &lt;li&gt;&lt;b&gt;REDUZCA EL RIESGO:&lt;/b&gt; plante capas vegetales en pendientes o construya un muro de retención para &lt;b&gt;estabilizar laderas.&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;PREPÁRESE:&lt;/b&gt; &lt;b&gt;haga un kit de suministros y un plan familiar&lt;/b&gt; designando al menos dos rutas de evacuación. &lt;/li&gt; &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Su mejor protección es mantenerse fuera del recorrido de un deslizamiento de tierra o un flujo de escombros.&lt;/b&gt; El Estudio Geológico de EE.&amp;nbsp;UU. también recomendó lo siguiente: &lt;ul&gt; &lt;li&gt;&lt;b&gt;MANTÉNGASE ALERTA: preste atención a sonidos inusuales.&lt;/b&gt; Las lluvias intensas y cortas pueden ser particularmente peligrosas, especialmente después de largos períodos de lluvias torrenciales y clima húmedo. &lt;/li&gt; &lt;li&gt;&lt;b&gt;CONSIDERE IRSE:&lt;/b&gt; si está en un área propensa a deslizamientos de tierra y flujos de escombros, considere irse, si es seguro hacerlo. Si decide quedarse en casa, vaya a un segundo piso, si es posible. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PRESTE ATENCIÓN A LOS NIVELES DE ARROYOS:&lt;/b&gt; si está cerca de un arroyo o canal, &lt;b&gt;esté atento a cualquier aumento o disminución de la corriente y todo cambio de agua clara a lodosa.&lt;/b&gt; Esto podría ser un indicador de actividad de deslizamiento de tierras aguas arriba. ¡NO SE DEMORE! Sálvese usted, no sus pertenencias. &lt;/li&gt; &lt;/ul&gt;Puede encontrar más consejos sobre deslizamientos de tierra en USGS &lt;a href="http://landslides.usgs.gov/learn/prepare.php" target="_blank"&gt;aquí&lt;/a&gt; . &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Landslide_during.jpg" alt="This is a panel of three cartoon images showing what to do during a landslide if indoors, near slide, or in slide"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;ESTÉ PREPARADO PARA LAS INUNDACIONES (los deslizamientos de tierra con frecuencia bloquean los ríos y pueden provocar que los ríos retrocedan e inunden).&lt;/b&gt;&lt;ul&gt; &lt;li&gt; Manténgase lejos del deslizamiento. Pueden ocurrir otros deslizamientos después del deslizamiento principal. &lt;/li&gt; &lt;li&gt; Una vez que esté seguro, revise si hay personas heridas o atrapadas. &lt;/li&gt; &lt;li&gt; Revise si hay líneas de servicios públicos dañadas e informe todo daño a su empresa de servicios públicos. &lt;/li&gt; &lt;li&gt; Escuche los medios locales o la radio meteorológica de la NOAA para acceder a información actualizada. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Para obtener más información, ingrese a la página del Departamento de Recursos Naturales sobre &lt;a href="http://www.dnr.wa.gov/programs-and-services/geology/geologic-hazards/landslides#some-historic-landslides-in-washington-state" target="_blank"&gt;deslizamientos de tierra&lt;/a&gt;  y &lt;a href="http://file.dnr.wa.gov/publications/ger_fs_landslide_hazards.pdf" target="_blank"&gt;peligros de deslizamientos de tierra&lt;/a&gt; . Para ver los deslizamientos de tierra en su vecindario, consulte la información disponible de Seattle y el Condado King.&lt;/p&gt;&lt;p&gt;&lt;a href="http://www.kingcounty.gov/services/environment/water-and-land/landslides.aspx"&gt;Condado King&lt;/a&gt; &lt;br&gt; &lt;a href="http://www.seattle.gov/dpd/aboutus/whoweare/emergencymanagement/"&gt;Ciudad de Seattle&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;No se han identificado deslizamientos de tierra aquí&lt;/b&gt; ( &lt;a href="http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en" target="_blank"&gt;Informe de 2016&lt;/a&gt;). Los deslizamientos de tierra son más comunes en pendientes sin vegetación y pronunciadas, donde se unen los drenajes. Si vive debajo de un área como esta, tenga en cuenta sus riesgos ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt;). Para analizar las capas de datos en mayor detalle, ingrese al &lt;a href="https://gismaps.kingcounty.gov/iMap/" target="_blank"&gt; iMap del Condado King&lt;/a&gt; (asegúrese de que los deslizamientos de tierra estén tildados en la leyenda).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Los científicos no han identificado ningún deslizamiento de tierra aquí.&lt;/b&gt;&lt;span lang=ES style='font-size:11.0pt;font-family: Calibri;color:black'&gt; Para obtener más información consulte el &lt;a href="http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf"&gt;Informe de 2016&lt;/a&gt; &lt;span lang=ES style='font-size:11.0pt;font-family:Calibri;color:black'&gt;&amp;nbsp;y el &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg"&gt;mapa&lt;/a&gt; &lt;span lang=ES style='font-size:11.0pt;font-family:Calibri;color:black'&gt;. Para analizar las capas de datos en mayor detalle, ingrese al &lt;a href="https://gismaps.kingcounty.gov/iMap/"&gt;&lt;span style='font-size:11.0pt; font-family:Calibri'&gt;iMap del Condado King&lt;/a&gt; &lt;span lang=ES style='font-size:11.0pt;font-family:Calibri;color:black'&gt; (asegúrese de que los deslizamientos de tierra estén tildados en la leyenda).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;No se han identificado deslizamientos de tierra aquí&lt;/b&gt; según un estudio de 1995 sobre deslizamientos en la ciudad de &lt;span style='color:black'&gt;Seattle ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt; &lt;span lang=ES style='font-size:11.0pt;font-family:Calibri;color:black'&gt;).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;No se ha realizado ningún estudio aquí&lt;/b&gt;para identificar si hubo deslizamientos de tierra históricos &lt;span style='color:black'&gt;( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt;).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;En algún momento del pasado &lt;b&gt;HUBO UN DESLIZAMIENTO DE TIERRA AQUÍ&lt;/b&gt;&lt;span style='color:black'&gt;( &lt;a href="http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf"&gt;Informe de 2016&lt;/a&gt; ) y ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt; ). Los deslizamientos históricos pueden o no indicar la posibilidad de futuros deslizamientos. Para descubrir si aún hay riesgo, un consultor geotécnico debe realizar una evaluación específica del sitio. Para analizar las capas de datos en mayor detalle, ingrese al &lt;a href="https://gismaps.kingcounty.gov/iMap/" target="_blank"&gt; iMap del Condado King&lt;/a&gt;  (asegúrese de que los deslizamientos de tierra estén tildados en la leyenda).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;En algún momento del pasado &lt;b&gt;HUBO UN DESLIZAMIENTO DE TIERRA AQUÍ&lt;/b&gt; &lt;span style='color:black'&gt;( &lt;a href="http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf"&gt;Informe de 2016&lt;/a&gt; ) y ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt; ). Los deslizamientos históricos pueden o no indicar la posibilidad de futuros deslizamientos. Para descubrir si aún hay riesgo, un consultor geotécnico debe realizar una evaluación específica del sitio. Para analizar las capas de datos en mayor detalle, ingrese al &lt;a href="https://gismaps.kingcounty.gov/iMap/" target="_blank"&gt; iMap del Condado King&lt;/a&gt;  (asegúrese de que los deslizamientos de tierra estén tildados en la leyenda).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;En algún momento del pasado &lt;b&gt;HUBO UN DESLIZAMIENTO DE TIERRA y AVALANCHA DE ROCAS AQUÍ&lt;/b&gt;&lt;span style='color:black'&gt;( &lt;a href="http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf"&gt;Informe de 2016&lt;/a&gt; ) y ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt; ). Los deslizamientos históricos pueden o no indicar la posibilidad de futuros deslizamientos. Para descubrir si aún hay riesgo, un consultor geotécnico debe realizar una evaluación específica del sitio. Analice las capas de datos en mayor detalle, en el &lt;a href="https://gismaps.kingcounty.gov/iMap/" target="_blank"&gt;&amp;nbsp;iMap del Condado King&lt;/a&gt;  (asegúrese de que los deslizamientos de tierra estén tildados en la leyenda).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;En algún momento del pasado &lt;b&gt;HUBO UNA AVALANCHA DE ROCAS AQUÍ&lt;/b&gt;&lt;span style='color:black'&gt;( &lt;a href="http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf"&gt;Informe de 2016&lt;/a&gt; ) y ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt; ). Los deslizamientos históricos pueden o no indicar la posibilidad de futuros deslizamientos. Para descubrir si aún hay riesgo, un consultor geotécnico debe realizar una evaluación específica del sitio. Analice las capas de datos en mayor detalle, en el &lt;a href="https://gismaps.kingcounty.gov/iMap/" target="_blank"&gt;&amp;nbsp;iMap del Condado King&lt;/a&gt;  (asegúrese de que los deslizamientos de tierra estén tildados en la leyenda).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;AQUÍ HUBO UN DESLIZAMIENTO DE TIERRA&lt;/b&gt; según un estudio de 1995 sobre deslizamientos en la ciudad de &lt;span style='color:black'&gt;Seattle ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt; ). Los deslizamientos históricos pueden o no indicar la posibilidad de futuros deslizamientos. Para descubrir si aún hay riesgo, un consultor geotécnico debe realizar una evaluación específica del sitio.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Esta es una comunidad con muy alto riesgo de incendios forestales.&lt;/b&gt; Se encuentra en un límite entre seres humanos y el bosque. Washington Occidental es templado, pero los incendios forestales sí azotan la parte oriental del Condado King cada año. &lt;a href="https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Esta es una comunidad con alto riesgo de incendios forestales.&lt;/b&gt; Se encuentra en un límite entre seres humanos y el bosque. Washington Occidental es templado, pero los incendios forestales sí azotan la parte oriental del Condado King cada año. &lt;a href="https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Esta área no se ha identificado como de alto riesgo de incendios forestales,&lt;/b&gt; pero está a media milla de una comunidad con alto riesgo. Bajo las condiciones correctas, el incendio forestal se puede extender. &lt;a href="https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Debido a que esto es agua, no existe la posibilidad de incendios forestales aquí.&lt;/b&gt; &lt;a href="https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Podría sufrir un importante incendio forestal aquí.&lt;/b&gt; Avanzará con rapidez, con grandes llamas y puede cambiar de dirección rápidamente. Podría tomarle a los bomberos días o semanas controlarlo. El HUMO de incendios forestales distantes puede recorrer grandes distancias y puede ser un factor, incluso si nada se está quemando en el área. Consulte su calidad del aire local &lt;a href="http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx" target="_blank"&gt;aquí&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Es improbable, pero si vive cerca de una zona forestal, puede sufrir un incendio forestal.&lt;/b&gt; El HUMO de incendios forestales distantes puede recorrer grandes distancias y puede ser un factor, incluso si nada se está quemando en el área. Consulte su calidad del aire local &lt;a href="http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx" target="_blank"&gt;aquí&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;La cantidad de &lt;b&gt;incendios forestales en el noroeste del Pacífico ya aumentó significativamente en las últimas décadas.&lt;/b&gt; Esta tendencia es probable que continúe con veranos más secos y con más tormentas (piense en los rayos que inician incendios). Grandes áreas de bosques pueden quemarse y enviar humo a la atmósfera. Haga clic en la imagen para obtener más información.&lt;BR /&gt;&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Forests.jpg" alt="Climate Change Forest Infographic"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;¿Huele o ve humo? ¿Ha sido una temporada de clima seco? Podría ser un incendio forestal. Aléjese de incendios activos y, si ve que se inicia uno, llame al 9-1-1 para informarlo.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;HAGA LUGAR&lt;/b&gt;: proteja las vidas y los bienes creando un &lt;b&gt;espacio adaptado para los incendios alrededor de su casa&lt;/b&gt;, cobertizo y negocio. Para descubrir cómo hacerlo, ingrese a &lt;a href="http://www.firewise.org/wildfire-preparedness.aspx" target="_blank"&gt;firewise.org&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;OBSERVE EL CLIMA:&lt;/b&gt; unos pocos días soleados pueden secar los bosques lo suficiente para que se incendien. Las condiciones ventosas pueden provocar que los incendios forestales se salgan de control rápidamente. &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Firewise_Brochure.jpg" alt="his is an image of ways to prevent wildfire around your home. They include screening decks, pruning trees 6-10 feet from the ground, using fire-resistant wall and roof materials, keeping plants watered, and making sure your driveway can accommodate an emergency vehicle"&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;MANTÉNGASE INFORMADO:&lt;/b&gt; escuche las alertas de emergencias locales en la radio o la televisión y esté listo para evacuar si fuera necesario. &lt;/li&gt; &lt;li&gt;&lt;b&gt;ELIMINE LOS ELEMENTOS INFLAMABLES:&lt;/b&gt; quite los materiales de su propiedad y alrededor de esta que pudieran prenderse fuego (sillas de patio, mesas, etcétera). &lt;/li&gt; &lt;li&gt;&lt;b&gt;PREPARE SU CASA:&lt;/b&gt; - traslade los muebles tapizados lejos de las ventanas. Cierre puertas y ventanas, no las trabe. &lt;/li&gt; &lt;/ul&gt; &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Fire_during.jpg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt; Regrese a su casa una vez que las autoridades digan que es seguro hacerlo.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Tenga cuidado al ingresar a áreas quemadas&lt;/b&gt; ya que aún podría haber peligros.&lt;/li&gt;&lt;li&gt; Revise exhaustivamente para determinar si hay humo o brasas ocultas.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Saque fotografías de los daños&lt;/b&gt; para la aseguradora.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;Si cree que su propiedad puede estar en riesgo, &lt;b&gt;el Condado King tiene información para propietarios, programas de incentivo y talleres de capacitación de anfitriones.&lt;/b&gt; Puede obtener más información &lt;a href="http://www.kingcounty.gov/environment/water-and-land/forestry.aspx" target="_blank"&gt;aquí&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;El Condado King oriental tiene pequeños incendios forestales cada año. Generalmente, los humanos son la causa. Vea dónde se produjeron los incendios en el pasado haciendo clic &lt;a href="https://hazardready.org/seattle/static/img/data/Wildfire_Historic.jpg" target="_blank"&gt;aquí&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Lahares (avalanchas de lodo volcánico) son los principales riesgos asociados con el Monte Rainier. &lt;b&gt;Los residentes del Condado King sur tienen 1 de 10 posibilidades de presenciar un lahar en su vida.&lt;/b&gt; El Monte Rainier es considerado un volcán activo, pero pueden pasar muchos años hasta que vuelva a hacer erupción.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Si se inicia un lahar en el Monte Rainier, &lt;b&gt;se podrán ver inundaciones en esta área, y un sedimento similar a lodo, arena, rocas y otros sedimentos podría ser arrastrado río abajo por el lahar.&lt;/b&gt; Esto puede ocurrir durante años, hasta décadas, después del lahar. &lt;a href="https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Hay un 10% a 40% de posibilidades de que un lahar del Monte Rainier fluya a través de esta región en los próximos 50 años.&lt;/b&gt; Los lahares tienen un comportamiento y aspecto similar a concreto húmedo fluyendo. Un lodo espeso y sedimento cubrirá el área si se origina uno. Esto podría dañar gravemente las propiedades y tardar mucho tiempo en recuperarse. &lt;a href="https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Hay un 5% a 10% de posibilidades de que un lahar del Monte Rainier fluya a través de esta área en los próximos 50 años.&lt;/b&gt; Los lahares tienen un comportamiento y aspecto similar a concreto húmedo fluyendo. Un lodo espeso y sedimento cubrirá el área si se origina uno. Esto podría dañar gravemente las propiedades y tardar mucho tiempo en recuperarse. &lt;a href="https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Usted se encuentra FUERA DE LA ZONA DE PELIGRO DE LAHARES.&lt;/b&gt; Si el Monte Rainier entra en erupción, las cenizas cubrirán la región. Se parecerá mucho a las áreas afectadas por la erupción del Monte Santa Helena en 1980. El espesor de las cenizas dependerá de la distancia desde la erupción. &lt;a href="https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los volcanes suelen dar señales de advertencia desde días hasta meses antes de su erupción.&lt;b&gt;La actividad de gases y terremotos aumenta y la superficie del terreno se hincha a medida que el magma se traslada bajo este.&lt;/b&gt; A pesar de que estos signos pueden ser imperceptibles para el público en general, el Monte Rainier es monitoreado continuamente por científicos con el &lt;a href="http://volcanoes.usgs.gov/volcanoes/mount_rainier/" target="_blank"&gt;Programa de Amenazas Volcánicas de USGS&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;PREGUNTE:&lt;/b&gt; averigüe qué acciones llevaron a cabo los funcionarios locales para prepararse para eventos volcánicos. &lt;b&gt;Pregunte a los funcionarios públicos cuál es su plan y cómo se comunicarán con usted durante un evento.&lt;/b&gt; Puede hacer esto comunicándose con la &lt;a href="http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx" target="_blank"&gt;Oficina de Gestión de Emergencias del Condado King&lt;/a&gt;. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PLANEE&lt;/b&gt; : hable con sus amigos y vecinos. Si está en una zona de alto riesgo, &lt;b&gt;decida hacia dónde iría, que llevaría consigo y con quién se comunicaría.&lt;/b&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Durante una erupción, escuche las noticias para ver actualizaciones de emergencia y siga las instrucciones de emergencia.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;EN UNA ZONA DE LAHARES: acuda a tierras más altas inmediatamente.&lt;/b&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;AFUERA:&lt;/b&gt; cúbrase boca, nariz y cuerpo para evitar la irritación. &lt;b&gt;Busque refugio.&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;ADENTRO: mantenga las puertas y la ventilación de su casa cerradas y quédese adentro, a menos que se le indique lo contrario.&lt;/b&gt; Coloque toallas húmedas debajo de las puertas y tape con cinta las ventanas con corrientes de aire. Mantenga apagados los motores de automóviles y camiones para evitar daños por taponamiento por cenizas. Proteja animales y maquinarias haciéndolos ingresar o manteniéndolos en un área cubierta.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Una vez que haya desaparecido el riesgo inmediato por una erupción, la acción más importante será limpiar las cenizas. &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/MtStHel_Yakima_graders.jpg" alt="This image shows two graders shoveling inches of ashfall from Saint Helens' eruption"&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; Utilice gafas protectoras y una máscara facial al aire libre. &lt;b&gt;La calidad del aire será mala.&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;Evite hacer andar motores de vehículos.&lt;/b&gt; Si debe manejar, hágalo despacio (a menos de 35 MPH) y controle el aceite, los filtros de aceite y los filtros de aire frecuentemente. &lt;/li&gt; &lt;li&gt; La lluvia de cenizas es muy pesada y puede hacer que los edificios colapsen. Si es seguro hacerlo, &lt;b&gt;quite la ceniza de techos y canalones de lluvia&lt;/b&gt;. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Puede obtener más información acerca del Monte Rainier y los posibles peligros en diferentes fuentes:&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;a href="https://volcanoes.usgs.gov/volcanoes/mount_rainier/" target="_blank"&gt;Monitoreo y otra información&lt;/a&gt; - Estudio Geológico de EE.&amp;nbsp;UU. &lt;/li&gt; &lt;li&gt; &lt;a href="http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx" target=blank&gt; Información general del Condado King&lt;/a&gt; &amp;nbsp;- Condado King &lt;/li&gt; &lt;li&gt; &lt;a href="https://www.nps.gov/mora/planyourvisit/geohazards.htm" target="_blank"&gt;Peligros geológicos en Rainier&lt;/a&gt;  - Servicio de Parques Nacionales &lt;/li&gt; &lt;li&gt; &lt;a href="http://www.pnsn.org/volcanoes/mount-rainier" target="_blank"&gt;Terremotos cerca de Rainier&lt;/a&gt; - Red Sísmica del Noroeste del Pacífico &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;El Monte de Rainier ha tenido una larga historia de &lt;a href="https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_eruption_history.html" target="_blank"&gt;erupciones&lt;/a&gt; y &lt;a href="https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_lahars.html" target="_blank"&gt;lahares&lt;/a&gt;. Aproximadamente hace 500 años, la avalancha de lodo de Electron descendió atravesando Puyallup hasta Sumner, WA. En los miles de años antes de ella, muchos lahares se desplazaron a lo largo de ríos locales y llegaron hasta Auburn. &lt;b&gt;Algunos&lt;/b&gt; &lt;b&gt;pueblos&lt;/b&gt; &lt;b&gt;(NE Tacoma, Orting y Puyallup) están construidos sobre depósitos históricos de lahares.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;En el Condado King, el invierno puede tener temperaturas bajo cero, caminos con hielo y la posibilidad de grandes tormentas. Las nevadas ocurren ocasionalmente, con mayor frecuencia a más altitud. &lt;b&gt;Las tormentas invernales pueden provocar fuertes vientos que causen caídas de árboles y cortes de energía.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Un evento de nevadas copiosas puede provocar problemas importantes en los transportes, los servicios de seguridad pública y los servicios públicos. &lt;b&gt;La energía se puede cortar durante muchos días.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;El noroeste del Pacífico se verá afectado por tormentas más fuertes en los próximos 50 años.&lt;/b&gt; Pueden provocar fuertes vientos y lluvias torrenciales que provoquen inundaciones. Las actividades invernales se verán afectadas. 2015 tuvo los niveles de nieve acumulada más bajos que se hayan registrado con solo el 4% del promedio. Los inviernos cálidos establecerán las condiciones para sequías en todo el estado. Haga clic en la imagen para obtener más información.&lt;br&gt; &lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Winter.jpg" alt="Climate Change Winter Infographic"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los meteorólogos se han esforzado mucho por pronosticar las tormentas de nieve y hielo. &lt;b&gt;Preste atención a los pronósticos locales del tiempo e inscríbase en los sistemas de alerta de advertencia disponibles&lt;/b&gt; ( &lt;a href="http://alert.seattle.gov/" target="_blank"&gt;Alertas Seattle&lt;/a&gt; y &lt;a href="http://www.kingcounty.gov/depts/emergency-management/alert-king-county.aspx" target="_blank"&gt;Alertas Condado King&lt;/a&gt;) para asegurarse de obtener información actualizada acerca de futuro mal clima.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt; &lt;li&gt;&lt;b&gt;OBTENGA SUMINISTROS: almacene combustible y suministros de emergencia adicionales&lt;/b&gt; para sobrevivir varios días sin electricidad, calefacción ni agua caliente. Considere la compra de un generador y siga las normas de seguridad. &lt;/li&gt; &lt;li&gt;&lt;b&gt;ADAPTE SU CASA PARA EL INVIERNO:&lt;/b&gt; instale ventanas para tormentas. Aísle paredes, áticos y tuberías. Aplique masilla y burletes impermeabilizantes a puertas y ventanas. Deje los grifos goteando un poco durante el clima frío para evitar que se congelen las cañerías. &lt;b&gt;Aprenda a cortar las válvulas de agua (en caso de explosiones de tuberías).&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;ADAPTE SUS VEHÍCULOS PARA EL INVIERNO:&lt;/b&gt; mantenga los tanques de combustible al menos hasta la mitad. Haga revisar batería, sistema de encendido, radiador, luces, frenos y cubiertas. Llene los depósitos con anticongelante, aceite y fluidos limpiaparabrisas. &lt;b&gt;Conserve suministros de emergencia para clima invernal en el maletero del auto.&lt;/b&gt; &lt;/li&gt; &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;MANTÉNGASE INFORMADO:&lt;/b&gt; monitoree las noticias locales en su televisor, dispositivo móvil o radio portátil. Siga las instrucciones en caso de emergencia y preste atención a los asesores de viaje. &lt;/li&gt; &lt;li&gt;&lt;b&gt;EVITE VIAJAR:&lt;/b&gt; si debe manejar, llene el tanque de combustible, manténgase en caminos principales y mantenga informados a otros acerca de su itinerario. Disminuya la velocidad. Si queda varado, llame por ayuda, encienda las balizas y permanezca con su vehículo. No camine, a menos que haya un refugio cercano. &lt;/li&gt; &lt;li&gt;&lt;b&gt;SEPA SUS RIESGOS -&lt;/b&gt; &lt;/li&gt; &lt;ul type=circle&gt; &lt;li&gt;&lt;b&gt;HIpotermia:&lt;/b&gt; si observa síntomas, obtenga asistencia médica inmediatamente. Para ver los síntomas y otra información, haga clic &lt;a href="https://www.cdc.gov/disasters/winter/staysafe/hypothermia.html" target="_blank"&gt;aquí&lt;/a&gt;. &lt;/li&gt; &lt;li&gt;&lt;b&gt;Intoxicación por monóxido de carbono:&lt;/b&gt; sucede cuando combustibles como gas, aceite, kerosén, madera o carbón se queman en un espacio cerrado. Cientos de personas mueren accidentalmente cada año. Obtenga más información &lt;a href="http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/carbon-monoxide.aspx" target="_blank"&gt;aquí&lt;/a&gt;. &lt;/li&gt; &lt;/ul&gt; &lt;li&gt;&lt;b&gt;EVITE PELIGROS:&lt;/b&gt; - maneje lejos de cables de electricidad caídos, caminos inundados y otras estructuras debilitadas debido a fuertes nevadas o hielo. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;Reabastezca los suministros de emergencia.&lt;/b&gt; Prepárese en caso de que llegue otra tormenta. &lt;/li&gt; &lt;li&gt;&lt;b&gt;Mejore su plan familiar:&lt;/b&gt; ¿Qué funcionó? ¿Qué se puede mejorar? &lt;/li&gt; &lt;li&gt;&lt;b&gt;Hable con sus vecinos.&lt;/b&gt; Compartan consejos e ideas entre sí. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aprenda acerca de las condiciones invernales y cómo prepararse para estas:&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;a href="http://takewinterbystorm.org" target="_blank"&gt;Haga frente al invierno&lt;/a&gt; : consejos de preparación e información actualizada para Washington occidental. &lt;/li&gt; &lt;li&gt; &lt;a href="http://kingcounty.gov/depts/transportation/metro/alerts-updates/winter.aspx" target="_blank"&gt;Invierno metropolitano en el Condado King&lt;/a&gt; : enlaces a aplicaciones de planificación de viajes de invierno y alertas climáticas. &lt;/li&gt; &lt;li&gt; &lt;a href="https://www.seattle.gov/transportation/winterweather.htm" target="_blank"&gt;Departamento de Transporte de Seattle&lt;/a&gt;  vea dónde estuvieron las barredoras de nieve y otra información sobre las condiciones de los caminos. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;El 26 de diciembre de 1996 comenzó una serie de tormentas de nieve, hielo y lluvia que causaron 16 muertes en el Estado y $57 millones en daños en Seattle y el Condado King.&lt;/b&gt; Dos tormentas, una que generó entre 6 y 12 pulgadas y la otra 10 pulgadas de nieve húmeda, antecedieron a fuertes lluvias que colapsaron cocheras, amarres cubiertos de embarcaciones y cortaron líneas de electricidad. El tránsito metropolitano detuvo el servicio completamente por primera vez en su historia. El congelamiento y el deshielo de la nieve contribuyeron a inundaciones y deslizamientos de tierra durante la semana siguiente. ¿Está preparado si una tormenta como esta sucediera nuevamente?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;No deje que el otoño y el invierno lluviosos lo engañen,&lt;b&gt;los veranos del Condado King pueden ser CALUROSOS. En ocasiones, las temperaturas llegan hasta los 90° durante varios días seguidos.&lt;/b&gt; Las tormentas eléctricas, los vendavales, los incendios forestales y las olas de calor son una posibilidad en toda la región.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;El calor intenso puede durar días causando que en las comunidades haya un incremento de enfermedades relacionadas con el calor, esto incluye los GOLPES DE CALOR y las INSOLACIONES. Las altas temperaturas, las condiciones secas y la mayor probabilidad de rayos pueden provocar incendios forestales.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Julio de 2015 fue el mes más caluroso de la historia. &lt;b&gt;La temperatura anual promedio se proyecta con un incremento de entre 3 y 10 grados Fahrenheit para 2100.&lt;/b&gt; Los residentes de Washington tendrán menos lluvias en verano, pero la lluvia que haya será más intensa (piense en aguaceros). Haga clic en la imagen para obtener más información.&lt;br&gt; &lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="limate Change Storm Infographic"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los golpes de calor y las insolaciones son enfermedades graves que pueden aparecer cuando una persona se expone al calor extremo.&lt;/p&gt;&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;&lt;b&gt;SÍNTOMAS DE GOLPE DE CALOR:&lt;/b&gt;&lt;/p&gt; &lt;ul style='margin-top:0in' type=disc&gt; &lt;li&gt; Mucha sudoración &lt;/li&gt; &lt;li&gt; Debilidad &lt;/li&gt; &lt;li&gt; Pulso débil &lt;/li&gt; &lt;li&gt; Desmayos &lt;/li&gt; &lt;li&gt; Vómitos &lt;/li&gt; &lt;li&gt; Piel fría y pálida &lt;/li&gt; &lt;/ul&gt;&lt;/div&gt;&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;&lt;b&gt;SÍNTOMAS DE INSOLACIÓN:&lt;/b&gt;&lt;/p&gt; &lt;ul style='margin-top:0in' type=disc&gt; &lt;li&gt; Alta temperatura corporal (103&amp;nbsp;°F o más) &lt;/li&gt; &lt;li&gt; Piel caliente y seca &lt;/li&gt; &lt;li&gt; Pulso acelerado y fuerte &lt;/li&gt; &lt;li&gt; Posible pérdida de la conciencia &lt;/li&gt; &lt;/ul&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los adultos mayores, los niños pequeños y las personas con enfermedades mentales y crónicas tienen mayor riesgo de problemas cardíacos.&lt;/p&gt; &lt;ol&gt; &lt;li&gt;&lt;b&gt;SEPA LOS SÍNTOMAS:&lt;/b&gt; las enfermedades relacionadas con el calor pueden aparecer rápidamente. Sepa cuál de sus vecinos puede estar en riesgo. &lt;/li&gt; &lt;li&gt;&lt;b&gt;MANTÉNGASE INFORMADO:&lt;/b&gt; escuche las noticias locales para obtener información general y las direcciones de los &lt;b&gt;centros de refrigeración&lt;/b&gt; (espacios públicos que pueden utilizar los residentes para mantenerse frescos). &lt;/li&gt; &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;MANTÉNGASE FRESCO:&lt;/b&gt; quédese adentro y, si es posible, en un lugar con aire acondicionado (centro comercial, biblioteca, teatro, etc.). Limite las actividades al aire libre. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PROTEJA LA PIEL:&lt;/b&gt; utilice prendas livianas, holgadas y con colores claros. Un sombrero de ala ancha, lentes de sol y pantalla solar serán de ayuda. &lt;/li&gt; &lt;li&gt;&lt;b&gt;AGUA POTABLE:&lt;/b&gt; tome mucho líquido (evite la cafeína, el alcohol y las bebidas azucaradas) y lleve consigo una botella de agua. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PIENSE EN LOS DEMÁS:&lt;/b&gt; mantenga a los niños y las mascotas fuera de automóviles calientes. Controle con frecuencia a familias, amigos y vecinos en riesgo. &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Summer_during.jpg" alt="his is a panel of three images of what to do during bad summer weather. Stay Cool, Protect Skin, and Drink Water."&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt; Utilice cortinas para &lt;b&gt;cubrir las ventanas y mantener el aire fresco en el interior.&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;Piense en comprar un sistema de aire acondicionado&lt;/b&gt; o instalar burletes en los lugares por donde se cuela el aire caliente. &lt;/li&gt; &lt;li&gt;&lt;b&gt;OPCIÓN DE BAJO PRESUPUESTO:&lt;/b&gt; construya reflectores de calor (para utilizar entre ventanas y cortinas), como cartón cubierto de papel de aluminio, para reflejar el calor hacia el exterior. Haga clic &lt;a href="http://www.instructables.com/id/Heat-blocking-curtains/" target="_blank"&gt;aquí&lt;/a&gt; para instrucciones sobre cómo hacerlo usted mismo. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Para obtener más información sobre cómo mantenerse fresco y seguro, vaya a la página &lt;a href="http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/hot-weather.aspx" target="_blank"&gt;Clima caluroso&lt;/a&gt;  del Condado King.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;En 2015, el Condado King tuvo una cantidad récord de días que superaron los 90°F. &lt;b&gt;Julio de 2015 fue el mes más caluroso de la historia en el Condado King.&lt;/b&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1851,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1264,6 +1912,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1959,7 +2613,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1980,6 +2634,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="683">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2998,13 +3653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:I292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C188" sqref="C188"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3012,10 +3667,10 @@
     <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="53.1640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="53.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3038,21 +3693,24 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>5</v>
@@ -3061,21 +3719,24 @@
         <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>6</v>
@@ -3084,21 +3745,24 @@
         <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>7</v>
@@ -3107,24 +3771,28 @@
         <v>70</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3133,21 +3801,24 @@
         <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3156,21 +3827,24 @@
         <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
         <v>7</v>
@@ -3179,21 +3853,24 @@
         <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
@@ -3202,21 +3879,24 @@
         <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
@@ -3225,24 +3905,28 @@
         <v>90</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
@@ -3251,21 +3935,24 @@
         <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2">
         <v>6</v>
@@ -3274,21 +3961,24 @@
         <v>60</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2">
         <v>7</v>
@@ -3297,1913 +3987,2195 @@
         <v>70</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2">
-        <v>7</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="I23" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="I24" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="I25" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="I26" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="I27" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="I28" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="I29" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="I30" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="I31" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D32" s="3"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="I33" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="2">
         <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="2">
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
         <v>41</v>
       </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="2">
         <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
         <v>41</v>
       </c>
-      <c r="C37" t="s">
-        <v>42</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2">
         <v>247</v>
       </c>
       <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D38" s="3"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="G39" t="s">
         <v>46</v>
       </c>
-      <c r="G39" t="s">
-        <v>47</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
         <v>48</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
         <v>49</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="I42" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="H43" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D44" s="3"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="C43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
         <v>52</v>
       </c>
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="2">
         <v>2</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
         <v>52</v>
       </c>
-      <c r="C47" t="s">
-        <v>53</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="2">
         <v>3</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
         <v>52</v>
       </c>
-      <c r="C48" t="s">
-        <v>53</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="2">
         <v>4</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
         <v>52</v>
       </c>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2">
         <v>5</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
         <v>52</v>
       </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2">
         <v>6</v>
       </c>
       <c r="H50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2">
+        <v>7</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="I51" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
         <v>52</v>
       </c>
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="2">
-        <v>7</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" t="s">
-        <v>53</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="2">
         <v>8</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
-        <v>53</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="2">
         <v>9</v>
       </c>
       <c r="H53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2">
+        <v>10</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="I54" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
         <v>52</v>
       </c>
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="2">
-        <v>10</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" t="s">
-        <v>53</v>
-      </c>
       <c r="D55" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" t="s">
         <v>52</v>
       </c>
-      <c r="C56" t="s">
-        <v>53</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="2">
         <v>12</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
         <v>52</v>
       </c>
-      <c r="C57" t="s">
-        <v>53</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" s="2">
         <v>13</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" t="s">
         <v>52</v>
       </c>
-      <c r="C58" t="s">
-        <v>53</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="2">
         <v>14</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" t="s">
         <v>52</v>
       </c>
-      <c r="C59" t="s">
-        <v>53</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="2">
         <v>15</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" t="s">
         <v>52</v>
       </c>
-      <c r="C60" t="s">
-        <v>53</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" s="2">
         <v>16</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" t="s">
         <v>52</v>
       </c>
-      <c r="C61" t="s">
-        <v>53</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" s="2">
         <v>17</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" t="s">
         <v>52</v>
       </c>
-      <c r="C62" t="s">
-        <v>53</v>
-      </c>
       <c r="D62" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" s="2">
         <v>18</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" t="s">
         <v>52</v>
       </c>
-      <c r="C63" t="s">
-        <v>53</v>
-      </c>
       <c r="D63" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" s="2">
         <v>19</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" t="s">
         <v>52</v>
       </c>
-      <c r="C64" t="s">
-        <v>53</v>
-      </c>
       <c r="D64" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E64" s="2">
         <v>20</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" t="s">
         <v>52</v>
       </c>
-      <c r="C65" t="s">
-        <v>53</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" s="2">
         <v>21</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" t="s">
         <v>52</v>
       </c>
-      <c r="C66" t="s">
-        <v>53</v>
-      </c>
       <c r="D66" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E66" s="2">
         <v>22</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" t="s">
         <v>52</v>
       </c>
-      <c r="C67" t="s">
-        <v>53</v>
-      </c>
       <c r="D67" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" s="2">
         <v>23</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" t="s">
         <v>52</v>
       </c>
-      <c r="C68" t="s">
-        <v>53</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" s="2">
         <v>24</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" t="s">
         <v>52</v>
       </c>
-      <c r="C69" t="s">
-        <v>53</v>
-      </c>
       <c r="D69" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E69" s="2">
         <v>25</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" t="s">
         <v>52</v>
       </c>
-      <c r="C70" t="s">
-        <v>53</v>
-      </c>
       <c r="D70" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" s="2">
         <v>26</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" t="s">
         <v>52</v>
       </c>
-      <c r="C71" t="s">
-        <v>53</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E71" s="2">
         <v>27</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" t="s">
         <v>52</v>
       </c>
-      <c r="C72" t="s">
-        <v>53</v>
-      </c>
       <c r="D72" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72" s="2">
         <v>28</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" t="s">
         <v>52</v>
       </c>
-      <c r="C73" t="s">
-        <v>53</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E73" s="2">
         <v>29</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" t="s">
         <v>52</v>
       </c>
-      <c r="C74" t="s">
-        <v>53</v>
-      </c>
       <c r="D74" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" s="2">
         <v>30</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" t="s">
         <v>52</v>
       </c>
-      <c r="C75" t="s">
-        <v>53</v>
-      </c>
       <c r="D75" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E75" s="2">
         <v>31</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" t="s">
         <v>52</v>
       </c>
-      <c r="C76" t="s">
-        <v>53</v>
-      </c>
       <c r="D76" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E76" s="2">
         <v>32</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s">
         <v>52</v>
       </c>
-      <c r="C77" t="s">
-        <v>53</v>
-      </c>
       <c r="D77" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E77" s="2">
         <v>33</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" t="s">
         <v>52</v>
       </c>
-      <c r="C78" t="s">
-        <v>53</v>
-      </c>
       <c r="D78" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E78" s="2">
         <v>34</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" t="s">
         <v>52</v>
       </c>
-      <c r="C79" t="s">
-        <v>53</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E79" s="2">
         <v>35</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s">
         <v>52</v>
       </c>
-      <c r="C80" t="s">
-        <v>53</v>
-      </c>
       <c r="D80" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E80" s="2">
         <v>36</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" t="s">
         <v>52</v>
       </c>
-      <c r="C81" t="s">
-        <v>53</v>
-      </c>
       <c r="D81" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E81" s="2">
         <v>37</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" t="s">
         <v>52</v>
       </c>
-      <c r="C82" t="s">
-        <v>53</v>
-      </c>
       <c r="D82" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E82" s="2">
         <v>38</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" t="s">
         <v>52</v>
       </c>
-      <c r="C83" t="s">
-        <v>53</v>
-      </c>
       <c r="D83" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E83" s="2">
         <v>39</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B84" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" t="s">
         <v>52</v>
       </c>
-      <c r="C84" t="s">
-        <v>53</v>
-      </c>
       <c r="D84" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E84" s="2">
         <v>40</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" t="s">
         <v>52</v>
       </c>
-      <c r="C85" t="s">
-        <v>53</v>
-      </c>
       <c r="D85" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E85" s="2">
         <v>41</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" t="s">
         <v>52</v>
       </c>
-      <c r="C86" t="s">
-        <v>53</v>
-      </c>
       <c r="D86" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E86" s="2">
         <v>42</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" t="s">
         <v>52</v>
       </c>
-      <c r="C87" t="s">
-        <v>53</v>
-      </c>
       <c r="D87" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E87" s="2">
         <v>43</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" t="s">
         <v>52</v>
       </c>
-      <c r="C88" t="s">
-        <v>53</v>
-      </c>
       <c r="D88" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E88" s="2">
         <v>44</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" t="s">
         <v>52</v>
       </c>
-      <c r="C89" t="s">
-        <v>53</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E89" s="2">
         <v>45</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" t="s">
         <v>52</v>
       </c>
-      <c r="C90" t="s">
-        <v>53</v>
-      </c>
       <c r="D90" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E90" s="2">
         <v>46</v>
       </c>
       <c r="H90" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="2">
+        <v>47</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="I91" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" t="s">
         <v>52</v>
       </c>
-      <c r="C91" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="2">
-        <v>47</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>48</v>
-      </c>
-      <c r="B92" t="s">
-        <v>52</v>
-      </c>
-      <c r="C92" t="s">
-        <v>53</v>
-      </c>
       <c r="D92" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E92" s="2">
         <v>48</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" t="s">
         <v>52</v>
       </c>
-      <c r="C93" t="s">
-        <v>53</v>
-      </c>
       <c r="D93" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E93" s="2">
         <v>49</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" t="s">
         <v>52</v>
       </c>
-      <c r="C94" t="s">
-        <v>53</v>
-      </c>
       <c r="D94" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E94" s="2">
         <v>50</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" t="s">
         <v>52</v>
       </c>
-      <c r="C95" t="s">
-        <v>53</v>
-      </c>
       <c r="D95" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E95" s="2">
         <v>51</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" t="s">
         <v>52</v>
       </c>
-      <c r="C96" t="s">
-        <v>53</v>
-      </c>
       <c r="D96" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E96" s="2">
         <v>52</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" t="s">
         <v>52</v>
       </c>
-      <c r="C97" t="s">
-        <v>53</v>
-      </c>
       <c r="D97" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E97" s="2">
         <v>53</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" t="s">
         <v>52</v>
       </c>
-      <c r="C98" t="s">
-        <v>53</v>
-      </c>
       <c r="D98" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E98" s="2">
         <v>54</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B99" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" t="s">
         <v>52</v>
       </c>
-      <c r="C99" t="s">
-        <v>53</v>
-      </c>
       <c r="D99" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E99" s="2">
         <v>55</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
         <v>52</v>
       </c>
-      <c r="C100" t="s">
-        <v>53</v>
-      </c>
       <c r="D100" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E100" s="2">
         <v>56</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" t="s">
         <v>52</v>
       </c>
-      <c r="C101" t="s">
-        <v>53</v>
-      </c>
       <c r="D101" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E101" s="2">
         <v>57</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" t="s">
         <v>52</v>
       </c>
-      <c r="C102" t="s">
-        <v>53</v>
-      </c>
       <c r="D102" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E102" s="2">
         <v>58</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" t="s">
         <v>52</v>
       </c>
-      <c r="C103" t="s">
-        <v>53</v>
-      </c>
       <c r="D103" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E103" s="2">
         <v>59</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B104" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" t="s">
         <v>52</v>
       </c>
-      <c r="C104" t="s">
-        <v>53</v>
-      </c>
       <c r="D104" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E104" s="2">
         <v>60</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" t="s">
         <v>52</v>
       </c>
-      <c r="C105" t="s">
-        <v>53</v>
-      </c>
       <c r="D105" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E105" s="2">
         <v>61</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" t="s">
         <v>52</v>
       </c>
-      <c r="C106" t="s">
-        <v>53</v>
-      </c>
       <c r="D106" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E106" s="2">
         <v>62</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" t="s">
         <v>52</v>
       </c>
-      <c r="C107" t="s">
-        <v>53</v>
-      </c>
       <c r="D107" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E107" s="2">
         <v>63</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B108" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" t="s">
         <v>52</v>
       </c>
-      <c r="C108" t="s">
-        <v>53</v>
-      </c>
       <c r="D108" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E108" s="2">
         <v>64</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109" t="s">
         <v>52</v>
       </c>
-      <c r="C109" t="s">
-        <v>53</v>
-      </c>
       <c r="D109" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E109" s="2">
         <v>65</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" s="8"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" t="s">
         <v>54</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C111" t="s">
-        <v>45</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I111" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E112" s="13"/>
       <c r="H112" s="14"/>
-    </row>
-    <row r="113" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I112" s="16"/>
+    </row>
+    <row r="113" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E113" s="13"/>
       <c r="H113" s="14"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" s="16"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
         <v>8</v>
       </c>
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
       <c r="C114" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E114" s="2">
         <v>1</v>
@@ -5212,21 +6184,24 @@
         <v>90</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
         <v>8</v>
       </c>
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
       <c r="C115" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E115" s="2">
         <v>2</v>
@@ -5235,21 +6210,24 @@
         <v>70</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
         <v>8</v>
       </c>
-      <c r="B116" t="s">
-        <v>9</v>
-      </c>
       <c r="C116" t="s">
+        <v>56</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E116" s="2">
         <v>3</v>
@@ -5258,21 +6236,24 @@
         <v>10</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
         <v>8</v>
       </c>
-      <c r="B117" t="s">
-        <v>9</v>
-      </c>
       <c r="C117" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E117" s="2">
         <v>5</v>
@@ -5281,21 +6262,24 @@
         <v>10</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
         <v>8</v>
       </c>
-      <c r="B118" t="s">
-        <v>9</v>
-      </c>
       <c r="C118" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E118" s="2">
         <v>6</v>
@@ -5304,21 +6288,24 @@
         <v>10</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
         <v>8</v>
       </c>
-      <c r="B119" t="s">
-        <v>9</v>
-      </c>
       <c r="C119" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E119" s="2">
         <v>7</v>
@@ -5327,21 +6314,24 @@
         <v>40</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
         <v>8</v>
       </c>
-      <c r="B120" t="s">
-        <v>9</v>
-      </c>
       <c r="C120" t="s">
+        <v>56</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E120" s="2">
         <v>8</v>
@@ -5350,21 +6340,24 @@
         <v>5</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
         <v>8</v>
       </c>
-      <c r="B121" t="s">
-        <v>9</v>
-      </c>
       <c r="C121" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E121" s="2">
         <v>9</v>
@@ -5373,24 +6366,28 @@
         <v>70</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" s="8"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
@@ -5399,21 +6396,24 @@
         <v>100</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E124" s="2">
         <v>2</v>
@@ -5422,21 +6422,24 @@
         <v>80</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E125" s="2">
         <v>3</v>
@@ -5445,21 +6448,24 @@
         <v>20</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E126" s="2">
         <v>5</v>
@@ -5468,21 +6474,24 @@
         <v>20</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E127" s="2">
         <v>6</v>
@@ -5491,21 +6500,24 @@
         <v>20</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E128" s="2">
         <v>7</v>
@@ -5514,21 +6526,24 @@
         <v>50</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E129" s="2">
         <v>8</v>
@@ -5537,21 +6552,24 @@
         <v>10</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E130" s="2">
         <v>9</v>
@@ -5560,978 +6578,1113 @@
         <v>80</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131" s="8"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
+        <v>59</v>
+      </c>
+      <c r="C132" t="s">
         <v>60</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="G132" t="s">
         <v>62</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" t="s">
+        <v>60</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="G133" t="s">
+        <v>62</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" t="s">
+        <v>60</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G134" t="s">
+        <v>62</v>
+      </c>
+      <c r="H134" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="I134" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" t="s">
         <v>60</v>
       </c>
-      <c r="C133" t="s">
-        <v>61</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G133" t="s">
-        <v>63</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="D135" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G135" t="s">
+        <v>62</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" t="s">
         <v>60</v>
       </c>
-      <c r="C134" t="s">
-        <v>61</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G134" t="s">
-        <v>63</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="D136" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G136" t="s">
+        <v>62</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" t="s">
         <v>60</v>
       </c>
-      <c r="C135" t="s">
-        <v>61</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G135" t="s">
-        <v>63</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="D137" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G137" t="s">
+        <v>68</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" t="s">
         <v>60</v>
       </c>
-      <c r="C136" t="s">
-        <v>61</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G136" t="s">
-        <v>63</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="D138" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G138" t="s">
+        <v>68</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" t="s">
         <v>60</v>
       </c>
-      <c r="C137" t="s">
-        <v>61</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="D139" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G139" t="s">
         <v>68</v>
       </c>
-      <c r="G137" t="s">
-        <v>69</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="H139" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>59</v>
+      </c>
+      <c r="C140" t="s">
         <v>60</v>
       </c>
-      <c r="C138" t="s">
-        <v>61</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G138" t="s">
-        <v>69</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="D140" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G140" t="s">
+        <v>68</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" t="s">
         <v>60</v>
       </c>
-      <c r="C139" t="s">
-        <v>61</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G139" t="s">
-        <v>69</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="D141" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G141" t="s">
+        <v>68</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" t="s">
         <v>60</v>
       </c>
-      <c r="C140" t="s">
-        <v>61</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G140" t="s">
-        <v>69</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="D142" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G142" t="s">
+        <v>74</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>59</v>
+      </c>
+      <c r="C143" t="s">
         <v>60</v>
       </c>
-      <c r="C141" t="s">
-        <v>61</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G141" t="s">
-        <v>69</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="D143" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G143" t="s">
+        <v>74</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>59</v>
+      </c>
+      <c r="C144" t="s">
         <v>60</v>
       </c>
-      <c r="C142" t="s">
-        <v>61</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E142" s="2" t="s">
+      <c r="D144" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G144" t="s">
         <v>74</v>
       </c>
-      <c r="G142" t="s">
-        <v>75</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>8</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="H144" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" t="s">
         <v>60</v>
       </c>
-      <c r="C143" t="s">
-        <v>61</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G143" t="s">
-        <v>75</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>8</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="D145" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G145" t="s">
+        <v>78</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>59</v>
+      </c>
+      <c r="C146" t="s">
         <v>60</v>
       </c>
-      <c r="C144" t="s">
-        <v>61</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G144" t="s">
-        <v>75</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" t="s">
-        <v>60</v>
-      </c>
-      <c r="C145" t="s">
-        <v>61</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E145" s="2" t="s">
+      <c r="D146" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G146" t="s">
         <v>78</v>
       </c>
-      <c r="G145" t="s">
-        <v>79</v>
-      </c>
-      <c r="H145" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" t="s">
-        <v>60</v>
-      </c>
-      <c r="C146" t="s">
-        <v>61</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E146" s="2" t="s">
+      <c r="I146" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D147" s="4"/>
+      <c r="I147" s="8"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
         <v>80</v>
       </c>
-      <c r="G146" t="s">
-        <v>79</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>8</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>81</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F148">
         <v>80</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="I148" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" t="s">
         <v>81</v>
       </c>
-      <c r="C149" t="s">
-        <v>82</v>
-      </c>
       <c r="D149" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F149">
         <v>60</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B150" t="s">
+        <v>80</v>
+      </c>
+      <c r="C150" t="s">
         <v>81</v>
       </c>
-      <c r="C150" t="s">
-        <v>82</v>
-      </c>
       <c r="D150" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F150">
         <v>70</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I150" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B151" t="s">
+        <v>80</v>
+      </c>
+      <c r="C151" t="s">
         <v>81</v>
       </c>
-      <c r="C151" t="s">
-        <v>82</v>
-      </c>
       <c r="D151" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F151">
         <v>80</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
+        <v>80</v>
+      </c>
+      <c r="C152" t="s">
         <v>81</v>
       </c>
-      <c r="C152" t="s">
-        <v>82</v>
-      </c>
       <c r="D152" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F152">
         <v>80</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="I152" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153" s="8"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C154" t="s">
+        <v>87</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G154" t="s">
+        <v>141</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D155" s="4"/>
+      <c r="I155" s="8"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156" t="s">
+        <v>87</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G156" t="s">
+        <v>46</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I156" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D157" s="4"/>
+      <c r="I157" s="8"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>47</v>
+      </c>
+      <c r="B158" t="s">
+        <v>48</v>
+      </c>
+      <c r="C158" t="s">
+        <v>87</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I158" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>47</v>
+      </c>
+      <c r="B159" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" t="s">
+        <v>87</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>47</v>
+      </c>
+      <c r="B160" t="s">
+        <v>50</v>
+      </c>
+      <c r="C160" t="s">
+        <v>87</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D161" s="4"/>
+      <c r="I161" s="8"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>47</v>
+      </c>
+      <c r="B162" t="s">
+        <v>51</v>
+      </c>
+      <c r="C162" t="s">
         <v>88</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G154" t="s">
-        <v>142</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>8</v>
-      </c>
-      <c r="B156" t="s">
-        <v>44</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="D162" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G162" t="s">
+        <v>90</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I162" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>47</v>
+      </c>
+      <c r="B163" t="s">
+        <v>51</v>
+      </c>
+      <c r="C163" t="s">
         <v>88</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G156" t="s">
-        <v>47</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>48</v>
-      </c>
-      <c r="B158" t="s">
-        <v>49</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="D163" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G163" t="s">
+        <v>90</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>47</v>
+      </c>
+      <c r="B164" t="s">
+        <v>51</v>
+      </c>
+      <c r="C164" t="s">
         <v>88</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>48</v>
-      </c>
-      <c r="B159" t="s">
-        <v>50</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="D164" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G164" t="s">
+        <v>90</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>47</v>
+      </c>
+      <c r="B165" t="s">
+        <v>51</v>
+      </c>
+      <c r="C165" t="s">
         <v>88</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>48</v>
-      </c>
-      <c r="B160" t="s">
+      <c r="D165" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G165" t="s">
+        <v>90</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>47</v>
+      </c>
+      <c r="B166" t="s">
         <v>51</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C166" t="s">
         <v>88</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>48</v>
-      </c>
-      <c r="B162" t="s">
-        <v>52</v>
-      </c>
-      <c r="C162" t="s">
-        <v>89</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E162" s="2" t="s">
+      <c r="D166" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G166" t="s">
         <v>90</v>
       </c>
-      <c r="G162" t="s">
-        <v>91</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>48</v>
-      </c>
-      <c r="B163" t="s">
-        <v>52</v>
-      </c>
-      <c r="C163" t="s">
-        <v>89</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G163" t="s">
-        <v>91</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>48</v>
-      </c>
-      <c r="B164" t="s">
-        <v>52</v>
-      </c>
-      <c r="C164" t="s">
-        <v>89</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G164" t="s">
-        <v>91</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>48</v>
-      </c>
-      <c r="B165" t="s">
-        <v>52</v>
-      </c>
-      <c r="C165" t="s">
-        <v>89</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G165" t="s">
-        <v>91</v>
-      </c>
-      <c r="H165" s="1" t="s">
+      <c r="H166" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>48</v>
-      </c>
-      <c r="B166" t="s">
-        <v>52</v>
-      </c>
-      <c r="C166" t="s">
-        <v>89</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E166" s="2" t="s">
+      <c r="I166" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>47</v>
+      </c>
+      <c r="B167" t="s">
+        <v>51</v>
+      </c>
+      <c r="C167" t="s">
+        <v>88</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G166" t="s">
-        <v>91</v>
-      </c>
-      <c r="H166" s="1" t="s">
+      <c r="G167" t="s">
+        <v>90</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>48</v>
-      </c>
-      <c r="B167" t="s">
-        <v>52</v>
-      </c>
-      <c r="C167" t="s">
-        <v>89</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E167" s="2" t="s">
+      <c r="I167" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>47</v>
+      </c>
+      <c r="B168" t="s">
+        <v>51</v>
+      </c>
+      <c r="C168" t="s">
+        <v>88</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G167" t="s">
-        <v>91</v>
-      </c>
-      <c r="H167" s="1" t="s">
+      <c r="G168" t="s">
+        <v>90</v>
+      </c>
+      <c r="H168" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>48</v>
-      </c>
-      <c r="B168" t="s">
-        <v>52</v>
-      </c>
-      <c r="C168" t="s">
-        <v>89</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E168" s="2" t="s">
+      <c r="I168" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>47</v>
+      </c>
+      <c r="B169" t="s">
+        <v>51</v>
+      </c>
+      <c r="C169" t="s">
+        <v>88</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G168" t="s">
-        <v>91</v>
-      </c>
-      <c r="H168" s="1" t="s">
+      <c r="G169" t="s">
+        <v>90</v>
+      </c>
+      <c r="H169" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>48</v>
-      </c>
-      <c r="B169" t="s">
-        <v>52</v>
-      </c>
-      <c r="C169" t="s">
-        <v>89</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E169" s="2" t="s">
+      <c r="I169" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>47</v>
+      </c>
+      <c r="B170" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" t="s">
+        <v>88</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G169" t="s">
-        <v>91</v>
-      </c>
-      <c r="H169" s="1" t="s">
+      <c r="G170" t="s">
+        <v>90</v>
+      </c>
+      <c r="H170" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>48</v>
-      </c>
-      <c r="B170" t="s">
-        <v>52</v>
-      </c>
-      <c r="C170" t="s">
-        <v>89</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E170" s="2" t="s">
+      <c r="I170" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>47</v>
+      </c>
+      <c r="B171" t="s">
+        <v>51</v>
+      </c>
+      <c r="C171" t="s">
+        <v>88</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G170" t="s">
-        <v>91</v>
-      </c>
-      <c r="H170" s="1" t="s">
+      <c r="G171" t="s">
+        <v>90</v>
+      </c>
+      <c r="H171" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>48</v>
-      </c>
-      <c r="B171" t="s">
-        <v>52</v>
-      </c>
-      <c r="C171" t="s">
-        <v>89</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E171" s="2" t="s">
+      <c r="I171" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>47</v>
+      </c>
+      <c r="B172" t="s">
+        <v>51</v>
+      </c>
+      <c r="C172" t="s">
+        <v>88</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G171" t="s">
-        <v>91</v>
-      </c>
-      <c r="H171" s="1" t="s">
+      <c r="G172" t="s">
+        <v>90</v>
+      </c>
+      <c r="H172" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>48</v>
-      </c>
-      <c r="B172" t="s">
-        <v>52</v>
-      </c>
-      <c r="C172" t="s">
-        <v>89</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E172" s="2" t="s">
+      <c r="I172" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>47</v>
+      </c>
+      <c r="B173" t="s">
+        <v>51</v>
+      </c>
+      <c r="C173" t="s">
+        <v>88</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G172" t="s">
-        <v>91</v>
-      </c>
-      <c r="H172" s="1" t="s">
+      <c r="G173" t="s">
+        <v>90</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I173" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>47</v>
+      </c>
+      <c r="B174" t="s">
+        <v>51</v>
+      </c>
+      <c r="C174" t="s">
+        <v>88</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G174" t="s">
+        <v>90</v>
+      </c>
+      <c r="H174" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>48</v>
-      </c>
-      <c r="B173" t="s">
-        <v>52</v>
-      </c>
-      <c r="C173" t="s">
-        <v>89</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G173" t="s">
-        <v>91</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>48</v>
-      </c>
-      <c r="B174" t="s">
-        <v>52</v>
-      </c>
-      <c r="C174" t="s">
-        <v>89</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E174" s="2" t="s">
+      <c r="I174" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>47</v>
+      </c>
+      <c r="B175" t="s">
+        <v>51</v>
+      </c>
+      <c r="C175" t="s">
+        <v>88</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G174" t="s">
-        <v>91</v>
-      </c>
-      <c r="H174" s="1" t="s">
+      <c r="G175" t="s">
+        <v>90</v>
+      </c>
+      <c r="H175" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>48</v>
-      </c>
-      <c r="B175" t="s">
-        <v>52</v>
-      </c>
-      <c r="C175" t="s">
-        <v>89</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E175" s="2" t="s">
+      <c r="I175" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>47</v>
+      </c>
+      <c r="B176" t="s">
+        <v>51</v>
+      </c>
+      <c r="C176" t="s">
+        <v>88</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G175" t="s">
-        <v>91</v>
-      </c>
-      <c r="H175" s="1" t="s">
+      <c r="G176" t="s">
+        <v>90</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>48</v>
-      </c>
-      <c r="B176" t="s">
-        <v>52</v>
-      </c>
-      <c r="C176" t="s">
-        <v>89</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G176" t="s">
-        <v>91</v>
-      </c>
-      <c r="H176" s="1" t="s">
+      <c r="I176" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D177" s="4"/>
+      <c r="I177" s="8"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>53</v>
+      </c>
+      <c r="B178" t="s">
+        <v>54</v>
+      </c>
+      <c r="C178" t="s">
+        <v>87</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H178" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>54</v>
-      </c>
-      <c r="B178" t="s">
-        <v>55</v>
-      </c>
-      <c r="C178" t="s">
-        <v>88</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I178" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E179" s="13"/>
       <c r="H179" s="14"/>
-    </row>
-    <row r="180" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I179" s="16"/>
+    </row>
+    <row r="180" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E180" s="13"/>
       <c r="H180" s="14"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180" s="16"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
         <v>8</v>
       </c>
-      <c r="B181" t="s">
-        <v>9</v>
-      </c>
       <c r="C181" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -6540,21 +7693,24 @@
         <v>10</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="I181" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
         <v>8</v>
       </c>
-      <c r="B182" t="s">
-        <v>9</v>
-      </c>
       <c r="C182" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E182">
         <v>2</v>
@@ -6563,21 +7719,24 @@
         <v>60</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="I182" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
         <v>8</v>
       </c>
-      <c r="B183" t="s">
-        <v>9</v>
-      </c>
       <c r="C183" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E183">
         <v>3</v>
@@ -6586,21 +7745,24 @@
         <v>60</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="I183" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
         <v>8</v>
       </c>
-      <c r="B184" t="s">
-        <v>9</v>
-      </c>
       <c r="C184" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E184">
         <v>4</v>
@@ -6609,21 +7771,24 @@
         <v>60</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="I184" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
         <v>8</v>
       </c>
-      <c r="B185" t="s">
-        <v>9</v>
-      </c>
       <c r="C185" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E185">
         <v>5</v>
@@ -6632,21 +7797,24 @@
         <v>60</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="I185" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
         <v>8</v>
       </c>
-      <c r="B186" t="s">
-        <v>9</v>
-      </c>
       <c r="C186" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E186">
         <v>6</v>
@@ -6655,21 +7823,24 @@
         <v>60</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="I186" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
         <v>8</v>
       </c>
-      <c r="B187" t="s">
-        <v>9</v>
-      </c>
       <c r="C187" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E187">
         <v>7</v>
@@ -6678,21 +7849,24 @@
         <v>60</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="I187" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
         <v>8</v>
       </c>
-      <c r="B188" t="s">
-        <v>9</v>
-      </c>
       <c r="C188" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E188">
         <v>8</v>
@@ -6701,21 +7875,24 @@
         <v>60</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="I188" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
         <v>8</v>
       </c>
-      <c r="B189" t="s">
-        <v>9</v>
-      </c>
       <c r="C189" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E189">
         <v>9</v>
@@ -6724,28 +7901,32 @@
         <v>60</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C190" s="8"/>
       <c r="D190" s="15"/>
       <c r="E190"/>
       <c r="F190" s="8"/>
       <c r="H190" s="8"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190" s="8"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -6754,21 +7935,24 @@
         <v>33</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="I191" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -6777,21 +7961,24 @@
         <v>80</v>
       </c>
       <c r="H192" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I192" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>8</v>
-      </c>
-      <c r="B193" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>357</v>
-      </c>
       <c r="D193" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E193">
         <v>3</v>
@@ -6800,21 +7987,24 @@
         <v>80</v>
       </c>
       <c r="H193" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I193" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>8</v>
-      </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>357</v>
-      </c>
       <c r="D194" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E194">
         <v>4</v>
@@ -6823,21 +8013,24 @@
         <v>80</v>
       </c>
       <c r="H194" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I194" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>8</v>
-      </c>
-      <c r="B195" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>357</v>
-      </c>
       <c r="D195" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E195">
         <v>5</v>
@@ -6846,21 +8039,24 @@
         <v>80</v>
       </c>
       <c r="H195" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I195" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>8</v>
-      </c>
-      <c r="B196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>357</v>
-      </c>
       <c r="D196" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E196">
         <v>6</v>
@@ -6869,21 +8065,24 @@
         <v>80</v>
       </c>
       <c r="H196" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I196" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>8</v>
-      </c>
-      <c r="B197" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>357</v>
-      </c>
       <c r="D197" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E197">
         <v>7</v>
@@ -6892,21 +8091,24 @@
         <v>80</v>
       </c>
       <c r="H197" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I197" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>8</v>
-      </c>
-      <c r="B198" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>357</v>
-      </c>
       <c r="D198" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E198">
         <v>8</v>
@@ -6915,21 +8117,24 @@
         <v>80</v>
       </c>
       <c r="H198" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I198" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>8</v>
-      </c>
-      <c r="B199" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>357</v>
-      </c>
       <c r="D199" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E199">
         <v>9</v>
@@ -6938,1340 +8143,1544 @@
         <v>80</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="I199" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C200" s="8"/>
       <c r="D200" s="15"/>
       <c r="E200"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200" s="8"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C201" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G201" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="I201" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="D202" s="5"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202" s="8"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B203" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C203" t="s">
+        <v>106</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G203" t="s">
+        <v>46</v>
+      </c>
+      <c r="H203" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D203" s="5" t="s">
+      <c r="I203" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D204" s="5"/>
+      <c r="I204" s="8"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>47</v>
+      </c>
+      <c r="B205" t="s">
+        <v>48</v>
+      </c>
+      <c r="C205" t="s">
         <v>106</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G203" t="s">
-        <v>47</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D204" s="5"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>48</v>
-      </c>
-      <c r="B205" t="s">
+      <c r="D205" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I205" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>47</v>
+      </c>
+      <c r="B206" t="s">
         <v>49</v>
       </c>
-      <c r="C205" t="s">
-        <v>107</v>
-      </c>
-      <c r="D205" s="5" t="s">
+      <c r="C206" t="s">
         <v>106</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H205" s="1" t="s">
+      <c r="D206" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H206" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>48</v>
-      </c>
-      <c r="B206" t="s">
+      <c r="I206" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>47</v>
+      </c>
+      <c r="B207" t="s">
         <v>50</v>
       </c>
-      <c r="C206" t="s">
-        <v>107</v>
-      </c>
-      <c r="D206" s="5" t="s">
+      <c r="C207" t="s">
         <v>106</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H206" s="1" t="s">
+      <c r="D207" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H207" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>48</v>
-      </c>
-      <c r="B207" t="s">
+      <c r="I207" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>47</v>
+      </c>
+      <c r="B208" t="s">
         <v>51</v>
       </c>
-      <c r="C207" t="s">
-        <v>107</v>
-      </c>
-      <c r="D207" s="5" t="s">
+      <c r="C208" t="s">
         <v>106</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>48</v>
-      </c>
-      <c r="B208" t="s">
-        <v>52</v>
-      </c>
-      <c r="C208" t="s">
-        <v>107</v>
-      </c>
       <c r="D208" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="I208" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209" s="8"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>53</v>
+      </c>
+      <c r="B210" t="s">
         <v>54</v>
       </c>
-      <c r="B210" t="s">
-        <v>55</v>
-      </c>
       <c r="C210" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E210" s="2">
         <v>1</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="I210" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>53</v>
+      </c>
+      <c r="B211" t="s">
         <v>54</v>
       </c>
-      <c r="B211" t="s">
-        <v>55</v>
-      </c>
       <c r="C211" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E211" s="2">
         <v>2</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="I211" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>53</v>
+      </c>
+      <c r="B212" t="s">
         <v>54</v>
       </c>
-      <c r="B212" t="s">
-        <v>55</v>
-      </c>
       <c r="C212" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E212" s="2">
         <v>3</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="I212" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>53</v>
+      </c>
+      <c r="B213" t="s">
         <v>54</v>
       </c>
-      <c r="B213" t="s">
-        <v>55</v>
-      </c>
       <c r="C213" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E213" s="2">
         <v>4</v>
       </c>
       <c r="H213" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I213" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>53</v>
+      </c>
+      <c r="B214" t="s">
+        <v>54</v>
+      </c>
+      <c r="C214" t="s">
+        <v>145</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H214" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+      <c r="I214" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>53</v>
+      </c>
+      <c r="B215" t="s">
         <v>54</v>
       </c>
-      <c r="B214" t="s">
-        <v>55</v>
-      </c>
-      <c r="C214" t="s">
-        <v>146</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E214" s="2" t="s">
+      <c r="C215" t="s">
+        <v>145</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I215" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>53</v>
+      </c>
+      <c r="B216" t="s">
+        <v>54</v>
+      </c>
+      <c r="C216" t="s">
+        <v>145</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I216" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>53</v>
+      </c>
+      <c r="B217" t="s">
+        <v>54</v>
+      </c>
+      <c r="C217" t="s">
+        <v>145</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I217" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>53</v>
+      </c>
+      <c r="B218" t="s">
+        <v>54</v>
+      </c>
+      <c r="C218" t="s">
+        <v>145</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I218" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>53</v>
+      </c>
+      <c r="B219" t="s">
+        <v>54</v>
+      </c>
+      <c r="C219" t="s">
+        <v>145</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H214" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>54</v>
-      </c>
-      <c r="B215" t="s">
-        <v>55</v>
-      </c>
-      <c r="C215" t="s">
-        <v>146</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>54</v>
-      </c>
-      <c r="B216" t="s">
-        <v>55</v>
-      </c>
-      <c r="C216" t="s">
-        <v>146</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>54</v>
-      </c>
-      <c r="B217" t="s">
-        <v>55</v>
-      </c>
-      <c r="C217" t="s">
-        <v>146</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>54</v>
-      </c>
-      <c r="B218" t="s">
-        <v>55</v>
-      </c>
-      <c r="C218" t="s">
-        <v>146</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H218" s="1" t="s">
+      <c r="H219" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>54</v>
-      </c>
-      <c r="B219" t="s">
-        <v>55</v>
-      </c>
-      <c r="C219" t="s">
-        <v>146</v>
-      </c>
-      <c r="D219" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I219" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E220" s="13"/>
       <c r="H220" s="14"/>
-    </row>
-    <row r="221" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I220" s="16"/>
+    </row>
+    <row r="221" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E221" s="13"/>
       <c r="H221" s="14"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I221" s="16"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" t="s">
         <v>8</v>
       </c>
-      <c r="B222" t="s">
-        <v>9</v>
-      </c>
       <c r="C222" t="s">
+        <v>108</v>
+      </c>
+      <c r="D222" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D222" s="6" t="s">
+      <c r="E222" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F222">
         <v>70</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="I222" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" t="s">
         <v>8</v>
       </c>
-      <c r="B223" t="s">
-        <v>9</v>
-      </c>
       <c r="C223" t="s">
+        <v>108</v>
+      </c>
+      <c r="D223" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D223" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="E223" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F223">
         <v>60</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="I223" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224" t="s">
         <v>8</v>
       </c>
-      <c r="B224" t="s">
-        <v>9</v>
-      </c>
       <c r="C224" t="s">
+        <v>108</v>
+      </c>
+      <c r="D224" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D224" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="E224" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F224">
         <v>50</v>
       </c>
       <c r="H224" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I224" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" t="s">
+        <v>108</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F225">
+        <v>10</v>
+      </c>
+      <c r="H225" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+      <c r="I225" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" t="s">
         <v>8</v>
       </c>
-      <c r="B225" t="s">
-        <v>9</v>
-      </c>
-      <c r="C225" t="s">
+      <c r="C226" t="s">
+        <v>108</v>
+      </c>
+      <c r="D226" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D225" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E225" s="2" t="s">
+      <c r="E226" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F225">
-        <v>10</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>8</v>
-      </c>
-      <c r="B226" t="s">
-        <v>9</v>
-      </c>
-      <c r="C226" t="s">
-        <v>109</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="I226" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D227" s="6"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I227" s="8"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C228" t="s">
+        <v>108</v>
+      </c>
+      <c r="D228" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D228" s="6" t="s">
+      <c r="E228" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F228">
         <v>90</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="I228" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C229" t="s">
+        <v>108</v>
+      </c>
+      <c r="D229" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D229" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="E229" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F229">
         <v>80</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="I229" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C230" t="s">
+        <v>108</v>
+      </c>
+      <c r="D230" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D230" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="E230" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F230">
         <v>70</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="I230" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C231" t="s">
+        <v>108</v>
+      </c>
+      <c r="D231" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D231" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="E231" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F231">
         <v>20</v>
       </c>
       <c r="H231" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I231" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D232" s="6"/>
+      <c r="I232" s="8"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C233" t="s">
+        <v>108</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G233" t="s">
+        <v>141</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I233" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D234" s="6"/>
+      <c r="I234" s="8"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235" t="s">
+        <v>43</v>
+      </c>
+      <c r="C235" t="s">
+        <v>108</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G235" t="s">
+        <v>46</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D236" s="6"/>
+      <c r="I236" s="8"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>47</v>
+      </c>
+      <c r="B237" t="s">
+        <v>48</v>
+      </c>
+      <c r="C237" t="s">
+        <v>108</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H237" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D232" s="6"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B233" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C233" t="s">
+      <c r="I237" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>47</v>
+      </c>
+      <c r="B238" t="s">
+        <v>49</v>
+      </c>
+      <c r="C238" t="s">
+        <v>108</v>
+      </c>
+      <c r="D238" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D233" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G233" t="s">
-        <v>142</v>
-      </c>
-      <c r="H233" s="1" t="s">
+      <c r="H238" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I238" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>47</v>
+      </c>
+      <c r="B239" t="s">
+        <v>50</v>
+      </c>
+      <c r="C239" t="s">
+        <v>108</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I239" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D240" s="6"/>
+      <c r="I240" s="8"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>47</v>
+      </c>
+      <c r="B241" t="s">
+        <v>51</v>
+      </c>
+      <c r="C241" t="s">
+        <v>108</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H241" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D234" s="6"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>8</v>
-      </c>
-      <c r="B235" t="s">
-        <v>44</v>
-      </c>
-      <c r="C235" t="s">
+      <c r="I241" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D242" s="6"/>
+      <c r="I242" s="8"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>53</v>
+      </c>
+      <c r="B243" t="s">
+        <v>54</v>
+      </c>
+      <c r="C243" t="s">
+        <v>108</v>
+      </c>
+      <c r="D243" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D235" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G235" t="s">
-        <v>47</v>
-      </c>
-      <c r="H235" s="1" t="s">
+      <c r="H243" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D236" s="6"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>48</v>
-      </c>
-      <c r="B237" t="s">
-        <v>49</v>
-      </c>
-      <c r="C237" t="s">
-        <v>109</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>48</v>
-      </c>
-      <c r="B238" t="s">
-        <v>50</v>
-      </c>
-      <c r="C238" t="s">
-        <v>109</v>
-      </c>
-      <c r="D238" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>48</v>
-      </c>
-      <c r="B239" t="s">
-        <v>51</v>
-      </c>
-      <c r="C239" t="s">
-        <v>109</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H239" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D240" s="6"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>48</v>
-      </c>
-      <c r="B241" t="s">
-        <v>52</v>
-      </c>
-      <c r="C241" t="s">
-        <v>109</v>
-      </c>
-      <c r="D241" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H241" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D242" s="6"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>54</v>
-      </c>
-      <c r="B243" t="s">
-        <v>55</v>
-      </c>
-      <c r="C243" t="s">
-        <v>109</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H243" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I243" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E244" s="13"/>
       <c r="H244" s="14"/>
-    </row>
-    <row r="245" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I244" s="14"/>
+    </row>
+    <row r="245" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E245" s="13"/>
       <c r="H245" s="14"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I245" s="14"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246" t="s">
         <v>8</v>
       </c>
-      <c r="B246" t="s">
-        <v>9</v>
-      </c>
       <c r="C246" t="s">
+        <v>117</v>
+      </c>
+      <c r="D246" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D246" s="7" t="s">
+      <c r="E246" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G246" t="s">
         <v>119</v>
       </c>
-      <c r="E246" s="2" t="s">
+      <c r="H246" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D247" s="7"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248" t="s">
+        <v>120</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G248" t="s">
+        <v>122</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249" t="s">
+        <v>120</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G249" t="s">
+        <v>122</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" t="s">
+        <v>120</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G250" t="s">
+        <v>122</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" t="s">
+        <v>120</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G251" t="s">
+        <v>126</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D252" s="7"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253" t="s">
+        <v>43</v>
+      </c>
+      <c r="C253" t="s">
+        <v>117</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G253" t="s">
         <v>46</v>
       </c>
-      <c r="G246" t="s">
-        <v>120</v>
-      </c>
-      <c r="H246" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D247" s="7"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>8</v>
-      </c>
-      <c r="B248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C248" t="s">
-        <v>121</v>
-      </c>
-      <c r="D248" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G248" t="s">
-        <v>123</v>
-      </c>
-      <c r="H248" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>8</v>
-      </c>
-      <c r="B249" t="s">
-        <v>12</v>
-      </c>
-      <c r="C249" t="s">
-        <v>121</v>
-      </c>
-      <c r="D249" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G249" t="s">
-        <v>123</v>
-      </c>
-      <c r="H249" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>8</v>
-      </c>
-      <c r="B250" t="s">
-        <v>12</v>
-      </c>
-      <c r="C250" t="s">
-        <v>121</v>
-      </c>
-      <c r="D250" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G250" t="s">
-        <v>123</v>
-      </c>
-      <c r="H250" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>8</v>
-      </c>
-      <c r="B251" t="s">
-        <v>12</v>
-      </c>
-      <c r="C251" t="s">
-        <v>121</v>
-      </c>
-      <c r="D251" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G251" t="s">
+      <c r="H253" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H251" s="1" t="s">
+      <c r="I253" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D254" s="7"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>47</v>
+      </c>
+      <c r="B255" t="s">
+        <v>48</v>
+      </c>
+      <c r="C255" t="s">
+        <v>117</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H255" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D252" s="7"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>8</v>
-      </c>
-      <c r="B253" t="s">
-        <v>44</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="I255" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>47</v>
+      </c>
+      <c r="B256" t="s">
+        <v>49</v>
+      </c>
+      <c r="C256" t="s">
+        <v>117</v>
+      </c>
+      <c r="D256" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D253" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G253" t="s">
-        <v>47</v>
-      </c>
-      <c r="H253" s="1" t="s">
+      <c r="E256" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>47</v>
+      </c>
+      <c r="B257" t="s">
+        <v>50</v>
+      </c>
+      <c r="C257" t="s">
+        <v>117</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>47</v>
+      </c>
+      <c r="B258" t="s">
+        <v>51</v>
+      </c>
+      <c r="C258" t="s">
+        <v>117</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D259" s="7"/>
+    </row>
+    <row r="260" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>53</v>
+      </c>
+      <c r="B260" t="s">
+        <v>54</v>
+      </c>
+      <c r="C260" t="s">
+        <v>117</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H260" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D254" s="7"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>48</v>
-      </c>
-      <c r="B255" t="s">
-        <v>49</v>
-      </c>
-      <c r="C255" t="s">
-        <v>118</v>
-      </c>
-      <c r="D255" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>48</v>
-      </c>
-      <c r="B256" t="s">
-        <v>50</v>
-      </c>
-      <c r="C256" t="s">
-        <v>118</v>
-      </c>
-      <c r="D256" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H256" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>48</v>
-      </c>
-      <c r="B257" t="s">
-        <v>51</v>
-      </c>
-      <c r="C257" t="s">
-        <v>118</v>
-      </c>
-      <c r="D257" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H257" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>48</v>
-      </c>
-      <c r="B258" t="s">
-        <v>52</v>
-      </c>
-      <c r="C258" t="s">
-        <v>118</v>
-      </c>
-      <c r="D258" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D259" s="7"/>
-    </row>
-    <row r="260" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>54</v>
-      </c>
-      <c r="B260" t="s">
-        <v>55</v>
-      </c>
-      <c r="C260" t="s">
-        <v>118</v>
-      </c>
-      <c r="D260" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H260" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I260" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E261" s="13"/>
       <c r="H261" s="14"/>
-    </row>
-    <row r="262" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I261" s="14"/>
+    </row>
+    <row r="262" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E262" s="13"/>
       <c r="H262" s="14"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I262" s="14"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263" t="s">
         <v>8</v>
       </c>
-      <c r="B263" t="s">
-        <v>9</v>
-      </c>
       <c r="C263" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F263">
         <v>50</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D264" s="9"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B265" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C265" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F265">
         <v>80</v>
       </c>
       <c r="H265" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D266" s="9"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C267" t="s">
+        <v>142</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G267" t="s">
+        <v>141</v>
+      </c>
+      <c r="H267" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D266" s="9"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A267" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C267" t="s">
-        <v>143</v>
-      </c>
-      <c r="D267" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G267" t="s">
-        <v>142</v>
-      </c>
-      <c r="H267" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I267" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="D268" s="9"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B269" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C269" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D269" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G269" t="s">
+        <v>46</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D270" s="9"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>47</v>
+      </c>
+      <c r="B271" t="s">
+        <v>48</v>
+      </c>
+      <c r="C271" t="s">
+        <v>142</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>47</v>
+      </c>
+      <c r="B272" t="s">
+        <v>49</v>
+      </c>
+      <c r="C272" t="s">
+        <v>142</v>
+      </c>
+      <c r="D272" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>47</v>
+      </c>
+      <c r="B273" t="s">
+        <v>50</v>
+      </c>
+      <c r="C273" t="s">
+        <v>142</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>47</v>
+      </c>
+      <c r="B274" t="s">
+        <v>51</v>
+      </c>
+      <c r="C274" t="s">
+        <v>142</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H274" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G269" t="s">
-        <v>47</v>
-      </c>
-      <c r="H269" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D270" s="9"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>48</v>
-      </c>
-      <c r="B271" t="s">
-        <v>49</v>
-      </c>
-      <c r="C271" t="s">
-        <v>143</v>
-      </c>
-      <c r="D271" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>48</v>
-      </c>
-      <c r="B272" t="s">
-        <v>50</v>
-      </c>
-      <c r="C272" t="s">
-        <v>143</v>
-      </c>
-      <c r="D272" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H272" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>48</v>
-      </c>
-      <c r="B273" t="s">
-        <v>51</v>
-      </c>
-      <c r="C273" t="s">
-        <v>143</v>
-      </c>
-      <c r="D273" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H273" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>48</v>
-      </c>
-      <c r="B274" t="s">
-        <v>52</v>
-      </c>
-      <c r="C274" t="s">
-        <v>143</v>
-      </c>
-      <c r="D274" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H274" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I274" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D275" s="9"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
+        <v>53</v>
+      </c>
+      <c r="B276" t="s">
         <v>54</v>
       </c>
-      <c r="B276" t="s">
-        <v>55</v>
-      </c>
       <c r="C276" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E277" s="13"/>
       <c r="H277" s="14"/>
-    </row>
-    <row r="278" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I277" s="14"/>
+    </row>
+    <row r="278" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E278" s="13"/>
       <c r="H278" s="14"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I278" s="14"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>7</v>
+      </c>
+      <c r="B279" t="s">
         <v>8</v>
       </c>
-      <c r="B279" t="s">
-        <v>9</v>
-      </c>
       <c r="C279" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F279">
         <v>50</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D280" s="10"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B281" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F281">
         <v>80</v>
       </c>
       <c r="H281" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D282" s="10"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283" t="s">
+        <v>139</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D283" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G283" t="s">
+        <v>141</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D284" s="10"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285" t="s">
+        <v>43</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G285" t="s">
+        <v>46</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D286" s="10"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>47</v>
+      </c>
+      <c r="B287" t="s">
+        <v>48</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D287" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H287" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D282" s="10"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>8</v>
-      </c>
-      <c r="B283" t="s">
+      <c r="I287" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>47</v>
+      </c>
+      <c r="B288" t="s">
+        <v>49</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D288" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>47</v>
+      </c>
+      <c r="B289" t="s">
+        <v>50</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>47</v>
+      </c>
+      <c r="B290" t="s">
+        <v>51</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D290" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H290" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C283" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D283" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G283" t="s">
-        <v>142</v>
-      </c>
-      <c r="H283" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D284" s="10"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>8</v>
-      </c>
-      <c r="B285" t="s">
-        <v>44</v>
-      </c>
-      <c r="C285" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D285" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G285" t="s">
-        <v>47</v>
-      </c>
-      <c r="H285" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D286" s="10"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>48</v>
-      </c>
-      <c r="B287" t="s">
-        <v>49</v>
-      </c>
-      <c r="C287" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D287" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H287" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>48</v>
-      </c>
-      <c r="B288" t="s">
-        <v>50</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D288" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H288" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>48</v>
-      </c>
-      <c r="B289" t="s">
-        <v>51</v>
-      </c>
-      <c r="C289" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D289" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H289" s="1" t="s">
+      <c r="I290" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D291" s="10"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>53</v>
+      </c>
+      <c r="B292" t="s">
+        <v>54</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D292" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H292" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>48</v>
-      </c>
-      <c r="B290" t="s">
-        <v>52</v>
-      </c>
-      <c r="C290" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D290" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H290" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D291" s="10"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>54</v>
-      </c>
-      <c r="B292" t="s">
-        <v>55</v>
-      </c>
-      <c r="C292" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D292" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H292" s="1" t="s">
-        <v>313</v>
+      <c r="I292" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/disasterinfosite/data/snuggets.xlsx
+++ b/disasterinfosite/data/snuggets.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="1010">
   <si>
     <t>section</t>
   </si>
@@ -11787,6 +11787,721 @@
   </si>
   <si>
     <t>text-cn</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Существует &lt;b&gt;ВЫСОКАЯ ВЕРОЯТНОСТЬ&lt;/b&gt; (84%) того&amp;#44; что в ближайшие 50 лет в этом районе произойдет глубокофокусное землетрясение магнитудой более 6&amp;#44;5. Толчки будут ощущаться такие же&amp;#44; как и при землетрясении Nisqually магнитудой 6&amp;#44;8&amp;#44; которое произошло в 2001 г. Почти все жители этого района почувствуют легкое дрожание.  &lt;b&gt;Будут раскачиваться двери&amp;#44; шататься картины&amp;#44; небольшие предметы могут падать. Разрушения будут незначительными.&lt;/b&gt;  &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Существует &lt;b&gt;ВЫСОКАЯ ВЕРОЯТНОСТЬ&lt;/b&gt; (84%) того&amp;#44; что в ближайшие 50 лет в этом районе произойдет глубокофокусное землетрясение магнитудой более 6&amp;#44;5. Толчки будут ощущаться такие же&amp;#44; как и при землетрясении Nisqually магнитудой 6&amp;#44;8&amp;#44; которое произошло в 2001 г. &lt;b&gt;Из-за значительного дрожания в этом районе будет сложно ходить. С полок попадают книги&amp;#44; стеклянная посуда и другие предметы. Откроются дверцы шкафов и ящики комодов&lt;/b&gt;. Разрушатся дымоходы и некачественно построенные здания. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Существует &lt;b&gt;ВЫСОКАЯ ВЕРОЯТНОСТЬ&lt;/b&gt; (84%) того&amp;#44; что в ближайшие 50 лет в этом районе произойдет глубокофокусное землетрясение магнитудой более 6&amp;#44;5. Толчки будут ощущаться такие же&amp;#44; как и при землетрясении Nisqually магнитудой 6&amp;#44;8&amp;#44; которое произошло в 2001 г. &lt;b&gt;Из-за очень сильного дрожания в этом районе будет трудно устоять на ногах. Мебель начнет двигаться&amp;#44; с полок попадает множество предметов.&lt;/b&gt; Сильно разрушаться некачественно построенные здания. Степень разрушения нормальных зданий будет легкой или умеренной. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Существует&lt;b&gt;МИНИМАЛЬНАЯ ВЕРОЯТНОСТЬ&lt;/b&gt; (5%) того&amp;#44; что в ближайшие 50 лет в зоне Seattle Fault произойдет землетрясение магнитудой более 7. Но если оно произойдет&amp;#44; его последствия будут разрушительны. &lt;b&gt;Почти все жители почувствуют умеренные толчки. Будут раскачиваться двери&amp;#44; шататься картины&amp;#44; небольшие предметы могут падать. Разрушения будут незначительными.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Существует&lt;b&gt;МИНИМАЛЬНАЯ ВЕРОЯТНОСТЬ&lt;/b&gt; (5%) того&amp;#44; что в ближайшие 50 лет в зоне Seattle Fault произойдет землетрясение магнитудой более 7. Но если оно произойдет&amp;#44; его последствия будут разрушительны. Из-за сильного дрожания будет сложно ходить. &lt;b&gt;С полок попадают книги&amp;#44; стеклянная посуда и другие предметы. Разрушатся дымоходы и некачественно построенные здания.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Существует&lt;b&gt;МИНИМАЛЬНАЯ ВЕРОЯТНОСТЬ&lt;/b&gt; (5%) того&amp;#44; что в ближайшие 50 лет в зоне Seattle Fault произойдет землетрясение магнитудой более 7. Но если оно произойдет&amp;#44; его последствия будут разрушительны. &lt;b&gt;Из-за сильных толчков будет трудно устоять на ногах. Мебель начнет двигаться&amp;#44; попадают предметы&lt;/b&gt;. Плохо построенные здания подвергнутся значительным разрушениям&amp;#44; у зданий с хорошим фундаментом будут наблюдаться умеренные повреждения. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(карта) &lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Существует&lt;b&gt;МИНИМАЛЬНАЯ ВЕРОЯТНОСТЬ&lt;/b&gt; (5%) того&amp;#44; что в ближайшие 50 лет в зоне Seattle Fault произойдет землетрясение магнитудой более 7. Но если оно произойдет&amp;#44; его последствия будут разрушительны. &lt;b&gt;Из-за сильных толчков будет трудно устоять на ногах или вести автомобиль. Перевернется тяжелая мебель. Части &lt;a href="http://www.seattle.gov/dpd/codesrules/changestocode/unreinforcedmasonrybuildings/whatwhy/" target=_blank&gt;зданий с неармированной каменной кладкой&lt;/a&gt; разрушатся&amp;#44; каркасные дома сойдут с фундамента&lt;/b&gt;. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Существует&lt;b&gt;МИНИМАЛЬНАЯ ВЕРОЯТНОСТЬ&lt;/b&gt; (5%) того&amp;#44; что в ближайшие 50 лет в зоне Seattle Fault произойдет землетрясение магнитудой более 7. Но если оно произойдет&amp;#44; его последствия будут разрушительны. &lt;b&gt;Из-за сильнейших толчков среди людей быстро распространиться паника. В земле образуются трещины. На крутых склонах произойдут оползни&amp;#44; насыщенная влагой почва пострадает от разжижения.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Существует &lt;b&gt;УМЕРЕННАЯ ВЕРОЯТНОСТЬ&lt;/b&gt; (10–30%) того&amp;#44; что в ближайшие 50 лет на северо-западе произойдет землетрясение магнитудой более 8&amp;#44; подобное Каскадии. &lt;b&gt; Если же это произойдет&amp;#44; жители района почувствуют умеренные толчки&amp;#44; которые будут повторяться в течение всего нескольких минут. Незакрепленные предметы попадают с полок. Дверцы шкафов будут раскачиваться из стороны в сторону&lt;/b&gt;. На многие дни и недели жители останутся без электричества и воды. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Существует &lt;b&gt;УМЕРЕННАЯ ВЕРОЯТНОСТЬ&lt;b&gt; (10–30 %) того&amp;#44; что в ближайшие 50 лет на северо-западе произойдет землетрясение магнитудой более 8&amp;#44; подобное Каскадии. &lt;b&gt;Если же это произойдет&amp;#44; жители района почувствуют сильные толчки&amp;#44; которые будут повторяться в течение всего нескольких минут. Будет трудно ходить. Разрушиться множество зданий с неармированной каменной кладкой&amp;#44; пострадают люди&lt;/b&gt;. На многие дни и недели жители останутся без электричества и воды. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Существует &lt;b&gt;УМЕРЕННАЯ ВЕРОЯТНОСТЬ&lt;/b&gt; (10–30%) того&amp;#44; что в ближайшие 50 лет на северо-западе произойдет землетрясение магнитудой более 8&amp;#44; подобное Каскадии.&lt;b&gt; Если же это произойдет&amp;#44; жители района почувствуют очень сильные толчки&amp;#44; которые будут повторяться в течение всего нескольких минут. Будет трудно устоять на ногах&amp;#44; пострадает много людей. Улицы засыплет грудами обрушившихся кирпичей и битого стекла.&lt;/b&gt; На многие дни и недели жители останутся без электричества и воды. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Вы находитесь &lt;b&gt;в зоне ВЫСОКОГО риска возникновения цунами&lt;/b&gt;. Через несколько десятков минут после землетрясения вода поднимется на уровень выше головы. Как только прекратятся толчки&amp;#44; НЕМЕДЛЕННО ЭВАКУИРУЙТЕСЬ в более возвышенную местность. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(карта)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Вы находитесь &lt;b&gt;в зоне ВЫСОКОГО риска возникновения цунами&lt;/b&gt;. Через несколько десятков минут после землетрясения вода поднимется на уровень от колен до головы. Как только прекратятся толчки&amp;#44; НЕМЕДЛЕННО ЭВАКУИРУЙТЕСЬ в более возвышенную местность.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(карта)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Вы находитесь &lt;b&gt;в зоне ВЫСОКОГО риска возникновения цунами&lt;/b&gt;. Вода поднимется примерно до уровня колен&amp;#44; но скорость ее потока будет достаточно сильной&amp;#44; чтобы сбить человека с ног. Всего несколько десятков минут будет на то&amp;#44; чтобы ЭВАКУИРОВАТЬСЯ в более возвышенную местность. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(карта)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Вы находитесь вне зоны высокого риска возникновения цунами&amp;#44; обозначенной на карте&lt;/b&gt;&amp;#44; но радиус распространения волн цунами может варьироваться от случая к случаю. Живете ли вы или работаете в низкой местности (около 9 м над уровнем моря) вблизи океана? Если да&amp;#44; НЕМЕДЛЕННО ЭВАКУИРУЙТЕСЬ в более возвышенную местность после прекращения сильных толчков. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(карта)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Если вы находитесь в радиусе 0&amp;#44;4 км от берега&lt;/b&gt;. Если вы находитесь в низкой местности (около 9 м над уровнем моря)&amp;#44; то существует риск возникновения цунами&amp;#44; которое последует за землетрясением. Немедленно переходите на возвышенность. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(карта)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Если во время землетрясения вы находитесь в лодке&amp;#44; то можете почувствовать прохождение быстро движущихся волн цунами. Будьте готовы к этому. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(карта)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Вероятность возникновения: ВЫСОКАЯ&lt;/b&gt;&lt;br&gt;Из-за толчков почва станет очень неустойчивой&amp;#44; будет подобна зыбучим пескам. На улице сквозь трещины дорог могут прорываться потоки воды с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Вероятность возникновения: УМЕРЕННАЯ – ВЫСОКАЯ&lt;/b&gt;&lt;br&gt;Содрогающаяся от толчков почва станет неустойчивой. Ее способность удерживать дома&amp;#44; транспортные средства и другие объекты уменьшится. На улице сквозь трещины дорог могут прорываться потоки воды с песком.  &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Вероятность возникновения: НИЗКАЯ – УМЕРЕННАЯ&lt;/b&gt;&lt;br&gt;В этом районе существует риск возникновения разжижения грунтов. Из-за толчков почва может стать неустойчивой. Дороги могут покрыться трещинами и разрушиться.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Вероятность возникновения: НИЗКАЯ&lt;/b&gt;&lt;br&gt;В этом районе возникновение разжижения грунтов маловероятно&amp;#44; если только толчки не будут сильные. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Вероятность возникновения: ОЧЕНЬ НИЗКАЯ–НИЗКАЯ&lt;/b&gt;&lt;br&gt;В этом районе возникновение разжижения грунтов маловероятно&amp;#44; если только толчки не будут очень сильные. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Вероятность возникновения: ОЧЕНЬ НИЗКАЯ&lt;/b&gt;&lt;br&gt;В этом районе возникновение разжижения грунтов маловероятно&amp;#44; если только толчки не будут очень сильные. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Вероятность возникновения: ОТСУТСТВУЕТ&lt;/b&gt;&lt;br&gt;Район находится в материковой зоне&amp;#44; под почвой и осадочными породами — скалистый грунт. Он не подвержен разжижению. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Вероятность возникновения: ОТСУТСТВУЕТ&lt;/b&gt;&lt;br&gt;Этот район расположен в торфяной местности. Торф — темная горная порода&amp;#44; похожая на почву&amp;#44; которая состоит из органических веществ. Торф может деформироваться&amp;#44; но разжижению он не подвержен. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Вероятность возникновения: ОТСУТСТВУЕТ&lt;/b&gt;&lt;br&gt;Эта местность состоит изо льда и не подвержена разжижению. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;ОЧЕНЬ НИЗКАЯ ПЛОТНОСТЬ ЗАСТРОЙКИ: от 0 до 10 зданий с неармированной каменной кладкой в радиусе 0&amp;#44;4 км.&lt;/b&gt;&lt;br&gt;В таких зданиях сильные толчки землетрясений разрушат кирпичные стены или крыши. Улицы будут захламлены их завалами. Узнайте&amp;#44; где расположены  &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;ближайшие к вам&lt;/a&gt; здания с неармированной каменной кладкой и были ли они реконструированы. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;НИЗКАЯ ПЛОТНОСТЬ ЗАСТРОЙКИ: от 10 до 25 зданий с неармированной каменной кладкой в радиусе 0&amp;#44;4 км.&lt;/b&gt;&lt;br&gt;В таких зданиях сильные толчки землетрясений разрушат кирпичные стены или крыши. Улицы будут захламлены их завалами. Узнайте&amp;#44; где расположены  &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;ближайшие к вам&lt;/a&gt; здания с неармированной каменной кладкой и были ли они реконструированы. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;УМЕРЕННАЯ ПЛОТНОСТЬ ЗАСТРОЙКИ: от 25 до 50 зданий с неармированной каменной кладкой в радиусе 0&amp;#44;4 км.&lt;/b&gt;&lt;br&gt;В таких зданиях сильные толчки землетрясений разрушат кирпичные стены или крыши. Улицы будут захламлены их завалами. Узнайте&amp;#44; где расположены &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;ближайшие к вам&lt;/a&gt; здания с неармированной каменной кладкой и были ли они реконструированы. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;ВЫСОКАЯ ПЛОТНОСТЬ ЗАСТРОЙКИ: от 50 до 100 зданий с неармированной каменной кладкой в радиусе 0&amp;#44;4 км.&lt;/b&gt;&lt;br&gt;Если во время землетрясения вы находитесь в здании с неармированной каменной кладкой&amp;#44; то нужно «Лечь&amp;#44; защититься и не двигаться». Сильные толчки землетрясений разрушат кирпичные стены или крыши таких зданий. Улицы будут захламлены их завалами. Узнайте&amp;#44; где расположены &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;ближайшие к вам&lt;/a&gt; здания с неармированной каменной кладкой и были ли они реконструированы. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;ОЧЕНЬ ВЫСОКАЯ ПЛОТНОСТЬ ЗАСТРОЙКИ: от 100 до 250 зданий с неармированной каменной кладкой в радиусе 0&amp;#44;4 км.&lt;/b&gt;&lt;br&gt;Если во время землетрясения вы находитесь в здании с неармированной каменной кладкой&amp;#44; то нужно «Лечь&amp;#44; защититься и не двигаться». Сильные толчки землетрясений разрушат кирпичные стены или крыши таких зданий. Улицы будут захламлены их завалами. Узнайте&amp;#44; где расположены &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;ближайшие к вам&lt;/a&gt; здания с неармированной каменной кладкой и были ли они реконструированы. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Землетрясения предсказать невозможно&amp;#44; поэтому&amp;#44; если вы чувствуете толчки&amp;#44; — лягте&amp;#44; защититесь и не двигайтесь. Сейчас для жителей Западного побережья разрабатывается система предварительного оповещения. Вы можете узнать больше &lt;a href=http://earthquake.usgs.gov/research/earlywarning/ target="_blank"&gt;здесь&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;РЕПЕТИЦИЯ&lt;/b&gt; - будьте бдительны и повторяйте про себя следующие команды: «Лечь&amp;#44; защититься и не двигаться».&lt;/li&gt;&lt;li&gt;&lt;b&gt;ПЛАН&lt;/b&gt; - составьте домашний план эвакуации (&lt;a href=http://www.fema.gov/media-library-data/0e3ef555f66e22ab832e284f826c2e9e/FEMA_plan_parent_508_071513.pdf target="_blank"&gt;для взрослых&lt;/a&gt; и &lt;a href=http://www.fema.gov/media-library-data/a260e5fb242216dc62ae380946806677/FEMA_plan_child_508_071513.pdf target="_blank"&gt;для детей&lt;/a&gt;) и соберите &lt;a href=http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf target="_blank"&gt;набор для выживания&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;b&gt;ПОДГОТОВКА&lt;/b&gt; - прикрепите предметы&amp;#44; которые могут упасть&amp;#44; и запомните&amp;#44; где выключаются вода&amp;#44; газ&amp;#44; электричество.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;ЕСЛИ ВЫ ВНУТРИ ДОМА — ОСТАВАЙТЕСЬ ТАМ!&lt;/b&gt; Укройтесь под прочным письменным или кухонным столом вдали от объектов&amp;#44; которые могут на вас упасть&amp;#44; и не двигайтесь. НЕ выбегайте наружу&amp;#44; пока не прекратятся толчки. &lt;/li&gt;&lt;li&gt;&lt;b&gt;ЕСЛИ ВЫ НА УЛИЦЕ — ВЫЙДИТЕ НА ОТКРЫТУЮ МЕСТНОСТЬ&amp;#44; &lt;/b&gt; которая находится вдали от зданий&amp;#44; линий электропередач&amp;#44; дымоходов и других предметов&amp;#44; которые могут на вас упасть. &lt;/li&gt;&lt;li&gt;&lt;b&gt;ЕСЛИ ВЫ ВЕДЕТЕ АВТОМОБИЛЬ — ОСТОРОЖНО ОСТАНОВИТЕСЬ &lt;/b&gt; (не под мостом&amp;#44; не на переходе&amp;#44; не возле линий электропередач и т. п.) и ОСТАВАЙТЕСЬ ВНУТРИ.&lt;/li&gt;&lt;li&gt;&lt;b&gt;ЕСЛИ ВЫ ВБЛИЗИ ОКЕАНА &lt;/b&gt; - следуйте рекомендациям&amp;#44; названным выше&amp;#44; пока не прекратятся толчки. Затем &lt;b&gt;ОТПРАВЛЯЙТЕСЬ НА БОЛЕЕ ВОЗВЫШЕННУЮ МЕСТНОСТЬ&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/EQ_during.jpg" alt="This is a panel of four cartoon images showing what to do during an earthquake if inside&amp;#44; outside&amp;#44; driving&amp;#44; or near the ocean." title="During Earthquake Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;ПОДГОТОВЬТЕСЬ К АФТЕРШОКАМ &lt;/b&gt; (повторные толчки&amp;#44; следующие за главным могут вызвать больше разрушений&amp;#44; чем первоначальный). &lt;ul&gt;&lt;li&gt;Телефонные линии будут перегружены; &lt;b&gt;для поддержания связи с семьей рекомендуется отправлять СМС.&lt;/b&gt;&lt;/li&gt;&lt;li&gt;Проверяйте&amp;#44; есть ли у кого травмы.&lt;/li&gt;&lt;li&gt;Когда вы уже в безопасности&amp;#44; &lt;b&gt;проверьте новости &lt;/b&gt; о чрезвычайной ситуации по радиоприемнику батарейного питания&amp;#44; телевизору&amp;#44; соцсетям. Проверьте сообщения&amp;#44; которые поступают на мобильный телефон.&lt;/li&gt;&lt;li&gt;Группа реагирования на чрезвычайные ситуации будет занята. Поэтому в последующие за землетрясением дни и часы  &lt;b&gt;обращайтесь за поддержкой к друзьям и соседям.&lt;/b&gt;&lt;/li&gt;&lt;li&gt;&lt;b&gt;Если необходимо&amp;#44; регулируйте потребление коммунальных ресурсов&lt;/b&gt;. Подробно о том&amp;#44; когда и как &lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target="_blank"&gt; регулировать потребление газа и воды после землетрясения&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Morgan Junction Park Hub &lt;br&gt;Месторасположение центра: At Morgan Junction Park&amp;#44; &lt;br&gt;6413 California Ave SW&amp;#44; Seattle&amp;#44; WA 98118 &lt;br&gt;Заведующий центром: Cindi Barker&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:cindiLbarker@gmail.com" target="_top"&gt;cindiLbarker@gmail.com&lt;/a&gt;&lt;br&gt;Телефон: 206-933-6968&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/west-seattle/" target=_blank&gt;http://seattleemergencyhubs.org/west-seattle&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;North Highland Park Hub &lt;br&gt;Месторасположение центра: The Highland Park Improvement Club &lt;br&gt;1116 SW Holden St&lt;br&gt;Заведующий центром:требуются волонтеры &lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен &lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;South Park Neighborhood Center &lt;br&gt;Месторасположение центра: 8201 10th Ave S&lt;br&gt;Заведующий центром: Dagmar Cronn&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:cronn@oakland.edu" target="_top"&gt;cronn@oakland.edu&lt;/a&gt;&lt;br&gt;Телефон: 206-327-1828&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt; &lt;br&gt;description: Meet by the blue box in the park&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Pigeon Point Hub &lt;br&gt;Месторасположение центра: The intersection of 20th Ave SW &amp; SW Genesee St&amp;#44; Seattle&amp;#44; WA 98106 &lt;br&gt;NW corner of the Park&amp;#44; just north of the school.&lt;br&gt;Заведующий центром: Wade Harper&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:wade.harper@outlook.com" target="_top"&gt;wade.harper@outlook.com&lt;/a&gt;&lt;br&gt;Телефон: 206-455-5407&lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Hiawatha Playfield/Community Center (Admiral Hub) &lt;br&gt;Месторасположение центра: At California Ave SW &amp; SW Lander St&amp;#44; Seattle&amp;#44; WA 98116&lt;br&gt;Заведующий центром: Paul Stancik&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:pstancik@mindspring.com" target="_top"&gt;pstancik@mindspring.com&lt;/a&gt;&lt;br&gt;Телефон:будет определен &lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Fauntleroy Church Hub &lt;br&gt;Месторасположение центра: Fauntleroy Church&amp;#44; 9140 California Ave SW&lt;br&gt;Заведующий центром: Gordon Wiehler&lt;br&gt;Адрес электронной почты:: &lt;a href="mailto:gmwinv@Comcast.net" target="_top"&gt;gmwinv@Comcast.net&lt;/a&gt;&lt;br&gt;Телефон:: 206-577-4292&lt;br&gt;Веб-сайт:&lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org/&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Providence/Mount St. Vincent&amp;#44; parking lot (Fairmount Hub) &lt;br&gt;Месторасположение центра: At SW Hudson St &amp; 35th Ave SW&amp;#44; Seattle&amp;#44; WA 98126 &lt;br&gt; (meet at the SE parking lot under the flag pole )&lt;br&gt;Заведующий центром: Sharonn Meeks&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:smeeks50@comcast.net" target="_top"&gt;smeeks50@comcast.net&lt;/a&gt;&lt;br&gt;Телефон: 206-938-1007&lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Neighborhood House (High Point Hub) &lt;br&gt;Месторасположение центра: At 6400 Sylvan Way SW (note that east of 35th Ave SW&amp;#44; SW Morgan Street becomes Sylvan Way SW). Neighborhood House is next to Lanham Place SW. Meet at the amphitheater. &lt;br&gt;Заведующий центром: Heather Hutchison&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:heather.hutchison@manage" target="_top"&gt;heather.hutchison@manage&lt;/a&gt;&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Ercolini Park Hub &lt;br&gt;Месторасположение центра: At 48th Ave SW &amp; SW Alaska St.&amp;#44; in the park&lt;br&gt;Заведующий центром: Jon Wright&lt;br&gt;Адрес электронной почты:&lt;a href="mailto:ercolini@westseattlebeprepared.org" target="_top"&gt;ercolini@westseattlebeprepared.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен &lt;br&gt;Веб-сайт: &lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;EC Hughes Playground (Olympic Heights Hub) &lt;br&gt;Месторасположение центра: At 29th Ave SW &amp; SW Holden St&amp;#44; Seattle&amp;#44; WA 98126&amp;#44; at the NE corner of Hughes Playground.&lt;br&gt;Заведующий центром: требуются волонтеры&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен &lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Salvation Army&amp;#44; parking lot (South Highland Park Hub) &lt;br&gt;Месторасположение центра: At 9050 16th Ave SW (near SW Barton St.)&amp;#44; the Salvation Army parking lot is the gathering place for this hub.&lt;br&gt;Заведующий центром: требуются волонтеры &lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен &lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;North Delridge P-Patch Hub &lt;br&gt;Месторасположение центра: At the P-Patch&amp;#44; located at 5078 25th Ave SW&amp;#44; Seattle&amp;#44; WA&lt;br&gt;Заведующий центром: Jay McNally&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:Newcarissa@gmail.com" target="_top"&gt;Newcarissa@gmail.com &lt;/a&gt;&lt;br&gt;Телефон: 206-484-6613&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Hope Lutheran Church (Alaska Junction Hub) &lt;br&gt;Месторасположение центра: 4456 42nd Ave SW&amp;#44; Seattle&amp;#44; WA 98116&lt;br&gt;Заведующий центром: требуются волонтеры&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен &lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Alki Community Center (Alki Hub) &lt;br&gt;Месторасположение центра: At 59th Ave SW &amp; SW Stevens St&amp;#44; Seattle&amp;#44; WA 98116. This is adjacent to Whale Tail Park&amp;#44; near the west edge of the playfield. North side of Alki Playfield&lt;br&gt;Заведующий центром: Tony Fragada (98126)&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:tfragada@yahoo.com" target="_top"&gt;tfragada@yahoo.com&lt;/a&gt; &lt;br&gt;Телефон: будет определен &lt;br&gt;Веб-сайт: &lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Maa Nyei Lai Ndeic P-Patch Hub &lt;br&gt;Месторасположение центра: 4913 Columbia Dr S&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Заведующий центром: Debbie Goetz&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Телефон: 206-684-0517&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Hillman City P-Patch Hub &lt;br&gt;Месторасположение центра: 4613 S Lucile St&amp;#44; Seattle&amp;#44; WA 98118 (Corner of South Lucile &amp; 46th Ave South)&lt;br&gt;Заведующий центром: Joanne Tilton&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:Jtilton22@comcast.net" target="_top"&gt;Jtilton22@comcast.net&lt;/a&gt;&lt;br&gt;Телефон: 206-650-2071&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Judkins P-Patch Hub &lt;br&gt;Месторасположение центра: 24th Avenue S &amp; S Norman Street Seattle&amp;#44; WA 98112 (Meeting Location: P-Patch entrance off Norman &amp; 24th Ave S.)&lt;br&gt;Заведующий центром: Jen Ellis&lt;br&gt;Адрес электронной почты:   &lt;a href="mailto:JenniferEllis.206@gmail.com" target="_top"&gt;JenniferEllis.206@gmail.com&lt;/a&gt;&lt;br&gt;Телефон: 206-276-4982&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Fisher Pavilion Hub &lt;br&gt;Месторасположение центра: 2nd Ave N &amp; Thomas St&lt;br&gt;Заведующий центром: MIQA Be Prepared&lt;br&gt;Адрес электронной почты:  &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт:  &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Interbay Fishermen's Terminal Hub &lt;br&gt;Месторасположение центра: Interbay Fishermen's Terminal&lt;br&gt;Заведующий центром: MIQA Be Prepared&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен &lt;br&gt;Веб-сайт: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Eastlake Hub &lt;br&gt;Месторасположение центра: Rogers Playfield&lt;br&gt;Заведующий центром: Amy O'Donnell&lt;br&gt;Адрес электронной почты:  &lt;a href="mailto:eastlake.hub@gmail.com" target="_top"&gt;eastlake.hub@gmail.com&lt;/a&gt;&lt;br&gt;Телефон: будет определен &lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Madison Park Hub &lt;br&gt;Месторасположение центра: 42nd Ave E and E Howe St (at the north side of tennis courts)&lt;br&gt;Заведующий центром: John Madrid&lt;br&gt;Адрес электронной почты:  &lt;a href="mailto:johnmadrid@hotmail.com" target="_top"&gt;johnmadrid@hotmail.com&lt;/a&gt;&lt;br&gt;Телефон: 206-498-1880&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Sunrise P-Patch Hub &lt;br&gt;Месторасположение центра: 33rd Ave S &amp; S Oregon St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Заведующий центром: Aaron Deitz&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:aarondietz@gmail.com" target="_top"&gt;aarondietz@gmail.com&lt;/a&gt;&lt;br&gt;Телефон: 206-694-3966&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Snoqualmie P-Patch Hub &lt;br&gt;Месторасположение центра: 4549 13th Ave S&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Заведующий центром: Debbie Goetz&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Телефон: 206-684-0517&lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;New Holly Youth &amp; Family P-Patch Hub &lt;br&gt;Месторасположение центра: 32nd Ave S &amp; S Brighton St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Заведующий центром: Debbie Goetz&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Телефон: 206-684-0517&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;New Holly Power P-Patch Hub &lt;br&gt;Месторасположение центра: 7123 S Holly Park Dr&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Заведующий центром: Debbie Goetz&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Телефон: 206-684-0517&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;New Holly Lucky Garden Hub &lt;br&gt;Месторасположение центра: S Holly St &amp; Shaffer Ave S&lt;br&gt;Заведующий центром: Contact Debbie Goetz&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Телефон: 206-684-0517&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;New Holly 29 P-Patch Hub &lt;br&gt;Месторасположение центра: 29th Ave S &amp; S Brighton St&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Заведующий центром: Contact Debbie Goetz&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Телефон: 206-684-0517&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;John C. Little P-Patch Hub &lt;br&gt;Месторасположение центра: 6961 37th Ave S&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Заведующий центром: Contact Debbie Goetz&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Телефон: 206-684-0517&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Dakota P-Patch Hub &lt;br&gt;Месторасположение центра: 2902 S Dakota St&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Заведующий центром: Contact Debbie Goetz&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Телефон: 206-684-0517&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Beacon Food Forest Hub &lt;br&gt; Месторасположение центра:: 15th Ave S &amp; S Dakota St&lt;br&gt;Заведующий центром: Contact Debbie Goetz&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Телефон: 206-684-0517&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Ethiopian Community in Seattle &lt;br&gt;Месторасположение центра: 8323 Rainier Ave S (meet at main building)&lt;br&gt;Заведующий центром: Kassa Kachara&lt;br&gt;Адрес электронной почты:  &lt;a href="mailto:kabiso_kass@yahoo.com" target="_top"&gt;kabiso_kass@yahoo.com&lt;/a&gt;&lt;br&gt;Телефон: 206-325-0304&lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Angel Morgan P-Patch (Angel Morgan Hub) &lt;br&gt;Месторасположение центра: 3956 S Morgan St&amp;#44; Seattle&amp;#44; WA 98118 (The P Patch is located at 42nd Ave S &amp; S Morgan Street)&lt;br&gt;Заведующий центром: Contact Debbie Goetz&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Телефон: 206-684-0517&lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Thistle P-Patch Hub &lt;br&gt;Месторасположение центра: Martin Luther King Jr Way S &amp; S Cloverdale St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Заведующий центром: Contact Debbie Goetz&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Телефон: 206-684-0517&lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;New Holly Rockery &amp; Market Hub &lt;br&gt;Месторасположение центра: S Holly Park Dr &amp; Rockery Dr S&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Заведующий центром: Contact Debbie Goetz&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Телефон: 206-684-0517&lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Lakewood Seward Park Hub &lt;br&gt;Месторасположение центра: Lakewood Seward Park Community Club - 4916 S. Angeline Street&lt;br&gt;Заведующий центром: Aaron Evanson&lt;br&gt;Адрес электронной почты:  &lt;a href="mailto:aaronevanson@gmail.com" target="_top"&gt;aaronevanson@gmail.com&lt;/a&gt;&lt;br&gt;Телефон: 206.660.3822&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Rainier Beach Community Club Hub &lt;br&gt;Месторасположение центра: Rainier Beach Community Club - VFW Hall &amp;#44; 6038 S. Pilgrim&amp;#44; Seattle  WA  98118&lt;br&gt;Заведующий центром: Ron Angeles&lt;br&gt;Адрес электронной почты:  &lt;a href="mailto:ranestoba@comcast.net" target="_top"&gt;ranestoba@comcast.net&lt;/a&gt;&lt;br&gt;Телефон: 206-721-5326 and 206-351-0813&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Queen Anne Bowl &lt;br&gt;Месторасположение центра: 2806 3rd Ave W&lt;br&gt;Заведующий центром: Chris Saether&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:csaether@msn.com" target="_top"&gt;csaether@msn.com&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Interbay Athletic Complex &lt;br&gt;Месторасположение центра: 3027 17th Ave W&lt;br&gt;Заведующий центром: MIQA Be Prepared&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Magnolia Manor Park &lt;br&gt; Месторасположение центра: 3500 28th Ave W&lt;br&gt;Заведующий центром: MIQA Be Prepared&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Magnolia Metropolitan Market&lt;br&gt;Месторасположение центра: 3830 34th Ave W&lt;br&gt;Заведующий центром: MIQA Be Prepared&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;West Queen Anne Playfield Hub &lt;br&gt;Месторасположение центра: 150 W Blaine St&lt;br&gt;Заведующий центром: требуются волонтеры&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен &lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;West Magnolia Playfield Hub &lt;br&gt;Месторасположение центра: 32nd Ave W &amp; W Smith St&amp;#44; South Playfield&amp;#44; Southwest corner&lt;br&gt;Заведующий центром: Frank Gaul&lt;br&gt;Адрес электронной почты:  &lt;a href="mailto:ftgaul@gmail.com" target="_top"&gt;ftgaul@gmail.com&lt;/a&gt;&lt;br&gt;Телефон: 206-499-8690&lt;br&gt;Веб-сайт: &lt;a href="http://www.miqabeprepared.org/" target=_blank&gt;http://www.miqabeprepared.org/&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Ballard Commons Hub &lt;br&gt;Месторасположение центра: NW 57th &amp; 22nd Ave NW&lt;br&gt;Заведующий центром: Colin Getty&lt;br&gt;Адрес электронной почты:  &lt;a href="mailto:k7biowa@gmail.com" target="_top"&gt;k7biowa@gmail.com&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Lower Woodland Playfields Hub &lt;br&gt;Месторасположение центра: Green Lake Way N &amp; N 50th St&lt;br&gt;Заведующий центром: требуются волонтеры&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Ravenna Hub &lt;br&gt; Месторасположение центра: 6535 Ravenna Ave NE (Ravenna-Eckstein Community Center parking lot)&lt;br&gt;Заведующий центром: David Ward&lt;br&gt;Адрес электронной почты:  &lt;a href="mailto:booksgalore22@gmail.com" target="_top"&gt;booksgalore22@gmail.com&lt;/a&gt;&lt;br&gt;Телефон: 206-523-1161&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Victory Heights Hub &lt;br&gt;Месторасположение центра: Victory Heights Park (1737 NE 106th St)&lt;br&gt;Заведующий центром: Ann Forrest&lt;br&gt;Адрес электронной почты:  &lt;a href="mailto:aaforrest@hotmail.com" target="_top"&gt;aaforrest@hotmail.com&lt;/a&gt;&lt;br&gt;Телефон: (360)550-2234&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Epic Life Church Hub &lt;br&gt;Месторасположение центра: Epic Life Church - 10503 Stone Ave N&amp;#44; Seattle&amp;#44; WA 98133&lt;br&gt;Заведующий центром: Larry Chaney&lt;br&gt;Адрес электронной почты:  &lt;a href="mailto:larry@epiclifechurch.org" target="_top"&gt;larry@epiclifechurch.org&lt;/a&gt;&lt;br&gt;Телефон: 425-218-8849&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Crown Hill Park Hub &lt;br&gt;Месторасположение центра: NW 92nd &amp; 14th Ave NW&lt;br&gt;Заведующий центром: Dennis Galvin&lt;br&gt;Адрес электронной почты:  &lt;a href="mailto:short.harp@gmail.com" target="_top"&gt;short.harp@gmail.com&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Shilshole Marina Hub &lt;br&gt;Месторасположение центра: Shilshole Marina&amp;#44; 7001 Seaview Ave NW&lt;br&gt;Заведующий центром: Jim Doub&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:jim@portagebaymarine.com" target="_top"&gt;jim@portagebaymarine.com&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Loyal Heights Playfield Hub&lt;br&gt;Месторасположение центра: NW 77th &amp;amp; 21st Ave NW (2101 NW 77th St&amp;#44; Loyal Heights CC basketball half court)&lt;br&gt;Заведующий центром: Cheryl Dyer&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:cheryldy@msn.com" target="_top"&gt;cheryldy@msn.com&lt;/a&gt;&lt;br&gt;Телефон: 206-784-3724&lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Kirke Park Hub&lt;br&gt;Месторасположение центра: 7028 9th Ave NW&lt;br&gt;Заведующий центром: Hugh Kelso&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:HKelso@mac.com" target="_top"&gt;HKelso@mac.com&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Gilman Park Hub &lt;br&gt;Месторасположение центра: NW 54th &amp;amp; 9th Ave NW&lt;br&gt;Заведующий центром: Linda Frank&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:lindabfrank@gmail.com" target="_top"&gt;lindabfrank@gmail.com&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Ross Playground Hub &lt;br&gt;Месторасположение центра: 4320 4th Ave NW&lt;br&gt;Заведующий центром: Leslie Matthis&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:leslie.matthis@gmail.comv" target="_top"&gt;leslie.matthis@gmail.com&lt;/a&gt;&lt;br&gt;Телефон: 206.783.1500&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Phinney Neighborhood Center Hub &lt;br&gt;Месторасположение центра: Phinney Neighborhood Center: 6532 Phinney Avenue North&amp;#44; Seattle&amp;#44; WA  98103 (Meeting Place: Phinney Center upper parking area)&lt;br&gt;Заведующий центром: David Baum&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:phinneyhub@gmail.com" target="_top"&gt;phinneyhub@gmail.com &lt;/a&gt;&lt;br&gt;Телефон: 206-913-1021&lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Meridian Playfield/Good Shepherd Center Hub &lt;br&gt;Месторасположение центра: 4649 Sunnyside Ave. N&lt;br&gt;Заведующий центром: Brian Shapiro&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:bshapiro@objectarts.net" target="_top"&gt;bshapiro@objectarts.net&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;History House of Greater Seattle Hub &lt;br&gt;Месторасположение центра: 790 N 34th St&lt;br&gt;Заведующий центром: требуются волонтеры&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Greenwood Senior Center Hub &lt;br&gt;Месторасположение центра: Greenwood Senior Center: 525 N 85th  Street&amp;#44; Seattle&amp;#44; WA  98103&lt;br&gt;Заведующий центром: Kelly Kasper&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:kelly@ht2consulting.com" target="_top"&gt;kelly@ht2consulting.com&lt;/a&gt;&lt;br&gt;Телефон: 206-397-4283&lt;br&gt;Co-Captain: Noel Frame&lt;br&gt;Co-Captain Адрес электронной почты: &lt;a href="mailto:noel@noelframe.com" target="_top"&gt;noel@noelframe.com&lt;/a&gt; &lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Green Lake Playfield &amp; Community Center Hub &lt;br&gt;Месторасположение центра: 7201 Green Lake Dr N&lt;br&gt;Заведующий центром: требуются волонтеры&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Bagley Elementary Hub &lt;br&gt;Месторасположение центра: 7821 Stone Ave N&lt;br&gt;Заведующий центром: требуются волонтеры&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Телефон: будет определен&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Maple Leaf Park Hub &lt;br&gt;Месторасположение центра: 1020 NE 82nd St&lt;br&gt;Заведующий центром: Lori Phipps&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:lphipps01@gmail.com" target="_top"&gt;lphipps01@gmail.com&lt;/a&gt;&lt;br&gt;Телефон: 206-947-0309&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Hunter Farm Hub &lt;br&gt;Месторасположение центра: 7730 35th Ave NE&lt;br&gt;Заведующий центром: требуются волонтеры&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Веб-сайт:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;University Heights Center &lt;br&gt;Месторасположение центра: NE 50th Street and University Way NE&lt;br&gt;Заведующий центром: Ray Munger&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:ray@uheightscenter.org" target="_top"&gt;ray@uheightscenter.org&lt;/a&gt;&lt;br&gt;Телефон: 206-527-4278&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Lake City Way SR 522/Fred Meyer Hub &lt;br&gt;Месторасположение центра: 13000 Lake City Way NE (SE corner of lower parking lot)&lt;br&gt;Заведующий центром: Sandy Motzer (98125)&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:sandymotzer@aol.com" target="_top"&gt;sandymotzer@aol.com&lt;/a&gt;&lt;br&gt;Телефон: 206-819-8056&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Luther Memorial Lutheran Church Hub &lt;br&gt;Месторасположение центра: 13047 Greenwood Ave N&lt;br&gt;Заведующий центром: Dale Johnson&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:dalerayjohnson@comcast.net" target="_top"&gt;dalerayjohnson@comcast.net&lt;/a&gt;&lt;br&gt;Телефон: 206-362-2980&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Общественные центры помощи в случае возникновения чрезвычайных ситуаций — это места&amp;#44; в которых после бедствия могут собираться соседи с тем&amp;#44; чтобы помогать друг другу. &lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ:&lt;center&gt;&lt;b&gt;Grace Lutheran Church Hub &lt;br&gt; Месторасположение центра: 11051 Phinney Ave N (Greenwood Avenue N &amp; N 112th Street)&lt;br&gt;Заведующий центром: Dale Johnson&lt;br&gt;Адрес электронной почты: &lt;a href="mailto:dalerayjohnson@comcast.net" target="_top"&gt;dalerayjohnson@comcast.net&lt;/a&gt;&lt;br&gt;Телефон: 206-362-2980&lt;br&gt;Веб-сайт: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;С 1870 г. в штате Вашингтон произошло 15 мощных землетрясений (магнитудой более 5). Согласно местным преданиям&amp;#44; в 1700 г. здесь также произошло сильнейшее землетрясение (магнитудой более 8)&amp;#44; за которым последовало цунами. &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/historical_EQs2.jpg" alt="This is an Image showing the sizes of historical earthquakes in Washington. It shows a magnitude(M) 6.5 in 1949 which is 316 times smaller than M9&amp;#44; M6.9 in 2001 which is 160 times smaller than M9&amp;#44; M7.1 in 1965 which is 79 times smaller than M9&amp;#44; and M9 in 1700." title="Relative sizes of notable earthquakes in Washington State"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Существует высокая вероятность наводнения в этом районе. Он расположен в зоне поймы реки&amp;#44; в которой вероятность возникновения наводнения составляет раз на сто лет&lt;/b&gt;. Это означает&amp;#44; что существует 25 %-я вероятность того&amp;#44; что в ближайшие 30 лет этот район будет затоплен &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(карта)&lt;/a&gt;. Подпишетесь&amp;#44; чтобы получать оповещения о наводнениях &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;по электронной почте или на телефон в виде СМС&lt;/a&gt;&amp;#44; или загрузите &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;приложение&amp;#44; оповещающее о наводнениях&amp;#44;&lt;/a&gt; на смартфон.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Существует высокая вероятность наводнения в этом районе&lt;/b&gt;. Он расположен в зоне поймы реки&amp;#44; в которой вероятность возникновения наводнения составляет раз на сто лет. Это означает&amp;#44; что существует 25 %-я вероятность того&amp;#44; что в ближайшие 30 лет этот район будет затоплен &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(карта)&lt;/a&gt;. Подпишетесь&amp;#44; чтобы получать оповещения о наводнениях &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;по электронной почте или на телефон в виде СМС&lt;/a&gt;&amp;#44; или загрузите &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;приложение&amp;#44; оповещающее о наводнениях&amp;#44;&lt;/a&gt; на смартфон.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе возникновение наводнения маловероятно&lt;/b&gt;. Во время наводнений и сильных штормов уровень воды в реке может подняться незначительно.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе возникновение наводнения маловероятно&lt;/b&gt;. Во время наводнений и сильных штормов уровень воды в водохранилище может подняться незначительно. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Во время наводнения переходить мосты может быть опасно&lt;/b&gt;. Если у вас есть подозрения&amp;#44; что мост пострадал во время наводнения&amp;#44; переходите по нему осторожно и сообщите о его повреждении в Центр оповещения о наводнении&amp;#44; позвонив по номеру 206-296-82-00 или по номеру 800-945-92-63. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Этот район находится вне зон высокого риска возникновения наводнений&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(карта)&lt;/a&gt;. НО&amp;#44; если вы живете возле ручья или небольшой реки&amp;#44; знайте&amp;#44; что в них тоже может произойти наводнение. Для получения более подробной информации посетите  &lt;a href=http://www.kingcounty.gov/depts/dnrp/wlr/sections-programs/river-floodplain-section.aspx target=_blank&gt;веб-сайт&amp;#44; посвященный противопаводочным мероприятиям&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;В прошлом&amp;#44; когда на Сиэтл обрушивались сильные ливни&amp;#44; этот район был затоплен&lt;/b&gt;. Это может произойти снова&amp;#44; если в результате сильного шторма водные бассейны выйдут из берегов. Прокрутите вниз&amp;#44; чтобы узнать&amp;#44; как подготовиться. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Дождь&amp;#44; талые воды&amp;#44; или то и другое вместе вызывают быстрое повышение уровня воды. Паводковые воды переполняют берега рек&amp;#44; затапливают близлежащие районы и разрушают дороги.  &lt;b&gt;Этот район расположен в зоне поймы реки&amp;#44; где вероятность возникновения наводнения составляет раз на пятьсот лет. Если это произойдет&amp;#44; он будет затоплен&lt;/b&gt;. Существует 6 %-я вероятность того&amp;#44; что в ближайшие 30 лет произойдет наводнение подобного масштаба. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Находящиеся вблизи ручьи&amp;#44; небольшие и крупные реки выходят из берегов. Из-за этого некоторые дороги становятся непроходимыми &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(карта)&lt;/a&gt;. Подпишетесь&amp;#44; чтобы получать оповещения о наводнениях &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;по электронной почте или на телефон в виде СМС&lt;/a&gt;&amp;#44; или загрузите &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;приложение&amp;#44; оповещающее о наводнениях&amp;#44;&lt;/a&gt; на смартфон.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе возникновение наводнения маловероятно&lt;/b&gt;. Из-за сильных штормов уровень воды в близлежащих ручьях&amp;#44; небольших и крупных реках может подняться. Из-за проливных дождей на улицах могут образоваться лужи со стоячей водой. Если вы обнаружили в своей местности наводнение&amp;#44; сообщите об этом в Центр оповещения о наводнении округа Кинг&amp;#44; позвонив по номеру 206-296-82-00 или по номеру 800-945-92-63. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Этот район&amp;#44; расположенный в городской зоне&amp;#44; подвержен наводнениям&lt;/b&gt;. Чем сильнее шторм&amp;#44; тем сильнее наводнение в этом районе. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. Чаще всего это происходит во время и после наводнения. &lt;b&gt;Существует высокая вероятность того&amp;#44; что в будущем в этом районе будет русло реки Сидар&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. Чаще всего это происходит во время и после наводнения. &lt;b&gt;Существует высокая вероятность того&amp;#44; что в будущем в этом районе будет русло реки Грин-Ривер&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. Чаще всего это происходит во время и после наводнения. &lt;b&gt;Существует высокая вероятность того&amp;#44; что в будущем в этом районе будет русло реки Рейджинг-Ривер &lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. Чаще всего это происходит во время и после наводнения. &lt;b&gt;Существует высокая вероятность того&amp;#44; что в будущем в этом районе будет русло реки Сноквалми&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. Чаще всего это происходит во время и после наводнения. &lt;b&gt;Существует высокая вероятность того&amp;#44; что в будущем в этом районе будет русло реки Толт&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. Чаще всего это происходит во время и после наводнения. &lt;b&gt;Существует умеренная вероятность того&amp;#44; что в будущем в этом районе будет русло реки Сидар&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. Чаще всего это происходит во время и после наводнения. &lt;b&gt;Существует умеренная вероятность того&amp;#44; что в будущем в этом районе будет русло реки Грин-Ривер&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. Чаще всего это происходит во время и после наводнения. &lt;b&gt;Существует умеренная вероятность того&amp;#44; что в будущем в этом районе будет русло реки Рейджинг-Ривер &lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. Чаще всего это происходит во время и после наводнения. &lt;b&gt;Существует умеренная вероятность того&amp;#44; что в будущем в этом районе будет русло реки Сноквалми&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. Чаще всего это происходит во время и после наводнения. &lt;b&gt;Существует умеренная вероятность того&amp;#44; что в будущем в этом районе будет русло реки Толт&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. Чаще всего это происходит во время и после наводнения. &lt;b&gt;Существует низкая вероятность того&amp;#44; что в будущем в этом районе будет русло реки Грин-Ривер&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. Чаще всего это происходит во время и после наводнения. &lt;b&gt;Существует низкая вероятность того&amp;#44; что в будущем в этом районе будет русло реки Сноквалми&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. Чаще всего это происходит во время и после наводнения. &lt;b&gt;Существует низкая вероятность того&amp;#44; что в будущем в этом районе будет русло реки Толт. &lt;/b&gt;&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Как и многое другое&amp;#44; реки следуют пути наименьшего сопротивления и меняют свое русло с течением времени. &lt;b&gt;Пока еще не было проведено исследования&amp;#44; которое бы подтверждало существование вероятности того&amp;#44; что река переместит свое русло в этом районе. Тем не менее&amp;#44; помните о том&amp;#44; что это может произойти.&lt;/b&gt;&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Здесь показана внутренняя часть текущего русла реки. С течением времени расположение русла может меняться. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Прорывы дамбы случаются очень редко. Тем не менее&amp;#44; если произойдет прорыв &lt;a href=https://goo.gl/maps/X2HGtZX6Kyz target=_blank&gt;дамбы George Culmback&lt;/a&gt; или &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;дамбы на реке Толт&lt;/a&gt;&amp;#44; этот район может затопить &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(карта)&lt;/a&gt;. Подпишетесь&amp;#44; чтобы получать оповещения о наводнениях &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;по электронной почте или на телефон в виде СМС&lt;/a&gt;&amp;#44; или загрузите &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;приложение&amp;#44; оповещающее о наводнениях&amp;#44;&lt;/a&gt; на смартфон.</t>
+  </si>
+  <si>
+    <t>Прорывы дамбы случаются очень редко. Тем не менее&amp;#44; если произойдет прорыв &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt;дамбы на озере Янгс&amp;#44;&lt;/a&gt; существует риск возникновения наводнения в этом районе &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(карта)&lt;/a&gt;. Подпишетесь&amp;#44; чтобы получать оповещения о наводнениях &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;по электронной почте или на телефон в виде СМС&amp;#44;&lt;/a&gt; или загрузите &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;приложение&amp;#44; оповещающее о наводнениях&amp;#44;&lt;/a&gt; на смартфон.</t>
+  </si>
+  <si>
+    <t>Прорывы дамбы случаются очень редко. Тем не менее&amp;#44; если произойдет прорыв &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt;дамбы на озере Янгс&amp;#44;&lt;/a&gt; существует умеренный риск возникновения наводнения в этом районе &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(карта)&lt;/a&gt;. Подпишетесь&amp;#44; чтобы получать оповещения о наводнениях &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;по электронной почте или на телефон в виде СМС&amp;#44;&lt;/a&gt; или загрузите &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;приложение&amp;#44; оповещающее о наводнениях&amp;#44;&lt;/a&gt; на смартфон.</t>
+  </si>
+  <si>
+    <t>Прорывы дамбы случаются очень редко. Тем не менее&amp;#44; если произойдет прорыв &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt;дамбы на озере Янгс&amp;#44;&lt;/a&gt; существует высокий риск возникновения наводнения в этом районе &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(карта)&lt;/a&gt;. Подпишетесь&amp;#44; чтобы получать оповещения о наводнениях &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;по электронной почте или на телефон в виде СМС&amp;#44;&lt;/a&gt; или загрузите &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;приложение&amp;#44; оповещающее о наводнениях&amp;#44;&lt;/a&gt; на смартфон. Прорывы дамбы случаются очень редко.</t>
+  </si>
+  <si>
+    <t>Прорывы дамбы случаются очень редко. Тем не менее&amp;#44; если произойдет прорыв &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;дамбы на реке Толт&amp;#44;&lt;/a&gt; этот район может затопить &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(карта)&lt;/a&gt;. Подпишетесь&amp;#44; чтобы получать оповещения о наводнениях &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;по электронной почте или на телефон в виде СМС&amp;#44;&lt;/a&gt; или загрузите &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;приложение&amp;#44; оповещающее о наводнениях&amp;#44;&lt;/a&gt; на смартфон.</t>
+  </si>
+  <si>
+    <t>Ожидается&amp;#44; что в ближайшие 50 лет возрастет количество сильных штормов с дождями и снегом. Повышение уровня воды рек приведет к большему количеству наводнений осенью и зимой. Щелкните изображение&amp;#44; чтобы узнать больше.&lt;br&gt;
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Rivers.jpg" alt="Climate Change Rivers Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Идет сильный дождь или дождь&amp;#44; который не прекращается в течение многих дней? Высокая температура вызвала стремительное таяние снега в горах? Уровень воды в местных реках поднялся? Вероятность возникновения наводнения может возрасти. Проверяйте прогноз погоды&amp;#44; чтобы не пропустить оповещений о происходящих катаклизмах.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;СОСТАВЬТЕ ПЛАН&lt;/b&gt; - составьте план действий в случае наводнения. &lt;b&gt;Заранее подготовьте все ценные вещи&lt;/b&gt; (свидетельства о рождении&amp;#44; важные документы&amp;#44; фотографии и т. п.). Приобретите страховку от наводнения&amp;#44; если нужно.&lt;/li&gt;&lt;li&gt;&lt;b&gt;ПОДГОТОВЬТЕСЬ&lt;/b&gt; - переместите ценные вещи и предметы бытовой химии на верхние этажи и &lt;b&gt;узнайте&amp;#44; как отключить&lt;/b&gt; (&lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target=_blank&gt;воду&amp;#44; газ и электричество&lt;/a&gt;).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;ПЕРЕД ЭВАКУАЦИЕЙ&lt;/b&gt; - соберите предметы первой необходимости (теплая одежда&amp;#44; фонарик&amp;#44; мобильный телефон&amp;#44; переносное радио и т. п.). Если есть время и необходимость&amp;#44; отключите газ&amp;#44; воду&amp;#44; электричество.&lt;/li&gt;&lt;li&gt;&lt;b&gt;СЛУШАЙТЕ НОВОСТИ&lt;/b&gt; - при соответствующих рекомендациях эвакуируйтесь в более возвышенные места.&lt;/li&gt;&lt;li&gt;&lt;b&gt;НЕ ПОДВЕРГАЙТЕ СЕБЯ РИСКАМ - НЕ переходите вброд через потоки воды и не ведите автомобиль.&lt;/b&gt; Движущиеся потоки воды высотой всего 15 см могут сбить человека с ног&amp;#44; а высотой 61 см — снести с дороги автомобиль.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Flood_during.jpg" alt="This is a panel of four cartoon images showing what to do during an a flood collect essentials&amp;#44; get to high ground&amp;#44; avoid water&amp;#44; and shutt off utilities." title="During Flood Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Если ваш дом затопило&amp;#44; &lt;b&gt;входить в него следует осторожно&amp;#44; поскольку возможно повреждение конструкции&lt;/b&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Позаботьтесь о том&amp;#44; чтобы специалист проверил газ&amp;#44; воду&amp;#44; электричество &lt;/b&gt; перед тем&amp;#44; как вы их включите.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Задокументируйте информацию об ущербе:&lt;/b&gt; сфотографируйте разрушения и составьте смету затрат на ремонт. &lt;li&gt;Узнайте больше &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/flooding/prepare.aspx target=_blank&gt;здесь&lt;/a&gt;&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; Russell Road Park &lt;br&gt; на перекрестке Russell Rd. и S. 240th St.&lt;br&gt; Kent&amp;#44; WA&amp;#44; 98032 &lt;br&gt;  Заполнять мешки песком нужно самостоятельно.&lt;br&gt; Время работы: пн–пт с 8:00 - 16:00 &lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&amp;#44;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt;Public Works Shops &lt;br&gt;1155 East North Bend Way &lt;br&gt; North Bend&amp;#44; WA 98045&lt;br&gt; мешки песком и песком&lt;br&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; 33100 NE 45th Street &lt;br&gt; Carnation&amp;#44; WA 98014 &lt;br&gt;Время работы: пн–пт с 8:00 - 16:30 &lt;br&gt;мешки песком и песком&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; Meadowbrook Community Center&lt;br&gt;10517 35th Ave. NE &lt;br&gt; Seattle&amp;#44; WA 98125&lt;br&gt;мешки песком и песком&lt;/b&gt;&lt;/center&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; 1305 C St. SW &lt;br&gt; Auburn&amp;#44; WA 98001&lt;br&gt; Время работы: пн–пт с 6:30 - 16:00&lt;br&gt;мешки песком и песком --&gt;253-931-3048&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; Kent City Public Works&lt;br&gt; 5821 S. 240th St. &lt;br&gt; Kent&amp;#44; WA 98032&lt;br&gt; Время работы: пн–пт с 8:00 - 16:00 &lt;br&gt;мешки песком&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; Tahoma School District &lt;br&gt; 23015 SE 216th Way&lt;br&gt; Maple Valley&amp;#44; WA 98038&lt;br&gt; 8:00 - 17:00&lt;br&gt;мешки песком и песком&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; Pacific City Park &lt;br&gt; 600 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047&lt;br&gt;мешки песком и песком&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; Pacific/Algona Community Center &lt;br&gt; 100 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047 &lt;br&gt;мешки песком и песком&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; City Property @ &lt;br&gt; Railroad Avenue SE и SE King Street &lt;br&gt; Snoqualmie&amp;#44; WA 98065&lt;br&gt;мешки песком и песком&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; Preston-Snoqualmie Trail parking lot &lt;br&gt; Lake Alice Road SE и SE 56th Place &lt;br&gt; Fall City&amp;#44; WA 98024&lt;br&gt;мешки песком и песком&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; 14701 Main St. NE &lt;br&gt; Duvall&amp;#44; WA 98019&lt;br&gt;мешки песком и песком--&gt;425-788-3332&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; Haller Lake Neighborhood &lt;br&gt; 12551 Ashworth Ave N.&lt;br&gt; Seattle&amp;#44; WA 98133&lt;br&gt;мешки песком и песком&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; South Park Neighborhood &lt;br&gt; 731 S. Sullivan &lt;br&gt; Seattle&amp;#44; WA 98108&lt;br&gt;мешки песком и песком&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к наводнению: приобретите и заполните мешки с песком. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;p&gt;БЛИЖАЙШИЕ К ВАМ ЦЕНТРЫ ВЫДАЧИ МЕШКОВ С ПЕСКОМ  &lt;center&gt;&lt;b&gt; Delridge Community Center &lt;br&gt; 4501 Delridge Way SW &lt;br&gt; Seattle&amp;#44; WA 98106&lt;br&gt;мешки песком и песком &lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Так как в округе Кинг много рек&amp;#44; наводнение — обычное явление во время ливней или быстрого таяния снега. &lt;b&gt;Чаще всего наводнение происходит в период между ноябрем и февралем&lt;/b&gt;&amp;#44; но оно может произойти в любую минуту&amp;#44; если для этого есть подходящие условия.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;Это местность с пологими откосами&amp;#44; возникновение оползней здесь маловероятно&lt;/b&gt;. Оползни обычно происходят вследствие переувлажнения земли от большого количества осадков ИЛИ же их вызывают толчки землетрясений. Прокрутите вниз до заголовка «исторические события»&amp;#44; чтобы узнать&amp;#44; были ли зафиксированы оползни в вашем районе. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;карта&lt;/a&gt;)&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Из-за крутых склонов в этом районе существует большая вероятность возникновения оползней по сравнению с районом с пологими склонами&lt;/b&gt;. Оползни обычно происходят вследствие переувлажнения земли от большого количества осадков ИЛИ же их вызывают толчки землетрясений. Прокрутите вниз до заголовка «исторические события»&amp;#44; чтобы узнать&amp;#44; были ли зафиксированы оползни в вашем районе. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;карта&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе возникновение оползня маловероятно&amp;#44; но он может произойти в соседнем районе&amp;#44; который расположен в местности с крутыми склонами&amp;#44; если для этого есть подходящие условия. &lt;/b&gt; Обращайте внимание на районы с неустойчивой почвой. Особенно на дороги&amp;#44; заблокированные обломками горных пород или размытые потоками воды. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Находящиеся поблизости крутые склоны лишены растительности? Дождь не прекращается в течение многих дней? &lt;b&gt;Если да&amp;#44; то вероятность возникновения оползня в этом районе выше&amp;#44; так как здесь крутые склоны&lt;/b&gt;. Обращайте внимание на районы с неустойчивой почвой. Особенно на дороги&amp;#44; заблокированные обломками горных пород или размытые потоками воды.  (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;карта&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Часто оползни наблюдают вдоль высоких крутых океанических берегов&amp;#44; которые размываются волнами. &lt;b&gt;С 1913 г. уровень воды в заливе Пьюджет повысился на 20 см&lt;/b&gt;! При повышении уровня воды вероятность возникновения береговой эрозии возрастает. Избыточное количество осадков в результате сильных штормов также может привести к размыву крутых склонов&amp;#44; что в свою очередь вызовет больше оползней в округе Кинг. Щелкните изображение&amp;#44; чтобы узнать больше.&lt;br&gt;&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storms Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Слышен треск ломающихся деревьев&amp;#44; грохот столкновения огромных валунов или же гул земли? В рельефе обнаружились трещины или же с холмов движется масса земли&amp;#44; камней&amp;#44; растительности? Возможно&amp;#44; это оползень. Перейдите в местность с устойчивой почвой.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;ОЦЕНКА&lt;/b&gt; - узнайте&amp;#44; может ли случиться в районе вашего проживания оползень. Для этого &lt;b&gt;&lt;b&gt;обратитесь к инженерам-геотехникам&lt;/b&gt;. Они оценят риск возникновения оползня и/или разработают профилактические мероприятия&amp;#44; направленные на снижение риска возникновения оползня.&lt;/li&gt;&lt;li&gt;&lt;b&gt;УМЕНЬШЕНИЕ РИСКА&lt;/b&gt; -  высадите растения вдоль склонов холмов и/или соорудите поддерживающие стены для&lt;b&gt; их укрепления.&lt;/b&gt;&lt;/li&gt;&lt;li&gt;&lt;b&gt;3. ПОДГОТОВКА&lt;/b&gt; - &lt;b&gt;соберите набор для выживания и составьте домашний план эвакуации &lt;/b&gt;&amp;#44; в котором должно быть по крайней мере два эвакуационных маршрута.&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Самый верный путь остаться невредимыми — не подходить близко в движущемуся оползню или грязевому потоку.&lt;/b&gt; Специалисты геологической службы США также рекомендуют следующее: &lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;&lt;b&gt;БУДЬТЕ БДИТЕЛЬНЫ - обращайте внимание на необычные звуки&lt;/b&gt;. Резко барабанящий дождь может таить в себе чрезвычайную опасность&amp;#44; особенно если до этого в течение длительного времени шли проливные дожди и на улице сыро.&lt;/li&gt;&lt;li&gt;&lt;b&gt;ПОДУМАЙТЕ О ТОМ&amp;#44; ЧТОБЫ ПОКИНУТЬ ДОМ&lt;/b&gt; - если вы находитесь в районах&amp;#44; которые подвержены оползням и грязевым потокам&amp;#44; рассмотрите вариант отъезда&amp;#44; если это безопасно. Если же вы решили остаться дома&amp;#44; то&amp;#44; если это возможно&amp;#44; поднимитесь на второй этаж.&lt;/li&gt;&lt;li&gt;&lt;b&gt;ОБРАЩАЙТЕ ВНИМАНИЕ НА УРОВЕНЬ ВОДЫ&lt;/b&gt; - если вы находитесь недалеко от ручья или у русла реки&amp;#44; &lt;b&gt;обращайте внимание на резкое увеличение или уменьшение уровня воды&amp;#44; а также на ее помутнение&lt;/b&gt;. Это могут быть признаки движущегося выше по течению оползня. РЕАГИРУЙТЕ БЫСТРО! Спасайте свою жизнь&amp;#44; а не имущество.&lt;/li&gt;&lt;/ul&gt; Больше советов от Геологической служба США о том&amp;#44; как вести себя во время оползня можно найти &lt;a href=http://landslides.usgs.gov/learn/prepare.php target=_blank&gt;здесь&lt;/a&gt;. &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Landslide_during.jpg" alt="This is a panel of three cartoon images showing what to do during an a landslide. Stay Alert&amp;#44; Leave the area&amp;#44; and Don't Delay." title="During Landslide Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;БУДЬТЕ ГОТОВЫ К НАВОДНЕНИЮ (оползни часто загромождают реки&amp;#44; в результате чего те выходят из берегов)&lt;/b&gt;.&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;Держитесь подальше от потоков оползня. За главным оползнем могут последовать и другие.&lt;/li&gt;&lt;li&gt;Когда опасность миновала&amp;#44; проверьте&amp;#44; есть ли травмированные или попавшие под завалы люди.&lt;/li&gt;&lt;li&gt;Проверьте&amp;#44; не повреждены ли газопроводы&amp;#44; трубопроводы или линии энергоснабжения. Если да&amp;#44; то сообщите об этом в соответствующую службу.&lt;/li&gt;&lt;li&gt;Узнавайте актуальную информацию из местных СМИ или по радио NOAA Weather Radio.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Подробную информацию по &lt;a href=http://www.dnr.wa.gov/programs-and-services/geology/geologic-hazards/landslides#some-historic-landslides-in-washington-state target=_blank&gt;оползням&lt;/a&gt; и &lt;a href=http://file.dnr.wa.gov/publications/ger_fs_landslide_hazards.pdf target=_blank&gt;рискам возникновения оползней&lt;/a&gt;. можно узнать на веб-странице Департамента природных ресурсов. Доступную информацию по оползням в вашем районе можно найти на сайтах города Сиэтл и округа Кинг.&lt;br&gt;&lt;br&gt;&lt;a href=http://www.seattle.gov/dpd/aboutus/whoweare/emergencymanagement target=_blank&gt;&lt;b&gt;округ Кинг&lt;/b&gt;&lt;/a&gt; &lt;br&gt; &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/landslides.aspx target=_blank&gt;&lt;b&gt;город Сиэтл&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе оползни не были обнаружены&lt;/b&gt; (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;отчет за 2016 г&lt;/a&gt;). Чаще всего оползни встречаются на голых&amp;#44; крутых склонах холмов&amp;#44; то есть там&amp;#44; где свободно проходит поток воды. Если ваше жилье находится ниже подобных районов&amp;#44; помните&amp;#44; что вы подвержены риску (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en target=_blank&gt;карта&lt;/a&gt;). Более подробную информацию о слоях горных пород можно найти на&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;  электронной карте округа Кинг&lt;/a&gt; (в легенде карты должен быть установлен флажок «оползни»).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе оползни не были обнаружены&lt;/b&gt;. Подробную информацию можно найти в &lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;отчете за 2016 г.&lt;/a&gt; и на &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg target=_blank&gt;карте&lt;/a&gt;. Более подробную информацию о слоях горных пород можно найти на&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; электронной карте округа Кинг&lt;/a&gt; (в легенде карты должен быть установлен флажок «оползни»).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Согласно исследованию по оползням&amp;#44; проведенному в 1995 г. для города Сиэтл&amp;#44;&lt;b&gt; в этом районе оползни не были обнаружены &lt;/b&gt; (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg target=_blank&gt;карта&lt;/a&gt;).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе пока не проводили исследованный&amp;#44;&lt;/b&gt; посвященных происходящим в прошлом оползням (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;карта&lt;/a&gt;).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Однажды в прошлом &lt;b&gt;В ЭТОМ РАЙОНЕ БЫЛ ОПОЛЗЕНЬ&lt;/b&gt; (см. &lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;отчет за 2016 г.&lt;/a&gt;) и (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;карта&lt;/a&gt;). То&amp;#44; что в этом районе происходили оползни в прошлом&amp;#44; необязательно может свидетельствовать о вероятности возникновения оползней в будущем. Для того&amp;#44; чтобы узнать&amp;#44; существует ли еще вероятность возникновения оползней&amp;#44; нужно привлечь специалистов-геотехников&amp;#44; которые проведут оценку местности. Более подробную информацию о слоях горных пород можно найти на &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;электронной карте округа Кинг&lt;/a&gt; (в легенде карты должен быть установлен флажок «оползни»).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Однажды в прошлом &lt;b&gt;В ЭТОМ РАЙОНЕ БЫЛ ОПОЛЗЕНЬ &lt;/b&gt; (см. &lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;отчет за 2016 г.&lt;/a&gt;) и (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;карта&lt;/a&gt;). То&amp;#44; что в этом районе происходили оползни в прошлом&amp;#44; необязательно может свидетельствовать о вероятности возникновения оползней в будущем. Для того&amp;#44; чтобы узнать&amp;#44; существует ли еще вероятность возникновения оползней&amp;#44; нужно привлечь специалистов-геотехников&amp;#44; которые проведут оценку местности. Более подробную информацию о слоях горных пород можно найти на &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;электронной карте округа Кинг&lt;/a&gt; (в легенде карты должен быть установлен флажок «оползни»).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Однажды в прошлом &lt;b&gt;В ЭТОМ РАЙОНЕ БЫЛ ОПОЛЗЕНЬ И ОБВАЛ&lt;/b&gt; (см. &lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;отчет за 2016 г.&lt;/a&gt;) и (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;карта&lt;/a&gt;). То&amp;#44; что в этом районе происходили оползни в прошлом&amp;#44; необязательно может свидетельствовать о вероятности возникновения оползней в будущем. Для того&amp;#44; чтобы узнать&amp;#44; существует ли еще вероятность возникновения оползней&amp;#44; нужно привлечь специалистов-геотехников&amp;#44; которые проведут оценку местности. Более подробную информацию о прослойках горных пород можно найти на &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; электронной карте округа Кинг&lt;/a&gt; (в легенде карты должен быть установлен флажок «оползни»).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Однажды в прошлом &lt;b&gt;В ЭТОМ РАЙОНЕ БЫЛ ОПОЛЗЕНЬ И ОБВАЛ&lt;/b&gt; (см. &lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;отчет за 2016 г.&lt;/a&gt;) и (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;карта&lt;/a&gt;). То&amp;#44; что в этом районе происходили оползни в прошлом&amp;#44; необязательно может свидетельствовать о вероятности возникновения оползней в будущем. Для того&amp;#44; чтобы узнать&amp;#44; существует ли еще вероятность возникновения оползней&amp;#44; нужно привлечь специалистов-геотехников&amp;#44; которые проведут оценку местности. Более подробную информацию о прослойках горных пород можно найти на &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;электронной карте округа Кинг&lt;/a&gt; (в легенде карты должен быть установлен флажок «оползни»).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Согласно исследованию по оползням&amp;#44; проведенному в 1995 г. для города Сиэтл&amp;#44; &lt;b&gt;В ЭТОМ РАЙОНЕ БЫЛ ОПОЛЗЕНЬ &lt;/b&gt;(&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;карта&lt;/a&gt;). То&amp;#44; что в этом районе происходили оползни в прошлом&amp;#44; необязательно может свидетельствовать о вероятности возникновения оползней в будущем. Для того&amp;#44; чтобы узнать&amp;#44; существует ли еще вероятность возникновения оползней&amp;#44; нужно привлечь специалистов-геотехников&amp;#44; которые проведут оценку местности.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе существует очень высокий риск возникновения лесного пожара&lt;/b&gt;. Он расположен между жилыми поселениями и лесом. Территория западного Вашингтона подвержена умеренному риску возникновения лесных пожаров. Тем не менее&amp;#44; в восточной части округа Кинг лесные пожары происходят каждый год. (&lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;карта&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе существует высокий риск возникновения лесного пожара&lt;/b&gt;. Он расположен между жилыми поселениями и лесом. Территория западного Вашингтона подвержена умеренному риску возникновения лесных пожаров. Тем не менее&amp;#44; в восточной части округа Кинг лесные пожары происходят каждый год. (&lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;карта&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе нет высокого риска возникновения лесного пожара&lt;/b&gt;&amp;#44; но он расположен в 1 км от района&amp;#44; где существует высокий риск возникновения лесного пожара. При подходящих условиях лесной пожар может распространиться и на этот район. (&lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;карта&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе риск возникновения лесного пожара низкий или очень низкий&lt;/b&gt;. Но если вы живете вблизи леса&amp;#44; помните о том&amp;#44; что здесь могут происходить лесные пожары. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Поскольку это водная зона&amp;#44; риск возникновения лесного пожара здесь отсутствует.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе может случиться сильный лесной пожар&lt;/b&gt;. Его пламя будет распространятся очень быстро и может быстро менять направление. Чтобы его потушить&amp;#44; пожарной бригаде может понадобиться от нескольких дней до нескольких недель. ДЫМ от лесных пожаров может распространяться на большую территорию. Даже если поблизости нет пожаров&amp;#44; само по себе наличие дыма — уже опасный фактор. Проверить качество воздуха в вашем районе можно &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx target=_blank&gt;здесь&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе может случиться лесной пожар&lt;/b&gt;. Его пламя будет распространятся очень быстро и может быстро менять направление. Чтобы его потушить&amp;#44; пожарной бригаде может понадобиться от нескольких дней до нескольких недель. ДЫМ от лесных пожаров может распространяться на большую территорию. Даже если поблизости нет пожаров&amp;#44; само по себе наличие дыма — уже опасный фактор. Проверить качество воздуха в вашем районе можно &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx target=_blank&gt;здесь&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;В этом районе возникновение лесного пожара маловероятно. Но если вы живете возле леса&amp;#44; то вероятность возникновения лесного пожара все же есть&lt;/b&gt;. ДЫМ от лесных пожаров может распространяться на большую территорию. Даже если поблизости нет пожаров&amp;#44; само по себе наличие дыма — уже опасный фактор. Проверить качество воздуха в вашем районе можно  &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx target=_blank&gt;здесь&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Тихоокеанского Северо-Запада значительно возросло&lt;/b&gt;. Судя по всему&amp;#44; эта тенденция продолжиться и в будущем. Лето становится более сухим или же сопровождается большим количеством гроз. А молния&amp;#44; как известно&amp;#44; вызывает пожары. Огромные территории леса могут выгореть&amp;#44; а дым от пожаров — распространиться на близлежащие районы. Щелкните изображение&amp;#44; чтобы узнать больше.&lt;br&gt;&lt;a  ref="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Forests.jpg" alt="Climate Change Forest Infographic"&gt;
+&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Вы видите дым или чувствуете его запах? Предшествовал ли этому затяжной период сухой погоды? Это может быть лесной пожар. Держитесь подальше от активных зон возгорания&amp;#44; а если вы увидели начало пожара&amp;#44; позвоните в службу 9-1-1&amp;#44; чтобы сообщить об этом.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;ОСВОБОДИТЕ ПРОСТРАНСТВО&lt;/b&gt;. Защитите жизни и имущество&amp;#44; создав&lt;b&gt;адаптированное к воздействию огня пространство вокруг вашего дома&lt;/b&gt;&amp;#44; сарая и предприятия. Чтобы узнать&amp;#44; как это сделать&amp;#44; посетите веб-сайт &lt;a href=http://www.firewise.org/wildfire-preparedness.aspx target=_blank&gt;firewise.org&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;НАБЛЮДАЙТЕ ЗА ПОГОДОЙ&lt;/b&gt;. За несколько солнечных дней леса могут высохнуть достаточно&amp;#44; чтобы загореться. Ветреные погодные условия могут привести к тому&amp;#44; что лесные пожары быстро выйдут из-под контроля.&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Firewise_Brochure.jpg" alt="This is an image of ways to prevent wildfire around your home. They include screening decks&amp;#44; pruning trees 6-10 feet from the ground&amp;#44; using fire-resistant wall and roof materials&amp;#44; keeping plants watered&amp;#44; and making sure your driveway can accommodate an emergency vehicle" title="How to Prepare Your Home for Wildfire"&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;СЛЕДИТЕ ЗА НОВОСТЯМИ&lt;/b&gt;. Слушайте местные оповещения о чрезвычайной ситуации по радио и (или) телевизору и будьте готовы к эвакуации в случае необходимости.&lt;/li&gt;&lt;li&gt;&lt;b&gt;УБЕРИТЕ ЛЕГКОВОСПЛАМЕНЯЮЩИЕСЯ МАТЕРИАЛЫ&lt;/b&gt;. Уберите материалы вокруг вашего дома&amp;#44; которые могут загореться (садовые стулья&amp;#44; столы и т. п.).&lt;/li&gt;&lt;li&gt;&lt;b&gt;ПОДГОТОВЬТЕ СВОЙ ДОМ&lt;/b&gt;. Отодвиньте мягкую мебель подальше от окон. Закройте двери и окна&amp;#44; но не запирайте их.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Fire_during.jpg" alt="This is an icon of an exclaimation point with two triangles behind it" title="During Fire Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Возвращайтесь домой&amp;#44; когда власти сообщат о том&amp;#44; что это безопасно.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Соблюдайте осторожность при входе в выгоревшие зоны&amp;#44;&lt;/b&gt; поскольку опасность все еще может существовать.&lt;/li&gt;
+&lt;li&gt;Проверьте и убедитесь в отсутствии дыма или скрытых тлеющих углей.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Сфотографируйте понесенный ущерб &lt;/b&gt;для целей страхования.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Если вы считаете&amp;#44; что ваше имущество может быть под угрозой&amp;#44; &lt;b&gt;у властей округа Кинг есть информация для землевладельцев&amp;#44; поощрительные программы и обучающие семинары для хозяев&lt;/b&gt;. Вы можете узнать больше &lt;a href=http://www.kingcounty.gov/environment/water-and-land/forestry.aspx target=_blank&gt;здесь&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>На востоке округа Кинг ежегодно случаются небольшие лесные пожары. Как правило&amp;#44; их причиной являются люди. Взгляните&amp;#44; где в прошлом происходили пожары&amp;#44; щелкнув &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_Historic.jpg target=_blank&gt;здесь&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Лахары (вулканические селевые потоки) являются главной опасностью&amp;#44; связанной с горой Рейнир. &lt;b&gt;У людей&amp;#44; которые проживают на юге округа Кинг&amp;#44; есть 1 шанс из 10 стать свидетелем лахара в своей жизни&lt;/b&gt;. Гора Рейнир считается активным вулканом&amp;#44; но до следующего его извержения может пройти много лет.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Если на горе Рейнир образуется лахар&amp;#44; &lt;b&gt;в этой зоне могут наблюдаться наводнения и осадочные породы&amp;#44; такие как грязь&amp;#44; песок&amp;#44; камни и другие обломки&amp;#44; которые будут спускаться вниз по реке из-за лахара&lt;/b&gt;. Это может происходить в течение многих лет и даже десятилетий после лахара. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Вероятность того&amp;#44; что в ближайшие 50 лет через этот регион будет протекать лахар с горы Рейнир&amp;#44; составляет 10–40%&lt;/b&gt;. Лахар выглядит как влажный текучий бетон и ведет себя подобным образом. Густая грязь и обломки пород покроют эту зону&amp;#44; если возникнет лахар. Это может серьезно повредить имущество&amp;#44; и для восстановления потребуется много времени. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Вероятность того&amp;#44; что в ближайшие 50 лет через эту зону будет протекать лахар с горы Рейнир&amp;#44; составляет 5–10%&lt;/b&gt;. Лахар выглядит как влажный текучий бетон и ведет себя подобным образом. Густая грязь и обломки пород покроют эту зону&amp;#44; если возникнет лахар. Это может серьезно повредить имущество&amp;#44; и для восстановления потребуется много времени. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Вы находитесь ЗА ПРЕДЕЛАМИ ОПАСНОЙ ЗОНЫ&amp;#44; ГДЕ МОЖЕТ ВОЗНИКНУТЬ ЛАХАР&lt;/b&gt;. Если произойдет извержение вулкана Рейнир&amp;#44; этот регион покроет пепел. Он будет очень похож на районы&amp;#44; пострадавшие от извержения вулкана Сент-Хеленс в 1980 году. Толщина слоя пепла будет варьироваться в зависимости от расстояния до вулкана. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(карта)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как правило&amp;#44; сигналы&amp;#44; свидетельствующие о скором извержении вулкана&amp;#44; можно заметить за несколько дней&amp;#44; а то и месяцев до извержения. &lt;b&gt;Газовая и сейсмическая активность возрастает&amp;#44; а поверхность земли образует возвышенности&amp;#44; поскольку под ней движется магма&lt;/b&gt;. Хотя эти признаки могут быть незаметны для широкой общественности&amp;#44; гора Рейнир постоянно контролируется учеными в рамках &lt;a href=http://volcanoes.usgs.gov/volcanoes/mount_rainier/ target=_blank&gt;программы по отслеживанию вулканических рисков Геологической службы США&lt;/a&gt;. </t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;ЗАДАВАЙТЕ ВОПРОСЫ&lt;/b&gt;. Узнайте&amp;#44; какие меры предприняли местные чиновники&amp;#44; чтобы подготовиться к вулканическим событиям. &lt;b&gt;Расспросите у должностных лиц&amp;#44; какой у них план и как они будут общаться с вами во время события&lt;/b&gt;. Вы можете сделать это&amp;#44; обратившись в &lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=_blank&gt;службу по чрезвычайным ситуациям округа Кинг&lt;/a&gt; округа Кинг.&lt;/li&gt;&lt;li&gt;&lt;b&gt;СОСТАВЬТЕ ПЛАН&lt;/b&gt;. Поговорите со своими друзьями и соседями. Если вы находитесь в зоне высокого риска&amp;#44; &lt;b&gt;решите&amp;#44; куда вы направитесь&amp;#44; что вы возьмете с собой и к кому вы обратитесь&lt;/b&gt;.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Во время извержения слушайте новости для получения последних известий и соблюдайте инструкции по действиям в чрезвычайной ситуации.
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;В ЗОНЕ ЛАХАРА: немедленно переместитесь на возвышенность.&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;НА УЛИЦЕ&lt;/b&gt;: прикрывайте рот&amp;#44; нос и тело&amp;#44; чтобы избежать раздражения. &lt;b&gt;Найдите укрытие&lt;/b&gt;. &lt;/li&gt;
+&lt;li&gt;&lt;b&gt;ВНУТРИ: не открывайте двери и вентиляционные отверстия в доме и оставайтесь в помещении&amp;#44; если не было получено иных указаний&lt;/b&gt;. Положите влажные полотенца у порогов дверей и заклейте лентой окна&amp;#44; которые пропускают воздух. Не заводите двигатели легковых и грузовых автомобилей&amp;#44; чтобы избежать повреждений из-за скопления пепла. Защитите животных и оборудование&amp;#44; перенеся их в дом или в другую крытую зону.&lt;/li&gt;&lt;/ul&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Volcano_during.jpg" alt="This is an panel of three images of what to do during a volcanic eruption or lahar. In lahar zone&amp;#44; outside&amp;#44; inside." title="During Volcano Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;После того как непосредственная опасность от извержения миновала&amp;#44; основной задачей будет уборка вулканического пепла.&lt;br&gt;  &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/MtStHel_Yakima_graders.jpg" alt="This image shows two graders shoveling inches of ashfall from Saint Helens' eruption" title="Ashfall Cleanup in Yakima After Mt. Saint Helens"&gt;&lt;li&gt;Выходя на улицу&amp;#44; надевайте защитные очки и маску. &lt;b&gt;Качество воздуха будет плохим&lt;/b&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Не запускайте двигатели транспортных средств&lt;/b&gt;. Если вам необходимо воспользоваться автомобилем&amp;#44; не развивайте высокую скорость (не более 55 км/час) и часто проверяйте масло&amp;#44; масляные и воздушные фильтры. &lt;/li&gt;&lt;li&gt;Вулканический пепел очень тяжелый и может привести к разрушению зданий. Если это безопасно&amp;#44; &lt;b&gt;уберите пепел с крыш и водосточных желобов&lt;/b&gt;.&lt;/li&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Вы можете больше узнать о горе Рейнир и потенциальных опасностях из целого ряда источников: 
+&lt;ul&gt;&lt;li&gt;&lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/ target=_blank&gt;мониторинг и другая информация&lt;/a&gt; - сайт Геологической службы США;&lt;/li&gt;&lt;li&gt;&lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=blank&gt;общая информация по округу Кинг&lt;/a&gt; - сайт округа Кинг;&lt;li&gt;&lt;a href=https://www.nps.gov/mora/planyourvisit/geohazards.htm target=_blank&gt;геологические опасности у горы Рейнир&lt;/a&gt; - сайт Службы национальных парков США;&lt;/li&gt;&lt;li&gt;&lt;a href=http://www.pnsn.org/volcanoes/mount-rainier target=_blank&gt;землетрясения вблизи горы Рейнир&lt;/a&gt; - сайт Тихоокеанской Северо-Западной сейсмической сети.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;На горе Рейнир случалось множество &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_eruption_history.html target=_blank&gt;извержений&lt;/a&gt; и &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_lahars.html target=_blank&gt;лахаров&lt;/a&gt;. Около 500 лет назад селевой поток Electron хлынул с горы и прошел через Пуйаллап до г. Самнер&amp;#44; штат Вашингтон. За тысячи лет до этого множество лахаров спускались вниз по местным рекам&amp;#44; доходя до г. Оберн.  &lt;b&gt;Некоторые города (Северо-Восточная Такома&amp;#44; Ортинг и Пуйаллап) построены на отложениях&amp;#44; которые образовались после лахаров.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;В округе Кинг зима может быть сопряжена с такими явлениями&amp;#44; как минусовые температуры&amp;#44; покрытые льдом дороги и потенциально сильные бури. Снегопады бывают нечасто&amp;#44; и в основном они наблюдаются на больших высотах. &lt;b&gt;Зимние бури могут нести с собой сильные ветры&amp;#44; которые ломают деревья и разрушают линии электропередач.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Сильные снегопады могут привести к серьезной дестабилизации в работе транспорта&amp;#44; служб общественной безопасности и коммунальных служб. &lt;b&gt;Электричество может отсутствовать в течение многих дней.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;В ближайшие 50 лет в Тихоокеанском Северо-Западном регионе будут наблюдаться более сильные бури&lt;/b&gt;. Они могут нести с собой сильные ветры и проливные дожди&amp;#44; ведущие к наводнениям. Зимние мероприятия будут сорваны. В 2015 году был зарегистрирован самый низкий уровень снежного покрова&amp;#44; который составил лишь 4 % от среднего показателя. Теплые зимы могут стать причиной засухи на всей территории штата. Щелкните изображение&amp;#44; чтобы узнать больше. &lt;br&gt;
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Winter.jpg" alt="Climate Change Winter Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Метеорологи достигли больших успехов в прогнозировании снежных и ледяных бурь. &lt;b&gt;Обращайте внимание на местные прогнозы погоды и зарегистрируйтесь в доступных системах оповещения и предупреждения &lt;/b&gt;(&lt;a href=http://alert.seattle.gov/ target=_blank&gt;Служба оповещения в г. Сиэтл&lt;/a&gt; и &lt;a href=http://www.kingcounty.gov/depts/emergency-management/alert-king-county.aspx target=_blank&gt;Служба оповещения в округе Кинг&lt;/a&gt;)&amp;#44; чтобы получать самую актуальную информацию об ожидающихся неблагоприятных метеоусловиях.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;СДЕЛАЙТЕ ЗАПАСЫ. Запаситесь топливом и необходимыми принадлежностями&amp;#44;&lt;/b&gt; чтобы продержаться несколько дней без электричества&amp;#44; тепла и горячей воды. Подумайте над приобретением генератора и соблюдайте стандарты безопасности.&lt;/li&gt;&lt;li&gt;&lt;b&gt;ПОДГОТОВЬТЕ СВОЙ ДОМ К ЗИМЕ.&lt;/b&gt; Установите окна с двойным переплетом. Выполните теплоизоляцию стен&amp;#44; чердаков и труб. Нанесите уплотняющий состав и герметичную изоляцию на двери и окна. В холодную погоду позволяйте кранам немного протекать&amp;#44; чтобы трубы не замерзали. &lt;b&gt;Узнайте&amp;#44; как перекрываются водяные клапаны (на случай разрыва трубы)&lt;/b&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;ПОДГОТОВЬТЕ ВАШИ ТРАНСПОРТНЫЕ СРЕДСТВА К ЗИМЕ.&lt;/b&gt; Топливные баки должны быть по крайней мере наполовину заполнены. Регулярно проверяйте аккумулятор&amp;#44; систему зажигания&amp;#44; радиатор&amp;#44; фары&amp;#44; тормоза и шины. Залейте в резервуары антифриз&amp;#44; масло и стеклоомыватель. &lt;b&gt;Храните необходимые принадлежности для зимней погоды в багажнике.&lt;/b&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;ОСТАВАЙТЕСЬ В КУРСЕ.&lt;/b&gt; Следите за местными новостями по телевизору&amp;#44; через мобильное устройство или радио с питанием от аккумулятора. Соблюдайте инструкции по действиям в чрезвычайной ситуации и учитывайте рекомендации относительно поездок.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;ИЗБЕГАЙТЕ ПОЕЗДОК.&lt;/b&gt; Если вам необходимо куда-то поехать&amp;#44; заполните бензобак&amp;#44; оставайтесь на главных дорогах и сообщайте другим о своем маршруте. Не спешите. Если вы застряли&amp;#44; обратитесь за помощью&amp;#44; включите аварийную сигнализацию и оставайтесь у своего автомобиля. Не пытайтесь идти пешком&amp;#44; если поблизости нет укрытия.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;ОСОЗНАВАЙТЕ РИСКИ.&lt;/b&gt; 
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;Переохлаждение.&lt;/b&gt; Если вы заметили симптомы&amp;#44; немедленно обратитесь за медицинской помощью. Для ознакомления с симптомами и другой информацией щелкните &lt;a href=https://www.cdc.gov/disasters/winter/staysafe/hypothermia.html target=_blank&gt;здесь&lt;/a&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Отравление угарным газом.&lt;/b&gt; Оно случается&amp;#44; когда топливо (например&amp;#44; газ&amp;#44; бензин&amp;#44; керосин&amp;#44; древесина или древесный уголь) сгорает в замкнутом пространстве. Сотни людей погибают таким образом каждый год. Узнайте больше &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/carbon-monoxide.aspx target=_blank&gt;здесь&lt;/a&gt;.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;li&gt;&lt;b&gt;ИЗБЕГАЙТЕ ОПАСНОСТИ.&lt;/b&gt; Держитесь подальше от упавших линий электропередач&amp;#44; затопленных дорог и других сооружений&amp;#44; ослабленных из-за тяжелого снега или льда.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Winter_during.jpg" alt="This is a panel of four images of what to do during bad winter weather. Stay Tuned&amp;#44; Stay Inside&amp;#44; Know Risks&amp;#44; and Avoid Hazards." title="During Winter Weather Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Обновите запас необходимых принадлежностей&lt;/b&gt;. Подготовьтесь на случай еще одной бури.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Усовершенствуйте свой семейный план&lt;/b&gt;. Что сработало? Что можно было сделать лучше?&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Поговорите со своими соседями&lt;/b&gt;. Поделитесь друг с другом советами и идеями&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Узнайте больше о зимних погодных условиях и о том&amp;#44; как к ним подготовиться.  
+&lt;ul&gt;&lt;li&gt;
+&lt;a href=http://takewinterbystorm.org target=_blank&gt;Покорение зимы &lt;/a&gt;- советы по подготовке и актуальная информация для Западного Вашингтона.&lt;/li&gt;
+&lt;li&gt;
+&lt;a href=http://kingcounty.gov/depts/transportation/metro/alerts-updates/winter.aspx target=_blank&gt;Погодный дайджест округа Кинг &lt;/a&gt; - ссылки на приложения для планирования зимних поездок и штормовые предупреждения.&lt;/li&gt;
+&lt;li&gt;
+&lt;a href=https://www.seattle.gov/transportation/winterweather.htm target=_blank&gt;Департамент транспорта г. Сиэтл&lt;/a&gt; - узнайте&amp;#44; где уже прошли снегоуборочные машины&amp;#44; и другую информацию о дорожных условиях. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Череда снежных&amp;#44; ледяных и ливневых штормов&amp;#44; начавшаяся 26 декабря 1996 года&amp;#44; вызвала 16 смертей в штате и убытки на сумму 57 миллионов долларов США в Сиэтле и округе Кинг&lt;/b&gt;. После двух снежных бурь (во время одной выпало 15–30 см мокрого снега&amp;#44; а во время другой — 25 см) последовал сильный ливень&amp;#44; который разрушил крытые автостоянки&amp;#44; накрыл лодочные причалы и поломал линии электропередач. Впервые за историю метрополитен полностью остановил свою работу. Мороз и таяние снега способствовали наводнениям и оползням в течение следующей недели. Готовы ли вы к тому&amp;#44; что такая буря повторится?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Не позволяйте дождливой осени и зиме ввести вас в заблуждение  - &lt;b&gt;лето в округе Кинг может быть ЖАРКИМ. Иногда температура поднимается до отметки 30 °C и выше на несколько дней подряд&lt;/b&gt;. По всему региону возможны грозы&amp;#44; ураганы&amp;#44; лесные пожары и аномальная жара.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Сильная жара может удерживаться в течение многих дней&amp;#44; в результате чего в сообществах возрастает количество заболеваний&amp;#44; вызванных перегревом&amp;#44; включая ТЕПЛОВОЕ ИСТОЩЕНИЕ и ТЕПЛОВОЙ УДАР. Высокие температуры&amp;#44; сухие погодные условия и повышенная вероятность появления молний могут привести к лесным пожарам.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Июль 2015 года был самым жарким месяцем в истории! &lt;b&gt;Согласно прогнозам&amp;#44; средняя годовая температура возрастет на 3–10 градусов Фаренгейта к 2100 году&lt;/b&gt;. В Вашингтоне будет наблюдаться меньше летних дождей&amp;#44; а когда дожди будут происходить&amp;#44; они будут очень сильными (т. е. проливными). Щелкните изображение&amp;#44; чтобы узнать больше. &lt;br&gt; &lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storm Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Тепловое истощение и тепловой удар — это серьезные заболевания&amp;#44; которые могут возникать&amp;#44; когда человек подвергается воздействию очень высоких температур.&lt;/p&gt;
+&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;
+&lt;b&gt;ПРИЗНАКИ ТЕПЛОВОГО ИСТОЩЕНИЯ&lt;/b&gt;:
+&lt;ul&gt;
+&lt;li&gt;сильное потоотделение;&lt;/li&gt;
+&lt;li&gt;слабость;&lt;/li&gt;
+&lt;li&gt;слабый пульс;&lt;/li&gt;
+&lt;li&gt;Обморок.&lt;/li&gt;
+&lt;li&gt;рвота&lt;/li&gt;
+&lt;li&gt;холодная бледная кожа.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/div&gt;
+&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;
+&lt;b&gt;ПРИЗНАКИ ТЕПЛОВОГО УДАРА&lt;/b&gt;:
+&lt;ul&gt;
+&lt;li&gt;высокая температура тела (39 °C и выше);&lt;/li&gt;
+&lt;li&gt;горячая и сухая кожа;&lt;/li&gt;
+&lt;li&gt;быстрый и сильный пульс;&lt;/li&gt;
+&lt;li&gt;возможна потеря сознания.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Пожилые люди&amp;#44; маленькие дети&amp;#44; а также люди с психическими заболеваниями и хроническими болезнями более подвержены риску недомогания&amp;#44; вызванного перегревом.
+&lt;ol&gt;&lt;li&gt;&lt;b&gt;ЗНАЙТЕ ПРИЗНАКИ.&lt;/b&gt; Недомогание&amp;#44; вызванное перегревом&amp;#44; может развиваться быстро. Знайте&amp;#44; кто из ваших соседей может быть подвержен риску. &lt;/li&gt;&lt;li&gt;&lt;b&gt;ОСТАВАЙТЕСЬ В КУРСЕ.&lt;/b&gt; Слушайте местные новости&amp;#44; чтобы узнать общую информацию и местоположение &lt;b&gt;центров охлаждения&lt;/b&gt; (общественные места&amp;#44; которые могут использоваться жителями для охлаждения).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;НЕ ПЕРЕГРЕВАЙТЕСЬ.&lt;/b&gt; Оставайтесь в помещении&amp;#44; а если возможно&amp;#44; в местах с кондиционерами (торговый центр&amp;#44; библиотека&amp;#44; театр и т. п.). Ограничьте активность на открытом воздухе.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;ЗАЩИЩАЙТЕ КОЖУ.&lt;/b&gt; Носите легкую&amp;#44; светлую&amp;#44; свободную одежду. Также помогут широкополая шляпа&amp;#44; солнцезащитные очки и солнцезащитный крем.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;ПЕЙТЕ ВОДУ.&lt;/b&gt; Пейте много жидкостей (избегайте кофеина&amp;#44; алкоголя и сладких напитков) и носите с собой бутылку воды.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;ДУМАЙТЕ О ДРУГИХ.&lt;/b&gt; Не оставляйте детей и домашних животных в жарких автомобилях. Контролируйте состояние родственников&amp;#44; друзей и соседей&amp;#44; находящихся в группе риска.&lt;/li&gt;&lt;/ul&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Summer_during.jpg" alt="This is a panel of three images of what to do during bad summer weather. Stay Cool&amp;#44; Protect Skin&amp;#44; and Drink Water." title="During Summer Weather Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Используйте занавески&amp;#44; чтобы  &lt;b&gt;закрыть окна и удерживать прохладный воздух внутри&lt;/b&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Подумайте над приобретением системы кондиционирования воздуха &lt;/b&gt; и (или) установите герметизирующие прокладки в тех местах&amp;#44; где просачивается горячий воздух. &lt;/li&gt;
+&lt;li&gt;&lt;b&gt;МАЛОБЮДЖЕТНЫЙ ВАРИАНТ.&lt;/b&gt; Используйте теплоотражатели между окнами и занавесками (например&amp;#44; картон&amp;#44; завернутый в алюминиевую фольгу)&amp;#44; чтобы отражать тепло обратно на улицу. Щелкните &lt;a href=http://www.instructables.com/id/Heat-blocking-curtains/ target=_blank&gt;здесь&lt;/a&gt;&amp;#44; чтобы узнать&amp;#44; как сделать это своими руками.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Дополнительную информацию о том&amp;#44; как сохранять хорошее самочувствие и безопасность&amp;#44; можно найти на странице &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/hot-weather.aspx target=_blank&gt;Жара&lt;/a&gt; сайта округа Кинг.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;В 2015 году в округе Кинг было зарегистрировано рекордное количество дней&amp;#44; когда температура превышала 32 °C. &lt;b&gt;Июль 2015 года был самым жарким месяцем&amp;#44; когда-либо зарегистрированным в округе Кинг!&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>text-ru</t>
   </si>
 </sst>
 </file>
@@ -12617,7 +13332,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -12642,6 +13357,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="683">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -13660,13 +14377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J292"/>
+  <dimension ref="A1:K292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13675,9 +14392,10 @@
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2"/>
     <col min="8" max="10" width="53.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13708,8 +14426,11 @@
       <c r="J1" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="20" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -13737,8 +14458,11 @@
       <c r="J2" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="21" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13766,8 +14490,11 @@
       <c r="J3" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="21" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -13795,12 +14522,15 @@
       <c r="J4" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="21" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D5" s="3"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -13828,8 +14558,11 @@
       <c r="J6" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="21" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -13857,8 +14590,11 @@
       <c r="J7" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="21" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13886,8 +14622,11 @@
       <c r="J8" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="21" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -13915,8 +14654,11 @@
       <c r="J9" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="21" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -13944,12 +14686,15 @@
       <c r="J10" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="21" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -13977,8 +14722,11 @@
       <c r="J12" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="21" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -14006,8 +14754,11 @@
       <c r="J13" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="21" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -14035,12 +14786,15 @@
       <c r="J14" s="1" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="21" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -14068,8 +14822,11 @@
       <c r="J16" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="21" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -14097,8 +14854,11 @@
       <c r="J17" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="20" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -14126,8 +14886,11 @@
       <c r="J18" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="20" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -14155,8 +14918,11 @@
       <c r="J19" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="21" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -14184,8 +14950,11 @@
       <c r="J20" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="21" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -14213,12 +14982,15 @@
       <c r="J21" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="21" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -14246,8 +15018,11 @@
       <c r="J23" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="20" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -14275,8 +15050,11 @@
       <c r="J24" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="21" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -14304,8 +15082,11 @@
       <c r="J25" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="21" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -14333,8 +15114,11 @@
       <c r="J26" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="21" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -14362,8 +15146,11 @@
       <c r="J27" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="21" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -14391,8 +15178,11 @@
       <c r="J28" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="21" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -14420,8 +15210,11 @@
       <c r="J29" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="21" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -14449,8 +15242,11 @@
       <c r="J30" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="21" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -14478,12 +15274,15 @@
       <c r="J31" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="21" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D32" s="3"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -14511,8 +15310,11 @@
       <c r="J33" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="21" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -14540,8 +15342,11 @@
       <c r="J34" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="21" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -14569,8 +15374,11 @@
       <c r="J35" s="1" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="21" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -14598,8 +15406,11 @@
       <c r="J36" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="21" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -14627,12 +15438,15 @@
       <c r="J37" s="1" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="21" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D38" s="3"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -14660,12 +15474,15 @@
       <c r="J39" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D40" s="3"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -14690,8 +15507,11 @@
       <c r="J41" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="21" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -14716,8 +15536,11 @@
       <c r="J42" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="21" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -14742,12 +15565,15 @@
       <c r="J43" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="20" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D44" s="3"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -14772,8 +15598,11 @@
       <c r="J45" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -14798,8 +15627,11 @@
       <c r="J46" s="1" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -14824,8 +15656,11 @@
       <c r="J47" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -14850,8 +15685,11 @@
       <c r="J48" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -14876,8 +15714,11 @@
       <c r="J49" s="1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -14902,8 +15743,11 @@
       <c r="J50" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -14928,8 +15772,11 @@
       <c r="J51" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -14954,8 +15801,11 @@
       <c r="J52" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -14980,8 +15830,11 @@
       <c r="J53" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K53" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -15006,8 +15859,11 @@
       <c r="J54" s="1" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -15032,8 +15888,11 @@
       <c r="J55" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -15058,8 +15917,11 @@
       <c r="J56" s="1" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K56" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -15084,8 +15946,11 @@
       <c r="J57" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -15110,8 +15975,11 @@
       <c r="J58" s="1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -15136,8 +16004,11 @@
       <c r="J59" s="1" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -15162,8 +16033,11 @@
       <c r="J60" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>47</v>
       </c>
@@ -15188,8 +16062,11 @@
       <c r="J61" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>47</v>
       </c>
@@ -15214,8 +16091,11 @@
       <c r="J62" s="1" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -15240,8 +16120,11 @@
       <c r="J63" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -15266,8 +16149,11 @@
       <c r="J64" s="1" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -15292,8 +16178,11 @@
       <c r="J65" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K65" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -15318,8 +16207,11 @@
       <c r="J66" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -15344,8 +16236,11 @@
       <c r="J67" s="1" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -15370,8 +16265,11 @@
       <c r="J68" s="1" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -15396,8 +16294,11 @@
       <c r="J69" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -15422,8 +16323,11 @@
       <c r="J70" s="1" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -15448,8 +16352,11 @@
       <c r="J71" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K71" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -15474,8 +16381,11 @@
       <c r="J72" s="1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -15500,8 +16410,11 @@
       <c r="J73" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>47</v>
       </c>
@@ -15526,8 +16439,11 @@
       <c r="J74" s="1" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K74" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -15552,8 +16468,11 @@
       <c r="J75" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K75" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -15578,8 +16497,11 @@
       <c r="J76" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K76" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -15604,8 +16526,11 @@
       <c r="J77" s="1" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K77" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -15630,8 +16555,11 @@
       <c r="J78" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K78" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -15656,8 +16584,11 @@
       <c r="J79" s="1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K79" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>47</v>
       </c>
@@ -15682,8 +16613,11 @@
       <c r="J80" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K80" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>47</v>
       </c>
@@ -15708,8 +16642,11 @@
       <c r="J81" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K81" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>47</v>
       </c>
@@ -15734,8 +16671,11 @@
       <c r="J82" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K82" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -15760,8 +16700,11 @@
       <c r="J83" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K83" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -15786,8 +16729,11 @@
       <c r="J84" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K84" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>47</v>
       </c>
@@ -15812,8 +16758,11 @@
       <c r="J85" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K85" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>47</v>
       </c>
@@ -15838,8 +16787,11 @@
       <c r="J86" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K86" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -15864,8 +16816,11 @@
       <c r="J87" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K87" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -15890,8 +16845,11 @@
       <c r="J88" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K88" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>47</v>
       </c>
@@ -15916,8 +16874,11 @@
       <c r="J89" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K89" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>47</v>
       </c>
@@ -15942,8 +16903,11 @@
       <c r="J90" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K90" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>47</v>
       </c>
@@ -15968,8 +16932,11 @@
       <c r="J91" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K91" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>47</v>
       </c>
@@ -15994,8 +16961,11 @@
       <c r="J92" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K92" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>47</v>
       </c>
@@ -16020,8 +16990,11 @@
       <c r="J93" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K93" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>47</v>
       </c>
@@ -16046,8 +17019,11 @@
       <c r="J94" s="1" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K94" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>47</v>
       </c>
@@ -16072,8 +17048,11 @@
       <c r="J95" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K95" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -16098,8 +17077,11 @@
       <c r="J96" s="1" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K96" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -16124,8 +17106,11 @@
       <c r="J97" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K97" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -16150,8 +17135,11 @@
       <c r="J98" s="1" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K98" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>47</v>
       </c>
@@ -16176,8 +17164,11 @@
       <c r="J99" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K99" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>47</v>
       </c>
@@ -16202,8 +17193,11 @@
       <c r="J100" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K100" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>47</v>
       </c>
@@ -16228,8 +17222,11 @@
       <c r="J101" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K101" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -16254,8 +17251,11 @@
       <c r="J102" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K102" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>47</v>
       </c>
@@ -16280,8 +17280,11 @@
       <c r="J103" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K103" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>47</v>
       </c>
@@ -16306,8 +17309,11 @@
       <c r="J104" s="1" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K104" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -16332,8 +17338,11 @@
       <c r="J105" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K105" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -16358,8 +17367,11 @@
       <c r="J106" s="1" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K106" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>47</v>
       </c>
@@ -16384,8 +17396,11 @@
       <c r="J107" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K107" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>47</v>
       </c>
@@ -16410,8 +17425,11 @@
       <c r="J108" s="1" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K108" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>47</v>
       </c>
@@ -16436,12 +17454,15 @@
       <c r="J109" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K109" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D110" s="3"/>
       <c r="I110" s="8"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>53</v>
       </c>
@@ -16466,20 +17487,25 @@
       <c r="J111" s="1" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K111" s="21" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E112" s="13"/>
       <c r="H112" s="14"/>
       <c r="I112" s="16"/>
       <c r="J112" s="14"/>
-    </row>
-    <row r="113" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K112" s="21"/>
+    </row>
+    <row r="113" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E113" s="13"/>
       <c r="H113" s="14"/>
       <c r="I113" s="16"/>
       <c r="J113" s="14"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K113" s="21"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -16507,8 +17533,11 @@
       <c r="J114" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K114" s="21" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -16536,8 +17565,11 @@
       <c r="J115" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K115" s="21" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -16565,8 +17597,11 @@
       <c r="J116" s="1" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K116" s="21" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -16594,8 +17629,11 @@
       <c r="J117" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K117" s="21" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -16623,8 +17661,11 @@
       <c r="J118" s="1" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K118" s="21" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -16652,8 +17693,11 @@
       <c r="J119" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K119" s="21" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -16681,8 +17725,11 @@
       <c r="J120" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K120" s="21" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -16710,12 +17757,15 @@
       <c r="J121" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K121" s="21" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D122" s="4"/>
       <c r="I122" s="8"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -16743,8 +17793,11 @@
       <c r="J123" s="1" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K123" s="21" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -16772,8 +17825,11 @@
       <c r="J124" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K124" s="21" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -16801,8 +17857,11 @@
       <c r="J125" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K125" s="21" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -16830,8 +17889,11 @@
       <c r="J126" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K126" s="21" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -16859,8 +17921,11 @@
       <c r="J127" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K127" s="21" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -16888,8 +17953,11 @@
       <c r="J128" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K128" s="21" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -16917,8 +17985,11 @@
       <c r="J129" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K129" s="21" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -16946,12 +18017,15 @@
       <c r="J130" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K130" s="21" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D131" s="4"/>
       <c r="I131" s="8"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -16979,8 +18053,11 @@
       <c r="J132" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K132" s="21" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -17008,8 +18085,11 @@
       <c r="J133" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K133" s="21" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -17037,8 +18117,11 @@
       <c r="J134" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K134" s="21" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -17066,8 +18149,11 @@
       <c r="J135" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K135" s="21" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -17095,8 +18181,11 @@
       <c r="J136" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K136" s="21" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -17124,8 +18213,11 @@
       <c r="J137" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K137" s="21" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -17153,8 +18245,11 @@
       <c r="J138" s="1" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K138" s="21" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -17182,8 +18277,11 @@
       <c r="J139" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K139" s="21" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -17211,8 +18309,11 @@
       <c r="J140" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K140" s="21" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -17240,8 +18341,11 @@
       <c r="J141" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K141" s="21" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -17269,8 +18373,11 @@
       <c r="J142" s="1" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K142" s="21" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -17298,8 +18405,11 @@
       <c r="J143" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K143" s="21" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -17327,8 +18437,11 @@
       <c r="J144" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K144" s="21" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -17356,8 +18469,11 @@
       <c r="J145" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K145" s="21" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -17385,12 +18501,15 @@
       <c r="J146" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K146" s="21" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D147" s="4"/>
       <c r="I147" s="8"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -17418,8 +18537,11 @@
       <c r="J148" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K148" s="21" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -17447,8 +18569,11 @@
       <c r="J149" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K149" s="21" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -17476,8 +18601,11 @@
       <c r="J150" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K150" s="21" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -17505,8 +18633,11 @@
       <c r="J151" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K151" s="21" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -17534,12 +18665,15 @@
       <c r="J152" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K152" s="21" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D153" s="4"/>
       <c r="I153" s="8"/>
     </row>
-    <row r="154" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>7</v>
       </c>
@@ -17564,12 +18698,15 @@
       <c r="J154" s="1" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K154" s="21" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D155" s="4"/>
       <c r="I155" s="8"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -17597,12 +18734,15 @@
       <c r="J156" s="17" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K156" s="20" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D157" s="4"/>
       <c r="I157" s="8"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>47</v>
       </c>
@@ -17627,8 +18767,11 @@
       <c r="J158" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K158" s="20" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>47</v>
       </c>
@@ -17653,8 +18796,11 @@
       <c r="J159" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K159" s="20" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>47</v>
       </c>
@@ -17679,12 +18825,15 @@
       <c r="J160" s="1" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K160" s="20" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D161" s="4"/>
       <c r="I161" s="8"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>47</v>
       </c>
@@ -17712,8 +18861,11 @@
       <c r="J162" s="1" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K162" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>47</v>
       </c>
@@ -17741,8 +18893,11 @@
       <c r="J163" s="1" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K163" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>47</v>
       </c>
@@ -17770,8 +18925,11 @@
       <c r="J164" s="1" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K164" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>47</v>
       </c>
@@ -17799,8 +18957,11 @@
       <c r="J165" s="1" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K165" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -17828,8 +18989,11 @@
       <c r="J166" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K166" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>47</v>
       </c>
@@ -17857,8 +19021,11 @@
       <c r="J167" s="1" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K167" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>47</v>
       </c>
@@ -17886,8 +19053,11 @@
       <c r="J168" s="1" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K168" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>47</v>
       </c>
@@ -17915,8 +19085,11 @@
       <c r="J169" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K169" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>47</v>
       </c>
@@ -17944,8 +19117,11 @@
       <c r="J170" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K170" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>47</v>
       </c>
@@ -17973,8 +19149,11 @@
       <c r="J171" s="1" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K171" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>47</v>
       </c>
@@ -18002,8 +19181,11 @@
       <c r="J172" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K172" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>47</v>
       </c>
@@ -18031,8 +19213,11 @@
       <c r="J173" s="1" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K173" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>47</v>
       </c>
@@ -18060,8 +19245,11 @@
       <c r="J174" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K174" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>47</v>
       </c>
@@ -18089,8 +19277,11 @@
       <c r="J175" s="1" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K175" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>47</v>
       </c>
@@ -18118,12 +19309,15 @@
       <c r="J176" s="1" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K176" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D177" s="4"/>
       <c r="I177" s="8"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>53</v>
       </c>
@@ -18148,20 +19342,25 @@
       <c r="J178" s="1" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K178" s="21" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E179" s="13"/>
       <c r="H179" s="14"/>
       <c r="I179" s="16"/>
       <c r="J179" s="14"/>
-    </row>
-    <row r="180" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K179" s="21"/>
+    </row>
+    <row r="180" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E180" s="13"/>
       <c r="H180" s="14"/>
       <c r="I180" s="16"/>
       <c r="J180" s="14"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K180" s="21"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -18189,8 +19388,11 @@
       <c r="J181" s="18" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K181" s="18" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -18218,8 +19420,11 @@
       <c r="J182" s="18" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K182" s="18" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -18247,8 +19452,11 @@
       <c r="J183" s="18" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K183" s="18" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -18276,8 +19484,11 @@
       <c r="J184" s="18" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K184" s="18" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -18305,8 +19516,11 @@
       <c r="J185" s="18" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K185" s="18" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -18334,8 +19548,11 @@
       <c r="J186" s="18" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K186" s="18" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -18363,8 +19580,11 @@
       <c r="J187" s="18" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K187" s="18" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -18392,8 +19612,11 @@
       <c r="J188" s="18" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K188" s="18" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -18421,8 +19644,11 @@
       <c r="J189" s="18" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K189" s="18" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C190" s="8"/>
       <c r="D190" s="15"/>
       <c r="E190"/>
@@ -18431,7 +19657,7 @@
       <c r="I190" s="8"/>
       <c r="J190" s="18"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -18459,8 +19685,11 @@
       <c r="J191" s="1" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K191" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -18488,8 +19717,11 @@
       <c r="J192" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K192" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -18517,8 +19749,11 @@
       <c r="J193" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K193" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -18546,8 +19781,11 @@
       <c r="J194" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K194" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -18575,8 +19813,11 @@
       <c r="J195" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K195" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -18604,8 +19845,11 @@
       <c r="J196" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K196" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -18633,8 +19877,11 @@
       <c r="J197" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K197" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -18662,8 +19909,11 @@
       <c r="J198" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K198" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -18691,14 +19941,17 @@
       <c r="J199" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K199" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C200" s="8"/>
       <c r="D200" s="15"/>
       <c r="E200"/>
       <c r="I200" s="8"/>
     </row>
-    <row r="201" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
         <v>7</v>
       </c>
@@ -18723,14 +19976,17 @@
       <c r="J201" s="1" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K201" s="21" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="D202" s="5"/>
       <c r="I202" s="8"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -18758,12 +20014,15 @@
       <c r="J203" s="1" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K203" s="20" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D204" s="5"/>
       <c r="I204" s="8"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>47</v>
       </c>
@@ -18788,8 +20047,11 @@
       <c r="J205" s="1" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K205" s="20" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>47</v>
       </c>
@@ -18814,8 +20076,11 @@
       <c r="J206" s="1" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K206" s="20" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>47</v>
       </c>
@@ -18840,8 +20105,11 @@
       <c r="J207" s="1" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K207" s="21" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>47</v>
       </c>
@@ -18866,12 +20134,15 @@
       <c r="J208" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K208" s="21" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D209" s="5"/>
       <c r="I209" s="8"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>53</v>
       </c>
@@ -18896,8 +20167,11 @@
       <c r="J210" s="1" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K210" s="21" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>53</v>
       </c>
@@ -18922,8 +20196,11 @@
       <c r="J211" s="1" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K211" s="21" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>53</v>
       </c>
@@ -18948,8 +20225,11 @@
       <c r="J212" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K212" s="21" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>53</v>
       </c>
@@ -18974,8 +20254,11 @@
       <c r="J213" s="1" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K213" s="21" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>53</v>
       </c>
@@ -19000,8 +20283,11 @@
       <c r="J214" s="1" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K214" s="20" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>53</v>
       </c>
@@ -19026,8 +20312,11 @@
       <c r="J215" s="1" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K215" s="20" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>53</v>
       </c>
@@ -19052,8 +20341,11 @@
       <c r="J216" s="1" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K216" s="21" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>53</v>
       </c>
@@ -19078,8 +20370,11 @@
       <c r="J217" s="1" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K217" s="21" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -19104,8 +20399,11 @@
       <c r="J218" s="1" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K218" s="21" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>53</v>
       </c>
@@ -19130,20 +20428,25 @@
       <c r="J219" s="1" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K219" s="20" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E220" s="13"/>
       <c r="H220" s="14"/>
       <c r="I220" s="16"/>
       <c r="J220" s="14"/>
-    </row>
-    <row r="221" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K220" s="21"/>
+    </row>
+    <row r="221" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E221" s="13"/>
       <c r="H221" s="14"/>
       <c r="I221" s="16"/>
       <c r="J221" s="14"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K221" s="21"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -19171,8 +20474,11 @@
       <c r="J222" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K222" s="20" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -19200,8 +20506,11 @@
       <c r="J223" s="1" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K223" s="21" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -19229,8 +20538,11 @@
       <c r="J224" s="1" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K224" s="21" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -19258,8 +20570,11 @@
       <c r="J225" s="1" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K225" s="20" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -19287,12 +20602,15 @@
       <c r="J226" s="1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K226" s="20" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D227" s="6"/>
       <c r="I227" s="8"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -19320,8 +20638,11 @@
       <c r="J228" s="1" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K228" s="20" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -19349,8 +20670,11 @@
       <c r="J229" s="1" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K229" s="21" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -19378,8 +20702,11 @@
       <c r="J230" s="1" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K230" s="20" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -19407,12 +20734,15 @@
       <c r="J231" s="1" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K231" s="20" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D232" s="6"/>
       <c r="I232" s="8"/>
     </row>
-    <row r="233" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
         <v>7</v>
       </c>
@@ -19437,12 +20767,15 @@
       <c r="J233" s="1" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K233" s="21" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D234" s="6"/>
       <c r="I234" s="8"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -19467,12 +20800,15 @@
       <c r="J235" s="19" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K235" s="21" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D236" s="6"/>
       <c r="I236" s="8"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>47</v>
       </c>
@@ -19494,8 +20830,11 @@
       <c r="J237" s="1" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K237" s="21" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>47</v>
       </c>
@@ -19517,8 +20856,11 @@
       <c r="J238" s="1" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K238" s="21" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>47</v>
       </c>
@@ -19540,12 +20882,15 @@
       <c r="J239" s="1" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K239" s="21" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D240" s="6"/>
       <c r="I240" s="8"/>
     </row>
-    <row r="241" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>47</v>
       </c>
@@ -19567,12 +20912,15 @@
       <c r="J241" s="1" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K241" s="21" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D242" s="6"/>
       <c r="I242" s="8"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>53</v>
       </c>
@@ -19594,20 +20942,25 @@
       <c r="J243" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K243" s="21" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E244" s="13"/>
       <c r="H244" s="14"/>
       <c r="I244" s="14"/>
       <c r="J244" s="14"/>
-    </row>
-    <row r="245" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K244" s="14"/>
+    </row>
+    <row r="245" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E245" s="13"/>
       <c r="H245" s="14"/>
       <c r="I245" s="14"/>
       <c r="J245" s="14"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K245" s="14"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -19635,11 +20988,15 @@
       <c r="J246" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K246" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D247" s="7"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K247" s="1"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -19667,8 +21024,11 @@
       <c r="J248" s="1" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K248" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -19696,8 +21056,11 @@
       <c r="J249" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K249" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -19725,8 +21088,11 @@
       <c r="J250" s="1" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K250" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -19754,11 +21120,15 @@
       <c r="J251" s="1" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K251" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D252" s="7"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K252" s="1"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -19786,11 +21156,15 @@
       <c r="J253" s="1" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K253" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D254" s="7"/>
-    </row>
-    <row r="255" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K254" s="1"/>
+    </row>
+    <row r="255" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>47</v>
       </c>
@@ -19815,8 +21189,11 @@
       <c r="J255" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K255" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>47</v>
       </c>
@@ -19841,8 +21218,11 @@
       <c r="J256" s="1" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K256" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>47</v>
       </c>
@@ -19867,8 +21247,11 @@
       <c r="J257" s="1" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K257" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>47</v>
       </c>
@@ -19893,11 +21276,15 @@
       <c r="J258" s="1" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K258" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D259" s="7"/>
-    </row>
-    <row r="260" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K259" s="1"/>
+    </row>
+    <row r="260" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>53</v>
       </c>
@@ -19922,20 +21309,25 @@
       <c r="J260" s="1" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K260" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E261" s="13"/>
       <c r="H261" s="14"/>
       <c r="I261" s="14"/>
       <c r="J261" s="14"/>
-    </row>
-    <row r="262" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K261" s="14"/>
+    </row>
+    <row r="262" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E262" s="13"/>
       <c r="H262" s="14"/>
       <c r="I262" s="14"/>
       <c r="J262" s="14"/>
-    </row>
-    <row r="263" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K262" s="14"/>
+    </row>
+    <row r="263" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -19960,11 +21352,14 @@
       <c r="J263" s="1" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K263" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D264" s="9"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -19989,11 +21384,15 @@
       <c r="J265" s="1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K265" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D266" s="9"/>
-    </row>
-    <row r="267" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K266" s="1"/>
+    </row>
+    <row r="267" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
         <v>7</v>
       </c>
@@ -20018,13 +21417,17 @@
       <c r="J267" s="1" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K267" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="D268" s="9"/>
-    </row>
-    <row r="269" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K268" s="1"/>
+    </row>
+    <row r="269" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -20049,11 +21452,15 @@
       <c r="J269" s="1" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K269" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D270" s="9"/>
-    </row>
-    <row r="271" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K270" s="1"/>
+    </row>
+    <row r="271" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>47</v>
       </c>
@@ -20075,8 +21482,11 @@
       <c r="J271" s="1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K271" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>47</v>
       </c>
@@ -20098,8 +21508,11 @@
       <c r="J272" s="1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K272" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>47</v>
       </c>
@@ -20121,8 +21534,11 @@
       <c r="J273" s="1" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K273" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>47</v>
       </c>
@@ -20144,11 +21560,15 @@
       <c r="J274" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K274" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D275" s="9"/>
-    </row>
-    <row r="276" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K275" s="1"/>
+    </row>
+    <row r="276" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>53</v>
       </c>
@@ -20170,20 +21590,25 @@
       <c r="J276" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K276" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E277" s="13"/>
       <c r="H277" s="14"/>
       <c r="I277" s="14"/>
       <c r="J277" s="14"/>
-    </row>
-    <row r="278" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K277" s="14"/>
+    </row>
+    <row r="278" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E278" s="13"/>
       <c r="H278" s="14"/>
       <c r="I278" s="14"/>
       <c r="J278" s="14"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K278" s="14"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -20208,11 +21633,15 @@
       <c r="J279" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K279" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D280" s="10"/>
-    </row>
-    <row r="281" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K280" s="1"/>
+    </row>
+    <row r="281" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -20237,11 +21666,15 @@
       <c r="J281" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K281" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D282" s="10"/>
-    </row>
-    <row r="283" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K282" s="1"/>
+    </row>
+    <row r="283" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -20266,11 +21699,15 @@
       <c r="J283" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K283" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D284" s="10"/>
-    </row>
-    <row r="285" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K284" s="1"/>
+    </row>
+    <row r="285" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -20295,11 +21732,15 @@
       <c r="J285" s="1" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K285" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D286" s="10"/>
-    </row>
-    <row r="287" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K286" s="1"/>
+    </row>
+    <row r="287" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>47</v>
       </c>
@@ -20321,8 +21762,11 @@
       <c r="J287" s="1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K287" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>47</v>
       </c>
@@ -20344,8 +21788,11 @@
       <c r="J288" s="1" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K288" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>47</v>
       </c>
@@ -20367,8 +21814,11 @@
       <c r="J289" s="1" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K289" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>47</v>
       </c>
@@ -20390,11 +21840,15 @@
       <c r="J290" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K290" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D291" s="10"/>
-    </row>
-    <row r="292" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+      <c r="K291" s="1"/>
+    </row>
+    <row r="292" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>53</v>
       </c>
@@ -20415,6 +21869,9 @@
       </c>
       <c r="J292" s="1" t="s">
         <v>791</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>1008</v>
       </c>
     </row>
   </sheetData>

--- a/disasterinfosite/data/snuggets.xlsx
+++ b/disasterinfosite/data/snuggets.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="1225">
   <si>
     <t>section</t>
   </si>
@@ -12502,6 +12502,714 @@
   </si>
   <si>
     <t>text-ru</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Waxaa jiro &lt;b&gt;FURSAD SAREYSO&lt;/b&gt; (84%) ee baaxada 6.5+ dhulgariir qotodheer oo dhufanayo 50 sanno ee xigo. Waxay dareemeysaa si lamid ah M6.8 ee Dhulgariirka Nisqually ee 2001. Gariirka dhaxedhaxaadka waxaa dareemaya ku dhawaad qof walboo halkaan joogo. &lt;b&gt;Albaabada wuu lulmayaa&amp;#44; sawirada darbiyada way shanqarayaan&amp;#44; iyo sheeyada yaryar way dhici karaan. Waxyeelada way yaraaneysaa.&lt;/b&gt;  &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Waxaa jiro &lt;b&gt;FURSAD SAREYSO&lt;/b&gt; (84%) ee baaxada 6.5+ dhulgariir qotodheer oo dhufanayo 50 sanno ee xigo. Waxay dareemeysaa si lamid ah M6.8 ee Dhulgariirka Nisqually ee 2001. &lt;b&gt;Gariir xoogan wuu ku adkeynayaa inuu halkaan ku lugeeyo. Buuggaagta&amp;#44; galaasyada&amp;#44; iyo sheeyada way ka dhacayaan iska faalooyinka. Albaabada armaajada iyo qaanadaha way furmayaan&lt;/b&gt;. Qaar ka mid ah shooladaha iyo si liito ugu dhisan dhismooyinka way waxyeeloobayaan. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Waxaa jiro &lt;b&gt;FURSAD SAREYSO&lt;/b&gt; (84%) ee baaxada 6.5+ dhulgariir qotodheer oo dhufanayo 50 sanno ee xigo. Waxay dareemeysaa si lamid ah M6.8 ee Dhulgariirka Nisqually ee 2001. &lt;b&gt;Gariir aad u xoogan ayaa ku adkeynayo in halkaan la taagnaado. Alaabta guriga way dhaqaaqeysaa iyo sheeyo badan waxay ka soo dhacayaan iska faalooyinka.&lt;/b&gt; Waxyeelada muhiim ah oo si liidato ugu dhisan qaabdhismeedyada oo wax yar dhexdhaxaadinayo qaabdhismeedyo caadi ah. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;FURSAD HOOSE&lt;/b&gt; (5%) ee ka jirto baaxada 7+ dhulgariirka Qaladka Seattle ee 50 sanno ee xiggo&amp;#44; laakin haddii ay sameyso waxyeelo ayay noqoneysaa. &lt;b&gt;Gariirka dhaxedhaxaadka waxaa dareemaya ku dhawaad qof walboo joogo. Albaabada wuu lulmayaa&amp;#44; sawirada darbiyada way shanqarayaan&amp;#44; iyo sheeyada yaryar way dhici karaan. Waxyeelada way yaraaneysaa.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;FURSAD HOOSE&lt;/b&gt; (5%) ee ka jirto baaxada 7+ dhulgariirka Qaladka Seattle ee 50 sanno ee xiggo&amp;#44; laakin haddii ay sameyso waxyeelo ayay noqoneysaa. Gariir xoogan wuu ku adkeynayaa inuu ku lugeeyo. &lt;b&gt;Buuggaagta&amp;#44; galaasyada&amp;#44; iyo sheeyada way ka dhacayaan iska faalooyinka. Qaar ka mid ah shooladaha iyo si liito ugu dhisan dhismooyinka way waxyeeloobayaan.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;FURSAD HOOSE&lt;/b&gt; (5%) ee ka jirto baaxada 7+ dhulgariirka Qaladka Seattle ee 50 sanno ee xiggo&amp;#44; laakin haddii ay sameyso waxyeelo ayay noqoneysaa. &lt;b&gt;Gariir aad u xoogan ayaa adkeyneyso in la taagnaado. Alaabta guriga way dhaqaaqeysaa iyo sheeyo ayaa dhacayo&lt;/b&gt;. Waxyeelada waxay muhiim u noqoneysaa dhismooyinka sida liidato loo dhisay iyo dhexdhaxaadka dhismooyinka caadiga ah. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(qariirada) &lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;FURSAD HOOSE&lt;/b&gt; (5%) ee ka jirto baaxada 7+ dhulgariirka Qaladka Seattle ee 50 sanno ee xiggo&amp;#44; laakin haddii ay sameyso waxyeelo ayay noqoneysaa. &lt;b&gt;Gariir daran ayaa ku adkeynayo in la taagnaado ama la kaxeeyo. Alaabaha guriga culus waa la afgambinayaa. Qeybaha dhismooyinka &lt;a href="http://www.seattle.gov/dpd/codesrules/changestocode/unreinforcedmasonrybuildings/whatwhy/" target=_blank&gt;URM&lt;/a&gt; wuu burburayaa iyo guryaha naqshada alwaaxa waxay isku badelayaan aasaasyada&lt;/b&gt;. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;FURSAD HOOSE&lt;/b&gt; (5%) ee ka jirto baaxada 7+ dhulgariirka Qaladka Seattle ee 50 sanno ee xiggo&amp;#44; laakin haddii ay sameyso waxyeelo ayay noqoneysaa. &lt;b&gt;Gariirka xiigan wuxuu ku sababayaa faafida naxdinta iyo dilaacyada dhulka way aasaasmeysaa. Dhulka buuraha waxaa lagu kicinayaa dalcadaha dagaandaga iyo godka waxay ka dhaceysaa ciidaha qoyan.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Waxaa jiro &lt;b&gt;FURSAD DHEXDHAXAAD&lt;/b&gt; (10-30%) ee baaxada 8+ dhulgariirka Cascadia oo dhufanayo Wuqooyiga galbeed ee 50 sanno ee xiggo. &lt;b&gt;Marka ay dhacdo&amp;#44; waxaad dareemeysaa gariir dhexdhaxaad ah ee ku adkeysto daqiiqado halkaan. Sheeyada aan badbaadada aheyn way ka dhacayaan iska faalooyinka. Albaabada armaajada way lulmayaan oo furmayaan oo xirmayaan&lt;/b&gt;. Awooda iyo biyaha way dan sanaan karaan maalmo illaa isbuucyo. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Waxaa jiro &lt;b&gt;FURSAD DHEXDHAXAAD&lt;b&gt; (10-30%) ee baaxada 8+ dhulgariirka Cascadia oo dhufanayo Wuqooyiga galbeed ee 50 sanno ee xiggo. &lt;b&gt;Marka ay dhacdo&amp;#44; waxaad dareemeysaa gariir xoogan ah halhaan ee ku adkeysto daqiiqado. Way adkaaneysaa in la socdo. Dhismooyinka Bulkeetiga oo Culu way waxyeeloobayaan iyo dadka way dhaawacmayaan &lt;/b&gt;. Awooda iyo biyaha way damayaan maalmo illaa isbuucyo. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Waxaa jiro &lt;b&gt;FURSAD DHEXDHAXAAD&lt;/b&gt; (10-30%) ee baaxada 8+ dhulgariirka Cascadia oo dhufanayo Wuqooyiga galbeed ee 50 sanno ee xiggo. &lt;b&gt;Marka ay dhacdo&amp;#44; waxaad dareemeysaa gariir aad u xoogan ee ku adkeysto daqiiqado halkaan. Taagnaashada way adkaaneysaa iyo wax badan ayaa dhaawacmayo. Bulkeetiyada iyo galaasyada burbursan waxay aftiiminayaan wadooyinka&lt;/b&gt;. Awooda iyo biyaha way damayaan maalmo illaa isbuucyo. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Waxaad joogtaa &lt;b&gt;aaga tusanaamiga halista SEREYSO&lt;/b&gt;. Heerarka biyaha waxay ka sara kacayaan madaxaaga daqiiqado illaa tobannaadyo daqiiqado ee xigo dhulgariirka. Markii gariirka joogsado KA GUUR ISLA MARKIIBA dhul sareeyo. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(qariirada)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Waxaad joogtaa &lt;b&gt;aaga tusanaamiga halista SEREYSO&lt;/b&gt;. Heerarka biyaha waxay ku gaarayaan inta u dhaxeyso jilbahaaga iyo madaxaaga daqiiqa illaa tobanaadyo daqiiqad ee xiggaa dhul gariirka. Markii gariirka joogsado KA GUUR ISLA MARKIIBA dhul sareeyo. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(qariirada)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Waxaad joogtaa &lt;b&gt;aaga tusanaamiga halista SEREYSO&lt;/b&gt;. Heerarka biyaha waxay gaarayaan illaa ilbahaaga ee degdega hadeer ee ku filan inuu kugu dhufto. Waxaad haysataa daqiiqado illaa toban daqiiqado ee looga GUURAYO dhulal sareeyo. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(qariirada)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Waxaad banaanka ka jirtaa aaga tusunaamiga halista ah ee la calaameeyay&lt;/b&gt;&amp;#44; laakin hirarka tusanaamiga way isbedeli kartaa. Miyaad ku nooqshahay ama ka shaqeysaa aaga buur hoose (ee gudaha 30fiit ee heerka biyaha) u dhow badda? Haddii ay sidaas tahay&amp;#44; KA GUUR ISLA MARKIIBA dhul sareeyo kadib dhul weyn. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(qariirada)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Waxaad ku jirtaa gudaha rubac mayl ee badda&lt;/b&gt;. Haddii joogtid meel buur hoose (within 30fiit ee heerka badda) waxaad halis ugu jiri kartaa tusanaami ee xigga dhul gariirka u dhow. Raadi dhul sareeyo isla markiiba. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(qariirada)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Haddii aad doon saarantahay inta lagu jiro dhul gariirka waxaad la kulmi kartaa hirarka dhaqaaqa tusunaamiga oo xoogan oo kugu soo socdo. T illaa iyada. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(qariirada)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Imaan karo: SAREEYO&lt;/b&gt;&lt;br&gt;Ciida rokmeyso waxay noqoneysaa mid aan aad u xasilooneyn oo waxay u dhaqmeysaa sida ciid degdega ah. Biyaha ciida ka buuxo kor ayaa soo aadi kartaa oo dhinaca dilaacyada wadooyinka. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Imaan karo: DHEXDHAXAAD - SAREEYO&lt;/b&gt;&lt;br&gt;Ciida gariirmeyso waxay noqoneysaa mid aan xasilooneyn. Tani waxay yareyneysaa kartida ciida looga baxayo ee guryahaa haysto&amp;#44; baabuurta&amp;#44; iyo qaabdhismeedyada kale. Biyaha ciida ka buuxo kor ayaa soo aadi kartaa oo dhinaca dilaacyada wadooyinka. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Imaan karo: HOOSEEYO - DHEXDHAXAAD&lt;/b&gt;&lt;br&gt;Jiritaano qaarkood oo imaan karo ee godka halkaan. Gariirinta waxay ku sababi kartaa ciida inay xasiloon wayso. Wadooyinka way dilaaci karaan oo waxyeeloobi karaan.&lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Imaan karo: HOOSEEYO&lt;/b&gt;&lt;br&gt;Illaa gariirka uu xooganyahay uusan u nasiib laheyn waxaad ku arkeysaa godka halkaan. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Imaan karo: AAD U HOOSEEYO - HOOSEEYO&lt;/b&gt;&lt;br&gt;Illaa gariirka aad u xooganyahay&amp;#44; waa nasiib daro inaad ku arkeysid god halkaan. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Imaan karo: AAD U HOOSEEYO&lt;/b&gt;&lt;br&gt;Illaa gariirka aad u xooganyahay&amp;#44; waa nasiib daro inaad ku arkeysid god halkaan. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Imaan karo: MA JIRAAN&lt;/b&gt;&lt;br&gt;Aagaan waa dhagax adag&amp;#44; dhagax adaga ee hoos yaalo ciida iyo biyaha. Ma biyo noqoneyso. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Imaan karo: MA JIRAAN&lt;/b&gt;&lt;br&gt;Aagaan waa caro madow&amp;#44; arinta dabiiciga ah ee ka kooban waxyaabaha ciida madow. Way isku laabmi kartaa laakin ma biyo noqoneyso. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Imaan karo: MA JIRAAN&lt;/b&gt;&lt;br&gt;Aagaan waxaa laga sameeyay baraf iyo ma biyo noqoneyso. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MUGGA AAD U HOOSEEYO: 0 illaa 10 dhismooyinka bulkeetiga (URM) dhismayaasha wareega maylkiiba.&lt;/b&gt;&lt;br&gt;Dhismaha noocaan ah&amp;#44; dhul gariir xoogan ayaa ku sababayo darbiyada bulkeetiga ama saqafyada inay dhacaan. Haraaga wuxuu wasaqeynayaa wadooyinka. Fiiri halka URM uu &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;kuu dhowyahay&lt;/a&gt; iyo haddii horay loogu daray. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MUGGA HOOSEEYO: 10 illaa 25 dhismooyinka bulkeetiga (URM) dhismayaasha wareega maylkiiba.&lt;/b&gt;&lt;br&gt;Dhismaha noocaan ah&amp;#44; dhul gariir xoogan ayaa ku sababayo darbiyada bulkeetiga ama saqafyada inay dhacaan. Haraaga wuxuu wasaqeynayaa wadooyinka. Fiiri halka URM uu &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;kuu dhowyahay&lt;/a&gt; iyo haddii horay loogu daray. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MUGGA DHEXDHAXAADKA: 25 illaa 50 dhismooyinka bulkeetiga (URM) dhismayaasha wareega maylkiiba.&lt;/b&gt;&lt;br&gt;Dhismaha noocaan ah&amp;#44; dhul gariir xoogan ayaa ku sababayo darbiyada bulkeetiga ama saqafyada inay dhacaan. Haraaga wuxuu wasaqeynayaa wadooyinka. Fiiri halka URM uu &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;kuu dhowyahay&lt;/a&gt; iyo haddii horay loogu daray. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MUGGA SAREEYO: 50 illaa 100 dhismooyinka bulkeetiga (URM) dhismayaasha wareega maylkiiba.&lt;/b&gt;&lt;br&gt;Haddii aad joogtid URM inta lagu jiro Istuurka dhulgariirka&amp;#44; Isdabool&amp;#44; iyo Qabso. Dhismooyinkaan&amp;#44; dhul gariir xoogan ayaa ku sababayo darbiyada bulkeetiga iyo saqafyada inay dhacaan. Haraaga wuxuu wasaqeynayaa wadooyinka. Fiiri halka URM uu &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;kuu dhowyahay&lt;/a&gt; iyo haddii horay loogu daray. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MUGGA AAD U SAREEYO: 100 illaa 250 dhismooyinka bulkeetiga (URM) dhismayaasha wareega maylkiiba.&lt;/b&gt;&lt;br&gt;Haddii aad joogtid URM inta lagu jiro Istuurka dhulgariirka&amp;#44; Isdabool&amp;#44; iyo Qabso. Dhismooyinkaan&amp;#44; dhul gariir xoogan ayaa ku sababayo darbiyada bulkeetiga iyo saqafyada inay dhacaan. Haraaga wuxuu wasaqeynayaa wadooyinka. Fiiri halka URM uu &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;kuu dhowyahay&lt;/a&gt; iyo haddii horay loogu daray. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Saynisyahanka ma qiyaasi karo goorta dhulgariir dhacayo marka ka taxadar iyo haddii aad dareentid gariir&amp;#44; istuur dabool&amp;#44; oo qabso. Nidaamka digniinta hore hadeer waxaa loo hormariyay Xeebta Galbeedka. Waxaad ka heli kartaa waxbadan &lt;a href=http://earthquake.usgs.gov/research/earlywarning/ target="_blank"&gt;halkaan&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;DHAQANKA&lt;/b&gt; - Ka taxadar oo ku dhaqan "Is tuur&amp;#44; Isdabool&amp;#44; oo Qabso"&lt;/li&gt;&lt;li&gt;&lt;b&gt;QORSHEY&lt;/b&gt; - Samey qorshaha qoyska (&lt;a href=http://www.fema.gov/media-library-data/0e3ef555f66e22ab832e284f826c2e9e/FEMA_plan_parent_508_071513.pdf target="_blank"&gt;wixii qof weyn ah&lt;/a&gt; &amp;amp; &lt;a href=http://www.fema.gov/media-library-data/a260e5fb242216dc62ae380946806677/FEMA_plan_child_508_071513.pdf target="_blank"&gt;wixii carruur ah&lt;/a&gt;) oo dhis &lt;a href=http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf target="_blank"&gt;sanduuqa saadka&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;b&gt;U DIYAARGAROW&lt;/b&gt; - hubi sheeyada dhici karo oo ogow goobta korontada ka dantay.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;GUDAHA - HALKAAN JOOG!&lt;/b&gt; Isku dabool hoosta miiska ama miiska ka baxsan sheeyada kugu soo dhici karo oo qabso. HA KU ordin banaanka ka hor inta uusan gariirka joogsan.&lt;/li&gt;&lt;li&gt;&lt;b&gt;BANAANKA - GAL MEEL BANAAN&lt;/b&gt; ee ka baxsan dhismooyinka&amp;#44; fiilooyinka korontada&amp;#44; munaaradaha&amp;#44; ama waxyaabaha kugu soo dhici karo adiga.&lt;/li&gt;&lt;li&gt;&lt;b&gt;GAARI KAXEYNTA - SI TAXADAR AH U JOOGSO&lt;/b&gt; (ma ahan buundo hoosteeda&amp;#44; buundooyinka la hoos maro&amp;#44; fiilooyinka korontada&amp;#44; iwm.) iyo JOOG GUDAHA GAARIGA.&lt;/li&gt;&lt;li&gt;&lt;b&gt;U DHOW XEEBTA&lt;/b&gt; - Raac tilmaamaha kore illaa gariirka ka joogsado. Kadib &lt;b&gt;MADAXA OO DHUL SAREEYO&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/EQ_during.jpg" alt="This is a panel of four cartoon images showing what to do during an earthquake if inside&amp;#44; outside&amp;#44; driving&amp;#44; or near the ocean." title="During Earthquake Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;U DIYAAR GAROW NADXINTA KADIB&lt;/b&gt; (dhulgariirka ee xigga naxdinta ugu weyn waa caadi ee ku sababi kartaa waxyeelo ka badan gariirka hore).&lt;ul&gt;&lt;li&gt;Qadadka taleefonka way buux dhaafayaan; &lt;b&gt;fariin qoraalka waxay noqon kartaa wado wanaagsan ee lagula xiriiro qoyska.&lt;/b&gt;&lt;/li&gt;&lt;li&gt;Ka hubi nafsadaada iyo dadka kale dhaawacyo.&lt;/li&gt;&lt;li&gt;Markii aad badbaado tahay&amp;#44; &lt;b&gt;fiir wargelinada aqbaaraha&lt;/b&gt; oo dhinaca raadiyaha batariga ku shaqeeyo&amp;#44; telefishanada&amp;#44; warbaahinta bulshada&amp;#44; iyo digniinada qoraalka mobeelka oo warbixinta gurmadka.&lt;/li&gt;&lt;li&gt;Shaqaalaha gurmadka way mashquulayaan. &lt;b&gt;Waxay ku xirantahay saaxibadaada iyo dariska&lt;/b&gt; oo taageerada inta lagu jiro saacadaha iyo maalmaha xigo dhulgariirka.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Xakameynta korontada haddii ay muhiim tahay&lt;/b&gt;. Wax badan ka ogow goorta iyo sida &lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target="_blank"&gt;loo xakameeyo gaaska iyo biyaha dhulgariirka kadib&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt;Daawo &lt;a href=https://www.fema.gov/media-library/assets/videos/98767 target="_blank"&gt;fiidiyahaan&lt;/a&gt; si aad wax badan uga ogaatid waxa la sameynayo &lt;b&gt;INTA LAGU JIRO&lt;/b&gt; iyo &lt;b&gt;KADIB&lt;/b&gt; dhulgariirka.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Morgan Junction Park Hub &lt;br&gt;Goobta Xarunta: At Morgan Junction Park&amp;#44; &lt;br&gt;6413 California Ave SW&amp;#44; Seattle&amp;#44; WA 98118 &lt;br&gt;Xarunta Hub: Cindi Barker&lt;br&gt;I-meelka: &lt;a href="mailto:cindiLbarker@gmail.com" target="_top"&gt;cindiLbarker@gmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206-933-6968&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/west-seattle/" target=_blank&gt;http://seattleemergencyhubs.org/west-seattle&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;North Highland Park Hub &lt;br&gt;Goobta Xarunta: The Highland Park Improvement Club &lt;br&gt;1116 SW Holden St&lt;br&gt;Xarunta Hub:Volunteer Needed &lt;br&gt;I-meelka: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD &lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;South Park Neighborhood Center &lt;br&gt;Goobta Xarunta: 8201 10th Ave S&lt;br&gt;Xarunta Hub: Dagmar Cronn&lt;br&gt;I-meelka: &lt;a href="mailto:cronn@oakland.edu" target="_top"&gt;cronn@oakland.edu&lt;/a&gt;&lt;br&gt;Taleefonka: 206-327-1828&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt; &lt;br&gt;description: Meet by the blue box in the park&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Pigeon Point Hub &lt;br&gt;Goobta Xarunta: The intersection of 20th Ave SW &amp; SW Genesee St&amp;#44; Seattle&amp;#44; WA 98106 &lt;br&gt;NW corner of the Park&amp;#44; just north of the school.&lt;br&gt;Xarunta Hub: Wade Harper&lt;br&gt;I-meelka: &lt;a href="mailto:wade.harper@outlook.com" target="_top"&gt;wade.harper@outlook.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206-455-5407&lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Hiawatha Playfield/Community Center (Admiral Hub) &lt;br&gt;Goobta Xarunta: At California Ave SW &amp; SW Lander St&amp;#44; Seattle&amp;#44; WA 98116&lt;br&gt;Xarunta Hub: Paul Stancik&lt;br&gt;I-meelka: &lt;a href="mailto:pstancik@mindspring.com" target="_top"&gt;pstancik@mindspring.com&lt;/a&gt;&lt;br&gt;Taleefonka:TBD &lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Fauntleroy Church Hub &lt;br&gt;Goobta Xarunta: Fauntleroy Church&amp;#44; 9140 California Ave SW&lt;br&gt;Xarunta Hub: Gordon Wiehler&lt;br&gt;I-meelka:: &lt;a href="mailto:gmwinv@Comcast.net" target="_top"&gt;gmwinv@Comcast.net&lt;/a&gt;&lt;br&gt;Taleefonka:: 206-577-4292&lt;br&gt;Websaydka:&lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org/&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Providence/Mount St. Vincent&amp;#44; parking lot (Fairmount Hub) &lt;br&gt;Goobta Xarunta: At SW Hudson St &amp; 35th Ave SW&amp;#44; Seattle&amp;#44; WA 98126 &lt;br&gt; (meet at the SE parking lot under the flag pole )&lt;br&gt;Xarunta Hub: Sharonn Meeks&lt;br&gt;I-meelka: &lt;a href="mailto:smeeks50@comcast.net" target="_top"&gt;smeeks50@comcast.net&lt;/a&gt;&lt;br&gt;Taleefonka: 206-938-1007&lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Neighborhood House (High Point Hub) &lt;br&gt;Goobta Xarunta: At 6400 Sylvan Way SW (note that east of 35th Ave SW&amp;#44; SW Morgan Street becomes Sylvan Way SW). Neighborhood House is next to Lanham Place SW. Meet at the amphitheater. &lt;br&gt;Xarunta Hub: Heather Hutchison&lt;br&gt;I-meelka: &lt;a href="mailto:heather.hutchison@manage" target="_top"&gt;heather.hutchison@manage&lt;/a&gt;&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Ercolini Park Hub &lt;br&gt;Goobta Xarunta: At 48th Ave SW &amp; SW Alaska St.&amp;#44; in the park&lt;br&gt;Xarunta Hub: Jon Wright&lt;br&gt;I-meelka:&lt;a href="mailto:ercolini@westseattlebeprepared.org" target="_top"&gt;ercolini@westseattlebeprepared.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD &lt;br&gt;Websaydka: &lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;EC Hughes Playground (Olympic Heights Hub) &lt;br&gt;Goobta Xarunta: At 29th Ave SW &amp; SW Holden St&amp;#44; Seattle&amp;#44; WA 98126&amp;#44; at the NE corner of Hughes Playground.&lt;br&gt;Xarunta Hub: Volunteer needed&lt;br&gt;I-meelka: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD &lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Salvation Army&amp;#44; parking lot (South Highland Park Hub) &lt;br&gt;Goobta Xarunta: At 9050 16th Ave SW (near SW Barton St.)&amp;#44; the Salvation Army parking lot is the gathering place for this hub.&lt;br&gt;Xarunta Hub: Volunteer Needed &lt;br&gt;I-meelka: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD &lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;North Delridge P-Patch Hub &lt;br&gt;Goobta Xarunta: At the P-Patch&amp;#44; located at 5078 25th Ave SW&amp;#44; Seattle&amp;#44; WA&lt;br&gt;Xarunta Hub: Jay McNally&lt;br&gt;I-meelka: &lt;a href="mailto:Newcarissa@gmail.com" target="_top"&gt;Newcarissa@gmail.com &lt;/a&gt;&lt;br&gt;Taleefonka: 206-484-6613&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Hope Lutheran Church (Alaska Junction Hub) &lt;br&gt;Goobta Xarunta: 4456 42nd Ave SW&amp;#44; Seattle&amp;#44; WA 98116&lt;br&gt;Xarunta Hub: Volunteer Needed&lt;br&gt;I-meelka: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD &lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Alki Community Center (Alki Hub) &lt;br&gt;Goobta Xarunta: At 59th Ave SW &amp; SW Stevens St&amp;#44; Seattle&amp;#44; WA 98116. This is adjacent to Whale Tail Park&amp;#44; near the west edge of the playfield. North side of Alki Playfield&lt;br&gt;Xarunta Hub: Tony Fragada (98126)&lt;br&gt;I-meelka: &lt;a href="mailto:tfragada@yahoo.com" target="_top"&gt;tfragada@yahoo.com&lt;/a&gt; &lt;br&gt;Taleefonka: TBD &lt;br&gt;Websaydka: &lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Maa Nyei Lai Ndeic P-Patch Hub &lt;br&gt;Goobta Xarunta: 4913 Columbia Dr S&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Xarunta Hub: Debbie Goetz&lt;br&gt;I-meelka: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Taleefonka: 206-684-0517&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Hillman City P-Patch Hub &lt;br&gt;Goobta Xarunta: 4613 S Lucile St&amp;#44; Seattle&amp;#44; WA 98118 (Corner of South Lucile &amp; 46th Ave South)&lt;br&gt;Xarunta Hub: Joanne Tilton&lt;br&gt;I-meelka: &lt;a href="mailto:Jtilton22@comcast.net" target="_top"&gt;Jtilton22@comcast.net&lt;/a&gt;&lt;br&gt;Taleefonka: 206-650-2071&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Judkins P-Patch Hub &lt;br&gt;Goobta Xarunta: 24th Avenue S &amp; S Norman Street Seattle&amp;#44; WA 98112 (Meeting Location: P-Patch entrance off Norman &amp; 24th Ave S.)&lt;br&gt;Xarunta Hub: Jen Ellis&lt;br&gt;I-meelka:   &lt;a href="mailto:JenniferEllis.206@gmail.com" target="_top"&gt;JenniferEllis.206@gmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206-276-4982&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Fisher Pavilion Hub &lt;br&gt;Goobta Xarunta: 2nd Ave N &amp; Thomas St&lt;br&gt;Xarunta Hub: MIQA Be Prepared&lt;br&gt;I-meelka:  &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka:  &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Interbay Fishermen's Terminal Hub &lt;br&gt;Goobta Xarunta: Interbay Fishermen's Terminal&lt;br&gt;Xarunta Hub: MIQA Be Prepared&lt;br&gt;I-meelka: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD &lt;br&gt;Websaydka: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Eastlake Hub &lt;br&gt;Goobta Xarunta: Rogers Playfield&lt;br&gt;Xarunta Hub: Amy O'Donnell&lt;br&gt;I-meelka:  &lt;a href="mailto:eastlake.hub@gmail.com" target="_top"&gt;eastlake.hub@gmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: TBD &lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Madison Park Hub &lt;br&gt;Goobta Xarunta: 42nd Ave E and E Howe St (at the north side of tennis courts)&lt;br&gt;Xarunta Hub: John Madrid&lt;br&gt;I-meelka:  &lt;a href="mailto:johnmadrid@hotmail.com" target="_top"&gt;johnmadrid@hotmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206-498-1880&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Sunrise P-Patch Hub &lt;br&gt;Goobta Xarunta: 33rd Ave S &amp; S Oregon St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Xarunta Hub: Aaron Deitz&lt;br&gt;I-meelka: &lt;a href="mailto:aarondietz@gmail.com" target="_top"&gt;aarondietz@gmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206-694-3966&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Snoqualmie P-Patch Hub &lt;br&gt;Goobta Xarunta: 4549 13th Ave S&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Xarunta Hub: Debbie Goetz&lt;br&gt;I-meelka: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Taleefonka: 206-684-0517&lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;New Holly Youth &amp; Family P-Patch Hub &lt;br&gt;Goobta Xarunta: 32nd Ave S &amp; S Brighton St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Xarunta Hub: Debbie Goetz&lt;br&gt;I-meelka: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Taleefonka: 206-684-0517&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;New Holly Power P-Patch Hub &lt;br&gt;Goobta Xarunta: 7123 S Holly Park Dr&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Xarunta Hub: Debbie Goetz&lt;br&gt;I-meelka: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Taleefonka: 206-684-0517&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;New Holly Lucky Garden Hub &lt;br&gt;Goobta Xarunta: S Holly St &amp; Shaffer Ave S&lt;br&gt;Xarunta Hub: Contact Debbie Goetz&lt;br&gt;I-meelka: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Taleefonka: 206-684-0517&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;New Holly 29 P-Patch Hub &lt;br&gt;Goobta Xarunta: 29th Ave S &amp; S Brighton St&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Xarunta Hub: Contact Debbie Goetz&lt;br&gt;I-meelka: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Taleefonka: 206-684-0517&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;John C. Little P-Patch Hub &lt;br&gt;Goobta Xarunta: 6961 37th Ave S&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Xarunta Hub: Contact Debbie Goetz&lt;br&gt;I-meelka: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Taleefonka: 206-684-0517&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Dakota P-Patch Hub &lt;br&gt;Goobta Xarunta: 2902 S Dakota St&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Xarunta Hub: Contact Debbie Goetz&lt;br&gt;I-meelka: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Taleefonka: 206-684-0517&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Beacon Food Forest Hub &lt;br&gt; Goobta Xarunta:: 15th Ave S &amp; S Dakota St&lt;br&gt;Xarunta Hub: Contact Debbie Goetz&lt;br&gt;I-meelka: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Taleefonka: 206-684-0517&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Ethiopian Community in Seattle &lt;br&gt;Goobta Xarunta: 8323 Rainier Ave S (meet at main building)&lt;br&gt;Xarunta Hub: Kassa Kachara&lt;br&gt;I-meelka:  &lt;a href="mailto:kabiso_kass@yahoo.com" target="_top"&gt;kabiso_kass@yahoo.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206-325-0304&lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Angel Morgan P-Patch (Angel Morgan Hub) &lt;br&gt;Goobta Xarunta: 3956 S Morgan St&amp;#44; Seattle&amp;#44; WA 98118 (The P Patch is located at 42nd Ave S &amp; S Morgan Street)&lt;br&gt;Xarunta Hub: Contact Debbie Goetz&lt;br&gt;I-meelka: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Taleefonka: 206-684-0517&lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Thistle P-Patch Hub &lt;br&gt;Goobta Xarunta: Martin Luther King Jr Way S &amp; S Cloverdale St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Xarunta Hub: Contact Debbie Goetz&lt;br&gt;I-meelka: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Taleefonka: 206-684-0517&lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;New Holly Rockery &amp; Market Hub &lt;br&gt;Goobta Xarunta: S Holly Park Dr &amp; Rockery Dr S&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Xarunta Hub: Contact Debbie Goetz&lt;br&gt;I-meelka: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Taleefonka: 206-684-0517&lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Lakewood Seward Park Hub &lt;br&gt;Goobta Xarunta: Lakewood Seward Park Community Club - 4916 S. Angeline Street&lt;br&gt;Xarunta Hub: Aaron Evanson&lt;br&gt;I-meelka:  &lt;a href="mailto:aaronevanson@gmail.com" target="_top"&gt;aaronevanson@gmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206.660.3822&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Rainier Beach Community Club Hub &lt;br&gt;Goobta Xarunta: Rainier Beach Community Club - VFW Hall &amp;#44; 6038 S. Pilgrim&amp;#44; Seattle  WA  98118&lt;br&gt;Xarunta Hub: Ron Angeles&lt;br&gt;I-meelka:  &lt;a href="mailto:ranestoba@comcast.net" target="_top"&gt;ranestoba@comcast.net&lt;/a&gt;&lt;br&gt;Taleefonka: 206-721-5326 and 206-351-0813&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Queen Anne Bowl &lt;br&gt;Goobta Xarunta: 2806 3rd Ave W&lt;br&gt;Xarunta Hub: Chris Saether&lt;br&gt;I-meelka: &lt;a href="mailto:csaether@msn.com" target="_top"&gt;csaether@msn.com&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Interbay Athletic Complex &lt;br&gt;Goobta Xarunta: 3027 17th Ave W&lt;br&gt;Xarunta Hub: MIQA Be Prepared&lt;br&gt;I-meelka: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Magnolia Manor Park &lt;br&gt; Goobta Xarunta: 3500 28th Ave W&lt;br&gt;Xarunta Hub: MIQA Be Prepared&lt;br&gt;I-meelka: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Magnolia Metropolitan Market&lt;br&gt;Goobta Xarunta: 3830 34th Ave W&lt;br&gt;Xarunta Hub: MIQA Be Prepared&lt;br&gt;I-meelka: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;West Queen Anne Playfield Hub &lt;br&gt;Goobta Xarunta: 150 W Blaine St&lt;br&gt;Xarunta Hub: Volunteer Needed&lt;br&gt;I-meelka: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD &lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;West Magnolia Playfield Hub &lt;br&gt;Goobta Xarunta: 32nd Ave W &amp; W Smith St&amp;#44; South Playfield&amp;#44; Southwest corner&lt;br&gt;Xarunta Hub: Frank Gaul&lt;br&gt;I-meelka:  &lt;a href="mailto:ftgaul@gmail.com" target="_top"&gt;ftgaul@gmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206-499-8690&lt;br&gt;Websaydka: &lt;a href="http://www.miqabeprepared.org/" target=_blank&gt;http://www.miqabeprepared.org/&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Ballard Commons Hub &lt;br&gt;Goobta Xarunta: NW 57th &amp; 22nd Ave NW&lt;br&gt;Xarunta Hub: Colin Getty&lt;br&gt;I-meelka:  &lt;a href="mailto:k7biowa@gmail.com" target="_top"&gt;k7biowa@gmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Lower Woodland Playfields Hub &lt;br&gt;Goobta Xarunta: Green Lake Way N &amp; N 50th St&lt;br&gt;Xarunta Hub: Volunteer Needed&lt;br&gt;I-meelka: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Ravenna Hub &lt;br&gt; Goobta Xarunta: 6535 Ravenna Ave NE (Ravenna-Eckstein Community Center parking lot)&lt;br&gt;Xarunta Hub: David Ward&lt;br&gt;I-meelka:  &lt;a href="mailto:booksgalore22@gmail.com" target="_top"&gt;booksgalore22@gmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206-523-1161&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Victory Heights Hub &lt;br&gt;Goobta Xarunta: Victory Heights Park (1737 NE 106th St)&lt;br&gt;Xarunta Hub: Ann Forrest&lt;br&gt;I-meelka:  &lt;a href="mailto:aaforrest@hotmail.com" target="_top"&gt;aaforrest@hotmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: (360)550-2234&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Epic Life Church Hub &lt;br&gt;Goobta Xarunta: Epic Life Church - 10503 Stone Ave N&amp;#44; Seattle&amp;#44; WA 98133&lt;br&gt;Xarunta Hub: Larry Chaney&lt;br&gt;I-meelka:  &lt;a href="mailto:larry@epiclifechurch.org" target="_top"&gt;larry@epiclifechurch.org&lt;/a&gt;&lt;br&gt;Taleefonka: 425-218-8849&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Crown Hill Park Hub &lt;br&gt;Goobta Xarunta: NW 92nd &amp; 14th Ave NW&lt;br&gt;Xarunta Hub: Dennis Galvin&lt;br&gt;I-meelka:  &lt;a href="mailto:short.harp@gmail.com" target="_top"&gt;short.harp@gmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Shilshole Marina Hub &lt;br&gt;Goobta Xarunta: Shilshole Marina&amp;#44; 7001 Seaview Ave NW&lt;br&gt;Xarunta Hub: Jim Doub&lt;br&gt;I-meelka: &lt;a href="mailto:jim@portagebaymarine.com" target="_top"&gt;jim@portagebaymarine.com&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Loyal Heights Playfield Hub&lt;br&gt;Goobta Xarunta: NW 77th &amp;amp; 21st Ave NW (2101 NW 77th St&amp;#44; Loyal Heights CC basketball half court)&lt;br&gt;Xarunta Hub: Cheryl Dyer&lt;br&gt;I-meelka: &lt;a href="mailto:cheryldy@msn.com" target="_top"&gt;cheryldy@msn.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206-784-3724&lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Kirke Park Hub&lt;br&gt;Goobta Xarunta: 7028 9th Ave NW&lt;br&gt;Xarunta Hub: Hugh Kelso&lt;br&gt;I-meelka: &lt;a href="mailto:HKelso@mac.com" target="_top"&gt;HKelso@mac.com&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Gilman Park Hub &lt;br&gt;Goobta Xarunta: NW 54th &amp;amp; 9th Ave NW&lt;br&gt;Xarunta Hub: Linda Frank&lt;br&gt;I-meelka: &lt;a href="mailto:lindabfrank@gmail.com" target="_top"&gt;lindabfrank@gmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Ross Playground Hub &lt;br&gt;Goobta Xarunta: 4320 4th Ave NW&lt;br&gt;Xarunta Hub: Leslie Matthis&lt;br&gt;I-meelka: &lt;a href="mailto:leslie.matthis@gmail.comv" target="_top"&gt;leslie.matthis@gmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206.783.1500&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Phinney Neighborhood Center Hub &lt;br&gt;Goobta Xarunta: Phinney Neighborhood Center: 6532 Phinney Avenue North&amp;#44; Seattle&amp;#44; WA  98103 (Meeting Place: Phinney Center upper parking area)&lt;br&gt;Xarunta Hub: David Baum&lt;br&gt;I-meelka: &lt;a href="mailto:phinneyhub@gmail.com" target="_top"&gt;phinneyhub@gmail.com &lt;/a&gt;&lt;br&gt;Taleefonka: 206-913-1021&lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Meridian Playfield/Good Shepherd Center Hub &lt;br&gt;Goobta Xarunta: 4649 Sunnyside Ave. N&lt;br&gt;Xarunta Hub: Brian Shapiro&lt;br&gt;I-meelka: &lt;a href="mailto:bshapiro@objectarts.net" target="_top"&gt;bshapiro@objectarts.net&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;History House of Greater Seattle Hub &lt;br&gt;Goobta Xarunta: 790 N 34th St&lt;br&gt;Xarunta Hub: Volunteer Needed&lt;br&gt;I-meelka: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Greenwood Senior Center Hub &lt;br&gt;Goobta Xarunta: Greenwood Senior Center: 525 N 85th  Street&amp;#44; Seattle&amp;#44; WA  98103&lt;br&gt;Xarunta Hub: Kelly Kasper&lt;br&gt;I-meelka: &lt;a href="mailto:kelly@ht2consulting.com" target="_top"&gt;kelly@ht2consulting.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206-397-4283&lt;br&gt;Co-Captain: Noel Frame&lt;br&gt;Co-Captain I-meelka: &lt;a href="mailto:noel@noelframe.com" target="_top"&gt;noel@noelframe.com&lt;/a&gt; &lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Green Lake Playfield &amp; Community Center Hub &lt;br&gt;Goobta Xarunta: 7201 Green Lake Dr N&lt;br&gt;Xarunta Hub: Volunteer Needed&lt;br&gt;I-meelka: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Bagley Elementary Hub &lt;br&gt;Goobta Xarunta: 7821 Stone Ave N&lt;br&gt;Xarunta Hub: Volunteer Needed&lt;br&gt;I-meelka: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Taleefonka: TBD&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Maple Leaf Park Hub &lt;br&gt;Goobta Xarunta: 1020 NE 82nd St&lt;br&gt;Xarunta Hub: Lori Phipps&lt;br&gt;I-meelka: &lt;a href="mailto:lphipps01@gmail.com" target="_top"&gt;lphipps01@gmail.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206-947-0309&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Hunter Farm Hub &lt;br&gt;Goobta Xarunta: 7730 35th Ave NE&lt;br&gt;Xarunta Hub: Volunteer Needed&lt;br&gt;I-meelka: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Websaydka:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;University Heights Center &lt;br&gt;Goobta Xarunta: NE 50th Street and University Way NE&lt;br&gt;Xarunta Hub: Ray Munger&lt;br&gt;I-meelka: &lt;a href="mailto:ray@uheightscenter.org" target="_top"&gt;ray@uheightscenter.org&lt;/a&gt;&lt;br&gt;Taleefonka: 206-527-4278&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Lake City Way SR 522/Fred Meyer Hub &lt;br&gt;Goobta Xarunta: 13000 Lake City Way NE (SE corner of lower parking lot)&lt;br&gt;Xarunta Hub: Sandy Motzer (98125)&lt;br&gt;I-meelka: &lt;a href="mailto:sandymotzer@aol.com" target="_top"&gt;sandymotzer@aol.com&lt;/a&gt;&lt;br&gt;Taleefonka: 206-819-8056&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Luther Memorial Lutheran Church Hub &lt;br&gt;Goobta Xarunta: 13047 Greenwood Ave N&lt;br&gt;Xarunta Hub: Dale Johnson&lt;br&gt;I-meelka: &lt;a href="mailto:dalerayjohnson@comcast.net" target="_top"&gt;dalerayjohnson@comcast.net&lt;/a&gt;&lt;br&gt;Taleefonka: 206-362-2980&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Xarumaha Gurmadka Bulshada waa meelaha dariska ay isugu imaan karaan masiibada kadib si ay usu caawiyaan. &lt;p&gt;XARUNTA ADIGA KUU DHOW WAA&amp;#44;&lt;center&gt;&lt;b&gt;Grace Lutheran Church Hub &lt;br&gt; Goobta Xarunta: 11051 Phinney Ave N (Greenwood Avenue N &amp; N 112th Street)&lt;br&gt;Xarunta Hub: Dale Johnson&lt;br&gt;I-meelka: &lt;a href="mailto:dalerayjohnson@comcast.net" target="_top"&gt;dalerayjohnson@comcast.net&lt;/a&gt;&lt;br&gt;Taleefonka: 206-362-2980&lt;br&gt;Websaydka: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Tan iyo 1870&amp;#44; 15 dhulgariir weyn (oo ka weyn baaxada 5) ayaa ku dhuftay Gobolka Washington. Sheekooyinka asalka sidoo kale way sheegtaa dhulgariir weyn (oo ka weyn baaxada 8) iyo tusanaamiga ee xigay 1700. &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/historical_EQs2.jpg" alt="This is an Image showing the sizes of historical earthquakes in Washington. It shows a magnitude(M) 6.5 in 1949 which is 316 times smaller than M9&amp;#44; M6.9 in 2001 which is 160 times smaller than M9&amp;#44; M7.1 in 1965 which is 79 times smaller than M9&amp;#44; and M9 in 1700." title="Relative sizes of notable earthquakes in Washington State"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Waxaa jiro fursad sareyso ee fatahaada halkaan. Waxay fadhidaa xanuunka fatahaada 100-sanno&lt;/b&gt;. Tani wxaay la micna tahay waxaa jiro 25% oo fursada biyaha fatahaada ee halkaan soo gaarayo 30-ka sanno ee xigga &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(qariirada)&lt;/a&gt;. Iska diiwaangeli digniinada fatahaada oo &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;i-meel ama fariin ahaan&lt;/a&gt; ama dajiso &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;app-ka digniika fatahaada&lt;/a&gt; ee mobeelada casriga ah.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Fatahaada waa nasiib daro halkaan&lt;/b&gt;. Heerarka biyaha wax yar ayay kor ukici karaan inta lagu jiro fatahaada ama duufaanta xoogan. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Fatahaada waa nasiib daro halkaan&lt;/b&gt;. Heerarka biya daga wax yar ayay kor ukici karaan inta lagu jiro fatahaada ama duufaanta xoogan. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Fatahaada waa nasiib daro halkaan&lt;/b&gt;. Heerarka biyaha wax yar ayay kor ukici karaan inta lagu jiro fatahaada ama duufaanta xoogan.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Buundooyinka waxay noqon karaan kuwa aan badbaado aheyn marka fatahaada dhaceyso&lt;/b&gt;. Haddii aad ka shakisid in buundo waxyeelowday&amp;#44; ka walaacsanow oo ku soo wargeli Xarunta Digniinta Fatahaada adiga oo soo wacayo 206-296-8200 ama 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Tamni waxay banaanka ka tahay aagaga fatahaada halista sareyso&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(qariirada)&lt;/a&gt;. LAAKIN haddii aad ku nooshahay meel u dhow ama wabi yar ka taxadar inay fatahaad noqon karto sidoo kale. Fiiri &lt;a href=http://www.kingcounty.gov/depts/dnrp/wlr/sections-programs/river-floodplain-section.aspx target=_blank&gt;Websaydka Wabiga iyo Maamulida Fatahaada cad&lt;/a&gt; wixii warbixin dheeraad ah.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Aagaan waxay soo fatahday xiliga la soo dhaafay markii duufaan weyn uu dhuftay Seattle&lt;/b&gt;. Markale ayay dhici kartaa haddii duufaan kale oo xoogan ku sababto in biyaha u buuxsamaan oo u qalalaan si liidato. Hoos u soco oo sida la isu diyaariyo. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Roobka&amp;#44; barafka dhalaalo&amp;#44; ama labadaba waxay ku sababaan in biyaha kor waxyar u kacaan. Biyaha fatahaada waxay buux dhaafiyaan geesaska wabiga&amp;#44; ku daataan dariska&amp;#44; oo saameeyaan wadooyinka. &lt;b&gt;Aagaan waxay ku jirtaa 500-sanno fatahaada ee qariiradeysan oo way fataheysaa&lt;/b&gt;. Waxaa jiro fursada boqolkiiba 6% waxaad arkeysaa fatahaada cabirkaan ah ee 30-ka sanno ee xiggo. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;U dhow biyo dageenada&amp;#44; durdurada&amp;#44; iyo wabiyada way fatahayaan. Tani waxay ka dhigtaa wadooyinka qaarkood inaan lamari karin &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(qariirada)&lt;/a&gt;. Iska diiwaangeli digniinada fatahaada oo &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;i-meel ama fariin ahaan&lt;/a&gt; ama dajiso &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;app-ka digniika fatahaada&lt;/a&gt; ee mobeelada casriga ah.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Waa nasiib daro inaad ku arkeysid fatahaad halkaan&lt;/b&gt;. Duufaanta weyn waxay ku sababi kartaa meel u dhow biyo dageenada&amp;#44; durdurada&amp;#44; iyo wabiyada inay sare u kacaan. Dhacitaanka roob culus ayaa abuuri karo barkadaha biyaha taagan ee wadooyinka. Haddii aad la kulantid fatahaada deegaamowday ka soo wac Xarunta Digniinta Gobolka King 206-296-8200 ama 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Aagaan way unugushahay fatahaada magaalada&lt;/b&gt;. Sida weyn ee duufaanta fatahaada badan ee ku arki kartid dhinacaan. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. Waxay badelmaan inta badan inta lagu jiro iyo fahatahaada kadib. &lt;b&gt;Aagaan wuxuu leeyahay fursad sareyso ee Wabiga Cedar ee marayo dhinacaan mustaqbalka&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. Waxay badelmaan inta badan inta lagu jiro iyo fahatahaada kadib. &lt;b&gt;Aagaan wuxuu leeyahay fursad sareyso ee Wabiga Green ee marayo dhinacaan mustaqbalka&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. Waxay badelmaan inta badan inta lagu jiro iyo fahatahaada kadib. &lt;b&gt;Aagaan wuxuu leeyahay fursad sareyso ee Wabiga Raging ee marayo dhinacaan mustaqbalka. &lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. Waxay badelmaan inta badan inta lagu jiro iyo fahatahaada kadib. &lt;b&gt;Aagaan wuxuu leeyahay fursad sareyso ee Wabiga Snoqualmie ee marayo dhinacaan mustaqbalka&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. Waxay badelmaan inta badan inta lagu jiro iyo fahatahaada kadib. &lt;b&gt;Aagaan wuxuu leeyahay fursad sareyso ee Wabiga Tolt ee marayo dhinacaan mustaqbalka. &lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. Waxay badelmaan inta badan inta lagu jiro iyo fahatahaada kadib. &lt;b&gt;Aagaan wuxuu leeyahay fursad dhexaad ah ee Wabiga Cedar ee marayo dhinacaan mustaqbalka. &lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. Waxay badelmaan inta badan inta lagu jiro iyo fahatahaada kadib. &lt;b&gt;Aagaan wuxuu leeyahay fursad dhexaad ah ee Wabiga Green ee marayo dhinacaan mustaqbalka. &lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. Waxay badelmaan inta badan inta lagu jiro iyo fahatahaada kadib. &lt;b&gt;Aagaan wuxuu leeyahay fursad dhaxaad ah ee Wabiga Raging ee marayo dhinacaan mustaqbalka. &lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. Waxay badelmaan inta badan inta lagu jiro iyo fahatahaada kadib. &lt;b&gt;Aagaan wuxuu leeyahay fursad dhexaad ah ee Wabiga Snoqualmie ee marayo dhinacaan mustaqbalka&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. Waxay badelmaan inta badan inta lagu jiro iyo fahatahaada kadib. &lt;b&gt;Aagaan wuxuu leeyahay fursad dhaxaad ah ee Wabiga Tolt ee marayo dhinacaan mustaqbalka. &lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. Waxay badelmaan inta badan inta lagu jiro iyo fahatahaada kadib. &lt;b&gt;Aagaan wuxuu leeyahay fursad hooseyso ee Wabiga Green ee marayo dhinacaan mustaqbalka. &lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. Waxay badelmaan inta badan inta lagu jiro iyo fahatahaada kadib. &lt;b&gt;Aagaan wuxuu leeyahay fursad hooseyso ee Wabiga Snoqualmie ee marayo dhinacaan mustaqbalka&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. Waxay badelmaan inta badan inta lagu jiro iyo fahatahaada kadib. &lt;b&gt;Aagaan wuxuu leeyahay fursad hooseyso ee Wabiga Tolt ee marayo dhinacaan mustaqbalka. &lt;/b&gt;&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sida waxyaabaha ugu badan&amp;#44; wabiyada waxay maraan wadada diidmada iyo isbadelada waqti kadib. &lt;b&gt;Ma jirto daraasad halkaan lagu sameeyay si loo arko haddii wabiga u dhowyahay inuu dhaqaaqo waqti kadib&amp;#44; laakin ogow inay noqon karto.&lt;/b&gt;&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Tani waa gudaha kanaalka wabiga hadeer. Waqti kadib goobta kanaalka wuu isbadeli karaa. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Howlgabka Biyo xireenka waa dhif. Si kastaba&amp;#44; haddii &lt;a href=https://goo.gl/maps/X2HGtZX6Kyz target=_blank&gt;Biyo xireenka George Culmback&lt;/a&gt; ama &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Biyo xireenka Wabiga Tolt&lt;/a&gt; howlgabo aagaan way fatahi kartaa &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(qariirada)&lt;/a&gt;. Iska diiwaangeli digniinada fatahaada oo &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;i-meel ama fariin ahaan&lt;/a&gt; ama dajiso &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;app-ka digniika fatahaada&lt;/a&gt; ee mobeelada casriga ah.</t>
+  </si>
+  <si>
+    <t>Howlgabka Biyo xireenka waa dhif. Si kastaba&amp;#44; haddii &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt;Biyo xireenka Haraha Youngs&lt;/a&gt; howlgabo aagaan waxay halis ugu jirtaa fatahaad &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(qariirada)&lt;/a&gt;. Iska diiwaangeli digniinada fatahaada oo &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;i-meel ama fariin ahaan&lt;/a&gt; ama dajiso &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;app-ka digniika fatahaada&lt;/a&gt; ee mobeelada casriga ah.</t>
+  </si>
+  <si>
+    <t>Howlgabka Biyo xireenka waa dhif. Si kastaba&amp;#44; haddii &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt;Biyo xireenka Haraha Youngs&lt;/a&gt; howlgabo aagaan waxay halis ugu jirtaa fatahaad dhexdhaxaad ah &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(qariirada)&lt;/a&gt;. Iska diiwaangeli digniinada fatahaada oo &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;i-meel ama fariin ahaan&lt;/a&gt; ama dajiso &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;app-ka digniika fatahaada&lt;/a&gt; ee mobeelada casriga ah.</t>
+  </si>
+  <si>
+    <t>Howlgabka Biyo xireenka waa dhif. Si kastaba&amp;#44; haddii &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt;Biyo xireenka Haraha Youngs&lt;/a&gt; howlgabo aagaan waxay halis ugu jirtaa sareyso ugu jirtaa fatahaad &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(qariirada)&lt;/a&gt;. Iska diiwaangeli digniinada fatahaada oo &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;i-meel ama fariin ahaan&lt;/a&gt; ama dajiso &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;app-ka digniika fatahaada&lt;/a&gt; ee mobeelada casriga ah.</t>
+  </si>
+  <si>
+    <t>Howlgabka Biyo xireenka waa dhif. Si kastaba&amp;#44; haddii &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Biyo xireenka Wabiga Tolt&lt;/a&gt; aagaan way fatahi kartaa &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(qariirada)&lt;/a&gt;. Iska diiwaangeli digniinada fatahaada oo &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;i-meel ama fariin ahaan&lt;/a&gt; ama dajiso &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;app-ka digniika fatahaada&lt;/a&gt; ee mobeelada casriga ah.</t>
+  </si>
+  <si>
+    <t>Duufaanada daran waxaa laga filanayo inay kordhiso 50-ka sanno ee xigga. Waxay u keeneysaa roob iyo baraf. Wabiyada waxay yeelanayaan qulqul sareeyo ee u jaheynayo fatahaad badan ee Deyrta/Qaboobaha. Riix sawirka lagu ogaanayo wax badan.&lt;br&gt;
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Rivers.jpg" alt="Climate Change Rivers Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Miyuu roob adag da’ayay ama maalmo badan? Leeyahay heer kulul kacayo oo sababay baraf dhallaalka lama filaanka ah ee buuraha? Samey heerarka biyaha ee wabiyada deegaanka ee sare u muuqdo? Fursadaha fatahaada way kordhi kartaa. Fiiri wargelinada aqbaarta oo adeegyada cimilada ee digniinada deegaanka.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;QORSHEY&lt;/b&gt; - Samey qorshaha waxa la sameynayo iyo halka la aadayo haddii ay biyaha soo koraan. &lt;b&gt;La how sheeyo muhiim ah oo diyaar ah&lt;/b&gt; (shahaadooyinka dhalashada&amp;#44; waraaqaha muhiimka ah&amp;#44; sawirada&amp;#44; iwm). Hel caymiska fatahaada haddii aad u baahantahay.&lt;/li&gt;&lt;li&gt;&lt;b&gt;U DIYAARGAROW&lt;/b&gt; - Ku keydso sheeyada qiimaha leh iyo kiimikooyinka qoyska meel ka koreyso heerarka fatahaada iyo &lt;b&gt;baro sida loo damiyo korontooyinka&lt;/b&gt; (&lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target=_blank&gt;biyaha&amp;#44; gaaska&amp;#44; iyo korontada&lt;/a&gt;).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;DIYAAR GAROW&lt;/b&gt; - Isu keen sheeyada degdega ah (dharka diiran&amp;#44; toosh&amp;#44; mobeel&amp;#44; raadiyow la qaadi karo&amp;#44; iwm). Haddii waqtiga ogolaado oo wuxuu u muuqdaa muhiim&amp;#44; dami korontooyinka.&lt;/li&gt;&lt;li&gt;&lt;b&gt;DHAGEYSO&lt;/b&gt; - Dhageyso aqbaaraha iyo haddii laguugula taliyo&amp;#44; u guur dhul sareeyo.&lt;/li&gt;&lt;li&gt;&lt;b&gt;KA FOGOW HALISAHA - HA ku lugeynin ama haku kaxeynin dhinaca biyaha fatahaada.&lt;/b&gt; Waxay qaadataa kaliya 6 injis oo dhaqaaqa biyaha ee adiga kugu dhufunayo iyo 2 fiit oo gaariga loogu xaaqayo!&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Flood_during.jpg" alt="This is a panel of four cartoon images showing what to do during an a flood collect essentials&amp;#44; get to high ground&amp;#44; avoid water&amp;#44; and shutt off utilities." title="During Flood Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Haddii gurigaaga fatahay&amp;#44; &lt;b&gt;ka walaacsanow dib u gelida sida ay lahaan karto waxyeelo qaabeysan.&lt;/b&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Lahow korontooyinka eegida xirfadlaha&lt;/b&gt; ka hor inta aadan iska geddin.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Lumitaanada waraaqaha&lt;/b&gt; ee sawirida waxyeelooyinka iyo qarashaadka suubinta duubitaanka.&lt;/li&gt;&lt;li&gt;Ka ogow wax badan &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/flooding/prepare.aspx target=_blank&gt;halkaan&lt;/a&gt;&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; Russell Road Park &lt;br&gt; btwn Russell Rd. iyo S. 240th St.&lt;br&gt; Kent&amp;#44; WA&amp;#44; 98032 &lt;br&gt;  Ciida qaado kaliya (ma lahan jawaanka ciida)&lt;br&gt; Isniinta-Jimcaha 8:00 am - 4:00 pm &lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&amp;#44;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt;Public Works Shops &lt;br&gt;1155 East North Bend Way &lt;br&gt; North Bend&amp;#44; WA 98045&lt;br&gt; Jawaanka ciida iyo ciida qaado&lt;br&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; 33100 NE 45th Street &lt;br&gt; Carnation&amp;#44; WA 98014 &lt;br&gt;Isniinta-Jimcaha 8:00am - 4:30pm &lt;br&gt;Jawaanka ciida iyo ciida qaado&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; Meadowbrook Community Center&lt;br&gt;10517 35th Ave. NE &lt;br&gt; Seattle&amp;#44; WA 98125&lt;br&gt;Jawaanka ciida iyo ciida qaado&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; 1305 C St. SW &lt;br&gt; Auburn&amp;#44; WA 98001&lt;br&gt; Isniinta-Jimcaha 6:30am - 4:00pm&lt;br&gt;Jawaanka ciida iyo ciida qaado --&gt;253-931-3048&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; Kent City Public Works&lt;br&gt; 5821 S. 240th St. &lt;br&gt; Kent&amp;#44; WA 98032&lt;br&gt; Isniinta-Jimcaha 8:00am - 4:00pm &lt;br&gt;Jawaanka ciida qaado kaliya (ma lahan ciida)&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; Tahoma School District &lt;br&gt; 23015 SE 216th Way&lt;br&gt; Maple Valley&amp;#44; WA 98038&lt;br&gt; 8:00am - 5:00pm&lt;br&gt;Jawaanka ciida iyo ciida qaado&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; Pacific City Park &lt;br&gt; 600 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047&lt;br&gt;Sandbag iyo Sand pickup will be announced when White River flooding is imminent&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; Pacific/Algona Community Center &lt;br&gt; 100 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047 &lt;br&gt;Jawaanka ciida iyo ciida qaado&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; City Property @ &lt;br&gt; Railroad Avenue SE iyo SE King Street &lt;br&gt; Snoqualmie&amp;#44; WA 98065&lt;br&gt;Jawaanka ciida iyo ciida qaado&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; Preston-Snoqualmie Trail parking lot &lt;br&gt; Lake Alice Road SE iyo SE 56th Place &lt;br&gt; Fall City&amp;#44; WA 98024&lt;br&gt;Jawaanka ciida iyo ciida qaado&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; 14701 Main St. NE &lt;br&gt; Duvall&amp;#44; WA 98019&lt;br&gt;Jawaanka ciida iyo ciida qaado--&gt;425-788-3332&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; Haller Lake Neighborhood &lt;br&gt; 12551 Ashworth Ave N.&lt;br&gt; Seattle&amp;#44; WA 98133&lt;br&gt;Jawaanka ciida iyo ciida qaado&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; South Park Neighborhood &lt;br&gt; 731 S. Sullivan &lt;br&gt; Seattle&amp;#44; WA 98108&lt;br&gt;Jawaanka ciida iyo ciida qaado&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>U diyaar garow fatahaada adiga oo qaadayo oo buuxinayo jawaanada ciida. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;p&gt;QEYBIN XARUNTA KUU DHOW ADIGA WAA&amp;#44; &lt;center&gt;&lt;b&gt; Delridge Community Center &lt;br&gt; 4501 Delridge Way SW &lt;br&gt; Seattle&amp;#44; WA 98106&lt;br&gt;Jawaanka ciida iyo ciida qaado &lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Oo leh wabiyaal badan ee fatahaada Gobolka King waa caadi inta lagu jiro muddooyinka dhacitaanada roobka culus ama baraf dhallaalka degdega ah. &lt;b&gt;Fatahaada way ugu caadisantahay ka bilow Nofeembarta illaa Febraayo&lt;/b&gt;&amp;#44; laakin waxay dhici kartaa marwalba oo xaaladaha ay saxanyihiin.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Aagaan waxay leedahay giirada godka oo waxay si yar ugu dhowdsahay inay yeelato dhulalka buurta ah halkaan&lt;/b&gt;. Dhulalka buuraha u muuqdaan inay ka dhacaan markii dhulka uu ka qoyanyahay qeybaha roobka AMA dhulka gariirka sababo. Hoos uga soco dhacdooyinka taariiqiga ah fiiri haddii wax dhulalka buurta ah lagu qoray aagaaga. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;qariirada&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Sabab la xiriirto dalcadaha dagaandaga&amp;#44; aagaan waxay leedahay fursad dheeraad ah ee godka dhulalka buurta ah halkaan&lt;/b&gt;. Dhulalka buuraha u muuqdaan inay ka dhacaan markii dhulka uu ka qoyanyahay qeybaha roobka AMA dhulka gariirka sababo. Hoos uga soco dhacdooyinka taariiqiga ah si aad u aragtid dhulka buurta lagu qoray aagaaga. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;qariirada&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Lagama yaabo inaad ku aragtid taraarax halkaan&amp;#44; laakin waxaad ku arki kartaa mid u dhow dalcadaha dagaandaga haddii xaaladaha ay saxantahay&lt;/b&gt;. Isha ku hay aagaga aan xasilooneyn. Gaar ahaan wadooyinka ay xireen haraayada ama xaalufay. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;qariirada&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Miyay dalcadaha dagaandaga u dhowyihiin meel aan qudaar ka bixin? Miyuu roob da’ayay maalmo? &lt;b&gt;Haddii ay haa tahay&amp;#44; dalcadaha dagaandaga ka dhig si ay aad ugu dhowdahay dhulka buurta ah inay halkaan ka dhacdo&lt;/b&gt;. Isha ku hay aagaga aan xasilooneyn. Gaar ahaan wadooyinka ay xireen haraayada ama xaalufay. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;qariirada&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Dhulalka buurta ah waxy inta badan ka dhacdaa illaa taraaraxa xeebta hore ee hirarka ku dhufanayo leemanka xeebta. &lt;b&gt;Biyaha Puget Sound waxay ka kaceen 8 injis tan iyo 1913&lt;/b&gt;! Oo leh heerarka biyaha sareeyo ee nabaadguurka hore ee imaan karo way kordhayaan. Roobka xad dhaafka ee duufaanada daran waxay sidoo kale yareyn karaan dalcadaha ee kicinayo dhulalka buurta badan ee Gobolka King. Riix sawirka lagu ogaanayo wax badan.&lt;br&gt;&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storms Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Miyaad maqashaa dhawaqyada alwaaxa dilaacayo&amp;#44; dhagaxaan isgaraacayo&amp;#44; guuxa dhulka? Ma aragtaa jeexyada muuqaalka dhulka iyo dhaqaaqa dalcadaha hoose ee dhulka&amp;#44; dhagaxaanta&amp;#44; iyo qudaarta? Waxay noqon kartaa dhulka buurta ah. U dhaqaaq dhul xasiloon.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;QIIMEY&lt;/b&gt; - Haddii aaga agagaarka gurigaaga laga yaabo inuu u nugulyahay dhulalka buurta &lt;b&gt;&lt;b&gt;raadi tallada taqasusyada dhulka&lt;/b&gt;. Waxay qiimeyn karaan halista dhulka buurta iyo/ama naqshada farsamooyinka saxitaanka ee lagu yareynayo dhulalka buurta.&lt;/li&gt;&lt;li&gt;&lt;b&gt;YAREY HALISTA&lt;/b&gt; -  Abuur daboolka dhulka ee jiirada iyo/ama dhis darbi celinayo ee xasilinayo  &lt;b&gt;dhinacyada buurta.&lt;/b&gt;&lt;/li&gt;&lt;li&gt;&lt;b&gt;DIYAARI&lt;/b&gt; - &lt;b&gt;Samey sanduuqa saadka iyo qorshaha qoyska &lt;/b&gt; oo naqshadeynayo ugu yaraan labo wadooyin badbaado ah&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ka joogitaanka wadada dhulka buurta ama haraaga waa illaaladaada ugu wanaagsan.&lt;/b&gt; Sahanka Dhulka Mareykanka sidoo kale wuxuu ku taliyay sida xigta&amp;#44; &lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;&lt;b&gt;KA DIGTOONOW - Dhageyso dhawaqyada aan caadiga aheyn&lt;/b&gt;. Xoogan&amp;#44; kala go’a gaaban ee roobka waxay noqon kartaa halis gaar ah&amp;#44; gaar ahaan muddooyin dheer kadib ee dhacitaanka roobka xoogan iyo cimilada qoyan.&lt;/li&gt;&lt;li&gt;&lt;b&gt;TIXGELI KA TAGIDA&lt;/b&gt; - Haddii aad joogtid aagaga ee unugul dhulalka buurta ah iyo qulqulada haraaga&amp;#44; tixgeli ka tagida haddii ay badbaado tahay inaad sidaas sameysid. Haddii aad go'aansatid inaad guriga joogtid&amp;#44; u dhaqaaq sheekada labaad haddii ay suurtogal tahay.&lt;/li&gt;&lt;li&gt;&lt;b&gt;OGOW HEERARKA DURDURKA&lt;/b&gt; - Haddii aad u dhowdahay durdur ama kanaal&amp;#44; &lt;b&gt;ka digtoonow kordhin walboo lama filaan ah ama hoos u dhaca qulqulka biyaha iyo isbadelka biyaha cad oo dhoobo noqonayo&lt;/b&gt;. Kuwaan waxay tilmaami kartaa durdurka kore ee howsha dhulka buurta ah. HAKA DAAHIN! Keydi nafsadaada&amp;#44; ma ahan alaabahaaga.
+&lt;/li&gt;&lt;/ul&gt; Waxaad ka heli kartaa dhulalka buurta ah oo badan USGS  &lt;a href=http://landslides.usgs.gov/learn/prepare.php target=_blank&gt;halkaan&lt;/a&gt;. &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Landslide_during.jpg" alt="This is a panel of three cartoon images showing what to do during an a landslide. Stay Alert&amp;#44; Leave the area&amp;#44; and Don't Delay." title="During Landslide Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;U DIYAAR AHOW FATAHAADA (dhulka buurta ah inta badan waxaa xiro wabiyada oo waxay ku sababi karaan wabiyada inay dib u laabtaan oo fatahaan)&lt;/b&gt;.&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;Ka fogow taraaraxa. Taraaraxyada kale waxay dhici karaan kadib taraaxada guud.&lt;/li&gt;&lt;li&gt;Marka ay badbaado tahay&amp;#44; ka hubi dadka dhaawacmay ama xanibmay.&lt;/li&gt;&lt;li&gt;Ka hubi waxyeelada leemanka korontada oo soo wargeli waxyeelo walba shirkadaada korontada.&lt;/li&gt;&lt;li&gt;Dhageyso warbaahinta deegaanka ama raadiyowga Cimilada NOAA oo warbixinta hadeer ah.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wixii warbixin dheeraad ah ka fiiri bogga Waaxda Illaha Dabiiciga ee &lt;a href=http://www.dnr.wa.gov/programs-and-services/geology/geologic-hazards/landslides#some-historic-landslides-in-washington-state target=_blank&gt;dhulalka buurta&lt;/a&gt; iyo &lt;a href=http://file.dnr.wa.gov/publications/ger_fs_landslide_hazards.pdf target=_blank&gt;halisaha dhulalka buurta ah&lt;/a&gt;. Wixii dhulalka buurta ee xaafadaada&amp;#44; fiiri warbixin laha heli karo &lt;a href=http://www.seattle.gov/dpd/aboutus/whoweare/emergencymanagement target=_blank&gt;&lt;b&gt;Seattle&lt;/b&gt;&lt;/a&gt; iyo &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/landslides.aspx target=_blank&gt;&lt;b&gt;Gobolka King&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Ma jiraan dhulalka buurta oo halkaan lagu aqoonsaday&lt;/b&gt; (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;Wargelinta 2016&lt;/a&gt;). Dhulalka buurta caadi ayay ka yihiin dhal la’aanta&amp;#44; dalcadaha dagaandaga halka daadashooyinka isugu imaadaan. Haddii aad ku nooqshahay meel ka hooseyso aaga sida midaan ka taxadar halisahaaga (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en target=_blank&gt;qariirada&lt;/a&gt;). Si loogu baaro fadhiyada xogta si aad u dhow ee &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; Gobolka King iMap&lt;/a&gt; (iska hubi dhulalka buurta in lagu eego sheekada).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Saynisyahanada kama aqoonsan wax dhul gariir ah halkaan&lt;/b&gt;. Wixii warbixin dheeraad ah fiiri &lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;Wargelinta 2016&lt;/a&gt; iyo &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg target=_blank&gt;qariirada&lt;/a&gt;. Si loogu baaro fadhiyada xogta si aad u dhow ee &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;Gobolka King iMap&lt;/a&gt; (iska hubi dhulalka buurta in lagu eego sheekada).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Ma jiraan dhulalka buurta ee lagu aqoonsaday halkaan&lt;/b&gt; sida waafaqsan daraasada 1995 ee taraaraxa Caasimafa Seattle. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg target=_blank&gt;qariirada&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Ma jiraan daraasad lagu dhameystiray halkaan&lt;/b&gt; ee lagu aqoonsanayo haddii dhulalka buurta taariiq ahaan jireen (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;qariirada&lt;/a&gt;).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;DHULALKA BUURTA WAXAY KA DHACDAY HALKAAN&lt;/b&gt; ee waqti yar ee la soo dhaafay (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;Wargelinta 2016&lt;/a&gt;) iyo (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;qariirada&lt;/a&gt;). Taraaraxyada taariiqiga ah laga yaabo ama laga yaabin inay tilmaanto taraaraxa mustaqbalka dhici karo. Si loo ogaado haddii halisaha weli ka jiraan aaga baahiyada qiimeynta gaarka ah ee uu sameynayo la taliyaha farsamada dhulka. Si loogu baaro fadhiyada xogta si aad u dhow ee &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;Gobolka King iMap&lt;/a&gt; (iska hubi dhulalka buurta in lagu eego sheekada).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;DHULALKA BUURTA WAXAY KA DHACDAY HALKAAN&lt;/b&gt; ee waqti yar ee la soo dhaafay (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;Wargelinta 2016&lt;/a&gt;) iyo (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;qariirada&lt;/a&gt;). Taraaraxyada taariiqiga ah laga yaabo ama laga yaabin inay tilmaanto taraaraxa mustaqbalka dhici karo. Si loo ogaado haddii halisaha weli ka jiraan aaga baahiyada qiimeynta gaarka ah ee uu sameynayo la taliyaha farsamada dhulka. Si loogu baaro fadhiyada xogta si aad u dhow ee &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;Gobolka King iMap&lt;/a&gt; (iska hubi dhulalka buurta in lagu eego sheekada).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;DHULALKA BUURTA iyo DHACITAANKA DHAGAXA WAXAY KA DHACDAY HALKAAN&lt;/b&gt; ee waqti yar ee la soo dhaafay (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;Wargelinta 2016&lt;/a&gt;) iyo (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;qariirada&lt;/a&gt;). Taraaraxyada taariiqiga ah laga yaabo ama laga yaabin inay tilmaanto taraaraxa mustaqbalka dhici karo. Si loo ogaado haddii halisaha weli ka jiraan aaga baahiyada qiimeynta gaarka ah ee uu sameynayo la taliyaha farsamada dhulka. Baar fadhiyada xogta si aad u dhow ee &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;Gobolka King iMap&lt;/a&gt; (iska hubi dhulalka buurta in lagu eego sheekada).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;DHACITAANKA DHAGAXA WAXAY KA DHACDAY HALKAAN&lt;/b&gt; ee waqti yar ee la soo dhaafay (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;Wargelinta 2016&lt;/a&gt;) iyo (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;qariirada&lt;/a&gt;). Taraaraxyada taariiqiga ah laga yaabo ama laga yaabin inay tilmaanto taraaraxa mustaqbalka dhici karo. Si loo ogaado haddii halisaha weli ka jiraan aaga baahiyada qiimeynta gaarka ah ee uu sameynayo la taliyaha farsamada dhulka. Baar fadhiyada xogta si aad u dhow ee &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;Gobolka King iMap&lt;/a&gt; (iska hubi dhulalka buurta in lagu eego sheekada).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;DHULALKA BUURTA WAXAY KA DHACDAY HALKAAN&lt;/b&gt; sida waafaqsan daraasada 1995 ee tararaxyada Caasimada Seattle (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;qariirada&lt;/a&gt;). Taraaraxyada taariiqiga ah laga yaabo ama laga yaabin inay tilmaanto taraaraxa mustaqbalka dhici karo. Si loo ogaado haddii halisaha weli ka jiraan aaga baahiyada qiimeynta gaarka ah ee uu sameynayo la taliyaha farsamada dhulka.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Kani waa bulsho halis aad u sareyso ugu jirto dabka duurka&lt;/b&gt;. Waa xaduuda u dhaxeyso aadanaha iyo duurka. Galbeedka Washington waa heer kulul&amp;#44; laakin dabka duurka waxay ku dhuftaan qeybta bariga ee Gobolka King sannad walba. (&lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;qariirada&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Aagaan looma aqoonsan sida inay leedahay halis sareyso ee dabka duurka&lt;/b&gt;&amp;#44; laakin waxay ku taalaa gudaha mayl barkiisa ee bulshada halista sareyso. Xaaladaha wanaagsan dabka duurka wuu faafayaa. (&lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;qariirada&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Aagaan waxay leedahay halis hooseyso aad u hoseyso ee dabka duurka&lt;/b&gt;. Haddii aad ku nooshahay meel u dhow aaga alwaaxda ka taxar dabka duurka wuu dhici karaa. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Sida tani ay tahay biyo&amp;#44; ma jiraan filashada dabka duurka ee ka jiray halkaan.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Waxaad kala kulmi kartaa dabka duurka oo weyn halkaan&lt;/b&gt;. Waxay noqoneysaa dhaqaaqa dheereeyo&amp;#44; ee la jiro holac weyn oo dhaqso ayuu badeli karaa jahada. Waxay ku qaadan kartaa dab damiyayaasha maalmo ama isbuucyo inay damiyaan. QIIQA ka imaanayo baaxada dabka duurka wuu safri karaa oo waxay xaqiiq u noqon kartaa xittaa haddii waxba aan ku gubaneynin meel kuu dhow. Ka hubi tayada hawadaa deegaankaaga &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx target=_blank&gt;halkaan&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Uma badna&amp;#44; laakin haddii aad ku nooshahay meel u dhow aaga duurka ah waxaad la kulmi kartaa dabka duurka&lt;/b&gt;. QIIQA ka imaanayo baaxada dabka duurka wuu safri karaa oo waxay xaqiiq u noqon kartaa xittaa haddii waxba aan ku gubaneynin meel kuu dhow. Ka hubi tayada hawadaa deegaankaaga &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx target=_blank&gt;halkaan&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Tirada &lt;b&gt;dabka duurka ee Badda Wuqooyiga galbeed marhore ayay si weyn u korodhay labaatankii sanno ee la soo dhaafay&lt;/b&gt;. Isbedalkaan wuxuu u dhowyahay inuu ku sii socdo kuleelo qalalan oo duufaan badan (ka fakir daarida dhimbilaha dabkaas). Aagaga weyn ee duurka wuu guban karaa oo qiiq gelin karaa hawada. Riix sawirka lagu ogaanayo wax badan.&lt;br&gt;&lt;a  ref="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Forests.jpg" alt="Climate Change Forest Infographic"&gt;
+&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Ma urineysaa ama ma aragtaa qiiq? Miyay balaaratay abalaaratay cimilada qalalan? Waxay noqon kartaa dabka duurka. Si cad uga tala bixi dabka firfircoon iyo haddii aad aragtid mid soo wac 9-1-1 si aad usoo wargelisid.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;BOOS SAMEEY&lt;/b&gt; - Ka illaali nololaha iyo hantiyada adiga oo aasaasayo &lt;b&gt;boos dabka qabsado ee agagaarka gurigaaga&lt;/b&gt;&amp;#44; harka&amp;#44; iyo ganacsiga. Si aad u ogaatid sida ka fiiri &lt;a href=http://www.firewise.org/wildfire-preparedness.aspx target=_blank&gt;firewise.org&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;DAAWO CIMILADA&lt;/b&gt; - Dhoor maalmood qurax ah waxay ku qalali karaan duurarkeena oo ku filan inay dab qabsadaan. Xaalada dabeysha waxay ku sababi kartaa dabka duurka in la xakameyn waayo durbadiiba.&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Firewise_Brochure.jpg" alt="This is an image of ways to prevent wildfire around your home. They include screening decks&amp;#44; pruning trees 6-10 feet from the ground&amp;#44; using fire-resistant wall and roof materials&amp;#44; keeping plants watered&amp;#44; and making sure your driveway can accommodate an emergency vehicle" title="How to Prepare Your Home for Wildfire"&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;DIGTOONOW&lt;/b&gt; - Ka dhageyso digniinada degdega deegaanka raadiyowga iyo/ama talefishanka oo u diyaargarow inaad ka badbaadid haddii ay muhiim tahay.&lt;/li&gt;&lt;li&gt;&lt;b&gt;KA SAAR WAXYAABAHA GUBAN KARO&lt;/b&gt; - Ka saar alaabaha agaagrka guriga ee ay ku qabsan karaan dabka (kuraasta cowska ah&amp;#44; miisaska&amp;#44; iwm.).&lt;/li&gt;&lt;li&gt;&lt;b&gt;DIYAARGAREE GURIGAAGA&lt;/b&gt; - Dhaqaaji ka dabool alaabah guriga daaqadaha. Xir albaabada iyo daaqadaha&amp;#44; laakin ha xirin iyaga.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Fire_during.jpg" alt="This is an icon of an exclaimation point with two triangles behind it" title="During Fire Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Gurigaaga ku laabo markii maamulada ay dhahaan waa badbaado.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Isticmaal taxadarka marka aad galeysid aagaga guban&lt;/b&gt; sida halisaha ay weli jiri karto.&lt;/li&gt;
+&lt;li&gt;Fiiri iyo dib u fiiri qiiqa ama dhimbilaha qarsoon.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Sawir waxyeelada&lt;/b&gt; oo ujeedooyinka caymiska.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Haddii aad u maleysay in hantidaada ay halis ku jrii karto &lt;b&gt;Gobolka King wuxuu hayaa warbixinta milkiilayaasha dhulka&amp;#44; barnaamijyada dhiirogelinta&amp;#44; iyo aqoon isweedaarsiyada tababarka la martigeliyay&lt;/b&gt;. Waxaad ka heli kartaa waxbadan &lt;a href=http://www.kingcounty.gov/environment/water-and-land/forestry.aspx target=_blank&gt;halkaan&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Bariga Gobolka King wuxuu leeyahay dabka yar ee duurka ah sannad walba. Caadi ahaan aadanaha ayaa sababay. Fiiri halka dabka ka dhacay xiliga la soo dhaafay adiga oo riixayo &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_Historic.jpg target=_blank&gt;halkaan&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Foolkaanooyinka (qulqulka dhoobada foolkaanada) waa halista ugu weyn ee la xiriirto Buurta Rainier. &lt;b&gt;Dadka dagan Koonfurta Gobolka King waxay leeyihiin 1 ee 10 fursad ee la kulmida foolkaanada ee nololshooda oo dhan&lt;/b&gt;. Buurta Rainier waxaa loo tixgeliyaa foolkaano firfircoon&amp;#44; laakin waxay noqon kartaa sannooyin badan illaa ay ka qaraxdo markale.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Haddii foolkaanada ay kiciso Buurta Rainier&amp;#44; &lt;b&gt;aagaan wuxuu la kulmi karaa fatahaad iyo haraaga sida dhoobada&amp;#44; ciida&amp;#44; dhagaxaanta&amp;#44; iyo haraaga kale ee hoosta wabiga oo foolkaanada ah&lt;/b&gt;. Tani waxay ka dhici kartaa sannooyin illaa labaataneeyo sanno foolkaanada kadib. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;A 10% - 40% fursad ka jirtay foolkaanada ee Buurta Rainier oo mareyso illaa gobolkaan oo 50-ka sanno ee xiggo&lt;/b&gt;. Dabeecada foolkaanada oo u egtahay dhagax qoyan oo socdo. Dhoobo qaro adag iyo haraa ayaa daboolayo aaga haddii mid dhacdo. Tani waxay si xun u waxyeeleyn kartaa dhismaha oo waxay qaadan kartaa muddo dheer in looga soo kabsado. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;A 5% - 10% fursad ka jirtay foolkaanada ee Buurta Rainier oo mareyso illaa aagaan oo 50-ka sanno ee xiggo&lt;/b&gt;. Dabeecada foolkaanada oo u egtahay dhagax qoyan oo socdo. Dhoobo qaro adag iyo haraa ayaa daboolayo aaga haddii mid dhacdo. Tani waxay si xun u waxyeeleyn kartaa dhismaha oo waxay qaadan kartaa muddo dheer in looga soo kabsado. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Waxaad joogtaa AAGA KA BAXSAN HALISTA FOOLKAANADA&lt;/b&gt;. Haddii Buurta Rainier qaraxdo dambas ayaa daboolayo gobolka. Waxay aad ugu ekaaneysaa sida aagaga saameysay qaraxa Buurta Saint Helen ee 1980. Qara weynida dambasta waxay ku kala duwanaaneysaa baaxada qaraxa. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(qariirada)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foolkaanada caadi ahaan waxay siisaa siinyaalo digniin ah maalmo illaa billo ka hor inta aysan qarxin. &lt;b&gt;Howlaha gaaska iyo dhulgariirka wuu kordhaa iyo saqafka dhulka wuxuu u bararaa sida biyaha dhaxa ku qulqulayo hoosteeda&lt;/b&gt;. Illaa aastaamahaan waxay noqon kartaa dhismo bulshada guud ah&amp;#44; Buurta Rainier waxaa si joogta ah u maamulay saynisyahanada leh &lt;a href=http://volcanoes.usgs.gov/volcanoes/mount_rainier/ target=_blank&gt;Barnaamijka Halisaha Foolkaanada USGS&lt;/a&gt;. </t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;WEYDII&lt;/b&gt; - Ogow tallaabooyinka saraakiisha deegaanka qaadeen oo ay ugu diyaar garoobeen dhacdooyinka foolkaanada. &lt;b&gt;Weydii saraakiisha bulshada waxa qorshahooda uu yahay iyo sida ay kugula soo xiriirayaan inta lagu jiro dhacdada&lt;/b&gt;. Waxaad ku sameyn kartaa midaan adiga oo la xiriirayo Xafiiska Gobolka King &lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=_blank&gt;ee Maamulka Degdega&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;QORSHAHA&lt;/b&gt; - La hadal saaxibadaada iyo dariska. Haddii aad joogtid aag halis sareyso&amp;#44; &lt;b&gt;go’aanso halka aad aadi laheyd&amp;#44; waxa aad keeni laheyd&amp;#44; iyo cida aad la xiriiri kartid&lt;/b&gt;.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Inta lagu jiro qaraxa&amp;#44; dhageyso wararka aqbaaraha degdega iyo raac tilmaamaha gurmadka.
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;AAGA FOOLKAANADA - Hel dhul sareeyo isla markiiba.&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;BANAANKA&lt;/b&gt; - Dabool afkaaga&amp;#44; sankaaga&amp;#44; iyo jirka si aad uga fogaatid xanaaqa. &lt;b&gt;Hel hoy&lt;/b&gt;. &lt;/li&gt;
+&lt;li&gt;&lt;b&gt;GUDAHA - Xir albaabada iyo daloolada guriga oo gudaha ku jir&amp;#44; illaa lagaa tilmaamo haddii kale&lt;/b&gt;. Saar shukumaanada xun mareenada albaabka iyo kuleey daaqadaha. Dami matoorada gaariga iyo taraagyada si aad uga fogaatid waxyeelada cariiriga dambasta. Ka illaali xayawaanada iyo mashiinada adiga oo keenayo gudaha ama aaga daboolan.&lt;/li&gt;&lt;/ul&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Volcano_during.jpg" alt="This is an panel of three images of what to do during a volcanic eruption or lahar. In lahar zone&amp;#44; outside&amp;#44; inside." title="During Volcano Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kadib halista degdega ah ee qaraxa way yaraatay&amp;#44; nadiifinta dhacitaanada dambasta waxay noqoneysaa dhacdada ugu weyn.&lt;br&gt;  &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/MtStHel_Yakima_graders.jpg" alt="This image shows two graders shoveling inches of ashfall from Saint Helens' eruption" title="Ashfall Cleanup in Yakima After Mt. Saint Helens"&gt;&lt;li&gt;Xiro ookiyaale iyo maaskaraha wajiga marka aad banaanka joogtid. &lt;b&gt;Tayada hawada way liidaneysaa&lt;/b&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Ka fogow daarnaashaha matoorka gaariga&lt;/b&gt;. Haddii ay tahay inaad ka xeysid&amp;#44; ku haay xawaaraha hoos (oo ka yar 35 MPH) oo fiiri ooliyada&amp;#44; fiiltarada ooliyada&amp;#44; iyo fiiltarada hawada waa joogto. &lt;/li&gt;&lt;li&gt;Dhacitaanada dambasta way culustahay oo waxay ku sababi kartaa dhismooyinka inay dumaan. Haddii ay badbaado tahay inaad sidaas sameysid&amp;#44; &lt;b&gt;ka cadey dambasta safaqyada iyo roob celiyayaasha&lt;/b&gt;.&lt;/li&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Waxaad wax badan ka baran kartaa ee ku saabsan Buurta Rainier iyo halisaha imaan karo illo badan: 
+&lt;ul&gt;&lt;li&gt;&lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/ target=_blank&gt;Kormeerida iyo warbixinta kale&lt;/a&gt; - Sahanka Dhulka Mareykanka&lt;/li&gt;&lt;li&gt;&lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=blank&gt;Warbixinta Guud ee Gobolka King&lt;/a&gt; - Gobolka King&lt;li&gt;&lt;a href=https://www.nps.gov/mora/planyourvisit/geohazards.htm target=_blank&gt;Dhulka halista ah ee Rainier&lt;/a&gt; - Adeega Darjiinka Qaranka&lt;/li&gt;&lt;li&gt;&lt;a href=http://www.pnsn.org/volcanoes/mount-rainier target=_blank&gt;Dhul gariirka u dhow Rainier&lt;/a&gt; - Badda Wuqooyiga galbeed Shabakada Seismic&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Buurta Rainier waxay leedahay taariiq dheer oo &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_eruption_history.html target=_blank&gt;qaraxyo ah&lt;/a&gt; iyo &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_lahars.html target=_blank&gt;foolkaano&lt;/a&gt;. Qiyaastii 500 sanno ka hor Qulqulka dhoobada Electron ayaa usu keenay buurta hoose ee ku safrayo dhinaca Puyallup iyo sida dheer ee Sumner&amp;#44; WA. Kumanaanka sanno ka hor inta aysan foolkaanadaas badan ku safrin dhinaca wabiyada gaarayo sida ugu dheer ee Auburn.  &lt;b&gt;Magaalooyinka qaarkood (NE Tacoma&amp;#44; Orting&amp;#44; iyo Puyallup) waxay dhisantahay haraayada foolkaanada taariqiga ah.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Qaboobaha Gobolka King oo dhan wuxuu keeni karaa heerkululka qabow hooseeyo&amp;#44; wadooyin baraf ah&amp;#44; iyo duufaanaha weyn ee imaan kara. Dhacitaanka barafka wuxuu dhacaa mararka qaarkood&amp;#44; iyo aad u leedahay taagag sare. &lt;b&gt;Duufaanada qaboobaha waxay keeni karaan dabeyl sareyso ee ku sababo inay geedaha dhacaan oo korontada danto.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Dhacdada dhacitaanka baraf la taaban karo wuxuu ku sababi karaa carqalado gaadiidka&amp;#44; adeegyada badbaadada bulshada&amp;#44; iyo korontada. &lt;b&gt;Korontada waxay maqnaan kartaa maalmo badan.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Badda Wuqooyiga galbeed waxay arkeysaa duufaan aad u daran oo 50-ka sanno ee xigo&lt;/b&gt;. Waxay qaadi karaan dabeyl culus&amp;#44; dhacitaanka roobka mahiigaanka ah oo sababayo fatahaada. Howlaha qaboobaha way saameyneysaa. 2015 arag heerarka bacda barafka la qoray ee ugu hooseyso oo leh kaliya 4% oo isku celcelis. Qaboobaha diiran wuxuu dajinayaa heerka abaaraha gobolka oo dhan. Riix sawirka lagu ogaanayo wax badan.  &lt;br&gt;
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Winter.jpg" alt="Climate Change Winter Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Saadiyayaasha wuxuu sameeyay guul wanaagsan ee saadaalinta barafka iyo duufaanaha barafka. &lt;b&gt;Ka taxadar saadaalinta cimilada deegaanka oo iska diiwaangeli digniinta la heli karo iyo nidaamyada digniinta &lt;/b&gt;(&lt;a href=http://alert.seattle.gov/ target=_blank&gt;Digniin sii Seattle&lt;/a&gt; iyo &lt;a href=http://www.kingcounty.gov/depts/emergency-management/alert-king-county.aspx target=_blank&gt;Digniin sii Gobolka King&lt;/a&gt;) si aad u hubisid inaad heshid warbixinta ugu dambeyso ee ku saabsan cimilada daran ee hartay.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;HEL SAADADKA - Keydso shidaal dheeraad ah iyo saadadka gurmadka&lt;/b&gt; si aad ugu badbaadid dhoor maalmood iyada oo aan kroonto jirin&amp;#44; kuleelka&amp;#44; iyo biyaha kulul. Tixgeli inaad iibsatid ganareetar oo raac heerarka badbaadada.&lt;/li&gt;&lt;li&gt;&lt;b&gt;QABOOJI GURIGAAGA&lt;/b&gt; - Geli daaqadaha duufaanta. Dahaarsaar darbiyada&amp;#44; dusha sare&amp;#44; iyo tuubooyinka. Saar biya celiyaha iyo goomaha cimilada albaabada iyo daaqadaha. U ogolow tubooyinka inay waxyar tifqaan inta lagu jiro cimilada qabowga si ay ugu joogteyso tubooyinka inay barafoobaan. &lt;b&gt;Baro sida loo damiyo faalfayaasha (haddii tuubo ay jabto)&lt;/b&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;QABOOJI GAWAARIDAADA&lt;/b&gt; - Ku hayso shidaalka si buuxdo ugu yaraan buux barkiisa. Hubi batariga&amp;#44; qalabka kicinta&amp;#44; hiitarka&amp;#44; nalalka&amp;#44; bareekyada&amp;#44; iyo taayarada. Ku buuxi biya daga ka hortaga barafka&amp;#44; ooliyada&amp;#44; iyo daaqadaha dhaqo biyaha. &lt;b&gt;Ku hay saadadka gurmadka qaboobaha buudkaaga.&lt;/b&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;LA SOCO&lt;/b&gt; - Ka kormeer aqbaaraha deegaanka talefeshinkaaga&amp;#44; qalabka mobeelka&amp;#44; ama raadiyaha batariga ku shaqeeyo. Raac tilmaamaha degdega oo ka taxadar inaad u safartid tallo bixin.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;KA FOGOW SAFARKA&lt;/b&gt; - Haddii ay tahay inaad gaari kaxeysid&amp;#44; buuxi taangiga shidaalka&amp;#44; haay wadooyinka weyn&amp;#44; oo ogeysii dadka kale faahfaahintaada. Is tartiibi. Haddii aad xayirantid&amp;#44; u yeero caawin&amp;#44; daar nalalka halisaha&amp;#44; oo gaarigaaga joog. Banaanka cagahaaga haku fariisan illaa hoy uu kuu dhowyahay.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;OGOW HALISAHAAGA &lt;/b&gt;- 
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;Barafowga&lt;/b&gt; - Haddii aad ogaatid aastaamaha hel caawinta caafimaadka isla markaasba. Wixii aastaamaha iyo warbixin kale riix &lt;a href=https://www.cdc.gov/disasters/winter/staysafe/hypothermia.html target=_blank&gt;halkaan&lt;/a&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Sumowga Gubashada Gaaska&lt;/b&gt; - Waxay dhacdaa markii shidaalka sida gaaska&amp;#44; ooliyada&amp;#44; bansiinka&amp;#44; alwaaxa&amp;#44; ama dhuxusha ay ku gubato boos xiran. Boqolaal dad ayaa sannad walba si shil ah ugu dhinto. Ka ogow wax badan &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/carbon-monoxide.aspx target=_blank&gt;halkaan&lt;/a&gt;.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;li&gt;&lt;b&gt;KA FOGOW HALISAHA&lt;/b&gt; - Si cad uga tala bixi leemanka korontada soo dhacay&amp;#44; fatahaada&amp;#44; wadooyinka&amp;#44; iyo qaabdhismeedyada kale ee dumiyay barafka culus am barafka.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Winter_during.jpg" alt="This is a panel of four images of what to do during bad winter weather. Stay Tuned&amp;#44; Stay Inside&amp;#44; Know Risks&amp;#44; and Avoid Hazards." title="During Winter Weather Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Dib u iibso saadadka gurmadka&lt;/b&gt;. U diyaargarow haddii duufaan kale ku dhafato.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Hormari qorshaha qoyskaaga&lt;/b&gt; - Maxaa shaqeeyay? Maxaa la wanaajin karaa?&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;La hadal dariskaaga&lt;/b&gt;. La wadaag tallooyinka iyo afkaaraha midba midka kale.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Baro wax badan oo ku saabsan xaalada qaboobaha iyo sida loo diyaar garoobo: 
+&lt;ul&gt;&lt;li&gt;
+&lt;a href=http://takewinterbystorm.org target=_blank&gt;Ku qaado Qaboobaha Duufaan ahaan&lt;/a&gt;-  Tallooyinka diyaargarowga iyo warbixinta la cusbooneysiiyay ee Galbeedka Washington&lt;/li&gt;
+&lt;li&gt;
+&lt;a href=http://kingcounty.gov/depts/transportation/metro/alerts-updates/winter.aspx target=_blank&gt;Gobolka King Qaboobaha Metro&lt;/a&gt; - Qadadka app-ka qorsheynta safarada qaboobaha iyo digniinta cimilada &lt;/li&gt;
+&lt;li&gt;
+&lt;a href=https://www.seattle.gov/transportation/winterweather.htm target=_blank&gt;Waaxda Gaadiidka ee Seattle&lt;/a&gt; - Fiiri halka baraf ka dhacay iyo warbixinta kale ee xaaladaha wadada &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Taxanaha barafka&amp;#44; barafka iyo roobka duufaanta ee bilowga Diseembar 26&amp;#44; 1996&amp;#44; wuxuu sababay 16 dhimasho oo gobolka ah iyo $57 milyan oo waxyeelo ah ee Gobolka Seattle iyo King&lt;/b&gt;. Labo duufaano — hal gubasho 6-12 inji iyo 10 inji ee barafka qoyan — halka ay raacaan roobka culus kaas oo dumay kanbiga&amp;#44; meesha doomanka daboolan&amp;#44; iyo leemanka korontada oo wareegto ah. Adeega la hakiyay ee ku meelgaark aah ee Metro gabi ahanba waqtigii ugu horeysay ee taariiqdeeda. Qabowga iyo dhallaalka barafka waxay ku deeqaan fatahaad iyo dhulalka buurta ah inta lagu jiro isbuuca xiggo. Diyaar ma u tahay haddii duufaan saan oo kale ah ay dhacdo markale?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ha u ogolaan dhacitaanka roobka iyo qaboobaha inay ku harowdasaan&amp;#44; &lt;b&gt;kuleelaha Gobolka King wuxuu noqon karaa KULEEL. Mararka qaarkood heer kululka wuxuu u kacaa illaa heerka 90s oo maalmo badan ah waqtigiiba&lt;/b&gt;. Duufaanta hilaaca&amp;#44; duufaanta dabeysha&amp;#44; dabka duurka&amp;#44; iyo hirarka kuleelka waa suurtogal gobolka oo dhan.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kuleel daran ayaa socon karo maalmo oo ku sababayo bulshooyinka inay arkaan korodhka kuleelka la xiriiro jirada oo ay ku jiraan DAALKA KULEELKA iyo ISTAROOGA KULEELKA. Heerkululka biriqda&amp;#44; xaaladaha qaleelka&amp;#44; iyo korodhka suurtaglnimada biriqda ee dabka duurka.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Luuliyo 2015 waxay aheyd bisha ugu kulul ee soo marta! &lt;b&gt;Isku celceliska heerkululka sannadlaha waxaa lagu saadilay inay kordheyso inta u dhaxeyso heerka 3 iyo 10 ee Heerkululka xiliga 2100&lt;/b&gt;. Dadka dagan Washington waxay arkayaan dhacitaanka roobka kuleelaha&amp;#44; laakin dhacitaanka roobka ee aan ka dhicin wuu cuslaanayaa (ku fakar roob culus). Riix sawirka lagu ogaanayo wax badan. &lt;br&gt; &lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storm Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Daalka kuleelka iyo istarooga kuleelka waa jiro daran ee dhici karta markii qofka gaaro kuleel daran.&lt;/p&gt;
+&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;
+&lt;b&gt;AASTAAMAHA DAALKA KULEELKA&lt;/b&gt;:
+&lt;ul&gt;
+&lt;li&gt;Dhidid badan&lt;/li&gt;
+&lt;li&gt;Tabar daro&lt;/li&gt;
+&lt;li&gt;Garaaca wadnaha oo liito&lt;/li&gt;
+&lt;li&gt;Suuxdin&lt;/li&gt;
+&lt;li&gt;Matag&lt;/li&gt;
+&lt;li&gt;Qabow&amp;#44; maqaarka cadaado&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/div&gt;
+&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;
+&lt;b&gt;AASTAAMAHA ISTAROOGA KULEELKA&lt;/b&gt;:
+&lt;ul&gt;
+&lt;li&gt;Heerkululka jirka sareeyo (103F ama ka sareeyo)&lt;/li&gt;
+&lt;li&gt;Maqaar kuleel oo qalalan&lt;/li&gt;
+&lt;li&gt;Garaaca wadnaha degdega oo xoogan&lt;/li&gt;
+&lt;li&gt;Miiyir beel suurtogal ah&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Dadka weyn&amp;#44; carruurta yar&amp;#44; iyo dadka qaba jirada maskaxda iyo cudurada raaga way ku badanyihiin halisaha arimaha kuleelka la xiriiro.
+&lt;ol&gt;&lt;li&gt;&lt;b&gt;OGOW AASTAAMAHA&lt;/b&gt; - Jirada kuleelka la xiriiro dhaqso ayay dhici kartaa. Ogow iyo midkee ka mid ah dariskaaga ayaa halis ku jiri karo. &lt;/li&gt;&lt;li&gt;&lt;b&gt;KA WARHAY&lt;/b&gt; - Dhageyso aqbaaraha deagaanka oo warbixinta guud ah iyo goobaha ee &lt;b&gt;xarumaha qaboojinta&lt;/b&gt; (boosaska bulshada ee ay u isticmali karaan dadka dagan inay isku qaboojiyaan).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;QABOOBANOW&lt;/b&gt; - Gudaha joog iyo&amp;#44; haddii ay suurtogal tahay&amp;#44; meesha qaboojiyaha (moolalka adeega&amp;#44; maktabadaha&amp;#44; masraxyada&amp;#44; iwm). Xadey howsha banaanka.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;ILLAALI MAQAARKAAGA&lt;/b&gt; - Xiro dhar qafiif ah&amp;#44; midib qafiif ah leh&amp;#44; oo dabacsan. Koofiyad ku dbaoosha oo balaaran&amp;#44; ookiyaale&amp;#44; iyo kareemka quraxda way ku caawineysaa.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;CAB BIYO&lt;/b&gt; - Cab biyo badan (ka fogow kafeega&amp;#44; qamriga&amp;#44; iyo cabitaanada sonkorta leh) oo qaado dhalo biyo ah.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;KA FAKAR DADKA KALE&lt;/b&gt; - Ka fogey carruurta iyo xaywaanada guriga baabuurta kulul. Fiiri qoyska halista ku jiro&amp;#44; saaxibada&amp;#44; iyo dariska inta badan.&lt;/li&gt;&lt;/ul&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Summer_during.jpg" alt="This is a panel of three images of what to do during bad summer weather. Stay Cool&amp;#44; Protect Skin&amp;#44; and Drink Water." title="During Summer Weather Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Isticmaal daahyada daaqada &lt;b&gt;si aad ugu dabooshid daaqadaha si aad ugu hawada qabow ugu haysid gudaha&lt;/b&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Tixgeli iibsashada qalabka qaboojiyaha&lt;/b&gt; iyo/ama gelinta goomaha cimilada guriga halka hawada kulul ay ka soo gasho.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;DOOQA MIISAANIYADA HOOSE&lt;/b&gt;: Dhiso muujiyayaasha kuleelka (oo isticmaalka u dhaxeeyo daaqadaha iyo goomaha daaqadaha)&amp;#44; sida jaandiga kartoonada la daboolay&amp;#44; si loogu daboolo kartoomada bireed si ay ugu celiso kuleelka banaanka. Riix &lt;a href=http://www.instructables.com/id/Heat-blocking-curtains/ target=_blank&gt;halkaan&lt;/a&gt; oo DIY tilmaaha.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wixii warbixin dheeraad ah ee sida qabow loo ahaado iyo badbaadada madaxa &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/hot-weather.aspx target=_blank&gt;Cimilada Kuleelka&lt;/a&gt; ee Gobolka King bogga.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;2015&amp;#44; Gobolka King wuxuu diiwaaniyay tirada maalmaha ay dhaaftay 90F. &lt;b&gt;Luuliyo 2015 waxay aheyd bisha ugu kulul ee marnaba lagu qoray Gobolka King!&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>text-so</t>
   </si>
 </sst>
 </file>
@@ -14377,13 +15085,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K292"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14392,10 +15100,10 @@
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2"/>
     <col min="8" max="10" width="53.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="21"/>
+    <col min="11" max="12" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14429,8 +15137,11 @@
       <c r="K1" s="20" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="20" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -14461,8 +15172,11 @@
       <c r="K2" s="21" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="21" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -14493,8 +15207,11 @@
       <c r="K3" s="21" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="21" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -14525,12 +15242,15 @@
       <c r="K4" s="21" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="21" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D5" s="3"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -14561,8 +15281,11 @@
       <c r="K6" s="21" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="21" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -14593,8 +15316,11 @@
       <c r="K7" s="21" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="21" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14625,8 +15351,11 @@
       <c r="K8" s="21" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="21" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -14657,8 +15386,11 @@
       <c r="K9" s="21" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="21" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -14689,12 +15421,15 @@
       <c r="K10" s="21" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="21" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -14725,8 +15460,11 @@
       <c r="K12" s="21" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="21" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -14757,8 +15495,11 @@
       <c r="K13" s="21" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="21" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -14789,12 +15530,15 @@
       <c r="K14" s="21" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="21" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -14825,8 +15569,11 @@
       <c r="K16" s="21" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="21" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -14857,8 +15604,11 @@
       <c r="K17" s="20" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="21" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -14889,8 +15639,11 @@
       <c r="K18" s="20" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="21" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -14921,8 +15674,11 @@
       <c r="K19" s="21" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="21" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -14953,8 +15709,11 @@
       <c r="K20" s="21" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="21" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -14985,12 +15744,15 @@
       <c r="K21" s="21" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="21" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -15021,8 +15783,11 @@
       <c r="K23" s="20" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="20" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -15053,8 +15818,11 @@
       <c r="K24" s="21" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="21" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -15085,8 +15853,11 @@
       <c r="K25" s="21" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="21" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -15117,8 +15888,11 @@
       <c r="K26" s="21" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="21" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -15149,8 +15923,11 @@
       <c r="K27" s="21" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="21" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -15181,8 +15958,11 @@
       <c r="K28" s="21" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="21" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -15213,8 +15993,11 @@
       <c r="K29" s="21" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="21" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -15245,8 +16028,11 @@
       <c r="K30" s="21" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="21" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -15277,12 +16063,15 @@
       <c r="K31" s="21" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="21" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D32" s="3"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -15313,8 +16102,11 @@
       <c r="K33" s="21" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="21" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -15345,8 +16137,11 @@
       <c r="K34" s="21" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="21" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -15377,8 +16172,11 @@
       <c r="K35" s="21" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="21" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -15409,8 +16207,11 @@
       <c r="K36" s="21" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="21" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -15441,12 +16242,15 @@
       <c r="K37" s="21" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="21" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D38" s="3"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -15477,12 +16281,15 @@
       <c r="K39" s="21" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="21" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D40" s="3"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -15510,8 +16317,11 @@
       <c r="K41" s="21" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="21" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -15539,8 +16349,11 @@
       <c r="K42" s="21" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="21" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -15568,12 +16381,15 @@
       <c r="K43" s="20" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="20" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D44" s="3"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -15601,8 +16417,11 @@
       <c r="K45" s="1" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -15630,8 +16449,11 @@
       <c r="K46" s="1" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -15659,8 +16481,11 @@
       <c r="K47" s="1" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -15688,8 +16513,11 @@
       <c r="K48" s="1" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -15717,8 +16545,11 @@
       <c r="K49" s="1" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -15746,8 +16577,11 @@
       <c r="K50" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -15775,8 +16609,11 @@
       <c r="K51" s="1" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -15804,8 +16641,11 @@
       <c r="K52" s="1" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -15833,8 +16673,11 @@
       <c r="K53" s="1" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L53" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -15862,8 +16705,11 @@
       <c r="K54" s="1" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -15891,8 +16737,11 @@
       <c r="K55" s="1" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -15920,8 +16769,11 @@
       <c r="K56" s="1" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -15949,8 +16801,11 @@
       <c r="K57" s="1" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -15978,8 +16833,11 @@
       <c r="K58" s="1" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -16007,8 +16865,11 @@
       <c r="K59" s="1" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -16036,8 +16897,11 @@
       <c r="K60" s="1" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>47</v>
       </c>
@@ -16065,8 +16929,11 @@
       <c r="K61" s="1" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>47</v>
       </c>
@@ -16094,8 +16961,11 @@
       <c r="K62" s="1" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -16123,8 +16993,11 @@
       <c r="K63" s="1" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -16152,8 +17025,11 @@
       <c r="K64" s="1" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -16181,8 +17057,11 @@
       <c r="K65" s="1" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -16210,8 +17089,11 @@
       <c r="K66" s="1" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -16239,8 +17121,11 @@
       <c r="K67" s="1" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -16268,8 +17153,11 @@
       <c r="K68" s="1" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -16297,8 +17185,11 @@
       <c r="K69" s="1" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -16326,8 +17217,11 @@
       <c r="K70" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -16355,8 +17249,11 @@
       <c r="K71" s="1" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -16384,8 +17281,11 @@
       <c r="K72" s="1" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -16413,8 +17313,11 @@
       <c r="K73" s="1" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>47</v>
       </c>
@@ -16442,8 +17345,11 @@
       <c r="K74" s="1" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -16471,8 +17377,11 @@
       <c r="K75" s="1" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -16500,8 +17409,11 @@
       <c r="K76" s="1" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -16529,8 +17441,11 @@
       <c r="K77" s="1" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -16558,8 +17473,11 @@
       <c r="K78" s="1" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -16587,8 +17505,11 @@
       <c r="K79" s="1" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>47</v>
       </c>
@@ -16616,8 +17537,11 @@
       <c r="K80" s="1" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>47</v>
       </c>
@@ -16645,8 +17569,11 @@
       <c r="K81" s="1" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>47</v>
       </c>
@@ -16674,8 +17601,11 @@
       <c r="K82" s="1" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -16703,8 +17633,11 @@
       <c r="K83" s="1" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -16732,8 +17665,11 @@
       <c r="K84" s="1" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>47</v>
       </c>
@@ -16761,8 +17697,11 @@
       <c r="K85" s="1" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>47</v>
       </c>
@@ -16790,8 +17729,11 @@
       <c r="K86" s="1" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -16819,8 +17761,11 @@
       <c r="K87" s="1" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -16848,8 +17793,11 @@
       <c r="K88" s="1" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>47</v>
       </c>
@@ -16877,8 +17825,11 @@
       <c r="K89" s="1" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>47</v>
       </c>
@@ -16906,8 +17857,11 @@
       <c r="K90" s="1" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>47</v>
       </c>
@@ -16935,8 +17889,11 @@
       <c r="K91" s="1" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>47</v>
       </c>
@@ -16964,8 +17921,11 @@
       <c r="K92" s="1" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>47</v>
       </c>
@@ -16993,8 +17953,11 @@
       <c r="K93" s="1" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>47</v>
       </c>
@@ -17022,8 +17985,11 @@
       <c r="K94" s="1" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>47</v>
       </c>
@@ -17051,8 +18017,11 @@
       <c r="K95" s="1" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -17080,8 +18049,11 @@
       <c r="K96" s="1" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -17109,8 +18081,11 @@
       <c r="K97" s="1" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -17138,8 +18113,11 @@
       <c r="K98" s="1" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>47</v>
       </c>
@@ -17167,8 +18145,11 @@
       <c r="K99" s="1" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>47</v>
       </c>
@@ -17196,8 +18177,11 @@
       <c r="K100" s="1" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>47</v>
       </c>
@@ -17225,8 +18209,11 @@
       <c r="K101" s="1" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -17254,8 +18241,11 @@
       <c r="K102" s="1" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L102" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>47</v>
       </c>
@@ -17283,8 +18273,11 @@
       <c r="K103" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>47</v>
       </c>
@@ -17312,8 +18305,11 @@
       <c r="K104" s="1" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L104" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -17341,8 +18337,11 @@
       <c r="K105" s="1" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -17370,8 +18369,11 @@
       <c r="K106" s="1" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>47</v>
       </c>
@@ -17399,8 +18401,11 @@
       <c r="K107" s="1" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L107" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>47</v>
       </c>
@@ -17428,8 +18433,11 @@
       <c r="K108" s="1" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L108" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>47</v>
       </c>
@@ -17457,12 +18465,15 @@
       <c r="K109" s="1" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L109" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D110" s="3"/>
       <c r="I110" s="8"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>53</v>
       </c>
@@ -17490,22 +18501,27 @@
       <c r="K111" s="21" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L111" s="21" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E112" s="13"/>
       <c r="H112" s="14"/>
       <c r="I112" s="16"/>
       <c r="J112" s="14"/>
       <c r="K112" s="21"/>
-    </row>
-    <row r="113" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L112" s="21"/>
+    </row>
+    <row r="113" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E113" s="13"/>
       <c r="H113" s="14"/>
       <c r="I113" s="16"/>
       <c r="J113" s="14"/>
       <c r="K113" s="21"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L113" s="21"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -17536,8 +18552,11 @@
       <c r="K114" s="21" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L114" s="21" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -17568,8 +18587,11 @@
       <c r="K115" s="21" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L115" s="21" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -17600,8 +18622,11 @@
       <c r="K116" s="21" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L116" s="21" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -17632,8 +18657,11 @@
       <c r="K117" s="21" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L117" s="21" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -17664,8 +18692,11 @@
       <c r="K118" s="21" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L118" s="21" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -17696,8 +18727,11 @@
       <c r="K119" s="21" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L119" s="21" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -17728,8 +18762,11 @@
       <c r="K120" s="21" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L120" s="21" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -17760,12 +18797,15 @@
       <c r="K121" s="21" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L121" s="21" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D122" s="4"/>
       <c r="I122" s="8"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -17796,8 +18836,11 @@
       <c r="K123" s="21" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L123" s="21" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -17828,8 +18871,11 @@
       <c r="K124" s="21" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L124" s="21" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -17860,8 +18906,11 @@
       <c r="K125" s="21" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L125" s="21" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -17892,8 +18941,11 @@
       <c r="K126" s="21" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L126" s="21" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -17924,8 +18976,11 @@
       <c r="K127" s="21" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L127" s="21" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -17956,8 +19011,11 @@
       <c r="K128" s="21" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L128" s="21" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -17988,8 +19046,11 @@
       <c r="K129" s="21" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L129" s="21" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -18020,12 +19081,15 @@
       <c r="K130" s="21" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L130" s="21" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D131" s="4"/>
       <c r="I131" s="8"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -18056,8 +19120,11 @@
       <c r="K132" s="21" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L132" s="21" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -18088,8 +19155,11 @@
       <c r="K133" s="21" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L133" s="21" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -18120,8 +19190,11 @@
       <c r="K134" s="21" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L134" s="21" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -18152,8 +19225,11 @@
       <c r="K135" s="21" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L135" s="21" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -18184,8 +19260,11 @@
       <c r="K136" s="21" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L136" s="21" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -18216,8 +19295,11 @@
       <c r="K137" s="21" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L137" s="21" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -18248,8 +19330,11 @@
       <c r="K138" s="21" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L138" s="21" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -18280,8 +19365,11 @@
       <c r="K139" s="21" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L139" s="21" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -18312,8 +19400,11 @@
       <c r="K140" s="21" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L140" s="21" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -18344,8 +19435,11 @@
       <c r="K141" s="21" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L141" s="21" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -18376,8 +19470,11 @@
       <c r="K142" s="21" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L142" s="21" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -18408,8 +19505,11 @@
       <c r="K143" s="21" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L143" s="21" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -18440,8 +19540,11 @@
       <c r="K144" s="21" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L144" s="21" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -18472,8 +19575,11 @@
       <c r="K145" s="21" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L145" s="21" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -18504,12 +19610,15 @@
       <c r="K146" s="21" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L146" s="21" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D147" s="4"/>
       <c r="I147" s="8"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -18540,8 +19649,11 @@
       <c r="K148" s="21" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L148" s="21" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -18572,8 +19684,11 @@
       <c r="K149" s="21" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L149" s="21" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -18604,8 +19719,11 @@
       <c r="K150" s="21" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L150" s="21" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -18636,8 +19754,11 @@
       <c r="K151" s="21" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L151" s="21" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -18668,12 +19789,15 @@
       <c r="K152" s="21" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L152" s="21" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D153" s="4"/>
       <c r="I153" s="8"/>
     </row>
-    <row r="154" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>7</v>
       </c>
@@ -18701,12 +19825,15 @@
       <c r="K154" s="21" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L154" s="21" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D155" s="4"/>
       <c r="I155" s="8"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -18737,12 +19864,15 @@
       <c r="K156" s="20" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L156" s="20" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D157" s="4"/>
       <c r="I157" s="8"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>47</v>
       </c>
@@ -18770,8 +19900,11 @@
       <c r="K158" s="20" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L158" s="21" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>47</v>
       </c>
@@ -18799,8 +19932,11 @@
       <c r="K159" s="20" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L159" s="20" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>47</v>
       </c>
@@ -18828,12 +19964,15 @@
       <c r="K160" s="20" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L160" s="20" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D161" s="4"/>
       <c r="I161" s="8"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>47</v>
       </c>
@@ -18864,8 +20003,11 @@
       <c r="K162" s="1" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L162" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>47</v>
       </c>
@@ -18896,8 +20038,11 @@
       <c r="K163" s="1" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L163" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>47</v>
       </c>
@@ -18928,8 +20073,11 @@
       <c r="K164" s="1" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L164" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>47</v>
       </c>
@@ -18960,8 +20108,11 @@
       <c r="K165" s="1" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L165" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -18992,8 +20143,11 @@
       <c r="K166" s="1" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L166" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>47</v>
       </c>
@@ -19024,8 +20178,11 @@
       <c r="K167" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L167" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>47</v>
       </c>
@@ -19056,8 +20213,11 @@
       <c r="K168" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L168" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>47</v>
       </c>
@@ -19088,8 +20248,11 @@
       <c r="K169" s="1" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L169" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>47</v>
       </c>
@@ -19120,8 +20283,11 @@
       <c r="K170" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L170" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>47</v>
       </c>
@@ -19152,8 +20318,11 @@
       <c r="K171" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L171" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>47</v>
       </c>
@@ -19184,8 +20353,11 @@
       <c r="K172" s="1" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L172" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>47</v>
       </c>
@@ -19216,8 +20388,11 @@
       <c r="K173" s="1" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L173" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>47</v>
       </c>
@@ -19248,8 +20423,11 @@
       <c r="K174" s="1" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L174" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>47</v>
       </c>
@@ -19280,8 +20458,11 @@
       <c r="K175" s="1" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L175" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>47</v>
       </c>
@@ -19312,12 +20493,15 @@
       <c r="K176" s="1" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L176" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D177" s="4"/>
       <c r="I177" s="8"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>53</v>
       </c>
@@ -19345,22 +20529,27 @@
       <c r="K178" s="21" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L178" s="21" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E179" s="13"/>
       <c r="H179" s="14"/>
       <c r="I179" s="16"/>
       <c r="J179" s="14"/>
       <c r="K179" s="21"/>
-    </row>
-    <row r="180" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L179" s="21"/>
+    </row>
+    <row r="180" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E180" s="13"/>
       <c r="H180" s="14"/>
       <c r="I180" s="16"/>
       <c r="J180" s="14"/>
       <c r="K180" s="21"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L180" s="21"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -19391,8 +20580,11 @@
       <c r="K181" s="18" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L181" s="18" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -19423,8 +20615,11 @@
       <c r="K182" s="18" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L182" s="18" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -19455,8 +20650,11 @@
       <c r="K183" s="18" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L183" s="18" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -19487,8 +20685,11 @@
       <c r="K184" s="18" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L184" s="18" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -19519,8 +20720,11 @@
       <c r="K185" s="18" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L185" s="18" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -19551,8 +20755,11 @@
       <c r="K186" s="18" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L186" s="18" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -19583,8 +20790,11 @@
       <c r="K187" s="18" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L187" s="18" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -19615,8 +20825,11 @@
       <c r="K188" s="18" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L188" s="18" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -19647,8 +20860,11 @@
       <c r="K189" s="18" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L189" s="18" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C190" s="8"/>
       <c r="D190" s="15"/>
       <c r="E190"/>
@@ -19657,7 +20873,7 @@
       <c r="I190" s="8"/>
       <c r="J190" s="18"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -19688,8 +20904,11 @@
       <c r="K191" s="1" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L191" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -19720,8 +20939,11 @@
       <c r="K192" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L192" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -19752,8 +20974,11 @@
       <c r="K193" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L193" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -19784,8 +21009,11 @@
       <c r="K194" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L194" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -19816,8 +21044,11 @@
       <c r="K195" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L195" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -19848,8 +21079,11 @@
       <c r="K196" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L196" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -19880,8 +21114,11 @@
       <c r="K197" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L197" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -19912,8 +21149,11 @@
       <c r="K198" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L198" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -19944,14 +21184,17 @@
       <c r="K199" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L199" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C200" s="8"/>
       <c r="D200" s="15"/>
       <c r="E200"/>
       <c r="I200" s="8"/>
     </row>
-    <row r="201" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
         <v>7</v>
       </c>
@@ -19979,14 +21222,17 @@
       <c r="K201" s="21" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L201" s="21" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="D202" s="5"/>
       <c r="I202" s="8"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -20017,12 +21263,15 @@
       <c r="K203" s="20" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L203" s="20" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D204" s="5"/>
       <c r="I204" s="8"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>47</v>
       </c>
@@ -20050,8 +21299,11 @@
       <c r="K205" s="20" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L205" s="20" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>47</v>
       </c>
@@ -20079,8 +21331,11 @@
       <c r="K206" s="20" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L206" s="21" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>47</v>
       </c>
@@ -20108,8 +21363,11 @@
       <c r="K207" s="21" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L207" s="21" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>47</v>
       </c>
@@ -20137,12 +21395,15 @@
       <c r="K208" s="21" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L208" s="21" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D209" s="5"/>
       <c r="I209" s="8"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>53</v>
       </c>
@@ -20170,8 +21431,11 @@
       <c r="K210" s="21" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L210" s="21" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>53</v>
       </c>
@@ -20199,8 +21463,11 @@
       <c r="K211" s="21" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L211" s="21" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>53</v>
       </c>
@@ -20228,8 +21495,11 @@
       <c r="K212" s="21" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L212" s="21" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>53</v>
       </c>
@@ -20257,8 +21527,11 @@
       <c r="K213" s="21" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L213" s="21" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>53</v>
       </c>
@@ -20286,8 +21559,11 @@
       <c r="K214" s="20" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L214" s="21" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>53</v>
       </c>
@@ -20315,8 +21591,11 @@
       <c r="K215" s="20" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L215" s="21" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>53</v>
       </c>
@@ -20344,8 +21623,11 @@
       <c r="K216" s="21" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L216" s="21" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>53</v>
       </c>
@@ -20373,8 +21655,11 @@
       <c r="K217" s="21" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L217" s="21" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -20402,8 +21687,11 @@
       <c r="K218" s="21" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L218" s="21" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>53</v>
       </c>
@@ -20431,22 +21719,27 @@
       <c r="K219" s="20" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L219" s="21" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E220" s="13"/>
       <c r="H220" s="14"/>
       <c r="I220" s="16"/>
       <c r="J220" s="14"/>
       <c r="K220" s="21"/>
-    </row>
-    <row r="221" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L220" s="21"/>
+    </row>
+    <row r="221" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E221" s="13"/>
       <c r="H221" s="14"/>
       <c r="I221" s="16"/>
       <c r="J221" s="14"/>
       <c r="K221" s="21"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L221" s="21"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -20477,8 +21770,11 @@
       <c r="K222" s="20" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L222" s="21" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -20509,8 +21805,11 @@
       <c r="K223" s="21" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L223" s="21" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -20541,8 +21840,11 @@
       <c r="K224" s="21" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L224" s="21" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -20573,8 +21875,11 @@
       <c r="K225" s="20" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L225" s="21" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -20605,12 +21910,15 @@
       <c r="K226" s="20" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L226" s="21" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D227" s="6"/>
       <c r="I227" s="8"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -20641,8 +21949,11 @@
       <c r="K228" s="20" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L228" s="21" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -20673,8 +21984,11 @@
       <c r="K229" s="21" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L229" s="21" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -20705,8 +22019,11 @@
       <c r="K230" s="20" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L230" s="21" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -20737,12 +22054,15 @@
       <c r="K231" s="20" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L231" s="21" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D232" s="6"/>
       <c r="I232" s="8"/>
     </row>
-    <row r="233" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
         <v>7</v>
       </c>
@@ -20770,12 +22090,15 @@
       <c r="K233" s="21" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L233" s="21" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D234" s="6"/>
       <c r="I234" s="8"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -20803,12 +22126,15 @@
       <c r="K235" s="21" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L235" s="21" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D236" s="6"/>
       <c r="I236" s="8"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>47</v>
       </c>
@@ -20833,8 +22159,11 @@
       <c r="K237" s="21" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L237" s="21" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>47</v>
       </c>
@@ -20859,8 +22188,11 @@
       <c r="K238" s="21" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L238" s="21" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>47</v>
       </c>
@@ -20885,12 +22217,15 @@
       <c r="K239" s="21" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L239" s="21" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D240" s="6"/>
       <c r="I240" s="8"/>
     </row>
-    <row r="241" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>47</v>
       </c>
@@ -20915,12 +22250,15 @@
       <c r="K241" s="21" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L241" s="21" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D242" s="6"/>
       <c r="I242" s="8"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>53</v>
       </c>
@@ -20945,22 +22283,27 @@
       <c r="K243" s="21" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L243" s="21" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E244" s="13"/>
       <c r="H244" s="14"/>
       <c r="I244" s="14"/>
       <c r="J244" s="14"/>
       <c r="K244" s="14"/>
-    </row>
-    <row r="245" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L244" s="14"/>
+    </row>
+    <row r="245" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E245" s="13"/>
       <c r="H245" s="14"/>
       <c r="I245" s="14"/>
       <c r="J245" s="14"/>
       <c r="K245" s="14"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L245" s="14"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -20991,12 +22334,16 @@
       <c r="K246" s="1" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L246" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D247" s="7"/>
       <c r="K247" s="1"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L247" s="1"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -21027,8 +22374,11 @@
       <c r="K248" s="1" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L248" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -21059,8 +22409,11 @@
       <c r="K249" s="1" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L249" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -21091,8 +22444,11 @@
       <c r="K250" s="1" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L250" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -21123,12 +22479,16 @@
       <c r="K251" s="1" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L251" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D252" s="7"/>
       <c r="K252" s="1"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L252" s="1"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -21159,12 +22519,16 @@
       <c r="K253" s="1" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L253" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D254" s="7"/>
       <c r="K254" s="1"/>
-    </row>
-    <row r="255" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L254" s="1"/>
+    </row>
+    <row r="255" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>47</v>
       </c>
@@ -21192,8 +22556,11 @@
       <c r="K255" s="1" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L255" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>47</v>
       </c>
@@ -21221,8 +22588,11 @@
       <c r="K256" s="1" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L256" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>47</v>
       </c>
@@ -21250,8 +22620,11 @@
       <c r="K257" s="1" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L257" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>47</v>
       </c>
@@ -21279,12 +22652,16 @@
       <c r="K258" s="1" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L258" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D259" s="7"/>
       <c r="K259" s="1"/>
-    </row>
-    <row r="260" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L259" s="1"/>
+    </row>
+    <row r="260" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>53</v>
       </c>
@@ -21312,22 +22689,27 @@
       <c r="K260" s="1" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L260" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E261" s="13"/>
       <c r="H261" s="14"/>
       <c r="I261" s="14"/>
       <c r="J261" s="14"/>
       <c r="K261" s="14"/>
-    </row>
-    <row r="262" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L261" s="14"/>
+    </row>
+    <row r="262" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E262" s="13"/>
       <c r="H262" s="14"/>
       <c r="I262" s="14"/>
       <c r="J262" s="14"/>
       <c r="K262" s="14"/>
-    </row>
-    <row r="263" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L262" s="14"/>
+    </row>
+    <row r="263" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -21355,11 +22737,15 @@
       <c r="K263" s="1" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L263" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D264" s="9"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L264" s="1"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -21387,12 +22773,16 @@
       <c r="K265" s="1" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L265" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D266" s="9"/>
       <c r="K266" s="1"/>
-    </row>
-    <row r="267" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L266" s="1"/>
+    </row>
+    <row r="267" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
         <v>7</v>
       </c>
@@ -21420,14 +22810,18 @@
       <c r="K267" s="1" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L267" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="D268" s="9"/>
       <c r="K268" s="1"/>
-    </row>
-    <row r="269" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L268" s="1"/>
+    </row>
+    <row r="269" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -21455,12 +22849,16 @@
       <c r="K269" s="1" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L269" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D270" s="9"/>
       <c r="K270" s="1"/>
-    </row>
-    <row r="271" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L270" s="1"/>
+    </row>
+    <row r="271" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>47</v>
       </c>
@@ -21485,8 +22883,11 @@
       <c r="K271" s="1" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L271" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>47</v>
       </c>
@@ -21511,8 +22912,11 @@
       <c r="K272" s="1" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L272" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>47</v>
       </c>
@@ -21537,8 +22941,11 @@
       <c r="K273" s="1" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L273" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>47</v>
       </c>
@@ -21563,12 +22970,16 @@
       <c r="K274" s="1" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L274" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D275" s="9"/>
       <c r="K275" s="1"/>
-    </row>
-    <row r="276" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L275" s="1"/>
+    </row>
+    <row r="276" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>53</v>
       </c>
@@ -21593,22 +23004,27 @@
       <c r="K276" s="1" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L276" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E277" s="13"/>
       <c r="H277" s="14"/>
       <c r="I277" s="14"/>
       <c r="J277" s="14"/>
       <c r="K277" s="14"/>
-    </row>
-    <row r="278" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L277" s="14"/>
+    </row>
+    <row r="278" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E278" s="13"/>
       <c r="H278" s="14"/>
       <c r="I278" s="14"/>
       <c r="J278" s="14"/>
       <c r="K278" s="14"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L278" s="14"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -21636,12 +23052,16 @@
       <c r="K279" s="1" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L279" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D280" s="10"/>
       <c r="K280" s="1"/>
-    </row>
-    <row r="281" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L280" s="1"/>
+    </row>
+    <row r="281" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -21669,12 +23089,16 @@
       <c r="K281" s="1" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L281" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D282" s="10"/>
       <c r="K282" s="1"/>
-    </row>
-    <row r="283" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L282" s="1"/>
+    </row>
+    <row r="283" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -21702,12 +23126,16 @@
       <c r="K283" s="1" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L283" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D284" s="10"/>
       <c r="K284" s="1"/>
-    </row>
-    <row r="285" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L284" s="1"/>
+    </row>
+    <row r="285" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -21735,12 +23163,16 @@
       <c r="K285" s="1" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L285" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D286" s="10"/>
       <c r="K286" s="1"/>
-    </row>
-    <row r="287" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L286" s="1"/>
+    </row>
+    <row r="287" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>47</v>
       </c>
@@ -21765,8 +23197,11 @@
       <c r="K287" s="1" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L287" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>47</v>
       </c>
@@ -21791,8 +23226,11 @@
       <c r="K288" s="1" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L288" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>47</v>
       </c>
@@ -21817,8 +23255,11 @@
       <c r="K289" s="1" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L289" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>47</v>
       </c>
@@ -21843,12 +23284,16 @@
       <c r="K290" s="1" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L290" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D291" s="10"/>
       <c r="K291" s="1"/>
-    </row>
-    <row r="292" spans="1:11" ht="19" x14ac:dyDescent="0.3">
+      <c r="L291" s="1"/>
+    </row>
+    <row r="292" spans="1:12" ht="19" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>53</v>
       </c>
@@ -21872,6 +23317,9 @@
       </c>
       <c r="K292" s="1" t="s">
         <v>1008</v>
+      </c>
+      <c r="L292" s="1" t="s">
+        <v>1223</v>
       </c>
     </row>
   </sheetData>

--- a/disasterinfosite/data/snuggets.xlsx
+++ b/disasterinfosite/data/snuggets.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="1443">
   <si>
     <t>section</t>
   </si>
@@ -13211,12 +13211,729 @@
   <si>
     <t>text-so</t>
   </si>
+  <si>
+    <t>&lt;p&gt;Có &lt;b&gt;KHẢ NĂNG CAO&lt;/b&gt; (84%) là sẽ có một trận động đất có cường độ 6.5+ xảy ra trong 50 năm tới. Nó sẽ có cảm giác tương tự như trận động đất Nisqually M6.8 xảy ra vào năm 2001. Gần như tất cả mọi người ở đây đều cảm nhận được rung chấn trung bình. &lt;b&gt;Cửa sẽ đu đưa&amp;#44; tranh treo trên tường sẽ rung lắc và các đồ vật nhỏ có thể rơi xuống. Thiệt hại nhẹ.&lt;/b&gt;  &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Có &lt;b&gt;KHẢ NĂNG CAO&lt;/b&gt; (84%) là sẽ có một trận động đất có cường độ 6.5+ xảy ra trong 50 năm tới. Nó sẽ có cảm giác tương tự như trận động đất Nisqually M6.8 xảy ra vào năm 2001. &lt;b&gt;Rung chấn mạnh sẽ khiến việc đi bộ tại đây trở nên khó khăn. Sách vở&amp;#44; đồ thuỷ tinh và các đồ vật sẽ rơi từ trên giá xuống. Cửa tủ và ngăn kéo sẽ bị mở tung&lt;/b&gt;. Một số ống khói và công trình xây dựng yếu kém sẽ bị hư hại. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Có &lt;b&gt;KHẢ NĂNG CAO&lt;/b&gt; (84%) là sẽ có một trận động đất có cường độ 6.5+ xảy ra trong 50 năm tới. Nó sẽ có cảm giác tương tự như trận động đất Nisqually M6.8 xảy ra vào năm 2001. &lt;b&gt;Rung chấn cực mạnh sẽ khiến việc đứng vững trở nên khó khăn. Đồ nội thất sẽ di chuyển và nhiều đồ vật sẽ rơi từ trên giá sách xuống.&lt;/b&gt; Các công trình xây dựng yếu kém sẽ bị hư hại nặng nề và các công trình bình thường sẽ bị hư hại ở mức trung bình. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Nisqually.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Có &lt;b&gt;KHẢ NĂNG THẤP&lt;/b&gt; (5%) là sẽ có một trận động đất với cường độ 7+ xảy ra tại Phay Seattle trong 50 năm tới&amp;#44; nhưng nếu nó xảy ra&amp;#44; sức tàn phá sẽ rất lớn. &lt;b&gt;Gần như tất cả mọi người sẽ cảm nhận được rung chấn vừa phải. Cửa sẽ đu đưa&amp;#44; tranh treo trên tường sẽ rung lắc và các đồ vật nhỏ có thể rơi xuống. Thiệt hại nhẹ.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Có &lt;b&gt;KHẢ NĂNG THẤP&lt;/b&gt; (5%) là sẽ có một trận động đất với cường độ 7+ xảy ra tại Phay Seattle trong 50 năm tới&amp;#44; nhưng nếu nó xảy ra&amp;#44; sức tàn phá sẽ rất lớn. Rung chấn mạnh sẽ khiến việc đi bộ khó khăn. &lt;b&gt;Sách vở&amp;#44; đồ thuỷ tinh và các đồ vật sẽ rơi từ trên giá xuống. Một số ống khói và công trình xây dựng yếu kém sẽ bị hư hại.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Có &lt;b&gt;KHẢ NĂNG THẤP&lt;/b&gt; (5%) là sẽ có một trận động đất với cường độ 7+ xảy ra tại Phay Seattle trong 50 năm tới&amp;#44; nhưng nếu nó xảy ra&amp;#44; sức tàn phá sẽ rất lớn. &lt;b&gt;Rung chấn mạnh sẽ khiến việc đứng vững trở nên khó khăn. Đồ nội thất sẽ di chuyển và đồ vật sẽ bị rơi&lt;/b&gt;. Các công trình xây dựng yếu kém sẽ bị hư hại nặng và các công trình bình thường sẽ bị hư hại ở mức trung bình. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(bản đồ) &lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Có &lt;b&gt;KHẢ NĂNG THẤP&lt;/b&gt; (5%) là sẽ có một trận động đất với cường độ 7+ xảy ra tại Phay Seattle trong 50 năm tới&amp;#44; nhưng nếu nó xảy ra&amp;#44; sức tàn phá sẽ rất lớn. &lt;b&gt;Rung chấn nghiêm trọng sẽ khiến việc đứng vững hay lái xe trở nên khó khăn. Các đồ nội thất nặng sẽ bị xáo trộn. Các phần của những công trình &lt;a href="http://www.seattle.gov/dpd/codesrules/changestocode/unreinforcedmasonrybuildings/whatwhy/" target=_blank&gt;URM&lt;/a&gt; sẽ sập và những ngôi nhà có khung gỗ sẽ dịch chuyển trên móng&lt;/b&gt;. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Có &lt;b&gt;KHẢ NĂNG THẤP&lt;/b&gt; (5%) là sẽ có một trận động đất với cường độ 7+ xảy ra tại Phay Seattle trong 50 năm tới&amp;#44; nhưng nếu nó xảy ra&amp;#44; sức tàn phá sẽ rất lớn. &lt;b&gt;Rung chấn mãnh liệt sẽ gây hoảng loạn trên diện rộng và các vết nứt có thể hình thành trên mặt đất. Sạt lở đất sẽ xảy ra trên các sườn núi dốc và hiện tượng hoá lỏng đất sẽ xảy ra đối với đất bão hoà.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target=_blank&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct" title="Seattle Viaduct Visualization Screen Grab"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Có &lt;b&gt;KHẢ NĂNG TRUNG BÌNH&lt;/b&gt; (10-30%) là sẽ có một trận động đất Cascadia với cường độ 8+ xảy ra tại khu vực Tây Bắc trong 50 năm tới. &lt;b&gt;Khi một trận động đất như vậy xảy ra&amp;#44; bạn sẽ cảm thấy rung chấn trung bình kéo dài trong nhiều phút tại đây. Các đồ vật không được cố định sẽ rơi từ trên giá xuống. Cửa tủ có thể va đập đóng&amp;#44; mở liên tục.&lt;/b&gt; Có thể bị mất điện và nước trong vài ngày cho tới vài tuần. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Có &lt;b&gt;KHẢ NĂNG TRUNG BÌNH&lt;b&gt; (10-30%) là sẽ có một trận động đất Cascadia với cường độ 8+ xảy ra tại khu vực Tây Bắc trong 50 năm tới. &lt;b&gt;Khi một trận động đất như vậy xảy ra&amp;#44; bạn sẽ cảm thấy sự rung lắc mạnh kéo dài trong nhiều phút. Việc đi bộ sẽ trở nên khó khăn. Nhiều công trình xây dựng không có cốt thép sẽ bị hư hại và con người có thể bị thương&lt;/b&gt;. Sẽ mất điện và nước trong vài ngày cho tới vài tuần. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Có &lt;b&gt;KHẢ NĂNG TRUNG BÌNH&lt;/b&gt; (10-30%) là sẽ có một trận động đất Cascadia với cường độ 8+ xảy ra tại khu vực Tây Bắc trong 50 năm tới. &lt;b&gt;Khi một trận động đất như vậy xảy ra&amp;#44; bạn sẽ cảm thấy rung chấn cực mạnh kéo dài trong nhiều phút tại đây. Khó có thể đứng vững được và nhiều người sẽ bị thương. Gạch và mảnh vụn thuỷ tinh sẽ rơi đầy đường.&lt;/b&gt; Sẽ mất điện và nước trong vài ngày cho tới vài tuần. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Bạn sống tại khu vực &lt;b&gt;có nguy cơ xảy ra sóng thần CAO&lt;/b&gt;. Mực nước sẽ dâng cao trên đầu bạn trong vài phút hoặc vài chục phút sau khi động đất xảy ra. Khi rung chấn ngừng&amp;#44; NGAY LẬP TỨC DI TẢN lên vùng đất cao. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Bạn sống tại khu vực &lt;b&gt;có nguy cơ xảy ra sóng thần CAO&lt;/b&gt;. Mực nước sẽ dâng cao trên đầu gối cho tới đầu bạn trong vài phút hoặc vài chục phút sau khi động đất xảy ra. Khi rung chấn ngừng&amp;#44; NGAY LẬP TỨC DI TẢN lên vùng đất cao. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Bạn sống tại &lt;b&gt;khu vực có nguy cơ xảy ra sóng thần CAO&lt;/b&gt;. Mực nước sẽ dâng lên tới đầu gối bạn với tốc độ dòng nước nhanh đến mức có thể quật ngã bạn. Bạn có vài phút tới vài chục phút để DI TẢN đến vùng đất cao. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Bạn sống ngoài khu vực được đánh dấu trên bản đồ là có nguy cơ cao xảy ra sóng thần&lt;/b&gt;&amp;#44; nhưng những con sóng thần có thể thiên biến vạn hoá. Bạn sống hoặc làm việc tại khu vực có độ cao thấp (trong vòng 30 ft so với mặt nước biển) gần biển phải không? Nếu đúng vậy&amp;#44; NGAY LẬP TỨC DI TẢN tới vùng đất cao sau khi trận động đất lớn xảy ra. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Bạn sống chỉ cách bờ biển một phần tư dặm&lt;/b&gt;. Nếu bạn sống tại khu vực có độ cao thấp (trong vòng 30 ft so với mặt nước biển)&amp;#44; thì bạn có nguy cơ bị sóng thần tấn công sau khi một trận động đất xảy ra gần đó. Ngay lập tức tìm kiếm vùng đất cao. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Nếu bạn đang ở trên thuyền trong một trận động đất&amp;#44; bạn có thể thấy một cơn sóng thần di chuyển với tốc độ nhanh chóng. Đưa ra hành động theo đó. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khả năng: CAO&lt;/b&gt;&lt;br&gt;Đất khi rung lắc sẽ trở nên rất không ổn định và hoạt động giống cát lún. Nước chứa đầy cát sẽ dâng lên qua các vết nức trên đường phố. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khả năng: TRUNG BÌNH - CAO&lt;/b&gt;&lt;br&gt;Đất khi rung lắc sẽ trở nên không ổn định. Hiện tượng này sẽ làm giảm khả năng của đất trong việc giữ nhà cửa&amp;#44; phương tiện và các cấu trúc khác. Nước chứa đầy cát sẽ dâng lên qua các vết nức trên đường phố. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khả năng: THẤP - TRUNG BÌNH&lt;/b&gt;&lt;br&gt;Hiện tượng hoá lỏng đất có khả năng sẽ xảy ra tại đây. Việc rung lắc có thể khiến đất trở nên không ổn định. Các con đường có thể rạn nứt và bị hư hại. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khả năng: THẤP&lt;/b&gt;&lt;br&gt;Trừ khi rung chấn có cường độ mạnh&amp;#44; nếu không có rất ít khả năng xảy ra hiện tượng hoá lỏng đất tại đây. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khả năng: RẤT THẤP - THẤP&lt;/b&gt;&lt;br&gt;Trừ khi rung chấn có cường độ rất mạnh&amp;#44; nếu không có rất ít khả năng xảy ra hiện tượng hoá lỏng đất tại đây. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khả năng: RẤT THẤP&lt;/b&gt;&lt;br&gt;Trừ khi rung chấn có cường độ rất mạnh&amp;#44; nếu không có rất ít khả năng xảy ra hiện tượng hoá lỏng đất tại đây. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khả năng: KHÔNG&lt;/b&gt;&lt;br&gt;Khu vực này nằm trên vùng đá gốc&amp;#44; đá cứng nằm dưới lớp đất và trầm tích. Khu vực này sẽ không xảy ra hiện tượng hoá lỏng đất. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khả năng: KHÔNG&lt;/b&gt;&lt;br&gt;Khu vực này nằm trên than bùn&amp;#44; một chất giống như đất có màu đen hình thành từ các vật chất hữu cơ. Đất có thể uốn lượn nhưng không bị hoá lỏng. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khả năng: KHÔNG&lt;/b&gt;&lt;br&gt;Khu vực này hình thành từ băng và sẽ không bị hoá lỏng. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_liquefaction.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;MẬT ĐỘ RẤT THẤP: 0 đến 10 công trình xây dựng không có cốt thép (URM) trên một dặm vuông.&lt;/b&gt;&lt;br&gt;Đối với loại công trình này&amp;#44; rung chấn động đất mạnh có thể khiến các bức tường gạch hoặc mái nhà bị sập. Đống đổ nát vương vãi đầy đường. Xem vị trí của các công trình URM &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;gần bạn nhất&lt;/a&gt; và liệu rằng chúng có được lắp đặt thêm gì mới không. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MẬT ĐỘ THẤP: 10 đến 25 công trình xây dựng không có cốt thép (URM) trên một dặm vuông.&lt;/b&gt;&lt;br&gt;Đối với loại công trình này&amp;#44; rung chấn động đất mạnh có thể khiến các bức tường gạch hoặc mái nhà bị sập. Đống đổ nát vương vãi đầy đường. Xem vị trí của các công trình URM &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;gần bạn nhất&lt;/a&gt; và liệu rằng chúng có được lắp đặt thêm gì mới không. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MẬT ĐỘ TRUNG BÌNH: 25 đến 50 công trình xây dựng không có cốt thép (URM) trên một dặm vuông.&lt;/b&gt;&lt;br&gt;Đối với loại công trình này&amp;#44; rung chấn động đất mạnh có thể khiến các bức tường gạch hoặc mái nhà bị sập. Đống đổ nát vương vãi đầy đường. Xem vị trí của các công trình URM &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;gần bạn nhất&lt;/a&gt; và liệu rằng chúng có được lắp đặt thêm gì mới không. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MẬT ĐỘ CAO: 50 đến 100 công trình xây dựng không có cốt thép (URM) trên một dặm vuông.&lt;/b&gt;&lt;br&gt;Nếu bạn ở trong một công trình URM khi một trận động đất diễn ra&amp;#44; hãy làm theo quy tắc Cúi Thấp&amp;#44; Bảo Vệ Đầu và Cơ Thể&amp;#44; và Bám Chặt. Trong các công trình này&amp;#44; rung lắc động đất mạnh có thể khiến tường gạch và mái nhà bị sập. Đống đổ nát vương vãi đầy đường. Xem vị trí của các công trình URM &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;gần bạn nhất&lt;/a&gt; và liệu rằng chúng có được lắp đặt thêm gì mới không. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MẬT ĐỘ RẤT CAO: 100 đến 250 công trình xây dựng không có cốt thép (URM) trên một dặm vuông.&lt;/b&gt;&lt;br&gt;Nếu bạn ở trong một công trình URM khi một trận động đất diễn ra&amp;#44; hãy làm theo quy tắc Cúi Thấp&amp;#44; Bảo Vệ Đầu và Cơ Thể&amp;#44; và Bám Chặt. Trong các công trình này&amp;#44; rung lắc động đất mạnh có thể khiến tường gạch và mái nhà bị sập. Đống đổ nát vương vãi đầy đường. Xem vị trí của các công trình URM &lt;a href=http://seattlecitygis.maps.arcgis.com/apps/MapSeries/index.html?appid=0489a95dad4e42148dbef571076f9b5b target=_blank&gt;gần bạn nhất&lt;/a&gt; và liệu rằng chúng có được lắp đặt thêm gì mới không. &lt;a href=https://hazardready.org/seattle/static/img/data/Earthquake_URM.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Các nhà khoa học không thể tiên lượng được khi nào thì một trận động đất sẽ xảy ra&amp;#44; vì vậy hãy cảnh giác và nếu bạn cảm nhận thấy có rung lắc&amp;#44; hãy làm theo quy tắc cúi thấp&amp;#44; bảo vệ đầu và cơ thể&amp;#44; và bám chặt. Một hệ thống cảnh báo sớm hiện đang được phát triển cho khu vực Bờ Tây (West Coast). Bạn có thể tìm hiểu thêm &lt;a href=http://earthquake.usgs.gov/research/earlywarning/ target="_blank"&gt;tại đây&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;THỰC HÀNH&lt;/b&gt; - Cảnh giác và thực hành "Cúi Thấp&amp;#44; Bảo Vệ Đầu và Cơ Thể&amp;#44; và Bám Chặt"&lt;/li&gt;&lt;li&gt;&lt;b&gt;KẾ HOẠCH&lt;/b&gt; - Lập một kế hoạch (&lt;a href=http://www.fema.gov/media-library-data/0e3ef555f66e22ab832e284f826c2e9e/FEMA_plan_parent_508_071513.pdf target="_blank"&gt;cho người lớn&lt;/a&gt; &amp;amp; &lt;a href=http://www.fema.gov/media-library-data/a260e5fb242216dc62ae380946806677/FEMA_plan_child_508_071513.pdf target="_blank"&gt;cho trẻ em&lt;/a&gt;) và chuẩn bị một &lt;a href=http://www.seattle.gov/Documents/Departments/Emergency/Preparedness/FamilyPlans/FamilyDisasterSuppliesKitRedCross.pdf target="_blank"&gt;bộ vật dụng cần thiết&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;b&gt;CHUẨN BỊ&lt;/b&gt; - Cố định các đồ vật có thể bị rơi và biết vị trí tắt các tiện ích sinh hoạt&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Ở TRONG NHÀ - Ở NGUYÊN ĐÓ!&lt;/b&gt; Hãy núp dưới một chiếc bàn vững chắc hoặc bàn ở cách xa các đồ vật có thể đổ lên người bạn và bám chặt. ĐỪNG chạy ra ngoài trước khi ngừng rung chấn.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Ở NGOÀI TRỜI - ĐẾN NƠI THOÁNG ĐÃNG&lt;/b&gt; ở cách xa các toà nhà&amp;#44; đường dây điện&amp;#44; ống khói hoặc những thứ có thể đổ lên người bạn.&lt;/li&gt;&lt;li&gt;&lt;b&gt;ĐANG LÁI XE - CẨN THẬN DỪNG XE LẠI&lt;/b&gt; (không dừng dưới cầu&amp;#44; cầu vượt&amp;#44; đường dây điện&amp;#44; v.v.) và Ở NGUYÊN TRONG PHƯƠNG TIỆN.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Ở GẦN BIỂN&lt;/b&gt; - Làm theo các hướng dẫn trên cho tới khi rung chấn ngừng. Sau đó &lt;b&gt;DI CHUYỂN TỚI VÙNG ĐẤT CAO&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/EQ_during.jpg" alt="This is a panel of four cartoon images showing what to do during an earthquake if inside&amp;#44; outside&amp;#44; driving&amp;#44; or near the ocean." title="During Earthquake Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;CHUẨN BỊ CHO DƯ CHẤN&lt;/b&gt; (các trận động đất xảy ra sau trận động đất chính khá phổ biến và có thể gây ra thiệt hại lớn hơn so với trận động đất đầu tiên).&lt;ul&gt;&lt;li&gt;Các đường dây điện thoại sẽ bị quá tải; &lt;b&gt;nhắn tin có thể là một phương pháp hiệu quả để liên lạc với gia đình.&lt;/b&gt;&lt;/li&gt;&lt;li&gt;Kiểm tra bản thân và những người khác xem có ai bị thương không.&lt;/li&gt;&lt;li&gt;Khi đã an toàn&amp;#44; &lt;b&gt;xem các bản tin&lt;/b&gt; qua đài chạy pin&amp;#44; vô tuyến&amp;#44; mạng xã hội&amp;#44; và cảnh báo tin nhắn qua điện thoại để biết các thông tin khẩn cấp.&lt;/li&gt;&lt;li&gt;Lực lượng phản ứng khẩn cấp sẽ bận rộn. &lt;b&gt;Dựa vào bạn bè và hàng xóm &lt;/b&gt; để được hỗ trợ trong vài giờ hoặc vài ngày sau động đất.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Kiểm soát các tiện ích sinh hoạt nếu cần&lt;/b&gt;. Tìm hiểu thêm về thời gian và cách &lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target="_blank"&gt;kiểm soát khí ga và nước sau khi động xảy ra&lt;/a&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Morgan Junction Park Hub &lt;br&gt;Vị Trí của Trung Tâm: At Morgan Junction Park&amp;#44; &lt;br&gt;6413 California Ave SW&amp;#44; Seattle&amp;#44; WA 98118 &lt;br&gt;Người Đứng Đầu Trung Tâm: Cindi Barker&lt;br&gt;Email: &lt;a href="mailto:cindiLbarker@gmail.com" target="_top"&gt;cindiLbarker@gmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206-933-6968&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/west-seattle/" target=_blank&gt;http://seattleemergencyhubs.org/west-seattle&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;North Highland Park Hub &lt;br&gt;Vị Trí của Trung Tâm: The Highland Park Improvement Club &lt;br&gt;1116 SW Holden St&lt;br&gt;Người Đứng Đầu Trung Tâm:Cần Tuyển Tình Nguyện Viên &lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD &lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;South Park Neighborhood Center &lt;br&gt;Vị Trí của Trung Tâm: 8201 10th Ave S&lt;br&gt;Người Đứng Đầu Trung Tâm: Dagmar Cronn&lt;br&gt;Email: &lt;a href="mailto:cronn@oakland.edu" target="_top"&gt;cronn@oakland.edu&lt;/a&gt;&lt;br&gt;Điện thoại: 206-327-1828&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt; &lt;br&gt;description: Meet by the blue box in the park&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Pigeon Point Hub &lt;br&gt;Vị Trí của Trung Tâm: The intersection of 20th Ave SW &amp; SW Genesee St&amp;#44; Seattle&amp;#44; WA 98106 &lt;br&gt;NW corner of the Park&amp;#44; just north of the school.&lt;br&gt;Người Đứng Đầu Trung Tâm: Wade Harper&lt;br&gt;Email: &lt;a href="mailto:wade.harper@outlook.com" target="_top"&gt;wade.harper@outlook.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206-455-5407&lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Hiawatha Playfield/Community Center (Admiral Hub) &lt;br&gt;Vị Trí của Trung Tâm: At California Ave SW &amp; SW Lander St&amp;#44; Seattle&amp;#44; WA 98116&lt;br&gt;Người Đứng Đầu Trung Tâm: Paul Stancik&lt;br&gt;Email: &lt;a href="mailto:pstancik@mindspring.com" target="_top"&gt;pstancik@mindspring.com&lt;/a&gt;&lt;br&gt;Điện thoại:TBD &lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Fauntleroy Church Hub &lt;br&gt;Vị Trí của Trung Tâm: Fauntleroy Church&amp;#44; 9140 California Ave SW&lt;br&gt;Người Đứng Đầu Trung Tâm: Gordon Wiehler&lt;br&gt;Email:: &lt;a href="mailto:gmwinv@Comcast.net" target="_top"&gt;gmwinv@Comcast.net&lt;/a&gt;&lt;br&gt;Điện thoại:: 206-577-4292&lt;br&gt;Trang web:&lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org/&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Providence/Mount St. Vincent&amp;#44; parking lot (Fairmount Hub) &lt;br&gt;Vị Trí của Trung Tâm: At SW Hudson St &amp; 35th Ave SW&amp;#44; Seattle&amp;#44; WA 98126 &lt;br&gt; (meet at the SE parking lot under the flag pole )&lt;br&gt;Người Đứng Đầu Trung Tâm: Sharonn Meeks&lt;br&gt;Email: &lt;a href="mailto:smeeks50@comcast.net" target="_top"&gt;smeeks50@comcast.net&lt;/a&gt;&lt;br&gt;Điện thoại: 206-938-1007&lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Neighborhood House (High Point Hub) &lt;br&gt;Vị Trí của Trung Tâm: At 6400 Sylvan Way SW (note that east of 35th Ave SW&amp;#44; SW Morgan Street becomes Sylvan Way SW). Neighborhood House is next to Lanham Place SW. Meet at the amphitheater. &lt;br&gt;Người Đứng Đầu Trung Tâm: Heather Hutchison&lt;br&gt;Email: &lt;a href="mailto:heather.hutchison@manage" target="_top"&gt;heather.hutchison@manage&lt;/a&gt;&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Ercolini Park Hub &lt;br&gt;Vị Trí của Trung Tâm: At 48th Ave SW &amp; SW Alaska St.&amp;#44; in the park&lt;br&gt;Người Đứng Đầu Trung Tâm: Jon Wright&lt;br&gt;Email:&lt;a href="mailto:ercolini@westseattlebeprepared.org" target="_top"&gt;ercolini@westseattlebeprepared.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD &lt;br&gt;Trang web: &lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;EC Hughes Playground (Olympic Heights Hub) &lt;br&gt;Vị Trí của Trung Tâm: At 29th Ave SW &amp; SW Holden St&amp;#44; Seattle&amp;#44; WA 98126&amp;#44; at the NE corner of Hughes Playground.&lt;br&gt;Người Đứng Đầu Trung Tâm: Cần Tuyển Tình Nguyện Viên&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD &lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Salvation Army&amp;#44; parking lot (South Highland Park Hub) &lt;br&gt;Vị Trí của Trung Tâm: At 9050 16th Ave SW (near SW Barton St.)&amp;#44; the Salvation Army parking lot is the gathering place for this hub.&lt;br&gt;Người Đứng Đầu Trung Tâm: Cần Tuyển Tình Nguyện Viên &lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD &lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;North Delridge P-Patch Hub &lt;br&gt;Vị Trí của Trung Tâm: At the P-Patch&amp;#44; located at 5078 25th Ave SW&amp;#44; Seattle&amp;#44; WA&lt;br&gt;Người Đứng Đầu Trung Tâm: Jay McNally&lt;br&gt;Email: &lt;a href="mailto:Newcarissa@gmail.com" target="_top"&gt;Newcarissa@gmail.com &lt;/a&gt;&lt;br&gt;Điện thoại: 206-484-6613&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Hope Lutheran Church (Alaska Junction Hub) &lt;br&gt;Vị Trí của Trung Tâm: 4456 42nd Ave SW&amp;#44; Seattle&amp;#44; WA 98116&lt;br&gt;Người Đứng Đầu Trung Tâm: Cần Tuyển Tình Nguyện Viên&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD &lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Alki Community Center (Alki Hub) &lt;br&gt;Vị Trí của Trung Tâm: At 59th Ave SW &amp; SW Stevens St&amp;#44; Seattle&amp;#44; WA 98116. This is adjacent to Whale Tail Park&amp;#44; near the west edge of the playfield. North side of Alki Playfield&lt;br&gt;Người Đứng Đầu Trung Tâm: Tony Fragada (98126)&lt;br&gt;Email: &lt;a href="mailto:tfragada@yahoo.com" target="_top"&gt;tfragada@yahoo.com&lt;/a&gt; &lt;br&gt;Điện thoại: TBD &lt;br&gt;Trang web: &lt;a href="http://westseattlebeprepared.org/" target=_blank&gt;http://westseattlebeprepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Maa Nyei Lai Ndeic P-Patch Hub &lt;br&gt;Vị Trí của Trung Tâm: 4913 Columbia Dr S&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Người Đứng Đầu Trung Tâm: Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Điện thoại: 206-684-0517&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Hillman City P-Patch Hub &lt;br&gt;Vị Trí của Trung Tâm: 4613 S Lucile St&amp;#44; Seattle&amp;#44; WA 98118 (Corner of South Lucile &amp; 46th Ave South)&lt;br&gt;Người Đứng Đầu Trung Tâm: Joanne Tilton&lt;br&gt;Email: &lt;a href="mailto:Jtilton22@comcast.net" target="_top"&gt;Jtilton22@comcast.net&lt;/a&gt;&lt;br&gt;Điện thoại: 206-650-2071&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Judkins P-Patch Hub &lt;br&gt;Vị Trí của Trung Tâm: 24th Avenue S &amp; S Norman Street Seattle&amp;#44; WA 98112 (Meeting Location: P-Patch entrance off Norman &amp; 24th Ave S.)&lt;br&gt;Người Đứng Đầu Trung Tâm: Jen Ellis&lt;br&gt;Email:   &lt;a href="mailto:JenniferEllis.206@gmail.com" target="_top"&gt;JenniferEllis.206@gmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206-276-4982&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Fisher Pavilion Hub &lt;br&gt;Vị Trí của Trung Tâm: 2nd Ave N &amp; Thomas St&lt;br&gt;Người Đứng Đầu Trung Tâm: MIQA Be Prepared&lt;br&gt;Email:  &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web:  &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Interbay Fishermen's Terminal Hub &lt;br&gt;Vị Trí của Trung Tâm: Interbay Fishermen's Terminal&lt;br&gt;Người Đứng Đầu Trung Tâm: MIQA Be Prepared&lt;br&gt;Email: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD &lt;br&gt;Trang web: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Eastlake Hub &lt;br&gt;Vị Trí của Trung Tâm: Rogers Playfield&lt;br&gt;Người Đứng Đầu Trung Tâm: Amy O'Donnell&lt;br&gt;Email:  &lt;a href="mailto:eastlake.hub@gmail.com" target="_top"&gt;eastlake.hub@gmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: TBD &lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Madison Park Hub &lt;br&gt;Vị Trí của Trung Tâm: 42nd Ave E and E Howe St (at the north side of tennis courts)&lt;br&gt;Người Đứng Đầu Trung Tâm: John Madrid&lt;br&gt;Email:  &lt;a href="mailto:johnmadrid@hotmail.com" target="_top"&gt;johnmadrid@hotmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206-498-1880&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Sunrise P-Patch Hub &lt;br&gt;Vị Trí của Trung Tâm: 33rd Ave S &amp; S Oregon St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Người Đứng Đầu Trung Tâm: Aaron Deitz&lt;br&gt;Email: &lt;a href="mailto:aarondietz@gmail.com" target="_top"&gt;aarondietz@gmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206-694-3966&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Snoqualmie P-Patch Hub &lt;br&gt;Vị Trí của Trung Tâm: 4549 13th Ave S&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Người Đứng Đầu Trung Tâm: Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Điện thoại: 206-684-0517&lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;New Holly Youth &amp; Family P-Patch Hub &lt;br&gt;Vị Trí của Trung Tâm: 32nd Ave S &amp; S Brighton St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Người Đứng Đầu Trung Tâm: Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Điện thoại: 206-684-0517&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;New Holly Power P-Patch Hub &lt;br&gt;Vị Trí của Trung Tâm: 7123 S Holly Park Dr&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Người Đứng Đầu Trung Tâm: Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Điện thoại: 206-684-0517&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;New Holly Lucky Garden Hub &lt;br&gt;Vị Trí của Trung Tâm: S Holly St &amp; Shaffer Ave S&lt;br&gt;Người Đứng Đầu Trung Tâm: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Điện thoại: 206-684-0517&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;New Holly 29 P-Patch Hub &lt;br&gt;Vị Trí của Trung Tâm: 29th Ave S &amp; S Brighton St&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Người Đứng Đầu Trung Tâm: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Điện thoại: 206-684-0517&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;John C. Little P-Patch Hub &lt;br&gt;Vị Trí của Trung Tâm: 6961 37th Ave S&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Người Đứng Đầu Trung Tâm: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Điện thoại: 206-684-0517&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Dakota P-Patch Hub &lt;br&gt;Vị Trí của Trung Tâm: 2902 S Dakota St&amp;#44; Seattle&amp;#44; WA 98108&lt;br&gt;Người Đứng Đầu Trung Tâm: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Điện thoại: 206-684-0517&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Beacon Food Forest Hub &lt;br&gt; Vị Trí của Trung Tâm:: 15th Ave S &amp; S Dakota St&lt;br&gt;Người Đứng Đầu Trung Tâm: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Điện thoại: 206-684-0517&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Ethiopian Community in Seattle &lt;br&gt;Vị Trí của Trung Tâm: 8323 Rainier Ave S (meet at main building)&lt;br&gt;Người Đứng Đầu Trung Tâm: Kassa Kachara&lt;br&gt;Email:  &lt;a href="mailto:kabiso_kass@yahoo.com" target="_top"&gt;kabiso_kass@yahoo.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206-325-0304&lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Angel Morgan P-Patch (Angel Morgan Hub) &lt;br&gt;Vị Trí của Trung Tâm: 3956 S Morgan St&amp;#44; Seattle&amp;#44; WA 98118 (The P Patch is located at 42nd Ave S &amp; S Morgan Street)&lt;br&gt;Người Đứng Đầu Trung Tâm: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Điện thoại: 206-684-0517&lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Thistle P-Patch Hub &lt;br&gt;Vị Trí của Trung Tâm: Martin Luther King Jr Way S &amp; S Cloverdale St&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Người Đứng Đầu Trung Tâm: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Điện thoại: 206-684-0517&lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;New Holly Rockery &amp; Market Hub &lt;br&gt;Vị Trí của Trung Tâm: S Holly Park Dr &amp; Rockery Dr S&amp;#44; Seattle&amp;#44; WA 98118&lt;br&gt;Người Đứng Đầu Trung Tâm: Contact Debbie Goetz&lt;br&gt;Email: &lt;a href="mailto:debbie.goetz@seattle.gov" target="_top"&gt;debbie.goetz@seattle.gov&lt;/a&gt;&lt;br&gt;Điện thoại: 206-684-0517&lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Lakewood Seward Park Hub &lt;br&gt;Vị Trí của Trung Tâm: Lakewood Seward Park Community Club - 4916 S. Angeline Street&lt;br&gt;Người Đứng Đầu Trung Tâm: Aaron Evanson&lt;br&gt;Email:  &lt;a href="mailto:aaronevanson@gmail.com" target="_top"&gt;aaronevanson@gmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206.660.3822&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Rainier Beach Community Club Hub &lt;br&gt;Vị Trí của Trung Tâm: Rainier Beach Community Club - VFW Hall &amp;#44; 6038 S. Pilgrim&amp;#44; Seattle  WA  98118&lt;br&gt;Người Đứng Đầu Trung Tâm: Ron Angeles&lt;br&gt;Email:  &lt;a href="mailto:ranestoba@comcast.net" target="_top"&gt;ranestoba@comcast.net&lt;/a&gt;&lt;br&gt;Điện thoại: 206-721-5326 and 206-351-0813&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Queen Anne Bowl &lt;br&gt;Vị Trí của Trung Tâm: 2806 3rd Ave W&lt;br&gt;Người Đứng Đầu Trung Tâm: Chris Saether&lt;br&gt;Email: &lt;a href="mailto:csaether@msn.com" target="_top"&gt;csaether@msn.com&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Interbay Athletic Complex &lt;br&gt;Vị Trí của Trung Tâm: 3027 17th Ave W&lt;br&gt;Người Đứng Đầu Trung Tâm: MIQA Be Prepared&lt;br&gt;Email: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Magnolia Manor Park &lt;br&gt; Vị Trí của Trung Tâm: 3500 28th Ave W&lt;br&gt;Người Đứng Đầu Trung Tâm: MIQA Be Prepared&lt;br&gt;Email: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Magnolia Metropolitan Market&lt;br&gt;Vị Trí của Trung Tâm: 3830 34th Ave W&lt;br&gt;Người Đứng Đầu Trung Tâm: MIQA Be Prepared&lt;br&gt;Email: &lt;a href="mailto:info@miqabeprepared.org" target="_top"&gt;info@miqabeprepared.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web: &lt;a href="http://www.MIQABePrepared.org"&gt;http://www.MIQABePrepared.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;West Queen Anne Playfield Hub &lt;br&gt;Vị Trí của Trung Tâm: 150 W Blaine St&lt;br&gt;Người Đứng Đầu Trung Tâm: Cần Tuyển Tình Nguyện Viên&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD &lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;West Magnolia Playfield Hub &lt;br&gt;Vị Trí của Trung Tâm: 32nd Ave W &amp; W Smith St&amp;#44; South Playfield&amp;#44; Southwest corner&lt;br&gt;Người Đứng Đầu Trung Tâm: Frank Gaul&lt;br&gt;Email:  &lt;a href="mailto:ftgaul@gmail.com" target="_top"&gt;ftgaul@gmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206-499-8690&lt;br&gt;Trang web: &lt;a href="http://www.miqabeprepared.org/" target=_blank&gt;http://www.miqabeprepared.org/&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Ballard Commons Hub &lt;br&gt;Vị Trí của Trung Tâm: NW 57th &amp; 22nd Ave NW&lt;br&gt;Người Đứng Đầu Trung Tâm: Colin Getty&lt;br&gt;Email:  &lt;a href="mailto:k7biowa@gmail.com" target="_top"&gt;k7biowa@gmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Lower Woodland Playfields Hub &lt;br&gt;Vị Trí của Trung Tâm: Green Lake Way N &amp; N 50th St&lt;br&gt;Người Đứng Đầu Trung Tâm: Cần Tuyển Tình Nguyện Viên&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Ravenna Hub &lt;br&gt; Vị Trí của Trung Tâm: 6535 Ravenna Ave NE (Ravenna-Eckstein Community Center parking lot)&lt;br&gt;Người Đứng Đầu Trung Tâm: David Ward&lt;br&gt;Email:  &lt;a href="mailto:booksgalore22@gmail.com" target="_top"&gt;booksgalore22@gmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206-523-1161&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Victory Heights Hub &lt;br&gt;Vị Trí của Trung Tâm: Victory Heights Park (1737 NE 106th St)&lt;br&gt;Người Đứng Đầu Trung Tâm: Ann Forrest&lt;br&gt;Email:  &lt;a href="mailto:aaforrest@hotmail.com" target="_top"&gt;aaforrest@hotmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: (360)550-2234&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Epic Life Church Hub &lt;br&gt;Vị Trí của Trung Tâm: Epic Life Church - 10503 Stone Ave N&amp;#44; Seattle&amp;#44; WA 98133&lt;br&gt;Người Đứng Đầu Trung Tâm: Larry Chaney&lt;br&gt;Email:  &lt;a href="mailto:larry@epiclifechurch.org" target="_top"&gt;larry@epiclifechurch.org&lt;/a&gt;&lt;br&gt;Điện thoại: 425-218-8849&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Crown Hill Park Hub &lt;br&gt;Vị Trí của Trung Tâm: NW 92nd &amp; 14th Ave NW&lt;br&gt;Người Đứng Đầu Trung Tâm: Dennis Galvin&lt;br&gt;Email:  &lt;a href="mailto:short.harp@gmail.com" target="_top"&gt;short.harp@gmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Shilshole Marina Hub &lt;br&gt;Vị Trí của Trung Tâm: Shilshole Marina&amp;#44; 7001 Seaview Ave NW&lt;br&gt;Người Đứng Đầu Trung Tâm: Jim Doub&lt;br&gt;Email: &lt;a href="mailto:jim@portagebaymarine.com" target="_top"&gt;jim@portagebaymarine.com&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Loyal Heights Playfield Hub&lt;br&gt;Vị Trí của Trung Tâm: NW 77th &amp;amp; 21st Ave NW (2101 NW 77th St&amp;#44; Loyal Heights CC basketball half court)&lt;br&gt;Người Đứng Đầu Trung Tâm: Cheryl Dyer&lt;br&gt;Email: &lt;a href="mailto:cheryldy@msn.com" target="_top"&gt;cheryldy@msn.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206-784-3724&lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Kirke Park Hub&lt;br&gt;Vị Trí của Trung Tâm: 7028 9th Ave NW&lt;br&gt;Người Đứng Đầu Trung Tâm: Hugh Kelso&lt;br&gt;Email: &lt;a href="mailto:HKelso@mac.com" target="_top"&gt;HKelso@mac.com&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Gilman Park Hub &lt;br&gt;Vị Trí của Trung Tâm: NW 54th &amp;amp; 9th Ave NW&lt;br&gt;Người Đứng Đầu Trung Tâm: Linda Frank&lt;br&gt;Email: &lt;a href="mailto:lindabfrank@gmail.com" target="_top"&gt;lindabfrank@gmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Ross Playground Hub &lt;br&gt;Vị Trí của Trung Tâm: 4320 4th Ave NW&lt;br&gt;Người Đứng Đầu Trung Tâm: Leslie Matthis&lt;br&gt;Email: &lt;a href="mailto:leslie.matthis@gmail.comv" target="_top"&gt;leslie.matthis@gmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206.783.1500&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Phinney Neighborhood Center Hub &lt;br&gt;Vị Trí của Trung Tâm: Phinney Neighborhood Center: 6532 Phinney Avenue North&amp;#44; Seattle&amp;#44; WA  98103 (Meeting Place: Phinney Center upper parking area)&lt;br&gt;Người Đứng Đầu Trung Tâm: David Baum&lt;br&gt;Email: &lt;a href="mailto:phinneyhub@gmail.com" target="_top"&gt;phinneyhub@gmail.com &lt;/a&gt;&lt;br&gt;Điện thoại: 206-913-1021&lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Meridian Playfield/Good Shepherd Center Hub &lt;br&gt;Vị Trí của Trung Tâm: 4649 Sunnyside Ave. N&lt;br&gt;Người Đứng Đầu Trung Tâm: Brian Shapiro&lt;br&gt;Email: &lt;a href="mailto:bshapiro@objectarts.net" target="_top"&gt;bshapiro@objectarts.net&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;History House of Greater Seattle Hub &lt;br&gt;Vị Trí của Trung Tâm: 790 N 34th St&lt;br&gt;Người Đứng Đầu Trung Tâm: Cần Tuyển Tình Nguyện Viên&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Greenwood Senior Center Hub &lt;br&gt;Vị Trí của Trung Tâm: Greenwood Senior Center: 525 N 85th  Street&amp;#44; Seattle&amp;#44; WA  98103&lt;br&gt;Người Đứng Đầu Trung Tâm: Kelly Kasper&lt;br&gt;Email: &lt;a href="mailto:kelly@ht2consulting.com" target="_top"&gt;kelly@ht2consulting.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206-397-4283&lt;br&gt;Co-Captain: Noel Frame&lt;br&gt;Co-Captain Email: &lt;a href="mailto:noel@noelframe.com" target="_top"&gt;noel@noelframe.com&lt;/a&gt; &lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Green Lake Playfield &amp; Community Center Hub &lt;br&gt;Vị Trí của Trung Tâm: 7201 Green Lake Dr N&lt;br&gt;Người Đứng Đầu Trung Tâm: Cần Tuyển Tình Nguyện Viên&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Bagley Elementary Hub &lt;br&gt;Vị Trí của Trung Tâm: 7821 Stone Ave N&lt;br&gt;Người Đứng Đầu Trung Tâm: Cần Tuyển Tình Nguyện Viên&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Điện thoại: TBD&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Maple Leaf Park Hub &lt;br&gt;Vị Trí của Trung Tâm: 1020 NE 82nd St&lt;br&gt;Người Đứng Đầu Trung Tâm: Lori Phipps&lt;br&gt;Email: &lt;a href="mailto:lphipps01@gmail.com" target="_top"&gt;lphipps01@gmail.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206-947-0309&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Hunter Farm Hub &lt;br&gt;Vị Trí của Trung Tâm: 7730 35th Ave NE&lt;br&gt;Người Đứng Đầu Trung Tâm: Cần Tuyển Tình Nguyện Viên&lt;br&gt;Email: &lt;a href="mailto:info@seattleemergencyhubs.org" target="_top"&gt;info@seattleemergencyhubs.org&lt;/a&gt;&lt;br&gt;Trang web:&lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;University Heights Center &lt;br&gt;Vị Trí của Trung Tâm: NE 50th Street and University Way NE&lt;br&gt;Người Đứng Đầu Trung Tâm: Ray Munger&lt;br&gt;Email: &lt;a href="mailto:ray@uheightscenter.org" target="_top"&gt;ray@uheightscenter.org&lt;/a&gt;&lt;br&gt;Điện thoại: 206-527-4278&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Lake City Way SR 522/Fred Meyer Hub &lt;br&gt;Vị Trí của Trung Tâm: 13000 Lake City Way NE (SE corner of lower parking lot)&lt;br&gt;Người Đứng Đầu Trung Tâm: Sandy Motzer (98125)&lt;br&gt;Email: &lt;a href="mailto:sandymotzer@aol.com" target="_top"&gt;sandymotzer@aol.com&lt;/a&gt;&lt;br&gt;Điện thoại: 206-819-8056&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Luther Memorial Lutheran Church Hub &lt;br&gt;Vị Trí của Trung Tâm: 13047 Greenwood Ave N&lt;br&gt;Người Đứng Đầu Trung Tâm: Dale Johnson&lt;br&gt;Email: &lt;a href="mailto:dalerayjohnson@comcast.net" target="_top"&gt;dalerayjohnson@comcast.net&lt;/a&gt;&lt;br&gt;Điện thoại: 206-362-2980&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Các Trung Tâm Khẩn Cấp Cộng Đồng là nơi mà mọi người có thể tập trung sau một thảm hoạ để giúp đỡ lẫn nhau. &lt;p&gt;TRUNG TÂM GẦN BẠN NHẤT LÀ:&lt;center&gt;&lt;b&gt;Grace Lutheran Church Hub &lt;br&gt; Vị Trí của Trung Tâm: 11051 Phinney Ave N (Greenwood Avenue N &amp; N 112th Street)&lt;br&gt;Người Đứng Đầu Trung Tâm: Dale Johnson&lt;br&gt;Email: &lt;a href="mailto:dalerayjohnson@comcast.net" target="_top"&gt;dalerayjohnson@comcast.net&lt;/a&gt;&lt;br&gt;Điện thoại: 206-362-2980&lt;br&gt;Trang web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Kể từ năm 1870&amp;#44; 15 trận động đất mạnh (có cường độ trên 5 độ Richter) đã xảy ra tại Tiểu Bang Washington. Các câu chuyện của người bản địa cũng nhắc tới một trận động đất cực mạnh (có cường độ trên 8 độ Richter) và sóng thần xảy ra sau đó vào năm 1700</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Có khả năng cao xảy ra lũ lụt tại đây. Nó nằm tại vùng ngập của trận lũ với nguy cơ xảy ra là 1%&lt;/b&gt;. Điều này có nghĩa là có 25% khả năng nước lũ sẽ dâng tới đây trong vòng 30 năm tới &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;. Đăng ký để nhận cảnh báo về lũ lụt qua &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt; email hoặc tin nhắn&lt;/a&gt; hoặc tải về &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;ứng dụng cảnh báo lũ lụt&lt;/a&gt; trên điện thoại thông minh của bạn.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Có khả năng cao xảy ra lũ lụt tại đây&lt;/b&gt;. Nó nằm tại vùng ngập của trận lũ với nguy cơ xảy ra là 1%. Điều này có nghĩa là có 25% khả năng nước lũ sẽ dâng tới đây trong vòng 30 năm tới &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;. Đăng ký để nhận cảnh báo về lũ lụt qua &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email hoặc tin nhắn&lt;/a&gt; hoặc tải về &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;ứng dụng cảnh báo lũ lụt&lt;/a&gt; trên điện thoại thông minh của bạn.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Ít có khả năng lũ lụt sẽ xảy ra tại đây&lt;/b&gt;. Mực nước có thể dâng cao một chút trong các trận lũ hoặc bão lớn. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Ít có khả năng lũ lụt sẽ xảy ra tại đây&lt;/b&gt;. Mực nước trong hồ chứa có thể dâng cao một chút trong các trận lũ hoặc bão lớn. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Ít có khả năng lũ lụt sẽ xảy ra tại đây&lt;/b&gt;. Mực nước có thể dâng cao một chút trong các trận lũ hoặc bão lớn.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Các cây cầu có thể trở nên không an toàn khi lũ lụt xảy ra&lt;/b&gt;. Nếu bạn nghi ngờ một cây cầu đã bị hư hại&amp;#44; hãy cẩn thận và báo cáo với Trung Tâm Cảnh Báo Lũ Lụt (Flood Warning Center) bằng cách gọi tới số điện thoại 206-296-8200 hoặc 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khu vực này không nằm trong các khu vực có nguy cơ cao xảy ra lũ lụt&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;. NHƯNG nếu bạn sống gần một nhánh sông hoặc một con sông nhỏ&amp;#44; hãy cảnh giác vì khu vực đó có thể cũng bị lũ lụt. Xem &lt;a href=http://www.kingcounty.gov/depts/dnrp/wlr/sections-programs/river-floodplain-section.aspx target=_blank&gt;Xem trang web Quản Lý Sông Hồ và Vùng Ngập&lt;/a&gt; để biết thêm thông tin.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khu vực này đã từng bị lũ lụt khi các trận mưa lớn xảy ra tại Seattle&lt;/b&gt;. Việc này có thể sẽ lại xảy ra nếu một cơn bão mạnh khiến nước tích tụ lại và thoát nước kém. Cuộn xuống để xem cách chuẩn bị. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mưa&amp;#44; tuyết tan&amp;#44; hoặc cả hai hiện tượng đó khiến nước dâng cao nhanh chóng. Nước lũ cao hơn bờ sông&amp;#44; tràn vào các khu vực lân cận và gây ảnh hưởng tới đường xá. &lt;b&gt;Khu vực này nằm trong bản đồ vùng ngập của trận lũ có nguy cơ xảy ra là 0.2% và sẽ xảy ra lũ lụt&lt;/b&gt;. Có 6% khả năng bạn sẽ thấy một trận lũ có quy mô như vậy xảy ra trong 30 năm tới. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Các nhánh sông&amp;#44; suối&amp;#44; và sông gần đó đang tràn nước. Điều này khiến mọi người không thể đi qua đường xá được &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;. Đăng ký để nhận cảnh báo về lũ lụt qua &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email hoặc tin nhắn&lt;/a&gt; hoặc tải về &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;ứng dụng cảnh báo lũ lụt&lt;/a&gt; trên điện thoại thông minh của bạn.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Không có khả năng xảy ra lũ lụt tại đây&lt;/b&gt;. Các trận bão lớn có thể khiến nước trong các nhánh sông&amp;#44; suối và sông gần đó dâng lên. Mưa to có thể tạo ra các vũng nước tù trên đường phố. Nếu bạn phát hiện xảy ra lũ lụt cục bộ&amp;#44; hãy gọi tới Trung Tâm Cảnh Báo Lũ Lụt Quận King qua số điện thoại 206-296-8200 hoặc 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khu vực này dễ xảy ra ngập lụt đô thị&lt;/b&gt;. Bão càng lớn&amp;#44; bạn càng thấy ngập lụt xảy ra nhiều ở gần đây. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. Chúng thay đổi nhiều nhất trong và sau các trận lũ . &lt;b&gt;Có khả năng cao là Sông Cedar sẽ chảy qua vùng này trong tương lai&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. Chúng thay đổi nhiều nhất trong và sau các trận lũ. &lt;b&gt;Có khả năng cao là Sông Green sẽ chảy qua vùng này trong tương lai&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. Chúng thay đổi nhiều nhất trong và sau các trận lũ. &lt;b&gt;Có khả năng cao là Sông Raging sẽ chảy qua vùng này trong tương lai&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. Chúng thay đổi nhiều nhất trong và sau các trận lũ. &lt;b&gt;Có khả năng cao là Sông Snoqualmie sẽ chảy qua vùng này trong tương lai&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. Chúng thay đổi nhiều nhất trong và sau các trận lũ. &lt;b&gt;Có khả năng cao là Sông Tolt sẽ chảy qua vùng này trong tương lai&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. Chúng thay đổi nhiều nhất trong và sau các trận lũ. &lt;b&gt;Có khả năng trung bình là Sông Cedar sẽ chảy qua vùng này trong tương lai&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. Chúng thay đổi nhiều nhất trong và sau các trận lũ. &lt;b&gt;Có khả năng trung bình là Sông Green sẽ chảy qua vùng này trong tương lai&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. Chúng thay đổi nhiều nhất trong và sau các trận lũ. &lt;b&gt;Có khả năng trung bình là Sông Raging sẽ chảy qua vùng này trong tương lai&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. Chúng thay đổi nhiều nhất trong và sau các trận lũ. &lt;b&gt;Có khả năng trung bình là Sông Snoqualmie sẽ chảy qua vùng này trong tương lai&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. Chúng thay đổi nhiều nhất trong và sau các trận lũ. &lt;b&gt;Có khả năng trung bình là Sông Tolt sẽ chảy qua khu vực này trong tương lai&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. Chúng thay đổi nhiều nhất trong và sau các trận lũ. &lt;b&gt;Có khả năng thấp là Sông Green sẽ chảy qua vùng này trong tương lai&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. Chúng thay đổi nhiều nhất trong và sau các trận lũ. &lt;b&gt;Có khả năng thấp là Sông Snoqualmie sẽ chảy qua vùng này trong tương lai&lt;/b&gt;.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. Chúng thay đổi nhiều nhất trong và sau các trận lũ. &lt;b&gt;Có khả năng thấp là Sông Tolt sẽ chảy qua vùng này trong tương lai. &lt;/b&gt;&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giống như vạn vật&amp;#44; các con sông chảy theo đường ít vật cản nhất và thay đổi hoạt động theo thời gian. &lt;b&gt;Chưa từng có nghiên cứu nào được thực hiện tại đây để kiểm tra xem dòng sông này có tràn ra ngoài theo thời gian hay không&amp;#44; nhưng hãy cảnh giác rằng việc này có thể xảy ra.&lt;/b&gt;&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Vùng này nằm trong kênh nước hiện tại của con sông. Vị trí của con kênh con có thể thay đổi theo thời gian. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Trường hợp vỡ đập rất hiếm khi xảy ra. Tuy nhiên&amp;#44; nếu &lt;a href=https://goo.gl/maps/X2HGtZX6Kyz target=_blank&gt;Đập George Culmback&lt;/a&gt; hoặc &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Đập Sông Tolt&lt;/a&gt; bị vỡ thì khu vực này có thể xảy ra lũ lụt &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;. Đăng ký để nhận cảnh báo về lũ lụt qua &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email hoặc tin nhắn&lt;/a&gt; hoặc tải về &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;ứng dụng cảnh báo lũ lụt&lt;/a&gt; trên điện thoại thông minh của bạn.</t>
+  </si>
+  <si>
+    <t>Trường hợp vỡ đập rất hiếm khi xảy ra. Tuy nhiên&amp;#44; nếu &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt;Đập Hồ Youngs&lt;/a&gt; bị vỡ&amp;#44; khu vực này có nguy cơ bị lũ lụt &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;. Đăng ký để nhận cảnh báo về lũ lụt qua &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email hoặc tin nhắn&lt;/a&gt; hoặc tải về &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;ứng dụng cảnh báo lũ lụt&lt;/a&gt; trên điện thoại thông minh của bạn.</t>
+  </si>
+  <si>
+    <t>Trường hợp vỡ đập rất hiếm khi xảy ra. Tuy nhiên&amp;#44; nếu &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt;Đập Hồ Youngs&lt;/a&gt; bị vỡ&amp;#44; khu vực này có nguy cơ trung bình bị lũ lụt &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;. Đăng ký để nhận cảnh báo về lũ lụt qua &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email hoặc tin nhắn&lt;/a&gt; hoặc tải về &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;ứng dụng cảnh báo lũ lụt&lt;/a&gt; trên điện thoại thông minh của bạn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp vỡ đập rất hiếm khi xảy ra. Tuy nhiên&amp;#44; nếu &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt;Đập Hồ Youngs&lt;/a&gt; bị vỡ&amp;#44; khu vực này có nguy cơ cao bị lũ lụt &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;. Đăng ký để nhận cảnh báo về lũ lụt qua &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email hoặc tin nhắn&lt;/a&gt; hoặc tải về &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;ứng dụng cảnh báo lũ lụt&lt;/a&gt; trên điện thoại thông minh của bạn. Trường hợp vỡ đập rất hiếm khi xảy ra. </t>
+  </si>
+  <si>
+    <t>Trường hợp vỡ đập rất hiếm khi xảy ra. Tuy nhiên&amp;#44; nếu &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Đập Sông Tolt&lt;/a&gt; bị vỡ&amp;#44; khu vực này có thể bị lũ lụt &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;. Đăng ký để nhận cảnh báo về lũ lụt qua &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email hoặc tin nhắn&lt;/a&gt; hoặc tải về &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;ứng dụng cảnh báo lũ lụt&lt;/a&gt; trên điện thoại thông minh của bạn.</t>
+  </si>
+  <si>
+    <t>Các cơn bão khốc liệt được dự đoán sẽ gia tăng trong 50 năm tới. Chúng sẽ gây mưa và tuyết. Các con sông sẽ có dòng chảy cao hơn dẫn tới lũ lụt nhiều hơn vào mùa Thu/Đông. Bấm vào hình ảnh để tìm hiểu thêm. &lt;br&gt;
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Rivers.jpg" alt="Climate Change Rivers Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Trời đã liên tục mưa to hoặc mưa nhiều ngày rồi? Nhiệt độ tăng lên đã gây ra hiện tượng tuyết tan nhanh trên các ngọn núi? Mực nước trong các con sông tại địa phương nhìn có vẻ cao? Khả năng xảy ra lũ lụt có thể tăng lên. Theo dõi các bản tin từ dịch vụ thời tiết để biết các cảnh báo dành cho địa phương.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;LẬP KẾ HOẠCH&lt;/b&gt; - Lập kế hoạch làm gì và đi đâu khi nước trong các sông hồ dâng lên. &lt;b&gt;Chuẩn bị sẵn sàng các vật dụng cần thiết&lt;/b&gt; (giấy khai sinh&amp;#44; các tài liệu quan trọng&amp;#44; ảnh&amp;#44; v.v.). Mua bảo hiểm lũ lụt nếu bạn cần bảo hiểm.&lt;/li&gt;&lt;li&gt;&lt;b&gt;CHUẨN BỊ&lt;/b&gt; - Cất trữ các vật có giá trị và các hoá chất trong gia đình ở phía trên cao so với mực nước lũ và &lt;b&gt;tìm hiểu cách tắt các tiện ích sinh hoạt&lt;/b&gt; (&lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target=_blank&gt;nước&amp;#44; khí ga&amp;#44; và điện&lt;/a&gt;).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;SẴN SÀNG&lt;/b&gt; - Tập hợp các vật dụng khẩn cấp (quần áo ấm&amp;#44; đèn pin&amp;#44; điện thoại di động&amp;#44; đài cầm tay&amp;#44; v.v.). Nếu thời gian cho phép và thấy cần thiết&amp;#44; hãy tắt các tiện ích sinh hoạt.&lt;/li&gt;&lt;li&gt;&lt;b&gt;THEO DÕI&lt;/b&gt; - Lắng nghe tin tức và sơ tán đến khu vực cao hơn khi được khuyến cáo.&lt;/li&gt;&lt;li&gt;&lt;b&gt;TRÁNH XA NGUY HIỂM – KHÔNG lội hoặc lái xe qua nước lũ.&lt;/b&gt; Chỉ cần dòng nước sâu 6 inch là đủ để quật ngã bạn và 2 feet để cuốn trôi cả một chiếc xe!&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Flood_during.jpg" alt="This is a panel of four cartoon images showing what to do during an a flood collect essentials&amp;#44; get to high ground&amp;#44; avoid water&amp;#44; and shutt off utilities." title="During Flood Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nếu nhà bạn bị ngập&amp;#44; &lt;b&gt;hãy cẩn thận khi vào bên trong bởi kết cấu của nó đã có thể bị hư hại.&lt;/b&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; Công viên đường Russell &lt;br&gt; giữa Russell Rd. và S. 240th St.&lt;br&gt; Kent&amp;#44; WA&amp;#44; 98032 &lt;br&gt;  Chỉ lấy cát (không có túi cát)&lt;br&gt; T2-T6 8:00 sáng - 4:00 chiều&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&amp;#44;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt;Public Works Shops &lt;br&gt;1155 East North Bend Way &lt;br&gt; North Bend&amp;#44; WA 98045&lt;br&gt;Cát và túi cát&lt;br&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; 33100 NE 45th St &lt;br&gt; Carnation&amp;#44; WA 98014 &lt;br&gt;T2-T6 8:00 sáng - 4:30 chiều&lt;br&gt;Cát và túi cát&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; Meadowbrook Community Center&lt;br&gt;10517 35th Ave. NE &lt;br&gt; Seattle&amp;#44; WA 98125&lt;br&gt;Cát và túi cát&lt;/b&gt;&lt;/center&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; 1305 C St. SW &lt;br&gt; Auburn&amp;#44; WA 98001&lt;br&gt; T2-T6 6:30 sáng - 4:00 chiều &lt;br&gt;Cát và túi cát--&gt;253-931-3048&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; Kent City Public Works&lt;br&gt; 5821 S. 240th St. &lt;br&gt; Kent&amp;#44; WA 98032&lt;br&gt; T2-T6 8:00 sáng - 4:00 chiều &lt;br&gt;Chỉ lấy túi cát (không có cát)&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; Tahoma School District &lt;br&gt; 23015 SE 216th Way&lt;br&gt; Maple Valley&amp;#44; WA 98038&lt;br&gt; 8:00 sáng - 5:00 chiều &lt;br&gt;Cát và túi cát&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; Pacific City Park &lt;br&gt; 600 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047&lt;br&gt;Cát và túi cát&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; Pacific/Algona Community Center &lt;br&gt; 100 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047 &lt;br&gt;Cát và túi cát&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; City Property @ &lt;br&gt; Railroad Avenue SE và SE King Street &lt;br&gt; Snoqualmie&amp;#44; WA 98065&lt;br&gt;Cát và túi cát&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; Preston-Snoqualmie Trail parking lot &lt;br&gt; Lake Alice Road SE và SE 56th Place &lt;br&gt; Fall City&amp;#44; WA 98024&lt;br&gt;Cát và túi cát&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; 14701 Main St. NE &lt;br&gt; Duvall&amp;#44; WA 98019&lt;br&gt;Cát và túi cát--&gt;425-788-3332&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; Haller Lake Neighborhood &lt;br&gt; 12551 Ashworth Ave N.&lt;br&gt; Seattle&amp;#44; WA 98133&lt;br&gt;Cát và túi cát&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; South Park Neighborhood &lt;br&gt; 731 S. Sullivan &lt;br&gt; Seattle&amp;#44; WA 98108&lt;br&gt;Cát và túi cát&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chuẩn bị ứng phó với lũ lụt bằng cách thu thập và làm đầy bao cát. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;p&gt;TRUNG TÂM PHÂN PHỐI GẦN BẠN NHẤT LÀ: &lt;center&gt;&lt;b&gt; Delridge Community Center &lt;br&gt; 4501 Delridge Way SW &lt;br&gt; Seattle&amp;#44; WA 98106&lt;br&gt;Cát và túi cát&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Do có nhiều sông hồ nên Quận King thường xuyên xảy ra lũ lụt khi trời mưa nhiều hoặc tuyết tan nhanh. &lt;b&gt;Lũ lụt xuất hiện nhiều nhất từ tháng Mười Một đến tháng Hai&lt;/b&gt;&amp;#44; nhưng cũng có thể diễn ra bất cứ khi nào hội tụ đủ điều kiện.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khu vực này có độ dốc nông nên sẽ ít có khả năng xảy ra sạt lở đất tại đây&lt;/b&gt;. Sạt lở đất thường xảy ra khi nền đất ẩm ướt do mưa nhiều HOẶC rung chấn do động đất gây ra. Kéo xuống phần các sự kiện lịch sử để xem những vụ sạt lở đất nào đã được ghi nhận xảy ra tại khu vực của bạn. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;bản đồ&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Vì có độ dốc hơn nên khu vực này có nhiều nguy cơ xảy ra sạt lở đất nhẹ&lt;/b&gt;. Sạt lở đất thường xảy ra khi nền đất ẩm ướt do mưa nhiều HOẶC rung chấn do động đất gây ra. Kéo xuống phần các sự kiện lịch sử để xem các hoạt động sạt lở nào đã được ghi nhận xảy ra tại khu vực của bạn. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;bản đồ&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Không nhiều khả năng xảy ra sạt lở tại đây&amp;#44; nhưng có thể xảy ra tại một sườn dốc gần đó nếu hội tụ đủ điều kiện&lt;/b&gt;. Cảnh giác với những khu vực không ổn định. Đặc biệt là những con đường đã bị đống đổ nát rơi xuống chặn lại hoặc bị mưa gây sụt lún. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;bản đồ&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Những sườn dốc gần đó có cây hay không? Có phải trời đã mưa suốt nhiều ngày? &lt;b&gt;Nếu câu trả lời là có&amp;#44; những sườn dốc này có nhiều khả năng sẽ xảy ra sạt lở đất&lt;/b&gt;.Cảnh giác với những khu vực không ổn định. Đặc biệt là những con đường đã bị đống đổ nát rơi xuống chặn lại hoặc bị mưa gây sụt lún. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;bản đồ&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Sạt lở đất thường xảy ra dọc theo những vách đá cạnh bờ biển nơi hứng chịu những đợt sóng đánh vào bờ. &lt;b&gt;Mực nước tại eo biển Puget đã dâng lên thêm 8 inch kể từ năm 1913&lt;/b&gt;! Với mực nước biển cao hơn&amp;#44; nguy cơ xói mòn vách đá cũng tăng lên. Lượng mưa lớn từ những cơn bão cũng làm suy yếu những sườn dốc&amp;#44; gây thêm nhiều vụ sạt lở tại Quận King. Bấm vào hình ảnh để tìm hiểu thêm.&lt;br&gt;&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storms Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Bạn có nghe thấy tiếng cây đổ&amp;#44; đá va vào nhau&amp;#44; hay âm thanh từ đất? Bạn có nhìn thấy những vết nứt xung quanh và đất đá&amp;#44; cây cối di chuyển xuống dốc? Đó có thể là một vụ sạt lở đất. Hãy di chuyển đến khu vực vững chãi.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;ĐÁNH GIÁ &lt;/b&gt; - Nếu khu vực xung quanh nhà bạn có nguy cơ sạt lở cao&amp;#44; &lt;b&gt;hãy tìm kiếm lời khuyên từ các chuyên gia địa chất&lt;/b&gt;. Họ có thể đánh giá tai biến sạt lở và/hoặc thiết kế các kỹ thuật khắc phục nhằm giảm thiểu nguy cơ sạt lở.&lt;/li&gt;&lt;li&gt;&lt;b&gt;GIẢM THIỂU NGUY CƠ &lt;/b&gt; -  Trồng cây bao phủ các sườn dốc và/hoặc xây tường chắn để &lt;b&gt;gia cố sườn đồi.&lt;/b&gt;&lt;/li&gt;&lt;li&gt;&lt;b&gt;CHUẨN BỊ - Chuẩn bị một bộ vật dụng cần thiết và lên kế hoạch cho gia đình &lt;/b&gt;với ít nhất hai tuyến đường sơ tán.&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Tránh xa đường sạt lở đất hoặc hướng di chuyển của dòng lũ bùn đá là cách bảo vệ bạn tốt nhất.&lt;/b&gt; Cục Khảo Sát Địa Chất Hoa Kỳ cũng khuyến nghị những biện pháp sau&amp;#44; &lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;&lt;b&gt;CẢNH GIÁC - Lắng nghe những âm thanh bất thường&lt;/b&gt;. Những trận mưa lớn&amp;#44; đột ngột có thể đặc biệt nguy hiểm&amp;#44; nhất là sau khoảng thời gian mưa kéo dài và thời tiết ẩm ướt.&lt;/li&gt;&lt;li&gt;&lt;b&gt;CÂN NHẮC SƠ TÁN&lt;/b&gt; - Nếu bạn ở trong những khu vực dễ bị sạt lở và các dòng lũ bùn đá&amp;#44; hãy cân nhắc đến việc rời khỏi nơi đó nếu an toàn. Nếu bạn quyết định ở trong nhà&amp;#44; hãy chuyển lên tầng cao hơn nếu có thể.&lt;/li&gt;&lt;li&gt;&lt;b&gt;CHÚ Ý MỰC NƯỚC &lt;/b&gt; - Nếu bạn gần sông suối hoặc kênh mương&amp;#44; &lt;b&gt;hãy cảnh giác với sự thay đổi lên xuống bất thường của dòng nước và màu sắc từ trong sang bùn đục&lt;/b&gt;. Đây có thể là dấu hiệu của hoạt động sạt lở ở thượng nguồn. ĐỪNG CHẦN CHỪ! Hãy cứu lấy bản thân chứ không phải đồ đạc của bạn.
+&lt;/li&gt;&lt;/ul&gt; Bạn có thể tìm hiểu thêm lời khuyên về lở đất từ USGS  &lt;a href=http://landslides.usgs.gov/learn/prepare.php target=_blank&gt;tại đây&lt;/a&gt;. &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Landslide_during.jpg" alt="This is a panel of three cartoon images showing what to do during an a landslide. Stay Alert&amp;#44; Leave the area&amp;#44; and Don't Delay." title="During Landslide Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;CHUẨN BỊ ỨNG PHÓ VỚI LŨ LỤT (sạt lở đất thường chặn các con sông và khiến mực nước dâng lên và gây lũ lụt)&lt;/b&gt;.&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;Tránh xa khu vực sạt lở. Các vụ sạt lở khác có thể diễn ra sau vụ sạt lở chính.&lt;/li&gt;&lt;li&gt;Một khi đã an toàn&amp;#44; hãy kiểm tra những người bị thương và mắc kẹt.&lt;/li&gt;&lt;li&gt;Kiểm tra các đường dây cung cấp tiện ích sinh hoạt bị hư hại và báo cáo thiệt hại cho công ty cấp điện&amp;#44; nước hoặc ga của bạn.&lt;/li&gt;&lt;li&gt;Theo dõi truyền thông địa phương hoặc Đài Phát Thanh Thời Tiết NOAA để cập nhật thông tin hiện tại.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Để biết thêm thông tin&amp;#44; hãy truy cập trang web của Bộ Tài Nguyên Môi Trường về &lt;a href=http://www.dnr.wa.gov/programs-and-services/geology/geologic-hazards/landslides#some-historic-landslides-in-washington-state target=_blank&gt;sạt lở đất&lt;/a&gt; và &lt;a href=http://file.dnr.wa.gov/publications/ger_fs_landslide_hazards.pdf target=_blank&gt;hiểm hoạ sạt lở đất&lt;/a&gt;. Để biết thông tin về các vụ sạt lở tại khu vực của bạn&amp;#44; tham khảo những thông tin có sẵn từ &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/landslides.aspx target=_blank&gt;Quận King&lt;/a&gt; và &lt;a href=http://www.seattle.gov/dpd/aboutus/whoweare/emergencymanagement target=_blank&gt;Seattle&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Chưa xác định có vụ sạt lở nào xảy ra tại đây&lt;/b&gt; (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;Báo cáo 2016&lt;/a&gt;). Sạt lở đất diễn ra phổ biến nhất tại những sườn dốc cằn cỗi nơi tập hợp hệ thống thoát nước. Nếu bạn sống dưới một khu vực như vậy thì nên cẩn trọng với những nguy cơ (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en target=_blank&gt;bản đồ&lt;/a&gt;). Để kiểm tra những lớp dữ liệu sâu sát hơn&amp;#44; hãy truy cập &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;iMap Quận King&lt;/a&gt; (đảm bảo sạt lở đất đã được đánh dấu trong phần chú thích).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Các nhà khoa học chưa ghi nhận được bất kỳ vụ sạt lở nào tại đây&lt;/b&gt;. Để biết thêm thông tin xem &lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;Báo cáo 2016&lt;/a&gt; và &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg target=_blank&gt;bản đồ&lt;/a&gt;. Để kiểm tra những lớp dữ liệu sâu sát hơn&amp;#44; hãy truy cập &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;iMap Quận King&lt;/a&gt; (đảm bảo sạt lở đất đã được đánh dấu trong phần chú thích).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Không có vụ sạt lở nào được ghi nhận tại đây&lt;/b&gt; theo một nghiên cứu được tiến hành năm 1995 tại Thành Phố Seattle. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg target=_blank&gt;bản đồ&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Chưa có nghiên cứu được hoàn thành tại đây&lt;/b&gt; để xác định xem liệu có vụ sạt lở lịch sử nào từng diễn ra (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;bản đồ&lt;/a&gt;).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MỘT VỤ SẠT LỞ ĐẤT ĐÃ XẢY RA TẠI ĐÂY&lt;/b&gt; trong quá khứ (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;Báo cáo 2016&lt;/a&gt;) và (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;bản đồ&lt;/a&gt;). Lịch sử sạt lở có thể hoặc không chỉ ra nguy cơ sạt lở trong tương lai. Để xác định mối nguy hiểm có còn tồn tại hay không&amp;#44; cần kiểm tra cụ thể tại hiện trường từ chuyên gia tư vấn địa kỹ thuật. Để kiểm tra những lớp dữ liệu sâu sát hơn&amp;#44; hãy truy cập &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;iMap Quận King&lt;/a&gt; (đảm bảo sạt lở đất đã được đánh dấu trong phần chú thích).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MỘT VỤ SẠT LỞ ĐẤT ĐÃ XẢY RA TẠI ĐÂY&lt;/b&gt; trong quá khứ (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;Báo cáo 2016&lt;/a&gt;) và (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;bản đồ&lt;/a&gt;). Lịch sử sạt lở có thể hoặc không chỉ ra nguy cơ sạt lở trong tương lai. Để xác định mối nguy hiểm có còn tồn tại hay không&amp;#44; cần kiểm tra cụ thể tại hiện trường từ chuyên gia tư vấn địa kỹ thuật. Để kiểm tra những lớp dữ liệu sâu sát hơn&amp;#44; hãy truy cập &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;iMap Quận King&lt;/a&gt; (đảm bảo sạt lở đất đã được đánh dấu trong phần chú thích).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MỘT VỤ SẠT LỞ ĐẤT và LỞ ĐÁ ĐÃ XẢY RA TẠI ĐÂY&lt;/b&gt; trong quá khứ  (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;Báo cáo 2016&lt;/a&gt;) và (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;bản đồ&lt;/a&gt;). Lịch sử sạt lở có thể hoặc không chỉ ra nguy cơ sạt lở trong tương lai. Để xác định mối nguy hiểm có còn tồn tại hay không&amp;#44; cần kiểm tra cụ thể tại hiện trường từ chuyên gia tư vấn địa kỹ thuật. Để kiểm tra những lớp dữ liệu sâu sát hơn&amp;#44; hãy truy cập &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;iMap Quận King&lt;/a&gt; (đảm bảo sạt lở đất đã được đánh dấu trong phần chú thích).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MỘT VỤ LỞ ĐÁ ĐÃ XẢY RA TẠI ĐÂY&lt;/b&gt; trong quá khứ (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;Báo cáo 2016&lt;/a&gt;) và (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;bản đồ&lt;/a&gt;). Lịch sử sạt lở có thể hoặc không chỉ ra nguy cơ sạt lở trong tương lai. Để xác định mối nguy hiểm có còn tồn tại hay không&amp;#44; cần kiểm tra cụ thể tại hiện trường từ chuyên gia tư vấn địa kỹ thuật. Để kiểm tra những lớp dữ liệu sâu sát hơn&amp;#44; hãy truy cập &lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt;iMap Quận King&lt;/a&gt; (đảm bảo sạt lở đất đã được đánh dấu trong phần chú thích).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;MỘT VỤ SẠT LỞ ĐẤT ĐÃ XẢY RA TẠI ĐÂY&lt;/b&gt; theo một nghiên cứu năm 1995 tại Thành Phố Seattle (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;bản đồ&lt;/a&gt;). Lịch sử sạt lở có thể hoặc không chỉ ra nguy cơ sạt lở trong tương lai. Để xác định mối nguy hiểm có còn tồn tại hay không&amp;#44; cần kiểm tra cụ thể tại hiện trường từ chuyên gia tư vấn địa kỹ thuật.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Đây là khu vực có nguy cơ cháy rừng rất cao&lt;/b&gt;. Nó ở nằm ở ranh giới giữa con người và khu rừng. Miền Tây Washington là vùng có khí hậu ôn hòa&amp;#44; nhưng các vụ cháy rừng cũng tấn công vùng phía Đông của Quận King mỗi năm. (&lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;bản đồ&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Đây là khu vực có nguy cơ cháy rừng cao&lt;/b&gt;. Nó ở nằm ở ranh giới giữa con người và khu rừng. Miền Tây Washington là vùng có khí hậu ôn hòa&amp;#44; nhưng các vụ cháy rừng cũng tấn công vùng phía Đông của Quận King mỗi năm. (&lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;bản đồ&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khu vực này không được xác định có nguy cơ cháy rừng cao&lt;/b&gt;&amp;#44; nhưng nó cách khu vực nguy cơ cao chỉ khoảng nửa dặm. Nếu gặp điều kiện thuận lợi&amp;#44; ngọn lửa sẽ lan rộng. (&lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;bản đồ&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Khu vực này có nguy cơ cháy rừng thấp hoặc rất thấp&lt;/b&gt;. Nếu bạn sống gần khu vực rừng cây&amp;#44; hãy đề phòng cháy rừng có thể xảy ra. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Vì đây là nước nên không có nguy cơ cháy rừng xảy ra tại đây.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Bạn có thể gặp phải một trận cháy rừng lớn tại đây&lt;/b&gt;. Nó sẽ di chuyển nhanh&amp;#44; với ngọn lửa lớn và có thể đổi hướng nhanh chóng. Phải mất vài ngày hoặc hàng tuần để các nhân viên cứu hoả có thể khống chế được trận hỏa hoạn. KHÓI từ các vụ cháy có thể di chuyển đến khoảng cách xa và có thể là nguy cơ ngay cả khi không có gì cháy xung quanh. Kiểm tra chất lượng không khí khu vực của bạn &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx target=_blank&gt;tại đây&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Bạn có thể gặp phải một trận cháy rừng tại đây&lt;/b&gt;. Nó sẽ di chuyển nhanh&amp;#44; với ngọn lửa lớn và có thể đổi hướng nhanh chóng. Phải mất vài ngày hoặc hàng tuần để các nhân viên cứu hoả có thể khống chế được trận hỏa hoạn. KHÓI từ các vụ cháy có thể di chuyển đến khoảng cách xa và có thể là nguy cơ ngay cả khi không có gì cháy xung quanh. Kiểm tra chất lượng không khí khu vực của bạn &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx target=_blank&gt;tại đây&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Dù không có khả năng&amp;#44; nhưng nếu bạn sống gần khu vực rừng&amp;#44; bạn có thể gặp cháy rừng&lt;/b&gt;. KHÓI từ các vụ cháy có thể di chuyển đến khoảng cách xa và có thể là nguy cơ ngay cả khi không có gì cháy xung quanh. Kiểm tra chất lượng không khí khu vực của bạn &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx target=_blank&gt;tại đây&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Số lượng &lt;b&gt;các vụ cháy rừng tại vùng Tây Bắc Thái Bình Dương đã tăng lên rõ rệt trong vài thập kỷ qua&lt;/b&gt;. Xu hướng này nhiều khả năng sẽ tiếp diễn với những mùa hè khô hơn và nhiều bão hơn (sét đánh có thể làm bùng lên ngọn lửa). Nhiều khu vực rừng rộng lớn có thể cháy và thải một lượng khói lớn vào khí quyển. Bấm vào hình ảnh để tìm hiểu thêm.&lt;br&gt;&lt;a  ref="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Forests.jpg" alt="Climate Change Forest Infographic"&gt;
+&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Bạn có ngửi hoặc nhìn thấy khói? Đó là một dải thời tiết khô? Đó có thể là cháy rừng. Tránh xa những đám cháy đang cháy và nếu thấy ngọn lửa bùng lên&amp;#44; hãy gọi 9-1-1 để báo cháy</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;TẠO KHÔNG GIAN&lt;/b&gt; - Bảo vệ mạng sống và tài sản bằng cách tạo một &lt;b&gt;không gian thích ứng với lửa xung quanh nhà&amp;#44;&lt;/b&gt; kho và nơi làm việc của bạn. Để biết cách thực hiện&amp;#44; hãy truy cập &lt;a href=http://www.firewise.org/wildfire-preparedness.aspx target=_blank&gt;firewise.org&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;THEO DÕI THỜI TIẾT&lt;/b&gt; - Chỉ cần vài ngày nắng là đủ để khiến rừng cây khô héo và dễ dàng bắt lửa. Điều kiện có gió có thể khiến ngọn lửa nhanh chóng vượt khỏi tầm kiểm soát.&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Firewise_Brochure.jpg" alt="This is an image of ways to prevent wildfire around your home. They include screening decks&amp;#44; pruning trees 6-10 feet from the ground&amp;#44; using fire-resistant wall and roof materials&amp;#44; keeping plants watered&amp;#44; and making sure your driveway can accommodate an emergency vehicle" title="How to Prepare Your Home for Wildfire"&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;THEO DÕI&lt;/b&gt; - Chú ý theo dõi cảnh báo khẩn cấp của địa phương trên đài phát thanh và/hoặc vô tuyến và sẵn sàng để sơ tán nếu cần thiết.&lt;/li&gt;&lt;li&gt;&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Chỉ quay trở về nhà khi chính quyền thông báo đã an toàn.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Thận trọng khi tiến vào các khu vực bị cháy&lt;/b&gt; bởi nguy hiểm vẫn có thể rình rập.&lt;/li&gt;
+&lt;li&gt;Kiểm tra cẩn thận nhiều lần dấu hiệu của khói hoặc tàn lửa còn sót lại.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Chụp ảnh thiệt hại&lt;/b&gt; để phục vụ mục đích bảo hiểm.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nếu bạn nghĩ ngôi nhà của bạn có nguy cơ cao&amp;#44; &lt;b&gt;Quận King có thông tin&amp;#44; chương trình khuyến khích và hội thảo đào tạo dành cho các chủ đất&lt;/b&gt;. Bạn có thể tìm hiểu thêm &lt;a href=http://www.kingcounty.gov/environment/water-and-land/forestry.aspx target=_blank&gt;tại đây&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Phía Đông Quận King có các vụ cháy rừng nhỏ mỗi năm. Thường thì con người là nguyên nhân chủ yếu. Hãy xem nơi các vụ cháy xảy ra trong quá khứ bằng cách bấm &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_Historic.jpg target=_blank&gt;tại đây&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Lahar (dòng bùn núi lửa) là hiểm hoạ chính từ Núi Rainier. &lt;b&gt;Các cư dân tại phía Nam Quận King có 1/10 cơ hội gặp phải lahar trong đời&lt;/b&gt;. Núi Rainier được coi là một ngọn núi lửa đang hoạt động&amp;#44; nhưng phải nhiều năm nữa nó mới phun trào lại.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nếu lahar xảy ra trên Núi Rainier&amp;#44; &lt;b&gt;khu vực này sẽ bị lũ lụt&amp;#44; và những trầm tích như bùn&amp;#44; cát&amp;#44; đá và các đống đổ nát khác đều sẽ bị dòng lahar cuốn xuống sông&lt;/b&gt;. Hiện tượng này có thể xảy ra hàng năm cho đến hàng thập kỷ sau khi lahar xảy ra. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Có 10% - 40% khả năng lahar sẽ xuất hiện từ Núi Rainier và chảy qua khu vực này trong vòng 50 năm tới&lt;/b&gt;. Lahar hoạt động và trông giống như dòng xi măng ướt. Lớp bùn dày và lũ bùn đá sẽ bao phủ cả khu vực nếu lahar xảy ra. Điều này có thể gây thiệt hại tài sản nghiêm trọng và mất một thời gian dài để tái thiết. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Có 5% - 10% khả năng lahar sẽ xuất hiện từ Núi Rainier và chảy qua khu vực này trong vòng 50 năm tới&lt;/b&gt;. Lahar hoạt động và trông giống như dòng xi măng ướt. Lớp bùn dày và lũ bùn đá sẽ bao phủ cả khu vực nếu lahar xảy ra. Điều này có thể gây thiệt hại tài sản nghiêm trọng và mất một thời gian dài để tái thiết. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;Bạn ở BÊN NGOÀI KHU VỰC CÓ HIỂM HOẠ LAHAR&lt;/b&gt;. Nếu Núi Rainier phun trào&amp;#44; tro bụi sẽ che phủ cả khu vực. Nó sẽ trông giống như những khu vực bị ảnh hưởng bởi đợt phun trào của Núi Saint Helen vào năm 1980. Độ dày của tro bụi sẽ thay đổi tùy vào khoảng cách từ vụ phun trào. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(bản đồ)&lt;/a&gt;&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>Thông thường núi lửa sẽ có những tín hiệu cảnh báo vài ngày hay hàng tháng trước khi phun trào. &lt;b&gt;Hoạt động khí và động đất gia tăng và bề mặt đất nhô lên khi mắc ma di chuyển bên dưới&lt;/b&gt;. Mặc dù các dấu hiệu này có thể khó nhận biết đối với công chúng&amp;#44; nhưng núi Rainer vẫn được theo dõi liên tục bởi các nhà khoa học thuộc &lt;a href=http://volcanoes.usgs.gov/volcanoes/mount_rainier/ target=_blank&gt;Chương Trình Hiểm Hoạ Núi Lửa USGS&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;HỎI&lt;/b&gt; - Tìm hiểu bước mà các nhân viên chính phủ địa phương thực hiện để chuẩn bị cho sự cố núi lửa. &lt;b&gt;Hỏi các nhân viên chính phủ địa phương xem kế hoạch của họ là gì và họ sẽ liên lạc với bạn như thế nào trong khi xảy ra sự cố&lt;/b&gt;. Bạn có thể liên hệ  &lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=_blank&gt;Văn Phòng Quản Lý Trường Hợp Khẩn Cấp&lt;/a&gt; của Quận King.&lt;/li&gt;&lt;li&gt;&lt;b&gt;LẬP KẾ HOẠCH&lt;/b&gt; - Nói với bạn bè và hàng xóm của bạn. Nếu bạn trong vùng có nguy cơ cao&amp;#44; &lt;b&gt;hãy quyết định nơi bạn sẽ đi&amp;#44; bạn sẽ mang theo những gì&amp;#44; và bạn sẽ liên lạc với ai&lt;/b&gt;.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Trong khi núi lửa phun trào&amp;#44; hãy theo dõi thông tin để cập nhật tình hình và làm theo những hướng dẫn khẩn cấp.
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;TRONG VÙNG LAHAR - Di chuyển đến vùng đất cao ngay lập tức.&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Ở BÊN NGOÀI&lt;/b&gt; - Che miệng&amp;#44; mũi và cơ thể của bạn để tránh bị bỏng rát. &lt;b&gt;Tìm nơi trú ẩn&lt;/b&gt;. &lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Ở TRONG NHÀ - Đóng chặt cửa và các lỗ thông hơi trong nhà và ở trong nhà&amp;#44; trừ phi có chỉ dẫn khác&lt;/b&gt;. Dùng khăn ướt chèn chân cửa ra vào và dán chặt các khe cửa sổ hở. Tắt động cơ xe hơi và xe tải để tránh thiệt hại do tắc nghẽn tro bụi. Bảo vệ các loài động vật và máy móc bằng cách mang chúng vào trong nhà hoặc khu vực được che chắn.&lt;/li&gt;&lt;/ul&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Volcano_during.jpg" alt="This is an panel of three images of what to do during a volcanic eruption or lahar. In lahar zone&amp;#44; outside&amp;#44; inside." title="During Volcano Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sau khi mối nguy hiểm từ vụ phun trào đã lắng xuống&amp;#44; việc chính cần làm là dọn dẹp tro bụi.&lt;br&gt;  &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/MtStHel_Yakima_graders.jpg" alt="This image shows two graders shoveling inches of ashfall from Saint Helens' eruption" title="Ashfall Cleanup in Yakima After Mt. Saint Helens"&gt;&lt;li&gt;Đeo kính và mặt nạ khi ra ngoài. &lt;b&gt;Chất lượng không khí sẽ thấp&lt;/b&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Tránh chạy động cơ xe&lt;/b&gt;. Nếu bạn phải lái xe&amp;#44; hãy giữ tốc độ chậm (dưới 35 dặm/giờ) và thường xuyên kiểm tra dầu&amp;#44; bộ lọc dầu và bộ lọc không khí. &lt;/li&gt;&lt;li&gt;Tro bụi rất nặng và có thể khiến các tòa nhà đổ sập. Nếu đủ an toàn&amp;#44; &lt;b&gt;hãy dọn tro bụi từ mái nhà và máng nước mưa&lt;/b&gt;.&lt;/li&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Bạn có thể tìm hiểu thêm về Núi Rainier và nguy cơ tai biến từ các nguồn: 
+&lt;ul&gt;&lt;li&gt;&lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/ target=_blank&gt;Theo dõi và các thông tin khác&lt;/a&gt; - Cục Khảo Sát Địa Chất Hoa Kỳ&lt;/li&gt;&lt;li&gt;&lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=blank&gt;Thông Tin Tổng Quan về Quận King&lt;/a&gt; - Quận King&lt;li&gt;&lt;a href=https://www.nps.gov/mora/planyourvisit/geohazards.htm target=_blank&gt;Hiểm Hoạ Địa Chất tại Rainier&lt;/a&gt; - Cục Công viên Quốc Gia Hoa Kỳ&lt;/li&gt;&lt;li&gt;&lt;a href=http://www.pnsn.org/volcanoes/mount-rainier target=_blank&gt;Các trận động đất gần Rainier&lt;/a&gt; - Mạng Lưới Địa Chấn Tây Bắc Thái Bình Dương&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Núi Rainier có một lịch sử dài về &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_eruption_history.html target=_blank&gt;hoạt động phun trào&lt;/a&gt; và &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_lahars.html target=_blank&gt;lahar&lt;/a&gt;. Khoảng 500 năm trước&amp;#44; Dòng bùn núi lửa Electron tràn xuống qua Puyallup và đi xa tới Sumner&amp;#44; WA. Hàng nghìn năm trước đó&amp;#44; nhiều lahar đã di chuyển dọc theo các dòng sông địa phương và vươn tới tận Auburn. &lt;b&gt;Một số thị trấn (NE Tacoma&amp;#44; Orting&amp;#44; và Puyallup) được xây dựng trên các lớp trầm tích của lahar.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Trên khắp Quận King&amp;#44; mùa đông có thể mang đến nền nhiệt độ âm&amp;#44; đóng băng đường xá và nguy cơ xuất hiện các trận bão lớn. Tuyết rơi thường xuyên với tần suất cao hơn tại những khu vực ở độ cao hơn. &lt;b&gt;Những cơn bão mùa đông có thể mang theo những trận gió mạnh đủ sức quật ngã cây cối và gây nên tình trạng mất điện.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hiện tượng tuyết rơi nhiều có thể làm gián đoạn giao thông vận tải&amp;#44; các dịch vụ an toàn công cộng&amp;#44; và tiện ích sinh hoạt. &lt;b&gt;Điện có thể bị cắt trong nhiều ngày.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Khu vực Tây Bắc Thái Bình Dương sẽ phải đối mặt với nhiều cơn bão khắc nghiệt hơn trong vòng 50 năm tới&lt;/b&gt;. Chúng có thể mang theo gió mạnh&amp;#44; mưa lớn&amp;#44; gây nên lũ lụt. Các hoạt động mùa đông có thể sẽ bị ảnh hưởng. Năm 2015 chứng kiến lượng tuyết rơi thấp nhất trong lịch sử chỉ với 4% mức trung bình. Mùa đông ấm áp sẽ dẫn đến tình trạng hạn hán trên toàn bang. Bấm vào hình ảnh để tìm hiểu thêm.  &lt;br&gt;
+&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Winter.jpg" alt="Climate Change Winter Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Các nhà khí tượng học đã có bước tiến lớn trong việc dự báo các cơn bão tuyết. &lt;b&gt;Hãy chú ý theo dõi dự báo thời tiết địa phương và đăng ký nhận tin từ các hệ thống báo động và cảnh báo &lt;/b&gt;(&lt;a href=http://alert.seattle.gov/ target=_blank&gt;Cảnh báo Seattle&lt;/a&gt; và &lt;a href=http://www.kingcounty.gov/depts/emergency-management/alert-king-county.aspx target=_blank&gt;Cảnh báo Quận King&lt;/a&gt;) để đảm bảo bạn được cập nhật thông tin về tình trạng thời tiết khắc nghiệt sắp diễn ra.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;CHUẨN BỊ NHU YẾU PHẨM – Tích trữ nhiên liệu dự phòng và các vật dụng khẩn cấp &lt;/b&gt; để có thể sống sót trong nhiều ngày mà không có điện&amp;#44; máy sưởi và nước nóng. Cân nhắc mua một chiếc máy phát điện và tuân thủ các tiêu chuẩn về an toàn.&lt;/li&gt;&lt;li&gt;&lt;b&gt;NÂNG CẤP CĂN NHÀ CỦA BẠN&lt;/b&gt; - Lắp đặt cửa chống bão. Cách nhiệt cho tường&amp;#44; gác mái và đường ống. Dán và bịt kín các khe cửa ra vào và cửa sổ. Để vòi nước chảy nhỏ giọt trong những ngày thời tiết lạnh nhằm tránh đường ống bị đóng băng. &lt;b&gt;Tìm hiểu cách tắt van nước (trong trường hợp đường ống bị vỡ)&lt;/b&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;NÂNG CẤP PHƯƠNG TIỆN CỦA BẠN&lt;/b&gt; - Giữ nhiên liệu tối thiểu ở mức nửa bình. Kiểm tra pin&amp;#44; hệ thống đánh lửa&amp;#44; bộ tản nhiệt&amp;#44; đèn&amp;#44; phanh và bánh xe. Đổ đầy bình chứa bằng chất chống đông&amp;#44; dầu và dung dịch làm sạch cửa kính. &lt;b&gt;Giữ vật dụng khẩn cấp cho mùa đông trong xe tải của bạn.&lt;/b&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;NẮM THÔNG TIN&lt;/b&gt; - Theo dõi tin tức địa phương qua vô tuyến&amp;#44; thiết bị di động&amp;#44; hoặc đài chạy bằng pin. Tuân thủ hướng dẫn khẩn cấp và chú ý đến các khuyến nghị di chuyển.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;TRÁNH DI CHUYỂN&lt;/b&gt; - Nếu bắt buộc phải lái xe&amp;#44; hãy đổ đầy bình xăng&amp;#44; bám theo đường chính&amp;#44; và thông báo cho mọi người về hành trình của bạn. Di chuyển chậm. Nếu bị mắc kẹt&amp;#44; hãy gọi giúp đỡ&amp;#44; bật đèn cứu nạn và ở yên trong xe. Đừng bước chân ra ngoài trừ phi gần đó có nơi trú ẩn.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;NHẬN BIẾT NGUY CƠ&lt;/b&gt;- 
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;Mất nhiệt&lt;/b&gt; - Nếu bạn nhận thấy những dấu hiệu&amp;#44; hãy nhờ sự giúp đỡ y tế ngay lập tức. Để biết về triệu chứng và các thông tin khác&amp;#44; hãy bấm vào &lt;a href=https://www.cdc.gov/disasters/winter/staysafe/hypothermia.html target=_blank&gt;đây&lt;/a&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Ngộ độc khí CO&lt;/b&gt; - Tình trạng này xảy ra khi bạn đốt các nhiên liệu như khí ga&amp;#44; dầu&amp;#44; dầu hỏa&amp;#44; gỗ&amp;#44; hoặc than đá trong một không gian kín. Hàng trăm người đã vô tình thiệt mạng mỗi năm. Tìm hiểu thêm &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/carbon-monoxide.aspx target=_blank&gt;tại đây&lt;/a&gt;.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;li&gt;&lt;b&gt;TRÁNH XA HIỂM HOẠ&lt;/b&gt; - Tránh xa các đường dây điện bị đứt&amp;#44; ngập lụt&amp;#44; đường xá&amp;#44; và các công trình khác bị suy yếu do tuyết và đá dày.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Winter_during.jpg" alt="This is a panel of four images of what to do during bad winter weather. Stay Tuned&amp;#44; Stay Inside&amp;#44; Know Risks&amp;#44; and Avoid Hazards." title="During Winter Weather Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Bổ sung các vật dụng khẩn cấp&lt;/b&gt;. Sẵn sàng trong trường hợp một cơn bão khác ập đến.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Cải thiện kế hoạch gia đình&lt;/b&gt; - Điều gì có tác dụng? Điều gì cần cải thiện?&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Nói chuyện với hàng xóm&lt;/b&gt;. Cùng nhau chia sẻ mẹo hay và ý tưởng.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Tìm hiểu thêm về tình trạng mùa đông và cách chuẩn bị: 
+&lt;ul&gt;&lt;li&gt;
+&lt;a href=http://takewinterbystorm.org target=_blank&gt;Đối Phó Với Bão Mùa Đông&lt;/a&gt; - Mẹo chuẩn bị và thông tin cập nhật cho Miền Tây Washington&lt;/li&gt;
+&lt;li&gt;
+&lt;a href=http://kingcounty.gov/depts/transportation/metro/alerts-updates/winter.aspx target=_blank&gt;Tuyến Xe Điện Quận King Vào Mùa Đông&lt;/a&gt; - Các liên kết dẫn tới ứng dụng lập kế hoạch du lịch trong mùa đông và cảnh báo thời tiết &lt;/li&gt;
+&lt;li&gt;
+&lt;a href=https://www.seattle.gov/transportation/winterweather.htm target=_blank&gt;Sở Giao Thông Vận Tải Seattle&lt;/a&gt; - Kiểm tra những nơi đã được dọn tuyết và thông tin khác về điều kiện đường xá &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Một chuỗi mưa bão&amp;#44; đá và tuyết bắt đầu từ ngày 26 tháng Mười Hai&amp;#44; 1996 đã khiến 16 người thiệt mạng trên toàn bang và gây ra thiệt hại lên tới 57 triệu USD tại Quận King và Seattle&lt;/b&gt;. Hai cơn bão — một cơn trút xuống lớp tuyết ẩm dày 6-12 inch và cơn còn lại là 10 inch — kéo theo đó là mưa lớn khiến nhiều nhà để xe đổ sập&amp;#44; che phủ thuyền neo đậu và cắt đứt đường dây điện. Lần đầu tiên trong lịch sử&amp;#44; Metro Transit đã phải ngưng hoàn toàn dịch vụ. Băng đá và tuyết tan góp phần gây nên tình trạng lũ lụt và sạt lở đất trong tuần kế tiếp. Bạn đã sẵn sàng nếu một cơn bão như vậy xảy ra thêm lần nữa?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Đừng để những cơn mưa và mùa đông đánh lừa bạn&amp;#44; &lt;b&gt;mùa hè tại Quận King có thể rất NÓNG. Đôi khi nhiệt độ có thể lên tới đến hơn 90 độ F trong nhiều ngày liên tiếp&lt;/b&gt;. Sấm chớp&amp;#44; bão gió&amp;#44; cháy rừng và những đợt nóng là điều có thể xảy ra trên toàn khu vực.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nắng nóng khắc nghiệt có thể kéo dài nhiều ngày&amp;#44; khiến số lượng các bệnh về nhiệt gia tăng bao gồm KIỆT SỨC DO NÓNG và SỐC NHIỆT. Nhiệt độ cao&amp;#44; khô và nguy cơ sét đánh cao có thể dẫn đến tình trạng cháy rừng.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Tháng Bảy năm 2015 là tháng nóng nhất trong lịch sử! &lt;b&gt;Nhiệt độ trung bình năm được dự đoán sẽ tăng từ 3-10 độ F đến năm 2100&lt;/b&gt;. Người dân Washington sẽ chứng kiến số lượng các cơn mưa mùa hè ít hơn&amp;#44; nhưng lượng mưa sẽ nặng hơn (mưa trút xuống). Bấm vào hình ảnh để tìm hiểu thêm. &lt;br&gt; &lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storm Infographic"&gt;
+&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kiệt sức do nóng và sốc nhiệt là các bệnh lý nghiêm trọng có thể xảy ra khi một người tiếp xúc với hơi nóng cực độ.&lt;/p&gt;
+&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;
+&lt;b&gt;DẤU HIỆU KIỆT SỨC DO NÓNG&lt;/b&gt;:
+&lt;ul&gt;
+&lt;li&gt;Đổ mồ hôi nhiều&lt;/li&gt;
+&lt;li&gt;Mệt mỏi&lt;/li&gt;
+&lt;li&gt;Mạch đập yếu&lt;/li&gt;
+&lt;li&gt;Bị ngất xỉu&lt;/li&gt;
+&lt;li&gt;Nôn Mửa&lt;/li&gt;
+&lt;li&gt;Da tái xanh&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/div&gt;
+&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;
+&lt;b&gt;DẤU HIỆU SỐC NHIỆT&lt;/b&gt;:
+&lt;ul&gt;
+&lt;li&gt;Nhiệt độ cơ thể cao (từ 103 độ F trở lên)&lt;/li&gt;
+&lt;li&gt;Da nóng và khô&lt;/li&gt;
+&lt;li&gt;Mạch đập nhanh và mạnh&lt;/li&gt;
+&lt;li&gt;Có thể ngất xỉu&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Người già&amp;#44; trẻ em và những người mắc bệnh về tâm thần và các bệnh mãn tính có nguy cơ gặp vấn đề về nhiệt cao hơn.
+&lt;ol&gt;&lt;li&gt;&lt;b&gt;NHẬN BIẾT DẤU HIỆU&lt;/b&gt; - Các bệnh về nhiệt có thể xảy ra nhanh chóng. Biết và nắm được những người nào xung quanh bạn có thể gặp nguy hiểm. &lt;/li&gt;&lt;li&gt;&lt;b&gt;NẮM THÔNG TIN &lt;/b&gt; - Lắng nghe tin tức địa phương để nắm được thông tin chung và vị trí của &lt;b&gt;trung tâm làm mát&lt;/b&gt; (khu vực công cộng có thể được sử dụng để người dân tránh nóng).&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Ở NƠI MÁT MẺ&lt;/b&gt; - Ở trong nhà và nếu có thể&amp;#44; ở những nơi có điều hòa nhiệt độ (trung tâm mua sắm&amp;#44; thư viện&amp;#44; rạp chiếu phim&amp;#44; v.v.). Hạn chế hoạt động ngoài trời.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;BẢO VỆ DA&lt;/b&gt; - Mặc quần áo nhẹ&amp;#44; mào sắc tươi sáng&amp;#44; thoáng mát. Một chiếc mũ rộng vàng&amp;#44; kính râm và kem chống nắng sẽ rất có ích.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;UỐNG NƯỚC&lt;/b&gt; - Uống nhiều chất lỏng (tránh xa cafein&amp;#44; rượu bia và đồ uống có đường) và mang theo một chai nước.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;QUAN TÂM ĐẾN MỌI NGƯỜI&lt;/b&gt; - Đưa trẻ nhỏ và thú nuôi ra khỏi xe nóng. Thường xuyên kiểm tra các gia đình&amp;#44; bạn bè và hàng xóm có nguy cơ cao.&lt;/li&gt;&lt;/ul&gt;
+&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Summer_during.jpg" alt="This is a panel of three images of what to do during bad summer weather. Stay Cool&amp;#44; Protect Skin&amp;#44; and Drink Water." title="During Summer Weather Image"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Sử dụng rèm để &lt;b&gt;che chắn cửa sổ và giữa không khí mát bên trong&lt;/b&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Cân nhắc mua hệ thống điều hòa nhiệt độ&lt;/b&gt; và/hoặc bít các khe cửa nơi khí nóng có thể tràn vào.&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;GIẢI PHÁP TIẾT KIỆM&lt;/b&gt;: Lắp đặt tấm phản nhiệt (đặt giữa cửa sổ và rèm)&amp;#44; như tấm bìa phủ giấy bạc để phản chiếu lại nhiệt ra bên ngoài. Bấm &lt;a href=http://www.instructables.com/id/Heat-blocking-curtains/ target=_blank&gt;vào đây&lt;/a&gt; để xem hướng dẫn tự làm tại nhà.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Để biết thêm thông tin về cách làm mát và an toàn&amp;#44; hãy truy cập trang &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/hot-weather.aspx target=_blank&gt;Thời Tiết Nắng Nóng&lt;/a&gt; của Quận King.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Vào năm 2015&amp;#44; Quận King đã có số ngày vượt quá ngưỡng nhiệt 90 F nhiều kỷ lục. &lt;b&gt;Tháng Bảy&amp;#44; 2015 là tháng nóng nhất được ghi nhận trong lịch sử Quận King!&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>text-vi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -13276,6 +13993,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -14040,7 +14771,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -14067,6 +14798,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="683">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -15085,13 +15818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L292"/>
+  <dimension ref="A1:M292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15101,9 +15834,10 @@
     <col min="5" max="5" width="10.83203125" style="2"/>
     <col min="8" max="10" width="53.1640625" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.83203125" style="21"/>
+    <col min="13" max="13" width="53.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15140,8 +15874,11 @@
       <c r="L1" s="20" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -15175,8 +15912,11 @@
       <c r="L2" s="21" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -15210,8 +15950,11 @@
       <c r="L3" s="21" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -15245,12 +15988,15 @@
       <c r="L4" s="21" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D5" s="3"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -15284,8 +16030,11 @@
       <c r="L6" s="21" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -15319,8 +16068,11 @@
       <c r="L7" s="21" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -15354,8 +16106,11 @@
       <c r="L8" s="21" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -15389,8 +16144,11 @@
       <c r="L9" s="21" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -15424,12 +16182,15 @@
       <c r="L10" s="21" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -15463,8 +16224,11 @@
       <c r="L12" s="21" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -15498,8 +16262,11 @@
       <c r="L13" s="21" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -15533,12 +16300,15 @@
       <c r="L14" s="21" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -15572,8 +16342,11 @@
       <c r="L16" s="21" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -15607,8 +16380,11 @@
       <c r="L17" s="21" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -15642,8 +16418,11 @@
       <c r="L18" s="21" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -15677,8 +16456,11 @@
       <c r="L19" s="21" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -15712,8 +16494,11 @@
       <c r="L20" s="21" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -15747,12 +16532,15 @@
       <c r="L21" s="21" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -15786,8 +16574,11 @@
       <c r="L23" s="20" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -15821,8 +16612,11 @@
       <c r="L24" s="21" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -15856,8 +16650,11 @@
       <c r="L25" s="21" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -15891,8 +16688,11 @@
       <c r="L26" s="21" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -15926,8 +16726,11 @@
       <c r="L27" s="21" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -15961,8 +16764,11 @@
       <c r="L28" s="21" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -15996,8 +16802,11 @@
       <c r="L29" s="21" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -16031,8 +16840,11 @@
       <c r="L30" s="21" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -16066,12 +16878,15 @@
       <c r="L31" s="21" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D32" s="3"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -16105,8 +16920,11 @@
       <c r="L33" s="21" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -16140,8 +16958,11 @@
       <c r="L34" s="21" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -16175,8 +16996,11 @@
       <c r="L35" s="21" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -16210,8 +17034,11 @@
       <c r="L36" s="21" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -16245,12 +17072,15 @@
       <c r="L37" s="21" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D38" s="3"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -16284,12 +17114,15 @@
       <c r="L39" s="21" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D40" s="3"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -16320,8 +17153,11 @@
       <c r="L41" s="21" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -16352,8 +17188,11 @@
       <c r="L42" s="21" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -16384,12 +17223,15 @@
       <c r="L43" s="20" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D44" s="3"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -16420,8 +17262,11 @@
       <c r="L45" s="1" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -16452,8 +17297,11 @@
       <c r="L46" s="1" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -16484,8 +17332,11 @@
       <c r="L47" s="1" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -16516,8 +17367,11 @@
       <c r="L48" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -16548,8 +17402,11 @@
       <c r="L49" s="1" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -16580,8 +17437,11 @@
       <c r="L50" s="1" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -16612,8 +17472,11 @@
       <c r="L51" s="1" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -16644,8 +17507,11 @@
       <c r="L52" s="1" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -16676,8 +17542,11 @@
       <c r="L53" s="1" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M53" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -16708,8 +17577,11 @@
       <c r="L54" s="1" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -16740,8 +17612,11 @@
       <c r="L55" s="1" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -16772,8 +17647,11 @@
       <c r="L56" s="1" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -16804,8 +17682,11 @@
       <c r="L57" s="1" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -16836,8 +17717,11 @@
       <c r="L58" s="1" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -16868,8 +17752,11 @@
       <c r="L59" s="1" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -16900,8 +17787,11 @@
       <c r="L60" s="1" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>47</v>
       </c>
@@ -16932,8 +17822,11 @@
       <c r="L61" s="1" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>47</v>
       </c>
@@ -16964,8 +17857,11 @@
       <c r="L62" s="1" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -16996,8 +17892,11 @@
       <c r="L63" s="1" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -17028,8 +17927,11 @@
       <c r="L64" s="1" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -17060,8 +17962,11 @@
       <c r="L65" s="1" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -17092,8 +17997,11 @@
       <c r="L66" s="1" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -17124,8 +18032,11 @@
       <c r="L67" s="1" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -17156,8 +18067,11 @@
       <c r="L68" s="1" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -17188,8 +18102,11 @@
       <c r="L69" s="1" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -17220,8 +18137,11 @@
       <c r="L70" s="1" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -17252,8 +18172,11 @@
       <c r="L71" s="1" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -17284,8 +18207,11 @@
       <c r="L72" s="1" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -17316,8 +18242,11 @@
       <c r="L73" s="1" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>47</v>
       </c>
@@ -17348,8 +18277,11 @@
       <c r="L74" s="1" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -17380,8 +18312,11 @@
       <c r="L75" s="1" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -17412,8 +18347,11 @@
       <c r="L76" s="1" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -17444,8 +18382,11 @@
       <c r="L77" s="1" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -17476,8 +18417,11 @@
       <c r="L78" s="1" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -17508,8 +18452,11 @@
       <c r="L79" s="1" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>47</v>
       </c>
@@ -17540,8 +18487,11 @@
       <c r="L80" s="1" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>47</v>
       </c>
@@ -17572,8 +18522,11 @@
       <c r="L81" s="1" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>47</v>
       </c>
@@ -17604,8 +18557,11 @@
       <c r="L82" s="1" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -17636,8 +18592,11 @@
       <c r="L83" s="1" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -17668,8 +18627,11 @@
       <c r="L84" s="1" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>47</v>
       </c>
@@ -17700,8 +18662,11 @@
       <c r="L85" s="1" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>47</v>
       </c>
@@ -17732,8 +18697,11 @@
       <c r="L86" s="1" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -17764,8 +18732,11 @@
       <c r="L87" s="1" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -17796,8 +18767,11 @@
       <c r="L88" s="1" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>47</v>
       </c>
@@ -17828,8 +18802,11 @@
       <c r="L89" s="1" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>47</v>
       </c>
@@ -17860,8 +18837,11 @@
       <c r="L90" s="1" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>47</v>
       </c>
@@ -17892,8 +18872,11 @@
       <c r="L91" s="1" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>47</v>
       </c>
@@ -17924,8 +18907,11 @@
       <c r="L92" s="1" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>47</v>
       </c>
@@ -17956,8 +18942,11 @@
       <c r="L93" s="1" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>47</v>
       </c>
@@ -17988,8 +18977,11 @@
       <c r="L94" s="1" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>47</v>
       </c>
@@ -18020,8 +19012,11 @@
       <c r="L95" s="1" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -18052,8 +19047,11 @@
       <c r="L96" s="1" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -18084,8 +19082,11 @@
       <c r="L97" s="1" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="1" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -18116,8 +19117,11 @@
       <c r="L98" s="1" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>47</v>
       </c>
@@ -18148,8 +19152,11 @@
       <c r="L99" s="1" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>47</v>
       </c>
@@ -18180,8 +19187,11 @@
       <c r="L100" s="1" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>47</v>
       </c>
@@ -18212,8 +19222,11 @@
       <c r="L101" s="1" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -18244,8 +19257,11 @@
       <c r="L102" s="1" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>47</v>
       </c>
@@ -18276,8 +19292,11 @@
       <c r="L103" s="1" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>47</v>
       </c>
@@ -18308,8 +19327,11 @@
       <c r="L104" s="1" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M104" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -18340,8 +19362,11 @@
       <c r="L105" s="1" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -18372,8 +19397,11 @@
       <c r="L106" s="1" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>47</v>
       </c>
@@ -18404,8 +19432,11 @@
       <c r="L107" s="1" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>47</v>
       </c>
@@ -18436,8 +19467,11 @@
       <c r="L108" s="1" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>47</v>
       </c>
@@ -18468,12 +19502,15 @@
       <c r="L109" s="1" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D110" s="3"/>
       <c r="I110" s="8"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>53</v>
       </c>
@@ -18504,24 +19541,29 @@
       <c r="L111" s="21" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M111" s="22" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E112" s="13"/>
       <c r="H112" s="14"/>
       <c r="I112" s="16"/>
       <c r="J112" s="14"/>
       <c r="K112" s="21"/>
       <c r="L112" s="21"/>
-    </row>
-    <row r="113" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M112" s="14"/>
+    </row>
+    <row r="113" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E113" s="13"/>
       <c r="H113" s="14"/>
       <c r="I113" s="16"/>
       <c r="J113" s="14"/>
       <c r="K113" s="21"/>
       <c r="L113" s="21"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113" s="14"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -18555,8 +19597,11 @@
       <c r="L114" s="21" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -18590,8 +19635,11 @@
       <c r="L115" s="21" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -18625,8 +19673,11 @@
       <c r="L116" s="21" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -18660,8 +19711,11 @@
       <c r="L117" s="21" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -18695,8 +19749,11 @@
       <c r="L118" s="21" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -18730,8 +19787,11 @@
       <c r="L119" s="21" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -18765,8 +19825,11 @@
       <c r="L120" s="21" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -18800,12 +19863,15 @@
       <c r="L121" s="21" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D122" s="4"/>
       <c r="I122" s="8"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -18839,8 +19905,11 @@
       <c r="L123" s="21" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -18874,8 +19943,11 @@
       <c r="L124" s="21" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -18909,8 +19981,11 @@
       <c r="L125" s="21" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -18944,8 +20019,11 @@
       <c r="L126" s="21" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -18979,8 +20057,11 @@
       <c r="L127" s="21" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -19014,8 +20095,11 @@
       <c r="L128" s="21" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -19049,8 +20133,11 @@
       <c r="L129" s="21" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -19084,12 +20171,15 @@
       <c r="L130" s="21" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D131" s="4"/>
       <c r="I131" s="8"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -19123,8 +20213,11 @@
       <c r="L132" s="21" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -19158,8 +20251,11 @@
       <c r="L133" s="21" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -19193,8 +20289,11 @@
       <c r="L134" s="21" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -19228,8 +20327,11 @@
       <c r="L135" s="21" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -19263,8 +20365,11 @@
       <c r="L136" s="21" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -19298,8 +20403,11 @@
       <c r="L137" s="21" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -19333,8 +20441,11 @@
       <c r="L138" s="21" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138" s="1" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -19368,8 +20479,11 @@
       <c r="L139" s="21" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -19403,8 +20517,11 @@
       <c r="L140" s="21" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -19438,8 +20555,11 @@
       <c r="L141" s="21" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -19473,8 +20593,11 @@
       <c r="L142" s="21" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -19508,8 +20631,11 @@
       <c r="L143" s="21" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -19543,8 +20669,11 @@
       <c r="L144" s="21" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -19578,8 +20707,11 @@
       <c r="L145" s="21" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -19613,12 +20745,15 @@
       <c r="L146" s="21" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D147" s="4"/>
       <c r="I147" s="8"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -19652,8 +20787,11 @@
       <c r="L148" s="21" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -19687,8 +20825,11 @@
       <c r="L149" s="21" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -19722,8 +20863,11 @@
       <c r="L150" s="21" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -19757,8 +20901,11 @@
       <c r="L151" s="21" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -19792,12 +20939,15 @@
       <c r="L152" s="21" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D153" s="4"/>
       <c r="I153" s="8"/>
     </row>
-    <row r="154" spans="1:12" ht="19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>7</v>
       </c>
@@ -19828,12 +20978,15 @@
       <c r="L154" s="21" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D155" s="4"/>
       <c r="I155" s="8"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -19867,12 +21020,15 @@
       <c r="L156" s="20" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156" s="22" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D157" s="4"/>
       <c r="I157" s="8"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>47</v>
       </c>
@@ -19903,8 +21059,11 @@
       <c r="L158" s="21" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" ht="19" x14ac:dyDescent="0.3">
+      <c r="M158" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="19" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>47</v>
       </c>
@@ -19935,8 +21094,11 @@
       <c r="L159" s="20" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" ht="19" x14ac:dyDescent="0.3">
+      <c r="M159" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="19" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>47</v>
       </c>
@@ -19967,12 +21129,15 @@
       <c r="L160" s="20" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M160" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D161" s="4"/>
       <c r="I161" s="8"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>47</v>
       </c>
@@ -20006,8 +21171,11 @@
       <c r="L162" s="1" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M162" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>47</v>
       </c>
@@ -20041,8 +21209,11 @@
       <c r="L163" s="1" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>47</v>
       </c>
@@ -20076,8 +21247,11 @@
       <c r="L164" s="1" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M164" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>47</v>
       </c>
@@ -20111,8 +21285,11 @@
       <c r="L165" s="1" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M165" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -20146,8 +21323,11 @@
       <c r="L166" s="1" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M166" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>47</v>
       </c>
@@ -20181,8 +21361,11 @@
       <c r="L167" s="1" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M167" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>47</v>
       </c>
@@ -20216,8 +21399,11 @@
       <c r="L168" s="1" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M168" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>47</v>
       </c>
@@ -20251,8 +21437,11 @@
       <c r="L169" s="1" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>47</v>
       </c>
@@ -20286,8 +21475,11 @@
       <c r="L170" s="1" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170" s="1" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>47</v>
       </c>
@@ -20321,8 +21513,11 @@
       <c r="L171" s="1" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>47</v>
       </c>
@@ -20356,8 +21551,11 @@
       <c r="L172" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M172" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>47</v>
       </c>
@@ -20391,8 +21589,11 @@
       <c r="L173" s="1" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" ht="19" x14ac:dyDescent="0.3">
+      <c r="M173" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="19" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>47</v>
       </c>
@@ -20426,8 +21627,11 @@
       <c r="L174" s="1" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174" s="1" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>47</v>
       </c>
@@ -20461,8 +21665,11 @@
       <c r="L175" s="1" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M175" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>47</v>
       </c>
@@ -20496,12 +21703,15 @@
       <c r="L176" s="1" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M176" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D177" s="4"/>
       <c r="I177" s="8"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>53</v>
       </c>
@@ -20532,24 +21742,29 @@
       <c r="L178" s="21" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M178" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E179" s="13"/>
       <c r="H179" s="14"/>
       <c r="I179" s="16"/>
       <c r="J179" s="14"/>
       <c r="K179" s="21"/>
       <c r="L179" s="21"/>
-    </row>
-    <row r="180" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M179" s="14"/>
+    </row>
+    <row r="180" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E180" s="13"/>
       <c r="H180" s="14"/>
       <c r="I180" s="16"/>
       <c r="J180" s="14"/>
       <c r="K180" s="21"/>
       <c r="L180" s="21"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M180" s="14"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -20583,8 +21798,11 @@
       <c r="L181" s="18" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M181" s="18" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -20618,8 +21836,11 @@
       <c r="L182" s="18" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M182" s="18" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -20653,8 +21874,11 @@
       <c r="L183" s="18" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M183" s="18" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -20688,8 +21912,11 @@
       <c r="L184" s="18" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M184" s="18" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -20723,8 +21950,11 @@
       <c r="L185" s="18" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M185" s="18" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -20758,8 +21988,11 @@
       <c r="L186" s="18" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M186" s="18" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -20793,8 +22026,11 @@
       <c r="L187" s="18" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M187" s="18" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -20828,8 +22064,11 @@
       <c r="L188" s="18" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M188" s="18" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -20863,8 +22102,11 @@
       <c r="L189" s="18" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M189" s="18" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C190" s="8"/>
       <c r="D190" s="15"/>
       <c r="E190"/>
@@ -20872,8 +22114,9 @@
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
       <c r="J190" s="18"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190" s="18"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -20907,8 +22150,11 @@
       <c r="L191" s="1" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -20942,8 +22188,11 @@
       <c r="L192" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -20977,8 +22226,11 @@
       <c r="L193" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -21012,8 +22264,11 @@
       <c r="L194" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -21047,8 +22302,11 @@
       <c r="L195" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -21082,8 +22340,11 @@
       <c r="L196" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -21117,8 +22378,11 @@
       <c r="L197" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -21152,8 +22416,11 @@
       <c r="L198" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M198" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -21187,14 +22454,17 @@
       <c r="L199" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M199" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C200" s="8"/>
       <c r="D200" s="15"/>
       <c r="E200"/>
       <c r="I200" s="8"/>
     </row>
-    <row r="201" spans="1:12" ht="19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="19" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
         <v>7</v>
       </c>
@@ -21225,14 +22495,17 @@
       <c r="L201" s="21" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="D202" s="5"/>
       <c r="I202" s="8"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -21266,12 +22539,15 @@
       <c r="L203" s="20" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203" s="22" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D204" s="5"/>
       <c r="I204" s="8"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>47</v>
       </c>
@@ -21302,8 +22578,11 @@
       <c r="L205" s="20" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" ht="19" x14ac:dyDescent="0.3">
+      <c r="M205" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" ht="19" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>47</v>
       </c>
@@ -21334,8 +22613,11 @@
       <c r="L206" s="21" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" ht="19" x14ac:dyDescent="0.3">
+      <c r="M206" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" ht="19" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>47</v>
       </c>
@@ -21366,8 +22648,11 @@
       <c r="L207" s="21" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>47</v>
       </c>
@@ -21398,12 +22683,15 @@
       <c r="L208" s="21" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D209" s="5"/>
       <c r="I209" s="8"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>53</v>
       </c>
@@ -21434,8 +22722,11 @@
       <c r="L210" s="21" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>53</v>
       </c>
@@ -21466,8 +22757,11 @@
       <c r="L211" s="21" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>53</v>
       </c>
@@ -21498,8 +22792,11 @@
       <c r="L212" s="21" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>53</v>
       </c>
@@ -21530,8 +22827,11 @@
       <c r="L213" s="21" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>53</v>
       </c>
@@ -21562,8 +22862,11 @@
       <c r="L214" s="21" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>53</v>
       </c>
@@ -21594,8 +22897,11 @@
       <c r="L215" s="21" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M215" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>53</v>
       </c>
@@ -21626,8 +22932,11 @@
       <c r="L216" s="21" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M216" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>53</v>
       </c>
@@ -21658,8 +22967,11 @@
       <c r="L217" s="21" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M217" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -21690,8 +23002,11 @@
       <c r="L218" s="21" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>53</v>
       </c>
@@ -21722,24 +23037,29 @@
       <c r="L219" s="21" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M219" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E220" s="13"/>
       <c r="H220" s="14"/>
       <c r="I220" s="16"/>
       <c r="J220" s="14"/>
       <c r="K220" s="21"/>
       <c r="L220" s="21"/>
-    </row>
-    <row r="221" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M220" s="14"/>
+    </row>
+    <row r="221" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E221" s="13"/>
       <c r="H221" s="14"/>
       <c r="I221" s="16"/>
       <c r="J221" s="14"/>
       <c r="K221" s="21"/>
       <c r="L221" s="21"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221" s="14"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -21773,8 +23093,11 @@
       <c r="L222" s="21" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -21808,8 +23131,11 @@
       <c r="L223" s="21" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -21843,8 +23169,11 @@
       <c r="L224" s="21" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -21878,8 +23207,11 @@
       <c r="L225" s="21" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M225" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -21913,12 +23245,15 @@
       <c r="L226" s="21" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M226" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D227" s="6"/>
       <c r="I227" s="8"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -21952,8 +23287,11 @@
       <c r="L228" s="21" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M228" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -21987,8 +23325,11 @@
       <c r="L229" s="21" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M229" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x